--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E06D096-9189-4A4A-AF89-EE8A92258135}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856CD7EA-7E4E-4A73-9220-42E7930E8383}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019年" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +508,72 @@
 黄金：4647.49
 股票：253011.81
 总计：281150.98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/04</t>
+  </si>
+  <si>
+    <t>2020/04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：6214.7
+其他：89
+总计：6303.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：6214.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/03</t>
+  </si>
+  <si>
+    <t>2019/04</t>
+  </si>
+  <si>
+    <t>2019/05</t>
+  </si>
+  <si>
+    <t>2019/06</t>
+  </si>
+  <si>
+    <t>2019/07</t>
+  </si>
+  <si>
+    <t>2019/08</t>
+  </si>
+  <si>
+    <t>2019/09</t>
+  </si>
+  <si>
+    <t>2019/10</t>
+  </si>
+  <si>
+    <t>2019/11</t>
+  </si>
+  <si>
+    <t>2019/12</t>
+  </si>
+  <si>
+    <t>2020/03</t>
+  </si>
+  <si>
+    <t>指数基金：14222.96
+货币基金：13952.84
+黄金：2252.86
+股票：287422.04
+总计：317850.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资：12458.24
+公积金提取：1500
+房租补贴：648
+其他：3000
+总计：17606.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,7 +659,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,65 +753,67 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>43466</c:v>
+                  <c:v>2019/01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43497</c:v>
+                  <c:v>2019/02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43525</c:v>
+                  <c:v>2019/03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43556</c:v>
+                  <c:v>2019/04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43586</c:v>
+                  <c:v>2019/05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43617</c:v>
+                  <c:v>2019/06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43647</c:v>
+                  <c:v>2019/07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43678</c:v>
+                  <c:v>2019/08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43709</c:v>
+                  <c:v>2019/09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43739</c:v>
+                  <c:v>2019/10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43770</c:v>
+                  <c:v>2019/11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43800</c:v>
+                  <c:v>2019/12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43831</c:v>
+                  <c:v>2020/01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43862</c:v>
+                  <c:v>2020/02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2020/03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020/04</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -791,6 +858,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>281150.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>317850.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,14 +884,14 @@
         <c:axId val="518854783"/>
         <c:axId val="464785039"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="518854783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -861,9 +931,10 @@
         <c:crossAx val="464785039"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="464785039"/>
         <c:scaling>
@@ -1525,16 +1596,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2117,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9ED400-C808-44AA-A173-4C0908C000D3}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2213,6 +2284,26 @@
         <v>15642.31</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="6">
+        <v>11302.54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2222,20 +2313,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154061CE-E09C-401A-BA5D-A9B8D00C57B1}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B1" t="s">
@@ -2243,56 +2334,56 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>43466</v>
+      <c r="A2" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="3">
         <v>96624.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>43497</v>
+      <c r="A3" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="3">
         <v>108954.76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>43525</v>
+      <c r="A4" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B4" s="3">
         <v>161964.93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>43556</v>
+      <c r="A5" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B5" s="3">
         <v>160256.39000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>43586</v>
+      <c r="A6" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="3">
         <v>154938.66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>43617</v>
+      <c r="A7" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B7" s="3">
         <v>170416.48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>43647</v>
+      <c r="A8" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B8" s="3">
         <v>162087</v>
@@ -2300,8 +2391,8 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>43678</v>
+      <c r="A9" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="B9" s="3">
         <v>184649.52</v>
@@ -2309,16 +2400,16 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>43709</v>
+      <c r="A10" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B10" s="3">
         <v>192824.2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>43739</v>
+      <c r="A11" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="3">
         <v>207882.92</v>
@@ -2326,24 +2417,24 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>43770</v>
+      <c r="A12" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="B12" s="3">
         <v>205734.57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>43800</v>
+      <c r="A13" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B13" s="3">
         <v>267359.21999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>43831</v>
+      <c r="A14" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B14" s="3">
         <v>265255.3</v>
@@ -2351,24 +2442,33 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>43862</v>
+      <c r="A15" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B15" s="3">
         <v>283528.34000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>43891</v>
+      <c r="A16" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B16" s="3">
         <v>281150.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="3">
+        <v>317850.7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856CD7EA-7E4E-4A73-9220-42E7930E8383}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0092433C-EA86-48BD-B26B-7C60598266EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‭8485.06‬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,11 +577,53 @@
 总计：17606.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2020/05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资：12434.95
+公积金提取：1500
+房租补贴：648
+其他：75
+总计：14657.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：3004.41
+房租：5190
+水电：277
+其他：573
+总计：9044.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：3004.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数基金：18253.05
+货币基金：16678.45
+黄金：1598.05
+股票：312091.25
+总计：348620.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/05</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,6 +702,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -754,9 +807,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -804,16 +857,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2020/04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020/05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>0.00;[Red]0.00</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -861,6 +917,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>317850.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>348620.79999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -956,7 +1015,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00;[Red]0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1896,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1910,10 +1969,11 @@
     <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="15.625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1932,8 +1992,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -1952,8 +2015,12 @@
       <c r="F2" s="1">
         <v>855.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="9">
+        <f>F2+F3+F4+F5+F6+F7+F8+F9+F10+F11+F12+F13</f>
+        <v>145571.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1973,7 +2040,7 @@
         <v>-2438.6799999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1993,7 +2060,7 @@
         <v>51716.39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -2013,7 +2080,7 @@
         <v>4728.51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -2033,7 +2100,7 @@
         <v>844.37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -2044,7 +2111,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -2053,7 +2120,7 @@
         <v>7699.11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
@@ -2073,7 +2140,7 @@
         <v>6327.99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -2084,7 +2151,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>40</v>
@@ -2093,7 +2160,7 @@
         <v>13527.33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -2113,7 +2180,7 @@
         <v>9303.2000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -2133,7 +2200,7 @@
         <v>4921.41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
@@ -2153,7 +2220,7 @@
         <v>2606.08</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
@@ -2173,7 +2240,7 @@
         <v>45480.74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2188,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9ED400-C808-44AA-A173-4C0908C000D3}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F6" activeCellId="1" sqref="J3 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2201,10 +2268,11 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -2220,11 +2288,14 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -2240,68 +2311,93 @@
       <c r="E2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9">
+        <v>8485.06</v>
+      </c>
+      <c r="G2" s="10">
+        <f>F2+F3+F4+F5+F6</f>
+        <v>45070.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>4027.22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>15642.31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="9">
+        <v>11302.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="6">
-        <v>11302.54</v>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5613.54</v>
       </c>
     </row>
   </sheetData>
@@ -2313,156 +2409,164 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154061CE-E09C-401A-BA5D-A9B8D00C57B1}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="11">
         <v>96624.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="11">
         <v>108954.76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="11">
+        <v>161964.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="3">
-        <v>161964.93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="11">
+        <v>160256.39000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="3">
-        <v>160256.39000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="11">
+        <v>154938.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="3">
-        <v>154938.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="11">
+        <v>170416.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="3">
-        <v>170416.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="11">
+        <v>162087</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="3">
-        <v>162087</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="11">
+        <v>184649.52</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="3">
-        <v>184649.52</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="11">
+        <v>192824.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="3">
-        <v>192824.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="11">
+        <v>207882.92</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="3">
-        <v>207882.92</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="11">
+        <v>205734.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="3">
-        <v>205734.57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="11">
+        <v>267359.21999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="11">
+        <v>265255.3</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="11">
+        <v>283528.34000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="3">
-        <v>267359.21999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="3">
-        <v>265255.3</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="3">
-        <v>283528.34000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="B16" s="11">
         <v>281150.98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="11">
         <v>317850.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="9">
+        <v>348620.79999999999</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0092433C-EA86-48BD-B26B-7C60598266EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC92A38-262F-4018-9CE4-80C71A67C06F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019年" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,13 +616,45 @@
   <si>
     <t>2020/05</t>
   </si>
+  <si>
+    <t>2020/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：9534.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资：12634.95
+房租补贴：648
+其他：4000
+总计：17282.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：9534.9
+其他：217
+总计：9751.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数基金：23645.57
+货币基金：21344.31
+黄金：859.81
+股票：358454.98
+总计：404304.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/06</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -702,14 +734,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,9 +839,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -860,16 +892,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2020/05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020/06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00;[Red]0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -920,6 +955,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>348620.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>404304.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2255,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9ED400-C808-44AA-A173-4C0908C000D3}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" activeCellId="1" sqref="J3 F6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2315,8 +2353,8 @@
         <v>8485.06</v>
       </c>
       <c r="G2" s="10">
-        <f>F2+F3+F4+F5+F6</f>
-        <v>45070.67</v>
+        <f>F2+F3+F4+F5+F6+F7</f>
+        <v>52818.720000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
@@ -2398,6 +2436,26 @@
       </c>
       <c r="F6" s="9">
         <v>5613.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="9">
+        <v>7748.05</v>
       </c>
     </row>
   </sheetData>
@@ -2409,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154061CE-E09C-401A-BA5D-A9B8D00C57B1}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2569,6 +2627,14 @@
         <v>348620.79999999999</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="9">
+        <v>404304.67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC92A38-262F-4018-9CE4-80C71A67C06F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504AA41D-41D4-4BE0-A9E1-B88EC973E5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019年" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,13 +649,48 @@
   <si>
     <t>2020/06</t>
   </si>
+  <si>
+    <t>2020/07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：10480.42
+其他：888.88
+购车款：98800
+购置税：8477.88
+总计：118647.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资：11501.73
+外快：407
+房租补贴：648
+报销款：1803.10
+其他：19.94
+借款：70000
+总计：84379.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：10480.42
+借款：70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数基金：19546.21
+货币基金：7678.26
+股票：369739.11
+总计：396963.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -713,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,6 +780,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -839,9 +882,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -895,16 +938,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2020/06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020/07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00;[Red]0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -958,6 +1004,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>404304.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>396963.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9ED400-C808-44AA-A173-4C0908C000D3}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2306,7 +2355,7 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="14" customWidth="1"/>
     <col min="7" max="7" width="18.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2326,7 +2375,7 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -2349,12 +2398,12 @@
       <c r="E2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="13">
         <v>8485.06</v>
       </c>
       <c r="G2" s="10">
-        <f>F2+F3+F4+F5+F6+F7</f>
-        <v>52818.720000000001</v>
+        <f>F2+F3+F4+F5+F6+F7+F8</f>
+        <v>18551.309999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
@@ -2373,7 +2422,7 @@
       <c r="E3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="13">
         <v>4027.22</v>
       </c>
       <c r="J3" s="9"/>
@@ -2394,7 +2443,7 @@
       <c r="E4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="13">
         <v>15642.31</v>
       </c>
     </row>
@@ -2414,7 +2463,7 @@
       <c r="E5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>11302.54</v>
       </c>
     </row>
@@ -2434,7 +2483,7 @@
       <c r="E6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="13">
         <v>5613.54</v>
       </c>
     </row>
@@ -2454,8 +2503,28 @@
       <c r="E7" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="13">
         <v>7748.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="13">
+        <v>-34267.410000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2467,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154061CE-E09C-401A-BA5D-A9B8D00C57B1}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2635,6 +2704,14 @@
         <v>404304.67</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="9">
+        <v>396963.58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504AA41D-41D4-4BE0-A9E1-B88EC973E5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97DA12-C768-486B-AD12-961F11AF083D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019年" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +681,39 @@
 货币基金：7678.26
 股票：369739.11
 总计：396963.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资：10823.46
+退款：5346
+房租补贴：648
+外快：911.2
+总计：17728.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：6134.28
+份子钱：800
+其他：40
+总计：6974.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单：6134.28
+借款：70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数基金：19342.56
+货币基金：9513.39
+股票：354784.18
+定期：4009.06
+黄金：2106.76
+总计：389755.95</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,9 +915,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -941,16 +974,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2020/07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020/08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00;[Red]0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -1007,6 +1043,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>396963.58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>389755.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2342,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9ED400-C808-44AA-A173-4C0908C000D3}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2402,8 +2441,8 @@
         <v>8485.06</v>
       </c>
       <c r="G2" s="10">
-        <f>F2+F3+F4+F5+F6+F7+F8</f>
-        <v>18551.309999999998</v>
+        <f>F2+F3+F4+F5+F6+F7+F8+F9</f>
+        <v>29305.689999999995</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
@@ -2525,6 +2564,26 @@
       </c>
       <c r="F8" s="13">
         <v>-34267.410000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="13">
+        <v>10754.38</v>
       </c>
     </row>
   </sheetData>
@@ -2536,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154061CE-E09C-401A-BA5D-A9B8D00C57B1}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2712,6 +2771,14 @@
         <v>396963.58</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="9">
+        <v>389755.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656DE42-90F5-415B-9496-12F3F64EBF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F50125-7418-49E9-A6B0-CE8A524D6041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="现金流量及资产负债表" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$Y$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$Z$1)</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2020/01</c:v>
                 </c:pt>
@@ -486,16 +486,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2020/09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$Y$23)</c:f>
+              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$Z$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>265255.3</c:v>
                 </c:pt>
@@ -522,6 +525,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>382849.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>399632.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,9 +579,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$Y$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$Z$1)</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2020/01</c:v>
                 </c:pt>
@@ -602,16 +608,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2020/09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$Y$25)</c:f>
+              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$Z$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>165255.29999999999</c:v>
                 </c:pt>
@@ -638,6 +647,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>212849.72999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229632.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML25"/>
+  <dimension ref="A1:AMM25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D1:P1048576"/>
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1187,13 +1199,13 @@
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="15" width="10.5" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="14.25" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="25" width="10.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.75" style="2" customWidth="1"/>
-    <col min="27" max="70" width="10.5" style="2" customWidth="1"/>
-    <col min="71" max="1026" width="10.5" style="1" customWidth="1"/>
+    <col min="17" max="26" width="10.5" style="2" customWidth="1"/>
+    <col min="27" max="27" width="12.75" style="2" customWidth="1"/>
+    <col min="28" max="71" width="10.5" style="2" customWidth="1"/>
+    <col min="72" max="1027" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1265,11 +1277,14 @@
       <c r="Y1" s="7">
         <v>44075</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="7">
+        <v>44105</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
@@ -1346,12 +1361,15 @@
       <c r="Y2" s="3">
         <v>0</v>
       </c>
-      <c r="Z2" s="2">
-        <f t="shared" ref="Z2:Z16" si="1">SUM(Q2:Y2)</f>
-        <v>96954.489999999991</v>
+      <c r="Z2" s="3">
+        <v>7099.86</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>SUM(Q2:Z2)</f>
+        <v>104054.34999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
@@ -1424,12 +1442,15 @@
       <c r="Y3" s="3">
         <v>316.60000000000002</v>
       </c>
-      <c r="Z3" s="2">
-        <f t="shared" si="1"/>
-        <v>1634.8000000000002</v>
+      <c r="Z3" s="3">
+        <v>121.4</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>SUM(Q3:Z3)</f>
+        <v>1756.2000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
@@ -1502,12 +1523,15 @@
       <c r="Y4" s="3">
         <v>15.33</v>
       </c>
-      <c r="Z4" s="2">
-        <f t="shared" si="1"/>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>SUM(Q4:Z4)</f>
         <v>14355.26</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
@@ -1581,11 +1605,14 @@
         <v>0</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" ref="AA5:AA16" si="1">SUM(Q5:Z5)</f>
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="4" t="s">
@@ -1659,11 +1686,14 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
         <f t="shared" si="1"/>
         <v>1803.1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
@@ -1736,12 +1766,15 @@
       <c r="Y7" s="3">
         <v>648</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
         <f t="shared" si="1"/>
         <v>5832</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
@@ -1815,11 +1848,14 @@
         <v>0</v>
       </c>
       <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
         <f t="shared" si="1"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
@@ -1878,7 +1914,7 @@
         <v>201953.94999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ref="Q9:Y9" si="3">SUM(Q2:Q8)</f>
+        <f t="shared" ref="Q9:Z9" si="3">SUM(Q2:Q8)</f>
         <v>12997.3</v>
       </c>
       <c r="R9" s="2">
@@ -1914,12 +1950,16 @@
         <v>979.93000000000006</v>
       </c>
       <c r="Z9" s="2">
+        <f t="shared" si="3"/>
+        <v>7221.2599999999993</v>
+      </c>
+      <c r="AA9" s="2">
         <f t="shared" si="1"/>
-        <v>201579.65</v>
-      </c>
-      <c r="AB9" s="3"/>
+        <v>208800.91</v>
+      </c>
+      <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>33</v>
@@ -1994,13 +2034,16 @@
       <c r="Y10" s="3">
         <v>5677.38</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="3">
+        <v>2489.12</v>
+      </c>
+      <c r="AA10" s="2">
         <f t="shared" si="1"/>
-        <v>48909.249999999993</v>
-      </c>
-      <c r="AB10" s="3"/>
+        <v>51398.369999999995</v>
+      </c>
+      <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
@@ -2074,12 +2117,15 @@
         <v>0</v>
       </c>
       <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
         <f t="shared" si="1"/>
         <v>12357</v>
       </c>
-      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
@@ -2153,11 +2199,14 @@
         <v>819.5</v>
       </c>
       <c r="Z12" s="2">
+        <v>30.93</v>
+      </c>
+      <c r="AA12" s="2">
         <f t="shared" si="1"/>
-        <v>112196.36</v>
+        <v>112227.29</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
@@ -2231,11 +2280,14 @@
         <v>0</v>
       </c>
       <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
@@ -2309,11 +2361,14 @@
         <v>0</v>
       </c>
       <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
@@ -2372,7 +2427,7 @@
         <v>56382.689999999995</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15:Y15" si="5">SUM(Q10:Q14)</f>
+        <f t="shared" ref="Q15:Z15" si="5">SUM(Q10:Q14)</f>
         <v>4966.9399999999996</v>
       </c>
       <c r="R15" s="2">
@@ -2408,11 +2463,15 @@
         <v>6496.88</v>
       </c>
       <c r="Z15" s="2">
+        <f t="shared" si="5"/>
+        <v>2520.0499999999997</v>
+      </c>
+      <c r="AA15" s="2">
         <f t="shared" si="1"/>
-        <v>178462.61</v>
+        <v>180982.65999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>39</v>
@@ -2471,7 +2530,7 @@
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:Y16" si="7">Q9-Q15</f>
+        <f t="shared" ref="Q16:Z16" si="7">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
@@ -2507,11 +2566,15 @@
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
+        <f t="shared" si="7"/>
+        <v>4701.2099999999991</v>
+      </c>
+      <c r="AA16" s="2">
         <f t="shared" si="1"/>
-        <v>23117.040000000008</v>
+        <v>27818.250000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -2585,8 +2648,11 @@
       <c r="Y17" s="3">
         <v>8015.72</v>
       </c>
+      <c r="Z17" s="3">
+        <v>8114.54</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
@@ -2656,8 +2722,11 @@
       <c r="Y18" s="3">
         <v>13126.19</v>
       </c>
+      <c r="Z18" s="3">
+        <v>570.70000000000005</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
@@ -2727,8 +2796,11 @@
       <c r="Y19" s="3">
         <v>6015.57</v>
       </c>
+      <c r="Z19" s="3">
+        <v>16029.84</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4" t="s">
@@ -2798,8 +2870,11 @@
       <c r="Y20" s="3">
         <v>2786.56</v>
       </c>
+      <c r="Z20" s="3">
+        <v>3531.46</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="4" t="s">
@@ -2869,8 +2944,11 @@
       <c r="Y21" s="2">
         <v>0</v>
       </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
@@ -2940,8 +3018,11 @@
       <c r="Y22" s="3">
         <v>352905.69</v>
       </c>
+      <c r="Z22" s="3">
+        <v>371385.53</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="4" t="s">
@@ -2996,7 +3077,7 @@
         <v>267359.22000000003</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" ref="Q23:Y23" si="9">SUM(Q17:Q22)</f>
+        <f t="shared" ref="Q23:Z23" si="9">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
       <c r="R23" s="2">
@@ -3031,8 +3112,12 @@
         <f t="shared" si="9"/>
         <v>382849.73</v>
       </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="9"/>
+        <v>399632.07</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="4" t="s">
         <v>48</v>
@@ -3123,8 +3208,12 @@
         <f>X24+Y8-Y14</f>
         <v>170000</v>
       </c>
+      <c r="Z24" s="2">
+        <f>Y24+Z8-Z14</f>
+        <v>170000</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>50</v>
@@ -3179,7 +3268,7 @@
         <v>167359.22000000003</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" ref="Q25:Y25" si="13">Q23-Q24</f>
+        <f t="shared" ref="Q25:Z25" si="13">Q23-Q24</f>
         <v>165255.29999999999</v>
       </c>
       <c r="R25" s="2">
@@ -3213,6 +3302,10 @@
       <c r="Y25" s="2">
         <f t="shared" si="13"/>
         <v>212849.72999999998</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="13"/>
+        <v>229632.07</v>
       </c>
     </row>
   </sheetData>
@@ -3233,6 +3326,10 @@
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="Y9:Z9" formulaRange="1"/>
+    <ignoredError sqref="P16" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F50125-7418-49E9-A6B0-CE8A524D6041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45513DE-EF88-45EB-8012-19F23436BAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,9 +457,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$Z$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AA$1)</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2020/01</c:v>
                 </c:pt>
@@ -489,16 +489,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2020/10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020/11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$Z$23)</c:f>
+              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AA$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>265255.3</c:v>
                 </c:pt>
@@ -528,6 +531,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>399632.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>402783.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,9 +585,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$Z$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AA$1)</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2020/01</c:v>
                 </c:pt>
@@ -611,16 +617,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2020/10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020/11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$Z$25)</c:f>
+              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AA$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>165255.29999999999</c:v>
                 </c:pt>
@@ -650,6 +659,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>229632.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>246783.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM25"/>
+  <dimension ref="A1:AMN25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+      <selection activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1199,13 +1211,13 @@
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="15" width="10.5" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="14.25" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="26" width="10.5" style="2" customWidth="1"/>
-    <col min="27" max="27" width="12.75" style="2" customWidth="1"/>
-    <col min="28" max="71" width="10.5" style="2" customWidth="1"/>
-    <col min="72" max="1027" width="10.5" style="1" customWidth="1"/>
+    <col min="17" max="27" width="10.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="12.75" style="2" customWidth="1"/>
+    <col min="29" max="72" width="10.5" style="2" customWidth="1"/>
+    <col min="73" max="1028" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1280,11 +1292,14 @@
       <c r="Z1" s="7">
         <v>44105</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7">
+        <v>44136</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
@@ -1364,12 +1379,15 @@
       <c r="Z2" s="3">
         <v>7099.86</v>
       </c>
-      <c r="AA2" s="2">
-        <f>SUM(Q2:Z2)</f>
-        <v>104054.34999999999</v>
+      <c r="AA2" s="3">
+        <v>7875.71</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>SUM(Q2:AA2)</f>
+        <v>111930.06</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
@@ -1445,12 +1463,15 @@
       <c r="Z3" s="3">
         <v>121.4</v>
       </c>
-      <c r="AA3" s="2">
-        <f>SUM(Q3:Z3)</f>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <f>SUM(Q3:AA3)</f>
         <v>1756.2000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
@@ -1526,12 +1547,15 @@
       <c r="Z4" s="3">
         <v>0</v>
       </c>
-      <c r="AA4" s="2">
-        <f>SUM(Q4:Z4)</f>
-        <v>14355.26</v>
+      <c r="AA4" s="3">
+        <v>127.4</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>SUM(Q4:AA4)</f>
+        <v>14482.66</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
@@ -1608,11 +1632,14 @@
         <v>0</v>
       </c>
       <c r="AA5" s="2">
-        <f t="shared" ref="AA5:AA16" si="1">SUM(Q5:Z5)</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <f>SUM(Q5:AA5)</f>
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="4" t="s">
@@ -1689,11 +1716,14 @@
         <v>0</v>
       </c>
       <c r="AA6" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <f>SUM(Q6:AA6)</f>
         <v>1803.1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
@@ -1769,12 +1799,15 @@
       <c r="Z7" s="3">
         <v>0</v>
       </c>
-      <c r="AA7" s="2">
-        <f t="shared" si="1"/>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <f>SUM(Q7:AA7)</f>
         <v>5832</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
@@ -1851,62 +1884,65 @@
         <v>0</v>
       </c>
       <c r="AA8" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <f>SUM(Q8:AA8)</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:O9" si="2">SUM(D2:D8)</f>
+        <f t="shared" ref="D9:O9" si="1">SUM(D2:D8)</f>
         <v>7753.33</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7414.05</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57400</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7478.26</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7954</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11010.48</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8047.85</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19936.440000000002</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10479.08</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8920.8499999999985</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8011.24</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47548.37</v>
       </c>
       <c r="P9" s="3">
@@ -1914,52 +1950,56 @@
         <v>201953.94999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ref="Q9:Z9" si="3">SUM(Q2:Q8)</f>
+        <f t="shared" ref="Q9:AA9" si="2">SUM(Q2:Q8)</f>
         <v>12997.3</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12359.99</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23586.86</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17606.239999999998</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14657.95</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17282.95</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>84379.77</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17728.66</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>979.93000000000006</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7221.2599999999993</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="1"/>
-        <v>208800.91</v>
-      </c>
-      <c r="AC9" s="3"/>
+        <f>SUM(AA2:AA8)</f>
+        <v>8003.11</v>
+      </c>
+      <c r="AB9" s="2">
+        <f>SUM(Q9:AA9)</f>
+        <v>216804.02</v>
+      </c>
+      <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>33</v>
@@ -2037,13 +2077,16 @@
       <c r="Z10" s="3">
         <v>2489.12</v>
       </c>
-      <c r="AA10" s="2">
-        <f t="shared" si="1"/>
-        <v>51398.369999999995</v>
-      </c>
-      <c r="AC10" s="3"/>
+      <c r="AA10" s="3">
+        <v>2616.23</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>SUM(Q10:AA10)</f>
+        <v>54014.6</v>
+      </c>
+      <c r="AD10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
@@ -2120,12 +2163,15 @@
         <v>0</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <f>SUM(Q11:AA11)</f>
         <v>12357</v>
       </c>
-      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
@@ -2202,11 +2248,14 @@
         <v>30.93</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="1"/>
-        <v>112227.29</v>
+        <v>118.42</v>
+      </c>
+      <c r="AB12" s="2">
+        <f>SUM(Q12:AA12)</f>
+        <v>112345.70999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
@@ -2283,11 +2332,14 @@
         <v>0</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <f>SUM(Q13:AA13)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
@@ -2364,62 +2416,65 @@
         <v>0</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14000</v>
+      </c>
+      <c r="AB14" s="2">
+        <f>SUM(Q14:AA14)</f>
+        <v>14000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:O15" si="4">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:O15" si="3">SUM(D10:D14)</f>
         <v>6898.55</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9852.73</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5683.6100000000006</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2749.75</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7109.6299999999992</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3311.37</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1719.86</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6409.11</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1175.8800000000001</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3999.41</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5405.16</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2067.63</v>
       </c>
       <c r="P15" s="3">
@@ -2427,102 +2482,106 @@
         <v>56382.689999999995</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15:Z15" si="5">SUM(Q10:Q14)</f>
+        <f t="shared" ref="Q15:Z15" si="4">SUM(Q10:Q14)</f>
         <v>4966.9399999999996</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8332.77</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7944.55</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6303.7</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9044.41</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9751.9</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>118647.18</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6974.28</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6496.88</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2520.0499999999997</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="1"/>
-        <v>180982.65999999997</v>
+        <f>SUM(AA10:AA14)</f>
+        <v>16734.650000000001</v>
+      </c>
+      <c r="AB15" s="2">
+        <f>SUM(Q15:AA15)</f>
+        <v>197717.30999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:O16" si="6">D9-D15</f>
+        <f t="shared" ref="D16:O16" si="5">D9-D15</f>
         <v>854.77999999999975</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-2438.6799999999994</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>51716.39</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4728.51</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>844.3700000000008</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7699.11</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>6327.9900000000007</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>13527.330000000002</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9303.2000000000007</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>45480.740000000005</v>
       </c>
       <c r="P16" s="3">
@@ -2530,51 +2589,55 @@
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:Z16" si="7">Q9-Q15</f>
+        <f t="shared" ref="Q16:AA16" si="6">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15642.310000000001</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11302.539999999997</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="1"/>
-        <v>27818.250000000007</v>
+        <f t="shared" si="6"/>
+        <v>-8731.5400000000009</v>
+      </c>
+      <c r="AB16" s="2">
+        <f>SUM(Q16:AA16)</f>
+        <v>19086.710000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -2651,8 +2714,11 @@
       <c r="Z17" s="3">
         <v>8114.54</v>
       </c>
+      <c r="AA17" s="3">
+        <v>8847.98</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
@@ -2725,8 +2791,11 @@
       <c r="Z18" s="3">
         <v>570.70000000000005</v>
       </c>
+      <c r="AA18" s="3">
+        <v>6710.55</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
@@ -2799,8 +2868,11 @@
       <c r="Z19" s="3">
         <v>16029.84</v>
       </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4" t="s">
@@ -2873,8 +2945,11 @@
       <c r="Z20" s="3">
         <v>3531.46</v>
       </c>
+      <c r="AA20" s="3">
+        <v>4313.3599999999997</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="4" t="s">
@@ -2947,8 +3022,11 @@
       <c r="Z21" s="2">
         <v>0</v>
       </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
@@ -3021,103 +3099,110 @@
       <c r="Z22" s="3">
         <v>371385.53</v>
       </c>
+      <c r="AA22" s="3">
+        <v>382911.99</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:O23" si="8">SUM(D17:D22)</f>
+        <f t="shared" ref="D23:O23" si="7">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
       <c r="E23" s="2">
+        <f t="shared" si="7"/>
+        <v>108954.76000000001</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="7"/>
+        <v>161964.93</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="7"/>
+        <v>160256.38999999998</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="7"/>
+        <v>154938.66</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="7"/>
+        <v>170416.47999999998</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="7"/>
+        <v>162087</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="7"/>
+        <v>184649.52000000002</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="7"/>
+        <v>192824.2</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="7"/>
+        <v>207882.92</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="7"/>
+        <v>205734.57</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="7"/>
+        <v>267359.22000000003</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" ref="Q23:Z23" si="8">SUM(Q17:Q22)</f>
+        <v>265255.3</v>
+      </c>
+      <c r="R23" s="2">
         <f t="shared" si="8"/>
-        <v>108954.76000000001</v>
-      </c>
-      <c r="F23" s="2">
+        <v>283528.33999999997</v>
+      </c>
+      <c r="S23" s="2">
         <f t="shared" si="8"/>
-        <v>161964.93</v>
-      </c>
-      <c r="G23" s="2">
+        <v>281150.98</v>
+      </c>
+      <c r="T23" s="2">
         <f t="shared" si="8"/>
-        <v>160256.38999999998</v>
-      </c>
-      <c r="H23" s="2">
+        <v>317850.69999999995</v>
+      </c>
+      <c r="U23" s="2">
         <f t="shared" si="8"/>
-        <v>154938.66</v>
-      </c>
-      <c r="I23" s="2">
+        <v>348620.79999999999</v>
+      </c>
+      <c r="V23" s="2">
         <f t="shared" si="8"/>
-        <v>170416.47999999998</v>
-      </c>
-      <c r="J23" s="2">
+        <v>404304.67</v>
+      </c>
+      <c r="W23" s="2">
         <f t="shared" si="8"/>
-        <v>162087</v>
-      </c>
-      <c r="K23" s="2">
+        <v>396963.57999999996</v>
+      </c>
+      <c r="X23" s="2">
         <f t="shared" si="8"/>
-        <v>184649.52000000002</v>
-      </c>
-      <c r="L23" s="2">
+        <v>389755.95</v>
+      </c>
+      <c r="Y23" s="2">
         <f t="shared" si="8"/>
-        <v>192824.2</v>
-      </c>
-      <c r="M23" s="2">
+        <v>382849.73</v>
+      </c>
+      <c r="Z23" s="2">
         <f t="shared" si="8"/>
-        <v>207882.92</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="8"/>
-        <v>205734.57</v>
-      </c>
-      <c r="O23" s="2">
-        <f t="shared" si="8"/>
-        <v>267359.22000000003</v>
-      </c>
-      <c r="Q23" s="2">
-        <f t="shared" ref="Q23:Z23" si="9">SUM(Q17:Q22)</f>
-        <v>265255.3</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="9"/>
-        <v>283528.33999999997</v>
-      </c>
-      <c r="S23" s="2">
-        <f t="shared" si="9"/>
-        <v>281150.98</v>
-      </c>
-      <c r="T23" s="2">
-        <f t="shared" si="9"/>
-        <v>317850.69999999995</v>
-      </c>
-      <c r="U23" s="2">
-        <f t="shared" si="9"/>
-        <v>348620.79999999999</v>
-      </c>
-      <c r="V23" s="2">
-        <f t="shared" si="9"/>
-        <v>404304.67</v>
-      </c>
-      <c r="W23" s="2">
-        <f t="shared" si="9"/>
-        <v>396963.57999999996</v>
-      </c>
-      <c r="X23" s="2">
-        <f t="shared" si="9"/>
-        <v>389755.95</v>
-      </c>
-      <c r="Y23" s="2">
-        <f t="shared" si="9"/>
-        <v>382849.73</v>
-      </c>
-      <c r="Z23" s="2">
-        <f t="shared" si="9"/>
         <v>399632.07</v>
       </c>
+      <c r="AA23" s="2">
+        <f>SUM(AA17:AA22)</f>
+        <v>402783.88</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="4" t="s">
         <v>48</v>
@@ -3145,31 +3230,31 @@
         <v>99999.999999999985</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:O24" si="10">G24+I8-I14</f>
+        <f t="shared" ref="I24:O24" si="9">G24+I8-I14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>99999.999999999985</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>99999.999999999985</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>99999.999999999985</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>99999.999999999985</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>99999.999999999985</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="2">
@@ -3177,27 +3262,27 @@
         <v>99999.999999999985</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:W24" si="11">Q24+R8-R14</f>
+        <f t="shared" ref="R24:W24" si="10">Q24+R8-R14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>170000</v>
       </c>
       <c r="X24" s="2">
@@ -3212,100 +3297,108 @@
         <f>Y24+Z8-Z14</f>
         <v>170000</v>
       </c>
+      <c r="AA24" s="2">
+        <f>Z24+AA8-AA14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:O25" si="12">D23-D24</f>
+        <f t="shared" ref="D25:O25" si="11">D23-D24</f>
         <v>39892.050000000003</v>
       </c>
       <c r="E25" s="2">
+        <f t="shared" si="11"/>
+        <v>55555.210000000014</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="11"/>
+        <v>61964.930000000008</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="11"/>
+        <v>60256.39</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="11"/>
+        <v>54938.660000000018</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="11"/>
+        <v>70416.479999999996</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="11"/>
+        <v>62087.000000000015</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="11"/>
+        <v>84649.520000000033</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="11"/>
+        <v>92824.200000000026</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="11"/>
+        <v>107882.92000000003</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="11"/>
+        <v>105734.57000000002</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="11"/>
+        <v>167359.22000000003</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" ref="Q25:AA25" si="12">Q23-Q24</f>
+        <v>165255.29999999999</v>
+      </c>
+      <c r="R25" s="2">
         <f t="shared" si="12"/>
-        <v>55555.210000000014</v>
-      </c>
-      <c r="F25" s="2">
+        <v>183528.33999999997</v>
+      </c>
+      <c r="S25" s="2">
         <f t="shared" si="12"/>
-        <v>61964.930000000008</v>
-      </c>
-      <c r="G25" s="2">
+        <v>181150.97999999998</v>
+      </c>
+      <c r="T25" s="2">
         <f t="shared" si="12"/>
-        <v>60256.39</v>
-      </c>
-      <c r="H25" s="2">
+        <v>217850.69999999995</v>
+      </c>
+      <c r="U25" s="2">
         <f t="shared" si="12"/>
-        <v>54938.660000000018</v>
-      </c>
-      <c r="I25" s="2">
+        <v>248620.79999999999</v>
+      </c>
+      <c r="V25" s="2">
         <f t="shared" si="12"/>
-        <v>70416.479999999996</v>
-      </c>
-      <c r="J25" s="2">
+        <v>304304.67</v>
+      </c>
+      <c r="W25" s="2">
         <f t="shared" si="12"/>
-        <v>62087.000000000015</v>
-      </c>
-      <c r="K25" s="2">
+        <v>226963.57999999996</v>
+      </c>
+      <c r="X25" s="2">
         <f t="shared" si="12"/>
-        <v>84649.520000000033</v>
-      </c>
-      <c r="L25" s="2">
+        <v>219755.95</v>
+      </c>
+      <c r="Y25" s="2">
         <f t="shared" si="12"/>
-        <v>92824.200000000026</v>
-      </c>
-      <c r="M25" s="2">
+        <v>212849.72999999998</v>
+      </c>
+      <c r="Z25" s="2">
         <f t="shared" si="12"/>
-        <v>107882.92000000003</v>
-      </c>
-      <c r="N25" s="2">
+        <v>229632.07</v>
+      </c>
+      <c r="AA25" s="2">
         <f t="shared" si="12"/>
-        <v>105734.57000000002</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="12"/>
-        <v>167359.22000000003</v>
-      </c>
-      <c r="Q25" s="2">
-        <f t="shared" ref="Q25:Z25" si="13">Q23-Q24</f>
-        <v>165255.29999999999</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="13"/>
-        <v>183528.33999999997</v>
-      </c>
-      <c r="S25" s="2">
-        <f t="shared" si="13"/>
-        <v>181150.97999999998</v>
-      </c>
-      <c r="T25" s="2">
-        <f t="shared" si="13"/>
-        <v>217850.69999999995</v>
-      </c>
-      <c r="U25" s="2">
-        <f t="shared" si="13"/>
-        <v>248620.79999999999</v>
-      </c>
-      <c r="V25" s="2">
-        <f t="shared" si="13"/>
-        <v>304304.67</v>
-      </c>
-      <c r="W25" s="2">
-        <f t="shared" si="13"/>
-        <v>226963.57999999996</v>
-      </c>
-      <c r="X25" s="2">
-        <f t="shared" si="13"/>
-        <v>219755.95</v>
-      </c>
-      <c r="Y25" s="2">
-        <f t="shared" si="13"/>
-        <v>212849.72999999998</v>
-      </c>
-      <c r="Z25" s="2">
-        <f t="shared" si="13"/>
-        <v>229632.07</v>
+        <v>246783.88</v>
       </c>
     </row>
   </sheetData>
@@ -3327,8 +3420,8 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Y9:Z9" formulaRange="1"/>
-    <ignoredError sqref="P16" formula="1"/>
+    <ignoredError sqref="Y9:AA9" formulaRange="1"/>
+    <ignoredError sqref="P15:P16 P9" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45513DE-EF88-45EB-8012-19F23436BAB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B04D39C-153F-422D-B3DF-827BE22B0BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -206,6 +206,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -262,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +290,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -457,9 +467,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AA$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1)</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2020/01</c:v>
                 </c:pt>
@@ -492,16 +502,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2020/11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020/12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AA$23)</c:f>
+              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AB$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>265255.3</c:v>
                 </c:pt>
@@ -534,6 +547,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>402783.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>426465.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,9 +601,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AA$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1)</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2020/01</c:v>
                 </c:pt>
@@ -620,16 +636,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2020/11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020/12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AA$25)</c:f>
+              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AB$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>165255.29999999999</c:v>
                 </c:pt>
@@ -662,6 +681,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>246783.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>270465.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMN25"/>
+  <dimension ref="A1:AMO25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+      <selection activeCell="D1" sqref="D1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1211,18 +1233,20 @@
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="15" width="10.5" style="2" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="14.25" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="27" width="10.5" style="2" customWidth="1"/>
-    <col min="28" max="28" width="12.75" style="2" customWidth="1"/>
-    <col min="29" max="72" width="10.5" style="2" customWidth="1"/>
-    <col min="73" max="1028" width="10.5" style="1" customWidth="1"/>
+    <col min="17" max="22" width="10.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
+    <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
+    <col min="30" max="73" width="10.5" style="2" customWidth="1"/>
+    <col min="74" max="1029" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1295,15 +1319,18 @@
       <c r="AA1" s="7">
         <v>44136</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7">
+        <v>44166</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1382,14 +1409,17 @@
       <c r="AA2" s="3">
         <v>7875.71</v>
       </c>
-      <c r="AB2" s="2">
-        <f>SUM(Q2:AA2)</f>
-        <v>111930.06</v>
+      <c r="AB2" s="3">
+        <v>11586.58</v>
+      </c>
+      <c r="AC2" s="2">
+        <f t="shared" ref="AC2:AC16" si="1">SUM(Q2:AB2)</f>
+        <v>123516.64</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1466,14 +1496,17 @@
       <c r="AA3" s="3">
         <v>0</v>
       </c>
-      <c r="AB3" s="2">
-        <f>SUM(Q3:AA3)</f>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" si="1"/>
         <v>1756.2000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1550,14 +1583,17 @@
       <c r="AA4" s="3">
         <v>127.4</v>
       </c>
-      <c r="AB4" s="2">
-        <f>SUM(Q4:AA4)</f>
-        <v>14482.66</v>
+      <c r="AB4" s="3">
+        <v>1561.8</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" si="1"/>
+        <v>16044.46</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1635,13 +1671,16 @@
         <v>0</v>
       </c>
       <c r="AB5" s="2">
-        <f>SUM(Q5:AA5)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <f t="shared" si="1"/>
         <v>11000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
@@ -1719,13 +1758,16 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2">
-        <f>SUM(Q6:AA6)</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="1"/>
         <v>1803.1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1802,14 +1844,17 @@
       <c r="AA7" s="3">
         <v>0</v>
       </c>
-      <c r="AB7" s="2">
-        <f>SUM(Q7:AA7)</f>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="1"/>
         <v>5832</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1887,62 +1932,65 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2">
-        <f>SUM(Q8:AA8)</f>
-        <v>70000</v>
+        <v>1000</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="1"/>
+        <v>71000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:O9" si="1">SUM(D2:D8)</f>
+        <f t="shared" ref="D9:O9" si="2">SUM(D2:D8)</f>
         <v>7753.33</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7414.05</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57400</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7478.26</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7954</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11010.48</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8047.85</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19936.440000000002</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10479.08</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8920.8499999999985</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8011.24</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47548.37</v>
       </c>
       <c r="P9" s="3">
@@ -1950,43 +1998,43 @@
         <v>201953.94999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ref="Q9:AA9" si="2">SUM(Q2:Q8)</f>
+        <f t="shared" ref="Q9:Z9" si="3">SUM(Q2:Q8)</f>
         <v>12997.3</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12359.99</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23586.86</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17606.239999999998</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14657.95</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17282.95</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84379.77</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17728.66</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>979.93000000000006</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7221.2599999999993</v>
       </c>
       <c r="AA9" s="2">
@@ -1994,14 +2042,18 @@
         <v>8003.11</v>
       </c>
       <c r="AB9" s="2">
-        <f>SUM(Q9:AA9)</f>
-        <v>216804.02</v>
-      </c>
-      <c r="AD9" s="3"/>
+        <f>SUM(AB2:AB8)</f>
+        <v>14148.38</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="1"/>
+        <v>230952.4</v>
+      </c>
+      <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2080,15 +2132,18 @@
       <c r="AA10" s="3">
         <v>2616.23</v>
       </c>
-      <c r="AB10" s="2">
-        <f>SUM(Q10:AA10)</f>
-        <v>54014.6</v>
-      </c>
-      <c r="AD10" s="3"/>
+      <c r="AB10" s="3">
+        <v>1434.68</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="1"/>
+        <v>55449.279999999999</v>
+      </c>
+      <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
@@ -2166,14 +2221,17 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2">
-        <f>SUM(Q11:AA11)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="1"/>
         <v>12357</v>
       </c>
-      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
@@ -2251,13 +2309,16 @@
         <v>118.42</v>
       </c>
       <c r="AB12" s="2">
-        <f>SUM(Q12:AA12)</f>
-        <v>112345.70999999999</v>
+        <v>610.08000000000004</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="1"/>
+        <v>112955.79</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2335,13 +2396,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2">
-        <f>SUM(Q13:AA13)</f>
-        <v>5000</v>
+        <v>800</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="1"/>
+        <v>5800</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
@@ -2419,62 +2483,65 @@
         <v>14000</v>
       </c>
       <c r="AB14" s="2">
-        <f>SUM(Q14:AA14)</f>
-        <v>14000</v>
+        <v>1000</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="1"/>
+        <v>15000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:O15" si="3">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:O15" si="4">SUM(D10:D14)</f>
         <v>6898.55</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9852.73</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5683.6100000000006</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2749.75</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7109.6299999999992</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3311.37</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1719.86</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6409.11</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1175.8800000000001</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3999.41</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5405.16</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2067.63</v>
       </c>
       <c r="P15" s="3">
@@ -2482,43 +2549,43 @@
         <v>56382.689999999995</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15:Z15" si="4">SUM(Q10:Q14)</f>
+        <f t="shared" ref="Q15:Z15" si="5">SUM(Q10:Q14)</f>
         <v>4966.9399999999996</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8332.77</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7944.55</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6303.7</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9044.41</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9751.9</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118647.18</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6974.28</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6496.88</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2520.0499999999997</v>
       </c>
       <c r="AA15" s="2">
@@ -2526,62 +2593,66 @@
         <v>16734.650000000001</v>
       </c>
       <c r="AB15" s="2">
-        <f>SUM(Q15:AA15)</f>
-        <v>197717.30999999997</v>
+        <f>SUM(AB10:AB14)</f>
+        <v>3844.76</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="1"/>
+        <v>201562.06999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:O16" si="5">D9-D15</f>
+        <f t="shared" ref="D16:O16" si="6">D9-D15</f>
         <v>854.77999999999975</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2438.6799999999994</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51716.39</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4728.51</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>844.3700000000008</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7699.11</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6327.9900000000007</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13527.330000000002</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9303.2000000000007</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45480.740000000005</v>
       </c>
       <c r="P16" s="3">
@@ -2589,59 +2660,63 @@
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:AA16" si="6">Q9-Q15</f>
+        <f t="shared" ref="Q16:AB16" si="7">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15642.310000000001</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11302.539999999997</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8731.5400000000009</v>
       </c>
       <c r="AB16" s="2">
-        <f>SUM(Q16:AA16)</f>
-        <v>19086.710000000006</v>
+        <f t="shared" si="7"/>
+        <v>10303.619999999999</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="1"/>
+        <v>29390.330000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2717,10 +2792,13 @@
       <c r="AA17" s="3">
         <v>8847.98</v>
       </c>
+      <c r="AB17" s="3">
+        <v>8655.3700000000008</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
@@ -2794,10 +2872,13 @@
       <c r="AA18" s="3">
         <v>6710.55</v>
       </c>
+      <c r="AB18" s="3">
+        <v>6697.56</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -2871,10 +2952,13 @@
       <c r="AA19" s="3">
         <v>0</v>
       </c>
+      <c r="AB19" s="3">
+        <v>6011.43</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
@@ -2948,10 +3032,13 @@
       <c r="AA20" s="3">
         <v>4313.3599999999997</v>
       </c>
+      <c r="AB20" s="3">
+        <v>5662.84</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
@@ -3025,10 +3112,13 @@
       <c r="AA21" s="2">
         <v>0</v>
       </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
@@ -3102,108 +3192,115 @@
       <c r="AA22" s="3">
         <v>382911.99</v>
       </c>
+      <c r="AB22" s="3">
+        <v>399438.3</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" ref="D23:O23" si="7">SUM(D17:D22)</f>
+        <f t="shared" ref="D23:O23" si="8">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>108954.76000000001</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>161964.93</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160256.38999999998</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>154938.66</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>170416.47999999998</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>162087</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>184649.52000000002</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>192824.2</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>207882.92</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>205734.57</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>267359.22000000003</v>
       </c>
-      <c r="Q23" s="2">
-        <f t="shared" ref="Q23:Z23" si="8">SUM(Q17:Q22)</f>
+      <c r="Q23" s="8">
+        <f t="shared" ref="Q23:Z23" si="9">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
-      <c r="R23" s="2">
-        <f t="shared" si="8"/>
+      <c r="R23" s="8">
+        <f t="shared" si="9"/>
         <v>283528.33999999997</v>
       </c>
-      <c r="S23" s="2">
-        <f t="shared" si="8"/>
+      <c r="S23" s="8">
+        <f t="shared" si="9"/>
         <v>281150.98</v>
       </c>
-      <c r="T23" s="2">
-        <f t="shared" si="8"/>
+      <c r="T23" s="8">
+        <f t="shared" si="9"/>
         <v>317850.69999999995</v>
       </c>
-      <c r="U23" s="2">
-        <f t="shared" si="8"/>
+      <c r="U23" s="8">
+        <f t="shared" si="9"/>
         <v>348620.79999999999</v>
       </c>
-      <c r="V23" s="2">
-        <f t="shared" si="8"/>
+      <c r="V23" s="8">
+        <f t="shared" si="9"/>
         <v>404304.67</v>
       </c>
-      <c r="W23" s="2">
-        <f t="shared" si="8"/>
+      <c r="W23" s="8">
+        <f t="shared" si="9"/>
         <v>396963.57999999996</v>
       </c>
-      <c r="X23" s="2">
-        <f t="shared" si="8"/>
+      <c r="X23" s="8">
+        <f t="shared" si="9"/>
         <v>389755.95</v>
       </c>
-      <c r="Y23" s="2">
-        <f t="shared" si="8"/>
+      <c r="Y23" s="8">
+        <f t="shared" si="9"/>
         <v>382849.73</v>
       </c>
-      <c r="Z23" s="2">
-        <f t="shared" si="8"/>
+      <c r="Z23" s="8">
+        <f t="shared" si="9"/>
         <v>399632.07</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AA23" s="8">
         <f>SUM(AA17:AA22)</f>
         <v>402783.88</v>
       </c>
+      <c r="AB23" s="8">
+        <f>SUM(AB17:AB22)</f>
+        <v>426465.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
@@ -3230,31 +3327,31 @@
         <v>99999.999999999985</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:O24" si="9">G24+I8-I14</f>
+        <f t="shared" ref="I24:O24" si="10">G24+I8-I14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="2">
@@ -3262,27 +3359,27 @@
         <v>99999.999999999985</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:W24" si="10">Q24+R8-R14</f>
+        <f t="shared" ref="R24:W24" si="11">Q24+R8-R14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>170000</v>
       </c>
       <c r="X24" s="2">
@@ -3301,104 +3398,112 @@
         <f>Z24+AA8-AA14</f>
         <v>156000</v>
       </c>
+      <c r="AB24" s="2">
+        <f>AA24+AB8-AB14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:O25" si="11">D23-D24</f>
+        <f t="shared" ref="D25:O25" si="12">D23-D24</f>
         <v>39892.050000000003</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55555.210000000014</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>61964.930000000008</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>60256.39</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>54938.660000000018</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>70416.479999999996</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>62087.000000000015</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84649.520000000033</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>92824.200000000026</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>107882.92000000003</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>105734.57000000002</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>167359.22000000003</v>
       </c>
-      <c r="Q25" s="2">
-        <f t="shared" ref="Q25:AA25" si="12">Q23-Q24</f>
+      <c r="Q25" s="8">
+        <f t="shared" ref="Q25:AB25" si="13">Q23-Q24</f>
         <v>165255.29999999999</v>
       </c>
-      <c r="R25" s="2">
-        <f t="shared" si="12"/>
+      <c r="R25" s="8">
+        <f t="shared" si="13"/>
         <v>183528.33999999997</v>
       </c>
-      <c r="S25" s="2">
-        <f t="shared" si="12"/>
+      <c r="S25" s="8">
+        <f t="shared" si="13"/>
         <v>181150.97999999998</v>
       </c>
-      <c r="T25" s="2">
-        <f t="shared" si="12"/>
+      <c r="T25" s="8">
+        <f t="shared" si="13"/>
         <v>217850.69999999995</v>
       </c>
-      <c r="U25" s="2">
-        <f t="shared" si="12"/>
+      <c r="U25" s="8">
+        <f t="shared" si="13"/>
         <v>248620.79999999999</v>
       </c>
-      <c r="V25" s="2">
-        <f t="shared" si="12"/>
+      <c r="V25" s="8">
+        <f t="shared" si="13"/>
         <v>304304.67</v>
       </c>
-      <c r="W25" s="2">
-        <f t="shared" si="12"/>
+      <c r="W25" s="8">
+        <f t="shared" si="13"/>
         <v>226963.57999999996</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" si="12"/>
+      <c r="X25" s="8">
+        <f t="shared" si="13"/>
         <v>219755.95</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" si="12"/>
+      <c r="Y25" s="8">
+        <f t="shared" si="13"/>
         <v>212849.72999999998</v>
       </c>
-      <c r="Z25" s="2">
-        <f t="shared" si="12"/>
+      <c r="Z25" s="8">
+        <f t="shared" si="13"/>
         <v>229632.07</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" si="12"/>
+      <c r="AA25" s="8">
+        <f t="shared" si="13"/>
         <v>246783.88</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" si="13"/>
+        <v>270465.5</v>
       </c>
     </row>
   </sheetData>
@@ -3420,7 +3525,7 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Y9:AA9" formulaRange="1"/>
+    <ignoredError sqref="Y9:AB9 AB15" formulaRange="1"/>
     <ignoredError sqref="P15:P16 P9" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B04D39C-153F-422D-B3DF-827BE22B0BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9F773-4A02-4DF2-A37A-94958140C97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>时间</t>
   </si>
@@ -120,9 +114,6 @@
     <t>公积金提取</t>
   </si>
   <si>
-    <t>报效款</t>
-  </si>
-  <si>
     <t>房补</t>
   </si>
   <si>
@@ -184,6 +175,14 @@
   </si>
   <si>
     <t>净资产</t>
+  </si>
+  <si>
+    <t>2021年度总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报销款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -467,89 +466,167 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1)</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>2019/01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019/05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019/06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019/07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019/08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019/09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019/10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019/11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019/12</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AB$23)</c:f>
+              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AB$23,现金流量及资产负债表!$AD$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>96624.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108954.76000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161964.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160256.38999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154938.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170416.47999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184649.52000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192824.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207882.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205734.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267359.22000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>265255.3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
                   <c:v>283528.33999999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>281150.98</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>317850.69999999995</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>348620.79999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>404304.67</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>396963.57999999996</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>389755.95</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>382849.73</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>399632.07</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>402783.88</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
                   <c:v>426465.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>477902.41000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -601,89 +678,167 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1)</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>2019/01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019/05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019/06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019/07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019/08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019/09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019/10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019/11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019/12</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AB$25)</c:f>
+              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AB$25,现金流量及资产负债表!$AD$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>39892.050000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55555.210000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61964.930000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60256.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54938.660000000018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70416.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62087.000000000015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84649.520000000033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92824.200000000026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107882.92000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105734.57000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>167359.22000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>165255.29999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
                   <c:v>183528.33999999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>181150.97999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>217850.69999999995</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>248620.79999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>304304.67</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>226963.57999999996</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>219755.95</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>212849.72999999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>229632.07</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>246783.88</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
                   <c:v>270465.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321902.41000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,7 +1048,7 @@
       <xdr:rowOff>175785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>754560</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>91545</xdr:rowOff>
@@ -1224,20 +1379,22 @@
   <dimension ref="A1:AMO25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:P1048576"/>
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
-    <col min="4" max="15" width="10.5" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="15" width="10.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="2" customWidth="1"/>
     <col min="17" max="22" width="10.5" style="2" customWidth="1"/>
     <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="73" width="10.5" style="2" customWidth="1"/>
+    <col min="30" max="30" width="11.25" style="2" customWidth="1"/>
+    <col min="31" max="31" width="12" style="2" customWidth="1"/>
+    <col min="32" max="73" width="10.5" style="2" customWidth="1"/>
     <col min="74" max="1029" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1325,6 +1482,12 @@
       <c r="AC1" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="AD1" s="7">
+        <v>44197</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -1415,6 +1578,13 @@
       <c r="AC2" s="2">
         <f t="shared" ref="AC2:AC16" si="1">SUM(Q2:AB2)</f>
         <v>123516.64</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>13593.62</v>
+      </c>
+      <c r="AE2" s="2">
+        <f t="shared" ref="AE2:AE16" si="2">SUM(AD2)</f>
+        <v>13593.62</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -1503,6 +1673,13 @@
         <f t="shared" si="1"/>
         <v>1756.2000000000003</v>
       </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
@@ -1590,6 +1767,14 @@
         <f t="shared" si="1"/>
         <v>16044.46</v>
       </c>
+      <c r="AD4" s="2">
+        <f>25+24+19.7+34.2+10.7+11+14.5+20+13+10+11+11+10.7+12.5+21.7+27.5+11.5</f>
+        <v>288</v>
+      </c>
+      <c r="AE4" s="2">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
@@ -1677,12 +1862,19 @@
         <f t="shared" si="1"/>
         <v>11000</v>
       </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1763,13 +1955,20 @@
       <c r="AC6" s="2">
         <f t="shared" si="1"/>
         <v>1803.1</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1850,13 +2049,20 @@
       <c r="AC7" s="2">
         <f t="shared" si="1"/>
         <v>5832</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1937,60 +2143,67 @@
       <c r="AC8" s="2">
         <f t="shared" si="1"/>
         <v>71000</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:O9" si="2">SUM(D2:D8)</f>
+        <f t="shared" ref="D9:O9" si="3">SUM(D2:D8)</f>
         <v>7753.33</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7414.05</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57400</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7478.26</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7954</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11010.48</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8047.85</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19936.440000000002</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10479.08</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8920.8499999999985</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8011.24</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47548.37</v>
       </c>
       <c r="P9" s="3">
@@ -1998,43 +2211,43 @@
         <v>201953.94999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ref="Q9:Z9" si="3">SUM(Q2:Q8)</f>
+        <f t="shared" ref="Q9:Z9" si="4">SUM(Q2:Q8)</f>
         <v>12997.3</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12359.99</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23586.86</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17606.239999999998</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14657.95</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17282.95</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84379.77</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17728.66</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>979.93000000000006</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7221.2599999999993</v>
       </c>
       <c r="AA9" s="2">
@@ -2049,15 +2262,22 @@
         <f t="shared" si="1"/>
         <v>230952.4</v>
       </c>
-      <c r="AE9" s="3"/>
+      <c r="AD9" s="2">
+        <f>SUM(AD2:AD8)</f>
+        <v>13881.62</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="2"/>
+        <v>13881.62</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="3">
         <v>2401</v>
@@ -2139,13 +2359,20 @@
         <f t="shared" si="1"/>
         <v>55449.279999999999</v>
       </c>
-      <c r="AE10" s="3"/>
+      <c r="AD10" s="2">
+        <f>1048.17+274.92+609.16</f>
+        <v>1932.25</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="2"/>
+        <v>1932.25</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3">
         <v>1230</v>
@@ -2227,13 +2454,19 @@
         <f t="shared" si="1"/>
         <v>12357</v>
       </c>
-      <c r="AE11" s="3"/>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -2314,13 +2547,21 @@
       <c r="AC12" s="2">
         <f t="shared" si="1"/>
         <v>112955.79</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>10.7+11.5+10.5+10.7+11+10+85.8+10+13.5+11.4+12+10.7+11+11.4+10.7+11+27+21.9+28.98+25</f>
+        <v>354.78</v>
+      </c>
+      <c r="AE12" s="3">
+        <f t="shared" si="2"/>
+        <v>354.78</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2401,13 +2642,20 @@
       <c r="AC13" s="2">
         <f t="shared" si="1"/>
         <v>5800</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3">
         <v>3267.55</v>
@@ -2488,60 +2736,67 @@
       <c r="AC14" s="2">
         <f t="shared" si="1"/>
         <v>15000</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:O15" si="4">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:O15" si="5">SUM(D10:D14)</f>
         <v>6898.55</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9852.73</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5683.6100000000006</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2749.75</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7109.6299999999992</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3311.37</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1719.86</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6409.11</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1175.8800000000001</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3999.41</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5405.16</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2067.63</v>
       </c>
       <c r="P15" s="3">
@@ -2549,43 +2804,43 @@
         <v>56382.689999999995</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15:Z15" si="5">SUM(Q10:Q14)</f>
+        <f t="shared" ref="Q15:Z15" si="6">SUM(Q10:Q14)</f>
         <v>4966.9399999999996</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8332.77</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7944.55</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6303.7</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9044.41</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9751.9</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>118647.18</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6974.28</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6496.88</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2520.0499999999997</v>
       </c>
       <c r="AA15" s="2">
@@ -2599,60 +2854,68 @@
       <c r="AC15" s="2">
         <f t="shared" si="1"/>
         <v>201562.06999999998</v>
+      </c>
+      <c r="AD15" s="2">
+        <f>SUM(AD10:AD14)</f>
+        <v>2287.0299999999997</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" si="2"/>
+        <v>2287.0299999999997</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:O16" si="6">D9-D15</f>
+        <f t="shared" ref="D16:O16" si="7">D9-D15</f>
         <v>854.77999999999975</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2438.6799999999994</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51716.39</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4728.51</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>844.3700000000008</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7699.11</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6327.9900000000007</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13527.330000000002</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9303.2000000000007</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45480.740000000005</v>
       </c>
       <c r="P16" s="3">
@@ -2660,67 +2923,75 @@
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:AB16" si="7">Q9-Q15</f>
+        <f t="shared" ref="Q16:AB16" si="8">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15642.310000000001</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11302.539999999997</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-8731.5400000000009</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10303.619999999999</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="1"/>
         <v>29390.330000000005</v>
       </c>
+      <c r="AD16" s="2">
+        <f>AD9-AD15</f>
+        <v>11594.59</v>
+      </c>
+      <c r="AE16" s="2">
+        <f t="shared" si="2"/>
+        <v>11594.59</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D17" s="3">
         <v>33513</v>
@@ -2795,12 +3066,15 @@
       <c r="AB17" s="3">
         <v>8655.3700000000008</v>
       </c>
+      <c r="AD17" s="2">
+        <v>6924.04</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3">
         <v>24162</v>
@@ -2875,12 +3149,16 @@
       <c r="AB18" s="3">
         <v>6697.56</v>
       </c>
+      <c r="AD18" s="2">
+        <f>1211.03+21505.5+1070.11+189.84+10008.17+10006.93</f>
+        <v>43991.58</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -2955,12 +3233,15 @@
       <c r="AB19" s="3">
         <v>6011.43</v>
       </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -3035,12 +3316,15 @@
       <c r="AB20" s="3">
         <v>5662.84</v>
       </c>
+      <c r="AD20" s="2">
+        <v>6564.26</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3">
         <v>10009.5</v>
@@ -3115,12 +3399,15 @@
       <c r="AB21" s="2">
         <v>0</v>
       </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3">
         <v>28940</v>
@@ -3195,99 +3482,102 @@
       <c r="AB22" s="3">
         <v>399438.3</v>
       </c>
+      <c r="AD22" s="2">
+        <v>420422.53</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" ref="D23:O23" si="8">SUM(D17:D22)</f>
+        <v>31</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:O23" si="9">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" si="8"/>
+      <c r="E23" s="8">
+        <f t="shared" si="9"/>
         <v>108954.76000000001</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="8"/>
+      <c r="F23" s="8">
+        <f t="shared" si="9"/>
         <v>161964.93</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" si="8"/>
+      <c r="G23" s="8">
+        <f t="shared" si="9"/>
         <v>160256.38999999998</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="8"/>
+      <c r="H23" s="8">
+        <f t="shared" si="9"/>
         <v>154938.66</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="8"/>
+      <c r="I23" s="8">
+        <f t="shared" si="9"/>
         <v>170416.47999999998</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="8"/>
+      <c r="J23" s="8">
+        <f t="shared" si="9"/>
         <v>162087</v>
       </c>
-      <c r="K23" s="2">
-        <f t="shared" si="8"/>
+      <c r="K23" s="8">
+        <f t="shared" si="9"/>
         <v>184649.52000000002</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" si="8"/>
+      <c r="L23" s="8">
+        <f t="shared" si="9"/>
         <v>192824.2</v>
       </c>
-      <c r="M23" s="2">
-        <f t="shared" si="8"/>
+      <c r="M23" s="8">
+        <f t="shared" si="9"/>
         <v>207882.92</v>
       </c>
-      <c r="N23" s="2">
-        <f t="shared" si="8"/>
+      <c r="N23" s="8">
+        <f t="shared" si="9"/>
         <v>205734.57</v>
       </c>
-      <c r="O23" s="2">
-        <f t="shared" si="8"/>
+      <c r="O23" s="8">
+        <f t="shared" si="9"/>
         <v>267359.22000000003</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" ref="Q23:Z23" si="9">SUM(Q17:Q22)</f>
+        <f t="shared" ref="Q23:Z23" si="10">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>283528.33999999997</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>281150.98</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>317850.69999999995</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>348620.79999999999</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>404304.67</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>396963.57999999996</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>389755.95</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>382849.73</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>399632.07</v>
       </c>
       <c r="AA23" s="8">
@@ -3298,14 +3588,18 @@
         <f>SUM(AB17:AB22)</f>
         <v>426465.5</v>
       </c>
+      <c r="AD23" s="8">
+        <f>SUM(AD17:AD22)</f>
+        <v>477902.41000000003</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="2">
         <v>56732.45</v>
@@ -3327,31 +3621,31 @@
         <v>99999.999999999985</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:O24" si="10">G24+I8-I14</f>
+        <f t="shared" ref="I24:O24" si="11">G24+I8-I14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="2">
@@ -3359,27 +3653,27 @@
         <v>99999.999999999985</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:W24" si="11">Q24+R8-R14</f>
+        <f t="shared" ref="R24:W24" si="12">Q24+R8-R14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>170000</v>
       </c>
       <c r="X24" s="2">
@@ -3402,108 +3696,116 @@
         <f>AA24+AB8-AB14</f>
         <v>156000</v>
       </c>
+      <c r="AD24" s="2">
+        <f>AB24+AD8-AD14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25:O25" si="12">D23-D24</f>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25:O25" si="13">D23-D24</f>
         <v>39892.050000000003</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" si="12"/>
+      <c r="E25" s="8">
+        <f t="shared" si="13"/>
         <v>55555.210000000014</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="12"/>
+      <c r="F25" s="8">
+        <f t="shared" si="13"/>
         <v>61964.930000000008</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="12"/>
+      <c r="G25" s="8">
+        <f t="shared" si="13"/>
         <v>60256.39</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="12"/>
+      <c r="H25" s="8">
+        <f t="shared" si="13"/>
         <v>54938.660000000018</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="12"/>
+      <c r="I25" s="8">
+        <f t="shared" si="13"/>
         <v>70416.479999999996</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="12"/>
+      <c r="J25" s="8">
+        <f t="shared" si="13"/>
         <v>62087.000000000015</v>
       </c>
-      <c r="K25" s="2">
-        <f t="shared" si="12"/>
+      <c r="K25" s="8">
+        <f t="shared" si="13"/>
         <v>84649.520000000033</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" si="12"/>
+      <c r="L25" s="8">
+        <f t="shared" si="13"/>
         <v>92824.200000000026</v>
       </c>
-      <c r="M25" s="2">
-        <f t="shared" si="12"/>
+      <c r="M25" s="8">
+        <f t="shared" si="13"/>
         <v>107882.92000000003</v>
       </c>
-      <c r="N25" s="2">
-        <f t="shared" si="12"/>
+      <c r="N25" s="8">
+        <f t="shared" si="13"/>
         <v>105734.57000000002</v>
       </c>
-      <c r="O25" s="2">
-        <f t="shared" si="12"/>
+      <c r="O25" s="8">
+        <f t="shared" si="13"/>
         <v>167359.22000000003</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" ref="Q25:AB25" si="13">Q23-Q24</f>
+        <f t="shared" ref="Q25:AB25" si="14">Q23-Q24</f>
         <v>165255.29999999999</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>183528.33999999997</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>181150.97999999998</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>217850.69999999995</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>248620.79999999999</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304304.67</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>226963.57999999996</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>219755.95</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>212849.72999999998</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>229632.07</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>246783.88</v>
       </c>
       <c r="AB25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>270465.5</v>
+      </c>
+      <c r="AD25" s="8">
+        <f>AD23-AD24</f>
+        <v>321902.41000000003</v>
       </c>
     </row>
   </sheetData>
@@ -3526,7 +3828,7 @@
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="Y9:AB9 AB15" formulaRange="1"/>
-    <ignoredError sqref="P15:P16 P9" formula="1"/>
+    <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9F773-4A02-4DF2-A37A-94958140C97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54987229-4017-484D-85BF-1A89DCB16E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,9 +466,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1:$AE$1)</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -543,16 +543,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AB$23,现金流量及资产负债表!$AD$23)</c:f>
+              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AB$23,现金流量及资产负债表!$AD$23:$AE$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -627,6 +630,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>477902.41000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>480280.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,9 +684,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1:$AE$1)</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -755,16 +761,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AB$25,现金流量及资产负债表!$AD$25)</c:f>
+              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AB$25,现金流量及资产负债表!$AD$25:$AE$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -839,6 +848,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>321902.41000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>324280.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMO25"/>
+  <dimension ref="A1:AMP25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1392,13 +1404,13 @@
     <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.25" style="2" customWidth="1"/>
-    <col min="31" max="31" width="12" style="2" customWidth="1"/>
-    <col min="32" max="73" width="10.5" style="2" customWidth="1"/>
-    <col min="74" max="1029" width="10.5" style="1" customWidth="1"/>
+    <col min="30" max="31" width="11.25" style="2" customWidth="1"/>
+    <col min="32" max="32" width="12" style="2" customWidth="1"/>
+    <col min="33" max="74" width="10.5" style="2" customWidth="1"/>
+    <col min="75" max="1030" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1485,11 +1497,14 @@
       <c r="AD1" s="7">
         <v>44197</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="7">
+        <v>44228</v>
+      </c>
+      <c r="AF1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
@@ -1583,11 +1598,14 @@
         <v>13593.62</v>
       </c>
       <c r="AE2" s="2">
-        <f t="shared" ref="AE2:AE16" si="2">SUM(AD2)</f>
-        <v>13593.62</v>
+        <v>11543.76</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>SUM(AD2:AE2)</f>
+        <v>25137.38</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
@@ -1677,11 +1695,14 @@
         <v>0</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <f t="shared" ref="AF3:AF12" si="2">SUM(AD3:AE3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
@@ -1772,11 +1793,14 @@
         <v>288</v>
       </c>
       <c r="AE4" s="2">
+        <v>175.5</v>
+      </c>
+      <c r="AF4" s="2">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>463.5</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
@@ -1866,11 +1890,14 @@
         <v>0</v>
       </c>
       <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
@@ -1960,11 +1987,14 @@
         <v>0</v>
       </c>
       <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4" t="s">
@@ -2054,11 +2084,14 @@
         <v>0</v>
       </c>
       <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
@@ -2148,11 +2181,14 @@
         <v>0</v>
       </c>
       <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
@@ -2267,11 +2303,15 @@
         <v>13881.62</v>
       </c>
       <c r="AE9" s="2">
+        <f>SUM(AE2:AE8)</f>
+        <v>11719.26</v>
+      </c>
+      <c r="AF9" s="2">
         <f t="shared" si="2"/>
-        <v>13881.62</v>
+        <v>25600.880000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>32</v>
@@ -2363,12 +2403,15 @@
         <f>1048.17+274.92+609.16</f>
         <v>1932.25</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="2">
+        <v>1222.04</v>
+      </c>
+      <c r="AF10" s="2">
         <f t="shared" si="2"/>
-        <v>1932.25</v>
+        <v>3154.29</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
@@ -2457,12 +2500,15 @@
       <c r="AD11" s="2">
         <v>0</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
@@ -2552,12 +2598,15 @@
         <f>10.7+11.5+10.5+10.7+11+10+85.8+10+13.5+11.4+12+10.7+11+11.4+10.7+11+27+21.9+28.98+25</f>
         <v>354.78</v>
       </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="2"/>
-        <v>354.78</v>
+      <c r="AE12" s="2">
+        <v>302.20999999999998</v>
+      </c>
+      <c r="AF12" s="2">
+        <f>SUM(AD12:AE12)</f>
+        <v>656.99</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
@@ -2646,12 +2695,15 @@
       <c r="AD13" s="2">
         <v>0</v>
       </c>
-      <c r="AE13" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="AE13" s="2">
+        <v>4200</v>
+      </c>
+      <c r="AF13" s="2">
+        <f>SUM(AD13:AE13)</f>
+        <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
@@ -2740,12 +2792,15 @@
       <c r="AD14" s="2">
         <v>0</v>
       </c>
-      <c r="AE14" s="3">
-        <f t="shared" si="2"/>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2">
+        <f>SUM(AD14:AE14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
@@ -2859,63 +2914,67 @@
         <f>SUM(AD10:AD14)</f>
         <v>2287.0299999999997</v>
       </c>
-      <c r="AE15" s="3">
-        <f t="shared" si="2"/>
-        <v>2287.0299999999997</v>
+      <c r="AE15" s="2">
+        <f>SUM(AE10:AE14)</f>
+        <v>5724.25</v>
+      </c>
+      <c r="AF15" s="2">
+        <f t="shared" ref="AF15:AF16" si="7">SUM(AD15:AE15)</f>
+        <v>8011.28</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:O16" si="7">D9-D15</f>
+        <f t="shared" ref="D16:O16" si="8">D9-D15</f>
         <v>854.77999999999975</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2438.6799999999994</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51716.39</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4728.51</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>844.3700000000008</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7699.11</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6327.9900000000007</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13527.330000000002</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9303.2000000000007</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45480.740000000005</v>
       </c>
       <c r="P16" s="3">
@@ -2923,51 +2982,51 @@
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:AB16" si="8">Q9-Q15</f>
+        <f t="shared" ref="Q16:AB16" si="9">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15642.310000000001</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11302.539999999997</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8731.5400000000009</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10303.619999999999</v>
       </c>
       <c r="AC16" s="2">
@@ -2979,11 +3038,15 @@
         <v>11594.59</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="2"/>
-        <v>11594.59</v>
+        <f>AE9-AE15</f>
+        <v>5995.01</v>
+      </c>
+      <c r="AF16" s="2">
+        <f>SUM(AD16:AE16)</f>
+        <v>17589.599999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3132,11 @@
       <c r="AD17" s="2">
         <v>6924.04</v>
       </c>
+      <c r="AE17" s="2">
+        <v>7153.07</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="4" t="s">
@@ -3153,8 +3219,11 @@
         <f>1211.03+21505.5+1070.11+189.84+10008.17+10006.93</f>
         <v>43991.58</v>
       </c>
+      <c r="AE18" s="2">
+        <v>47709.21</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
@@ -3236,8 +3305,11 @@
       <c r="AD19" s="2">
         <v>0</v>
       </c>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
@@ -3319,8 +3391,11 @@
       <c r="AD20" s="2">
         <v>6564.26</v>
       </c>
+      <c r="AE20" s="2">
+        <v>8001.57</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="4" t="s">
@@ -3402,8 +3477,11 @@
       <c r="AD21" s="2">
         <v>0</v>
       </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
@@ -3485,99 +3563,102 @@
       <c r="AD22" s="2">
         <v>420422.53</v>
       </c>
+      <c r="AE22" s="2">
+        <v>417416.84</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" ref="D23:O23" si="9">SUM(D17:D22)</f>
+        <f t="shared" ref="D23:O23" si="10">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>108954.76000000001</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>161964.93</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>160256.38999999998</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>154938.66</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>170416.47999999998</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>162087</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>184649.52000000002</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>192824.2</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>207882.92</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>205734.57</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>267359.22000000003</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" ref="Q23:Z23" si="10">SUM(Q17:Q22)</f>
+        <f t="shared" ref="Q23:Z23" si="11">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>283528.33999999997</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>281150.98</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>317850.69999999995</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>348620.79999999999</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>404304.67</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>396963.57999999996</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>389755.95</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>382849.73</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>399632.07</v>
       </c>
       <c r="AA23" s="8">
@@ -3592,8 +3673,12 @@
         <f>SUM(AD17:AD22)</f>
         <v>477902.41000000003</v>
       </c>
+      <c r="AE23" s="8">
+        <f>SUM(AE17:AE22)</f>
+        <v>480280.69</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
         <v>47</v>
@@ -3621,31 +3706,31 @@
         <v>99999.999999999985</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:O24" si="11">G24+I8-I14</f>
+        <f t="shared" ref="I24:O24" si="12">G24+I8-I14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="2">
@@ -3653,27 +3738,27 @@
         <v>99999.999999999985</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:W24" si="12">Q24+R8-R14</f>
+        <f t="shared" ref="R24:W24" si="13">Q24+R8-R14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99999.999999999985</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99999.999999999985</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99999.999999999985</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>99999.999999999985</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>170000</v>
       </c>
       <c r="X24" s="2">
@@ -3700,112 +3785,120 @@
         <f>AB24+AD8-AD14</f>
         <v>156000</v>
       </c>
+      <c r="AE24" s="2">
+        <f>AD24+AE8-AE14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="8">
-        <f t="shared" ref="D25:O25" si="13">D23-D24</f>
+        <f t="shared" ref="D25:O25" si="14">D23-D24</f>
         <v>39892.050000000003</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>55555.210000000014</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>61964.930000000008</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>60256.39</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>54938.660000000018</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>70416.479999999996</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>62087.000000000015</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>84649.520000000033</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>92824.200000000026</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>107882.92000000003</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>105734.57000000002</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>167359.22000000003</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" ref="Q25:AB25" si="14">Q23-Q24</f>
+        <f t="shared" ref="Q25:AB25" si="15">Q23-Q24</f>
         <v>165255.29999999999</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>183528.33999999997</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>181150.97999999998</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>217850.69999999995</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>248620.79999999999</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>304304.67</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>226963.57999999996</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>219755.95</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>212849.72999999998</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>229632.07</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>246783.88</v>
       </c>
       <c r="AB25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>270465.5</v>
       </c>
       <c r="AD25" s="8">
         <f>AD23-AD24</f>
         <v>321902.41000000003</v>
+      </c>
+      <c r="AE25" s="8">
+        <f>AE23-AE24</f>
+        <v>324280.69</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +3920,7 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Y9:AB9 AB15" formulaRange="1"/>
+    <ignoredError sqref="Y9:AB9 AB15 AE9" formulaRange="1"/>
     <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54987229-4017-484D-85BF-1A89DCB16E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19665" windowHeight="7905" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -96,6 +85,9 @@
     <t>2020年度总计</t>
   </si>
   <si>
+    <t>2021年度总计</t>
+  </si>
+  <si>
     <t>现金流量</t>
   </si>
   <si>
@@ -114,6 +106,9 @@
     <t>公积金提取</t>
   </si>
   <si>
+    <t>报销款</t>
+  </si>
+  <si>
     <t>房补</t>
   </si>
   <si>
@@ -175,46 +170,185 @@
   </si>
   <si>
     <t>净资产</t>
-  </si>
-  <si>
-    <t>2021年度总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报销款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +361,194 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -238,132 +558,421 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF72BF44"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF420E"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00B3B3B3"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0072BF44"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF420E"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00004586"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -378,29 +987,38 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="false"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:defRPr lang="zh-CN" sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -409,10 +1027,14 @@
               </a:rPr>
               <a:t>资金总量</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:overlay val="false"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -420,23 +1042,32 @@
         </a:ln>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="false"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="false"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>总资产</c:v>
+            <c:strRef>
+              <c:f>"总资产"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总资产</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28800">
+            <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -451,134 +1082,156 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="true"/>
+            <c:showLeaderLines val="false"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="false"/>
+                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1:$AE$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1:$AF$1)</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
+                <c:ptCount val="27"/>
+                <c:pt idx="0" c:formatCode="0.00">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="0.00">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="0.00">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="0.00">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="0.00">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="0.00">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="0.00">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="0.00">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="0.00">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="0.00">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="0.00">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="0.00">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="0.00">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="0.00">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="0.00">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="0.00">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/mm">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/mm">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/mm">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/mm">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021/01</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021/02</c:v>
+                <c:pt idx="24" c:formatCode="yyyy/mm">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/mm">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/mm">
+                  <c:v>44256</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AB$23,现金流量及资产负债表!$AD$23:$AE$23)</c:f>
+              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AB$23,现金流量及资产负债表!$AD$23:$AF$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108954.76000000001</c:v>
+                  <c:v>108954.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>161964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160256.38999999998</c:v>
+                  <c:v>160256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>154938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170416.47999999998</c:v>
+                  <c:v>170416.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>162087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184649.52000000002</c:v>
+                  <c:v>184649.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>192824.2</c:v>
@@ -590,28 +1243,28 @@
                   <c:v>205734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267359.22000000003</c:v>
+                  <c:v>267359.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>265255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283528.33999999997</c:v>
+                  <c:v>283528.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>281150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>317850.69999999995</c:v>
+                  <c:v>317850.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348620.79999999999</c:v>
+                  <c:v>348620.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>404304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>396963.57999999996</c:v>
+                  <c:v>396963.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>389755.95</c:v>
@@ -629,32 +1282,39 @@
                   <c:v>426465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>477902.41000000003</c:v>
+                  <c:v>477902.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>480280.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>511218.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8427-4F8E-A975-21A4EA08D951}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="false"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>净资产</c:v>
+            <c:strRef>
+              <c:f>"净资产"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净资产</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28800">
+            <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="FF420E"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -669,173 +1329,195 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="true"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="true"/>
+            <c:showLeaderLines val="false"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:layout/>
+                <c15:showLeaderLines val="false"/>
+                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1:$AE$1)</c:f>
+              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1:$AF$1)</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
-                <c:pt idx="0">
+                <c:ptCount val="27"/>
+                <c:pt idx="0" c:formatCode="0.00">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="0.00">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="0.00">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="0.00">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="0.00">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="0.00">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="0.00">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="0.00">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="0.00">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="0.00">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="0.00">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="0.00">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="0.00">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="0.00">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="0.00">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="0.00">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/mm">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/mm">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/mm">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/mm">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021/01</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021/02</c:v>
+                <c:pt idx="24" c:formatCode="yyyy/mm">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/mm">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/mm">
+                  <c:v>44256</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AB$25,现金流量及资产负债表!$AD$25:$AE$25)</c:f>
+              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AB$25,现金流量及资产负债表!$AD$25:$AF$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>39892.050000000003</c:v>
+                  <c:v>39892.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55555.210000000014</c:v>
+                  <c:v>55555.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61964.930000000008</c:v>
+                  <c:v>61964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54938.660000000018</c:v>
+                  <c:v>54938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70416.479999999996</c:v>
+                  <c:v>70416.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62087.000000000015</c:v>
+                  <c:v>62087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84649.520000000033</c:v>
+                  <c:v>84649.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92824.200000000026</c:v>
+                  <c:v>92824.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107882.92000000003</c:v>
+                  <c:v>107882.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105734.57000000002</c:v>
+                  <c:v>105734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167359.22000000003</c:v>
+                  <c:v>167359.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165255.29999999999</c:v>
+                  <c:v>165255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>183528.33999999997</c:v>
+                  <c:v>183528.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181150.97999999998</c:v>
+                  <c:v>181150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>217850.69999999995</c:v>
+                  <c:v>217850.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248620.79999999999</c:v>
+                  <c:v>248620.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>304304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226963.57999999996</c:v>
+                  <c:v>226963.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>219755.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212849.72999999998</c:v>
+                  <c:v>212849.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>229632.07</c:v>
@@ -847,37 +1529,38 @@
                   <c:v>270465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>321902.41000000003</c:v>
+                  <c:v>321902.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>324280.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>355218.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8427-4F8E-A975-21A4EA08D951}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="false"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:showLegendKey val="false"/>
+          <c:showVal val="false"/>
+          <c:showCatName val="false"/>
+          <c:showSerName val="false"/>
+          <c:showPercent val="false"/>
+          <c:showBubbleSize val="false"/>
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:smooth val="0"/>
+        <c:marker val="false"/>
+        <c:smooth val="false"/>
         <c:axId val="52376106"/>
         <c:axId val="74300066"/>
       </c:lineChart>
@@ -886,17 +1569,22 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -905,10 +1593,14 @@
                   </a:rPr>
                   <a:t>时间</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:latin typeface="Arial"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
+          <c:overlay val="false"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -916,61 +1608,74 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74300066"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:noMultiLvlLbl val="true"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="74300066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="false"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
                     <a:latin typeface="Arial"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -979,10 +1684,14 @@
                   </a:rPr>
                   <a:t>资金量</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:latin typeface="Arial"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
+          <c:overlay val="false"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -990,27 +1699,33 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="true"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="52376106"/>
@@ -1028,20 +1743,48 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:overlay val="false"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
+    <c:plotVisOnly val="true"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
+    <c:showDLblsOverMax val="true"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1051,7 +1794,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1062,23 +1805,17 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>754560</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>91545</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>96735</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="2409825" y="4800600"/>
+        <a:ext cx="5669280" cy="3354070"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1134,7 +1871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1167,26 +1904,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1219,23 +1939,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1243,7 +1946,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1267,9 +1970,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1293,7 +1996,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1346,7 +2049,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1371,223 +2074,221 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMP25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
-    <col min="4" max="15" width="10.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="2" customWidth="1"/>
-    <col min="17" max="22" width="10.5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
-    <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="31" width="11.25" style="2" customWidth="1"/>
-    <col min="32" max="32" width="12" style="2" customWidth="1"/>
-    <col min="33" max="74" width="10.5" style="2" customWidth="1"/>
-    <col min="75" max="1030" width="10.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.5" style="1" customWidth="true"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="true"/>
+    <col min="4" max="15" width="10.5" style="2" customWidth="true"/>
+    <col min="16" max="16" width="14.25" style="2" customWidth="true"/>
+    <col min="17" max="22" width="10.5" style="2" customWidth="true"/>
+    <col min="23" max="23" width="11.625" style="2" customWidth="true"/>
+    <col min="24" max="28" width="10.5" style="2" customWidth="true"/>
+    <col min="29" max="29" width="12.75" style="2" customWidth="true"/>
+    <col min="30" max="32" width="11.25" style="2" customWidth="true"/>
+    <col min="33" max="33" width="12" style="2" customWidth="true"/>
+    <col min="34" max="75" width="10.5" style="2" customWidth="true"/>
+    <col min="76" max="1031" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="7">
+      <c r="Y1" s="10">
         <v>44075</v>
       </c>
-      <c r="Z1" s="7">
+      <c r="Z1" s="10">
         <v>44105</v>
       </c>
-      <c r="AA1" s="7">
+      <c r="AA1" s="10">
         <v>44136</v>
       </c>
-      <c r="AB1" s="7">
+      <c r="AB1" s="10">
         <v>44166</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="7">
+      <c r="AD1" s="10">
         <v>44197</v>
       </c>
-      <c r="AE1" s="7">
+      <c r="AE1" s="10">
         <v>44228</v>
       </c>
-      <c r="AF1" s="7" t="s">
-        <v>50</v>
+      <c r="AF1" s="10">
+        <v>44256</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:33">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7">
         <v>7709</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="7">
         <v>7414.05</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>7400</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>7478.26</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>7489.89</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>7760</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>7517.05</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>7474.38</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>7656.73</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="7">
         <v>7245.45</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="7">
         <v>7462.74</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="7">
         <v>7474.37</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="7">
         <f t="shared" ref="P2:P16" si="0">SUM(D2:O2)</f>
-        <v>90081.919999999998</v>
-      </c>
-      <c r="Q2" s="3">
+        <v>90081.92</v>
+      </c>
+      <c r="Q2" s="7">
         <v>12359.3</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="7">
         <v>12271.99</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="7">
         <v>12469.87</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="7">
         <v>12458.24</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="7">
         <v>12434.95</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="7">
         <v>12634.95</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="7">
         <v>11501.73</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="7">
         <v>10823.46</v>
       </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
         <v>7099.86</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="7">
         <v>7875.71</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="7">
         <v>11586.58</v>
       </c>
       <c r="AC2" s="2">
@@ -1601,15 +2302,18 @@
         <v>11543.76</v>
       </c>
       <c r="AF2" s="2">
-        <f>SUM(AD2:AE2)</f>
-        <v>25137.38</v>
+        <v>13025.09</v>
+      </c>
+      <c r="AG2" s="2">
+        <f>SUM(AD2:AF2)</f>
+        <v>38162.47</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
+    <row r="3" spans="1:33">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1647,7 +2351,7 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1669,27 +2373,27 @@
       <c r="V3" s="2">
         <v>0</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="7">
         <v>407</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="7">
         <v>911.2</v>
       </c>
-      <c r="Y3" s="3">
-        <v>316.60000000000002</v>
-      </c>
-      <c r="Z3" s="3">
+      <c r="Y3" s="7">
+        <v>316.6</v>
+      </c>
+      <c r="Z3" s="7">
         <v>121.4</v>
       </c>
-      <c r="AA3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="3">
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
         <v>0</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="1"/>
-        <v>1756.2000000000003</v>
+        <v>1756.2</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
@@ -1698,90 +2402,93 @@
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <f t="shared" ref="AF3:AF12" si="2">SUM(AD3:AE3)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <f t="shared" ref="AG3:AG16" si="2">SUM(AD3:AF3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="4" spans="1:33">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7">
         <v>44.33</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
         <v>464.11</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="7">
         <v>481.18</v>
       </c>
-      <c r="J4" s="3">
-        <v>530.79999999999995</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="J4" s="7">
+        <v>530.8</v>
+      </c>
+      <c r="K4" s="7">
         <v>462.06</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="7">
         <v>878.35</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="7">
         <v>39.4</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="7">
         <v>148.5</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="7">
         <v>38130</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="7">
         <f t="shared" si="0"/>
-        <v>41178.730000000003</v>
-      </c>
-      <c r="Q4" s="3">
+        <v>41178.73</v>
+      </c>
+      <c r="Q4" s="7">
         <v>638</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="7">
         <v>88</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="7">
         <v>1172.99</v>
       </c>
       <c r="T4" s="2">
         <v>3000</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="7">
         <v>75</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="7">
         <v>4000</v>
       </c>
-      <c r="W4" s="3">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="X4" s="3">
+      <c r="W4" s="7">
+        <v>19.94</v>
+      </c>
+      <c r="X4" s="7">
         <v>5346</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="7">
         <v>15.33</v>
       </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
         <v>127.4</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="7">
         <v>1561.8</v>
       </c>
       <c r="AC4" s="2">
@@ -1796,15 +2503,18 @@
         <v>175.5</v>
       </c>
       <c r="AF4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="2">
         <f t="shared" si="2"/>
-        <v>463.5</v>
+        <v>467.5</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
+    <row r="5" spans="1:33">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1827,22 +2537,22 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="7">
         <v>12000</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -1852,13 +2562,13 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="7">
         <v>8000</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="7">
         <v>1500</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="7">
         <v>1500</v>
       </c>
       <c r="V5" s="2">
@@ -1893,15 +2603,18 @@
         <v>0</v>
       </c>
       <c r="AF5" s="2">
+        <v>30983.14</v>
+      </c>
+      <c r="AG5" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="4" t="s">
-        <v>51</v>
+    <row r="6" spans="1:33">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1918,10 +2631,10 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <v>1473.3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="7">
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -1930,16 +2643,16 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="7">
         <v>1636</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="7">
         <v>400</v>
       </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <f t="shared" si="0"/>
         <v>3509.3</v>
       </c>
@@ -1961,7 +2674,7 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="7">
         <v>1803.1</v>
       </c>
       <c r="X6" s="2">
@@ -1990,15 +2703,18 @@
         <v>0</v>
       </c>
       <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
+    <row r="7" spans="1:33">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2015,28 +2731,28 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="7">
         <v>1296</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="7">
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="7">
         <v>1944</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
         <v>1944</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="7">
         <f t="shared" si="0"/>
         <v>5184</v>
       </c>
@@ -2046,34 +2762,34 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="7">
         <v>1944</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="7">
         <v>648</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="7">
         <v>648</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="7">
         <v>648</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="7">
         <v>648</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="7">
         <v>648</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="7">
         <v>648</v>
       </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
         <v>0</v>
       </c>
       <c r="AC7" s="2">
@@ -2087,15 +2803,18 @@
         <v>0</v>
       </c>
       <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
+    <row r="8" spans="1:33">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -2133,7 +2852,7 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -2155,7 +2874,7 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="7">
         <v>70000</v>
       </c>
       <c r="X8" s="2">
@@ -2184,15 +2903,18 @@
         <v>0</v>
       </c>
       <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
+    <row r="9" spans="1:33">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:O9" si="3">SUM(D2:D8)</f>
@@ -2224,7 +2946,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>19936.440000000002</v>
+        <v>19936.44</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="3"/>
@@ -2232,7 +2954,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>8920.8499999999985</v>
+        <v>8920.85</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="3"/>
@@ -2242,12 +2964,12 @@
         <f t="shared" si="3"/>
         <v>47548.37</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>201953.94999999998</v>
+        <v>201953.95</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ref="Q9:Z9" si="4">SUM(Q2:Q8)</f>
+        <f t="shared" ref="Q9:AB9" si="4">SUM(Q2:Q8)</f>
         <v>12997.3</v>
       </c>
       <c r="R9" s="2">
@@ -2260,7 +2982,7 @@
       </c>
       <c r="T9" s="2">
         <f t="shared" si="4"/>
-        <v>17606.239999999998</v>
+        <v>17606.24</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="4"/>
@@ -2280,18 +3002,18 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="4"/>
-        <v>979.93000000000006</v>
+        <v>979.93</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="4"/>
-        <v>7221.2599999999993</v>
+        <v>7221.26</v>
       </c>
       <c r="AA9" s="2">
-        <f>SUM(AA2:AA8)</f>
+        <f t="shared" si="4"/>
         <v>8003.11</v>
       </c>
       <c r="AB9" s="2">
-        <f>SUM(AB2:AB8)</f>
+        <f t="shared" si="4"/>
         <v>14148.38</v>
       </c>
       <c r="AC9" s="2">
@@ -2307,97 +3029,101 @@
         <v>11719.26</v>
       </c>
       <c r="AF9" s="2">
+        <f>SUM(AF2:AF8)</f>
+        <v>44012.23</v>
+      </c>
+      <c r="AG9" s="2">
         <f t="shared" si="2"/>
-        <v>25600.880000000001</v>
+        <v>69613.11</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3">
+    <row r="10" spans="1:33">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7">
         <v>2401</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>2029.83</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7">
         <v>1375.56</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="7">
         <v>2699.75</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="7">
         <v>3113.23</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="7">
         <v>3190.37</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="7">
         <v>1404.08</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="7">
         <v>1836.61</v>
       </c>
-      <c r="L10" s="3">
-        <v>1146.8800000000001</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="L10" s="7">
+        <v>1146.88</v>
+      </c>
+      <c r="M10" s="7">
         <v>3626.41</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="7">
         <v>1715.16</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="7">
         <v>1728.63</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <f t="shared" si="0"/>
         <v>26267.51</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="7">
         <v>4512.24</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="7">
         <v>969.37</v>
       </c>
-      <c r="S10" s="3">
-        <v>2381.5500000000002</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="S10" s="7">
+        <v>2381.55</v>
+      </c>
+      <c r="T10" s="7">
         <v>6214.7</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="7">
         <v>3004.41</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="7">
         <v>9534.9</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="7">
         <v>10480.42</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="7">
         <v>6134.28</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="7">
         <v>5677.38</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="7">
         <v>2489.12</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="7">
         <v>2616.23</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="7">
         <v>1434.68</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="1"/>
-        <v>55449.279999999999</v>
+        <v>55449.28</v>
       </c>
       <c r="AD10" s="2">
         <f>1048.17+274.92+609.16</f>
@@ -2407,69 +3133,72 @@
         <v>1222.04</v>
       </c>
       <c r="AF10" s="2">
+        <v>3587.68</v>
+      </c>
+      <c r="AG10" s="2">
         <f t="shared" si="2"/>
-        <v>3154.29</v>
+        <v>6741.97</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3">
+    <row r="11" spans="1:33">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7">
         <v>1230</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>3690</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
         <v>708.5</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <v>3962</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
         <v>4285</v>
       </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
         <v>373</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="7">
         <v>3690</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="7">
         <v>339</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="7">
         <f t="shared" si="0"/>
         <v>18277.5</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="7">
         <v>1700</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="7">
         <v>5190</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="7">
         <v>5467</v>
       </c>
       <c r="V11" s="2">
@@ -2504,72 +3233,75 @@
         <v>0</v>
       </c>
       <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+    <row r="12" spans="1:33">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="7">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="7">
         <v>50</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <v>34.4</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="7">
         <v>121</v>
       </c>
-      <c r="J12" s="3">
-        <v>315.77999999999997</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="J12" s="7">
+        <v>315.78</v>
+      </c>
+      <c r="K12" s="7">
         <v>287.5</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="7">
         <v>29</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
         <f t="shared" si="0"/>
         <v>1837.68</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="7">
         <v>454.7</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="7">
         <v>663.4</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="7">
         <v>373</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="7">
         <v>89</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="7">
         <v>573</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="7">
         <v>217</v>
       </c>
       <c r="W12" s="2">
@@ -2588,7 +3320,7 @@
         <v>118.42</v>
       </c>
       <c r="AB12" s="2">
-        <v>610.08000000000004</v>
+        <v>610.08</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="1"/>
@@ -2599,18 +3331,21 @@
         <v>354.78</v>
       </c>
       <c r="AE12" s="2">
-        <v>302.20999999999998</v>
+        <v>302.21</v>
       </c>
       <c r="AF12" s="2">
-        <f>SUM(AD12:AE12)</f>
-        <v>656.99</v>
+        <v>2109.27</v>
+      </c>
+      <c r="AG12" s="2">
+        <f t="shared" si="2"/>
+        <v>2766.26</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
+    <row r="13" spans="1:33">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2648,14 +3383,14 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="7">
         <v>5000</v>
       </c>
       <c r="S13" s="2">
@@ -2699,53 +3434,56 @@
         <v>4200</v>
       </c>
       <c r="AF13" s="2">
-        <f>SUM(AD13:AE13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3">
+    <row r="14" spans="1:33">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7">
         <v>3267.55</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>3332.9</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>3399.55</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -2796,15 +3534,18 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2">
-        <f>SUM(AD14:AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
+    <row r="15" spans="1:33">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:O15" si="5">SUM(D10:D14)</f>
@@ -2816,7 +3557,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="5"/>
-        <v>5683.6100000000006</v>
+        <v>5683.61</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="5"/>
@@ -2824,7 +3565,7 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>7109.6299999999992</v>
+        <v>7109.63</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="5"/>
@@ -2840,7 +3581,7 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="5"/>
-        <v>1175.8800000000001</v>
+        <v>1175.88</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="5"/>
@@ -2854,13 +3595,13 @@
         <f t="shared" si="5"/>
         <v>2067.63</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>56382.689999999995</v>
+        <v>56382.69</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15:Z15" si="6">SUM(Q10:Q14)</f>
-        <v>4966.9399999999996</v>
+        <f t="shared" ref="Q15:AB15" si="6">SUM(Q10:Q14)</f>
+        <v>4966.94</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="6"/>
@@ -2896,142 +3637,146 @@
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="6"/>
-        <v>2520.0499999999997</v>
+        <v>2520.05</v>
       </c>
       <c r="AA15" s="2">
-        <f>SUM(AA10:AA14)</f>
-        <v>16734.650000000001</v>
+        <f t="shared" si="6"/>
+        <v>16734.65</v>
       </c>
       <c r="AB15" s="2">
-        <f>SUM(AB10:AB14)</f>
+        <f t="shared" si="6"/>
         <v>3844.76</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="1"/>
-        <v>201562.06999999998</v>
+        <v>201562.07</v>
       </c>
       <c r="AD15" s="2">
         <f>SUM(AD10:AD14)</f>
-        <v>2287.0299999999997</v>
+        <v>2287.03</v>
       </c>
       <c r="AE15" s="2">
         <f>SUM(AE10:AE14)</f>
         <v>5724.25</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" ref="AF15:AF16" si="7">SUM(AD15:AE15)</f>
-        <v>8011.28</v>
+        <f>SUM(AF10:AF14)</f>
+        <v>5696.95</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" si="2"/>
+        <v>13708.23</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="9"/>
+    <row r="16" spans="1:33">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:O16" si="8">D9-D15</f>
-        <v>854.77999999999975</v>
+        <f t="shared" ref="D16:O16" si="7">D9-D15</f>
+        <v>854.78</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="8"/>
-        <v>-2438.6799999999994</v>
+        <f t="shared" si="7"/>
+        <v>-2438.68</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>51716.39</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4728.51</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="8"/>
-        <v>844.3700000000008</v>
+        <f t="shared" si="7"/>
+        <v>844.370000000001</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>7699.11</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="8"/>
-        <v>6327.9900000000007</v>
+        <f t="shared" si="7"/>
+        <v>6327.99</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="8"/>
-        <v>13527.330000000002</v>
+        <f t="shared" si="7"/>
+        <v>13527.33</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="8"/>
-        <v>9303.2000000000007</v>
+        <f t="shared" si="7"/>
+        <v>9303.2</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="8"/>
-        <v>4921.4399999999987</v>
+        <f t="shared" si="7"/>
+        <v>4921.44</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="8"/>
-        <v>45480.740000000005</v>
-      </c>
-      <c r="P16" s="3">
+        <f t="shared" si="7"/>
+        <v>45480.74</v>
+      </c>
+      <c r="P16" s="7">
         <f t="shared" si="0"/>
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:AB16" si="9">Q9-Q15</f>
+        <f t="shared" ref="Q16:AB16" si="8">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="9"/>
-        <v>4027.2199999999993</v>
+        <f t="shared" si="8"/>
+        <v>4027.22</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="9"/>
-        <v>15642.310000000001</v>
+        <f t="shared" si="8"/>
+        <v>15642.31</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="9"/>
-        <v>11302.539999999997</v>
+        <f t="shared" si="8"/>
+        <v>11302.54</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="9"/>
-        <v>5613.5400000000009</v>
+        <f t="shared" si="8"/>
+        <v>5613.54</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="9"/>
-        <v>7531.0500000000011</v>
+        <f t="shared" si="8"/>
+        <v>7531.05</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="9"/>
-        <v>-34267.409999999989</v>
+        <f t="shared" si="8"/>
+        <v>-34267.41</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="9"/>
-        <v>10754.380000000001</v>
+        <f t="shared" si="8"/>
+        <v>10754.38</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="9"/>
-        <v>4701.2099999999991</v>
+        <f t="shared" si="8"/>
+        <v>4701.21</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="9"/>
-        <v>-8731.5400000000009</v>
+        <f t="shared" si="8"/>
+        <v>-8731.54</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="9"/>
-        <v>10303.619999999999</v>
+        <f t="shared" si="8"/>
+        <v>10303.62</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="1"/>
-        <v>29390.330000000005</v>
+        <v>29390.33</v>
       </c>
       <c r="AD16" s="2">
         <f>AD9-AD15</f>
@@ -3042,92 +3787,96 @@
         <v>5995.01</v>
       </c>
       <c r="AF16" s="2">
-        <f>SUM(AD16:AE16)</f>
-        <v>17589.599999999999</v>
+        <f>AF9-AF15</f>
+        <v>38315.28</v>
+      </c>
+      <c r="AG16" s="2">
+        <f t="shared" si="2"/>
+        <v>55904.88</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="1:32">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3">
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7">
         <v>33513</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>24751.65</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7">
         <v>12634.85</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="7">
         <v>15093.47</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="7">
         <v>20420.09</v>
       </c>
-      <c r="I17" s="3">
-        <v>17543.490000000002</v>
-      </c>
-      <c r="J17" s="3">
-        <v>18868.080000000002</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="I17" s="7">
+        <v>17543.49</v>
+      </c>
+      <c r="J17" s="7">
+        <v>18868.08</v>
+      </c>
+      <c r="K17" s="7">
         <v>14888.84</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="7">
         <v>14978.06</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="7">
         <v>15287.33</v>
       </c>
-      <c r="N17" s="3">
-        <v>18661.650000000001</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="N17" s="7">
+        <v>18661.65</v>
+      </c>
+      <c r="O17" s="7">
         <v>16076.11</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7">
         <v>15240.57</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="7">
         <v>12701.39</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="7">
         <v>9350.41</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="7">
         <v>14222.96</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="7">
         <v>18253.05</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="7">
         <v>23645.57</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="7">
         <v>19546.21</v>
       </c>
-      <c r="X17" s="3">
-        <v>19342.560000000001</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="X17" s="7">
+        <v>19342.56</v>
+      </c>
+      <c r="Y17" s="7">
         <v>8015.72</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="7">
         <v>8114.54</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="7">
         <v>8847.98</v>
       </c>
-      <c r="AB17" s="3">
-        <v>8655.3700000000008</v>
+      <c r="AB17" s="7">
+        <v>8655.37</v>
       </c>
       <c r="AD17" s="2">
         <v>6924.04</v>
@@ -3135,84 +3884,87 @@
       <c r="AE17" s="2">
         <v>7153.07</v>
       </c>
+      <c r="AF17" s="2">
+        <v>2132.12</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="3">
+    <row r="18" spans="1:32">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7">
         <v>24162</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>11155.93</v>
       </c>
-      <c r="F18" s="3">
-        <v>37081.440000000002</v>
-      </c>
-      <c r="G18" s="3">
-        <v>8361.0400000000009</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="F18" s="7">
+        <v>37081.44</v>
+      </c>
+      <c r="G18" s="7">
+        <v>8361.04</v>
+      </c>
+      <c r="H18" s="7">
         <v>7792.74</v>
       </c>
-      <c r="I18" s="3">
-        <v>9341.4699999999993</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="7">
+        <v>9341.47</v>
+      </c>
+      <c r="J18" s="7">
         <v>7021.05</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="7">
         <v>12564.52</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="7">
         <v>6163.61</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="7">
         <v>3693.43</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="7">
         <v>1889.28</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="7">
         <v>49351.22</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
         <v>1267.53</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="7">
         <v>29512.69</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="7">
         <v>14141.27</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="7">
         <v>13952.84</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="7">
         <v>16678.45</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="7">
         <v>21344.31</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="7">
         <v>7678.26</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="7">
         <v>9513.39</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="7">
         <v>13126.19</v>
       </c>
-      <c r="Z18" s="3">
-        <v>570.70000000000005</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="Z18" s="7">
+        <v>570.7</v>
+      </c>
+      <c r="AA18" s="7">
         <v>6710.55</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="7">
         <v>6697.56</v>
       </c>
       <c r="AD18" s="2">
@@ -3222,84 +3974,87 @@
       <c r="AE18" s="2">
         <v>47709.21</v>
       </c>
+      <c r="AF18" s="2">
+        <v>44830.93</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+    <row r="19" spans="1:32">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>20000</v>
       </c>
-      <c r="G19" s="3">
-        <v>20051.439999999999</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
+      <c r="G19" s="7">
+        <v>20051.44</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
         <v>4009.06</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="7">
         <v>6015.57</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19" s="7">
         <v>16029.84</v>
       </c>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="3">
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
         <v>6011.43</v>
       </c>
       <c r="AD19" s="2">
@@ -3308,84 +4063,87 @@
       <c r="AE19" s="2">
         <v>0</v>
       </c>
+      <c r="AF19" s="2">
+        <v>30983.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3">
+    <row r="20" spans="1:32">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7">
         <v>3580.23</v>
       </c>
-      <c r="R20" s="3">
-        <v>4451.5200000000004</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="R20" s="7">
+        <v>4451.52</v>
+      </c>
+      <c r="S20" s="7">
         <v>4647.49</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="7">
         <v>2252.86</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="7">
         <v>1598.05</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="7">
         <v>859.81</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
-      <c r="X20" s="3">
-        <v>2106.7600000000002</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="X20" s="7">
+        <v>2106.76</v>
+      </c>
+      <c r="Y20" s="7">
         <v>2786.56</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="7">
         <v>3531.46</v>
       </c>
-      <c r="AA20" s="3">
-        <v>4313.3599999999997</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AA20" s="7">
+        <v>4313.36</v>
+      </c>
+      <c r="AB20" s="7">
         <v>5662.84</v>
       </c>
       <c r="AD20" s="2">
@@ -3394,50 +4152,53 @@
       <c r="AE20" s="2">
         <v>8001.57</v>
       </c>
+      <c r="AF20" s="2">
+        <v>9119.11</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3">
+    <row r="21" spans="1:32">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="7">
         <v>10009.5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>30022.74</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="7">
         <v>19984.47</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="7">
         <v>19998.32</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3"/>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
@@ -3480,84 +4241,87 @@
       <c r="AE21" s="2">
         <v>0</v>
       </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3">
+    <row r="22" spans="1:32">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="7">
         <v>28940</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="7">
         <v>43024.44</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="7">
         <v>72264.17</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="7">
         <v>96752.12</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="7">
         <v>126725.83</v>
       </c>
-      <c r="I22" s="3">
-        <v>143531.51999999999</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="7">
+        <v>143531.52</v>
+      </c>
+      <c r="J22" s="7">
         <v>136197.87</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="7">
         <v>157196.16</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="7">
         <v>171682.53</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="7">
         <v>188902.16</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="7">
         <v>185183.64</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="7">
         <v>201931.89</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7">
         <v>245166.97</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="7">
         <v>236862.74</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="7">
         <v>253011.81</v>
       </c>
-      <c r="T22" s="3">
-        <v>287422.03999999998</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="T22" s="7">
+        <v>287422.04</v>
+      </c>
+      <c r="U22" s="7">
         <v>312091.25</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="7">
         <v>358454.98</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="7">
         <v>369739.11</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="7">
         <v>354784.18</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="7">
         <v>352905.69</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="7">
         <v>371385.53</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="7">
         <v>382911.99</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="7">
         <v>399438.3</v>
       </c>
       <c r="AD22" s="2">
@@ -3566,219 +4330,226 @@
       <c r="AE22" s="2">
         <v>417416.84</v>
       </c>
+      <c r="AF22" s="2">
+        <v>424153.45</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" ref="D23:O23" si="10">SUM(D17:D22)</f>
+    <row r="23" spans="1:32">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" ref="D23:O23" si="9">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
+        <f t="shared" si="9"/>
+        <v>108954.76</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="9"/>
+        <v>161964.93</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="9"/>
+        <v>160256.39</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="9"/>
+        <v>154938.66</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="9"/>
+        <v>170416.48</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="9"/>
+        <v>162087</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="9"/>
+        <v>184649.52</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="9"/>
+        <v>192824.2</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="9"/>
+        <v>207882.92</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="9"/>
+        <v>205734.57</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="9"/>
+        <v>267359.22</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" ref="Q23:AB23" si="10">SUM(Q17:Q22)</f>
+        <v>265255.3</v>
+      </c>
+      <c r="R23" s="9">
         <f t="shared" si="10"/>
-        <v>108954.76000000001</v>
-      </c>
-      <c r="F23" s="8">
+        <v>283528.34</v>
+      </c>
+      <c r="S23" s="9">
         <f t="shared" si="10"/>
-        <v>161964.93</v>
-      </c>
-      <c r="G23" s="8">
+        <v>281150.98</v>
+      </c>
+      <c r="T23" s="9">
         <f t="shared" si="10"/>
-        <v>160256.38999999998</v>
-      </c>
-      <c r="H23" s="8">
+        <v>317850.7</v>
+      </c>
+      <c r="U23" s="9">
         <f t="shared" si="10"/>
-        <v>154938.66</v>
-      </c>
-      <c r="I23" s="8">
+        <v>348620.8</v>
+      </c>
+      <c r="V23" s="9">
         <f t="shared" si="10"/>
-        <v>170416.47999999998</v>
-      </c>
-      <c r="J23" s="8">
+        <v>404304.67</v>
+      </c>
+      <c r="W23" s="9">
         <f t="shared" si="10"/>
-        <v>162087</v>
-      </c>
-      <c r="K23" s="8">
+        <v>396963.58</v>
+      </c>
+      <c r="X23" s="9">
         <f t="shared" si="10"/>
-        <v>184649.52000000002</v>
-      </c>
-      <c r="L23" s="8">
+        <v>389755.95</v>
+      </c>
+      <c r="Y23" s="9">
         <f t="shared" si="10"/>
-        <v>192824.2</v>
-      </c>
-      <c r="M23" s="8">
+        <v>382849.73</v>
+      </c>
+      <c r="Z23" s="9">
         <f t="shared" si="10"/>
-        <v>207882.92</v>
-      </c>
-      <c r="N23" s="8">
+        <v>399632.07</v>
+      </c>
+      <c r="AA23" s="9">
         <f t="shared" si="10"/>
-        <v>205734.57</v>
-      </c>
-      <c r="O23" s="8">
+        <v>402783.88</v>
+      </c>
+      <c r="AB23" s="9">
         <f t="shared" si="10"/>
-        <v>267359.22000000003</v>
-      </c>
-      <c r="Q23" s="8">
-        <f t="shared" ref="Q23:Z23" si="11">SUM(Q17:Q22)</f>
-        <v>265255.3</v>
-      </c>
-      <c r="R23" s="8">
-        <f t="shared" si="11"/>
-        <v>283528.33999999997</v>
-      </c>
-      <c r="S23" s="8">
-        <f t="shared" si="11"/>
-        <v>281150.98</v>
-      </c>
-      <c r="T23" s="8">
-        <f t="shared" si="11"/>
-        <v>317850.69999999995</v>
-      </c>
-      <c r="U23" s="8">
-        <f t="shared" si="11"/>
-        <v>348620.79999999999</v>
-      </c>
-      <c r="V23" s="8">
-        <f t="shared" si="11"/>
-        <v>404304.67</v>
-      </c>
-      <c r="W23" s="8">
-        <f t="shared" si="11"/>
-        <v>396963.57999999996</v>
-      </c>
-      <c r="X23" s="8">
-        <f t="shared" si="11"/>
-        <v>389755.95</v>
-      </c>
-      <c r="Y23" s="8">
-        <f t="shared" si="11"/>
-        <v>382849.73</v>
-      </c>
-      <c r="Z23" s="8">
-        <f t="shared" si="11"/>
-        <v>399632.07</v>
-      </c>
-      <c r="AA23" s="8">
-        <f>SUM(AA17:AA22)</f>
-        <v>402783.88</v>
-      </c>
-      <c r="AB23" s="8">
-        <f>SUM(AB17:AB22)</f>
         <v>426465.5</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="AD23" s="9">
         <f>SUM(AD17:AD22)</f>
-        <v>477902.41000000003</v>
-      </c>
-      <c r="AE23" s="8">
+        <v>477902.41</v>
+      </c>
+      <c r="AE23" s="9">
         <f>SUM(AE17:AE22)</f>
         <v>480280.69</v>
       </c>
+      <c r="AF23" s="9">
+        <f>SUM(AF17:AF22)</f>
+        <v>511218.75</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>48</v>
+    <row r="24" spans="1:32">
+      <c r="A24" s="3"/>
+      <c r="B24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D24" s="2">
         <v>56732.45</v>
       </c>
       <c r="E24" s="2">
         <f>D24+E8-E14</f>
-        <v>53399.549999999996</v>
+        <v>53399.55</v>
       </c>
       <c r="F24" s="2">
         <f>E24+F8-F14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="G24" s="2">
         <f>F24+G8-G14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="H24" s="2">
         <f>G24+H8-H14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:O24" si="12">G24+I8-I14</f>
-        <v>99999.999999999985</v>
+        <f t="shared" ref="I24:O24" si="11">G24+I8-I14</f>
+        <v>100000</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="12"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="11"/>
+        <v>100000</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="12"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="11"/>
+        <v>100000</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="12"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="11"/>
+        <v>100000</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="12"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="11"/>
+        <v>100000</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="12"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="11"/>
+        <v>100000</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="12"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="11"/>
+        <v>100000</v>
       </c>
       <c r="Q24" s="2">
         <f>O24+Q8-Q14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:W24" si="13">Q24+R8-R14</f>
-        <v>99999.999999999985</v>
+        <f t="shared" ref="R24:AB24" si="12">Q24+R8-R14</f>
+        <v>100000</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="13"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="12"/>
+        <v>100000</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="13"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="12"/>
+        <v>100000</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="13"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="12"/>
+        <v>100000</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="13"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="12"/>
+        <v>100000</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>170000</v>
       </c>
       <c r="X24" s="2">
-        <f>W24+X8-X14</f>
+        <f t="shared" si="12"/>
         <v>170000</v>
       </c>
       <c r="Y24" s="2">
-        <f>X24+Y8-Y14</f>
+        <f t="shared" si="12"/>
         <v>170000</v>
       </c>
       <c r="Z24" s="2">
-        <f>Y24+Z8-Z14</f>
+        <f t="shared" si="12"/>
         <v>170000</v>
       </c>
       <c r="AA24" s="2">
-        <f>Z24+AA8-AA14</f>
+        <f t="shared" si="12"/>
         <v>156000</v>
       </c>
       <c r="AB24" s="2">
-        <f>AA24+AB8-AB14</f>
+        <f t="shared" si="12"/>
         <v>156000</v>
       </c>
       <c r="AD24" s="2">
@@ -3789,140 +4560,147 @@
         <f>AD24+AE8-AE14</f>
         <v>156000</v>
       </c>
+      <c r="AF24" s="2">
+        <f>AE24+AF8-AF14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8">
-        <f t="shared" ref="D25:O25" si="14">D23-D24</f>
-        <v>39892.050000000003</v>
-      </c>
-      <c r="E25" s="8">
+    <row r="25" spans="1:32">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:O25" si="13">D23-D24</f>
+        <v>39892.05</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="13"/>
+        <v>55555.21</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="13"/>
+        <v>61964.93</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="13"/>
+        <v>60256.39</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="13"/>
+        <v>54938.66</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="13"/>
+        <v>70416.48</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="13"/>
+        <v>62087</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="13"/>
+        <v>84649.52</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="13"/>
+        <v>92824.2</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="13"/>
+        <v>107882.92</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="13"/>
+        <v>105734.57</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="13"/>
+        <v>167359.22</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" ref="Q25:AB25" si="14">Q23-Q24</f>
+        <v>165255.3</v>
+      </c>
+      <c r="R25" s="9">
         <f t="shared" si="14"/>
-        <v>55555.210000000014</v>
-      </c>
-      <c r="F25" s="8">
+        <v>183528.34</v>
+      </c>
+      <c r="S25" s="9">
         <f t="shared" si="14"/>
-        <v>61964.930000000008</v>
-      </c>
-      <c r="G25" s="8">
+        <v>181150.98</v>
+      </c>
+      <c r="T25" s="9">
         <f t="shared" si="14"/>
-        <v>60256.39</v>
-      </c>
-      <c r="H25" s="8">
+        <v>217850.7</v>
+      </c>
+      <c r="U25" s="9">
         <f t="shared" si="14"/>
-        <v>54938.660000000018</v>
-      </c>
-      <c r="I25" s="8">
+        <v>248620.8</v>
+      </c>
+      <c r="V25" s="9">
         <f t="shared" si="14"/>
-        <v>70416.479999999996</v>
-      </c>
-      <c r="J25" s="8">
+        <v>304304.67</v>
+      </c>
+      <c r="W25" s="9">
         <f t="shared" si="14"/>
-        <v>62087.000000000015</v>
-      </c>
-      <c r="K25" s="8">
+        <v>226963.58</v>
+      </c>
+      <c r="X25" s="9">
         <f t="shared" si="14"/>
-        <v>84649.520000000033</v>
-      </c>
-      <c r="L25" s="8">
+        <v>219755.95</v>
+      </c>
+      <c r="Y25" s="9">
         <f t="shared" si="14"/>
-        <v>92824.200000000026</v>
-      </c>
-      <c r="M25" s="8">
+        <v>212849.73</v>
+      </c>
+      <c r="Z25" s="9">
         <f t="shared" si="14"/>
-        <v>107882.92000000003</v>
-      </c>
-      <c r="N25" s="8">
+        <v>229632.07</v>
+      </c>
+      <c r="AA25" s="9">
         <f t="shared" si="14"/>
-        <v>105734.57000000002</v>
-      </c>
-      <c r="O25" s="8">
+        <v>246783.88</v>
+      </c>
+      <c r="AB25" s="9">
         <f t="shared" si="14"/>
-        <v>167359.22000000003</v>
-      </c>
-      <c r="Q25" s="8">
-        <f t="shared" ref="Q25:AB25" si="15">Q23-Q24</f>
-        <v>165255.29999999999</v>
-      </c>
-      <c r="R25" s="8">
-        <f t="shared" si="15"/>
-        <v>183528.33999999997</v>
-      </c>
-      <c r="S25" s="8">
-        <f t="shared" si="15"/>
-        <v>181150.97999999998</v>
-      </c>
-      <c r="T25" s="8">
-        <f t="shared" si="15"/>
-        <v>217850.69999999995</v>
-      </c>
-      <c r="U25" s="8">
-        <f t="shared" si="15"/>
-        <v>248620.79999999999</v>
-      </c>
-      <c r="V25" s="8">
-        <f t="shared" si="15"/>
-        <v>304304.67</v>
-      </c>
-      <c r="W25" s="8">
-        <f t="shared" si="15"/>
-        <v>226963.57999999996</v>
-      </c>
-      <c r="X25" s="8">
-        <f t="shared" si="15"/>
-        <v>219755.95</v>
-      </c>
-      <c r="Y25" s="8">
-        <f t="shared" si="15"/>
-        <v>212849.72999999998</v>
-      </c>
-      <c r="Z25" s="8">
-        <f t="shared" si="15"/>
-        <v>229632.07</v>
-      </c>
-      <c r="AA25" s="8">
-        <f t="shared" si="15"/>
-        <v>246783.88</v>
-      </c>
-      <c r="AB25" s="8">
-        <f t="shared" si="15"/>
         <v>270465.5</v>
       </c>
-      <c r="AD25" s="8">
+      <c r="AD25" s="9">
         <f>AD23-AD24</f>
-        <v>321902.41000000003</v>
-      </c>
-      <c r="AE25" s="8">
+        <v>321902.41</v>
+      </c>
+      <c r="AE25" s="9">
         <f>AE23-AE24</f>
         <v>324280.69</v>
+      </c>
+      <c r="AF25" s="9">
+        <f>AF23-AF24</f>
+        <v>355218.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:A16"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:B23"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Y9:AB9 AB15 AE9" formulaRange="1"/>
-    <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="1"/>
+    <ignoredError sqref="Y9:AB9 AB15 AE9:AF9" formulaRange="true"/>
+    <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="true"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="19665" windowHeight="7905" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="现金流量及资产负债表" sheetId="1" r:id="rId1"/>
+    <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -177,11 +177,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -194,7 +194,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -205,14 +205,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,15 +249,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,10 +289,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,67 +308,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,7 +328,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,7 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +375,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +423,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,31 +459,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +507,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,103 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,17 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,32 +607,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -674,156 +642,188 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1116,9 +1116,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1:$AF$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AG$1)</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" c:formatCode="0.00">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -1199,16 +1199,19 @@
                 </c:pt>
                 <c:pt idx="26" c:formatCode="yyyy/mm">
                   <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/mm">
+                  <c:v>44287</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$23:$O$23,现金流量及资产负债表!$Q$23:$AB$23,现金流量及资产负债表!$AD$23:$AF$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AG$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -1289,6 +1292,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>511218.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>478512.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,9 +1369,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(现金流量及资产负债表!$D$1:$O$1,现金流量及资产负债表!$Q$1:$AB$1,现金流量及资产负债表!$AD$1:$AF$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AG$1)</c:f>
               <c:strCache>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" c:formatCode="0.00">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -1446,16 +1452,19 @@
                 </c:pt>
                 <c:pt idx="26" c:formatCode="yyyy/mm">
                   <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/mm">
+                  <c:v>44287</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(现金流量及资产负债表!$D$25:$O$25,现金流量及资产负债表!$Q$25:$AB$25,现金流量及资产负债表!$AD$25:$AF$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AG$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>39892.05</c:v>
                 </c:pt>
@@ -1536,6 +1545,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>355218.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>322512.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1642,7 +1654,7 @@
         <c:auto val="true"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="true"/>
+        <c:noMultiLvlLbl val="false"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="74300066"/>
@@ -1805,8 +1817,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>754560</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>96735</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>111450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1815,7 +1827,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2409825" y="4800600"/>
-        <a:ext cx="5669280" cy="3354070"/>
+        <a:ext cx="5669280" cy="3540125"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2086,10 +2098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2102,13 +2114,13 @@
     <col min="23" max="23" width="11.625" style="2" customWidth="true"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="true"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="true"/>
-    <col min="30" max="32" width="11.25" style="2" customWidth="true"/>
-    <col min="33" max="33" width="12" style="2" customWidth="true"/>
-    <col min="34" max="75" width="10.5" style="2" customWidth="true"/>
-    <col min="76" max="1031" width="10.5" style="1" customWidth="true"/>
+    <col min="30" max="33" width="11.25" style="2" customWidth="true"/>
+    <col min="34" max="34" width="12" style="2" customWidth="true"/>
+    <col min="35" max="76" width="10.5" style="2" customWidth="true"/>
+    <col min="77" max="1032" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2201,11 +2213,14 @@
       <c r="AF1" s="10">
         <v>44256</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AG1" s="10">
+        <v>44287</v>
+      </c>
+      <c r="AH1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -2305,11 +2320,14 @@
         <v>13025.09</v>
       </c>
       <c r="AG2" s="2">
-        <f>SUM(AD2:AF2)</f>
-        <v>38162.47</v>
+        <v>17572.19</v>
+      </c>
+      <c r="AH2" s="2">
+        <f t="shared" ref="AH2:AH16" si="2">SUM(AD2:AG2)</f>
+        <v>55734.66</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
@@ -2405,11 +2423,14 @@
         <v>0</v>
       </c>
       <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AG16" si="2">SUM(AD3:AF3)</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
@@ -2506,11 +2527,14 @@
         <v>4</v>
       </c>
       <c r="AG4" s="2">
+        <v>9911.85</v>
+      </c>
+      <c r="AH4" s="2">
         <f t="shared" si="2"/>
-        <v>467.5</v>
+        <v>10379.35</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="8" t="s">
@@ -2606,11 +2630,14 @@
         <v>30983.14</v>
       </c>
       <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:34">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="8" t="s">
@@ -2706,11 +2733,14 @@
         <v>0</v>
       </c>
       <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
@@ -2806,11 +2836,14 @@
         <v>0</v>
       </c>
       <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="8" t="s">
@@ -2906,11 +2939,14 @@
         <v>0</v>
       </c>
       <c r="AG8" s="2">
+        <v>13000</v>
+      </c>
+      <c r="AH8" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8" t="s">
@@ -3033,11 +3069,15 @@
         <v>44012.23</v>
       </c>
       <c r="AG9" s="2">
+        <f>SUM(AG2:AG8)</f>
+        <v>40484.04</v>
+      </c>
+      <c r="AH9" s="2">
         <f t="shared" si="2"/>
-        <v>69613.11</v>
+        <v>110097.15</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:34">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>34</v>
@@ -3136,11 +3176,14 @@
         <v>3587.68</v>
       </c>
       <c r="AG10" s="2">
+        <v>3176.72</v>
+      </c>
+      <c r="AH10" s="2">
         <f t="shared" si="2"/>
-        <v>6741.97</v>
+        <v>9918.69</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:34">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8" t="s">
@@ -3236,11 +3279,14 @@
         <v>0</v>
       </c>
       <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:34">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="8" t="s">
@@ -3337,11 +3383,14 @@
         <v>2109.27</v>
       </c>
       <c r="AG12" s="2">
+        <v>80444.4</v>
+      </c>
+      <c r="AH12" s="2">
         <f t="shared" si="2"/>
-        <v>2766.26</v>
+        <v>83210.66</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:34">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8" t="s">
@@ -3437,11 +3486,14 @@
         <v>0</v>
       </c>
       <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:34">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8" t="s">
@@ -3537,11 +3589,14 @@
         <v>0</v>
       </c>
       <c r="AG14" s="2">
+        <v>13000</v>
+      </c>
+      <c r="AH14" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:34">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8" t="s">
@@ -3664,11 +3719,15 @@
         <v>5696.95</v>
       </c>
       <c r="AG15" s="2">
+        <f>SUM(AG10:AG14)</f>
+        <v>96621.12</v>
+      </c>
+      <c r="AH15" s="2">
         <f t="shared" si="2"/>
-        <v>13708.23</v>
+        <v>110329.35</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:34">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
@@ -3791,11 +3850,15 @@
         <v>38315.28</v>
       </c>
       <c r="AG16" s="2">
+        <f>AG9-AG15</f>
+        <v>-56137.08</v>
+      </c>
+      <c r="AH16" s="2">
         <f t="shared" si="2"/>
-        <v>55904.88</v>
+        <v>-232.199999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:33">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3887,8 +3950,11 @@
       <c r="AF17" s="2">
         <v>2132.12</v>
       </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:33">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8" t="s">
@@ -3977,8 +4043,11 @@
       <c r="AF18" s="2">
         <v>44830.93</v>
       </c>
+      <c r="AG18" s="2">
+        <v>1083.6</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:33">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="8" t="s">
@@ -4066,8 +4135,11 @@
       <c r="AF19" s="2">
         <v>30983.14</v>
       </c>
+      <c r="AG19" s="2">
+        <v>30983.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:33">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
@@ -4155,8 +4227,11 @@
       <c r="AF20" s="2">
         <v>9119.11</v>
       </c>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:33">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="8" t="s">
@@ -4244,8 +4319,11 @@
       <c r="AF21" s="2">
         <v>0</v>
       </c>
+      <c r="AG21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:33">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="8" t="s">
@@ -4333,8 +4411,11 @@
       <c r="AF22" s="2">
         <v>424153.45</v>
       </c>
+      <c r="AG22" s="2">
+        <v>446445.93</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:33">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="8" t="s">
@@ -4448,8 +4529,12 @@
         <f>SUM(AF17:AF22)</f>
         <v>511218.75</v>
       </c>
+      <c r="AG23" s="9">
+        <f>SUM(AG17:AG22)</f>
+        <v>478512.67</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:33">
       <c r="A24" s="3"/>
       <c r="B24" s="8" t="s">
         <v>49</v>
@@ -4564,8 +4649,12 @@
         <f>AE24+AF8-AF14</f>
         <v>156000</v>
       </c>
+      <c r="AG24" s="2">
+        <f>AF24+AG8-AG14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:33">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>51</v>
@@ -4678,6 +4767,10 @@
       <c r="AF25" s="9">
         <f>AF23-AF24</f>
         <v>355218.75</v>
+      </c>
+      <c r="AG25" s="9">
+        <f>AG23-AG24</f>
+        <v>322512.67</v>
       </c>
     </row>
   </sheetData>
@@ -4698,7 +4791,7 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Y9:AB9 AB15 AE9:AF9" formulaRange="true"/>
+    <ignoredError sqref="Y9:AB9 AB15 AE9:AG9" formulaRange="true"/>
     <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -178,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -205,9 +205,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,8 +241,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -235,54 +327,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,58 +343,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,19 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +393,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,145 +537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +627,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -657,21 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -685,145 +685,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
@@ -1116,9 +1116,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AG$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AH$1)</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0" c:formatCode="0.00">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -1202,16 +1202,19 @@
                 </c:pt>
                 <c:pt idx="27" c:formatCode="yyyy/mm">
                   <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/mm">
+                  <c:v>44317</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AG$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AH$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -1295,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>478512.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>497675.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1369,9 +1375,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AG$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AH$1)</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0" c:formatCode="0.00">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -1455,16 +1461,19 @@
                 </c:pt>
                 <c:pt idx="27" c:formatCode="yyyy/mm">
                   <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/mm">
+                  <c:v>44317</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AG$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AH$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>39892.05</c:v>
                 </c:pt>
@@ -1548,6 +1557,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>322512.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>341675.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,9 +1617,6 @@
                   </a:rPr>
                   <a:t>时间</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                  <a:latin typeface="Arial"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1817,8 +1826,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>754560</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>111450</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>135690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1827,7 +1836,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2409825" y="4800600"/>
-        <a:ext cx="5669280" cy="3540125"/>
+        <a:ext cx="5669280" cy="3735705"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2098,10 +2107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2114,13 +2123,13 @@
     <col min="23" max="23" width="11.625" style="2" customWidth="true"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="true"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="true"/>
-    <col min="30" max="33" width="11.25" style="2" customWidth="true"/>
-    <col min="34" max="34" width="12" style="2" customWidth="true"/>
-    <col min="35" max="76" width="10.5" style="2" customWidth="true"/>
-    <col min="77" max="1032" width="10.5" style="1" customWidth="true"/>
+    <col min="30" max="34" width="11.25" style="2" customWidth="true"/>
+    <col min="35" max="35" width="12" style="2" customWidth="true"/>
+    <col min="36" max="77" width="10.5" style="2" customWidth="true"/>
+    <col min="78" max="1033" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2216,11 +2225,14 @@
       <c r="AG1" s="10">
         <v>44287</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="10">
+        <v>44317</v>
+      </c>
+      <c r="AI1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -2323,11 +2335,14 @@
         <v>17572.19</v>
       </c>
       <c r="AH2" s="2">
-        <f t="shared" ref="AH2:AH16" si="2">SUM(AD2:AG2)</f>
-        <v>55734.66</v>
+        <v>13221.36</v>
+      </c>
+      <c r="AI2" s="2">
+        <f t="shared" ref="AI2:AI16" si="2">SUM(AD2:AH2)</f>
+        <v>68956.02</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="8" t="s">
@@ -2426,11 +2441,14 @@
         <v>0</v>
       </c>
       <c r="AH3" s="2">
+        <v>347.3</v>
+      </c>
+      <c r="AI3" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>347.3</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
@@ -2530,11 +2548,14 @@
         <v>9911.85</v>
       </c>
       <c r="AH4" s="2">
+        <v>938.48</v>
+      </c>
+      <c r="AI4" s="2">
         <f t="shared" si="2"/>
-        <v>10379.35</v>
+        <v>11317.83</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="8" t="s">
@@ -2633,11 +2654,14 @@
         <v>0</v>
       </c>
       <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="8" t="s">
@@ -2736,11 +2760,14 @@
         <v>0</v>
       </c>
       <c r="AH6" s="2">
+        <v>677.74</v>
+      </c>
+      <c r="AI6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>677.74</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
@@ -2839,11 +2866,14 @@
         <v>0</v>
       </c>
       <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="8" t="s">
@@ -2942,11 +2972,14 @@
         <v>13000</v>
       </c>
       <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8" t="s">
@@ -3073,11 +3106,15 @@
         <v>40484.04</v>
       </c>
       <c r="AH9" s="2">
+        <f>SUM(AH2:AH8)</f>
+        <v>15184.88</v>
+      </c>
+      <c r="AI9" s="2">
         <f t="shared" si="2"/>
-        <v>110097.15</v>
+        <v>125282.03</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>34</v>
@@ -3179,11 +3216,14 @@
         <v>3176.72</v>
       </c>
       <c r="AH10" s="2">
+        <v>8531.3</v>
+      </c>
+      <c r="AI10" s="2">
         <f t="shared" si="2"/>
-        <v>9918.69</v>
+        <v>18449.99</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8" t="s">
@@ -3282,11 +3322,14 @@
         <v>0</v>
       </c>
       <c r="AH11" s="2">
+        <v>2960</v>
+      </c>
+      <c r="AI11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2960</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="8" t="s">
@@ -3386,11 +3429,14 @@
         <v>80444.4</v>
       </c>
       <c r="AH12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AI12" s="2">
         <f t="shared" si="2"/>
-        <v>83210.66</v>
+        <v>85210.66</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8" t="s">
@@ -3489,11 +3535,14 @@
         <v>0</v>
       </c>
       <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8" t="s">
@@ -3592,11 +3641,14 @@
         <v>13000</v>
       </c>
       <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8" t="s">
@@ -3723,11 +3775,15 @@
         <v>96621.12</v>
       </c>
       <c r="AH15" s="2">
+        <f>SUM(AH10:AH14)</f>
+        <v>13491.3</v>
+      </c>
+      <c r="AI15" s="2">
         <f t="shared" si="2"/>
-        <v>110329.35</v>
+        <v>123820.65</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
@@ -3854,11 +3910,15 @@
         <v>-56137.08</v>
       </c>
       <c r="AH16" s="2">
+        <f>AH9-AH15</f>
+        <v>1693.58</v>
+      </c>
+      <c r="AI16" s="2">
         <f t="shared" si="2"/>
-        <v>-232.199999999997</v>
+        <v>1461.38</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:34">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -3953,8 +4013,11 @@
       <c r="AG17" s="2">
         <v>0</v>
       </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:34">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8" t="s">
@@ -4046,8 +4109,11 @@
       <c r="AG18" s="2">
         <v>1083.6</v>
       </c>
+      <c r="AH18" s="2">
+        <v>2304.47</v>
+      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:34">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="8" t="s">
@@ -4138,8 +4204,11 @@
       <c r="AG19" s="2">
         <v>30983.14</v>
       </c>
+      <c r="AH19" s="2">
+        <v>30983.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:34">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8" t="s">
@@ -4230,8 +4299,11 @@
       <c r="AG20" s="2">
         <v>0</v>
       </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:34">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="8" t="s">
@@ -4322,8 +4394,11 @@
       <c r="AG21" s="2">
         <v>0</v>
       </c>
+      <c r="AH21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:34">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="8" t="s">
@@ -4414,8 +4489,11 @@
       <c r="AG22" s="2">
         <v>446445.93</v>
       </c>
+      <c r="AH22" s="2">
+        <v>464387.78</v>
+      </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:34">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="8" t="s">
@@ -4533,8 +4611,12 @@
         <f>SUM(AG17:AG22)</f>
         <v>478512.67</v>
       </c>
+      <c r="AH23" s="9">
+        <f>SUM(AH17:AH22)</f>
+        <v>497675.39</v>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:34">
       <c r="A24" s="3"/>
       <c r="B24" s="8" t="s">
         <v>49</v>
@@ -4653,8 +4735,12 @@
         <f>AF24+AG8-AG14</f>
         <v>156000</v>
       </c>
+      <c r="AH24" s="2">
+        <f>AG24+AH8-AH14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:34">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>51</v>
@@ -4771,6 +4857,10 @@
       <c r="AG25" s="9">
         <f>AG23-AG24</f>
         <v>322512.67</v>
+      </c>
+      <c r="AH25" s="9">
+        <f>AH23-AH24</f>
+        <v>341675.39</v>
       </c>
     </row>
   </sheetData>
@@ -4791,8 +4881,8 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Y9:AB9 AB15 AE9:AG9" formulaRange="true"/>
-    <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="true"/>
+    <ignoredError sqref="AE9:AH9 AB15 Y9:AB9" formulaRange="true"/>
+    <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\private\balance_sheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9633A78C-B05C-4560-912A-B7094C1E0204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="7905" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19665" windowHeight="7905" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -175,15 +181,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,158 +199,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,194 +218,8 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -558,362 +229,73 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -987,15 +369,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="false"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="false"/>
+  <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
@@ -1008,7 +393,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1027,14 +412,10 @@
               </a:rPr>
               <a:t>资金总量</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="false"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1042,25 +423,17 @@
         </a:ln>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="false"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="false"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"总资产"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总资产</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>总资产</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1083,7 +456,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="true"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1096,148 +469,150 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
-            <c:showLegendKey val="false"/>
-            <c:showVal val="false"/>
-            <c:showCatName val="false"/>
-            <c:showSerName val="false"/>
-            <c:showPercent val="false"/>
-            <c:showBubbleSize val="true"/>
-            <c:showLeaderLines val="false"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="false"/>
-                <c15:leaderLines/>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AH$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AI$1)</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
-                <c:pt idx="0" c:formatCode="0.00">
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="0.00">
+                <c:pt idx="1">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.00">
+                <c:pt idx="3">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00">
+                <c:pt idx="5">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.00">
+                <c:pt idx="6">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="0.00">
+                <c:pt idx="9">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00">
+                <c:pt idx="10">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="0.00">
+                <c:pt idx="11">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="0.00">
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="0.00">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="0.00">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="0.00">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="0.00">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="0.00">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="0.00">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="0.00">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/mm">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/mm">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/mm">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/mm">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/mm">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/mm">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/mm">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/mm">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/mm">
-                  <c:v>44317</c:v>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AH$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AI$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108954.76</c:v>
+                  <c:v>108954.76000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>161964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160256.39</c:v>
+                  <c:v>160256.38999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>154938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170416.48</c:v>
+                  <c:v>170416.47999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>162087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184649.52</c:v>
+                  <c:v>184649.52000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>192824.2</c:v>
@@ -1249,28 +624,28 @@
                   <c:v>205734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267359.22</c:v>
+                  <c:v>267359.22000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>265255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283528.34</c:v>
+                  <c:v>283528.33999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>281150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>317850.7</c:v>
+                  <c:v>317850.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348620.8</c:v>
+                  <c:v>348620.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>404304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>396963.58</c:v>
+                  <c:v>396963.57999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>389755.95</c:v>
@@ -1288,7 +663,7 @@
                   <c:v>426465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>477902.41</c:v>
+                  <c:v>477902.41000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>480280.69</c:v>
@@ -1301,25 +676,25 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>497675.39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>469790.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5E0-44CC-9867-7A57E40945F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"净资产"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>净资产</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>净资产</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1342,7 +717,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="true"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1355,187 +730,189 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
-            <c:showLegendKey val="false"/>
-            <c:showVal val="false"/>
-            <c:showCatName val="false"/>
-            <c:showSerName val="false"/>
-            <c:showPercent val="false"/>
-            <c:showBubbleSize val="true"/>
-            <c:showLeaderLines val="false"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="false"/>
-                <c15:leaderLines/>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AH$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AI$1)</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
-                <c:pt idx="0" c:formatCode="0.00">
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="0.00">
+                <c:pt idx="1">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.00">
+                <c:pt idx="3">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00">
+                <c:pt idx="5">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.00">
+                <c:pt idx="6">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="0.00">
+                <c:pt idx="9">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00">
+                <c:pt idx="10">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="0.00">
+                <c:pt idx="11">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="0.00">
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="0.00">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="0.00">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="0.00">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="0.00">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="0.00">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="0.00">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="0.00">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/mm">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/mm">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/mm">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/mm">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/mm">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/mm">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/mm">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/mm">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/mm">
-                  <c:v>44317</c:v>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AH$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AI$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>39892.05</c:v>
+                  <c:v>39892.050000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55555.21</c:v>
+                  <c:v>55555.210000000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61964.93</c:v>
+                  <c:v>61964.930000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54938.66</c:v>
+                  <c:v>54938.660000000018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70416.48</c:v>
+                  <c:v>70416.479999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62087</c:v>
+                  <c:v>62087.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84649.52</c:v>
+                  <c:v>84649.520000000033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92824.2</c:v>
+                  <c:v>92824.200000000026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107882.92</c:v>
+                  <c:v>107882.92000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105734.57</c:v>
+                  <c:v>105734.57000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167359.22</c:v>
+                  <c:v>167359.22000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165255.3</c:v>
+                  <c:v>165255.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>183528.34</c:v>
+                  <c:v>183528.33999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181150.98</c:v>
+                  <c:v>181150.97999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>217850.7</c:v>
+                  <c:v>217850.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248620.8</c:v>
+                  <c:v>248620.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>304304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226963.58</c:v>
+                  <c:v>226963.57999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>219755.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212849.73</c:v>
+                  <c:v>212849.72999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>229632.07</c:v>
@@ -1547,7 +924,7 @@
                   <c:v>270465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>321902.41</c:v>
+                  <c:v>321902.41000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>324280.69</c:v>
@@ -1560,19 +937,27 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>341675.39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>313790.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="false"/>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5E0-44CC-9867-7A57E40945F0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="false"/>
-          <c:showVal val="false"/>
-          <c:showCatName val="false"/>
-          <c:showSerName val="false"/>
-          <c:showPercent val="false"/>
-          <c:showBubbleSize val="false"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
@@ -1583,8 +968,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="false"/>
-        <c:smooth val="false"/>
+        <c:smooth val="0"/>
         <c:axId val="52376106"/>
         <c:axId val="74300066"/>
       </c:lineChart>
@@ -1593,12 +977,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1620,8 +1004,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="false"/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1629,7 +1012,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1643,7 +1026,7 @@
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1656,21 +1039,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74300066"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="true"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="false"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="74300066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="false"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1686,7 +1070,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1705,14 +1089,10 @@
                   </a:rPr>
                   <a:t>资金量</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                  <a:latin typeface="Arial"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="false"/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1720,7 +1100,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="true"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1734,7 +1114,7 @@
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1747,6 +1127,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="52376106"/>
@@ -1764,10 +1145,9 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="false"/>
+      <c:overlay val="0"/>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -1780,12 +1160,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="true"/>
+    <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="true"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1804,6 +1185,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1815,7 +1197,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1829,14 +1211,20 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>135690</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2409825" y="4800600"/>
-        <a:ext cx="5669280" cy="3735705"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1967,7 +1355,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1991,9 +1379,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2017,7 +1405,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2070,7 +1458,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2095,227 +1483,230 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AI25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.5" style="1" customWidth="true"/>
-    <col min="3" max="3" width="12.125" style="1" customWidth="true"/>
-    <col min="4" max="15" width="10.5" style="2" customWidth="true"/>
-    <col min="16" max="16" width="14.25" style="2" customWidth="true"/>
-    <col min="17" max="22" width="10.5" style="2" customWidth="true"/>
-    <col min="23" max="23" width="11.625" style="2" customWidth="true"/>
-    <col min="24" max="28" width="10.5" style="2" customWidth="true"/>
-    <col min="29" max="29" width="12.75" style="2" customWidth="true"/>
-    <col min="30" max="34" width="11.25" style="2" customWidth="true"/>
-    <col min="35" max="35" width="12" style="2" customWidth="true"/>
-    <col min="36" max="77" width="10.5" style="2" customWidth="true"/>
-    <col min="78" max="1033" width="10.5" style="1" customWidth="true"/>
+    <col min="1" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="15" width="10.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="2" customWidth="1"/>
+    <col min="17" max="22" width="10.5" style="2" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
+    <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
+    <col min="30" max="35" width="11.25" style="2" customWidth="1"/>
+    <col min="36" max="36" width="12" style="2" customWidth="1"/>
+    <col min="37" max="78" width="10.5" style="2" customWidth="1"/>
+    <col min="79" max="1034" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="10">
+      <c r="Y1" s="8">
         <v>44075</v>
       </c>
-      <c r="Z1" s="10">
+      <c r="Z1" s="8">
         <v>44105</v>
       </c>
-      <c r="AA1" s="10">
+      <c r="AA1" s="8">
         <v>44136</v>
       </c>
-      <c r="AB1" s="10">
+      <c r="AB1" s="8">
         <v>44166</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="10">
+      <c r="AD1" s="8">
         <v>44197</v>
       </c>
-      <c r="AE1" s="10">
+      <c r="AE1" s="8">
         <v>44228</v>
       </c>
-      <c r="AF1" s="10">
+      <c r="AF1" s="8">
         <v>44256</v>
       </c>
-      <c r="AG1" s="10">
+      <c r="AG1" s="8">
         <v>44287</v>
       </c>
-      <c r="AH1" s="10">
+      <c r="AH1" s="8">
         <v>44317</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI1" s="8">
+        <v>44348</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>7709</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>7414.05</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>7400</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>7478.26</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>7489.89</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>7760</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>7517.05</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>7474.38</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>7656.73</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="5">
         <v>7245.45</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="5">
         <v>7462.74</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="5">
         <v>7474.37</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="5">
         <f t="shared" ref="P2:P16" si="0">SUM(D2:O2)</f>
-        <v>90081.92</v>
-      </c>
-      <c r="Q2" s="7">
+        <v>90081.919999999998</v>
+      </c>
+      <c r="Q2" s="5">
         <v>12359.3</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="5">
         <v>12271.99</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="5">
         <v>12469.87</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="5">
         <v>12458.24</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="5">
         <v>12434.95</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="5">
         <v>12634.95</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="5">
         <v>11501.73</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="5">
         <v>10823.46</v>
       </c>
-      <c r="Y2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="7">
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
         <v>7099.86</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="5">
         <v>7875.71</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="5">
         <v>11586.58</v>
       </c>
       <c r="AC2" s="2">
@@ -2332,20 +1723,23 @@
         <v>13025.09</v>
       </c>
       <c r="AG2" s="2">
-        <v>17572.19</v>
+        <v>17572.189999999999</v>
       </c>
       <c r="AH2" s="2">
         <v>13221.36</v>
       </c>
       <c r="AI2" s="2">
-        <f t="shared" ref="AI2:AI16" si="2">SUM(AD2:AH2)</f>
-        <v>68956.02</v>
+        <v>12308.25</v>
+      </c>
+      <c r="AJ2" s="2">
+        <f>SUM(AD2:AI2)</f>
+        <v>81264.27</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
@@ -2384,7 +1778,7 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2406,27 +1800,27 @@
       <c r="V3" s="2">
         <v>0</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="5">
         <v>407</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="5">
         <v>911.2</v>
       </c>
-      <c r="Y3" s="7">
-        <v>316.6</v>
-      </c>
-      <c r="Z3" s="7">
+      <c r="Y3" s="5">
+        <v>316.60000000000002</v>
+      </c>
+      <c r="Z3" s="5">
         <v>121.4</v>
       </c>
-      <c r="AA3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="7">
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
         <v>0</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="1"/>
-        <v>1756.2</v>
+        <v>1756.2000000000003</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
@@ -2444,90 +1838,93 @@
         <v>347.3</v>
       </c>
       <c r="AI3" s="2">
-        <f t="shared" si="2"/>
-        <v>347.3</v>
+        <v>377.6</v>
+      </c>
+      <c r="AJ3" s="2">
+        <f t="shared" ref="AJ3:AJ16" si="2">SUM(AD3:AI3)</f>
+        <v>724.90000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>44.33</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>464.11</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>481.18</v>
       </c>
-      <c r="J4" s="7">
-        <v>530.8</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="5">
+        <v>530.79999999999995</v>
+      </c>
+      <c r="K4" s="5">
         <v>462.06</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>878.35</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>39.4</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>148.5</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>38130</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <f t="shared" si="0"/>
-        <v>41178.73</v>
-      </c>
-      <c r="Q4" s="7">
+        <v>41178.730000000003</v>
+      </c>
+      <c r="Q4" s="5">
         <v>638</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <v>88</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <v>1172.99</v>
       </c>
       <c r="T4" s="2">
         <v>3000</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <v>75</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="5">
         <v>4000</v>
       </c>
-      <c r="W4" s="7">
-        <v>19.94</v>
-      </c>
-      <c r="X4" s="7">
+      <c r="W4" s="5">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="X4" s="5">
         <v>5346</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="5">
         <v>15.33</v>
       </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
         <v>127.4</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="5">
         <v>1561.8</v>
       </c>
       <c r="AC4" s="2">
@@ -2551,14 +1948,17 @@
         <v>938.48</v>
       </c>
       <c r="AI4" s="2">
+        <v>396.52</v>
+      </c>
+      <c r="AJ4" s="2">
         <f t="shared" si="2"/>
-        <v>11317.83</v>
+        <v>11714.35</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2">
@@ -2582,22 +1982,22 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>12000</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -2607,13 +2007,13 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="5">
         <v>8000</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="5">
         <v>1500</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="5">
         <v>1500</v>
       </c>
       <c r="V5" s="2">
@@ -2657,14 +2057,17 @@
         <v>0</v>
       </c>
       <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2">
@@ -2682,10 +2085,10 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>1473.3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -2694,16 +2097,16 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>1636</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <v>400</v>
       </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" si="0"/>
         <v>3509.3</v>
       </c>
@@ -2725,7 +2128,7 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="5">
         <v>1803.1</v>
       </c>
       <c r="X6" s="2">
@@ -2763,14 +2166,17 @@
         <v>677.74</v>
       </c>
       <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
         <f t="shared" si="2"/>
         <v>677.74</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2">
@@ -2788,28 +2194,28 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>1296</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>1944</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
         <v>1944</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <f t="shared" si="0"/>
         <v>5184</v>
       </c>
@@ -2819,34 +2225,34 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="5">
         <v>1944</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="5">
         <v>648</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="5">
         <v>648</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="5">
         <v>648</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="5">
         <v>648</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="5">
         <v>648</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="5">
         <v>648</v>
       </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
         <v>0</v>
       </c>
       <c r="AC7" s="2">
@@ -2869,14 +2275,17 @@
         <v>0</v>
       </c>
       <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2">
@@ -2915,7 +2324,7 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -2937,7 +2346,7 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="5">
         <v>70000</v>
       </c>
       <c r="X8" s="2">
@@ -2975,14 +2384,17 @@
         <v>0</v>
       </c>
       <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2">
@@ -3015,7 +2427,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>19936.44</v>
+        <v>19936.440000000002</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="3"/>
@@ -3023,7 +2435,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>8920.85</v>
+        <v>8920.8499999999985</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="3"/>
@@ -3033,9 +2445,9 @@
         <f t="shared" si="3"/>
         <v>47548.37</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
-        <v>201953.95</v>
+        <v>201953.94999999998</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ref="Q9:AB9" si="4">SUM(Q2:Q8)</f>
@@ -3051,7 +2463,7 @@
       </c>
       <c r="T9" s="2">
         <f t="shared" si="4"/>
-        <v>17606.24</v>
+        <v>17606.239999999998</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="4"/>
@@ -3071,11 +2483,11 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="4"/>
-        <v>979.93</v>
+        <v>979.93000000000006</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="4"/>
-        <v>7221.26</v>
+        <v>7221.2599999999993</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="4"/>
@@ -3099,7 +2511,7 @@
       </c>
       <c r="AF9" s="2">
         <f>SUM(AF2:AF8)</f>
-        <v>44012.23</v>
+        <v>44012.229999999996</v>
       </c>
       <c r="AG9" s="2">
         <f>SUM(AG2:AG8)</f>
@@ -3110,97 +2522,101 @@
         <v>15184.88</v>
       </c>
       <c r="AI9" s="2">
+        <f>SUM(AI2:AI8)</f>
+        <v>13082.37</v>
+      </c>
+      <c r="AJ9" s="2">
         <f t="shared" si="2"/>
-        <v>125282.03</v>
+        <v>138364.4</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>2401</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>2029.83</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>1375.56</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>2699.75</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>3113.23</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>3190.37</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>1404.08</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>1836.61</v>
       </c>
-      <c r="L10" s="7">
-        <v>1146.88</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="L10" s="5">
+        <v>1146.8800000000001</v>
+      </c>
+      <c r="M10" s="5">
         <v>3626.41</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>1715.16</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <v>1728.63</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
         <v>26267.51</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <v>4512.24</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>969.37</v>
       </c>
-      <c r="S10" s="7">
-        <v>2381.55</v>
-      </c>
-      <c r="T10" s="7">
+      <c r="S10" s="5">
+        <v>2381.5500000000002</v>
+      </c>
+      <c r="T10" s="5">
         <v>6214.7</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="5">
         <v>3004.41</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="5">
         <v>9534.9</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="5">
         <v>10480.42</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="5">
         <v>6134.28</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="5">
         <v>5677.38</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="5">
         <v>2489.12</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="5">
         <v>2616.23</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="5">
         <v>1434.68</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="1"/>
-        <v>55449.28</v>
+        <v>55449.279999999999</v>
       </c>
       <c r="AD10" s="2">
         <f>1048.17+274.92+609.16</f>
@@ -3216,72 +2632,75 @@
         <v>3176.72</v>
       </c>
       <c r="AH10" s="2">
-        <v>8531.3</v>
+        <v>8531.2999999999993</v>
       </c>
       <c r="AI10" s="2">
+        <v>9319</v>
+      </c>
+      <c r="AJ10" s="2">
         <f t="shared" si="2"/>
-        <v>18449.99</v>
+        <v>27768.989999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1230</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>3690</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>708.5</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>3962</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>4285</v>
       </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
         <v>373</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <v>3690</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="5">
         <v>339</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <f t="shared" si="0"/>
         <v>18277.5</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <v>1700</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="5">
         <v>5190</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="5">
         <v>5467</v>
       </c>
       <c r="V11" s="2">
@@ -3325,72 +2744,75 @@
         <v>2960</v>
       </c>
       <c r="AI11" s="2">
+        <v>1506.5</v>
+      </c>
+      <c r="AJ11" s="2">
         <f t="shared" si="2"/>
-        <v>2960</v>
+        <v>4466.5</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8" t="s">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
         <v>800</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>200</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>50</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>34.4</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>121</v>
       </c>
-      <c r="J12" s="7">
-        <v>315.78</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="5">
+        <v>315.77999999999997</v>
+      </c>
+      <c r="K12" s="5">
         <v>287.5</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>29</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>1837.68</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="5">
         <v>454.7</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="5">
         <v>663.4</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="5">
         <v>373</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="5">
         <v>89</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="5">
         <v>573</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="5">
         <v>217</v>
       </c>
       <c r="W12" s="2">
@@ -3409,7 +2831,7 @@
         <v>118.42</v>
       </c>
       <c r="AB12" s="2">
-        <v>610.08</v>
+        <v>610.08000000000004</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="1"/>
@@ -3420,26 +2842,29 @@
         <v>354.78</v>
       </c>
       <c r="AE12" s="2">
-        <v>302.21</v>
+        <v>302.20999999999998</v>
       </c>
       <c r="AF12" s="2">
         <v>2109.27</v>
       </c>
       <c r="AG12" s="2">
-        <v>80444.4</v>
+        <v>80444.399999999994</v>
       </c>
       <c r="AH12" s="2">
         <v>2000</v>
       </c>
       <c r="AI12" s="2">
+        <v>509.33</v>
+      </c>
+      <c r="AJ12" s="2">
         <f t="shared" si="2"/>
-        <v>85210.66</v>
+        <v>85719.989999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2">
@@ -3478,14 +2903,14 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="5">
         <v>5000</v>
       </c>
       <c r="S13" s="2">
@@ -3538,53 +2963,56 @@
         <v>0</v>
       </c>
       <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="8" t="s">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>3267.55</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>3332.9</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>3399.55</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -3644,14 +3072,17 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="8" t="s">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="2">
@@ -3664,7 +3095,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="5"/>
-        <v>5683.61</v>
+        <v>5683.6100000000006</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="5"/>
@@ -3672,7 +3103,7 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
-        <v>7109.63</v>
+        <v>7109.6299999999992</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="5"/>
@@ -3688,7 +3119,7 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="5"/>
-        <v>1175.88</v>
+        <v>1175.8800000000001</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="5"/>
@@ -3702,13 +3133,13 @@
         <f t="shared" si="5"/>
         <v>2067.63</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="5">
         <f t="shared" si="0"/>
-        <v>56382.69</v>
+        <v>56382.689999999995</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ref="Q15:AB15" si="6">SUM(Q10:Q14)</f>
-        <v>4966.94</v>
+        <v>4966.9399999999996</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="6"/>
@@ -3744,11 +3175,11 @@
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="6"/>
-        <v>2520.05</v>
+        <v>2520.0499999999997</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="6"/>
-        <v>16734.65</v>
+        <v>16734.650000000001</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="6"/>
@@ -3756,11 +3187,11 @@
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="1"/>
-        <v>201562.07</v>
+        <v>201562.06999999998</v>
       </c>
       <c r="AD15" s="2">
         <f>SUM(AD10:AD14)</f>
-        <v>2287.03</v>
+        <v>2287.0299999999997</v>
       </c>
       <c r="AE15" s="2">
         <f>SUM(AE10:AE14)</f>
@@ -3772,30 +3203,34 @@
       </c>
       <c r="AG15" s="2">
         <f>SUM(AG10:AG14)</f>
-        <v>96621.12</v>
+        <v>96621.119999999995</v>
       </c>
       <c r="AH15" s="2">
         <f>SUM(AH10:AH14)</f>
         <v>13491.3</v>
       </c>
       <c r="AI15" s="2">
+        <f>SUM(AI10:AI14)</f>
+        <v>11334.83</v>
+      </c>
+      <c r="AJ15" s="2">
         <f t="shared" si="2"/>
-        <v>123820.65</v>
+        <v>135155.47999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2">
         <f t="shared" ref="D16:O16" si="7">D9-D15</f>
-        <v>854.78</v>
+        <v>854.77999999999975</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="7"/>
-        <v>-2438.68</v>
+        <v>-2438.6799999999994</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="7"/>
@@ -3807,7 +3242,7 @@
       </c>
       <c r="H16" s="2">
         <f t="shared" si="7"/>
-        <v>844.370000000001</v>
+        <v>844.3700000000008</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="7"/>
@@ -3815,19 +3250,19 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="7"/>
-        <v>6327.99</v>
+        <v>6327.9900000000007</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="7"/>
-        <v>13527.33</v>
+        <v>13527.330000000002</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="7"/>
-        <v>9303.2</v>
+        <v>9303.2000000000007</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="7"/>
-        <v>4921.44</v>
+        <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="7"/>
@@ -3835,9 +3270,9 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="7"/>
-        <v>45480.74</v>
-      </c>
-      <c r="P16" s="7">
+        <v>45480.740000000005</v>
+      </c>
+      <c r="P16" s="5">
         <f t="shared" si="0"/>
         <v>145571.26</v>
       </c>
@@ -3847,31 +3282,31 @@
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
-        <v>4027.22</v>
+        <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" si="8"/>
-        <v>15642.31</v>
+        <v>15642.310000000001</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="8"/>
-        <v>11302.54</v>
+        <v>11302.539999999997</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="8"/>
-        <v>5613.54</v>
+        <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="8"/>
-        <v>7531.05</v>
+        <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="8"/>
-        <v>-34267.41</v>
+        <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="8"/>
-        <v>10754.38</v>
+        <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="8"/>
@@ -3879,19 +3314,19 @@
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="8"/>
-        <v>4701.21</v>
+        <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="8"/>
-        <v>-8731.54</v>
+        <v>-8731.5400000000009</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="8"/>
-        <v>10303.62</v>
+        <v>10303.619999999999</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="1"/>
-        <v>29390.33</v>
+        <v>29390.330000000005</v>
       </c>
       <c r="AD16" s="2">
         <f>AD9-AD15</f>
@@ -3903,103 +3338,107 @@
       </c>
       <c r="AF16" s="2">
         <f>AF9-AF15</f>
-        <v>38315.28</v>
+        <v>38315.279999999999</v>
       </c>
       <c r="AG16" s="2">
         <f>AG9-AG15</f>
-        <v>-56137.08</v>
+        <v>-56137.079999999994</v>
       </c>
       <c r="AH16" s="2">
         <f>AH9-AH15</f>
         <v>1693.58</v>
       </c>
       <c r="AI16" s="2">
+        <f>AI9-AI15</f>
+        <v>1747.5400000000009</v>
+      </c>
+      <c r="AJ16" s="2">
         <f t="shared" si="2"/>
-        <v>1461.38</v>
+        <v>3208.9200000000037</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>33513</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>24751.65</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>12634.85</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>15093.47</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>20420.09</v>
       </c>
-      <c r="I17" s="7">
-        <v>17543.49</v>
-      </c>
-      <c r="J17" s="7">
-        <v>18868.08</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="I17" s="5">
+        <v>17543.490000000002</v>
+      </c>
+      <c r="J17" s="5">
+        <v>18868.080000000002</v>
+      </c>
+      <c r="K17" s="5">
         <v>14888.84</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>14978.06</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>15287.33</v>
       </c>
-      <c r="N17" s="7">
-        <v>18661.65</v>
-      </c>
-      <c r="O17" s="7">
+      <c r="N17" s="5">
+        <v>18661.650000000001</v>
+      </c>
+      <c r="O17" s="5">
         <v>16076.11</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5">
         <v>15240.57</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="5">
         <v>12701.39</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="5">
         <v>9350.41</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="5">
         <v>14222.96</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="5">
         <v>18253.05</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="5">
         <v>23645.57</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="5">
         <v>19546.21</v>
       </c>
-      <c r="X17" s="7">
-        <v>19342.56</v>
-      </c>
-      <c r="Y17" s="7">
+      <c r="X17" s="5">
+        <v>19342.560000000001</v>
+      </c>
+      <c r="Y17" s="5">
         <v>8015.72</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="5">
         <v>8114.54</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="5">
         <v>8847.98</v>
       </c>
-      <c r="AB17" s="7">
-        <v>8655.37</v>
+      <c r="AB17" s="5">
+        <v>8655.3700000000008</v>
       </c>
       <c r="AD17" s="2">
         <v>6924.04</v>
@@ -4016,84 +3455,87 @@
       <c r="AH17" s="2">
         <v>0</v>
       </c>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8" t="s">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>24162</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>11155.93</v>
       </c>
-      <c r="F18" s="7">
-        <v>37081.44</v>
-      </c>
-      <c r="G18" s="7">
-        <v>8361.04</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="F18" s="5">
+        <v>37081.440000000002</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8361.0400000000009</v>
+      </c>
+      <c r="H18" s="5">
         <v>7792.74</v>
       </c>
-      <c r="I18" s="7">
-        <v>9341.47</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="I18" s="5">
+        <v>9341.4699999999993</v>
+      </c>
+      <c r="J18" s="5">
         <v>7021.05</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>12564.52</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>6163.61</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <v>3693.43</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="5">
         <v>1889.28</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="5">
         <v>49351.22</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
         <v>1267.53</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <v>29512.69</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="5">
         <v>14141.27</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="5">
         <v>13952.84</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="5">
         <v>16678.45</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="5">
         <v>21344.31</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="5">
         <v>7678.26</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="5">
         <v>9513.39</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="5">
         <v>13126.19</v>
       </c>
-      <c r="Z18" s="7">
-        <v>570.7</v>
-      </c>
-      <c r="AA18" s="7">
+      <c r="Z18" s="5">
+        <v>570.70000000000005</v>
+      </c>
+      <c r="AA18" s="5">
         <v>6710.55</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="5">
         <v>6697.56</v>
       </c>
       <c r="AD18" s="2">
@@ -4107,89 +3549,92 @@
         <v>44830.93</v>
       </c>
       <c r="AG18" s="2">
-        <v>1083.6</v>
+        <v>1083.5999999999999</v>
       </c>
       <c r="AH18" s="2">
-        <v>2304.47</v>
+        <v>2304.4699999999998</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>302.94</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
         <v>20000</v>
       </c>
-      <c r="G19" s="7">
-        <v>20051.44</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
+      <c r="G19" s="5">
+        <v>20051.439999999999</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
         <v>4009.06</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="5">
         <v>6015.57</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="5">
         <v>16029.84</v>
       </c>
-      <c r="AA19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7">
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
         <v>6011.43</v>
       </c>
       <c r="AD19" s="2">
@@ -4207,84 +3652,87 @@
       <c r="AH19" s="2">
         <v>30983.14</v>
       </c>
+      <c r="AI19" s="2">
+        <v>22583.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7">
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
         <v>3580.23</v>
       </c>
-      <c r="R20" s="7">
-        <v>4451.52</v>
-      </c>
-      <c r="S20" s="7">
+      <c r="R20" s="5">
+        <v>4451.5200000000004</v>
+      </c>
+      <c r="S20" s="5">
         <v>4647.49</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="5">
         <v>2252.86</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="5">
         <v>1598.05</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="5">
         <v>859.81</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
-      <c r="X20" s="7">
-        <v>2106.76</v>
-      </c>
-      <c r="Y20" s="7">
+      <c r="X20" s="5">
+        <v>2106.7600000000002</v>
+      </c>
+      <c r="Y20" s="5">
         <v>2786.56</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="Z20" s="5">
         <v>3531.46</v>
       </c>
-      <c r="AA20" s="7">
-        <v>4313.36</v>
-      </c>
-      <c r="AB20" s="7">
+      <c r="AA20" s="5">
+        <v>4313.3599999999997</v>
+      </c>
+      <c r="AB20" s="5">
         <v>5662.84</v>
       </c>
       <c r="AD20" s="2">
@@ -4302,50 +3750,53 @@
       <c r="AH20" s="2">
         <v>0</v>
       </c>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>10009.5</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>30022.74</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>19984.47</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>19998.32</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7"/>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5"/>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
@@ -4397,84 +3848,87 @@
       <c r="AH21" s="2">
         <v>0</v>
       </c>
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8" t="s">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>28940</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>43024.44</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>72264.17</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>96752.12</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>126725.83</v>
       </c>
-      <c r="I22" s="7">
-        <v>143531.52</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="I22" s="5">
+        <v>143531.51999999999</v>
+      </c>
+      <c r="J22" s="5">
         <v>136197.87</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>157196.16</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>171682.53</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="5">
         <v>188902.16</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="5">
         <v>185183.64</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="5">
         <v>201931.89</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5">
         <v>245166.97</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="5">
         <v>236862.74</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="5">
         <v>253011.81</v>
       </c>
-      <c r="T22" s="7">
-        <v>287422.04</v>
-      </c>
-      <c r="U22" s="7">
+      <c r="T22" s="5">
+        <v>287422.03999999998</v>
+      </c>
+      <c r="U22" s="5">
         <v>312091.25</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="5">
         <v>358454.98</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="5">
         <v>369739.11</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="5">
         <v>354784.18</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="5">
         <v>352905.69</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="5">
         <v>371385.53</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="5">
         <v>382911.99</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="5">
         <v>399438.3</v>
       </c>
       <c r="AD22" s="2">
@@ -4492,136 +3946,143 @@
       <c r="AH22" s="2">
         <v>464387.78</v>
       </c>
+      <c r="AI22" s="2">
+        <v>446904.24</v>
+      </c>
     </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="8" t="s">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <f t="shared" ref="D23:O23" si="9">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <f t="shared" si="9"/>
-        <v>108954.76</v>
-      </c>
-      <c r="F23" s="9">
+        <v>108954.76000000001</v>
+      </c>
+      <c r="F23" s="7">
         <f t="shared" si="9"/>
         <v>161964.93</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="7">
         <f t="shared" si="9"/>
-        <v>160256.39</v>
-      </c>
-      <c r="H23" s="9">
+        <v>160256.38999999998</v>
+      </c>
+      <c r="H23" s="7">
         <f t="shared" si="9"/>
         <v>154938.66</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <f t="shared" si="9"/>
-        <v>170416.48</v>
-      </c>
-      <c r="J23" s="9">
+        <v>170416.47999999998</v>
+      </c>
+      <c r="J23" s="7">
         <f t="shared" si="9"/>
         <v>162087</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="7">
         <f t="shared" si="9"/>
-        <v>184649.52</v>
-      </c>
-      <c r="L23" s="9">
+        <v>184649.52000000002</v>
+      </c>
+      <c r="L23" s="7">
         <f t="shared" si="9"/>
         <v>192824.2</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="7">
         <f t="shared" si="9"/>
         <v>207882.92</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="7">
         <f t="shared" si="9"/>
         <v>205734.57</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="7">
         <f t="shared" si="9"/>
-        <v>267359.22</v>
-      </c>
-      <c r="Q23" s="9">
+        <v>267359.22000000003</v>
+      </c>
+      <c r="Q23" s="7">
         <f t="shared" ref="Q23:AB23" si="10">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="7">
         <f t="shared" si="10"/>
-        <v>283528.34</v>
-      </c>
-      <c r="S23" s="9">
+        <v>283528.33999999997</v>
+      </c>
+      <c r="S23" s="7">
         <f t="shared" si="10"/>
         <v>281150.98</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="7">
         <f t="shared" si="10"/>
-        <v>317850.7</v>
-      </c>
-      <c r="U23" s="9">
+        <v>317850.69999999995</v>
+      </c>
+      <c r="U23" s="7">
         <f t="shared" si="10"/>
-        <v>348620.8</v>
-      </c>
-      <c r="V23" s="9">
+        <v>348620.79999999999</v>
+      </c>
+      <c r="V23" s="7">
         <f t="shared" si="10"/>
         <v>404304.67</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="7">
         <f t="shared" si="10"/>
-        <v>396963.58</v>
-      </c>
-      <c r="X23" s="9">
+        <v>396963.57999999996</v>
+      </c>
+      <c r="X23" s="7">
         <f t="shared" si="10"/>
         <v>389755.95</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23" s="7">
         <f t="shared" si="10"/>
         <v>382849.73</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Z23" s="7">
         <f t="shared" si="10"/>
         <v>399632.07</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23" s="7">
         <f t="shared" si="10"/>
         <v>402783.88</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="7">
         <f t="shared" si="10"/>
         <v>426465.5</v>
       </c>
-      <c r="AD23" s="9">
+      <c r="AD23" s="7">
         <f>SUM(AD17:AD22)</f>
-        <v>477902.41</v>
-      </c>
-      <c r="AE23" s="9">
+        <v>477902.41000000003</v>
+      </c>
+      <c r="AE23" s="7">
         <f>SUM(AE17:AE22)</f>
         <v>480280.69</v>
       </c>
-      <c r="AF23" s="9">
+      <c r="AF23" s="7">
         <f>SUM(AF17:AF22)</f>
         <v>511218.75</v>
       </c>
-      <c r="AG23" s="9">
+      <c r="AG23" s="7">
         <f>SUM(AG17:AG22)</f>
         <v>478512.67</v>
       </c>
-      <c r="AH23" s="9">
+      <c r="AH23" s="7">
         <f>SUM(AH17:AH22)</f>
         <v>497675.39</v>
       </c>
+      <c r="AI23" s="7">
+        <f>SUM(AI17:AI22)</f>
+        <v>469790.32</v>
+      </c>
     </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2">
@@ -4629,71 +4090,71 @@
       </c>
       <c r="E24" s="2">
         <f>D24+E8-E14</f>
-        <v>53399.55</v>
+        <v>53399.549999999996</v>
       </c>
       <c r="F24" s="2">
         <f>E24+F8-F14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="G24" s="2">
         <f>F24+G8-G14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="H24" s="2">
         <f>G24+H8-H14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="I24" s="2">
         <f t="shared" ref="I24:O24" si="11">G24+I8-I14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="11"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="2">
         <f>O24+Q8-Q14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ref="R24:AB24" si="12">Q24+R8-R14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" si="12"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="T24" s="2">
         <f t="shared" si="12"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="U24" s="2">
         <f t="shared" si="12"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="12"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="12"/>
@@ -4739,128 +4200,136 @@
         <f>AG24+AH8-AH14</f>
         <v>156000</v>
       </c>
+      <c r="AI24" s="2">
+        <f>AH24+AI8-AI14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9">
+      <c r="C25" s="9"/>
+      <c r="D25" s="7">
         <f t="shared" ref="D25:O25" si="13">D23-D24</f>
-        <v>39892.05</v>
-      </c>
-      <c r="E25" s="9">
+        <v>39892.050000000003</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="13"/>
-        <v>55555.21</v>
-      </c>
-      <c r="F25" s="9">
+        <v>55555.210000000014</v>
+      </c>
+      <c r="F25" s="7">
         <f t="shared" si="13"/>
-        <v>61964.93</v>
-      </c>
-      <c r="G25" s="9">
+        <v>61964.930000000008</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="13"/>
         <v>60256.39</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="7">
         <f t="shared" si="13"/>
-        <v>54938.66</v>
-      </c>
-      <c r="I25" s="9">
+        <v>54938.660000000018</v>
+      </c>
+      <c r="I25" s="7">
         <f t="shared" si="13"/>
-        <v>70416.48</v>
-      </c>
-      <c r="J25" s="9">
+        <v>70416.479999999996</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="13"/>
-        <v>62087</v>
-      </c>
-      <c r="K25" s="9">
+        <v>62087.000000000015</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="13"/>
-        <v>84649.52</v>
-      </c>
-      <c r="L25" s="9">
+        <v>84649.520000000033</v>
+      </c>
+      <c r="L25" s="7">
         <f t="shared" si="13"/>
-        <v>92824.2</v>
-      </c>
-      <c r="M25" s="9">
+        <v>92824.200000000026</v>
+      </c>
+      <c r="M25" s="7">
         <f t="shared" si="13"/>
-        <v>107882.92</v>
-      </c>
-      <c r="N25" s="9">
+        <v>107882.92000000003</v>
+      </c>
+      <c r="N25" s="7">
         <f t="shared" si="13"/>
-        <v>105734.57</v>
-      </c>
-      <c r="O25" s="9">
+        <v>105734.57000000002</v>
+      </c>
+      <c r="O25" s="7">
         <f t="shared" si="13"/>
-        <v>167359.22</v>
-      </c>
-      <c r="Q25" s="9">
+        <v>167359.22000000003</v>
+      </c>
+      <c r="Q25" s="7">
         <f t="shared" ref="Q25:AB25" si="14">Q23-Q24</f>
-        <v>165255.3</v>
-      </c>
-      <c r="R25" s="9">
+        <v>165255.29999999999</v>
+      </c>
+      <c r="R25" s="7">
         <f t="shared" si="14"/>
-        <v>183528.34</v>
-      </c>
-      <c r="S25" s="9">
+        <v>183528.33999999997</v>
+      </c>
+      <c r="S25" s="7">
         <f t="shared" si="14"/>
-        <v>181150.98</v>
-      </c>
-      <c r="T25" s="9">
+        <v>181150.97999999998</v>
+      </c>
+      <c r="T25" s="7">
         <f t="shared" si="14"/>
-        <v>217850.7</v>
-      </c>
-      <c r="U25" s="9">
+        <v>217850.69999999995</v>
+      </c>
+      <c r="U25" s="7">
         <f t="shared" si="14"/>
-        <v>248620.8</v>
-      </c>
-      <c r="V25" s="9">
+        <v>248620.79999999999</v>
+      </c>
+      <c r="V25" s="7">
         <f t="shared" si="14"/>
         <v>304304.67</v>
       </c>
-      <c r="W25" s="9">
+      <c r="W25" s="7">
         <f t="shared" si="14"/>
-        <v>226963.58</v>
-      </c>
-      <c r="X25" s="9">
+        <v>226963.57999999996</v>
+      </c>
+      <c r="X25" s="7">
         <f t="shared" si="14"/>
         <v>219755.95</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Y25" s="7">
         <f t="shared" si="14"/>
-        <v>212849.73</v>
-      </c>
-      <c r="Z25" s="9">
+        <v>212849.72999999998</v>
+      </c>
+      <c r="Z25" s="7">
         <f t="shared" si="14"/>
         <v>229632.07</v>
       </c>
-      <c r="AA25" s="9">
+      <c r="AA25" s="7">
         <f t="shared" si="14"/>
         <v>246783.88</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="7">
         <f t="shared" si="14"/>
         <v>270465.5</v>
       </c>
-      <c r="AD25" s="9">
+      <c r="AD25" s="7">
         <f>AD23-AD24</f>
-        <v>321902.41</v>
-      </c>
-      <c r="AE25" s="9">
+        <v>321902.41000000003</v>
+      </c>
+      <c r="AE25" s="7">
         <f>AE23-AE24</f>
         <v>324280.69</v>
       </c>
-      <c r="AF25" s="9">
+      <c r="AF25" s="7">
         <f>AF23-AF24</f>
         <v>355218.75</v>
       </c>
-      <c r="AG25" s="9">
+      <c r="AG25" s="7">
         <f>AG23-AG24</f>
         <v>322512.67</v>
       </c>
-      <c r="AH25" s="9">
+      <c r="AH25" s="7">
         <f>AH23-AH24</f>
         <v>341675.39</v>
+      </c>
+      <c r="AI25" s="7">
+        <f>AI23-AI24</f>
+        <v>313790.32</v>
       </c>
     </row>
   </sheetData>
@@ -4874,16 +4343,17 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B17:B23"/>
   </mergeCells>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="AE9:AH9 AB15 Y9:AB9" formulaRange="true"/>
-    <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="true"/>
+    <ignoredError sqref="AE9:AI9 AB15 Y9:AB9" formulaRange="1"/>
+    <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\private\balance_sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HinsShum\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9633A78C-B05C-4560-912A-B7094C1E0204}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E766D910-83FC-40C7-8BB4-C6BE82A7096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19665" windowHeight="7905" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -488,9 +499,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AI$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AJ$1)</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -580,16 +591,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AI$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AJ$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -679,6 +693,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>469790.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>439295.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,7 +703,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E5E0-44CC-9867-7A57E40945F0}"/>
+              <c16:uniqueId val="{00000000-3731-4451-B29D-A71C0DF94E85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -749,9 +766,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AI$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AJ$1)</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -841,16 +858,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AI$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AJ$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -940,6 +960,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>313790.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>283295.71999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,7 +970,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E5E0-44CC-9867-7A57E40945F0}"/>
+              <c16:uniqueId val="{00000001-3731-4451-B29D-A71C0DF94E85}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1191,7 +1214,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1208,8 +1231,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>754560</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>135690</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>169455</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1495,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMT25"/>
+  <dimension ref="A1:AMU25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1511,13 +1534,13 @@
     <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="35" width="11.25" style="2" customWidth="1"/>
-    <col min="36" max="36" width="12" style="2" customWidth="1"/>
-    <col min="37" max="78" width="10.5" style="2" customWidth="1"/>
-    <col min="79" max="1034" width="10.5" style="1" customWidth="1"/>
+    <col min="30" max="36" width="11.25" style="2" customWidth="1"/>
+    <col min="37" max="37" width="12" style="2" customWidth="1"/>
+    <col min="38" max="79" width="10.5" style="2" customWidth="1"/>
+    <col min="80" max="1035" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1619,11 +1642,14 @@
       <c r="AI1" s="8">
         <v>44348</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="8">
+        <v>44378</v>
+      </c>
+      <c r="AK1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -1732,11 +1758,14 @@
         <v>12308.25</v>
       </c>
       <c r="AJ2" s="2">
-        <f>SUM(AD2:AI2)</f>
-        <v>81264.27</v>
+        <v>16652.919999999998</v>
+      </c>
+      <c r="AK2" s="2">
+        <f>SUM(AD2:AJ2)</f>
+        <v>97917.19</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
@@ -1841,11 +1870,14 @@
         <v>377.6</v>
       </c>
       <c r="AJ3" s="2">
-        <f t="shared" ref="AJ3:AJ16" si="2">SUM(AD3:AI3)</f>
-        <v>724.90000000000009</v>
+        <v>189.6</v>
+      </c>
+      <c r="AK3" s="2">
+        <f t="shared" ref="AK3:AK16" si="2">SUM(AD3:AJ3)</f>
+        <v>914.50000000000011</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
@@ -1951,11 +1983,14 @@
         <v>396.52</v>
       </c>
       <c r="AJ4" s="2">
+        <v>3696.58</v>
+      </c>
+      <c r="AK4" s="2">
         <f t="shared" si="2"/>
-        <v>11714.35</v>
+        <v>15410.93</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
@@ -2060,11 +2095,14 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2">
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="6" t="s">
@@ -2169,11 +2207,14 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2">
         <f t="shared" si="2"/>
         <v>677.74</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
@@ -2278,11 +2319,14 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
@@ -2387,11 +2431,14 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
@@ -2502,35 +2549,39 @@
         <v>230952.4</v>
       </c>
       <c r="AD9" s="2">
-        <f>SUM(AD2:AD8)</f>
+        <f t="shared" ref="AD9:AJ9" si="5">SUM(AD2:AD8)</f>
         <v>13881.62</v>
       </c>
       <c r="AE9" s="2">
-        <f>SUM(AE2:AE8)</f>
+        <f t="shared" si="5"/>
         <v>11719.26</v>
       </c>
       <c r="AF9" s="2">
-        <f>SUM(AF2:AF8)</f>
+        <f t="shared" si="5"/>
         <v>44012.229999999996</v>
       </c>
       <c r="AG9" s="2">
-        <f>SUM(AG2:AG8)</f>
+        <f t="shared" si="5"/>
         <v>40484.04</v>
       </c>
       <c r="AH9" s="2">
-        <f>SUM(AH2:AH8)</f>
+        <f t="shared" si="5"/>
         <v>15184.88</v>
       </c>
       <c r="AI9" s="2">
-        <f>SUM(AI2:AI8)</f>
+        <f t="shared" si="5"/>
         <v>13082.37</v>
       </c>
       <c r="AJ9" s="2">
+        <f t="shared" si="5"/>
+        <v>20539.099999999999</v>
+      </c>
+      <c r="AK9" s="2">
         <f t="shared" si="2"/>
-        <v>138364.4</v>
+        <v>158903.5</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
@@ -2638,11 +2689,14 @@
         <v>9319</v>
       </c>
       <c r="AJ10" s="2">
+        <v>2499.46</v>
+      </c>
+      <c r="AK10" s="2">
         <f t="shared" si="2"/>
-        <v>27768.989999999998</v>
+        <v>30268.449999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
@@ -2747,11 +2801,14 @@
         <v>1506.5</v>
       </c>
       <c r="AJ11" s="2">
+        <v>1400</v>
+      </c>
+      <c r="AK11" s="2">
         <f t="shared" si="2"/>
-        <v>4466.5</v>
+        <v>5866.5</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
@@ -2857,11 +2914,14 @@
         <v>509.33</v>
       </c>
       <c r="AJ12" s="2">
+        <v>15377.41</v>
+      </c>
+      <c r="AK12" s="2">
         <f t="shared" si="2"/>
-        <v>85719.989999999991</v>
+        <v>101097.4</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
@@ -2966,11 +3026,14 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
@@ -3075,62 +3138,65 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:O15" si="5">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:O15" si="6">SUM(D10:D14)</f>
         <v>6898.55</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9852.73</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5683.6100000000006</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2749.75</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7109.6299999999992</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3311.37</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1719.86</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6409.11</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1175.8800000000001</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3999.41</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5405.16</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2067.63</v>
       </c>
       <c r="P15" s="5">
@@ -3138,51 +3204,51 @@
         <v>56382.689999999995</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15:AB15" si="6">SUM(Q10:Q14)</f>
+        <f t="shared" ref="Q15:AB15" si="7">SUM(Q10:Q14)</f>
         <v>4966.9399999999996</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8332.77</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7944.55</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6303.7</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9044.41</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9751.9</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>118647.18</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6974.28</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6496.88</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2520.0499999999997</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16734.650000000001</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3844.76</v>
       </c>
       <c r="AC15" s="2">
@@ -3190,86 +3256,90 @@
         <v>201562.06999999998</v>
       </c>
       <c r="AD15" s="2">
-        <f>SUM(AD10:AD14)</f>
+        <f t="shared" ref="AD15:AJ15" si="8">SUM(AD10:AD14)</f>
         <v>2287.0299999999997</v>
       </c>
       <c r="AE15" s="2">
-        <f>SUM(AE10:AE14)</f>
+        <f t="shared" si="8"/>
         <v>5724.25</v>
       </c>
       <c r="AF15" s="2">
-        <f>SUM(AF10:AF14)</f>
+        <f t="shared" si="8"/>
         <v>5696.95</v>
       </c>
       <c r="AG15" s="2">
-        <f>SUM(AG10:AG14)</f>
+        <f t="shared" si="8"/>
         <v>96621.119999999995</v>
       </c>
       <c r="AH15" s="2">
-        <f>SUM(AH10:AH14)</f>
+        <f t="shared" si="8"/>
         <v>13491.3</v>
       </c>
       <c r="AI15" s="2">
-        <f>SUM(AI10:AI14)</f>
+        <f t="shared" si="8"/>
         <v>11334.83</v>
       </c>
       <c r="AJ15" s="2">
+        <f t="shared" si="8"/>
+        <v>19276.87</v>
+      </c>
+      <c r="AK15" s="2">
         <f t="shared" si="2"/>
-        <v>135155.47999999998</v>
+        <v>154432.34999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:O16" si="7">D9-D15</f>
+        <f t="shared" ref="D16:O16" si="9">D9-D15</f>
         <v>854.77999999999975</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2438.6799999999994</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51716.39</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4728.51</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>844.3700000000008</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7699.11</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6327.9900000000007</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>13527.330000000002</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9303.2000000000007</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45480.740000000005</v>
       </c>
       <c r="P16" s="5">
@@ -3277,51 +3347,51 @@
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:AB16" si="8">Q9-Q15</f>
+        <f t="shared" ref="Q16:AB16" si="10">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15642.310000000001</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11302.539999999997</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-8731.5400000000009</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10303.619999999999</v>
       </c>
       <c r="AC16" s="2">
@@ -3329,35 +3399,39 @@
         <v>29390.330000000005</v>
       </c>
       <c r="AD16" s="2">
-        <f>AD9-AD15</f>
+        <f t="shared" ref="AD16:AJ16" si="11">AD9-AD15</f>
         <v>11594.59</v>
       </c>
       <c r="AE16" s="2">
-        <f>AE9-AE15</f>
+        <f t="shared" si="11"/>
         <v>5995.01</v>
       </c>
       <c r="AF16" s="2">
-        <f>AF9-AF15</f>
+        <f t="shared" si="11"/>
         <v>38315.279999999999</v>
       </c>
       <c r="AG16" s="2">
-        <f>AG9-AG15</f>
+        <f t="shared" si="11"/>
         <v>-56137.079999999994</v>
       </c>
       <c r="AH16" s="2">
-        <f>AH9-AH15</f>
+        <f t="shared" si="11"/>
         <v>1693.58</v>
       </c>
       <c r="AI16" s="2">
-        <f>AI9-AI15</f>
+        <f t="shared" si="11"/>
         <v>1747.5400000000009</v>
       </c>
       <c r="AJ16" s="2">
+        <f t="shared" si="11"/>
+        <v>1262.2299999999996</v>
+      </c>
+      <c r="AK16" s="2">
         <f t="shared" si="2"/>
-        <v>3208.9200000000037</v>
+        <v>4471.1500000000033</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -3458,8 +3532,11 @@
       <c r="AI17" s="2">
         <v>0</v>
       </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
@@ -3557,8 +3634,11 @@
       <c r="AI18" s="2">
         <v>302.94</v>
       </c>
+      <c r="AJ18" s="2">
+        <v>17812.36</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
@@ -3655,8 +3735,11 @@
       <c r="AI19" s="2">
         <v>22583.14</v>
       </c>
+      <c r="AJ19" s="2">
+        <v>22583.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6" t="s">
@@ -3753,8 +3836,11 @@
       <c r="AI20" s="2">
         <v>0</v>
       </c>
+      <c r="AJ20" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="6" t="s">
@@ -3851,8 +3937,11 @@
       <c r="AI21" s="2">
         <v>0</v>
       </c>
+      <c r="AJ21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
@@ -3949,135 +4038,142 @@
       <c r="AI22" s="2">
         <v>446904.24</v>
       </c>
+      <c r="AJ22" s="2">
+        <v>398900.22</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" ref="D23:O23" si="9">SUM(D17:D22)</f>
+        <f t="shared" ref="D23:O23" si="12">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>108954.76000000001</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>161964.93</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>160256.38999999998</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>154938.66</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>170416.47999999998</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>162087</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>184649.52000000002</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>192824.2</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>207882.92</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>205734.57</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>267359.22000000003</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" ref="Q23:AB23" si="10">SUM(Q17:Q22)</f>
+        <f t="shared" ref="Q23:AB23" si="13">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>283528.33999999997</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>281150.98</v>
       </c>
       <c r="T23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>317850.69999999995</v>
       </c>
       <c r="U23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>348620.79999999999</v>
       </c>
       <c r="V23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>404304.67</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>396963.57999999996</v>
       </c>
       <c r="X23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>389755.95</v>
       </c>
       <c r="Y23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>382849.73</v>
       </c>
       <c r="Z23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>399632.07</v>
       </c>
       <c r="AA23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>402783.88</v>
       </c>
       <c r="AB23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>426465.5</v>
       </c>
       <c r="AD23" s="7">
-        <f>SUM(AD17:AD22)</f>
+        <f t="shared" ref="AD23:AI23" si="14">SUM(AD17:AD22)</f>
         <v>477902.41000000003</v>
       </c>
       <c r="AE23" s="7">
-        <f>SUM(AE17:AE22)</f>
+        <f t="shared" si="14"/>
         <v>480280.69</v>
       </c>
       <c r="AF23" s="7">
-        <f>SUM(AF17:AF22)</f>
+        <f t="shared" si="14"/>
         <v>511218.75</v>
       </c>
       <c r="AG23" s="7">
-        <f>SUM(AG17:AG22)</f>
+        <f t="shared" si="14"/>
         <v>478512.67</v>
       </c>
       <c r="AH23" s="7">
-        <f>SUM(AH17:AH22)</f>
+        <f t="shared" si="14"/>
         <v>497675.39</v>
       </c>
       <c r="AI23" s="7">
-        <f>SUM(AI17:AI22)</f>
+        <f t="shared" si="14"/>
         <v>469790.32</v>
       </c>
+      <c r="AJ23" s="7">
+        <f>SUM(AJ17:AJ22)</f>
+        <v>439295.72</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
         <v>49</v>
@@ -4105,31 +4201,31 @@
         <v>99999.999999999985</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:O24" si="11">G24+I8-I14</f>
+        <f t="shared" ref="I24:O24" si="15">G24+I8-I14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>99999.999999999985</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>99999.999999999985</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>99999.999999999985</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>99999.999999999985</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>99999.999999999985</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="2">
@@ -4137,47 +4233,47 @@
         <v>99999.999999999985</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:AB24" si="12">Q24+R8-R14</f>
+        <f t="shared" ref="R24:AB24" si="16">Q24+R8-R14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>170000</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>170000</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>170000</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>170000</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>156000</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>156000</v>
       </c>
       <c r="AD24" s="2">
@@ -4185,151 +4281,159 @@
         <v>156000</v>
       </c>
       <c r="AE24" s="2">
-        <f>AD24+AE8-AE14</f>
+        <f t="shared" ref="AE24:AJ24" si="17">AD24+AE8-AE14</f>
         <v>156000</v>
       </c>
       <c r="AF24" s="2">
-        <f>AE24+AF8-AF14</f>
+        <f t="shared" si="17"/>
         <v>156000</v>
       </c>
       <c r="AG24" s="2">
-        <f>AF24+AG8-AG14</f>
+        <f t="shared" si="17"/>
         <v>156000</v>
       </c>
       <c r="AH24" s="2">
-        <f>AG24+AH8-AH14</f>
+        <f t="shared" si="17"/>
         <v>156000</v>
       </c>
       <c r="AI24" s="2">
-        <f>AH24+AI8-AI14</f>
+        <f t="shared" si="17"/>
         <v>156000</v>
       </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="7">
-        <f t="shared" ref="D25:O25" si="13">D23-D24</f>
+        <f t="shared" ref="D25:O25" si="18">D23-D24</f>
         <v>39892.050000000003</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>55555.210000000014</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>61964.930000000008</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>60256.39</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>54938.660000000018</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>70416.479999999996</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>62087.000000000015</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>84649.520000000033</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>92824.200000000026</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>107882.92000000003</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>105734.57000000002</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>167359.22000000003</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" ref="Q25:AB25" si="14">Q23-Q24</f>
+        <f t="shared" ref="Q25:AB25" si="19">Q23-Q24</f>
         <v>165255.29999999999</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>183528.33999999997</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>181150.97999999998</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>217850.69999999995</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>248620.79999999999</v>
       </c>
       <c r="V25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>304304.67</v>
       </c>
       <c r="W25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>226963.57999999996</v>
       </c>
       <c r="X25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>219755.95</v>
       </c>
       <c r="Y25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>212849.72999999998</v>
       </c>
       <c r="Z25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>229632.07</v>
       </c>
       <c r="AA25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>246783.88</v>
       </c>
       <c r="AB25" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>270465.5</v>
       </c>
       <c r="AD25" s="7">
-        <f>AD23-AD24</f>
+        <f t="shared" ref="AD25:AI25" si="20">AD23-AD24</f>
         <v>321902.41000000003</v>
       </c>
       <c r="AE25" s="7">
-        <f>AE23-AE24</f>
+        <f t="shared" si="20"/>
         <v>324280.69</v>
       </c>
       <c r="AF25" s="7">
-        <f>AF23-AF24</f>
+        <f t="shared" si="20"/>
         <v>355218.75</v>
       </c>
       <c r="AG25" s="7">
-        <f>AG23-AG24</f>
+        <f t="shared" si="20"/>
         <v>322512.67</v>
       </c>
       <c r="AH25" s="7">
-        <f>AH23-AH24</f>
+        <f t="shared" si="20"/>
         <v>341675.39</v>
       </c>
       <c r="AI25" s="7">
-        <f>AI23-AI24</f>
+        <f t="shared" si="20"/>
         <v>313790.32</v>
+      </c>
+      <c r="AJ25" s="7">
+        <f>AJ23-AJ24</f>
+        <v>283295.71999999997</v>
       </c>
     </row>
   </sheetData>
@@ -4345,15 +4449,15 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="AE9:AI9 AB15 Y9:AB9" formulaRange="1"/>
-    <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="1"/>
+    <ignoredError sqref="Y9:AB9 AB15 AE9:AJ9" formulaRange="1"/>
+    <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HinsShum\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E766D910-83FC-40C7-8BB4-C6BE82A7096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C425558-FF3B-43B9-A888-EB4C7861D3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,9 +499,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AJ$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AK$1)</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -594,16 +594,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AJ$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AK$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -696,6 +699,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>439295.72</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>438284.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,9 +772,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AJ$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AK$1)</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -861,16 +867,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AJ$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AK$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -963,6 +972,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>283295.71999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>282284.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMU25"/>
+  <dimension ref="A1:AMV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1534,13 +1546,13 @@
     <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="36" width="11.25" style="2" customWidth="1"/>
-    <col min="37" max="37" width="12" style="2" customWidth="1"/>
-    <col min="38" max="79" width="10.5" style="2" customWidth="1"/>
-    <col min="80" max="1035" width="10.5" style="1" customWidth="1"/>
+    <col min="30" max="37" width="11.25" style="2" customWidth="1"/>
+    <col min="38" max="38" width="12" style="2" customWidth="1"/>
+    <col min="39" max="80" width="10.5" style="2" customWidth="1"/>
+    <col min="81" max="1036" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1645,11 +1657,14 @@
       <c r="AJ1" s="8">
         <v>44378</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="8">
+        <v>44409</v>
+      </c>
+      <c r="AL1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -1761,11 +1776,14 @@
         <v>16652.919999999998</v>
       </c>
       <c r="AK2" s="2">
-        <f>SUM(AD2:AJ2)</f>
-        <v>97917.19</v>
+        <v>12614.36</v>
+      </c>
+      <c r="AL2" s="2">
+        <f>SUM(AD2:AK2)</f>
+        <v>110531.55</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
@@ -1873,11 +1891,14 @@
         <v>189.6</v>
       </c>
       <c r="AK3" s="2">
-        <f t="shared" ref="AK3:AK16" si="2">SUM(AD3:AJ3)</f>
-        <v>914.50000000000011</v>
+        <v>262.60000000000002</v>
+      </c>
+      <c r="AL3" s="2">
+        <f t="shared" ref="AL3:AL16" si="2">SUM(AD3:AK3)</f>
+        <v>1177.1000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
@@ -1986,11 +2007,14 @@
         <v>3696.58</v>
       </c>
       <c r="AK4" s="2">
+        <v>364.6</v>
+      </c>
+      <c r="AL4" s="2">
         <f t="shared" si="2"/>
-        <v>15410.93</v>
+        <v>15775.53</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
@@ -2098,11 +2122,14 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="6" t="s">
@@ -2210,11 +2237,14 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
         <f t="shared" si="2"/>
         <v>677.74</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
@@ -2322,11 +2352,14 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
@@ -2434,11 +2467,14 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
@@ -2549,7 +2585,7 @@
         <v>230952.4</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" ref="AD9:AJ9" si="5">SUM(AD2:AD8)</f>
+        <f t="shared" ref="AD9:AK9" si="5">SUM(AD2:AD8)</f>
         <v>13881.62</v>
       </c>
       <c r="AE9" s="2">
@@ -2577,11 +2613,15 @@
         <v>20539.099999999999</v>
       </c>
       <c r="AK9" s="2">
+        <f t="shared" si="5"/>
+        <v>13241.560000000001</v>
+      </c>
+      <c r="AL9" s="2">
         <f t="shared" si="2"/>
-        <v>158903.5</v>
+        <v>172145.06</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
@@ -2692,11 +2732,14 @@
         <v>2499.46</v>
       </c>
       <c r="AK10" s="2">
+        <v>5490.83</v>
+      </c>
+      <c r="AL10" s="2">
         <f t="shared" si="2"/>
-        <v>30268.449999999997</v>
+        <v>35759.279999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
@@ -2804,11 +2847,14 @@
         <v>1400</v>
       </c>
       <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
         <f t="shared" si="2"/>
         <v>5866.5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
@@ -2917,11 +2963,14 @@
         <v>15377.41</v>
       </c>
       <c r="AK12" s="2">
+        <v>1619.86</v>
+      </c>
+      <c r="AL12" s="2">
         <f t="shared" si="2"/>
-        <v>101097.4</v>
+        <v>102717.26</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
@@ -3029,11 +3078,14 @@
         <v>0</v>
       </c>
       <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
@@ -3141,11 +3193,14 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
@@ -3256,7 +3311,7 @@
         <v>201562.06999999998</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" ref="AD15:AJ15" si="8">SUM(AD10:AD14)</f>
+        <f t="shared" ref="AD15:AK15" si="8">SUM(AD10:AD14)</f>
         <v>2287.0299999999997</v>
       </c>
       <c r="AE15" s="2">
@@ -3284,11 +3339,15 @@
         <v>19276.87</v>
       </c>
       <c r="AK15" s="2">
+        <f t="shared" si="8"/>
+        <v>7110.69</v>
+      </c>
+      <c r="AL15" s="2">
         <f t="shared" si="2"/>
-        <v>154432.34999999998</v>
+        <v>161543.03999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
@@ -3399,7 +3458,7 @@
         <v>29390.330000000005</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AJ16" si="11">AD9-AD15</f>
+        <f t="shared" ref="AD16:AK16" si="11">AD9-AD15</f>
         <v>11594.59</v>
       </c>
       <c r="AE16" s="2">
@@ -3427,11 +3486,15 @@
         <v>1262.2299999999996</v>
       </c>
       <c r="AK16" s="2">
+        <f t="shared" si="11"/>
+        <v>6130.8700000000017</v>
+      </c>
+      <c r="AL16" s="2">
         <f t="shared" si="2"/>
-        <v>4471.1500000000033</v>
+        <v>10602.020000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -3535,8 +3598,11 @@
       <c r="AJ17" s="2">
         <v>0</v>
       </c>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
@@ -3637,8 +3703,11 @@
       <c r="AJ18" s="2">
         <v>17812.36</v>
       </c>
+      <c r="AK18" s="2">
+        <v>23693.01</v>
+      </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
@@ -3738,8 +3807,11 @@
       <c r="AJ19" s="2">
         <v>22583.14</v>
       </c>
+      <c r="AK19" s="2">
+        <v>22583.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6" t="s">
@@ -3839,8 +3911,11 @@
       <c r="AJ20" s="2">
         <v>0</v>
       </c>
+      <c r="AK20" s="2">
+        <v>7380</v>
+      </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="6" t="s">
@@ -3940,8 +4015,11 @@
       <c r="AJ21" s="2">
         <v>0</v>
       </c>
+      <c r="AK21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
@@ -4041,8 +4119,11 @@
       <c r="AJ22" s="2">
         <v>398900.22</v>
       </c>
+      <c r="AK22" s="2">
+        <v>384628.59</v>
+      </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="6" t="s">
@@ -4172,8 +4253,12 @@
         <f>SUM(AJ17:AJ22)</f>
         <v>439295.72</v>
       </c>
+      <c r="AK23" s="7">
+        <f>SUM(AK17:AK22)</f>
+        <v>438284.74</v>
+      </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
         <v>49</v>
@@ -4281,7 +4366,7 @@
         <v>156000</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" ref="AE24:AJ24" si="17">AD24+AE8-AE14</f>
+        <f t="shared" ref="AE24:AK24" si="17">AD24+AE8-AE14</f>
         <v>156000</v>
       </c>
       <c r="AF24" s="2">
@@ -4304,8 +4389,12 @@
         <f t="shared" si="17"/>
         <v>156000</v>
       </c>
+      <c r="AK24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>51</v>
@@ -4434,6 +4523,10 @@
       <c r="AJ25" s="7">
         <f>AJ23-AJ24</f>
         <v>283295.71999999997</v>
+      </c>
+      <c r="AK25" s="7">
+        <f>AK23-AK24</f>
+        <v>282284.74</v>
       </c>
     </row>
   </sheetData>
@@ -4449,15 +4542,15 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Y9:AB9 AB15 AE9:AJ9" formulaRange="1"/>
+    <ignoredError sqref="Y9:AB9 AB15 AE9:AK9" formulaRange="1"/>
     <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HinsShum\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C425558-FF3B-43B9-A888-EB4C7861D3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE9B730-788A-4630-9E6C-A10AF188546F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -499,9 +488,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AK$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AL$1)</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -597,16 +586,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AK$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AL$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -702,6 +694,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>438284.74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>461844.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,9 +767,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AK$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AL$1)</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -870,16 +865,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AK$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AL$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -975,6 +973,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>282284.74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>305844.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMV25"/>
+  <dimension ref="A1:AMW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1546,13 +1547,13 @@
     <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="37" width="11.25" style="2" customWidth="1"/>
-    <col min="38" max="38" width="12" style="2" customWidth="1"/>
-    <col min="39" max="80" width="10.5" style="2" customWidth="1"/>
-    <col min="81" max="1036" width="10.5" style="1" customWidth="1"/>
+    <col min="30" max="38" width="11.25" style="2" customWidth="1"/>
+    <col min="39" max="39" width="12" style="2" customWidth="1"/>
+    <col min="40" max="81" width="10.5" style="2" customWidth="1"/>
+    <col min="82" max="1037" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1660,11 +1661,14 @@
       <c r="AK1" s="8">
         <v>44409</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="8">
+        <v>44440</v>
+      </c>
+      <c r="AM1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -1779,11 +1783,14 @@
         <v>12614.36</v>
       </c>
       <c r="AL2" s="2">
-        <f>SUM(AD2:AK2)</f>
-        <v>110531.55</v>
+        <v>12673.76</v>
+      </c>
+      <c r="AM2" s="2">
+        <f>SUM(AD2:AL2)</f>
+        <v>123205.31</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
@@ -1894,11 +1901,14 @@
         <v>262.60000000000002</v>
       </c>
       <c r="AL3" s="2">
-        <f t="shared" ref="AL3:AL16" si="2">SUM(AD3:AK3)</f>
-        <v>1177.1000000000001</v>
+        <v>268.89999999999998</v>
+      </c>
+      <c r="AM3" s="2">
+        <f t="shared" ref="AM3:AM16" si="2">SUM(AD3:AL3)</f>
+        <v>1446</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
@@ -2010,11 +2020,14 @@
         <v>364.6</v>
       </c>
       <c r="AL4" s="2">
+        <v>2720.69</v>
+      </c>
+      <c r="AM4" s="2">
         <f t="shared" si="2"/>
-        <v>15775.53</v>
+        <v>18496.22</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
@@ -2125,11 +2138,14 @@
         <v>0</v>
       </c>
       <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="6" t="s">
@@ -2240,11 +2256,14 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
         <f t="shared" si="2"/>
         <v>677.74</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
@@ -2355,11 +2374,14 @@
         <v>0</v>
       </c>
       <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
@@ -2470,11 +2492,14 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
@@ -2585,7 +2610,7 @@
         <v>230952.4</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" ref="AD9:AK9" si="5">SUM(AD2:AD8)</f>
+        <f t="shared" ref="AD9:AL9" si="5">SUM(AD2:AD8)</f>
         <v>13881.62</v>
       </c>
       <c r="AE9" s="2">
@@ -2617,11 +2642,15 @@
         <v>13241.560000000001</v>
       </c>
       <c r="AL9" s="2">
+        <f t="shared" si="5"/>
+        <v>15663.35</v>
+      </c>
+      <c r="AM9" s="2">
         <f t="shared" si="2"/>
-        <v>172145.06</v>
+        <v>187808.41</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
@@ -2735,11 +2764,14 @@
         <v>5490.83</v>
       </c>
       <c r="AL10" s="2">
+        <v>2206.11</v>
+      </c>
+      <c r="AM10" s="2">
         <f t="shared" si="2"/>
-        <v>35759.279999999999</v>
+        <v>37965.39</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
@@ -2850,11 +2882,14 @@
         <v>0</v>
       </c>
       <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
         <f t="shared" si="2"/>
         <v>5866.5</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
@@ -2966,11 +3001,14 @@
         <v>1619.86</v>
       </c>
       <c r="AL12" s="2">
+        <v>687.63</v>
+      </c>
+      <c r="AM12" s="2">
         <f t="shared" si="2"/>
-        <v>102717.26</v>
+        <v>103404.89</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
@@ -3081,11 +3119,14 @@
         <v>0</v>
       </c>
       <c r="AL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
@@ -3196,11 +3237,14 @@
         <v>0</v>
       </c>
       <c r="AL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
@@ -3311,7 +3355,7 @@
         <v>201562.06999999998</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" ref="AD15:AK15" si="8">SUM(AD10:AD14)</f>
+        <f t="shared" ref="AD15:AL15" si="8">SUM(AD10:AD14)</f>
         <v>2287.0299999999997</v>
       </c>
       <c r="AE15" s="2">
@@ -3343,11 +3387,15 @@
         <v>7110.69</v>
       </c>
       <c r="AL15" s="2">
+        <f t="shared" si="8"/>
+        <v>2893.7400000000002</v>
+      </c>
+      <c r="AM15" s="2">
         <f t="shared" si="2"/>
-        <v>161543.03999999998</v>
+        <v>164436.77999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
@@ -3458,7 +3506,7 @@
         <v>29390.330000000005</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AK16" si="11">AD9-AD15</f>
+        <f t="shared" ref="AD16:AL16" si="11">AD9-AD15</f>
         <v>11594.59</v>
       </c>
       <c r="AE16" s="2">
@@ -3490,11 +3538,15 @@
         <v>6130.8700000000017</v>
       </c>
       <c r="AL16" s="2">
+        <f t="shared" si="11"/>
+        <v>12769.61</v>
+      </c>
+      <c r="AM16" s="2">
         <f t="shared" si="2"/>
-        <v>10602.020000000004</v>
+        <v>23371.630000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -3601,8 +3653,11 @@
       <c r="AK17" s="2">
         <v>0</v>
       </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
@@ -3706,8 +3761,11 @@
       <c r="AK18" s="2">
         <v>23693.01</v>
       </c>
+      <c r="AL18" s="2">
+        <v>34333.26</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
@@ -3810,8 +3868,11 @@
       <c r="AK19" s="2">
         <v>22583.14</v>
       </c>
+      <c r="AL19" s="2">
+        <v>22583.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6" t="s">
@@ -3914,8 +3975,11 @@
       <c r="AK20" s="2">
         <v>7380</v>
       </c>
+      <c r="AL20" s="2">
+        <v>7086</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="6" t="s">
@@ -4018,8 +4082,11 @@
       <c r="AK21" s="2">
         <v>0</v>
       </c>
+      <c r="AL21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
@@ -4122,8 +4189,11 @@
       <c r="AK22" s="2">
         <v>384628.59</v>
       </c>
+      <c r="AL22" s="2">
+        <v>397842.55</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="6" t="s">
@@ -4257,8 +4327,12 @@
         <f>SUM(AK17:AK22)</f>
         <v>438284.74</v>
       </c>
+      <c r="AL23" s="7">
+        <f>SUM(AL17:AL22)</f>
+        <v>461844.95</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
         <v>49</v>
@@ -4366,7 +4440,7 @@
         <v>156000</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" ref="AE24:AK24" si="17">AD24+AE8-AE14</f>
+        <f t="shared" ref="AE24:AL24" si="17">AD24+AE8-AE14</f>
         <v>156000</v>
       </c>
       <c r="AF24" s="2">
@@ -4393,8 +4467,12 @@
         <f t="shared" si="17"/>
         <v>156000</v>
       </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>51</v>
@@ -4527,6 +4605,10 @@
       <c r="AK25" s="7">
         <f>AK23-AK24</f>
         <v>282284.74</v>
+      </c>
+      <c r="AL25" s="7">
+        <f>AL23-AL24</f>
+        <v>305844.95</v>
       </c>
     </row>
   </sheetData>
@@ -4548,7 +4630,7 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Y9:AB9 AB15 AE9:AK9" formulaRange="1"/>
+    <ignoredError sqref="Y9:AB9 AB15 AE9:AL9" formulaRange="1"/>
     <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE9B730-788A-4630-9E6C-A10AF188546F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="16065" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18930" windowHeight="7980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -181,11 +175,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -199,13 +197,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +361,194 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -255,9 +584,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -267,10 +838,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -285,17 +862,58 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -369,15 +987,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -412,9 +1027,13 @@
               </a:rPr>
               <a:t>资金总量</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -433,7 +1052,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>总资产</c:v>
+            <c:strRef>
+              <c:f>"总资产"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总资产</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -469,7 +1096,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -482,146 +1108,151 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
+                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AL$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AM$1)</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
+                <c:ptCount val="34"/>
+                <c:pt idx="0" c:formatCode="0.00">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="0.00">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="0.00">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="0.00">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="0.00">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="0.00">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="0.00">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="0.00">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="0.00">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="0.00">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="0.00">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="0.00">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="0.00">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="0.00">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="0.00">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="0.00">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/mm">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/mm">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/mm">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/mm">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021/01</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021/02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2021/03</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021/04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2021/05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2021/06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2021/07</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021/08</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2021/09</c:v>
+                <c:pt idx="24" c:formatCode="yyyy/mm">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/mm">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/mm">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/mm">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/mm">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/mm">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/mm">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/mm">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/mm">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/mm">
+                  <c:v>44470</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AL$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AM$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108954.76000000001</c:v>
+                  <c:v>108954.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>161964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160256.38999999998</c:v>
+                  <c:v>160256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>154938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170416.47999999998</c:v>
+                  <c:v>170416.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>162087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184649.52000000002</c:v>
+                  <c:v>184649.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>192824.2</c:v>
@@ -633,28 +1264,28 @@
                   <c:v>205734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267359.22000000003</c:v>
+                  <c:v>267359.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>265255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283528.33999999997</c:v>
+                  <c:v>283528.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>281150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>317850.69999999995</c:v>
+                  <c:v>317850.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348620.79999999999</c:v>
+                  <c:v>348620.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>404304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>396963.57999999996</c:v>
+                  <c:v>396963.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>389755.95</c:v>
@@ -672,7 +1303,7 @@
                   <c:v>426465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>477902.41000000003</c:v>
+                  <c:v>477902.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>480280.69</c:v>
@@ -697,22 +1328,28 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>461844.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>498589.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3731-4451-B29D-A71C0DF94E85}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>净资产</c:v>
+            <c:strRef>
+              <c:f>"净资产"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净资产</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -748,7 +1385,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -761,185 +1397,190 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
+                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AL$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AM$1)</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
+                <c:ptCount val="34"/>
+                <c:pt idx="0" c:formatCode="0.00">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="0.00">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="0.00">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="0.00">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="0.00">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="0.00">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="0.00">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="0.00">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="0.00">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="0.00">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="0.00">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="0.00">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="0.00">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="0.00">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="0.00">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="0.00">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="0.00">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="0.00">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="0.00">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="0.00">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/mm">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/mm">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/mm">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/mm">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021/01</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021/02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2021/03</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021/04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2021/05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2021/06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2021/07</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021/08</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2021/09</c:v>
+                <c:pt idx="24" c:formatCode="yyyy/mm">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/mm">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/mm">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/mm">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/mm">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/mm">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/mm">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/mm">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/mm">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/mm">
+                  <c:v>44470</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AL$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AM$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>39892.050000000003</c:v>
+                  <c:v>39892.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55555.210000000014</c:v>
+                  <c:v>55555.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61964.930000000008</c:v>
+                  <c:v>61964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54938.660000000018</c:v>
+                  <c:v>54938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70416.479999999996</c:v>
+                  <c:v>70416.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62087.000000000015</c:v>
+                  <c:v>62087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84649.520000000033</c:v>
+                  <c:v>84649.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92824.200000000026</c:v>
+                  <c:v>92824.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107882.92000000003</c:v>
+                  <c:v>107882.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105734.57000000002</c:v>
+                  <c:v>105734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167359.22000000003</c:v>
+                  <c:v>167359.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165255.29999999999</c:v>
+                  <c:v>165255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>183528.33999999997</c:v>
+                  <c:v>183528.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181150.97999999998</c:v>
+                  <c:v>181150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>217850.69999999995</c:v>
+                  <c:v>217850.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248620.79999999999</c:v>
+                  <c:v>248620.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>304304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226963.57999999996</c:v>
+                  <c:v>226963.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>219755.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212849.72999999998</c:v>
+                  <c:v>212849.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>229632.07</c:v>
@@ -951,7 +1592,7 @@
                   <c:v>270465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>321902.41000000003</c:v>
+                  <c:v>321902.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>324280.69</c:v>
@@ -969,23 +1610,21 @@
                   <c:v>313790.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>283295.71999999997</c:v>
+                  <c:v>283295.72</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>282284.74</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>305844.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>342589.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3731-4451-B29D-A71C0DF94E85}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1004,6 +1643,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="52376106"/>
         <c:axId val="74300066"/>
@@ -1037,9 +1677,13 @@
                   </a:rPr>
                   <a:t>时间</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:latin typeface="Arial"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1075,7 +1719,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74300066"/>
@@ -1125,9 +1768,13 @@
                   </a:rPr>
                   <a:t>资金量</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:latin typeface="Arial"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1163,7 +1810,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="52376106"/>
@@ -1181,6 +1827,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1196,7 +1843,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1221,19 +1867,18 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1244,23 +1889,17 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>754560</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>169455</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41295</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="2409825" y="4800600"/>
+        <a:ext cx="5669280" cy="4156075"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1525,19 +2164,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMW25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="AO18" sqref="AO18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
@@ -1547,211 +2188,214 @@
     <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="38" width="11.25" style="2" customWidth="1"/>
-    <col min="39" max="39" width="12" style="2" customWidth="1"/>
-    <col min="40" max="81" width="10.5" style="2" customWidth="1"/>
-    <col min="82" max="1037" width="10.5" style="1" customWidth="1"/>
+    <col min="30" max="39" width="11.25" style="2" customWidth="1"/>
+    <col min="40" max="40" width="12" style="2" customWidth="1"/>
+    <col min="41" max="82" width="10.5" style="2" customWidth="1"/>
+    <col min="83" max="1038" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="10">
         <v>44075</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="10">
         <v>44105</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="10">
         <v>44136</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="10">
         <v>44166</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="10">
         <v>44197</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1" s="10">
         <v>44228</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1" s="10">
         <v>44256</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AG1" s="10">
         <v>44287</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AH1" s="10">
         <v>44317</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AI1" s="10">
         <v>44348</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AJ1" s="10">
         <v>44378</v>
       </c>
-      <c r="AK1" s="8">
+      <c r="AK1" s="10">
         <v>44409</v>
       </c>
-      <c r="AL1" s="8">
+      <c r="AL1" s="10">
         <v>44440</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="10">
+        <v>44470</v>
+      </c>
+      <c r="AN1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:40">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>7709</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>7414.05</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <v>7400</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <v>7478.26</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <v>7489.89</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>7760</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="7">
         <v>7517.05</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="7">
         <v>7474.38</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="7">
         <v>7656.73</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="7">
         <v>7245.45</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="7">
         <v>7462.74</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="7">
         <v>7474.37</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="7">
         <f t="shared" ref="P2:P16" si="0">SUM(D2:O2)</f>
-        <v>90081.919999999998</v>
-      </c>
-      <c r="Q2" s="5">
+        <v>90081.92</v>
+      </c>
+      <c r="Q2" s="7">
         <v>12359.3</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="7">
         <v>12271.99</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="7">
         <v>12469.87</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="7">
         <v>12458.24</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="7">
         <v>12434.95</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="7">
         <v>12634.95</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="7">
         <v>11501.73</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="7">
         <v>10823.46</v>
       </c>
-      <c r="Y2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="5">
+      <c r="Y2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7">
         <v>7099.86</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="7">
         <v>7875.71</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="7">
         <v>11586.58</v>
       </c>
       <c r="AC2" s="2">
@@ -1768,7 +2412,7 @@
         <v>13025.09</v>
       </c>
       <c r="AG2" s="2">
-        <v>17572.189999999999</v>
+        <v>17572.19</v>
       </c>
       <c r="AH2" s="2">
         <v>13221.36</v>
@@ -1777,7 +2421,7 @@
         <v>12308.25</v>
       </c>
       <c r="AJ2" s="2">
-        <v>16652.919999999998</v>
+        <v>16652.92</v>
       </c>
       <c r="AK2" s="2">
         <v>12614.36</v>
@@ -1786,14 +2430,17 @@
         <v>12673.76</v>
       </c>
       <c r="AM2" s="2">
-        <f>SUM(AD2:AL2)</f>
-        <v>123205.31</v>
+        <v>16712.56</v>
+      </c>
+      <c r="AN2" s="2">
+        <f t="shared" ref="AN2:AN9" si="2">SUM(AD2:AM2)</f>
+        <v>139917.87</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:40">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
@@ -1832,7 +2479,7 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1854,27 +2501,27 @@
       <c r="V3" s="2">
         <v>0</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="7">
         <v>407</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="7">
         <v>911.2</v>
       </c>
-      <c r="Y3" s="5">
-        <v>316.60000000000002</v>
-      </c>
-      <c r="Z3" s="5">
+      <c r="Y3" s="7">
+        <v>316.6</v>
+      </c>
+      <c r="Z3" s="7">
         <v>121.4</v>
       </c>
-      <c r="AA3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="5">
+      <c r="AA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
         <v>0</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="1"/>
-        <v>1756.2000000000003</v>
+        <v>1756.2</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
@@ -1898,96 +2545,99 @@
         <v>189.6</v>
       </c>
       <c r="AK3" s="2">
-        <v>262.60000000000002</v>
+        <v>262.6</v>
       </c>
       <c r="AL3" s="2">
-        <v>268.89999999999998</v>
+        <v>268.9</v>
       </c>
       <c r="AM3" s="2">
-        <f t="shared" ref="AM3:AM16" si="2">SUM(AD3:AL3)</f>
-        <v>1446</v>
+        <v>736.3</v>
+      </c>
+      <c r="AN3" s="2">
+        <f t="shared" si="2"/>
+        <v>2182.3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="1:40">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>44.33</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
         <v>464.11</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="7">
         <v>481.18</v>
       </c>
-      <c r="J4" s="5">
-        <v>530.79999999999995</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="J4" s="7">
+        <v>530.8</v>
+      </c>
+      <c r="K4" s="7">
         <v>462.06</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="7">
         <v>878.35</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="7">
         <v>39.4</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="7">
         <v>148.5</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="7">
         <v>38130</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="7">
         <f t="shared" si="0"/>
-        <v>41178.730000000003</v>
-      </c>
-      <c r="Q4" s="5">
+        <v>41178.73</v>
+      </c>
+      <c r="Q4" s="7">
         <v>638</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="7">
         <v>88</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="7">
         <v>1172.99</v>
       </c>
       <c r="T4" s="2">
         <v>3000</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="7">
         <v>75</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="7">
         <v>4000</v>
       </c>
-      <c r="W4" s="5">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="X4" s="5">
+      <c r="W4" s="7">
+        <v>19.94</v>
+      </c>
+      <c r="X4" s="7">
         <v>5346</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="7">
         <v>15.33</v>
       </c>
-      <c r="Z4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="Z4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
         <v>127.4</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="7">
         <v>1561.8</v>
       </c>
       <c r="AC4" s="2">
@@ -2023,14 +2673,17 @@
         <v>2720.69</v>
       </c>
       <c r="AM4" s="2">
+        <v>672.85</v>
+      </c>
+      <c r="AN4" s="2">
         <f t="shared" si="2"/>
-        <v>18496.22</v>
+        <v>19169.07</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:40">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2">
@@ -2054,22 +2707,22 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="7">
         <v>12000</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -2079,13 +2732,13 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="7">
         <v>8000</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="7">
         <v>1500</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="7">
         <v>1500</v>
       </c>
       <c r="V5" s="2">
@@ -2141,14 +2794,17 @@
         <v>0</v>
       </c>
       <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:40">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2">
@@ -2166,10 +2822,10 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>1473.3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="7">
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -2178,16 +2834,16 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="7">
         <v>1636</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="7">
         <v>400</v>
       </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <f t="shared" si="0"/>
         <v>3509.3</v>
       </c>
@@ -2209,7 +2865,7 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="7">
         <v>1803.1</v>
       </c>
       <c r="X6" s="2">
@@ -2259,14 +2915,17 @@
         <v>0</v>
       </c>
       <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
         <f t="shared" si="2"/>
         <v>677.74</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:40">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2">
@@ -2284,28 +2943,28 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>1296</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="7">
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="7">
         <v>1944</v>
       </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
         <v>1944</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="7">
         <f t="shared" si="0"/>
         <v>5184</v>
       </c>
@@ -2315,34 +2974,34 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="7">
         <v>1944</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="7">
         <v>648</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="7">
         <v>648</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="7">
         <v>648</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="7">
         <v>648</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="7">
         <v>648</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="7">
         <v>648</v>
       </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5">
+      <c r="Z7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
         <v>0</v>
       </c>
       <c r="AC7" s="2">
@@ -2377,14 +3036,17 @@
         <v>0</v>
       </c>
       <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:40">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2">
@@ -2423,7 +3085,7 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="7">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -2445,7 +3107,7 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="7">
         <v>70000</v>
       </c>
       <c r="X8" s="2">
@@ -2495,14 +3157,17 @@
         <v>0</v>
       </c>
       <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="1:40">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2">
@@ -2535,7 +3200,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>19936.440000000002</v>
+        <v>19936.44</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="3"/>
@@ -2543,7 +3208,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>8920.8499999999985</v>
+        <v>8920.85</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="3"/>
@@ -2553,9 +3218,9 @@
         <f t="shared" si="3"/>
         <v>47548.37</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>201953.94999999998</v>
+        <v>201953.95</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ref="Q9:AB9" si="4">SUM(Q2:Q8)</f>
@@ -2571,7 +3236,7 @@
       </c>
       <c r="T9" s="2">
         <f t="shared" si="4"/>
-        <v>17606.239999999998</v>
+        <v>17606.24</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="4"/>
@@ -2591,11 +3256,11 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="4"/>
-        <v>979.93000000000006</v>
+        <v>979.93</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="4"/>
-        <v>7221.2599999999993</v>
+        <v>7221.26</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="4"/>
@@ -2610,7 +3275,7 @@
         <v>230952.4</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" ref="AD9:AL9" si="5">SUM(AD2:AD8)</f>
+        <f t="shared" ref="AD9:AM9" si="5">SUM(AD2:AD8)</f>
         <v>13881.62</v>
       </c>
       <c r="AE9" s="2">
@@ -2619,7 +3284,7 @@
       </c>
       <c r="AF9" s="2">
         <f t="shared" si="5"/>
-        <v>44012.229999999996</v>
+        <v>44012.23</v>
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="5"/>
@@ -2635,108 +3300,112 @@
       </c>
       <c r="AJ9" s="2">
         <f t="shared" si="5"/>
-        <v>20539.099999999999</v>
+        <v>20539.1</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" si="5"/>
-        <v>13241.560000000001</v>
+        <v>13241.56</v>
       </c>
       <c r="AL9" s="2">
         <f t="shared" si="5"/>
         <v>15663.35</v>
       </c>
       <c r="AM9" s="2">
+        <f t="shared" si="5"/>
+        <v>18121.71</v>
+      </c>
+      <c r="AN9" s="2">
         <f t="shared" si="2"/>
-        <v>187808.41</v>
+        <v>205930.12</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:40">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="7">
         <v>2401</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>2029.83</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="7">
         <v>1375.56</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="7">
         <v>2699.75</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="7">
         <v>3113.23</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="7">
         <v>3190.37</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="7">
         <v>1404.08</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="7">
         <v>1836.61</v>
       </c>
-      <c r="L10" s="5">
-        <v>1146.8800000000001</v>
-      </c>
-      <c r="M10" s="5">
+      <c r="L10" s="7">
+        <v>1146.88</v>
+      </c>
+      <c r="M10" s="7">
         <v>3626.41</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="7">
         <v>1715.16</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="7">
         <v>1728.63</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="7">
         <f t="shared" si="0"/>
         <v>26267.51</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="7">
         <v>4512.24</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="7">
         <v>969.37</v>
       </c>
-      <c r="S10" s="5">
-        <v>2381.5500000000002</v>
-      </c>
-      <c r="T10" s="5">
+      <c r="S10" s="7">
+        <v>2381.55</v>
+      </c>
+      <c r="T10" s="7">
         <v>6214.7</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="7">
         <v>3004.41</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="7">
         <v>9534.9</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="7">
         <v>10480.42</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="7">
         <v>6134.28</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="7">
         <v>5677.38</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="7">
         <v>2489.12</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="7">
         <v>2616.23</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="7">
         <v>1434.68</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="1"/>
-        <v>55449.279999999999</v>
+        <v>55449.28</v>
       </c>
       <c r="AD10" s="2">
         <f>1048.17+274.92+609.16</f>
@@ -2752,7 +3421,7 @@
         <v>3176.72</v>
       </c>
       <c r="AH10" s="2">
-        <v>8531.2999999999993</v>
+        <v>8531.3</v>
       </c>
       <c r="AI10" s="2">
         <v>9319</v>
@@ -2767,69 +3436,72 @@
         <v>2206.11</v>
       </c>
       <c r="AM10" s="2">
-        <f t="shared" si="2"/>
-        <v>37965.39</v>
+        <v>6831.17</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" ref="AN10:AN16" si="6">SUM(AD10:AM10)</f>
+        <v>44796.56</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="1:40">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="7">
         <v>1230</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>3690</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="7">
         <v>708.5</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <v>3962</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
         <v>4285</v>
       </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
         <v>373</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="7">
         <v>3690</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="7">
         <v>339</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="7">
         <f t="shared" si="0"/>
         <v>18277.5</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="7">
         <v>1700</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="7">
         <v>5190</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="7">
         <v>5467</v>
       </c>
       <c r="V11" s="2">
@@ -2885,72 +3557,75 @@
         <v>0</v>
       </c>
       <c r="AM11" s="2">
-        <f t="shared" si="2"/>
-        <v>5866.5</v>
+        <v>3300</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" si="6"/>
+        <v>9166.5</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="1:40">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
         <v>800</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="7">
         <v>200</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="7">
         <v>50</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="7">
         <v>34.4</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="7">
         <v>121</v>
       </c>
-      <c r="J12" s="5">
-        <v>315.77999999999997</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="J12" s="7">
+        <v>315.78</v>
+      </c>
+      <c r="K12" s="7">
         <v>287.5</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="7">
         <v>29</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
         <f t="shared" si="0"/>
         <v>1837.68</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="7">
         <v>454.7</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="7">
         <v>663.4</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="7">
         <v>373</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="7">
         <v>89</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="7">
         <v>573</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="7">
         <v>217</v>
       </c>
       <c r="W12" s="2">
@@ -2969,7 +3644,7 @@
         <v>118.42</v>
       </c>
       <c r="AB12" s="2">
-        <v>610.08000000000004</v>
+        <v>610.08</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="1"/>
@@ -2980,13 +3655,13 @@
         <v>354.78</v>
       </c>
       <c r="AE12" s="2">
-        <v>302.20999999999998</v>
+        <v>302.21</v>
       </c>
       <c r="AF12" s="2">
         <v>2109.27</v>
       </c>
       <c r="AG12" s="2">
-        <v>80444.399999999994</v>
+        <v>80444.4</v>
       </c>
       <c r="AH12" s="2">
         <v>2000</v>
@@ -3004,14 +3679,17 @@
         <v>687.63</v>
       </c>
       <c r="AM12" s="2">
-        <f t="shared" si="2"/>
-        <v>103404.89</v>
+        <v>1531.98</v>
+      </c>
+      <c r="AN12" s="2">
+        <f t="shared" si="6"/>
+        <v>104936.87</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="1:40">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2">
@@ -3050,14 +3728,14 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="7">
         <v>5000</v>
       </c>
       <c r="S13" s="2">
@@ -3122,53 +3800,56 @@
         <v>0</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="6"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="1:40">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>3267.55</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>3332.9</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="7">
         <v>3399.55</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -3240,394 +3921,405 @@
         <v>0</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2">
+        <f t="shared" si="6"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="1:40">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:O15" si="6">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:O15" si="7">SUM(D10:D14)</f>
         <v>6898.55</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9852.73</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="6"/>
-        <v>5683.6100000000006</v>
+        <f t="shared" si="7"/>
+        <v>5683.61</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2749.75</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="6"/>
-        <v>7109.6299999999992</v>
+        <f t="shared" si="7"/>
+        <v>7109.63</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3311.37</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1719.86</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6409.11</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="6"/>
-        <v>1175.8800000000001</v>
+        <f t="shared" si="7"/>
+        <v>1175.88</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3999.41</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5405.16</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2067.63</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="7">
         <f t="shared" si="0"/>
-        <v>56382.689999999995</v>
+        <v>56382.69</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15:AB15" si="7">SUM(Q10:Q14)</f>
-        <v>4966.9399999999996</v>
+        <f t="shared" ref="Q15:AB15" si="8">SUM(Q10:Q14)</f>
+        <v>4966.94</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8332.77</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7944.55</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6303.7</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9044.41</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9751.9</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>118647.18</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6974.28</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6496.88</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="7"/>
-        <v>2520.0499999999997</v>
+        <f t="shared" si="8"/>
+        <v>2520.05</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="7"/>
-        <v>16734.650000000001</v>
+        <f t="shared" si="8"/>
+        <v>16734.65</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3844.76</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="1"/>
-        <v>201562.06999999998</v>
+        <v>201562.07</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" ref="AD15:AL15" si="8">SUM(AD10:AD14)</f>
-        <v>2287.0299999999997</v>
+        <f t="shared" ref="AD15:AM15" si="9">SUM(AD10:AD14)</f>
+        <v>2287.03</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5724.25</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5696.95</v>
       </c>
       <c r="AG15" s="2">
-        <f t="shared" si="8"/>
-        <v>96621.119999999995</v>
+        <f t="shared" si="9"/>
+        <v>96621.12</v>
       </c>
       <c r="AH15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13491.3</v>
       </c>
       <c r="AI15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11334.83</v>
       </c>
       <c r="AJ15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19276.87</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7110.69</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="8"/>
-        <v>2893.7400000000002</v>
+        <f t="shared" si="9"/>
+        <v>2893.74</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="2"/>
-        <v>164436.77999999997</v>
+        <f t="shared" si="9"/>
+        <v>11663.15</v>
+      </c>
+      <c r="AN15" s="2">
+        <f t="shared" si="6"/>
+        <v>176099.93</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:40">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:O16" si="9">D9-D15</f>
-        <v>854.77999999999975</v>
+        <f t="shared" ref="D16:O16" si="10">D9-D15</f>
+        <v>854.78</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="9"/>
-        <v>-2438.6799999999994</v>
+        <f t="shared" si="10"/>
+        <v>-2438.68</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51716.39</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4728.51</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="9"/>
-        <v>844.3700000000008</v>
+        <f t="shared" si="10"/>
+        <v>844.370000000001</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7699.11</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="9"/>
-        <v>6327.9900000000007</v>
+        <f t="shared" si="10"/>
+        <v>6327.99</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="9"/>
-        <v>13527.330000000002</v>
+        <f t="shared" si="10"/>
+        <v>13527.33</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="9"/>
-        <v>9303.2000000000007</v>
+        <f t="shared" si="10"/>
+        <v>9303.2</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="9"/>
-        <v>4921.4399999999987</v>
+        <f t="shared" si="10"/>
+        <v>4921.44</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="9"/>
-        <v>45480.740000000005</v>
-      </c>
-      <c r="P16" s="5">
+        <f t="shared" si="10"/>
+        <v>45480.74</v>
+      </c>
+      <c r="P16" s="7">
         <f t="shared" si="0"/>
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:AB16" si="10">Q9-Q15</f>
+        <f t="shared" ref="Q16:AB16" si="11">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="10"/>
-        <v>4027.2199999999993</v>
+        <f t="shared" si="11"/>
+        <v>4027.22</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="10"/>
-        <v>15642.310000000001</v>
+        <f t="shared" si="11"/>
+        <v>15642.31</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="10"/>
-        <v>11302.539999999997</v>
+        <f t="shared" si="11"/>
+        <v>11302.54</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="10"/>
-        <v>5613.5400000000009</v>
+        <f t="shared" si="11"/>
+        <v>5613.54</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="10"/>
-        <v>7531.0500000000011</v>
+        <f t="shared" si="11"/>
+        <v>7531.05</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="10"/>
-        <v>-34267.409999999989</v>
+        <f t="shared" si="11"/>
+        <v>-34267.41</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="10"/>
-        <v>10754.380000000001</v>
+        <f t="shared" si="11"/>
+        <v>10754.38</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="10"/>
-        <v>4701.2099999999991</v>
+        <f t="shared" si="11"/>
+        <v>4701.21</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="10"/>
-        <v>-8731.5400000000009</v>
+        <f t="shared" si="11"/>
+        <v>-8731.54</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="10"/>
-        <v>10303.619999999999</v>
+        <f t="shared" si="11"/>
+        <v>10303.62</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="1"/>
-        <v>29390.330000000005</v>
+        <v>29390.33</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AL16" si="11">AD9-AD15</f>
+        <f t="shared" ref="AD16:AM16" si="12">AD9-AD15</f>
         <v>11594.59</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5995.01</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="11"/>
-        <v>38315.279999999999</v>
+        <f t="shared" si="12"/>
+        <v>38315.28</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" si="11"/>
-        <v>-56137.079999999994</v>
+        <f t="shared" si="12"/>
+        <v>-56137.08</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1693.58</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" si="11"/>
-        <v>1747.5400000000009</v>
+        <f t="shared" si="12"/>
+        <v>1747.54</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="11"/>
-        <v>1262.2299999999996</v>
+        <f t="shared" si="12"/>
+        <v>1262.23</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="11"/>
-        <v>6130.8700000000017</v>
+        <f t="shared" si="12"/>
+        <v>6130.87</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12769.61</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="2"/>
-        <v>23371.630000000005</v>
+        <f t="shared" si="12"/>
+        <v>6458.56</v>
+      </c>
+      <c r="AN16" s="2">
+        <f t="shared" si="6"/>
+        <v>29830.19</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:39">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="7">
         <v>33513</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>24751.65</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="7">
         <v>12634.85</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="7">
         <v>15093.47</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="7">
         <v>20420.09</v>
       </c>
-      <c r="I17" s="5">
-        <v>17543.490000000002</v>
-      </c>
-      <c r="J17" s="5">
-        <v>18868.080000000002</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="I17" s="7">
+        <v>17543.49</v>
+      </c>
+      <c r="J17" s="7">
+        <v>18868.08</v>
+      </c>
+      <c r="K17" s="7">
         <v>14888.84</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="7">
         <v>14978.06</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="7">
         <v>15287.33</v>
       </c>
-      <c r="N17" s="5">
-        <v>18661.650000000001</v>
-      </c>
-      <c r="O17" s="5">
+      <c r="N17" s="7">
+        <v>18661.65</v>
+      </c>
+      <c r="O17" s="7">
         <v>16076.11</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7">
         <v>15240.57</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="7">
         <v>12701.39</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="7">
         <v>9350.41</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="7">
         <v>14222.96</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="7">
         <v>18253.05</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="7">
         <v>23645.57</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="7">
         <v>19546.21</v>
       </c>
-      <c r="X17" s="5">
-        <v>19342.560000000001</v>
-      </c>
-      <c r="Y17" s="5">
+      <c r="X17" s="7">
+        <v>19342.56</v>
+      </c>
+      <c r="Y17" s="7">
         <v>8015.72</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="7">
         <v>8114.54</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="7">
         <v>8847.98</v>
       </c>
-      <c r="AB17" s="5">
-        <v>8655.3700000000008</v>
+      <c r="AB17" s="7">
+        <v>8655.37</v>
       </c>
       <c r="AD17" s="2">
         <v>6924.04</v>
@@ -3656,84 +4348,87 @@
       <c r="AL17" s="2">
         <v>0</v>
       </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="1:39">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="7">
         <v>24162</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>11155.93</v>
       </c>
-      <c r="F18" s="5">
-        <v>37081.440000000002</v>
-      </c>
-      <c r="G18" s="5">
-        <v>8361.0400000000009</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="F18" s="7">
+        <v>37081.44</v>
+      </c>
+      <c r="G18" s="7">
+        <v>8361.04</v>
+      </c>
+      <c r="H18" s="7">
         <v>7792.74</v>
       </c>
-      <c r="I18" s="5">
-        <v>9341.4699999999993</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I18" s="7">
+        <v>9341.47</v>
+      </c>
+      <c r="J18" s="7">
         <v>7021.05</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="7">
         <v>12564.52</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="7">
         <v>6163.61</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="7">
         <v>3693.43</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="7">
         <v>1889.28</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="7">
         <v>49351.22</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5">
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7">
         <v>1267.53</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="7">
         <v>29512.69</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="7">
         <v>14141.27</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="7">
         <v>13952.84</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="7">
         <v>16678.45</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="7">
         <v>21344.31</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="7">
         <v>7678.26</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="7">
         <v>9513.39</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="7">
         <v>13126.19</v>
       </c>
-      <c r="Z18" s="5">
-        <v>570.70000000000005</v>
-      </c>
-      <c r="AA18" s="5">
+      <c r="Z18" s="7">
+        <v>570.7</v>
+      </c>
+      <c r="AA18" s="7">
         <v>6710.55</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="7">
         <v>6697.56</v>
       </c>
       <c r="AD18" s="2">
@@ -3747,10 +4442,10 @@
         <v>44830.93</v>
       </c>
       <c r="AG18" s="2">
-        <v>1083.5999999999999</v>
+        <v>1083.6</v>
       </c>
       <c r="AH18" s="2">
-        <v>2304.4699999999998</v>
+        <v>2304.47</v>
       </c>
       <c r="AI18" s="2">
         <v>302.94</v>
@@ -3764,84 +4459,87 @@
       <c r="AL18" s="2">
         <v>34333.26</v>
       </c>
+      <c r="AM18" s="2">
+        <v>40325.92</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="1:39">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>20000</v>
       </c>
-      <c r="G19" s="5">
-        <v>20051.439999999999</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
+      <c r="G19" s="7">
+        <v>20051.44</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7">
         <v>4009.06</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="7">
         <v>6015.57</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="7">
         <v>16029.84</v>
       </c>
-      <c r="AA19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5">
+      <c r="AA19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="7">
         <v>6011.43</v>
       </c>
       <c r="AD19" s="2">
@@ -3871,84 +4569,87 @@
       <c r="AL19" s="2">
         <v>22583.14</v>
       </c>
+      <c r="AM19" s="2">
+        <v>22583.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="6" t="s">
+    <row r="20" spans="1:39">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5">
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7">
         <v>3580.23</v>
       </c>
-      <c r="R20" s="5">
-        <v>4451.5200000000004</v>
-      </c>
-      <c r="S20" s="5">
+      <c r="R20" s="7">
+        <v>4451.52</v>
+      </c>
+      <c r="S20" s="7">
         <v>4647.49</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="7">
         <v>2252.86</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="7">
         <v>1598.05</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="7">
         <v>859.81</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
-      <c r="X20" s="5">
-        <v>2106.7600000000002</v>
-      </c>
-      <c r="Y20" s="5">
+      <c r="X20" s="7">
+        <v>2106.76</v>
+      </c>
+      <c r="Y20" s="7">
         <v>2786.56</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" s="7">
         <v>3531.46</v>
       </c>
-      <c r="AA20" s="5">
-        <v>4313.3599999999997</v>
-      </c>
-      <c r="AB20" s="5">
+      <c r="AA20" s="7">
+        <v>4313.36</v>
+      </c>
+      <c r="AB20" s="7">
         <v>5662.84</v>
       </c>
       <c r="AD20" s="2">
@@ -3978,50 +4679,53 @@
       <c r="AL20" s="2">
         <v>7086</v>
       </c>
+      <c r="AM20" s="2">
+        <v>7221.14</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="1:39">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="7">
         <v>10009.5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>30022.74</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="7">
         <v>19984.47</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="7">
         <v>19998.32</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5"/>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7"/>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
@@ -4085,84 +4789,87 @@
       <c r="AL21" s="2">
         <v>0</v>
       </c>
+      <c r="AM21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="1:39">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>28940</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <v>43024.44</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="7">
         <v>72264.17</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="7">
         <v>96752.12</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="7">
         <v>126725.83</v>
       </c>
-      <c r="I22" s="5">
-        <v>143531.51999999999</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I22" s="7">
+        <v>143531.52</v>
+      </c>
+      <c r="J22" s="7">
         <v>136197.87</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="7">
         <v>157196.16</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="7">
         <v>171682.53</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="7">
         <v>188902.16</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="7">
         <v>185183.64</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="7">
         <v>201931.89</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5">
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7">
         <v>245166.97</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="7">
         <v>236862.74</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="7">
         <v>253011.81</v>
       </c>
-      <c r="T22" s="5">
-        <v>287422.03999999998</v>
-      </c>
-      <c r="U22" s="5">
+      <c r="T22" s="7">
+        <v>287422.04</v>
+      </c>
+      <c r="U22" s="7">
         <v>312091.25</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="7">
         <v>358454.98</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="7">
         <v>369739.11</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="7">
         <v>354784.18</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="7">
         <v>352905.69</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z22" s="7">
         <v>371385.53</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="7">
         <v>382911.99</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB22" s="7">
         <v>399438.3</v>
       </c>
       <c r="AD22" s="2">
@@ -4192,152 +4899,159 @@
       <c r="AL22" s="2">
         <v>397842.55</v>
       </c>
+      <c r="AM22" s="2">
+        <v>428459.18</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6" t="s">
+    <row r="23" spans="1:39">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" ref="D23:O23" si="12">SUM(D17:D22)</f>
+      <c r="D23" s="9">
+        <f t="shared" ref="D23:O23" si="13">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
-      <c r="E23" s="7">
-        <f t="shared" si="12"/>
-        <v>108954.76000000001</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="12"/>
+      <c r="E23" s="9">
+        <f t="shared" si="13"/>
+        <v>108954.76</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="13"/>
         <v>161964.93</v>
       </c>
-      <c r="G23" s="7">
-        <f t="shared" si="12"/>
-        <v>160256.38999999998</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="12"/>
+      <c r="G23" s="9">
+        <f t="shared" si="13"/>
+        <v>160256.39</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="13"/>
         <v>154938.66</v>
       </c>
-      <c r="I23" s="7">
-        <f t="shared" si="12"/>
-        <v>170416.47999999998</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="12"/>
+      <c r="I23" s="9">
+        <f t="shared" si="13"/>
+        <v>170416.48</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="13"/>
         <v>162087</v>
       </c>
-      <c r="K23" s="7">
-        <f t="shared" si="12"/>
-        <v>184649.52000000002</v>
-      </c>
-      <c r="L23" s="7">
-        <f t="shared" si="12"/>
+      <c r="K23" s="9">
+        <f t="shared" si="13"/>
+        <v>184649.52</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="13"/>
         <v>192824.2</v>
       </c>
-      <c r="M23" s="7">
-        <f t="shared" si="12"/>
+      <c r="M23" s="9">
+        <f t="shared" si="13"/>
         <v>207882.92</v>
       </c>
-      <c r="N23" s="7">
-        <f t="shared" si="12"/>
+      <c r="N23" s="9">
+        <f t="shared" si="13"/>
         <v>205734.57</v>
       </c>
-      <c r="O23" s="7">
-        <f t="shared" si="12"/>
-        <v>267359.22000000003</v>
-      </c>
-      <c r="Q23" s="7">
-        <f t="shared" ref="Q23:AB23" si="13">SUM(Q17:Q22)</f>
+      <c r="O23" s="9">
+        <f t="shared" si="13"/>
+        <v>267359.22</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" ref="Q23:AB23" si="14">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
-      <c r="R23" s="7">
-        <f t="shared" si="13"/>
-        <v>283528.33999999997</v>
-      </c>
-      <c r="S23" s="7">
-        <f t="shared" si="13"/>
+      <c r="R23" s="9">
+        <f t="shared" si="14"/>
+        <v>283528.34</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="14"/>
         <v>281150.98</v>
       </c>
-      <c r="T23" s="7">
-        <f t="shared" si="13"/>
-        <v>317850.69999999995</v>
-      </c>
-      <c r="U23" s="7">
-        <f t="shared" si="13"/>
-        <v>348620.79999999999</v>
-      </c>
-      <c r="V23" s="7">
-        <f t="shared" si="13"/>
+      <c r="T23" s="9">
+        <f t="shared" si="14"/>
+        <v>317850.7</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="14"/>
+        <v>348620.8</v>
+      </c>
+      <c r="V23" s="9">
+        <f t="shared" si="14"/>
         <v>404304.67</v>
       </c>
-      <c r="W23" s="7">
-        <f t="shared" si="13"/>
-        <v>396963.57999999996</v>
-      </c>
-      <c r="X23" s="7">
-        <f t="shared" si="13"/>
+      <c r="W23" s="9">
+        <f t="shared" si="14"/>
+        <v>396963.58</v>
+      </c>
+      <c r="X23" s="9">
+        <f t="shared" si="14"/>
         <v>389755.95</v>
       </c>
-      <c r="Y23" s="7">
-        <f t="shared" si="13"/>
+      <c r="Y23" s="9">
+        <f t="shared" si="14"/>
         <v>382849.73</v>
       </c>
-      <c r="Z23" s="7">
-        <f t="shared" si="13"/>
+      <c r="Z23" s="9">
+        <f t="shared" si="14"/>
         <v>399632.07</v>
       </c>
-      <c r="AA23" s="7">
-        <f t="shared" si="13"/>
+      <c r="AA23" s="9">
+        <f t="shared" si="14"/>
         <v>402783.88</v>
       </c>
-      <c r="AB23" s="7">
-        <f t="shared" si="13"/>
+      <c r="AB23" s="9">
+        <f t="shared" si="14"/>
         <v>426465.5</v>
       </c>
-      <c r="AD23" s="7">
-        <f t="shared" ref="AD23:AI23" si="14">SUM(AD17:AD22)</f>
-        <v>477902.41000000003</v>
-      </c>
-      <c r="AE23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AD23" s="9">
+        <f t="shared" ref="AD23:AM23" si="15">SUM(AD17:AD22)</f>
+        <v>477902.41</v>
+      </c>
+      <c r="AE23" s="9">
+        <f t="shared" si="15"/>
         <v>480280.69</v>
       </c>
-      <c r="AF23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AF23" s="9">
+        <f t="shared" si="15"/>
         <v>511218.75</v>
       </c>
-      <c r="AG23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AG23" s="9">
+        <f t="shared" si="15"/>
         <v>478512.67</v>
       </c>
-      <c r="AH23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AH23" s="9">
+        <f t="shared" si="15"/>
         <v>497675.39</v>
       </c>
-      <c r="AI23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AI23" s="9">
+        <f t="shared" si="15"/>
         <v>469790.32</v>
       </c>
-      <c r="AJ23" s="7">
-        <f>SUM(AJ17:AJ22)</f>
+      <c r="AJ23" s="9">
+        <f t="shared" si="15"/>
         <v>439295.72</v>
       </c>
-      <c r="AK23" s="7">
-        <f>SUM(AK17:AK22)</f>
+      <c r="AK23" s="9">
+        <f t="shared" si="15"/>
         <v>438284.74</v>
       </c>
-      <c r="AL23" s="7">
-        <f>SUM(AL17:AL22)</f>
+      <c r="AL23" s="9">
+        <f t="shared" si="15"/>
         <v>461844.95</v>
       </c>
+      <c r="AM23" s="9">
+        <f t="shared" si="15"/>
+        <v>498589.38</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:39">
+      <c r="A24" s="3"/>
+      <c r="B24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2">
@@ -4345,94 +5059,94 @@
       </c>
       <c r="E24" s="2">
         <f>D24+E8-E14</f>
-        <v>53399.549999999996</v>
+        <v>53399.55</v>
       </c>
       <c r="F24" s="2">
         <f>E24+F8-F14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="G24" s="2">
         <f>F24+G8-G14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="H24" s="2">
         <f>G24+H8-H14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:O24" si="15">G24+I8-I14</f>
-        <v>99999.999999999985</v>
+        <f t="shared" ref="I24:O24" si="16">G24+I8-I14</f>
+        <v>100000</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="15"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="16"/>
+        <v>100000</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="15"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="16"/>
+        <v>100000</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="15"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="16"/>
+        <v>100000</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="15"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="16"/>
+        <v>100000</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="15"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="16"/>
+        <v>100000</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="15"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="16"/>
+        <v>100000</v>
       </c>
       <c r="Q24" s="2">
         <f>O24+Q8-Q14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:AB24" si="16">Q24+R8-R14</f>
-        <v>99999.999999999985</v>
+        <f t="shared" ref="R24:AB24" si="17">Q24+R8-R14</f>
+        <v>100000</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="16"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="17"/>
+        <v>100000</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="16"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="17"/>
+        <v>100000</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="16"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="17"/>
+        <v>100000</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="16"/>
-        <v>99999.999999999985</v>
+        <f t="shared" si="17"/>
+        <v>100000</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170000</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170000</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170000</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170000</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>156000</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>156000</v>
       </c>
       <c r="AD24" s="2">
@@ -4440,175 +5154,183 @@
         <v>156000</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" ref="AE24:AL24" si="17">AD24+AE8-AE14</f>
+        <f t="shared" ref="AE24:AM24" si="18">AD24+AE8-AE14</f>
         <v>156000</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
+      <c r="AM24" s="2">
+        <f t="shared" si="18"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:39">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7">
-        <f t="shared" ref="D25:O25" si="18">D23-D24</f>
-        <v>39892.050000000003</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" si="18"/>
-        <v>55555.210000000014</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="18"/>
-        <v>61964.930000000008</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="18"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:O25" si="19">D23-D24</f>
+        <v>39892.05</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="19"/>
+        <v>55555.21</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="19"/>
+        <v>61964.93</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="19"/>
         <v>60256.39</v>
       </c>
-      <c r="H25" s="7">
-        <f t="shared" si="18"/>
-        <v>54938.660000000018</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="18"/>
-        <v>70416.479999999996</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="18"/>
-        <v>62087.000000000015</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="18"/>
-        <v>84649.520000000033</v>
-      </c>
-      <c r="L25" s="7">
-        <f t="shared" si="18"/>
-        <v>92824.200000000026</v>
-      </c>
-      <c r="M25" s="7">
-        <f t="shared" si="18"/>
-        <v>107882.92000000003</v>
-      </c>
-      <c r="N25" s="7">
-        <f t="shared" si="18"/>
-        <v>105734.57000000002</v>
-      </c>
-      <c r="O25" s="7">
-        <f t="shared" si="18"/>
-        <v>167359.22000000003</v>
-      </c>
-      <c r="Q25" s="7">
-        <f t="shared" ref="Q25:AB25" si="19">Q23-Q24</f>
-        <v>165255.29999999999</v>
-      </c>
-      <c r="R25" s="7">
+      <c r="H25" s="9">
         <f t="shared" si="19"/>
-        <v>183528.33999999997</v>
-      </c>
-      <c r="S25" s="7">
+        <v>54938.66</v>
+      </c>
+      <c r="I25" s="9">
         <f t="shared" si="19"/>
-        <v>181150.97999999998</v>
-      </c>
-      <c r="T25" s="7">
+        <v>70416.48</v>
+      </c>
+      <c r="J25" s="9">
         <f t="shared" si="19"/>
-        <v>217850.69999999995</v>
-      </c>
-      <c r="U25" s="7">
+        <v>62087</v>
+      </c>
+      <c r="K25" s="9">
         <f t="shared" si="19"/>
-        <v>248620.79999999999</v>
-      </c>
-      <c r="V25" s="7">
+        <v>84649.52</v>
+      </c>
+      <c r="L25" s="9">
         <f t="shared" si="19"/>
+        <v>92824.2</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="19"/>
+        <v>107882.92</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="19"/>
+        <v>105734.57</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="19"/>
+        <v>167359.22</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" ref="Q25:AB25" si="20">Q23-Q24</f>
+        <v>165255.3</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="20"/>
+        <v>183528.34</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="20"/>
+        <v>181150.98</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" si="20"/>
+        <v>217850.7</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="20"/>
+        <v>248620.8</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="20"/>
         <v>304304.67</v>
       </c>
-      <c r="W25" s="7">
-        <f t="shared" si="19"/>
-        <v>226963.57999999996</v>
-      </c>
-      <c r="X25" s="7">
-        <f t="shared" si="19"/>
+      <c r="W25" s="9">
+        <f t="shared" si="20"/>
+        <v>226963.58</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" si="20"/>
         <v>219755.95</v>
       </c>
-      <c r="Y25" s="7">
-        <f t="shared" si="19"/>
-        <v>212849.72999999998</v>
-      </c>
-      <c r="Z25" s="7">
-        <f t="shared" si="19"/>
+      <c r="Y25" s="9">
+        <f t="shared" si="20"/>
+        <v>212849.73</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" si="20"/>
         <v>229632.07</v>
       </c>
-      <c r="AA25" s="7">
-        <f t="shared" si="19"/>
+      <c r="AA25" s="9">
+        <f t="shared" si="20"/>
         <v>246783.88</v>
       </c>
-      <c r="AB25" s="7">
-        <f t="shared" si="19"/>
+      <c r="AB25" s="9">
+        <f t="shared" si="20"/>
         <v>270465.5</v>
       </c>
-      <c r="AD25" s="7">
-        <f t="shared" ref="AD25:AI25" si="20">AD23-AD24</f>
-        <v>321902.41000000003</v>
-      </c>
-      <c r="AE25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AD25" s="9">
+        <f t="shared" ref="AD25:AM25" si="21">AD23-AD24</f>
+        <v>321902.41</v>
+      </c>
+      <c r="AE25" s="9">
+        <f t="shared" si="21"/>
         <v>324280.69</v>
       </c>
-      <c r="AF25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AF25" s="9">
+        <f t="shared" si="21"/>
         <v>355218.75</v>
       </c>
-      <c r="AG25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AG25" s="9">
+        <f t="shared" si="21"/>
         <v>322512.67</v>
       </c>
-      <c r="AH25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AH25" s="9">
+        <f t="shared" si="21"/>
         <v>341675.39</v>
       </c>
-      <c r="AI25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AI25" s="9">
+        <f t="shared" si="21"/>
         <v>313790.32</v>
       </c>
-      <c r="AJ25" s="7">
-        <f>AJ23-AJ24</f>
-        <v>283295.71999999997</v>
-      </c>
-      <c r="AK25" s="7">
-        <f>AK23-AK24</f>
+      <c r="AJ25" s="9">
+        <f t="shared" si="21"/>
+        <v>283295.72</v>
+      </c>
+      <c r="AK25" s="9">
+        <f t="shared" si="21"/>
         <v>282284.74</v>
       </c>
-      <c r="AL25" s="7">
-        <f>AL23-AL24</f>
+      <c r="AL25" s="9">
+        <f t="shared" si="21"/>
         <v>305844.95</v>
+      </c>
+      <c r="AM25" s="9">
+        <f t="shared" si="21"/>
+        <v>342589.38</v>
       </c>
     </row>
   </sheetData>
@@ -4622,17 +5344,16 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B17:B23"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="Y9:AB9 AB15 AE9:AL9" formulaRange="1"/>
-    <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="1"/>
+    <ignoredError sqref="AE9:AM9 AB15 Y9:AB9" formulaRange="1"/>
+    <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C30E77-40CD-458C-AD6A-1A3084371015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18930" windowHeight="7980" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="20730" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -175,15 +181,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,158 +199,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,194 +218,8 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -584,251 +255,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -838,14 +267,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,58 +285,17 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -987,12 +369,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1027,13 +412,9 @@
               </a:rPr>
               <a:t>资金总量</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1052,15 +433,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"总资产"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总资产</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>总资产</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1096,6 +469,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1108,151 +482,152 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AM$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AN$1)</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" c:formatCode="0.00">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="0.00">
+                <c:pt idx="1">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.00">
+                <c:pt idx="3">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00">
+                <c:pt idx="5">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.00">
+                <c:pt idx="6">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="0.00">
+                <c:pt idx="9">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00">
+                <c:pt idx="10">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="0.00">
+                <c:pt idx="11">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="0.00">
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="0.00">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="0.00">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="0.00">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="0.00">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="0.00">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="0.00">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="0.00">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/mm">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/mm">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/mm">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/mm">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/mm">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/mm">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/mm">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/mm">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/mm">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/mm">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/mm">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="yyyy/mm">
-                  <c:v>44409</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="yyyy/mm">
-                  <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="yyyy/mm">
-                  <c:v>44470</c:v>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021/10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021/11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AM$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AN$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108954.76</c:v>
+                  <c:v>108954.76000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>161964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160256.39</c:v>
+                  <c:v>160256.38999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>154938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170416.48</c:v>
+                  <c:v>170416.47999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>162087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184649.52</c:v>
+                  <c:v>184649.52000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>192824.2</c:v>
@@ -1264,28 +639,28 @@
                   <c:v>205734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267359.22</c:v>
+                  <c:v>267359.22000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>265255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283528.34</c:v>
+                  <c:v>283528.33999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>281150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>317850.7</c:v>
+                  <c:v>317850.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348620.8</c:v>
+                  <c:v>348620.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>404304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>396963.58</c:v>
+                  <c:v>396963.57999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>389755.95</c:v>
@@ -1303,7 +678,7 @@
                   <c:v>426465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>477902.41</c:v>
+                  <c:v>477902.41000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>480280.69</c:v>
@@ -1331,25 +706,25 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>498589.38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>511524.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6D3-4627-B4EE-DD74500CBDBA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"净资产"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>净资产</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>净资产</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1385,6 +760,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1397,190 +773,191 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AM$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AN$1)</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" c:formatCode="0.00">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="0.00">
+                <c:pt idx="1">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.00">
+                <c:pt idx="2">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.00">
+                <c:pt idx="3">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.00">
+                <c:pt idx="4">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.00">
+                <c:pt idx="5">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.00">
+                <c:pt idx="6">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.00">
+                <c:pt idx="7">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="0.00">
+                <c:pt idx="8">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="0.00">
+                <c:pt idx="9">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="0.00">
+                <c:pt idx="10">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="0.00">
+                <c:pt idx="11">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="0.00">
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="0.00">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="0.00">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="0.00">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="0.00">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="0.00">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="0.00">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="0.00">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/mm">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/mm">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/mm">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/mm">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/mm">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/mm">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/mm">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/mm">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/mm">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/mm">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/mm">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="yyyy/mm">
-                  <c:v>44409</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="yyyy/mm">
-                  <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="yyyy/mm">
-                  <c:v>44470</c:v>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021/10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021/11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AM$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AN$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>39892.05</c:v>
+                  <c:v>39892.050000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55555.21</c:v>
+                  <c:v>55555.210000000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61964.93</c:v>
+                  <c:v>61964.930000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54938.66</c:v>
+                  <c:v>54938.660000000018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70416.48</c:v>
+                  <c:v>70416.479999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62087</c:v>
+                  <c:v>62087.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84649.52</c:v>
+                  <c:v>84649.520000000033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92824.2</c:v>
+                  <c:v>92824.200000000026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107882.92</c:v>
+                  <c:v>107882.92000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105734.57</c:v>
+                  <c:v>105734.57000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167359.22</c:v>
+                  <c:v>167359.22000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165255.3</c:v>
+                  <c:v>165255.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>183528.34</c:v>
+                  <c:v>183528.33999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181150.98</c:v>
+                  <c:v>181150.97999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>217850.7</c:v>
+                  <c:v>217850.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248620.8</c:v>
+                  <c:v>248620.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>304304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226963.58</c:v>
+                  <c:v>226963.57999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>219755.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212849.73</c:v>
+                  <c:v>212849.72999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>229632.07</c:v>
@@ -1592,7 +969,7 @@
                   <c:v>270465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>321902.41</c:v>
+                  <c:v>321902.41000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>324280.69</c:v>
@@ -1610,7 +987,7 @@
                   <c:v>313790.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>283295.72</c:v>
+                  <c:v>283295.71999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>282284.74</c:v>
@@ -1620,11 +997,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>342589.38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>355524.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6D3-4627-B4EE-DD74500CBDBA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1643,7 +1028,6 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="52376106"/>
         <c:axId val="74300066"/>
@@ -1677,13 +1061,9 @@
                   </a:rPr>
                   <a:t>时间</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                  <a:latin typeface="Arial"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1719,6 +1099,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74300066"/>
@@ -1768,13 +1149,9 @@
                   </a:rPr>
                   <a:t>资金量</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                  <a:latin typeface="Arial"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1810,6 +1187,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="52376106"/>
@@ -1827,7 +1205,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1843,6 +1220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1867,6 +1245,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1878,7 +1257,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1892,14 +1271,20 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>41295</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2409825" y="4800600"/>
-        <a:ext cx="5669280" cy="4156075"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2164,21 +1549,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AN25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMY25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="AO18" sqref="AO18"/>
+      <selection pane="topRight" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
@@ -2188,214 +1572,217 @@
     <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="39" width="11.25" style="2" customWidth="1"/>
-    <col min="40" max="40" width="12" style="2" customWidth="1"/>
-    <col min="41" max="82" width="10.5" style="2" customWidth="1"/>
-    <col min="83" max="1038" width="10.5" style="1" customWidth="1"/>
+    <col min="30" max="40" width="11.25" style="2" customWidth="1"/>
+    <col min="41" max="41" width="12" style="2" customWidth="1"/>
+    <col min="42" max="83" width="10.5" style="2" customWidth="1"/>
+    <col min="84" max="1039" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="10">
+      <c r="Y1" s="8">
         <v>44075</v>
       </c>
-      <c r="Z1" s="10">
+      <c r="Z1" s="8">
         <v>44105</v>
       </c>
-      <c r="AA1" s="10">
+      <c r="AA1" s="8">
         <v>44136</v>
       </c>
-      <c r="AB1" s="10">
+      <c r="AB1" s="8">
         <v>44166</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="10">
+      <c r="AD1" s="8">
         <v>44197</v>
       </c>
-      <c r="AE1" s="10">
+      <c r="AE1" s="8">
         <v>44228</v>
       </c>
-      <c r="AF1" s="10">
+      <c r="AF1" s="8">
         <v>44256</v>
       </c>
-      <c r="AG1" s="10">
+      <c r="AG1" s="8">
         <v>44287</v>
       </c>
-      <c r="AH1" s="10">
+      <c r="AH1" s="8">
         <v>44317</v>
       </c>
-      <c r="AI1" s="10">
+      <c r="AI1" s="8">
         <v>44348</v>
       </c>
-      <c r="AJ1" s="10">
+      <c r="AJ1" s="8">
         <v>44378</v>
       </c>
-      <c r="AK1" s="10">
+      <c r="AK1" s="8">
         <v>44409</v>
       </c>
-      <c r="AL1" s="10">
+      <c r="AL1" s="8">
         <v>44440</v>
       </c>
-      <c r="AM1" s="10">
+      <c r="AM1" s="8">
         <v>44470</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="8">
+        <v>44501</v>
+      </c>
+      <c r="AO1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>7709</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>7414.05</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>7400</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>7478.26</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>7489.89</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>7760</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>7517.05</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>7474.38</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="5">
         <v>7656.73</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="5">
         <v>7245.45</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="5">
         <v>7462.74</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="5">
         <v>7474.37</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="5">
         <f t="shared" ref="P2:P16" si="0">SUM(D2:O2)</f>
-        <v>90081.92</v>
-      </c>
-      <c r="Q2" s="7">
+        <v>90081.919999999998</v>
+      </c>
+      <c r="Q2" s="5">
         <v>12359.3</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="5">
         <v>12271.99</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="5">
         <v>12469.87</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="5">
         <v>12458.24</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="5">
         <v>12434.95</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="5">
         <v>12634.95</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="5">
         <v>11501.73</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="5">
         <v>10823.46</v>
       </c>
-      <c r="Y2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="7">
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
         <v>7099.86</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="5">
         <v>7875.71</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="5">
         <v>11586.58</v>
       </c>
       <c r="AC2" s="2">
@@ -2412,7 +1799,7 @@
         <v>13025.09</v>
       </c>
       <c r="AG2" s="2">
-        <v>17572.19</v>
+        <v>17572.189999999999</v>
       </c>
       <c r="AH2" s="2">
         <v>13221.36</v>
@@ -2421,7 +1808,7 @@
         <v>12308.25</v>
       </c>
       <c r="AJ2" s="2">
-        <v>16652.92</v>
+        <v>16652.919999999998</v>
       </c>
       <c r="AK2" s="2">
         <v>12614.36</v>
@@ -2430,17 +1817,20 @@
         <v>12673.76</v>
       </c>
       <c r="AM2" s="2">
-        <v>16712.56</v>
+        <v>16712.560000000001</v>
       </c>
       <c r="AN2" s="2">
-        <f t="shared" ref="AN2:AN9" si="2">SUM(AD2:AM2)</f>
-        <v>139917.87</v>
+        <v>12457.15</v>
+      </c>
+      <c r="AO2" s="2">
+        <f>SUM(AD2:AN2)</f>
+        <v>152375.01999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
@@ -2479,7 +1869,7 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2501,27 +1891,27 @@
       <c r="V3" s="2">
         <v>0</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="5">
         <v>407</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="5">
         <v>911.2</v>
       </c>
-      <c r="Y3" s="7">
-        <v>316.6</v>
-      </c>
-      <c r="Z3" s="7">
+      <c r="Y3" s="5">
+        <v>316.60000000000002</v>
+      </c>
+      <c r="Z3" s="5">
         <v>121.4</v>
       </c>
-      <c r="AA3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="7">
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
         <v>0</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" si="1"/>
-        <v>1756.2</v>
+        <v>1756.2000000000003</v>
       </c>
       <c r="AD3" s="2">
         <v>0</v>
@@ -2545,99 +1935,102 @@
         <v>189.6</v>
       </c>
       <c r="AK3" s="2">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="AL3" s="2">
-        <v>268.9</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="AM3" s="2">
         <v>736.3</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" si="2"/>
-        <v>2182.3</v>
+        <v>285.2</v>
+      </c>
+      <c r="AO3" s="2">
+        <f t="shared" ref="AO3:AO16" si="2">SUM(AD3:AN3)</f>
+        <v>2467.5</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>44.33</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>464.11</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>481.18</v>
       </c>
-      <c r="J4" s="7">
-        <v>530.8</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="5">
+        <v>530.79999999999995</v>
+      </c>
+      <c r="K4" s="5">
         <v>462.06</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>878.35</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>39.4</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <v>148.5</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>38130</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <f t="shared" si="0"/>
-        <v>41178.73</v>
-      </c>
-      <c r="Q4" s="7">
+        <v>41178.730000000003</v>
+      </c>
+      <c r="Q4" s="5">
         <v>638</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <v>88</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <v>1172.99</v>
       </c>
       <c r="T4" s="2">
         <v>3000</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <v>75</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="5">
         <v>4000</v>
       </c>
-      <c r="W4" s="7">
-        <v>19.94</v>
-      </c>
-      <c r="X4" s="7">
+      <c r="W4" s="5">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="X4" s="5">
         <v>5346</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="5">
         <v>15.33</v>
       </c>
-      <c r="Z4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="7">
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
         <v>127.4</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="5">
         <v>1561.8</v>
       </c>
       <c r="AC4" s="2">
@@ -2676,14 +2069,17 @@
         <v>672.85</v>
       </c>
       <c r="AN4" s="2">
+        <v>601.54</v>
+      </c>
+      <c r="AO4" s="2">
         <f t="shared" si="2"/>
-        <v>19169.07</v>
+        <v>19770.61</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2">
@@ -2707,22 +2103,22 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>12000</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -2732,13 +2128,13 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="5">
         <v>8000</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="5">
         <v>1500</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="5">
         <v>1500</v>
       </c>
       <c r="V5" s="2">
@@ -2797,14 +2193,17 @@
         <v>0</v>
       </c>
       <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2">
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2">
@@ -2822,10 +2221,10 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>1473.3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -2834,16 +2233,16 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>1636</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="5">
         <v>400</v>
       </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" si="0"/>
         <v>3509.3</v>
       </c>
@@ -2865,7 +2264,7 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="5">
         <v>1803.1</v>
       </c>
       <c r="X6" s="2">
@@ -2918,14 +2317,17 @@
         <v>0</v>
       </c>
       <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
         <f t="shared" si="2"/>
         <v>677.74</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2">
@@ -2943,28 +2345,28 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>1296</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>1944</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
         <v>1944</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <f t="shared" si="0"/>
         <v>5184</v>
       </c>
@@ -2974,34 +2376,34 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="5">
         <v>1944</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="5">
         <v>648</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="5">
         <v>648</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="5">
         <v>648</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="5">
         <v>648</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="5">
         <v>648</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="5">
         <v>648</v>
       </c>
-      <c r="Z7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
         <v>0</v>
       </c>
       <c r="AC7" s="2">
@@ -3039,14 +2441,17 @@
         <v>0</v>
       </c>
       <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2">
@@ -3085,7 +2490,7 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -3107,7 +2512,7 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="5">
         <v>70000</v>
       </c>
       <c r="X8" s="2">
@@ -3160,14 +2565,17 @@
         <v>0</v>
       </c>
       <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2">
@@ -3200,7 +2608,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>19936.44</v>
+        <v>19936.440000000002</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="3"/>
@@ -3208,7 +2616,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="3"/>
-        <v>8920.85</v>
+        <v>8920.8499999999985</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="3"/>
@@ -3218,9 +2626,9 @@
         <f t="shared" si="3"/>
         <v>47548.37</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
-        <v>201953.95</v>
+        <v>201953.94999999998</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ref="Q9:AB9" si="4">SUM(Q2:Q8)</f>
@@ -3236,7 +2644,7 @@
       </c>
       <c r="T9" s="2">
         <f t="shared" si="4"/>
-        <v>17606.24</v>
+        <v>17606.239999999998</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="4"/>
@@ -3256,11 +2664,11 @@
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="4"/>
-        <v>979.93</v>
+        <v>979.93000000000006</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="4"/>
-        <v>7221.26</v>
+        <v>7221.2599999999993</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="4"/>
@@ -3275,7 +2683,7 @@
         <v>230952.4</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" ref="AD9:AM9" si="5">SUM(AD2:AD8)</f>
+        <f t="shared" ref="AD9:AN9" si="5">SUM(AD2:AD8)</f>
         <v>13881.62</v>
       </c>
       <c r="AE9" s="2">
@@ -3284,7 +2692,7 @@
       </c>
       <c r="AF9" s="2">
         <f t="shared" si="5"/>
-        <v>44012.23</v>
+        <v>44012.229999999996</v>
       </c>
       <c r="AG9" s="2">
         <f t="shared" si="5"/>
@@ -3300,11 +2708,11 @@
       </c>
       <c r="AJ9" s="2">
         <f t="shared" si="5"/>
-        <v>20539.1</v>
+        <v>20539.099999999999</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" si="5"/>
-        <v>13241.56</v>
+        <v>13241.560000000001</v>
       </c>
       <c r="AL9" s="2">
         <f t="shared" si="5"/>
@@ -3315,97 +2723,101 @@
         <v>18121.71</v>
       </c>
       <c r="AN9" s="2">
+        <f t="shared" si="5"/>
+        <v>13343.89</v>
+      </c>
+      <c r="AO9" s="2">
         <f t="shared" si="2"/>
-        <v>205930.12</v>
+        <v>219274.01</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>2401</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>2029.83</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>1375.56</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>2699.75</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>3113.23</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>3190.37</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>1404.08</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>1836.61</v>
       </c>
-      <c r="L10" s="7">
-        <v>1146.88</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="L10" s="5">
+        <v>1146.8800000000001</v>
+      </c>
+      <c r="M10" s="5">
         <v>3626.41</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>1715.16</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <v>1728.63</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
         <v>26267.51</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <v>4512.24</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>969.37</v>
       </c>
-      <c r="S10" s="7">
-        <v>2381.55</v>
-      </c>
-      <c r="T10" s="7">
+      <c r="S10" s="5">
+        <v>2381.5500000000002</v>
+      </c>
+      <c r="T10" s="5">
         <v>6214.7</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="5">
         <v>3004.41</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="5">
         <v>9534.9</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="5">
         <v>10480.42</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="5">
         <v>6134.28</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="5">
         <v>5677.38</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="Z10" s="5">
         <v>2489.12</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="5">
         <v>2616.23</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="5">
         <v>1434.68</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="1"/>
-        <v>55449.28</v>
+        <v>55449.279999999999</v>
       </c>
       <c r="AD10" s="2">
         <f>1048.17+274.92+609.16</f>
@@ -3421,7 +2833,7 @@
         <v>3176.72</v>
       </c>
       <c r="AH10" s="2">
-        <v>8531.3</v>
+        <v>8531.2999999999993</v>
       </c>
       <c r="AI10" s="2">
         <v>9319</v>
@@ -3439,69 +2851,72 @@
         <v>6831.17</v>
       </c>
       <c r="AN10" s="2">
-        <f t="shared" ref="AN10:AN16" si="6">SUM(AD10:AM10)</f>
-        <v>44796.56</v>
+        <v>2693.73</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="2"/>
+        <v>47490.29</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1230</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>3690</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>708.5</v>
       </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>3962</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>4285</v>
       </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
         <v>373</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <v>3690</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="5">
         <v>339</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <f t="shared" si="0"/>
         <v>18277.5</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <v>1700</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="5">
         <v>5190</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="5">
         <v>5467</v>
       </c>
       <c r="V11" s="2">
@@ -3560,72 +2975,75 @@
         <v>3300</v>
       </c>
       <c r="AN11" s="2">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="2"/>
         <v>9166.5</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8" t="s">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
         <v>800</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>200</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>50</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>34.4</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>121</v>
       </c>
-      <c r="J12" s="7">
-        <v>315.78</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="5">
+        <v>315.77999999999997</v>
+      </c>
+      <c r="K12" s="5">
         <v>287.5</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>29</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>1837.68</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="5">
         <v>454.7</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="5">
         <v>663.4</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="5">
         <v>373</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="5">
         <v>89</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="5">
         <v>573</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="5">
         <v>217</v>
       </c>
       <c r="W12" s="2">
@@ -3644,7 +3062,7 @@
         <v>118.42</v>
       </c>
       <c r="AB12" s="2">
-        <v>610.08</v>
+        <v>610.08000000000004</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="1"/>
@@ -3655,13 +3073,13 @@
         <v>354.78</v>
       </c>
       <c r="AE12" s="2">
-        <v>302.21</v>
+        <v>302.20999999999998</v>
       </c>
       <c r="AF12" s="2">
         <v>2109.27</v>
       </c>
       <c r="AG12" s="2">
-        <v>80444.4</v>
+        <v>80444.399999999994</v>
       </c>
       <c r="AH12" s="2">
         <v>2000</v>
@@ -3682,14 +3100,17 @@
         <v>1531.98</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="6"/>
-        <v>104936.87</v>
+        <v>726.78</v>
+      </c>
+      <c r="AO12" s="2">
+        <f t="shared" si="2"/>
+        <v>105663.65</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2">
@@ -3728,14 +3149,14 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="5">
         <v>5000</v>
       </c>
       <c r="S13" s="2">
@@ -3803,53 +3224,56 @@
         <v>0</v>
       </c>
       <c r="AN13" s="2">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="8" t="s">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>3267.55</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>3332.9</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>3399.55</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -3924,402 +3348,413 @@
         <v>0</v>
       </c>
       <c r="AN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2">
+        <f t="shared" si="2"/>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:O15" si="6">SUM(D10:D14)</f>
+        <v>6898.55</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="6"/>
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15:O15" si="7">SUM(D10:D14)</f>
-        <v>6898.55</v>
-      </c>
-      <c r="E15" s="2">
+        <v>9852.73</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="6"/>
+        <v>5683.6100000000006</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="6"/>
+        <v>2749.75</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="6"/>
+        <v>7109.6299999999992</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="6"/>
+        <v>3311.37</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="6"/>
+        <v>1719.86</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="6"/>
+        <v>6409.11</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="6"/>
+        <v>1175.8800000000001</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="6"/>
+        <v>3999.41</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="6"/>
+        <v>5405.16</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="6"/>
+        <v>2067.63</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="0"/>
+        <v>56382.689999999995</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" ref="Q15:AB15" si="7">SUM(Q10:Q14)</f>
+        <v>4966.9399999999996</v>
+      </c>
+      <c r="R15" s="2">
         <f t="shared" si="7"/>
-        <v>9852.73</v>
-      </c>
-      <c r="F15" s="2">
+        <v>8332.77</v>
+      </c>
+      <c r="S15" s="2">
         <f t="shared" si="7"/>
-        <v>5683.61</v>
-      </c>
-      <c r="G15" s="2">
+        <v>7944.55</v>
+      </c>
+      <c r="T15" s="2">
         <f t="shared" si="7"/>
-        <v>2749.75</v>
-      </c>
-      <c r="H15" s="2">
+        <v>6303.7</v>
+      </c>
+      <c r="U15" s="2">
         <f t="shared" si="7"/>
-        <v>7109.63</v>
-      </c>
-      <c r="I15" s="2">
+        <v>9044.41</v>
+      </c>
+      <c r="V15" s="2">
         <f t="shared" si="7"/>
-        <v>3311.37</v>
-      </c>
-      <c r="J15" s="2">
+        <v>9751.9</v>
+      </c>
+      <c r="W15" s="2">
         <f t="shared" si="7"/>
-        <v>1719.86</v>
-      </c>
-      <c r="K15" s="2">
+        <v>118647.18</v>
+      </c>
+      <c r="X15" s="2">
         <f t="shared" si="7"/>
-        <v>6409.11</v>
-      </c>
-      <c r="L15" s="2">
+        <v>6974.28</v>
+      </c>
+      <c r="Y15" s="2">
         <f t="shared" si="7"/>
-        <v>1175.88</v>
-      </c>
-      <c r="M15" s="2">
+        <v>6496.88</v>
+      </c>
+      <c r="Z15" s="2">
         <f t="shared" si="7"/>
-        <v>3999.41</v>
-      </c>
-      <c r="N15" s="2">
+        <v>2520.0499999999997</v>
+      </c>
+      <c r="AA15" s="2">
         <f t="shared" si="7"/>
-        <v>5405.16</v>
-      </c>
-      <c r="O15" s="2">
+        <v>16734.650000000001</v>
+      </c>
+      <c r="AB15" s="2">
         <f t="shared" si="7"/>
-        <v>2067.63</v>
-      </c>
-      <c r="P15" s="7">
-        <f t="shared" si="0"/>
-        <v>56382.69</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" ref="Q15:AB15" si="8">SUM(Q10:Q14)</f>
-        <v>4966.94</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" si="8"/>
-        <v>8332.77</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="8"/>
-        <v>7944.55</v>
-      </c>
-      <c r="T15" s="2">
-        <f t="shared" si="8"/>
-        <v>6303.7</v>
-      </c>
-      <c r="U15" s="2">
-        <f t="shared" si="8"/>
-        <v>9044.41</v>
-      </c>
-      <c r="V15" s="2">
-        <f t="shared" si="8"/>
-        <v>9751.9</v>
-      </c>
-      <c r="W15" s="2">
-        <f t="shared" si="8"/>
-        <v>118647.18</v>
-      </c>
-      <c r="X15" s="2">
-        <f t="shared" si="8"/>
-        <v>6974.28</v>
-      </c>
-      <c r="Y15" s="2">
-        <f t="shared" si="8"/>
-        <v>6496.88</v>
-      </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="8"/>
-        <v>2520.05</v>
-      </c>
-      <c r="AA15" s="2">
-        <f t="shared" si="8"/>
-        <v>16734.65</v>
-      </c>
-      <c r="AB15" s="2">
-        <f t="shared" si="8"/>
         <v>3844.76</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="1"/>
-        <v>201562.07</v>
+        <v>201562.06999999998</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" ref="AD15:AM15" si="9">SUM(AD10:AD14)</f>
-        <v>2287.03</v>
+        <f t="shared" ref="AD15:AN15" si="8">SUM(AD10:AD14)</f>
+        <v>2287.0299999999997</v>
       </c>
       <c r="AE15" s="2">
+        <f t="shared" si="8"/>
+        <v>5724.25</v>
+      </c>
+      <c r="AF15" s="2">
+        <f t="shared" si="8"/>
+        <v>5696.95</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" si="8"/>
+        <v>96621.119999999995</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="8"/>
+        <v>13491.3</v>
+      </c>
+      <c r="AI15" s="2">
+        <f t="shared" si="8"/>
+        <v>11334.83</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f t="shared" si="8"/>
+        <v>19276.87</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" si="8"/>
+        <v>7110.69</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" si="8"/>
+        <v>2893.7400000000002</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="8"/>
+        <v>11663.15</v>
+      </c>
+      <c r="AN15" s="2">
+        <f t="shared" si="8"/>
+        <v>3420.51</v>
+      </c>
+      <c r="AO15" s="2">
+        <f t="shared" si="2"/>
+        <v>179520.43999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:O16" si="9">D9-D15</f>
+        <v>854.77999999999975</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="9"/>
-        <v>5724.25</v>
-      </c>
-      <c r="AF15" s="2">
+        <v>-2438.6799999999994</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="9"/>
-        <v>5696.95</v>
-      </c>
-      <c r="AG15" s="2">
+        <v>51716.39</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="9"/>
-        <v>96621.12</v>
-      </c>
-      <c r="AH15" s="2">
+        <v>4728.51</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="9"/>
-        <v>13491.3</v>
-      </c>
-      <c r="AI15" s="2">
+        <v>844.3700000000008</v>
+      </c>
+      <c r="I16" s="2">
         <f t="shared" si="9"/>
-        <v>11334.83</v>
-      </c>
-      <c r="AJ15" s="2">
+        <v>7699.11</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="9"/>
-        <v>19276.87</v>
-      </c>
-      <c r="AK15" s="2">
+        <v>6327.9900000000007</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="9"/>
-        <v>7110.69</v>
-      </c>
-      <c r="AL15" s="2">
+        <v>13527.330000000002</v>
+      </c>
+      <c r="L16" s="2">
         <f t="shared" si="9"/>
-        <v>2893.74</v>
-      </c>
-      <c r="AM15" s="2">
+        <v>9303.2000000000007</v>
+      </c>
+      <c r="M16" s="2">
         <f t="shared" si="9"/>
-        <v>11663.15</v>
-      </c>
-      <c r="AN15" s="2">
-        <f t="shared" si="6"/>
-        <v>176099.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:O16" si="10">D9-D15</f>
-        <v>854.78</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="10"/>
-        <v>-2438.68</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="10"/>
-        <v>51716.39</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="10"/>
-        <v>4728.51</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="10"/>
-        <v>844.370000000001</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="10"/>
-        <v>7699.11</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="10"/>
-        <v>6327.99</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="10"/>
-        <v>13527.33</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="10"/>
-        <v>9303.2</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="10"/>
-        <v>4921.44</v>
+        <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="10"/>
-        <v>45480.74</v>
-      </c>
-      <c r="P16" s="7">
+        <f t="shared" si="9"/>
+        <v>45480.740000000005</v>
+      </c>
+      <c r="P16" s="5">
         <f t="shared" si="0"/>
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:AB16" si="11">Q9-Q15</f>
+        <f t="shared" ref="Q16:AB16" si="10">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="11"/>
-        <v>4027.22</v>
+        <f t="shared" si="10"/>
+        <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="11"/>
-        <v>15642.31</v>
+        <f t="shared" si="10"/>
+        <v>15642.310000000001</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="11"/>
-        <v>11302.54</v>
+        <f t="shared" si="10"/>
+        <v>11302.539999999997</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="11"/>
-        <v>5613.54</v>
+        <f t="shared" si="10"/>
+        <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="11"/>
-        <v>7531.05</v>
+        <f t="shared" si="10"/>
+        <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="11"/>
-        <v>-34267.41</v>
+        <f t="shared" si="10"/>
+        <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="11"/>
-        <v>10754.38</v>
+        <f t="shared" si="10"/>
+        <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="11"/>
-        <v>4701.21</v>
+        <f t="shared" si="10"/>
+        <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="11"/>
-        <v>-8731.54</v>
+        <f t="shared" si="10"/>
+        <v>-8731.5400000000009</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="11"/>
-        <v>10303.62</v>
+        <f t="shared" si="10"/>
+        <v>10303.619999999999</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="1"/>
-        <v>29390.33</v>
+        <v>29390.330000000005</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AM16" si="12">AD9-AD15</f>
+        <f t="shared" ref="AD16:AN16" si="11">AD9-AD15</f>
         <v>11594.59</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5995.01</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="12"/>
-        <v>38315.28</v>
+        <f t="shared" si="11"/>
+        <v>38315.279999999999</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" si="12"/>
-        <v>-56137.08</v>
+        <f t="shared" si="11"/>
+        <v>-56137.079999999994</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1693.58</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" si="12"/>
-        <v>1747.54</v>
+        <f t="shared" si="11"/>
+        <v>1747.5400000000009</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="12"/>
-        <v>1262.23</v>
+        <f t="shared" si="11"/>
+        <v>1262.2299999999996</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="12"/>
-        <v>6130.87</v>
+        <f t="shared" si="11"/>
+        <v>6130.8700000000017</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>12769.61</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="12"/>
-        <v>6458.56</v>
+        <f t="shared" si="11"/>
+        <v>6458.5599999999995</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="6"/>
-        <v>29830.19</v>
+        <f t="shared" si="11"/>
+        <v>9923.3799999999992</v>
+      </c>
+      <c r="AO16" s="2">
+        <f>SUM(AD16:AN16)</f>
+        <v>39753.57</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>33513</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>24751.65</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>12634.85</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>15093.47</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>20420.09</v>
       </c>
-      <c r="I17" s="7">
-        <v>17543.49</v>
-      </c>
-      <c r="J17" s="7">
-        <v>18868.08</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="I17" s="5">
+        <v>17543.490000000002</v>
+      </c>
+      <c r="J17" s="5">
+        <v>18868.080000000002</v>
+      </c>
+      <c r="K17" s="5">
         <v>14888.84</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="5">
         <v>14978.06</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>15287.33</v>
       </c>
-      <c r="N17" s="7">
-        <v>18661.65</v>
-      </c>
-      <c r="O17" s="7">
+      <c r="N17" s="5">
+        <v>18661.650000000001</v>
+      </c>
+      <c r="O17" s="5">
         <v>16076.11</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5">
         <v>15240.57</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="5">
         <v>12701.39</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="5">
         <v>9350.41</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="5">
         <v>14222.96</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="5">
         <v>18253.05</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="5">
         <v>23645.57</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="5">
         <v>19546.21</v>
       </c>
-      <c r="X17" s="7">
-        <v>19342.56</v>
-      </c>
-      <c r="Y17" s="7">
+      <c r="X17" s="5">
+        <v>19342.560000000001</v>
+      </c>
+      <c r="Y17" s="5">
         <v>8015.72</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="Z17" s="5">
         <v>8114.54</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AA17" s="5">
         <v>8847.98</v>
       </c>
-      <c r="AB17" s="7">
-        <v>8655.37</v>
+      <c r="AB17" s="5">
+        <v>8655.3700000000008</v>
       </c>
       <c r="AD17" s="2">
         <v>6924.04</v>
@@ -4351,84 +3786,87 @@
       <c r="AM17" s="2">
         <v>0</v>
       </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:39">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8" t="s">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>24162</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>11155.93</v>
       </c>
-      <c r="F18" s="7">
-        <v>37081.44</v>
-      </c>
-      <c r="G18" s="7">
-        <v>8361.04</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="F18" s="5">
+        <v>37081.440000000002</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8361.0400000000009</v>
+      </c>
+      <c r="H18" s="5">
         <v>7792.74</v>
       </c>
-      <c r="I18" s="7">
-        <v>9341.47</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="I18" s="5">
+        <v>9341.4699999999993</v>
+      </c>
+      <c r="J18" s="5">
         <v>7021.05</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="5">
         <v>12564.52</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>6163.61</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="5">
         <v>3693.43</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="5">
         <v>1889.28</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="5">
         <v>49351.22</v>
       </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
         <v>1267.53</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="5">
         <v>29512.69</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="5">
         <v>14141.27</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="5">
         <v>13952.84</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="5">
         <v>16678.45</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="5">
         <v>21344.31</v>
       </c>
-      <c r="W18" s="7">
+      <c r="W18" s="5">
         <v>7678.26</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="5">
         <v>9513.39</v>
       </c>
-      <c r="Y18" s="7">
+      <c r="Y18" s="5">
         <v>13126.19</v>
       </c>
-      <c r="Z18" s="7">
-        <v>570.7</v>
-      </c>
-      <c r="AA18" s="7">
+      <c r="Z18" s="5">
+        <v>570.70000000000005</v>
+      </c>
+      <c r="AA18" s="5">
         <v>6710.55</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="5">
         <v>6697.56</v>
       </c>
       <c r="AD18" s="2">
@@ -4442,10 +3880,10 @@
         <v>44830.93</v>
       </c>
       <c r="AG18" s="2">
-        <v>1083.6</v>
+        <v>1083.5999999999999</v>
       </c>
       <c r="AH18" s="2">
-        <v>2304.47</v>
+        <v>2304.4699999999998</v>
       </c>
       <c r="AI18" s="2">
         <v>302.94</v>
@@ -4460,86 +3898,89 @@
         <v>34333.26</v>
       </c>
       <c r="AM18" s="2">
-        <v>40325.92</v>
+        <v>40325.919999999998</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>50516.49</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8" t="s">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
         <v>20000</v>
       </c>
-      <c r="G19" s="7">
-        <v>20051.44</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
+      <c r="G19" s="5">
+        <v>20051.439999999999</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
         <v>4009.06</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="5">
         <v>6015.57</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="5">
         <v>16029.84</v>
       </c>
-      <c r="AA19" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7">
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
         <v>6011.43</v>
       </c>
       <c r="AD19" s="2">
@@ -4572,84 +4013,87 @@
       <c r="AM19" s="2">
         <v>22583.14</v>
       </c>
+      <c r="AN19" s="2">
+        <v>22583.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:39">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7">
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
         <v>3580.23</v>
       </c>
-      <c r="R20" s="7">
-        <v>4451.52</v>
-      </c>
-      <c r="S20" s="7">
+      <c r="R20" s="5">
+        <v>4451.5200000000004</v>
+      </c>
+      <c r="S20" s="5">
         <v>4647.49</v>
       </c>
-      <c r="T20" s="7">
+      <c r="T20" s="5">
         <v>2252.86</v>
       </c>
-      <c r="U20" s="7">
+      <c r="U20" s="5">
         <v>1598.05</v>
       </c>
-      <c r="V20" s="7">
+      <c r="V20" s="5">
         <v>859.81</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
-      <c r="X20" s="7">
-        <v>2106.76</v>
-      </c>
-      <c r="Y20" s="7">
+      <c r="X20" s="5">
+        <v>2106.7600000000002</v>
+      </c>
+      <c r="Y20" s="5">
         <v>2786.56</v>
       </c>
-      <c r="Z20" s="7">
+      <c r="Z20" s="5">
         <v>3531.46</v>
       </c>
-      <c r="AA20" s="7">
-        <v>4313.36</v>
-      </c>
-      <c r="AB20" s="7">
+      <c r="AA20" s="5">
+        <v>4313.3599999999997</v>
+      </c>
+      <c r="AB20" s="5">
         <v>5662.84</v>
       </c>
       <c r="AD20" s="2">
@@ -4682,50 +4126,53 @@
       <c r="AM20" s="2">
         <v>7221.14</v>
       </c>
+      <c r="AN20" s="2">
+        <v>7210</v>
+      </c>
     </row>
-    <row r="21" spans="1:39">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>10009.5</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>30022.74</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>19984.47</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>19998.32</v>
       </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7"/>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5"/>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
@@ -4792,84 +4239,87 @@
       <c r="AM21" s="2">
         <v>0</v>
       </c>
+      <c r="AN21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:39">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8" t="s">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>28940</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>43024.44</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>72264.17</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>96752.12</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>126725.83</v>
       </c>
-      <c r="I22" s="7">
-        <v>143531.52</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="I22" s="5">
+        <v>143531.51999999999</v>
+      </c>
+      <c r="J22" s="5">
         <v>136197.87</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>157196.16</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>171682.53</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="5">
         <v>188902.16</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="5">
         <v>185183.64</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="5">
         <v>201931.89</v>
       </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5">
         <v>245166.97</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="5">
         <v>236862.74</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="5">
         <v>253011.81</v>
       </c>
-      <c r="T22" s="7">
-        <v>287422.04</v>
-      </c>
-      <c r="U22" s="7">
+      <c r="T22" s="5">
+        <v>287422.03999999998</v>
+      </c>
+      <c r="U22" s="5">
         <v>312091.25</v>
       </c>
-      <c r="V22" s="7">
+      <c r="V22" s="5">
         <v>358454.98</v>
       </c>
-      <c r="W22" s="7">
+      <c r="W22" s="5">
         <v>369739.11</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="5">
         <v>354784.18</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="Y22" s="5">
         <v>352905.69</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="Z22" s="5">
         <v>371385.53</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="5">
         <v>382911.99</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="5">
         <v>399438.3</v>
       </c>
       <c r="AD22" s="2">
@@ -4902,156 +4352,163 @@
       <c r="AM22" s="2">
         <v>428459.18</v>
       </c>
+      <c r="AN22" s="2">
+        <v>431214.44</v>
+      </c>
     </row>
-    <row r="23" spans="1:39">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="8" t="s">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="9">
-        <f t="shared" ref="D23:O23" si="13">SUM(D17:D22)</f>
+      <c r="D23" s="7">
+        <f t="shared" ref="D23:O23" si="12">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
+        <f t="shared" si="12"/>
+        <v>108954.76000000001</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="12"/>
+        <v>161964.93</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="12"/>
+        <v>160256.38999999998</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="12"/>
+        <v>154938.66</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="12"/>
+        <v>170416.47999999998</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="12"/>
+        <v>162087</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="12"/>
+        <v>184649.52000000002</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="12"/>
+        <v>192824.2</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="12"/>
+        <v>207882.92</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="12"/>
+        <v>205734.57</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="12"/>
+        <v>267359.22000000003</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" ref="Q23:AB23" si="13">SUM(Q17:Q22)</f>
+        <v>265255.3</v>
+      </c>
+      <c r="R23" s="7">
         <f t="shared" si="13"/>
-        <v>108954.76</v>
-      </c>
-      <c r="F23" s="9">
+        <v>283528.33999999997</v>
+      </c>
+      <c r="S23" s="7">
         <f t="shared" si="13"/>
-        <v>161964.93</v>
-      </c>
-      <c r="G23" s="9">
+        <v>281150.98</v>
+      </c>
+      <c r="T23" s="7">
         <f t="shared" si="13"/>
-        <v>160256.39</v>
-      </c>
-      <c r="H23" s="9">
+        <v>317850.69999999995</v>
+      </c>
+      <c r="U23" s="7">
         <f t="shared" si="13"/>
-        <v>154938.66</v>
-      </c>
-      <c r="I23" s="9">
+        <v>348620.79999999999</v>
+      </c>
+      <c r="V23" s="7">
         <f t="shared" si="13"/>
-        <v>170416.48</v>
-      </c>
-      <c r="J23" s="9">
+        <v>404304.67</v>
+      </c>
+      <c r="W23" s="7">
         <f t="shared" si="13"/>
-        <v>162087</v>
-      </c>
-      <c r="K23" s="9">
+        <v>396963.57999999996</v>
+      </c>
+      <c r="X23" s="7">
         <f t="shared" si="13"/>
-        <v>184649.52</v>
-      </c>
-      <c r="L23" s="9">
+        <v>389755.95</v>
+      </c>
+      <c r="Y23" s="7">
         <f t="shared" si="13"/>
-        <v>192824.2</v>
-      </c>
-      <c r="M23" s="9">
+        <v>382849.73</v>
+      </c>
+      <c r="Z23" s="7">
         <f t="shared" si="13"/>
-        <v>207882.92</v>
-      </c>
-      <c r="N23" s="9">
+        <v>399632.07</v>
+      </c>
+      <c r="AA23" s="7">
         <f t="shared" si="13"/>
-        <v>205734.57</v>
-      </c>
-      <c r="O23" s="9">
+        <v>402783.88</v>
+      </c>
+      <c r="AB23" s="7">
         <f t="shared" si="13"/>
-        <v>267359.22</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="shared" ref="Q23:AB23" si="14">SUM(Q17:Q22)</f>
-        <v>265255.3</v>
-      </c>
-      <c r="R23" s="9">
+        <v>426465.5</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" ref="AD23:AN23" si="14">SUM(AD17:AD22)</f>
+        <v>477902.41000000003</v>
+      </c>
+      <c r="AE23" s="7">
         <f t="shared" si="14"/>
-        <v>283528.34</v>
-      </c>
-      <c r="S23" s="9">
+        <v>480280.69</v>
+      </c>
+      <c r="AF23" s="7">
         <f t="shared" si="14"/>
-        <v>281150.98</v>
-      </c>
-      <c r="T23" s="9">
+        <v>511218.75</v>
+      </c>
+      <c r="AG23" s="7">
         <f t="shared" si="14"/>
-        <v>317850.7</v>
-      </c>
-      <c r="U23" s="9">
+        <v>478512.67</v>
+      </c>
+      <c r="AH23" s="7">
         <f t="shared" si="14"/>
-        <v>348620.8</v>
-      </c>
-      <c r="V23" s="9">
+        <v>497675.39</v>
+      </c>
+      <c r="AI23" s="7">
         <f t="shared" si="14"/>
-        <v>404304.67</v>
-      </c>
-      <c r="W23" s="9">
+        <v>469790.32</v>
+      </c>
+      <c r="AJ23" s="7">
         <f t="shared" si="14"/>
-        <v>396963.58</v>
-      </c>
-      <c r="X23" s="9">
+        <v>439295.72</v>
+      </c>
+      <c r="AK23" s="7">
         <f t="shared" si="14"/>
-        <v>389755.95</v>
-      </c>
-      <c r="Y23" s="9">
+        <v>438284.74</v>
+      </c>
+      <c r="AL23" s="7">
         <f t="shared" si="14"/>
-        <v>382849.73</v>
-      </c>
-      <c r="Z23" s="9">
+        <v>461844.95</v>
+      </c>
+      <c r="AM23" s="7">
         <f t="shared" si="14"/>
-        <v>399632.07</v>
-      </c>
-      <c r="AA23" s="9">
+        <v>498589.38</v>
+      </c>
+      <c r="AN23" s="7">
         <f t="shared" si="14"/>
-        <v>402783.88</v>
-      </c>
-      <c r="AB23" s="9">
-        <f t="shared" si="14"/>
-        <v>426465.5</v>
-      </c>
-      <c r="AD23" s="9">
-        <f t="shared" ref="AD23:AM23" si="15">SUM(AD17:AD22)</f>
-        <v>477902.41</v>
-      </c>
-      <c r="AE23" s="9">
-        <f t="shared" si="15"/>
-        <v>480280.69</v>
-      </c>
-      <c r="AF23" s="9">
-        <f t="shared" si="15"/>
-        <v>511218.75</v>
-      </c>
-      <c r="AG23" s="9">
-        <f t="shared" si="15"/>
-        <v>478512.67</v>
-      </c>
-      <c r="AH23" s="9">
-        <f t="shared" si="15"/>
-        <v>497675.39</v>
-      </c>
-      <c r="AI23" s="9">
-        <f t="shared" si="15"/>
-        <v>469790.32</v>
-      </c>
-      <c r="AJ23" s="9">
-        <f t="shared" si="15"/>
-        <v>439295.72</v>
-      </c>
-      <c r="AK23" s="9">
-        <f t="shared" si="15"/>
-        <v>438284.74</v>
-      </c>
-      <c r="AL23" s="9">
-        <f t="shared" si="15"/>
-        <v>461844.95</v>
-      </c>
-      <c r="AM23" s="9">
-        <f t="shared" si="15"/>
-        <v>498589.38</v>
+        <v>511524.07</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2">
@@ -5059,94 +4516,94 @@
       </c>
       <c r="E24" s="2">
         <f>D24+E8-E14</f>
-        <v>53399.55</v>
+        <v>53399.549999999996</v>
       </c>
       <c r="F24" s="2">
         <f>E24+F8-F14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="G24" s="2">
         <f>F24+G8-G14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="H24" s="2">
         <f>G24+H8-H14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:O24" si="16">G24+I8-I14</f>
-        <v>100000</v>
+        <f t="shared" ref="I24:O24" si="15">G24+I8-I14</f>
+        <v>99999.999999999985</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="16"/>
-        <v>100000</v>
+        <f t="shared" si="15"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="16"/>
-        <v>100000</v>
+        <f t="shared" si="15"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="16"/>
-        <v>100000</v>
+        <f t="shared" si="15"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="16"/>
-        <v>100000</v>
+        <f t="shared" si="15"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="16"/>
-        <v>100000</v>
+        <f t="shared" si="15"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="16"/>
-        <v>100000</v>
+        <f t="shared" si="15"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="2">
         <f>O24+Q8-Q14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:AB24" si="17">Q24+R8-R14</f>
-        <v>100000</v>
+        <f t="shared" ref="R24:AB24" si="16">Q24+R8-R14</f>
+        <v>99999.999999999985</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="17"/>
-        <v>100000</v>
+        <f t="shared" si="16"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="17"/>
-        <v>100000</v>
+        <f t="shared" si="16"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="17"/>
-        <v>100000</v>
+        <f t="shared" si="16"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="17"/>
-        <v>100000</v>
+        <f t="shared" si="16"/>
+        <v>99999.999999999985</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>170000</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>170000</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>170000</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>170000</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>156000</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>156000</v>
       </c>
       <c r="AD24" s="2">
@@ -5154,183 +4611,191 @@
         <v>156000</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" ref="AE24:AM24" si="18">AD24+AE8-AE14</f>
+        <f t="shared" ref="AE24:AN24" si="17">AD24+AE8-AE14</f>
         <v>156000</v>
       </c>
       <c r="AF24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
+      <c r="AG24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
+      <c r="AK24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
+      <c r="AM24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
+      <c r="AN24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7">
+        <f t="shared" ref="D25:O25" si="18">D23-D24</f>
+        <v>39892.050000000003</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="18"/>
-        <v>156000</v>
-      </c>
-      <c r="AG24" s="2">
+        <v>55555.210000000014</v>
+      </c>
+      <c r="F25" s="7">
         <f t="shared" si="18"/>
-        <v>156000</v>
-      </c>
-      <c r="AH24" s="2">
+        <v>61964.930000000008</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="18"/>
-        <v>156000</v>
-      </c>
-      <c r="AI24" s="2">
+        <v>60256.39</v>
+      </c>
+      <c r="H25" s="7">
         <f t="shared" si="18"/>
-        <v>156000</v>
-      </c>
-      <c r="AJ24" s="2">
+        <v>54938.660000000018</v>
+      </c>
+      <c r="I25" s="7">
         <f t="shared" si="18"/>
-        <v>156000</v>
-      </c>
-      <c r="AK24" s="2">
+        <v>70416.479999999996</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="18"/>
-        <v>156000</v>
-      </c>
-      <c r="AL24" s="2">
+        <v>62087.000000000015</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="18"/>
-        <v>156000</v>
-      </c>
-      <c r="AM24" s="2">
+        <v>84649.520000000033</v>
+      </c>
+      <c r="L25" s="7">
         <f t="shared" si="18"/>
-        <v>156000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9">
-        <f t="shared" ref="D25:O25" si="19">D23-D24</f>
-        <v>39892.05</v>
-      </c>
-      <c r="E25" s="9">
+        <v>92824.200000000026</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="18"/>
+        <v>107882.92000000003</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="18"/>
+        <v>105734.57000000002</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="18"/>
+        <v>167359.22000000003</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" ref="Q25:AB25" si="19">Q23-Q24</f>
+        <v>165255.29999999999</v>
+      </c>
+      <c r="R25" s="7">
         <f t="shared" si="19"/>
-        <v>55555.21</v>
-      </c>
-      <c r="F25" s="9">
+        <v>183528.33999999997</v>
+      </c>
+      <c r="S25" s="7">
         <f t="shared" si="19"/>
-        <v>61964.93</v>
-      </c>
-      <c r="G25" s="9">
+        <v>181150.97999999998</v>
+      </c>
+      <c r="T25" s="7">
         <f t="shared" si="19"/>
-        <v>60256.39</v>
-      </c>
-      <c r="H25" s="9">
+        <v>217850.69999999995</v>
+      </c>
+      <c r="U25" s="7">
         <f t="shared" si="19"/>
-        <v>54938.66</v>
-      </c>
-      <c r="I25" s="9">
+        <v>248620.79999999999</v>
+      </c>
+      <c r="V25" s="7">
         <f t="shared" si="19"/>
-        <v>70416.48</v>
-      </c>
-      <c r="J25" s="9">
+        <v>304304.67</v>
+      </c>
+      <c r="W25" s="7">
         <f t="shared" si="19"/>
-        <v>62087</v>
-      </c>
-      <c r="K25" s="9">
+        <v>226963.57999999996</v>
+      </c>
+      <c r="X25" s="7">
         <f t="shared" si="19"/>
-        <v>84649.52</v>
-      </c>
-      <c r="L25" s="9">
+        <v>219755.95</v>
+      </c>
+      <c r="Y25" s="7">
         <f t="shared" si="19"/>
-        <v>92824.2</v>
-      </c>
-      <c r="M25" s="9">
+        <v>212849.72999999998</v>
+      </c>
+      <c r="Z25" s="7">
         <f t="shared" si="19"/>
-        <v>107882.92</v>
-      </c>
-      <c r="N25" s="9">
+        <v>229632.07</v>
+      </c>
+      <c r="AA25" s="7">
         <f t="shared" si="19"/>
-        <v>105734.57</v>
-      </c>
-      <c r="O25" s="9">
+        <v>246783.88</v>
+      </c>
+      <c r="AB25" s="7">
         <f t="shared" si="19"/>
-        <v>167359.22</v>
-      </c>
-      <c r="Q25" s="9">
-        <f t="shared" ref="Q25:AB25" si="20">Q23-Q24</f>
-        <v>165255.3</v>
-      </c>
-      <c r="R25" s="9">
+        <v>270465.5</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" ref="AD25:AN25" si="20">AD23-AD24</f>
+        <v>321902.41000000003</v>
+      </c>
+      <c r="AE25" s="7">
         <f t="shared" si="20"/>
-        <v>183528.34</v>
-      </c>
-      <c r="S25" s="9">
+        <v>324280.69</v>
+      </c>
+      <c r="AF25" s="7">
         <f t="shared" si="20"/>
-        <v>181150.98</v>
-      </c>
-      <c r="T25" s="9">
+        <v>355218.75</v>
+      </c>
+      <c r="AG25" s="7">
         <f t="shared" si="20"/>
-        <v>217850.7</v>
-      </c>
-      <c r="U25" s="9">
+        <v>322512.67</v>
+      </c>
+      <c r="AH25" s="7">
         <f t="shared" si="20"/>
-        <v>248620.8</v>
-      </c>
-      <c r="V25" s="9">
+        <v>341675.39</v>
+      </c>
+      <c r="AI25" s="7">
         <f t="shared" si="20"/>
-        <v>304304.67</v>
-      </c>
-      <c r="W25" s="9">
+        <v>313790.32</v>
+      </c>
+      <c r="AJ25" s="7">
         <f t="shared" si="20"/>
-        <v>226963.58</v>
-      </c>
-      <c r="X25" s="9">
+        <v>283295.71999999997</v>
+      </c>
+      <c r="AK25" s="7">
         <f t="shared" si="20"/>
-        <v>219755.95</v>
-      </c>
-      <c r="Y25" s="9">
+        <v>282284.74</v>
+      </c>
+      <c r="AL25" s="7">
         <f t="shared" si="20"/>
-        <v>212849.73</v>
-      </c>
-      <c r="Z25" s="9">
+        <v>305844.95</v>
+      </c>
+      <c r="AM25" s="7">
         <f t="shared" si="20"/>
-        <v>229632.07</v>
-      </c>
-      <c r="AA25" s="9">
+        <v>342589.38</v>
+      </c>
+      <c r="AN25" s="7">
         <f t="shared" si="20"/>
-        <v>246783.88</v>
-      </c>
-      <c r="AB25" s="9">
-        <f t="shared" si="20"/>
-        <v>270465.5</v>
-      </c>
-      <c r="AD25" s="9">
-        <f t="shared" ref="AD25:AM25" si="21">AD23-AD24</f>
-        <v>321902.41</v>
-      </c>
-      <c r="AE25" s="9">
-        <f t="shared" si="21"/>
-        <v>324280.69</v>
-      </c>
-      <c r="AF25" s="9">
-        <f t="shared" si="21"/>
-        <v>355218.75</v>
-      </c>
-      <c r="AG25" s="9">
-        <f t="shared" si="21"/>
-        <v>322512.67</v>
-      </c>
-      <c r="AH25" s="9">
-        <f t="shared" si="21"/>
-        <v>341675.39</v>
-      </c>
-      <c r="AI25" s="9">
-        <f t="shared" si="21"/>
-        <v>313790.32</v>
-      </c>
-      <c r="AJ25" s="9">
-        <f t="shared" si="21"/>
-        <v>283295.72</v>
-      </c>
-      <c r="AK25" s="9">
-        <f t="shared" si="21"/>
-        <v>282284.74</v>
-      </c>
-      <c r="AL25" s="9">
-        <f t="shared" si="21"/>
-        <v>305844.95</v>
-      </c>
-      <c r="AM25" s="9">
-        <f t="shared" si="21"/>
-        <v>342589.38</v>
+        <v>355524.07</v>
       </c>
     </row>
   </sheetData>
@@ -5344,16 +4809,17 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B17:B23"/>
   </mergeCells>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="AE9:AM9 AB15 Y9:AB9" formulaRange="1"/>
+    <ignoredError sqref="AE9:AN9 AB15 Y9:AB9" formulaRange="1"/>
     <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C30E77-40CD-458C-AD6A-1A3084371015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD044A2D-34C2-42D9-9445-A60FD2421228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="20730" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -488,9 +499,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AN$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1)</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -595,16 +606,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2021/11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021/12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AN$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -709,6 +723,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>511524.07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>550438.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,9 +796,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AN$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1)</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -886,16 +903,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2021/11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021/12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AN$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1000,6 +1020,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>355524.07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>394438.91000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,11 +1578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMY25"/>
+  <dimension ref="A1:AMZ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1572,13 +1595,13 @@
     <col min="23" max="23" width="11.625" style="2" customWidth="1"/>
     <col min="24" max="28" width="10.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="40" width="11.25" style="2" customWidth="1"/>
-    <col min="41" max="41" width="12" style="2" customWidth="1"/>
-    <col min="42" max="83" width="10.5" style="2" customWidth="1"/>
-    <col min="84" max="1039" width="10.5" style="1" customWidth="1"/>
+    <col min="30" max="41" width="11.25" style="2" customWidth="1"/>
+    <col min="42" max="42" width="12" style="2" customWidth="1"/>
+    <col min="43" max="84" width="10.5" style="2" customWidth="1"/>
+    <col min="85" max="1040" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1695,11 +1718,14 @@
       <c r="AN1" s="8">
         <v>44501</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="8">
+        <v>44531</v>
+      </c>
+      <c r="AP1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
@@ -1823,11 +1849,14 @@
         <v>12457.15</v>
       </c>
       <c r="AO2" s="2">
-        <f>SUM(AD2:AN2)</f>
-        <v>152375.01999999999</v>
+        <v>12827.35</v>
+      </c>
+      <c r="AP2" s="2">
+        <f>SUM(AD2:AO2)</f>
+        <v>165202.37</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
@@ -1947,11 +1976,14 @@
         <v>285.2</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" ref="AO3:AO16" si="2">SUM(AD3:AN3)</f>
-        <v>2467.5</v>
+        <v>122.5</v>
+      </c>
+      <c r="AP3" s="2">
+        <f t="shared" ref="AP3:AP16" si="2">SUM(AD3:AO3)</f>
+        <v>2590</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
@@ -2072,11 +2104,14 @@
         <v>601.54</v>
       </c>
       <c r="AO4" s="2">
+        <v>343.59</v>
+      </c>
+      <c r="AP4" s="2">
         <f t="shared" si="2"/>
-        <v>19770.61</v>
+        <v>20114.2</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
@@ -2196,11 +2231,14 @@
         <v>0</v>
       </c>
       <c r="AO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="6" t="s">
@@ -2320,11 +2358,14 @@
         <v>0</v>
       </c>
       <c r="AO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2">
         <f t="shared" si="2"/>
         <v>677.74</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
@@ -2444,11 +2485,14 @@
         <v>0</v>
       </c>
       <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
@@ -2568,11 +2612,14 @@
         <v>0</v>
       </c>
       <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
@@ -2683,7 +2730,7 @@
         <v>230952.4</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" ref="AD9:AN9" si="5">SUM(AD2:AD8)</f>
+        <f t="shared" ref="AD9:AO9" si="5">SUM(AD2:AD8)</f>
         <v>13881.62</v>
       </c>
       <c r="AE9" s="2">
@@ -2727,11 +2774,15 @@
         <v>13343.89</v>
       </c>
       <c r="AO9" s="2">
+        <f t="shared" si="5"/>
+        <v>13293.44</v>
+      </c>
+      <c r="AP9" s="2">
         <f t="shared" si="2"/>
-        <v>219274.01</v>
+        <v>232567.45</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>34</v>
@@ -2854,11 +2905,14 @@
         <v>2693.73</v>
       </c>
       <c r="AO10" s="2">
+        <v>6880.99</v>
+      </c>
+      <c r="AP10" s="2">
         <f t="shared" si="2"/>
-        <v>47490.29</v>
+        <v>54371.28</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
@@ -2978,11 +3032,14 @@
         <v>0</v>
       </c>
       <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
         <f t="shared" si="2"/>
         <v>9166.5</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
@@ -3103,11 +3160,14 @@
         <v>726.78</v>
       </c>
       <c r="AO12" s="2">
+        <v>348.81</v>
+      </c>
+      <c r="AP12" s="2">
         <f t="shared" si="2"/>
-        <v>105663.65</v>
+        <v>106012.45999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6" t="s">
@@ -3227,11 +3287,14 @@
         <v>0</v>
       </c>
       <c r="AO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
@@ -3351,11 +3414,14 @@
         <v>0</v>
       </c>
       <c r="AO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="2">
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6" t="s">
@@ -3466,7 +3532,7 @@
         <v>201562.06999999998</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" ref="AD15:AN15" si="8">SUM(AD10:AD14)</f>
+        <f t="shared" ref="AD15:AO15" si="8">SUM(AD10:AD14)</f>
         <v>2287.0299999999997</v>
       </c>
       <c r="AE15" s="2">
@@ -3510,11 +3576,15 @@
         <v>3420.51</v>
       </c>
       <c r="AO15" s="2">
+        <f t="shared" si="8"/>
+        <v>7229.8</v>
+      </c>
+      <c r="AP15" s="2">
         <f t="shared" si="2"/>
-        <v>179520.43999999997</v>
+        <v>186750.23999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
@@ -3625,7 +3695,7 @@
         <v>29390.330000000005</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AN16" si="11">AD9-AD15</f>
+        <f t="shared" ref="AD16:AO16" si="11">AD9-AD15</f>
         <v>11594.59</v>
       </c>
       <c r="AE16" s="2">
@@ -3669,11 +3739,15 @@
         <v>9923.3799999999992</v>
       </c>
       <c r="AO16" s="2">
-        <f>SUM(AD16:AN16)</f>
-        <v>39753.57</v>
+        <f t="shared" si="11"/>
+        <v>6063.64</v>
+      </c>
+      <c r="AP16" s="2">
+        <f t="shared" si="2"/>
+        <v>45817.21</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -3789,8 +3863,11 @@
       <c r="AN17" s="2">
         <v>0</v>
       </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
@@ -3903,8 +3980,11 @@
       <c r="AN18" s="2">
         <v>50516.49</v>
       </c>
+      <c r="AO18" s="2">
+        <v>55824.11</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
@@ -4016,8 +4096,11 @@
       <c r="AN19" s="2">
         <v>22583.14</v>
       </c>
+      <c r="AO19" s="2">
+        <v>22583.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6" t="s">
@@ -4129,8 +4212,11 @@
       <c r="AN20" s="2">
         <v>7210</v>
       </c>
+      <c r="AO20" s="2">
+        <v>10200.4</v>
+      </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="6" t="s">
@@ -4242,8 +4328,11 @@
       <c r="AN21" s="2">
         <v>0</v>
       </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="6" t="s">
@@ -4355,8 +4444,11 @@
       <c r="AN22" s="2">
         <v>431214.44</v>
       </c>
+      <c r="AO22" s="2">
+        <v>461831.26</v>
+      </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="6" t="s">
@@ -4459,7 +4551,7 @@
         <v>426465.5</v>
       </c>
       <c r="AD23" s="7">
-        <f t="shared" ref="AD23:AN23" si="14">SUM(AD17:AD22)</f>
+        <f t="shared" ref="AD23:AO23" si="14">SUM(AD17:AD22)</f>
         <v>477902.41000000003</v>
       </c>
       <c r="AE23" s="7">
@@ -4502,8 +4594,12 @@
         <f t="shared" si="14"/>
         <v>511524.07</v>
       </c>
+      <c r="AO23" s="7">
+        <f t="shared" si="14"/>
+        <v>550438.91</v>
+      </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="6" t="s">
         <v>49</v>
@@ -4611,7 +4707,7 @@
         <v>156000</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" ref="AE24:AN24" si="17">AD24+AE8-AE14</f>
+        <f t="shared" ref="AE24:AO24" si="17">AD24+AE8-AE14</f>
         <v>156000</v>
       </c>
       <c r="AF24" s="2">
@@ -4650,8 +4746,12 @@
         <f t="shared" si="17"/>
         <v>156000</v>
       </c>
+      <c r="AO24" s="2">
+        <f t="shared" si="17"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>51</v>
@@ -4754,7 +4854,7 @@
         <v>270465.5</v>
       </c>
       <c r="AD25" s="7">
-        <f t="shared" ref="AD25:AN25" si="20">AD23-AD24</f>
+        <f t="shared" ref="AD25:AO25" si="20">AD23-AD24</f>
         <v>321902.41000000003</v>
       </c>
       <c r="AE25" s="7">
@@ -4796,6 +4896,10 @@
       <c r="AN25" s="7">
         <f t="shared" si="20"/>
         <v>355524.07</v>
+      </c>
+      <c r="AO25" s="7">
+        <f t="shared" si="20"/>
+        <v>394438.91000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4921,7 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="AE9:AN9 AB15 Y9:AB9" formulaRange="1"/>
+    <ignoredError sqref="AE9:AO9 AB15 Y9:AB9" formulaRange="1"/>
     <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资产负债表\资产负债表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD044A2D-34C2-42D9-9445-A60FD2421228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4FB65-427F-423A-85FA-F13547A8479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>时间</t>
   </si>
@@ -188,6 +188,10 @@
   <si>
     <t>净资产</t>
   </si>
+  <si>
+    <t>2022年度总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -212,6 +216,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -270,15 +288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -301,6 +316,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,9 +527,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AQ$1)</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -609,16 +637,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2021/12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022/01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AQ$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -726,6 +757,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>550438.91</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>514349.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -796,9 +830,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AQ$1)</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -906,16 +940,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2021/12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022/01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AQ$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1023,6 +1060,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>394438.91000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>358349.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,9 +1620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMZ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD29" sqref="AD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,218 +1637,1222 @@
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
     <col min="30" max="41" width="11.25" style="2" customWidth="1"/>
     <col min="42" max="42" width="12" style="2" customWidth="1"/>
-    <col min="43" max="84" width="10.5" style="2" customWidth="1"/>
+    <col min="43" max="43" width="10.5" style="2" customWidth="1"/>
+    <col min="44" max="44" width="12.25" style="2" customWidth="1"/>
+    <col min="45" max="84" width="10.5" style="2" customWidth="1"/>
     <col min="85" max="1040" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:1040" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="7">
         <v>44075</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="7">
         <v>44105</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="7">
         <v>44136</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="7">
         <v>44166</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="7">
         <v>44197</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1" s="7">
         <v>44228</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1" s="7">
         <v>44256</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AG1" s="7">
         <v>44287</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AH1" s="7">
         <v>44317</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AI1" s="7">
         <v>44348</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AJ1" s="7">
         <v>44378</v>
       </c>
-      <c r="AK1" s="8">
+      <c r="AK1" s="7">
         <v>44409</v>
       </c>
-      <c r="AL1" s="8">
+      <c r="AL1" s="7">
         <v>44440</v>
       </c>
-      <c r="AM1" s="8">
+      <c r="AM1" s="7">
         <v>44470</v>
       </c>
-      <c r="AN1" s="8">
+      <c r="AN1" s="7">
         <v>44501</v>
       </c>
-      <c r="AO1" s="8">
+      <c r="AO1" s="7">
         <v>44531</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="AQ1" s="7">
+        <v>44562</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11"/>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11"/>
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+      <c r="ET1" s="11"/>
+      <c r="EU1" s="11"/>
+      <c r="EV1" s="11"/>
+      <c r="EW1" s="11"/>
+      <c r="EX1" s="11"/>
+      <c r="EY1" s="11"/>
+      <c r="EZ1" s="11"/>
+      <c r="FA1" s="11"/>
+      <c r="FB1" s="11"/>
+      <c r="FC1" s="11"/>
+      <c r="FD1" s="11"/>
+      <c r="FE1" s="11"/>
+      <c r="FF1" s="11"/>
+      <c r="FG1" s="11"/>
+      <c r="FH1" s="11"/>
+      <c r="FI1" s="11"/>
+      <c r="FJ1" s="11"/>
+      <c r="FK1" s="11"/>
+      <c r="FL1" s="11"/>
+      <c r="FM1" s="11"/>
+      <c r="FN1" s="11"/>
+      <c r="FO1" s="11"/>
+      <c r="FP1" s="11"/>
+      <c r="FQ1" s="11"/>
+      <c r="FR1" s="11"/>
+      <c r="FS1" s="11"/>
+      <c r="FT1" s="11"/>
+      <c r="FU1" s="11"/>
+      <c r="FV1" s="11"/>
+      <c r="FW1" s="11"/>
+      <c r="FX1" s="11"/>
+      <c r="FY1" s="11"/>
+      <c r="FZ1" s="11"/>
+      <c r="GA1" s="11"/>
+      <c r="GB1" s="11"/>
+      <c r="GC1" s="11"/>
+      <c r="GD1" s="11"/>
+      <c r="GE1" s="11"/>
+      <c r="GF1" s="11"/>
+      <c r="GG1" s="11"/>
+      <c r="GH1" s="11"/>
+      <c r="GI1" s="11"/>
+      <c r="GJ1" s="11"/>
+      <c r="GK1" s="11"/>
+      <c r="GL1" s="11"/>
+      <c r="GM1" s="11"/>
+      <c r="GN1" s="11"/>
+      <c r="GO1" s="11"/>
+      <c r="GP1" s="11"/>
+      <c r="GQ1" s="11"/>
+      <c r="GR1" s="11"/>
+      <c r="GS1" s="11"/>
+      <c r="GT1" s="11"/>
+      <c r="GU1" s="11"/>
+      <c r="GV1" s="11"/>
+      <c r="GW1" s="11"/>
+      <c r="GX1" s="11"/>
+      <c r="GY1" s="11"/>
+      <c r="GZ1" s="11"/>
+      <c r="HA1" s="11"/>
+      <c r="HB1" s="11"/>
+      <c r="HC1" s="11"/>
+      <c r="HD1" s="11"/>
+      <c r="HE1" s="11"/>
+      <c r="HF1" s="11"/>
+      <c r="HG1" s="11"/>
+      <c r="HH1" s="11"/>
+      <c r="HI1" s="11"/>
+      <c r="HJ1" s="11"/>
+      <c r="HK1" s="11"/>
+      <c r="HL1" s="11"/>
+      <c r="HM1" s="11"/>
+      <c r="HN1" s="11"/>
+      <c r="HO1" s="11"/>
+      <c r="HP1" s="11"/>
+      <c r="HQ1" s="11"/>
+      <c r="HR1" s="11"/>
+      <c r="HS1" s="11"/>
+      <c r="HT1" s="11"/>
+      <c r="HU1" s="11"/>
+      <c r="HV1" s="11"/>
+      <c r="HW1" s="11"/>
+      <c r="HX1" s="11"/>
+      <c r="HY1" s="11"/>
+      <c r="HZ1" s="11"/>
+      <c r="IA1" s="11"/>
+      <c r="IB1" s="11"/>
+      <c r="IC1" s="11"/>
+      <c r="ID1" s="11"/>
+      <c r="IE1" s="11"/>
+      <c r="IF1" s="11"/>
+      <c r="IG1" s="11"/>
+      <c r="IH1" s="11"/>
+      <c r="II1" s="11"/>
+      <c r="IJ1" s="11"/>
+      <c r="IK1" s="11"/>
+      <c r="IL1" s="11"/>
+      <c r="IM1" s="11"/>
+      <c r="IN1" s="11"/>
+      <c r="IO1" s="11"/>
+      <c r="IP1" s="11"/>
+      <c r="IQ1" s="11"/>
+      <c r="IR1" s="11"/>
+      <c r="IS1" s="11"/>
+      <c r="IT1" s="11"/>
+      <c r="IU1" s="11"/>
+      <c r="IV1" s="11"/>
+      <c r="IW1" s="11"/>
+      <c r="IX1" s="11"/>
+      <c r="IY1" s="11"/>
+      <c r="IZ1" s="11"/>
+      <c r="JA1" s="11"/>
+      <c r="JB1" s="11"/>
+      <c r="JC1" s="11"/>
+      <c r="JD1" s="11"/>
+      <c r="JE1" s="11"/>
+      <c r="JF1" s="11"/>
+      <c r="JG1" s="11"/>
+      <c r="JH1" s="11"/>
+      <c r="JI1" s="11"/>
+      <c r="JJ1" s="11"/>
+      <c r="JK1" s="11"/>
+      <c r="JL1" s="11"/>
+      <c r="JM1" s="11"/>
+      <c r="JN1" s="11"/>
+      <c r="JO1" s="11"/>
+      <c r="JP1" s="11"/>
+      <c r="JQ1" s="11"/>
+      <c r="JR1" s="11"/>
+      <c r="JS1" s="11"/>
+      <c r="JT1" s="11"/>
+      <c r="JU1" s="11"/>
+      <c r="JV1" s="11"/>
+      <c r="JW1" s="11"/>
+      <c r="JX1" s="11"/>
+      <c r="JY1" s="11"/>
+      <c r="JZ1" s="11"/>
+      <c r="KA1" s="11"/>
+      <c r="KB1" s="11"/>
+      <c r="KC1" s="11"/>
+      <c r="KD1" s="11"/>
+      <c r="KE1" s="11"/>
+      <c r="KF1" s="11"/>
+      <c r="KG1" s="11"/>
+      <c r="KH1" s="11"/>
+      <c r="KI1" s="11"/>
+      <c r="KJ1" s="11"/>
+      <c r="KK1" s="11"/>
+      <c r="KL1" s="11"/>
+      <c r="KM1" s="11"/>
+      <c r="KN1" s="11"/>
+      <c r="KO1" s="11"/>
+      <c r="KP1" s="11"/>
+      <c r="KQ1" s="11"/>
+      <c r="KR1" s="11"/>
+      <c r="KS1" s="11"/>
+      <c r="KT1" s="11"/>
+      <c r="KU1" s="11"/>
+      <c r="KV1" s="11"/>
+      <c r="KW1" s="11"/>
+      <c r="KX1" s="11"/>
+      <c r="KY1" s="11"/>
+      <c r="KZ1" s="11"/>
+      <c r="LA1" s="11"/>
+      <c r="LB1" s="11"/>
+      <c r="LC1" s="11"/>
+      <c r="LD1" s="11"/>
+      <c r="LE1" s="11"/>
+      <c r="LF1" s="11"/>
+      <c r="LG1" s="11"/>
+      <c r="LH1" s="11"/>
+      <c r="LI1" s="11"/>
+      <c r="LJ1" s="11"/>
+      <c r="LK1" s="11"/>
+      <c r="LL1" s="11"/>
+      <c r="LM1" s="11"/>
+      <c r="LN1" s="11"/>
+      <c r="LO1" s="11"/>
+      <c r="LP1" s="11"/>
+      <c r="LQ1" s="11"/>
+      <c r="LR1" s="11"/>
+      <c r="LS1" s="11"/>
+      <c r="LT1" s="11"/>
+      <c r="LU1" s="11"/>
+      <c r="LV1" s="11"/>
+      <c r="LW1" s="11"/>
+      <c r="LX1" s="11"/>
+      <c r="LY1" s="11"/>
+      <c r="LZ1" s="11"/>
+      <c r="MA1" s="11"/>
+      <c r="MB1" s="11"/>
+      <c r="MC1" s="11"/>
+      <c r="MD1" s="11"/>
+      <c r="ME1" s="11"/>
+      <c r="MF1" s="11"/>
+      <c r="MG1" s="11"/>
+      <c r="MH1" s="11"/>
+      <c r="MI1" s="11"/>
+      <c r="MJ1" s="11"/>
+      <c r="MK1" s="11"/>
+      <c r="ML1" s="11"/>
+      <c r="MM1" s="11"/>
+      <c r="MN1" s="11"/>
+      <c r="MO1" s="11"/>
+      <c r="MP1" s="11"/>
+      <c r="MQ1" s="11"/>
+      <c r="MR1" s="11"/>
+      <c r="MS1" s="11"/>
+      <c r="MT1" s="11"/>
+      <c r="MU1" s="11"/>
+      <c r="MV1" s="11"/>
+      <c r="MW1" s="11"/>
+      <c r="MX1" s="11"/>
+      <c r="MY1" s="11"/>
+      <c r="MZ1" s="11"/>
+      <c r="NA1" s="11"/>
+      <c r="NB1" s="11"/>
+      <c r="NC1" s="11"/>
+      <c r="ND1" s="11"/>
+      <c r="NE1" s="11"/>
+      <c r="NF1" s="11"/>
+      <c r="NG1" s="11"/>
+      <c r="NH1" s="11"/>
+      <c r="NI1" s="11"/>
+      <c r="NJ1" s="11"/>
+      <c r="NK1" s="11"/>
+      <c r="NL1" s="11"/>
+      <c r="NM1" s="11"/>
+      <c r="NN1" s="11"/>
+      <c r="NO1" s="11"/>
+      <c r="NP1" s="11"/>
+      <c r="NQ1" s="11"/>
+      <c r="NR1" s="11"/>
+      <c r="NS1" s="11"/>
+      <c r="NT1" s="11"/>
+      <c r="NU1" s="11"/>
+      <c r="NV1" s="11"/>
+      <c r="NW1" s="11"/>
+      <c r="NX1" s="11"/>
+      <c r="NY1" s="11"/>
+      <c r="NZ1" s="11"/>
+      <c r="OA1" s="11"/>
+      <c r="OB1" s="11"/>
+      <c r="OC1" s="11"/>
+      <c r="OD1" s="11"/>
+      <c r="OE1" s="11"/>
+      <c r="OF1" s="11"/>
+      <c r="OG1" s="11"/>
+      <c r="OH1" s="11"/>
+      <c r="OI1" s="11"/>
+      <c r="OJ1" s="11"/>
+      <c r="OK1" s="11"/>
+      <c r="OL1" s="11"/>
+      <c r="OM1" s="11"/>
+      <c r="ON1" s="11"/>
+      <c r="OO1" s="11"/>
+      <c r="OP1" s="11"/>
+      <c r="OQ1" s="11"/>
+      <c r="OR1" s="11"/>
+      <c r="OS1" s="11"/>
+      <c r="OT1" s="11"/>
+      <c r="OU1" s="11"/>
+      <c r="OV1" s="11"/>
+      <c r="OW1" s="11"/>
+      <c r="OX1" s="11"/>
+      <c r="OY1" s="11"/>
+      <c r="OZ1" s="11"/>
+      <c r="PA1" s="11"/>
+      <c r="PB1" s="11"/>
+      <c r="PC1" s="11"/>
+      <c r="PD1" s="11"/>
+      <c r="PE1" s="11"/>
+      <c r="PF1" s="11"/>
+      <c r="PG1" s="11"/>
+      <c r="PH1" s="11"/>
+      <c r="PI1" s="11"/>
+      <c r="PJ1" s="11"/>
+      <c r="PK1" s="11"/>
+      <c r="PL1" s="11"/>
+      <c r="PM1" s="11"/>
+      <c r="PN1" s="11"/>
+      <c r="PO1" s="11"/>
+      <c r="PP1" s="11"/>
+      <c r="PQ1" s="11"/>
+      <c r="PR1" s="11"/>
+      <c r="PS1" s="11"/>
+      <c r="PT1" s="11"/>
+      <c r="PU1" s="11"/>
+      <c r="PV1" s="11"/>
+      <c r="PW1" s="11"/>
+      <c r="PX1" s="11"/>
+      <c r="PY1" s="11"/>
+      <c r="PZ1" s="11"/>
+      <c r="QA1" s="11"/>
+      <c r="QB1" s="11"/>
+      <c r="QC1" s="11"/>
+      <c r="QD1" s="11"/>
+      <c r="QE1" s="11"/>
+      <c r="QF1" s="11"/>
+      <c r="QG1" s="11"/>
+      <c r="QH1" s="11"/>
+      <c r="QI1" s="11"/>
+      <c r="QJ1" s="11"/>
+      <c r="QK1" s="11"/>
+      <c r="QL1" s="11"/>
+      <c r="QM1" s="11"/>
+      <c r="QN1" s="11"/>
+      <c r="QO1" s="11"/>
+      <c r="QP1" s="11"/>
+      <c r="QQ1" s="11"/>
+      <c r="QR1" s="11"/>
+      <c r="QS1" s="11"/>
+      <c r="QT1" s="11"/>
+      <c r="QU1" s="11"/>
+      <c r="QV1" s="11"/>
+      <c r="QW1" s="11"/>
+      <c r="QX1" s="11"/>
+      <c r="QY1" s="11"/>
+      <c r="QZ1" s="11"/>
+      <c r="RA1" s="11"/>
+      <c r="RB1" s="11"/>
+      <c r="RC1" s="11"/>
+      <c r="RD1" s="11"/>
+      <c r="RE1" s="11"/>
+      <c r="RF1" s="11"/>
+      <c r="RG1" s="11"/>
+      <c r="RH1" s="11"/>
+      <c r="RI1" s="11"/>
+      <c r="RJ1" s="11"/>
+      <c r="RK1" s="11"/>
+      <c r="RL1" s="11"/>
+      <c r="RM1" s="11"/>
+      <c r="RN1" s="11"/>
+      <c r="RO1" s="11"/>
+      <c r="RP1" s="11"/>
+      <c r="RQ1" s="11"/>
+      <c r="RR1" s="11"/>
+      <c r="RS1" s="11"/>
+      <c r="RT1" s="11"/>
+      <c r="RU1" s="11"/>
+      <c r="RV1" s="11"/>
+      <c r="RW1" s="11"/>
+      <c r="RX1" s="11"/>
+      <c r="RY1" s="11"/>
+      <c r="RZ1" s="11"/>
+      <c r="SA1" s="11"/>
+      <c r="SB1" s="11"/>
+      <c r="SC1" s="11"/>
+      <c r="SD1" s="11"/>
+      <c r="SE1" s="11"/>
+      <c r="SF1" s="11"/>
+      <c r="SG1" s="11"/>
+      <c r="SH1" s="11"/>
+      <c r="SI1" s="11"/>
+      <c r="SJ1" s="11"/>
+      <c r="SK1" s="11"/>
+      <c r="SL1" s="11"/>
+      <c r="SM1" s="11"/>
+      <c r="SN1" s="11"/>
+      <c r="SO1" s="11"/>
+      <c r="SP1" s="11"/>
+      <c r="SQ1" s="11"/>
+      <c r="SR1" s="11"/>
+      <c r="SS1" s="11"/>
+      <c r="ST1" s="11"/>
+      <c r="SU1" s="11"/>
+      <c r="SV1" s="11"/>
+      <c r="SW1" s="11"/>
+      <c r="SX1" s="11"/>
+      <c r="SY1" s="11"/>
+      <c r="SZ1" s="11"/>
+      <c r="TA1" s="11"/>
+      <c r="TB1" s="11"/>
+      <c r="TC1" s="11"/>
+      <c r="TD1" s="11"/>
+      <c r="TE1" s="11"/>
+      <c r="TF1" s="11"/>
+      <c r="TG1" s="11"/>
+      <c r="TH1" s="11"/>
+      <c r="TI1" s="11"/>
+      <c r="TJ1" s="11"/>
+      <c r="TK1" s="11"/>
+      <c r="TL1" s="11"/>
+      <c r="TM1" s="11"/>
+      <c r="TN1" s="11"/>
+      <c r="TO1" s="11"/>
+      <c r="TP1" s="11"/>
+      <c r="TQ1" s="11"/>
+      <c r="TR1" s="11"/>
+      <c r="TS1" s="11"/>
+      <c r="TT1" s="11"/>
+      <c r="TU1" s="11"/>
+      <c r="TV1" s="11"/>
+      <c r="TW1" s="11"/>
+      <c r="TX1" s="11"/>
+      <c r="TY1" s="11"/>
+      <c r="TZ1" s="11"/>
+      <c r="UA1" s="11"/>
+      <c r="UB1" s="11"/>
+      <c r="UC1" s="11"/>
+      <c r="UD1" s="11"/>
+      <c r="UE1" s="11"/>
+      <c r="UF1" s="11"/>
+      <c r="UG1" s="11"/>
+      <c r="UH1" s="11"/>
+      <c r="UI1" s="11"/>
+      <c r="UJ1" s="11"/>
+      <c r="UK1" s="11"/>
+      <c r="UL1" s="11"/>
+      <c r="UM1" s="11"/>
+      <c r="UN1" s="11"/>
+      <c r="UO1" s="11"/>
+      <c r="UP1" s="11"/>
+      <c r="UQ1" s="11"/>
+      <c r="UR1" s="11"/>
+      <c r="US1" s="11"/>
+      <c r="UT1" s="11"/>
+      <c r="UU1" s="11"/>
+      <c r="UV1" s="11"/>
+      <c r="UW1" s="11"/>
+      <c r="UX1" s="11"/>
+      <c r="UY1" s="11"/>
+      <c r="UZ1" s="11"/>
+      <c r="VA1" s="11"/>
+      <c r="VB1" s="11"/>
+      <c r="VC1" s="11"/>
+      <c r="VD1" s="11"/>
+      <c r="VE1" s="11"/>
+      <c r="VF1" s="11"/>
+      <c r="VG1" s="11"/>
+      <c r="VH1" s="11"/>
+      <c r="VI1" s="11"/>
+      <c r="VJ1" s="11"/>
+      <c r="VK1" s="11"/>
+      <c r="VL1" s="11"/>
+      <c r="VM1" s="11"/>
+      <c r="VN1" s="11"/>
+      <c r="VO1" s="11"/>
+      <c r="VP1" s="11"/>
+      <c r="VQ1" s="11"/>
+      <c r="VR1" s="11"/>
+      <c r="VS1" s="11"/>
+      <c r="VT1" s="11"/>
+      <c r="VU1" s="11"/>
+      <c r="VV1" s="11"/>
+      <c r="VW1" s="11"/>
+      <c r="VX1" s="11"/>
+      <c r="VY1" s="11"/>
+      <c r="VZ1" s="11"/>
+      <c r="WA1" s="11"/>
+      <c r="WB1" s="11"/>
+      <c r="WC1" s="11"/>
+      <c r="WD1" s="11"/>
+      <c r="WE1" s="11"/>
+      <c r="WF1" s="11"/>
+      <c r="WG1" s="11"/>
+      <c r="WH1" s="11"/>
+      <c r="WI1" s="11"/>
+      <c r="WJ1" s="11"/>
+      <c r="WK1" s="11"/>
+      <c r="WL1" s="11"/>
+      <c r="WM1" s="11"/>
+      <c r="WN1" s="11"/>
+      <c r="WO1" s="11"/>
+      <c r="WP1" s="11"/>
+      <c r="WQ1" s="11"/>
+      <c r="WR1" s="11"/>
+      <c r="WS1" s="11"/>
+      <c r="WT1" s="11"/>
+      <c r="WU1" s="11"/>
+      <c r="WV1" s="11"/>
+      <c r="WW1" s="11"/>
+      <c r="WX1" s="11"/>
+      <c r="WY1" s="11"/>
+      <c r="WZ1" s="11"/>
+      <c r="XA1" s="11"/>
+      <c r="XB1" s="11"/>
+      <c r="XC1" s="11"/>
+      <c r="XD1" s="11"/>
+      <c r="XE1" s="11"/>
+      <c r="XF1" s="11"/>
+      <c r="XG1" s="11"/>
+      <c r="XH1" s="11"/>
+      <c r="XI1" s="11"/>
+      <c r="XJ1" s="11"/>
+      <c r="XK1" s="11"/>
+      <c r="XL1" s="11"/>
+      <c r="XM1" s="11"/>
+      <c r="XN1" s="11"/>
+      <c r="XO1" s="11"/>
+      <c r="XP1" s="11"/>
+      <c r="XQ1" s="11"/>
+      <c r="XR1" s="11"/>
+      <c r="XS1" s="11"/>
+      <c r="XT1" s="11"/>
+      <c r="XU1" s="11"/>
+      <c r="XV1" s="11"/>
+      <c r="XW1" s="11"/>
+      <c r="XX1" s="11"/>
+      <c r="XY1" s="11"/>
+      <c r="XZ1" s="11"/>
+      <c r="YA1" s="11"/>
+      <c r="YB1" s="11"/>
+      <c r="YC1" s="11"/>
+      <c r="YD1" s="11"/>
+      <c r="YE1" s="11"/>
+      <c r="YF1" s="11"/>
+      <c r="YG1" s="11"/>
+      <c r="YH1" s="11"/>
+      <c r="YI1" s="11"/>
+      <c r="YJ1" s="11"/>
+      <c r="YK1" s="11"/>
+      <c r="YL1" s="11"/>
+      <c r="YM1" s="11"/>
+      <c r="YN1" s="11"/>
+      <c r="YO1" s="11"/>
+      <c r="YP1" s="11"/>
+      <c r="YQ1" s="11"/>
+      <c r="YR1" s="11"/>
+      <c r="YS1" s="11"/>
+      <c r="YT1" s="11"/>
+      <c r="YU1" s="11"/>
+      <c r="YV1" s="11"/>
+      <c r="YW1" s="11"/>
+      <c r="YX1" s="11"/>
+      <c r="YY1" s="11"/>
+      <c r="YZ1" s="11"/>
+      <c r="ZA1" s="11"/>
+      <c r="ZB1" s="11"/>
+      <c r="ZC1" s="11"/>
+      <c r="ZD1" s="11"/>
+      <c r="ZE1" s="11"/>
+      <c r="ZF1" s="11"/>
+      <c r="ZG1" s="11"/>
+      <c r="ZH1" s="11"/>
+      <c r="ZI1" s="11"/>
+      <c r="ZJ1" s="11"/>
+      <c r="ZK1" s="11"/>
+      <c r="ZL1" s="11"/>
+      <c r="ZM1" s="11"/>
+      <c r="ZN1" s="11"/>
+      <c r="ZO1" s="11"/>
+      <c r="ZP1" s="11"/>
+      <c r="ZQ1" s="11"/>
+      <c r="ZR1" s="11"/>
+      <c r="ZS1" s="11"/>
+      <c r="ZT1" s="11"/>
+      <c r="ZU1" s="11"/>
+      <c r="ZV1" s="11"/>
+      <c r="ZW1" s="11"/>
+      <c r="ZX1" s="11"/>
+      <c r="ZY1" s="11"/>
+      <c r="ZZ1" s="11"/>
+      <c r="AAA1" s="11"/>
+      <c r="AAB1" s="11"/>
+      <c r="AAC1" s="11"/>
+      <c r="AAD1" s="11"/>
+      <c r="AAE1" s="11"/>
+      <c r="AAF1" s="11"/>
+      <c r="AAG1" s="11"/>
+      <c r="AAH1" s="11"/>
+      <c r="AAI1" s="11"/>
+      <c r="AAJ1" s="11"/>
+      <c r="AAK1" s="11"/>
+      <c r="AAL1" s="11"/>
+      <c r="AAM1" s="11"/>
+      <c r="AAN1" s="11"/>
+      <c r="AAO1" s="11"/>
+      <c r="AAP1" s="11"/>
+      <c r="AAQ1" s="11"/>
+      <c r="AAR1" s="11"/>
+      <c r="AAS1" s="11"/>
+      <c r="AAT1" s="11"/>
+      <c r="AAU1" s="11"/>
+      <c r="AAV1" s="11"/>
+      <c r="AAW1" s="11"/>
+      <c r="AAX1" s="11"/>
+      <c r="AAY1" s="11"/>
+      <c r="AAZ1" s="11"/>
+      <c r="ABA1" s="11"/>
+      <c r="ABB1" s="11"/>
+      <c r="ABC1" s="11"/>
+      <c r="ABD1" s="11"/>
+      <c r="ABE1" s="11"/>
+      <c r="ABF1" s="11"/>
+      <c r="ABG1" s="11"/>
+      <c r="ABH1" s="11"/>
+      <c r="ABI1" s="11"/>
+      <c r="ABJ1" s="11"/>
+      <c r="ABK1" s="11"/>
+      <c r="ABL1" s="11"/>
+      <c r="ABM1" s="11"/>
+      <c r="ABN1" s="11"/>
+      <c r="ABO1" s="11"/>
+      <c r="ABP1" s="11"/>
+      <c r="ABQ1" s="11"/>
+      <c r="ABR1" s="11"/>
+      <c r="ABS1" s="11"/>
+      <c r="ABT1" s="11"/>
+      <c r="ABU1" s="11"/>
+      <c r="ABV1" s="11"/>
+      <c r="ABW1" s="11"/>
+      <c r="ABX1" s="11"/>
+      <c r="ABY1" s="11"/>
+      <c r="ABZ1" s="11"/>
+      <c r="ACA1" s="11"/>
+      <c r="ACB1" s="11"/>
+      <c r="ACC1" s="11"/>
+      <c r="ACD1" s="11"/>
+      <c r="ACE1" s="11"/>
+      <c r="ACF1" s="11"/>
+      <c r="ACG1" s="11"/>
+      <c r="ACH1" s="11"/>
+      <c r="ACI1" s="11"/>
+      <c r="ACJ1" s="11"/>
+      <c r="ACK1" s="11"/>
+      <c r="ACL1" s="11"/>
+      <c r="ACM1" s="11"/>
+      <c r="ACN1" s="11"/>
+      <c r="ACO1" s="11"/>
+      <c r="ACP1" s="11"/>
+      <c r="ACQ1" s="11"/>
+      <c r="ACR1" s="11"/>
+      <c r="ACS1" s="11"/>
+      <c r="ACT1" s="11"/>
+      <c r="ACU1" s="11"/>
+      <c r="ACV1" s="11"/>
+      <c r="ACW1" s="11"/>
+      <c r="ACX1" s="11"/>
+      <c r="ACY1" s="11"/>
+      <c r="ACZ1" s="11"/>
+      <c r="ADA1" s="11"/>
+      <c r="ADB1" s="11"/>
+      <c r="ADC1" s="11"/>
+      <c r="ADD1" s="11"/>
+      <c r="ADE1" s="11"/>
+      <c r="ADF1" s="11"/>
+      <c r="ADG1" s="11"/>
+      <c r="ADH1" s="11"/>
+      <c r="ADI1" s="11"/>
+      <c r="ADJ1" s="11"/>
+      <c r="ADK1" s="11"/>
+      <c r="ADL1" s="11"/>
+      <c r="ADM1" s="11"/>
+      <c r="ADN1" s="11"/>
+      <c r="ADO1" s="11"/>
+      <c r="ADP1" s="11"/>
+      <c r="ADQ1" s="11"/>
+      <c r="ADR1" s="11"/>
+      <c r="ADS1" s="11"/>
+      <c r="ADT1" s="11"/>
+      <c r="ADU1" s="11"/>
+      <c r="ADV1" s="11"/>
+      <c r="ADW1" s="11"/>
+      <c r="ADX1" s="11"/>
+      <c r="ADY1" s="11"/>
+      <c r="ADZ1" s="11"/>
+      <c r="AEA1" s="11"/>
+      <c r="AEB1" s="11"/>
+      <c r="AEC1" s="11"/>
+      <c r="AED1" s="11"/>
+      <c r="AEE1" s="11"/>
+      <c r="AEF1" s="11"/>
+      <c r="AEG1" s="11"/>
+      <c r="AEH1" s="11"/>
+      <c r="AEI1" s="11"/>
+      <c r="AEJ1" s="11"/>
+      <c r="AEK1" s="11"/>
+      <c r="AEL1" s="11"/>
+      <c r="AEM1" s="11"/>
+      <c r="AEN1" s="11"/>
+      <c r="AEO1" s="11"/>
+      <c r="AEP1" s="11"/>
+      <c r="AEQ1" s="11"/>
+      <c r="AER1" s="11"/>
+      <c r="AES1" s="11"/>
+      <c r="AET1" s="11"/>
+      <c r="AEU1" s="11"/>
+      <c r="AEV1" s="11"/>
+      <c r="AEW1" s="11"/>
+      <c r="AEX1" s="11"/>
+      <c r="AEY1" s="11"/>
+      <c r="AEZ1" s="11"/>
+      <c r="AFA1" s="11"/>
+      <c r="AFB1" s="11"/>
+      <c r="AFC1" s="11"/>
+      <c r="AFD1" s="11"/>
+      <c r="AFE1" s="11"/>
+      <c r="AFF1" s="11"/>
+      <c r="AFG1" s="11"/>
+      <c r="AFH1" s="11"/>
+      <c r="AFI1" s="11"/>
+      <c r="AFJ1" s="11"/>
+      <c r="AFK1" s="11"/>
+      <c r="AFL1" s="11"/>
+      <c r="AFM1" s="11"/>
+      <c r="AFN1" s="11"/>
+      <c r="AFO1" s="11"/>
+      <c r="AFP1" s="11"/>
+      <c r="AFQ1" s="11"/>
+      <c r="AFR1" s="11"/>
+      <c r="AFS1" s="11"/>
+      <c r="AFT1" s="11"/>
+      <c r="AFU1" s="11"/>
+      <c r="AFV1" s="11"/>
+      <c r="AFW1" s="11"/>
+      <c r="AFX1" s="11"/>
+      <c r="AFY1" s="11"/>
+      <c r="AFZ1" s="11"/>
+      <c r="AGA1" s="11"/>
+      <c r="AGB1" s="11"/>
+      <c r="AGC1" s="11"/>
+      <c r="AGD1" s="11"/>
+      <c r="AGE1" s="11"/>
+      <c r="AGF1" s="11"/>
+      <c r="AGG1" s="11"/>
+      <c r="AGH1" s="11"/>
+      <c r="AGI1" s="11"/>
+      <c r="AGJ1" s="11"/>
+      <c r="AGK1" s="11"/>
+      <c r="AGL1" s="11"/>
+      <c r="AGM1" s="11"/>
+      <c r="AGN1" s="11"/>
+      <c r="AGO1" s="11"/>
+      <c r="AGP1" s="11"/>
+      <c r="AGQ1" s="11"/>
+      <c r="AGR1" s="11"/>
+      <c r="AGS1" s="11"/>
+      <c r="AGT1" s="11"/>
+      <c r="AGU1" s="11"/>
+      <c r="AGV1" s="11"/>
+      <c r="AGW1" s="11"/>
+      <c r="AGX1" s="11"/>
+      <c r="AGY1" s="11"/>
+      <c r="AGZ1" s="11"/>
+      <c r="AHA1" s="11"/>
+      <c r="AHB1" s="11"/>
+      <c r="AHC1" s="11"/>
+      <c r="AHD1" s="11"/>
+      <c r="AHE1" s="11"/>
+      <c r="AHF1" s="11"/>
+      <c r="AHG1" s="11"/>
+      <c r="AHH1" s="11"/>
+      <c r="AHI1" s="11"/>
+      <c r="AHJ1" s="11"/>
+      <c r="AHK1" s="11"/>
+      <c r="AHL1" s="11"/>
+      <c r="AHM1" s="11"/>
+      <c r="AHN1" s="11"/>
+      <c r="AHO1" s="11"/>
+      <c r="AHP1" s="11"/>
+      <c r="AHQ1" s="11"/>
+      <c r="AHR1" s="11"/>
+      <c r="AHS1" s="11"/>
+      <c r="AHT1" s="11"/>
+      <c r="AHU1" s="11"/>
+      <c r="AHV1" s="11"/>
+      <c r="AHW1" s="11"/>
+      <c r="AHX1" s="11"/>
+      <c r="AHY1" s="11"/>
+      <c r="AHZ1" s="11"/>
+      <c r="AIA1" s="11"/>
+      <c r="AIB1" s="11"/>
+      <c r="AIC1" s="11"/>
+      <c r="AID1" s="11"/>
+      <c r="AIE1" s="11"/>
+      <c r="AIF1" s="11"/>
+      <c r="AIG1" s="11"/>
+      <c r="AIH1" s="11"/>
+      <c r="AII1" s="11"/>
+      <c r="AIJ1" s="11"/>
+      <c r="AIK1" s="11"/>
+      <c r="AIL1" s="11"/>
+      <c r="AIM1" s="11"/>
+      <c r="AIN1" s="11"/>
+      <c r="AIO1" s="11"/>
+      <c r="AIP1" s="11"/>
+      <c r="AIQ1" s="11"/>
+      <c r="AIR1" s="11"/>
+      <c r="AIS1" s="11"/>
+      <c r="AIT1" s="11"/>
+      <c r="AIU1" s="11"/>
+      <c r="AIV1" s="11"/>
+      <c r="AIW1" s="11"/>
+      <c r="AIX1" s="11"/>
+      <c r="AIY1" s="11"/>
+      <c r="AIZ1" s="11"/>
+      <c r="AJA1" s="11"/>
+      <c r="AJB1" s="11"/>
+      <c r="AJC1" s="11"/>
+      <c r="AJD1" s="11"/>
+      <c r="AJE1" s="11"/>
+      <c r="AJF1" s="11"/>
+      <c r="AJG1" s="11"/>
+      <c r="AJH1" s="11"/>
+      <c r="AJI1" s="11"/>
+      <c r="AJJ1" s="11"/>
+      <c r="AJK1" s="11"/>
+      <c r="AJL1" s="11"/>
+      <c r="AJM1" s="11"/>
+      <c r="AJN1" s="11"/>
+      <c r="AJO1" s="11"/>
+      <c r="AJP1" s="11"/>
+      <c r="AJQ1" s="11"/>
+      <c r="AJR1" s="11"/>
+      <c r="AJS1" s="11"/>
+      <c r="AJT1" s="11"/>
+      <c r="AJU1" s="11"/>
+      <c r="AJV1" s="11"/>
+      <c r="AJW1" s="11"/>
+      <c r="AJX1" s="11"/>
+      <c r="AJY1" s="11"/>
+      <c r="AJZ1" s="11"/>
+      <c r="AKA1" s="11"/>
+      <c r="AKB1" s="11"/>
+      <c r="AKC1" s="11"/>
+      <c r="AKD1" s="11"/>
+      <c r="AKE1" s="11"/>
+      <c r="AKF1" s="11"/>
+      <c r="AKG1" s="11"/>
+      <c r="AKH1" s="11"/>
+      <c r="AKI1" s="11"/>
+      <c r="AKJ1" s="11"/>
+      <c r="AKK1" s="11"/>
+      <c r="AKL1" s="11"/>
+      <c r="AKM1" s="11"/>
+      <c r="AKN1" s="11"/>
+      <c r="AKO1" s="11"/>
+      <c r="AKP1" s="11"/>
+      <c r="AKQ1" s="11"/>
+      <c r="AKR1" s="11"/>
+      <c r="AKS1" s="11"/>
+      <c r="AKT1" s="11"/>
+      <c r="AKU1" s="11"/>
+      <c r="AKV1" s="11"/>
+      <c r="AKW1" s="11"/>
+      <c r="AKX1" s="11"/>
+      <c r="AKY1" s="11"/>
+      <c r="AKZ1" s="11"/>
+      <c r="ALA1" s="11"/>
+      <c r="ALB1" s="11"/>
+      <c r="ALC1" s="11"/>
+      <c r="ALD1" s="11"/>
+      <c r="ALE1" s="11"/>
+      <c r="ALF1" s="11"/>
+      <c r="ALG1" s="11"/>
+      <c r="ALH1" s="11"/>
+      <c r="ALI1" s="11"/>
+      <c r="ALJ1" s="11"/>
+      <c r="ALK1" s="11"/>
+      <c r="ALL1" s="11"/>
+      <c r="ALM1" s="11"/>
+      <c r="ALN1" s="11"/>
+      <c r="ALO1" s="11"/>
+      <c r="ALP1" s="11"/>
+      <c r="ALQ1" s="11"/>
+      <c r="ALR1" s="11"/>
+      <c r="ALS1" s="11"/>
+      <c r="ALT1" s="11"/>
+      <c r="ALU1" s="11"/>
+      <c r="ALV1" s="11"/>
+      <c r="ALW1" s="11"/>
+      <c r="ALX1" s="11"/>
+      <c r="ALY1" s="11"/>
+      <c r="ALZ1" s="11"/>
+      <c r="AMA1" s="11"/>
+      <c r="AMB1" s="11"/>
+      <c r="AMC1" s="11"/>
+      <c r="AMD1" s="11"/>
+      <c r="AME1" s="11"/>
+      <c r="AMF1" s="11"/>
+      <c r="AMG1" s="11"/>
+      <c r="AMH1" s="11"/>
+      <c r="AMI1" s="11"/>
+      <c r="AMJ1" s="11"/>
+      <c r="AMK1" s="11"/>
+      <c r="AML1" s="11"/>
+      <c r="AMM1" s="11"/>
+      <c r="AMN1" s="11"/>
+      <c r="AMO1" s="11"/>
+      <c r="AMP1" s="11"/>
+      <c r="AMQ1" s="11"/>
+      <c r="AMR1" s="11"/>
+      <c r="AMS1" s="11"/>
+      <c r="AMT1" s="11"/>
+      <c r="AMU1" s="11"/>
+      <c r="AMV1" s="11"/>
+      <c r="AMW1" s="11"/>
+      <c r="AMX1" s="11"/>
+      <c r="AMY1" s="11"/>
+      <c r="AMZ1" s="11"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>7709</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>7414.05</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>7400</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>7478.26</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>7489.89</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>7760</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>7517.05</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>7474.38</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>7656.73</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>7245.45</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>7462.74</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>7474.37</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <f t="shared" ref="P2:P16" si="0">SUM(D2:O2)</f>
         <v>90081.919999999998</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>12359.3</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>12271.99</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>12469.87</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>12458.24</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>12434.95</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>12634.95</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>11501.73</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>10823.46</v>
       </c>
-      <c r="Y2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="5">
+      <c r="Y2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="4">
         <v>7099.86</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>7875.71</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <v>11586.58</v>
       </c>
       <c r="AC2" s="2">
@@ -1855,11 +2899,18 @@
         <f>SUM(AD2:AO2)</f>
         <v>165202.37</v>
       </c>
+      <c r="AQ2" s="2">
+        <v>17664.45</v>
+      </c>
+      <c r="AR2" s="2">
+        <f>SUM(AQ2)</f>
+        <v>17664.45</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
@@ -1898,7 +2949,7 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1920,22 +2971,22 @@
       <c r="V3" s="2">
         <v>0</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="4">
         <v>407</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="4">
         <v>911.2</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="4">
         <v>316.60000000000002</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="4">
         <v>121.4</v>
       </c>
-      <c r="AA3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="5">
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
         <v>0</v>
       </c>
       <c r="AC3" s="2">
@@ -1982,87 +3033,94 @@
         <f t="shared" ref="AP3:AP16" si="2">SUM(AD3:AO3)</f>
         <v>2590</v>
       </c>
+      <c r="AQ3" s="2">
+        <v>237.6</v>
+      </c>
+      <c r="AR3" s="2">
+        <f t="shared" ref="AR3:AR16" si="3">SUM(AQ3)</f>
+        <v>237.6</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
+    <row r="4" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>44.33</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>464.11</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>481.18</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>530.79999999999995</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>462.06</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>878.35</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>39.4</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>148.5</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>38130</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <f t="shared" si="0"/>
         <v>41178.730000000003</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>638</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>88</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>1172.99</v>
       </c>
       <c r="T4" s="2">
         <v>3000</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <v>75</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>4000</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>19.940000000000001</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>5346</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="4">
         <v>15.33</v>
       </c>
-      <c r="Z4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
         <v>127.4</v>
       </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="4">
         <v>1561.8</v>
       </c>
       <c r="AC4" s="2">
@@ -2110,11 +3168,18 @@
         <f t="shared" si="2"/>
         <v>20114.2</v>
       </c>
+      <c r="AQ4" s="2">
+        <v>149.54</v>
+      </c>
+      <c r="AR4" s="2">
+        <f t="shared" si="3"/>
+        <v>149.54</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2">
@@ -2138,22 +3203,22 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>12000</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -2163,13 +3228,13 @@
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>8000</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>1500</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>1500</v>
       </c>
       <c r="V5" s="2">
@@ -2237,11 +3302,18 @@
         <f t="shared" si="2"/>
         <v>30983.14</v>
       </c>
+      <c r="AQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2">
@@ -2259,10 +3331,10 @@
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>1473.3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -2271,16 +3343,16 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>1636</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>400</v>
       </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="0"/>
         <v>3509.3</v>
       </c>
@@ -2302,7 +3374,7 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <v>1803.1</v>
       </c>
       <c r="X6" s="2">
@@ -2364,11 +3436,18 @@
         <f t="shared" si="2"/>
         <v>677.74</v>
       </c>
+      <c r="AQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2">
@@ -2386,28 +3465,28 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>1296</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>1944</v>
       </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
         <v>1944</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <f t="shared" si="0"/>
         <v>5184</v>
       </c>
@@ -2417,34 +3496,34 @@
       <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>1944</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>648</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <v>648</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>648</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>648</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>648</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>648</v>
       </c>
-      <c r="Z7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5">
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
         <v>0</v>
       </c>
       <c r="AC7" s="2">
@@ -2491,11 +3570,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2">
@@ -2534,7 +3620,7 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -2556,7 +3642,7 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="4">
         <v>70000</v>
       </c>
       <c r="X8" s="2">
@@ -2618,111 +3704,118 @@
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
+      <c r="AQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:O9" si="3">SUM(D2:D8)</f>
+        <f t="shared" ref="D9:O9" si="4">SUM(D2:D8)</f>
         <v>7753.33</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7414.05</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57400</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7478.26</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7954</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11010.48</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8047.85</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19936.440000000002</v>
       </c>
       <c r="L9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10479.08</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8920.8499999999985</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8011.24</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47548.37</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <f t="shared" si="0"/>
         <v>201953.94999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ref="Q9:AB9" si="4">SUM(Q2:Q8)</f>
+        <f t="shared" ref="Q9:AB9" si="5">SUM(Q2:Q8)</f>
         <v>12997.3</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12359.99</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23586.86</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17606.239999999998</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14657.95</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17282.95</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84379.77</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17728.66</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>979.93000000000006</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7221.2599999999993</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8003.11</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14148.38</v>
       </c>
       <c r="AC9" s="2">
@@ -2730,140 +3823,148 @@
         <v>230952.4</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" ref="AD9:AO9" si="5">SUM(AD2:AD8)</f>
+        <f t="shared" ref="AD9:AO9" si="6">SUM(AD2:AD8)</f>
         <v>13881.62</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11719.26</v>
       </c>
       <c r="AF9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44012.229999999996</v>
       </c>
       <c r="AG9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40484.04</v>
       </c>
       <c r="AH9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15184.88</v>
       </c>
       <c r="AI9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13082.37</v>
       </c>
       <c r="AJ9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20539.099999999999</v>
       </c>
       <c r="AK9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13241.560000000001</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15663.35</v>
       </c>
       <c r="AM9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18121.71</v>
       </c>
       <c r="AN9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13343.89</v>
       </c>
       <c r="AO9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13293.44</v>
       </c>
       <c r="AP9" s="2">
         <f t="shared" si="2"/>
         <v>232567.45</v>
       </c>
+      <c r="AQ9" s="2">
+        <f>SUM(AQ2:AQ8)</f>
+        <v>18051.59</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="3"/>
+        <v>18051.59</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2401</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>2029.83</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>1375.56</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2699.75</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>3113.23</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>3190.37</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>1404.08</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>1836.61</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>1146.8800000000001</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>3626.41</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>1715.16</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>1728.63</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <f t="shared" si="0"/>
         <v>26267.51</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>4512.24</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>969.37</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>2381.5500000000002</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <v>6214.7</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <v>3004.41</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
         <v>9534.9</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="4">
         <v>10480.42</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="4">
         <v>6134.28</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="4">
         <v>5677.38</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="4">
         <v>2489.12</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="4">
         <v>2616.23</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="4">
         <v>1434.68</v>
       </c>
       <c r="AC10" s="2">
@@ -2911,66 +4012,73 @@
         <f t="shared" si="2"/>
         <v>54371.28</v>
       </c>
+      <c r="AQ10" s="2">
+        <v>1160.6400000000001</v>
+      </c>
+      <c r="AR10" s="2">
+        <f t="shared" si="3"/>
+        <v>1160.6400000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1230</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>3690</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>708.5</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>3962</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>4285</v>
       </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>373</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>3690</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>339</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <f t="shared" si="0"/>
         <v>18277.5</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <v>1700</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <v>5190</v>
       </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <v>5467</v>
       </c>
       <c r="V11" s="2">
@@ -3038,69 +4146,76 @@
         <f t="shared" si="2"/>
         <v>9166.5</v>
       </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
         <v>800</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>200</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>50</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>34.4</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>121</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>315.77999999999997</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>287.5</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>29</v>
       </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="0"/>
         <v>1837.68</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>454.7</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>663.4</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>373</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="4">
         <v>89</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <v>573</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="4">
         <v>217</v>
       </c>
       <c r="W12" s="2">
@@ -3166,11 +4281,18 @@
         <f t="shared" si="2"/>
         <v>106012.45999999999</v>
       </c>
+      <c r="AQ12" s="2">
+        <v>898.18</v>
+      </c>
+      <c r="AR12" s="2">
+        <f t="shared" si="3"/>
+        <v>898.18</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="2">
@@ -3209,14 +4331,14 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="4">
         <v>5000</v>
       </c>
       <c r="S13" s="2">
@@ -3293,50 +4415,57 @@
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
+      <c r="AQ13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AR13" s="2">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>3267.55</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>3332.9</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>3399.55</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -3420,111 +4549,118 @@
         <f t="shared" si="2"/>
         <v>13000</v>
       </c>
+      <c r="AQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6" t="s">
+    <row r="15" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:O15" si="6">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:O15" si="7">SUM(D10:D14)</f>
         <v>6898.55</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9852.73</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5683.6100000000006</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2749.75</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7109.6299999999992</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3311.37</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1719.86</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6409.11</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1175.8800000000001</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3999.41</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5405.16</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2067.63</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
         <f t="shared" si="0"/>
         <v>56382.689999999995</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15:AB15" si="7">SUM(Q10:Q14)</f>
+        <f t="shared" ref="Q15:AB15" si="8">SUM(Q10:Q14)</f>
         <v>4966.9399999999996</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8332.77</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7944.55</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6303.7</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9044.41</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9751.9</v>
       </c>
       <c r="W15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>118647.18</v>
       </c>
       <c r="X15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6974.28</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6496.88</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2520.0499999999997</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16734.650000000001</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3844.76</v>
       </c>
       <c r="AC15" s="2">
@@ -3532,162 +4668,170 @@
         <v>201562.06999999998</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" ref="AD15:AO15" si="8">SUM(AD10:AD14)</f>
+        <f t="shared" ref="AD15:AO15" si="9">SUM(AD10:AD14)</f>
         <v>2287.0299999999997</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5724.25</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5696.95</v>
       </c>
       <c r="AG15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>96621.119999999995</v>
       </c>
       <c r="AH15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13491.3</v>
       </c>
       <c r="AI15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11334.83</v>
       </c>
       <c r="AJ15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19276.87</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7110.69</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2893.7400000000002</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11663.15</v>
       </c>
       <c r="AN15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3420.51</v>
       </c>
       <c r="AO15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7229.8</v>
       </c>
       <c r="AP15" s="2">
         <f t="shared" si="2"/>
         <v>186750.23999999996</v>
       </c>
+      <c r="AQ15" s="2">
+        <f>SUM(AQ10:AQ14)</f>
+        <v>7058.82</v>
+      </c>
+      <c r="AR15" s="2">
+        <f t="shared" si="3"/>
+        <v>7058.82</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:1040" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:O16" si="9">D9-D15</f>
+        <f t="shared" ref="D16:O16" si="10">D9-D15</f>
         <v>854.77999999999975</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2438.6799999999994</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51716.39</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4728.51</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>844.3700000000008</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7699.11</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6327.9900000000007</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13527.330000000002</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9303.2000000000007</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45480.740000000005</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <f t="shared" si="0"/>
         <v>145571.26</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:AB16" si="10">Q9-Q15</f>
+        <f t="shared" ref="Q16:AB16" si="11">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15642.310000000001</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11302.539999999997</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-8731.5400000000009</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10303.619999999999</v>
       </c>
       <c r="AC16" s="2">
@@ -3695,139 +4839,147 @@
         <v>29390.330000000005</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" ref="AD16:AO16" si="11">AD9-AD15</f>
+        <f t="shared" ref="AD16:AO16" si="12">AD9-AD15</f>
         <v>11594.59</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5995.01</v>
       </c>
       <c r="AF16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>38315.279999999999</v>
       </c>
       <c r="AG16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-56137.079999999994</v>
       </c>
       <c r="AH16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1693.58</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1747.5400000000009</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1262.2299999999996</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6130.8700000000017</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12769.61</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6458.5599999999995</v>
       </c>
       <c r="AN16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9923.3799999999992</v>
       </c>
       <c r="AO16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6063.64</v>
       </c>
       <c r="AP16" s="2">
         <f t="shared" si="2"/>
         <v>45817.21</v>
       </c>
+      <c r="AQ16" s="2">
+        <f>AQ9-AQ15</f>
+        <v>10992.77</v>
+      </c>
+      <c r="AR16" s="2">
+        <f t="shared" si="3"/>
+        <v>10992.77</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>33513</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>24751.65</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>12634.85</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>15093.47</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>20420.09</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>17543.490000000002</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>18868.080000000002</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>14888.84</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>14978.06</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>15287.33</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>18661.650000000001</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <v>16076.11</v>
       </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4">
         <v>15240.57</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="4">
         <v>12701.39</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
         <v>9350.41</v>
       </c>
-      <c r="T17" s="5">
+      <c r="T17" s="4">
         <v>14222.96</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="4">
         <v>18253.05</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="4">
         <v>23645.57</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="4">
         <v>19546.21</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="4">
         <v>19342.560000000001</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="4">
         <v>8015.72</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="Z17" s="4">
         <v>8114.54</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="4">
         <v>8847.98</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="4">
         <v>8655.3700000000008</v>
       </c>
       <c r="AD17" s="2">
@@ -3866,84 +5018,87 @@
       <c r="AO17" s="2">
         <v>0</v>
       </c>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="6" t="s">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>24162</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>11155.93</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>37081.440000000002</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>8361.0400000000009</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>7792.74</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>9341.4699999999993</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>7021.05</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>12564.52</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>6163.61</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <v>3693.43</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>1889.28</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <v>49351.22</v>
       </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4">
         <v>1267.53</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <v>29512.69</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <v>14141.27</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="4">
         <v>13952.84</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="4">
         <v>16678.45</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="4">
         <v>21344.31</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="4">
         <v>7678.26</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="4">
         <v>9513.39</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="4">
         <v>13126.19</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" s="4">
         <v>570.70000000000005</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="4">
         <v>6710.55</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="4">
         <v>6697.56</v>
       </c>
       <c r="AD18" s="2">
@@ -3983,84 +5138,87 @@
       <c r="AO18" s="2">
         <v>55824.11</v>
       </c>
+      <c r="AQ18" s="2">
+        <v>65999.83</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6" t="s">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
         <v>20000</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>20051.439999999999</v>
       </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5">
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
         <v>4009.06</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="4">
         <v>6015.57</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="4">
         <v>16029.84</v>
       </c>
-      <c r="AA19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5">
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
         <v>6011.43</v>
       </c>
       <c r="AD19" s="2">
@@ -4099,84 +5257,87 @@
       <c r="AO19" s="2">
         <v>22583.14</v>
       </c>
+      <c r="AQ19" s="2">
+        <v>22583.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="6" t="s">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
-        <v>0</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4">
         <v>3580.23</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="4">
         <v>4451.5200000000004</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="4">
         <v>4647.49</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="4">
         <v>2252.86</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="4">
         <v>1598.05</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="4">
         <v>859.81</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
-      <c r="X20" s="5">
+      <c r="X20" s="4">
         <v>2106.7600000000002</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="4">
         <v>2786.56</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" s="4">
         <v>3531.46</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="4">
         <v>4313.3599999999997</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB20" s="4">
         <v>5662.84</v>
       </c>
       <c r="AD20" s="2">
@@ -4215,50 +5376,53 @@
       <c r="AO20" s="2">
         <v>10200.4</v>
       </c>
+      <c r="AQ20" s="2">
+        <v>10063.200000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="6" t="s">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>10009.5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>30022.74</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>19984.47</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>19998.32</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="5">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" s="5"/>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4"/>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
@@ -4331,84 +5495,87 @@
       <c r="AO21" s="2">
         <v>0</v>
       </c>
+      <c r="AQ21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6" t="s">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>28940</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>43024.44</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>72264.17</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>96752.12</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>126725.83</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>143531.51999999999</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>136197.87</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>157196.16</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>171682.53</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <v>188902.16</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <v>185183.64</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <v>201931.89</v>
       </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4">
         <v>245166.97</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <v>236862.74</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="4">
         <v>253011.81</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="4">
         <v>287422.03999999998</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="4">
         <v>312091.25</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="4">
         <v>358454.98</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="4">
         <v>369739.11</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="4">
         <v>354784.18</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="4">
         <v>352905.69</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z22" s="4">
         <v>371385.53</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="4">
         <v>382911.99</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB22" s="4">
         <v>399438.3</v>
       </c>
       <c r="AD22" s="2">
@@ -4447,164 +5614,171 @@
       <c r="AO22" s="2">
         <v>461831.26</v>
       </c>
+      <c r="AQ22" s="2">
+        <v>415703.37</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6" t="s">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" ref="D23:O23" si="12">SUM(D17:D22)</f>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:O23" si="13">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
-      <c r="E23" s="7">
-        <f t="shared" si="12"/>
+      <c r="E23" s="6">
+        <f t="shared" si="13"/>
         <v>108954.76000000001</v>
       </c>
-      <c r="F23" s="7">
-        <f t="shared" si="12"/>
+      <c r="F23" s="6">
+        <f t="shared" si="13"/>
         <v>161964.93</v>
       </c>
-      <c r="G23" s="7">
-        <f t="shared" si="12"/>
+      <c r="G23" s="6">
+        <f t="shared" si="13"/>
         <v>160256.38999999998</v>
       </c>
-      <c r="H23" s="7">
-        <f t="shared" si="12"/>
+      <c r="H23" s="6">
+        <f t="shared" si="13"/>
         <v>154938.66</v>
       </c>
-      <c r="I23" s="7">
-        <f t="shared" si="12"/>
+      <c r="I23" s="6">
+        <f t="shared" si="13"/>
         <v>170416.47999999998</v>
       </c>
-      <c r="J23" s="7">
-        <f t="shared" si="12"/>
+      <c r="J23" s="6">
+        <f t="shared" si="13"/>
         <v>162087</v>
       </c>
-      <c r="K23" s="7">
-        <f t="shared" si="12"/>
+      <c r="K23" s="6">
+        <f t="shared" si="13"/>
         <v>184649.52000000002</v>
       </c>
-      <c r="L23" s="7">
-        <f t="shared" si="12"/>
+      <c r="L23" s="6">
+        <f t="shared" si="13"/>
         <v>192824.2</v>
       </c>
-      <c r="M23" s="7">
-        <f t="shared" si="12"/>
+      <c r="M23" s="6">
+        <f t="shared" si="13"/>
         <v>207882.92</v>
       </c>
-      <c r="N23" s="7">
-        <f t="shared" si="12"/>
+      <c r="N23" s="6">
+        <f t="shared" si="13"/>
         <v>205734.57</v>
       </c>
-      <c r="O23" s="7">
-        <f t="shared" si="12"/>
+      <c r="O23" s="6">
+        <f t="shared" si="13"/>
         <v>267359.22000000003</v>
       </c>
-      <c r="Q23" s="7">
-        <f t="shared" ref="Q23:AB23" si="13">SUM(Q17:Q22)</f>
+      <c r="Q23" s="6">
+        <f t="shared" ref="Q23:AB23" si="14">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
-      <c r="R23" s="7">
-        <f t="shared" si="13"/>
+      <c r="R23" s="6">
+        <f t="shared" si="14"/>
         <v>283528.33999999997</v>
       </c>
-      <c r="S23" s="7">
-        <f t="shared" si="13"/>
+      <c r="S23" s="6">
+        <f t="shared" si="14"/>
         <v>281150.98</v>
       </c>
-      <c r="T23" s="7">
-        <f t="shared" si="13"/>
+      <c r="T23" s="6">
+        <f t="shared" si="14"/>
         <v>317850.69999999995</v>
       </c>
-      <c r="U23" s="7">
-        <f t="shared" si="13"/>
+      <c r="U23" s="6">
+        <f t="shared" si="14"/>
         <v>348620.79999999999</v>
       </c>
-      <c r="V23" s="7">
-        <f t="shared" si="13"/>
+      <c r="V23" s="6">
+        <f t="shared" si="14"/>
         <v>404304.67</v>
       </c>
-      <c r="W23" s="7">
-        <f t="shared" si="13"/>
+      <c r="W23" s="6">
+        <f t="shared" si="14"/>
         <v>396963.57999999996</v>
       </c>
-      <c r="X23" s="7">
-        <f t="shared" si="13"/>
+      <c r="X23" s="6">
+        <f t="shared" si="14"/>
         <v>389755.95</v>
       </c>
-      <c r="Y23" s="7">
-        <f t="shared" si="13"/>
+      <c r="Y23" s="6">
+        <f t="shared" si="14"/>
         <v>382849.73</v>
       </c>
-      <c r="Z23" s="7">
-        <f t="shared" si="13"/>
+      <c r="Z23" s="6">
+        <f t="shared" si="14"/>
         <v>399632.07</v>
       </c>
-      <c r="AA23" s="7">
-        <f t="shared" si="13"/>
+      <c r="AA23" s="6">
+        <f t="shared" si="14"/>
         <v>402783.88</v>
       </c>
-      <c r="AB23" s="7">
-        <f t="shared" si="13"/>
+      <c r="AB23" s="6">
+        <f t="shared" si="14"/>
         <v>426465.5</v>
       </c>
-      <c r="AD23" s="7">
-        <f t="shared" ref="AD23:AO23" si="14">SUM(AD17:AD22)</f>
+      <c r="AD23" s="6">
+        <f t="shared" ref="AD23:AO23" si="15">SUM(AD17:AD22)</f>
         <v>477902.41000000003</v>
       </c>
-      <c r="AE23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AE23" s="6">
+        <f t="shared" si="15"/>
         <v>480280.69</v>
       </c>
-      <c r="AF23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AF23" s="6">
+        <f t="shared" si="15"/>
         <v>511218.75</v>
       </c>
-      <c r="AG23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AG23" s="6">
+        <f t="shared" si="15"/>
         <v>478512.67</v>
       </c>
-      <c r="AH23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AH23" s="6">
+        <f t="shared" si="15"/>
         <v>497675.39</v>
       </c>
-      <c r="AI23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AI23" s="6">
+        <f t="shared" si="15"/>
         <v>469790.32</v>
       </c>
-      <c r="AJ23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AJ23" s="6">
+        <f t="shared" si="15"/>
         <v>439295.72</v>
       </c>
-      <c r="AK23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AK23" s="6">
+        <f t="shared" si="15"/>
         <v>438284.74</v>
       </c>
-      <c r="AL23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AL23" s="6">
+        <f t="shared" si="15"/>
         <v>461844.95</v>
       </c>
-      <c r="AM23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AM23" s="6">
+        <f t="shared" si="15"/>
         <v>498589.38</v>
       </c>
-      <c r="AN23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AN23" s="6">
+        <f t="shared" si="15"/>
         <v>511524.07</v>
       </c>
-      <c r="AO23" s="7">
-        <f t="shared" si="14"/>
+      <c r="AO23" s="6">
+        <f t="shared" si="15"/>
         <v>550438.91</v>
       </c>
+      <c r="AQ23" s="14">
+        <f>SUM(AQ17:AQ22)</f>
+        <v>514349.54</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="2">
@@ -4627,31 +5801,31 @@
         <v>99999.999999999985</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" ref="I24:O24" si="15">G24+I8-I14</f>
+        <f t="shared" ref="I24:O24" si="16">G24+I8-I14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="2">
@@ -4659,47 +5833,47 @@
         <v>99999.999999999985</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:AB24" si="16">Q24+R8-R14</f>
+        <f t="shared" ref="R24:AB24" si="17">Q24+R8-R14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>99999.999999999985</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>99999.999999999985</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>99999.999999999985</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>99999.999999999985</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170000</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170000</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170000</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170000</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>156000</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>156000</v>
       </c>
       <c r="AD24" s="2">
@@ -4707,199 +5881,207 @@
         <v>156000</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" ref="AE24:AO24" si="17">AD24+AE8-AE14</f>
+        <f t="shared" ref="AE24:AO24" si="18">AD24+AE8-AE14</f>
         <v>156000</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AN24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
       <c r="AO24" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156000</v>
       </c>
+      <c r="AQ24" s="2">
+        <f>AO24+AQ8-AQ14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7">
-        <f t="shared" ref="D25:O25" si="18">D23-D24</f>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:O25" si="19">D23-D24</f>
         <v>39892.050000000003</v>
       </c>
-      <c r="E25" s="7">
-        <f t="shared" si="18"/>
+      <c r="E25" s="6">
+        <f t="shared" si="19"/>
         <v>55555.210000000014</v>
       </c>
-      <c r="F25" s="7">
-        <f t="shared" si="18"/>
+      <c r="F25" s="6">
+        <f t="shared" si="19"/>
         <v>61964.930000000008</v>
       </c>
-      <c r="G25" s="7">
-        <f t="shared" si="18"/>
+      <c r="G25" s="6">
+        <f t="shared" si="19"/>
         <v>60256.39</v>
       </c>
-      <c r="H25" s="7">
-        <f t="shared" si="18"/>
+      <c r="H25" s="6">
+        <f t="shared" si="19"/>
         <v>54938.660000000018</v>
       </c>
-      <c r="I25" s="7">
-        <f t="shared" si="18"/>
+      <c r="I25" s="6">
+        <f t="shared" si="19"/>
         <v>70416.479999999996</v>
       </c>
-      <c r="J25" s="7">
-        <f t="shared" si="18"/>
+      <c r="J25" s="6">
+        <f t="shared" si="19"/>
         <v>62087.000000000015</v>
       </c>
-      <c r="K25" s="7">
-        <f t="shared" si="18"/>
+      <c r="K25" s="6">
+        <f t="shared" si="19"/>
         <v>84649.520000000033</v>
       </c>
-      <c r="L25" s="7">
-        <f t="shared" si="18"/>
+      <c r="L25" s="6">
+        <f t="shared" si="19"/>
         <v>92824.200000000026</v>
       </c>
-      <c r="M25" s="7">
-        <f t="shared" si="18"/>
+      <c r="M25" s="6">
+        <f t="shared" si="19"/>
         <v>107882.92000000003</v>
       </c>
-      <c r="N25" s="7">
-        <f t="shared" si="18"/>
+      <c r="N25" s="6">
+        <f t="shared" si="19"/>
         <v>105734.57000000002</v>
       </c>
-      <c r="O25" s="7">
-        <f t="shared" si="18"/>
+      <c r="O25" s="6">
+        <f t="shared" si="19"/>
         <v>167359.22000000003</v>
       </c>
-      <c r="Q25" s="7">
-        <f t="shared" ref="Q25:AB25" si="19">Q23-Q24</f>
+      <c r="Q25" s="6">
+        <f t="shared" ref="Q25:AB25" si="20">Q23-Q24</f>
         <v>165255.29999999999</v>
       </c>
-      <c r="R25" s="7">
-        <f t="shared" si="19"/>
+      <c r="R25" s="6">
+        <f t="shared" si="20"/>
         <v>183528.33999999997</v>
       </c>
-      <c r="S25" s="7">
-        <f t="shared" si="19"/>
+      <c r="S25" s="6">
+        <f t="shared" si="20"/>
         <v>181150.97999999998</v>
       </c>
-      <c r="T25" s="7">
-        <f t="shared" si="19"/>
+      <c r="T25" s="6">
+        <f t="shared" si="20"/>
         <v>217850.69999999995</v>
       </c>
-      <c r="U25" s="7">
-        <f t="shared" si="19"/>
+      <c r="U25" s="6">
+        <f t="shared" si="20"/>
         <v>248620.79999999999</v>
       </c>
-      <c r="V25" s="7">
-        <f t="shared" si="19"/>
+      <c r="V25" s="6">
+        <f t="shared" si="20"/>
         <v>304304.67</v>
       </c>
-      <c r="W25" s="7">
-        <f t="shared" si="19"/>
+      <c r="W25" s="6">
+        <f t="shared" si="20"/>
         <v>226963.57999999996</v>
       </c>
-      <c r="X25" s="7">
-        <f t="shared" si="19"/>
+      <c r="X25" s="6">
+        <f t="shared" si="20"/>
         <v>219755.95</v>
       </c>
-      <c r="Y25" s="7">
-        <f t="shared" si="19"/>
+      <c r="Y25" s="6">
+        <f t="shared" si="20"/>
         <v>212849.72999999998</v>
       </c>
-      <c r="Z25" s="7">
-        <f t="shared" si="19"/>
+      <c r="Z25" s="6">
+        <f t="shared" si="20"/>
         <v>229632.07</v>
       </c>
-      <c r="AA25" s="7">
-        <f t="shared" si="19"/>
+      <c r="AA25" s="6">
+        <f t="shared" si="20"/>
         <v>246783.88</v>
       </c>
-      <c r="AB25" s="7">
-        <f t="shared" si="19"/>
+      <c r="AB25" s="6">
+        <f t="shared" si="20"/>
         <v>270465.5</v>
       </c>
-      <c r="AD25" s="7">
-        <f t="shared" ref="AD25:AO25" si="20">AD23-AD24</f>
+      <c r="AD25" s="6">
+        <f t="shared" ref="AD25:AO25" si="21">AD23-AD24</f>
         <v>321902.41000000003</v>
       </c>
-      <c r="AE25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AE25" s="6">
+        <f t="shared" si="21"/>
         <v>324280.69</v>
       </c>
-      <c r="AF25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AF25" s="6">
+        <f t="shared" si="21"/>
         <v>355218.75</v>
       </c>
-      <c r="AG25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AG25" s="6">
+        <f t="shared" si="21"/>
         <v>322512.67</v>
       </c>
-      <c r="AH25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AH25" s="6">
+        <f t="shared" si="21"/>
         <v>341675.39</v>
       </c>
-      <c r="AI25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AI25" s="6">
+        <f t="shared" si="21"/>
         <v>313790.32</v>
       </c>
-      <c r="AJ25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AJ25" s="6">
+        <f t="shared" si="21"/>
         <v>283295.71999999997</v>
       </c>
-      <c r="AK25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AK25" s="6">
+        <f t="shared" si="21"/>
         <v>282284.74</v>
       </c>
-      <c r="AL25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AL25" s="6">
+        <f t="shared" si="21"/>
         <v>305844.95</v>
       </c>
-      <c r="AM25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AM25" s="6">
+        <f t="shared" si="21"/>
         <v>342589.38</v>
       </c>
-      <c r="AN25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AN25" s="6">
+        <f t="shared" si="21"/>
         <v>355524.07</v>
       </c>
-      <c r="AO25" s="7">
-        <f t="shared" si="20"/>
+      <c r="AO25" s="6">
+        <f t="shared" si="21"/>
         <v>394438.91000000003</v>
+      </c>
+      <c r="AQ25" s="14">
+        <f>AQ23-AQ24</f>
+        <v>358349.54</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4FB65-427F-423A-85FA-F13547A8479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF97F9AE-B6D1-4521-993D-FE3861AC1C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,15 +311,6 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,6 +320,15 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,9 +527,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AQ$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AR$1)</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -640,16 +640,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2022/01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022/02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AQ$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AR$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -760,6 +763,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>514349.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>528443.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,9 +836,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AQ$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AR$1)</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -943,16 +949,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2022/01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022/02</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AQ$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AR$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1063,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>358349.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>372443.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,11 +1630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMZ25"/>
+  <dimension ref="A1:ANA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L26" sqref="L26"/>
+      <selection pane="topRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1637,18 +1649,18 @@
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
     <col min="30" max="41" width="11.25" style="2" customWidth="1"/>
     <col min="42" max="42" width="12" style="2" customWidth="1"/>
-    <col min="43" max="43" width="10.5" style="2" customWidth="1"/>
-    <col min="44" max="44" width="12.25" style="2" customWidth="1"/>
-    <col min="45" max="84" width="10.5" style="2" customWidth="1"/>
-    <col min="85" max="1040" width="10.5" style="1" customWidth="1"/>
+    <col min="43" max="44" width="10.5" style="2" customWidth="1"/>
+    <col min="45" max="45" width="12.25" style="2" customWidth="1"/>
+    <col min="46" max="85" width="10.5" style="2" customWidth="1"/>
+    <col min="86" max="1041" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1040" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+    <row r="1" spans="1:1041" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1769,1011 +1781,1014 @@
       <c r="AQ1" s="7">
         <v>44562</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="7">
+        <v>44593</v>
+      </c>
+      <c r="AS1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="11"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="11"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="11"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="11"/>
-      <c r="CH1" s="11"/>
-      <c r="CI1" s="11"/>
-      <c r="CJ1" s="11"/>
-      <c r="CK1" s="11"/>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="11"/>
-      <c r="CU1" s="11"/>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="11"/>
-      <c r="DA1" s="11"/>
-      <c r="DB1" s="11"/>
-      <c r="DC1" s="11"/>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="11"/>
-      <c r="DF1" s="11"/>
-      <c r="DG1" s="11"/>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
-      <c r="DJ1" s="11"/>
-      <c r="DK1" s="11"/>
-      <c r="DL1" s="11"/>
-      <c r="DM1" s="11"/>
-      <c r="DN1" s="11"/>
-      <c r="DO1" s="11"/>
-      <c r="DP1" s="11"/>
-      <c r="DQ1" s="11"/>
-      <c r="DR1" s="11"/>
-      <c r="DS1" s="11"/>
-      <c r="DT1" s="11"/>
-      <c r="DU1" s="11"/>
-      <c r="DV1" s="11"/>
-      <c r="DW1" s="11"/>
-      <c r="DX1" s="11"/>
-      <c r="DY1" s="11"/>
-      <c r="DZ1" s="11"/>
-      <c r="EA1" s="11"/>
-      <c r="EB1" s="11"/>
-      <c r="EC1" s="11"/>
-      <c r="ED1" s="11"/>
-      <c r="EE1" s="11"/>
-      <c r="EF1" s="11"/>
-      <c r="EG1" s="11"/>
-      <c r="EH1" s="11"/>
-      <c r="EI1" s="11"/>
-      <c r="EJ1" s="11"/>
-      <c r="EK1" s="11"/>
-      <c r="EL1" s="11"/>
-      <c r="EM1" s="11"/>
-      <c r="EN1" s="11"/>
-      <c r="EO1" s="11"/>
-      <c r="EP1" s="11"/>
-      <c r="EQ1" s="11"/>
-      <c r="ER1" s="11"/>
-      <c r="ES1" s="11"/>
-      <c r="ET1" s="11"/>
-      <c r="EU1" s="11"/>
-      <c r="EV1" s="11"/>
-      <c r="EW1" s="11"/>
-      <c r="EX1" s="11"/>
-      <c r="EY1" s="11"/>
-      <c r="EZ1" s="11"/>
-      <c r="FA1" s="11"/>
-      <c r="FB1" s="11"/>
-      <c r="FC1" s="11"/>
-      <c r="FD1" s="11"/>
-      <c r="FE1" s="11"/>
-      <c r="FF1" s="11"/>
-      <c r="FG1" s="11"/>
-      <c r="FH1" s="11"/>
-      <c r="FI1" s="11"/>
-      <c r="FJ1" s="11"/>
-      <c r="FK1" s="11"/>
-      <c r="FL1" s="11"/>
-      <c r="FM1" s="11"/>
-      <c r="FN1" s="11"/>
-      <c r="FO1" s="11"/>
-      <c r="FP1" s="11"/>
-      <c r="FQ1" s="11"/>
-      <c r="FR1" s="11"/>
-      <c r="FS1" s="11"/>
-      <c r="FT1" s="11"/>
-      <c r="FU1" s="11"/>
-      <c r="FV1" s="11"/>
-      <c r="FW1" s="11"/>
-      <c r="FX1" s="11"/>
-      <c r="FY1" s="11"/>
-      <c r="FZ1" s="11"/>
-      <c r="GA1" s="11"/>
-      <c r="GB1" s="11"/>
-      <c r="GC1" s="11"/>
-      <c r="GD1" s="11"/>
-      <c r="GE1" s="11"/>
-      <c r="GF1" s="11"/>
-      <c r="GG1" s="11"/>
-      <c r="GH1" s="11"/>
-      <c r="GI1" s="11"/>
-      <c r="GJ1" s="11"/>
-      <c r="GK1" s="11"/>
-      <c r="GL1" s="11"/>
-      <c r="GM1" s="11"/>
-      <c r="GN1" s="11"/>
-      <c r="GO1" s="11"/>
-      <c r="GP1" s="11"/>
-      <c r="GQ1" s="11"/>
-      <c r="GR1" s="11"/>
-      <c r="GS1" s="11"/>
-      <c r="GT1" s="11"/>
-      <c r="GU1" s="11"/>
-      <c r="GV1" s="11"/>
-      <c r="GW1" s="11"/>
-      <c r="GX1" s="11"/>
-      <c r="GY1" s="11"/>
-      <c r="GZ1" s="11"/>
-      <c r="HA1" s="11"/>
-      <c r="HB1" s="11"/>
-      <c r="HC1" s="11"/>
-      <c r="HD1" s="11"/>
-      <c r="HE1" s="11"/>
-      <c r="HF1" s="11"/>
-      <c r="HG1" s="11"/>
-      <c r="HH1" s="11"/>
-      <c r="HI1" s="11"/>
-      <c r="HJ1" s="11"/>
-      <c r="HK1" s="11"/>
-      <c r="HL1" s="11"/>
-      <c r="HM1" s="11"/>
-      <c r="HN1" s="11"/>
-      <c r="HO1" s="11"/>
-      <c r="HP1" s="11"/>
-      <c r="HQ1" s="11"/>
-      <c r="HR1" s="11"/>
-      <c r="HS1" s="11"/>
-      <c r="HT1" s="11"/>
-      <c r="HU1" s="11"/>
-      <c r="HV1" s="11"/>
-      <c r="HW1" s="11"/>
-      <c r="HX1" s="11"/>
-      <c r="HY1" s="11"/>
-      <c r="HZ1" s="11"/>
-      <c r="IA1" s="11"/>
-      <c r="IB1" s="11"/>
-      <c r="IC1" s="11"/>
-      <c r="ID1" s="11"/>
-      <c r="IE1" s="11"/>
-      <c r="IF1" s="11"/>
-      <c r="IG1" s="11"/>
-      <c r="IH1" s="11"/>
-      <c r="II1" s="11"/>
-      <c r="IJ1" s="11"/>
-      <c r="IK1" s="11"/>
-      <c r="IL1" s="11"/>
-      <c r="IM1" s="11"/>
-      <c r="IN1" s="11"/>
-      <c r="IO1" s="11"/>
-      <c r="IP1" s="11"/>
-      <c r="IQ1" s="11"/>
-      <c r="IR1" s="11"/>
-      <c r="IS1" s="11"/>
-      <c r="IT1" s="11"/>
-      <c r="IU1" s="11"/>
-      <c r="IV1" s="11"/>
-      <c r="IW1" s="11"/>
-      <c r="IX1" s="11"/>
-      <c r="IY1" s="11"/>
-      <c r="IZ1" s="11"/>
-      <c r="JA1" s="11"/>
-      <c r="JB1" s="11"/>
-      <c r="JC1" s="11"/>
-      <c r="JD1" s="11"/>
-      <c r="JE1" s="11"/>
-      <c r="JF1" s="11"/>
-      <c r="JG1" s="11"/>
-      <c r="JH1" s="11"/>
-      <c r="JI1" s="11"/>
-      <c r="JJ1" s="11"/>
-      <c r="JK1" s="11"/>
-      <c r="JL1" s="11"/>
-      <c r="JM1" s="11"/>
-      <c r="JN1" s="11"/>
-      <c r="JO1" s="11"/>
-      <c r="JP1" s="11"/>
-      <c r="JQ1" s="11"/>
-      <c r="JR1" s="11"/>
-      <c r="JS1" s="11"/>
-      <c r="JT1" s="11"/>
-      <c r="JU1" s="11"/>
-      <c r="JV1" s="11"/>
-      <c r="JW1" s="11"/>
-      <c r="JX1" s="11"/>
-      <c r="JY1" s="11"/>
-      <c r="JZ1" s="11"/>
-      <c r="KA1" s="11"/>
-      <c r="KB1" s="11"/>
-      <c r="KC1" s="11"/>
-      <c r="KD1" s="11"/>
-      <c r="KE1" s="11"/>
-      <c r="KF1" s="11"/>
-      <c r="KG1" s="11"/>
-      <c r="KH1" s="11"/>
-      <c r="KI1" s="11"/>
-      <c r="KJ1" s="11"/>
-      <c r="KK1" s="11"/>
-      <c r="KL1" s="11"/>
-      <c r="KM1" s="11"/>
-      <c r="KN1" s="11"/>
-      <c r="KO1" s="11"/>
-      <c r="KP1" s="11"/>
-      <c r="KQ1" s="11"/>
-      <c r="KR1" s="11"/>
-      <c r="KS1" s="11"/>
-      <c r="KT1" s="11"/>
-      <c r="KU1" s="11"/>
-      <c r="KV1" s="11"/>
-      <c r="KW1" s="11"/>
-      <c r="KX1" s="11"/>
-      <c r="KY1" s="11"/>
-      <c r="KZ1" s="11"/>
-      <c r="LA1" s="11"/>
-      <c r="LB1" s="11"/>
-      <c r="LC1" s="11"/>
-      <c r="LD1" s="11"/>
-      <c r="LE1" s="11"/>
-      <c r="LF1" s="11"/>
-      <c r="LG1" s="11"/>
-      <c r="LH1" s="11"/>
-      <c r="LI1" s="11"/>
-      <c r="LJ1" s="11"/>
-      <c r="LK1" s="11"/>
-      <c r="LL1" s="11"/>
-      <c r="LM1" s="11"/>
-      <c r="LN1" s="11"/>
-      <c r="LO1" s="11"/>
-      <c r="LP1" s="11"/>
-      <c r="LQ1" s="11"/>
-      <c r="LR1" s="11"/>
-      <c r="LS1" s="11"/>
-      <c r="LT1" s="11"/>
-      <c r="LU1" s="11"/>
-      <c r="LV1" s="11"/>
-      <c r="LW1" s="11"/>
-      <c r="LX1" s="11"/>
-      <c r="LY1" s="11"/>
-      <c r="LZ1" s="11"/>
-      <c r="MA1" s="11"/>
-      <c r="MB1" s="11"/>
-      <c r="MC1" s="11"/>
-      <c r="MD1" s="11"/>
-      <c r="ME1" s="11"/>
-      <c r="MF1" s="11"/>
-      <c r="MG1" s="11"/>
-      <c r="MH1" s="11"/>
-      <c r="MI1" s="11"/>
-      <c r="MJ1" s="11"/>
-      <c r="MK1" s="11"/>
-      <c r="ML1" s="11"/>
-      <c r="MM1" s="11"/>
-      <c r="MN1" s="11"/>
-      <c r="MO1" s="11"/>
-      <c r="MP1" s="11"/>
-      <c r="MQ1" s="11"/>
-      <c r="MR1" s="11"/>
-      <c r="MS1" s="11"/>
-      <c r="MT1" s="11"/>
-      <c r="MU1" s="11"/>
-      <c r="MV1" s="11"/>
-      <c r="MW1" s="11"/>
-      <c r="MX1" s="11"/>
-      <c r="MY1" s="11"/>
-      <c r="MZ1" s="11"/>
-      <c r="NA1" s="11"/>
-      <c r="NB1" s="11"/>
-      <c r="NC1" s="11"/>
-      <c r="ND1" s="11"/>
-      <c r="NE1" s="11"/>
-      <c r="NF1" s="11"/>
-      <c r="NG1" s="11"/>
-      <c r="NH1" s="11"/>
-      <c r="NI1" s="11"/>
-      <c r="NJ1" s="11"/>
-      <c r="NK1" s="11"/>
-      <c r="NL1" s="11"/>
-      <c r="NM1" s="11"/>
-      <c r="NN1" s="11"/>
-      <c r="NO1" s="11"/>
-      <c r="NP1" s="11"/>
-      <c r="NQ1" s="11"/>
-      <c r="NR1" s="11"/>
-      <c r="NS1" s="11"/>
-      <c r="NT1" s="11"/>
-      <c r="NU1" s="11"/>
-      <c r="NV1" s="11"/>
-      <c r="NW1" s="11"/>
-      <c r="NX1" s="11"/>
-      <c r="NY1" s="11"/>
-      <c r="NZ1" s="11"/>
-      <c r="OA1" s="11"/>
-      <c r="OB1" s="11"/>
-      <c r="OC1" s="11"/>
-      <c r="OD1" s="11"/>
-      <c r="OE1" s="11"/>
-      <c r="OF1" s="11"/>
-      <c r="OG1" s="11"/>
-      <c r="OH1" s="11"/>
-      <c r="OI1" s="11"/>
-      <c r="OJ1" s="11"/>
-      <c r="OK1" s="11"/>
-      <c r="OL1" s="11"/>
-      <c r="OM1" s="11"/>
-      <c r="ON1" s="11"/>
-      <c r="OO1" s="11"/>
-      <c r="OP1" s="11"/>
-      <c r="OQ1" s="11"/>
-      <c r="OR1" s="11"/>
-      <c r="OS1" s="11"/>
-      <c r="OT1" s="11"/>
-      <c r="OU1" s="11"/>
-      <c r="OV1" s="11"/>
-      <c r="OW1" s="11"/>
-      <c r="OX1" s="11"/>
-      <c r="OY1" s="11"/>
-      <c r="OZ1" s="11"/>
-      <c r="PA1" s="11"/>
-      <c r="PB1" s="11"/>
-      <c r="PC1" s="11"/>
-      <c r="PD1" s="11"/>
-      <c r="PE1" s="11"/>
-      <c r="PF1" s="11"/>
-      <c r="PG1" s="11"/>
-      <c r="PH1" s="11"/>
-      <c r="PI1" s="11"/>
-      <c r="PJ1" s="11"/>
-      <c r="PK1" s="11"/>
-      <c r="PL1" s="11"/>
-      <c r="PM1" s="11"/>
-      <c r="PN1" s="11"/>
-      <c r="PO1" s="11"/>
-      <c r="PP1" s="11"/>
-      <c r="PQ1" s="11"/>
-      <c r="PR1" s="11"/>
-      <c r="PS1" s="11"/>
-      <c r="PT1" s="11"/>
-      <c r="PU1" s="11"/>
-      <c r="PV1" s="11"/>
-      <c r="PW1" s="11"/>
-      <c r="PX1" s="11"/>
-      <c r="PY1" s="11"/>
-      <c r="PZ1" s="11"/>
-      <c r="QA1" s="11"/>
-      <c r="QB1" s="11"/>
-      <c r="QC1" s="11"/>
-      <c r="QD1" s="11"/>
-      <c r="QE1" s="11"/>
-      <c r="QF1" s="11"/>
-      <c r="QG1" s="11"/>
-      <c r="QH1" s="11"/>
-      <c r="QI1" s="11"/>
-      <c r="QJ1" s="11"/>
-      <c r="QK1" s="11"/>
-      <c r="QL1" s="11"/>
-      <c r="QM1" s="11"/>
-      <c r="QN1" s="11"/>
-      <c r="QO1" s="11"/>
-      <c r="QP1" s="11"/>
-      <c r="QQ1" s="11"/>
-      <c r="QR1" s="11"/>
-      <c r="QS1" s="11"/>
-      <c r="QT1" s="11"/>
-      <c r="QU1" s="11"/>
-      <c r="QV1" s="11"/>
-      <c r="QW1" s="11"/>
-      <c r="QX1" s="11"/>
-      <c r="QY1" s="11"/>
-      <c r="QZ1" s="11"/>
-      <c r="RA1" s="11"/>
-      <c r="RB1" s="11"/>
-      <c r="RC1" s="11"/>
-      <c r="RD1" s="11"/>
-      <c r="RE1" s="11"/>
-      <c r="RF1" s="11"/>
-      <c r="RG1" s="11"/>
-      <c r="RH1" s="11"/>
-      <c r="RI1" s="11"/>
-      <c r="RJ1" s="11"/>
-      <c r="RK1" s="11"/>
-      <c r="RL1" s="11"/>
-      <c r="RM1" s="11"/>
-      <c r="RN1" s="11"/>
-      <c r="RO1" s="11"/>
-      <c r="RP1" s="11"/>
-      <c r="RQ1" s="11"/>
-      <c r="RR1" s="11"/>
-      <c r="RS1" s="11"/>
-      <c r="RT1" s="11"/>
-      <c r="RU1" s="11"/>
-      <c r="RV1" s="11"/>
-      <c r="RW1" s="11"/>
-      <c r="RX1" s="11"/>
-      <c r="RY1" s="11"/>
-      <c r="RZ1" s="11"/>
-      <c r="SA1" s="11"/>
-      <c r="SB1" s="11"/>
-      <c r="SC1" s="11"/>
-      <c r="SD1" s="11"/>
-      <c r="SE1" s="11"/>
-      <c r="SF1" s="11"/>
-      <c r="SG1" s="11"/>
-      <c r="SH1" s="11"/>
-      <c r="SI1" s="11"/>
-      <c r="SJ1" s="11"/>
-      <c r="SK1" s="11"/>
-      <c r="SL1" s="11"/>
-      <c r="SM1" s="11"/>
-      <c r="SN1" s="11"/>
-      <c r="SO1" s="11"/>
-      <c r="SP1" s="11"/>
-      <c r="SQ1" s="11"/>
-      <c r="SR1" s="11"/>
-      <c r="SS1" s="11"/>
-      <c r="ST1" s="11"/>
-      <c r="SU1" s="11"/>
-      <c r="SV1" s="11"/>
-      <c r="SW1" s="11"/>
-      <c r="SX1" s="11"/>
-      <c r="SY1" s="11"/>
-      <c r="SZ1" s="11"/>
-      <c r="TA1" s="11"/>
-      <c r="TB1" s="11"/>
-      <c r="TC1" s="11"/>
-      <c r="TD1" s="11"/>
-      <c r="TE1" s="11"/>
-      <c r="TF1" s="11"/>
-      <c r="TG1" s="11"/>
-      <c r="TH1" s="11"/>
-      <c r="TI1" s="11"/>
-      <c r="TJ1" s="11"/>
-      <c r="TK1" s="11"/>
-      <c r="TL1" s="11"/>
-      <c r="TM1" s="11"/>
-      <c r="TN1" s="11"/>
-      <c r="TO1" s="11"/>
-      <c r="TP1" s="11"/>
-      <c r="TQ1" s="11"/>
-      <c r="TR1" s="11"/>
-      <c r="TS1" s="11"/>
-      <c r="TT1" s="11"/>
-      <c r="TU1" s="11"/>
-      <c r="TV1" s="11"/>
-      <c r="TW1" s="11"/>
-      <c r="TX1" s="11"/>
-      <c r="TY1" s="11"/>
-      <c r="TZ1" s="11"/>
-      <c r="UA1" s="11"/>
-      <c r="UB1" s="11"/>
-      <c r="UC1" s="11"/>
-      <c r="UD1" s="11"/>
-      <c r="UE1" s="11"/>
-      <c r="UF1" s="11"/>
-      <c r="UG1" s="11"/>
-      <c r="UH1" s="11"/>
-      <c r="UI1" s="11"/>
-      <c r="UJ1" s="11"/>
-      <c r="UK1" s="11"/>
-      <c r="UL1" s="11"/>
-      <c r="UM1" s="11"/>
-      <c r="UN1" s="11"/>
-      <c r="UO1" s="11"/>
-      <c r="UP1" s="11"/>
-      <c r="UQ1" s="11"/>
-      <c r="UR1" s="11"/>
-      <c r="US1" s="11"/>
-      <c r="UT1" s="11"/>
-      <c r="UU1" s="11"/>
-      <c r="UV1" s="11"/>
-      <c r="UW1" s="11"/>
-      <c r="UX1" s="11"/>
-      <c r="UY1" s="11"/>
-      <c r="UZ1" s="11"/>
-      <c r="VA1" s="11"/>
-      <c r="VB1" s="11"/>
-      <c r="VC1" s="11"/>
-      <c r="VD1" s="11"/>
-      <c r="VE1" s="11"/>
-      <c r="VF1" s="11"/>
-      <c r="VG1" s="11"/>
-      <c r="VH1" s="11"/>
-      <c r="VI1" s="11"/>
-      <c r="VJ1" s="11"/>
-      <c r="VK1" s="11"/>
-      <c r="VL1" s="11"/>
-      <c r="VM1" s="11"/>
-      <c r="VN1" s="11"/>
-      <c r="VO1" s="11"/>
-      <c r="VP1" s="11"/>
-      <c r="VQ1" s="11"/>
-      <c r="VR1" s="11"/>
-      <c r="VS1" s="11"/>
-      <c r="VT1" s="11"/>
-      <c r="VU1" s="11"/>
-      <c r="VV1" s="11"/>
-      <c r="VW1" s="11"/>
-      <c r="VX1" s="11"/>
-      <c r="VY1" s="11"/>
-      <c r="VZ1" s="11"/>
-      <c r="WA1" s="11"/>
-      <c r="WB1" s="11"/>
-      <c r="WC1" s="11"/>
-      <c r="WD1" s="11"/>
-      <c r="WE1" s="11"/>
-      <c r="WF1" s="11"/>
-      <c r="WG1" s="11"/>
-      <c r="WH1" s="11"/>
-      <c r="WI1" s="11"/>
-      <c r="WJ1" s="11"/>
-      <c r="WK1" s="11"/>
-      <c r="WL1" s="11"/>
-      <c r="WM1" s="11"/>
-      <c r="WN1" s="11"/>
-      <c r="WO1" s="11"/>
-      <c r="WP1" s="11"/>
-      <c r="WQ1" s="11"/>
-      <c r="WR1" s="11"/>
-      <c r="WS1" s="11"/>
-      <c r="WT1" s="11"/>
-      <c r="WU1" s="11"/>
-      <c r="WV1" s="11"/>
-      <c r="WW1" s="11"/>
-      <c r="WX1" s="11"/>
-      <c r="WY1" s="11"/>
-      <c r="WZ1" s="11"/>
-      <c r="XA1" s="11"/>
-      <c r="XB1" s="11"/>
-      <c r="XC1" s="11"/>
-      <c r="XD1" s="11"/>
-      <c r="XE1" s="11"/>
-      <c r="XF1" s="11"/>
-      <c r="XG1" s="11"/>
-      <c r="XH1" s="11"/>
-      <c r="XI1" s="11"/>
-      <c r="XJ1" s="11"/>
-      <c r="XK1" s="11"/>
-      <c r="XL1" s="11"/>
-      <c r="XM1" s="11"/>
-      <c r="XN1" s="11"/>
-      <c r="XO1" s="11"/>
-      <c r="XP1" s="11"/>
-      <c r="XQ1" s="11"/>
-      <c r="XR1" s="11"/>
-      <c r="XS1" s="11"/>
-      <c r="XT1" s="11"/>
-      <c r="XU1" s="11"/>
-      <c r="XV1" s="11"/>
-      <c r="XW1" s="11"/>
-      <c r="XX1" s="11"/>
-      <c r="XY1" s="11"/>
-      <c r="XZ1" s="11"/>
-      <c r="YA1" s="11"/>
-      <c r="YB1" s="11"/>
-      <c r="YC1" s="11"/>
-      <c r="YD1" s="11"/>
-      <c r="YE1" s="11"/>
-      <c r="YF1" s="11"/>
-      <c r="YG1" s="11"/>
-      <c r="YH1" s="11"/>
-      <c r="YI1" s="11"/>
-      <c r="YJ1" s="11"/>
-      <c r="YK1" s="11"/>
-      <c r="YL1" s="11"/>
-      <c r="YM1" s="11"/>
-      <c r="YN1" s="11"/>
-      <c r="YO1" s="11"/>
-      <c r="YP1" s="11"/>
-      <c r="YQ1" s="11"/>
-      <c r="YR1" s="11"/>
-      <c r="YS1" s="11"/>
-      <c r="YT1" s="11"/>
-      <c r="YU1" s="11"/>
-      <c r="YV1" s="11"/>
-      <c r="YW1" s="11"/>
-      <c r="YX1" s="11"/>
-      <c r="YY1" s="11"/>
-      <c r="YZ1" s="11"/>
-      <c r="ZA1" s="11"/>
-      <c r="ZB1" s="11"/>
-      <c r="ZC1" s="11"/>
-      <c r="ZD1" s="11"/>
-      <c r="ZE1" s="11"/>
-      <c r="ZF1" s="11"/>
-      <c r="ZG1" s="11"/>
-      <c r="ZH1" s="11"/>
-      <c r="ZI1" s="11"/>
-      <c r="ZJ1" s="11"/>
-      <c r="ZK1" s="11"/>
-      <c r="ZL1" s="11"/>
-      <c r="ZM1" s="11"/>
-      <c r="ZN1" s="11"/>
-      <c r="ZO1" s="11"/>
-      <c r="ZP1" s="11"/>
-      <c r="ZQ1" s="11"/>
-      <c r="ZR1" s="11"/>
-      <c r="ZS1" s="11"/>
-      <c r="ZT1" s="11"/>
-      <c r="ZU1" s="11"/>
-      <c r="ZV1" s="11"/>
-      <c r="ZW1" s="11"/>
-      <c r="ZX1" s="11"/>
-      <c r="ZY1" s="11"/>
-      <c r="ZZ1" s="11"/>
-      <c r="AAA1" s="11"/>
-      <c r="AAB1" s="11"/>
-      <c r="AAC1" s="11"/>
-      <c r="AAD1" s="11"/>
-      <c r="AAE1" s="11"/>
-      <c r="AAF1" s="11"/>
-      <c r="AAG1" s="11"/>
-      <c r="AAH1" s="11"/>
-      <c r="AAI1" s="11"/>
-      <c r="AAJ1" s="11"/>
-      <c r="AAK1" s="11"/>
-      <c r="AAL1" s="11"/>
-      <c r="AAM1" s="11"/>
-      <c r="AAN1" s="11"/>
-      <c r="AAO1" s="11"/>
-      <c r="AAP1" s="11"/>
-      <c r="AAQ1" s="11"/>
-      <c r="AAR1" s="11"/>
-      <c r="AAS1" s="11"/>
-      <c r="AAT1" s="11"/>
-      <c r="AAU1" s="11"/>
-      <c r="AAV1" s="11"/>
-      <c r="AAW1" s="11"/>
-      <c r="AAX1" s="11"/>
-      <c r="AAY1" s="11"/>
-      <c r="AAZ1" s="11"/>
-      <c r="ABA1" s="11"/>
-      <c r="ABB1" s="11"/>
-      <c r="ABC1" s="11"/>
-      <c r="ABD1" s="11"/>
-      <c r="ABE1" s="11"/>
-      <c r="ABF1" s="11"/>
-      <c r="ABG1" s="11"/>
-      <c r="ABH1" s="11"/>
-      <c r="ABI1" s="11"/>
-      <c r="ABJ1" s="11"/>
-      <c r="ABK1" s="11"/>
-      <c r="ABL1" s="11"/>
-      <c r="ABM1" s="11"/>
-      <c r="ABN1" s="11"/>
-      <c r="ABO1" s="11"/>
-      <c r="ABP1" s="11"/>
-      <c r="ABQ1" s="11"/>
-      <c r="ABR1" s="11"/>
-      <c r="ABS1" s="11"/>
-      <c r="ABT1" s="11"/>
-      <c r="ABU1" s="11"/>
-      <c r="ABV1" s="11"/>
-      <c r="ABW1" s="11"/>
-      <c r="ABX1" s="11"/>
-      <c r="ABY1" s="11"/>
-      <c r="ABZ1" s="11"/>
-      <c r="ACA1" s="11"/>
-      <c r="ACB1" s="11"/>
-      <c r="ACC1" s="11"/>
-      <c r="ACD1" s="11"/>
-      <c r="ACE1" s="11"/>
-      <c r="ACF1" s="11"/>
-      <c r="ACG1" s="11"/>
-      <c r="ACH1" s="11"/>
-      <c r="ACI1" s="11"/>
-      <c r="ACJ1" s="11"/>
-      <c r="ACK1" s="11"/>
-      <c r="ACL1" s="11"/>
-      <c r="ACM1" s="11"/>
-      <c r="ACN1" s="11"/>
-      <c r="ACO1" s="11"/>
-      <c r="ACP1" s="11"/>
-      <c r="ACQ1" s="11"/>
-      <c r="ACR1" s="11"/>
-      <c r="ACS1" s="11"/>
-      <c r="ACT1" s="11"/>
-      <c r="ACU1" s="11"/>
-      <c r="ACV1" s="11"/>
-      <c r="ACW1" s="11"/>
-      <c r="ACX1" s="11"/>
-      <c r="ACY1" s="11"/>
-      <c r="ACZ1" s="11"/>
-      <c r="ADA1" s="11"/>
-      <c r="ADB1" s="11"/>
-      <c r="ADC1" s="11"/>
-      <c r="ADD1" s="11"/>
-      <c r="ADE1" s="11"/>
-      <c r="ADF1" s="11"/>
-      <c r="ADG1" s="11"/>
-      <c r="ADH1" s="11"/>
-      <c r="ADI1" s="11"/>
-      <c r="ADJ1" s="11"/>
-      <c r="ADK1" s="11"/>
-      <c r="ADL1" s="11"/>
-      <c r="ADM1" s="11"/>
-      <c r="ADN1" s="11"/>
-      <c r="ADO1" s="11"/>
-      <c r="ADP1" s="11"/>
-      <c r="ADQ1" s="11"/>
-      <c r="ADR1" s="11"/>
-      <c r="ADS1" s="11"/>
-      <c r="ADT1" s="11"/>
-      <c r="ADU1" s="11"/>
-      <c r="ADV1" s="11"/>
-      <c r="ADW1" s="11"/>
-      <c r="ADX1" s="11"/>
-      <c r="ADY1" s="11"/>
-      <c r="ADZ1" s="11"/>
-      <c r="AEA1" s="11"/>
-      <c r="AEB1" s="11"/>
-      <c r="AEC1" s="11"/>
-      <c r="AED1" s="11"/>
-      <c r="AEE1" s="11"/>
-      <c r="AEF1" s="11"/>
-      <c r="AEG1" s="11"/>
-      <c r="AEH1" s="11"/>
-      <c r="AEI1" s="11"/>
-      <c r="AEJ1" s="11"/>
-      <c r="AEK1" s="11"/>
-      <c r="AEL1" s="11"/>
-      <c r="AEM1" s="11"/>
-      <c r="AEN1" s="11"/>
-      <c r="AEO1" s="11"/>
-      <c r="AEP1" s="11"/>
-      <c r="AEQ1" s="11"/>
-      <c r="AER1" s="11"/>
-      <c r="AES1" s="11"/>
-      <c r="AET1" s="11"/>
-      <c r="AEU1" s="11"/>
-      <c r="AEV1" s="11"/>
-      <c r="AEW1" s="11"/>
-      <c r="AEX1" s="11"/>
-      <c r="AEY1" s="11"/>
-      <c r="AEZ1" s="11"/>
-      <c r="AFA1" s="11"/>
-      <c r="AFB1" s="11"/>
-      <c r="AFC1" s="11"/>
-      <c r="AFD1" s="11"/>
-      <c r="AFE1" s="11"/>
-      <c r="AFF1" s="11"/>
-      <c r="AFG1" s="11"/>
-      <c r="AFH1" s="11"/>
-      <c r="AFI1" s="11"/>
-      <c r="AFJ1" s="11"/>
-      <c r="AFK1" s="11"/>
-      <c r="AFL1" s="11"/>
-      <c r="AFM1" s="11"/>
-      <c r="AFN1" s="11"/>
-      <c r="AFO1" s="11"/>
-      <c r="AFP1" s="11"/>
-      <c r="AFQ1" s="11"/>
-      <c r="AFR1" s="11"/>
-      <c r="AFS1" s="11"/>
-      <c r="AFT1" s="11"/>
-      <c r="AFU1" s="11"/>
-      <c r="AFV1" s="11"/>
-      <c r="AFW1" s="11"/>
-      <c r="AFX1" s="11"/>
-      <c r="AFY1" s="11"/>
-      <c r="AFZ1" s="11"/>
-      <c r="AGA1" s="11"/>
-      <c r="AGB1" s="11"/>
-      <c r="AGC1" s="11"/>
-      <c r="AGD1" s="11"/>
-      <c r="AGE1" s="11"/>
-      <c r="AGF1" s="11"/>
-      <c r="AGG1" s="11"/>
-      <c r="AGH1" s="11"/>
-      <c r="AGI1" s="11"/>
-      <c r="AGJ1" s="11"/>
-      <c r="AGK1" s="11"/>
-      <c r="AGL1" s="11"/>
-      <c r="AGM1" s="11"/>
-      <c r="AGN1" s="11"/>
-      <c r="AGO1" s="11"/>
-      <c r="AGP1" s="11"/>
-      <c r="AGQ1" s="11"/>
-      <c r="AGR1" s="11"/>
-      <c r="AGS1" s="11"/>
-      <c r="AGT1" s="11"/>
-      <c r="AGU1" s="11"/>
-      <c r="AGV1" s="11"/>
-      <c r="AGW1" s="11"/>
-      <c r="AGX1" s="11"/>
-      <c r="AGY1" s="11"/>
-      <c r="AGZ1" s="11"/>
-      <c r="AHA1" s="11"/>
-      <c r="AHB1" s="11"/>
-      <c r="AHC1" s="11"/>
-      <c r="AHD1" s="11"/>
-      <c r="AHE1" s="11"/>
-      <c r="AHF1" s="11"/>
-      <c r="AHG1" s="11"/>
-      <c r="AHH1" s="11"/>
-      <c r="AHI1" s="11"/>
-      <c r="AHJ1" s="11"/>
-      <c r="AHK1" s="11"/>
-      <c r="AHL1" s="11"/>
-      <c r="AHM1" s="11"/>
-      <c r="AHN1" s="11"/>
-      <c r="AHO1" s="11"/>
-      <c r="AHP1" s="11"/>
-      <c r="AHQ1" s="11"/>
-      <c r="AHR1" s="11"/>
-      <c r="AHS1" s="11"/>
-      <c r="AHT1" s="11"/>
-      <c r="AHU1" s="11"/>
-      <c r="AHV1" s="11"/>
-      <c r="AHW1" s="11"/>
-      <c r="AHX1" s="11"/>
-      <c r="AHY1" s="11"/>
-      <c r="AHZ1" s="11"/>
-      <c r="AIA1" s="11"/>
-      <c r="AIB1" s="11"/>
-      <c r="AIC1" s="11"/>
-      <c r="AID1" s="11"/>
-      <c r="AIE1" s="11"/>
-      <c r="AIF1" s="11"/>
-      <c r="AIG1" s="11"/>
-      <c r="AIH1" s="11"/>
-      <c r="AII1" s="11"/>
-      <c r="AIJ1" s="11"/>
-      <c r="AIK1" s="11"/>
-      <c r="AIL1" s="11"/>
-      <c r="AIM1" s="11"/>
-      <c r="AIN1" s="11"/>
-      <c r="AIO1" s="11"/>
-      <c r="AIP1" s="11"/>
-      <c r="AIQ1" s="11"/>
-      <c r="AIR1" s="11"/>
-      <c r="AIS1" s="11"/>
-      <c r="AIT1" s="11"/>
-      <c r="AIU1" s="11"/>
-      <c r="AIV1" s="11"/>
-      <c r="AIW1" s="11"/>
-      <c r="AIX1" s="11"/>
-      <c r="AIY1" s="11"/>
-      <c r="AIZ1" s="11"/>
-      <c r="AJA1" s="11"/>
-      <c r="AJB1" s="11"/>
-      <c r="AJC1" s="11"/>
-      <c r="AJD1" s="11"/>
-      <c r="AJE1" s="11"/>
-      <c r="AJF1" s="11"/>
-      <c r="AJG1" s="11"/>
-      <c r="AJH1" s="11"/>
-      <c r="AJI1" s="11"/>
-      <c r="AJJ1" s="11"/>
-      <c r="AJK1" s="11"/>
-      <c r="AJL1" s="11"/>
-      <c r="AJM1" s="11"/>
-      <c r="AJN1" s="11"/>
-      <c r="AJO1" s="11"/>
-      <c r="AJP1" s="11"/>
-      <c r="AJQ1" s="11"/>
-      <c r="AJR1" s="11"/>
-      <c r="AJS1" s="11"/>
-      <c r="AJT1" s="11"/>
-      <c r="AJU1" s="11"/>
-      <c r="AJV1" s="11"/>
-      <c r="AJW1" s="11"/>
-      <c r="AJX1" s="11"/>
-      <c r="AJY1" s="11"/>
-      <c r="AJZ1" s="11"/>
-      <c r="AKA1" s="11"/>
-      <c r="AKB1" s="11"/>
-      <c r="AKC1" s="11"/>
-      <c r="AKD1" s="11"/>
-      <c r="AKE1" s="11"/>
-      <c r="AKF1" s="11"/>
-      <c r="AKG1" s="11"/>
-      <c r="AKH1" s="11"/>
-      <c r="AKI1" s="11"/>
-      <c r="AKJ1" s="11"/>
-      <c r="AKK1" s="11"/>
-      <c r="AKL1" s="11"/>
-      <c r="AKM1" s="11"/>
-      <c r="AKN1" s="11"/>
-      <c r="AKO1" s="11"/>
-      <c r="AKP1" s="11"/>
-      <c r="AKQ1" s="11"/>
-      <c r="AKR1" s="11"/>
-      <c r="AKS1" s="11"/>
-      <c r="AKT1" s="11"/>
-      <c r="AKU1" s="11"/>
-      <c r="AKV1" s="11"/>
-      <c r="AKW1" s="11"/>
-      <c r="AKX1" s="11"/>
-      <c r="AKY1" s="11"/>
-      <c r="AKZ1" s="11"/>
-      <c r="ALA1" s="11"/>
-      <c r="ALB1" s="11"/>
-      <c r="ALC1" s="11"/>
-      <c r="ALD1" s="11"/>
-      <c r="ALE1" s="11"/>
-      <c r="ALF1" s="11"/>
-      <c r="ALG1" s="11"/>
-      <c r="ALH1" s="11"/>
-      <c r="ALI1" s="11"/>
-      <c r="ALJ1" s="11"/>
-      <c r="ALK1" s="11"/>
-      <c r="ALL1" s="11"/>
-      <c r="ALM1" s="11"/>
-      <c r="ALN1" s="11"/>
-      <c r="ALO1" s="11"/>
-      <c r="ALP1" s="11"/>
-      <c r="ALQ1" s="11"/>
-      <c r="ALR1" s="11"/>
-      <c r="ALS1" s="11"/>
-      <c r="ALT1" s="11"/>
-      <c r="ALU1" s="11"/>
-      <c r="ALV1" s="11"/>
-      <c r="ALW1" s="11"/>
-      <c r="ALX1" s="11"/>
-      <c r="ALY1" s="11"/>
-      <c r="ALZ1" s="11"/>
-      <c r="AMA1" s="11"/>
-      <c r="AMB1" s="11"/>
-      <c r="AMC1" s="11"/>
-      <c r="AMD1" s="11"/>
-      <c r="AME1" s="11"/>
-      <c r="AMF1" s="11"/>
-      <c r="AMG1" s="11"/>
-      <c r="AMH1" s="11"/>
-      <c r="AMI1" s="11"/>
-      <c r="AMJ1" s="11"/>
-      <c r="AMK1" s="11"/>
-      <c r="AML1" s="11"/>
-      <c r="AMM1" s="11"/>
-      <c r="AMN1" s="11"/>
-      <c r="AMO1" s="11"/>
-      <c r="AMP1" s="11"/>
-      <c r="AMQ1" s="11"/>
-      <c r="AMR1" s="11"/>
-      <c r="AMS1" s="11"/>
-      <c r="AMT1" s="11"/>
-      <c r="AMU1" s="11"/>
-      <c r="AMV1" s="11"/>
-      <c r="AMW1" s="11"/>
-      <c r="AMX1" s="11"/>
-      <c r="AMY1" s="11"/>
-      <c r="AMZ1" s="11"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="8"/>
+      <c r="CP1" s="8"/>
+      <c r="CQ1" s="8"/>
+      <c r="CR1" s="8"/>
+      <c r="CS1" s="8"/>
+      <c r="CT1" s="8"/>
+      <c r="CU1" s="8"/>
+      <c r="CV1" s="8"/>
+      <c r="CW1" s="8"/>
+      <c r="CX1" s="8"/>
+      <c r="CY1" s="8"/>
+      <c r="CZ1" s="8"/>
+      <c r="DA1" s="8"/>
+      <c r="DB1" s="8"/>
+      <c r="DC1" s="8"/>
+      <c r="DD1" s="8"/>
+      <c r="DE1" s="8"/>
+      <c r="DF1" s="8"/>
+      <c r="DG1" s="8"/>
+      <c r="DH1" s="8"/>
+      <c r="DI1" s="8"/>
+      <c r="DJ1" s="8"/>
+      <c r="DK1" s="8"/>
+      <c r="DL1" s="8"/>
+      <c r="DM1" s="8"/>
+      <c r="DN1" s="8"/>
+      <c r="DO1" s="8"/>
+      <c r="DP1" s="8"/>
+      <c r="DQ1" s="8"/>
+      <c r="DR1" s="8"/>
+      <c r="DS1" s="8"/>
+      <c r="DT1" s="8"/>
+      <c r="DU1" s="8"/>
+      <c r="DV1" s="8"/>
+      <c r="DW1" s="8"/>
+      <c r="DX1" s="8"/>
+      <c r="DY1" s="8"/>
+      <c r="DZ1" s="8"/>
+      <c r="EA1" s="8"/>
+      <c r="EB1" s="8"/>
+      <c r="EC1" s="8"/>
+      <c r="ED1" s="8"/>
+      <c r="EE1" s="8"/>
+      <c r="EF1" s="8"/>
+      <c r="EG1" s="8"/>
+      <c r="EH1" s="8"/>
+      <c r="EI1" s="8"/>
+      <c r="EJ1" s="8"/>
+      <c r="EK1" s="8"/>
+      <c r="EL1" s="8"/>
+      <c r="EM1" s="8"/>
+      <c r="EN1" s="8"/>
+      <c r="EO1" s="8"/>
+      <c r="EP1" s="8"/>
+      <c r="EQ1" s="8"/>
+      <c r="ER1" s="8"/>
+      <c r="ES1" s="8"/>
+      <c r="ET1" s="8"/>
+      <c r="EU1" s="8"/>
+      <c r="EV1" s="8"/>
+      <c r="EW1" s="8"/>
+      <c r="EX1" s="8"/>
+      <c r="EY1" s="8"/>
+      <c r="EZ1" s="8"/>
+      <c r="FA1" s="8"/>
+      <c r="FB1" s="8"/>
+      <c r="FC1" s="8"/>
+      <c r="FD1" s="8"/>
+      <c r="FE1" s="8"/>
+      <c r="FF1" s="8"/>
+      <c r="FG1" s="8"/>
+      <c r="FH1" s="8"/>
+      <c r="FI1" s="8"/>
+      <c r="FJ1" s="8"/>
+      <c r="FK1" s="8"/>
+      <c r="FL1" s="8"/>
+      <c r="FM1" s="8"/>
+      <c r="FN1" s="8"/>
+      <c r="FO1" s="8"/>
+      <c r="FP1" s="8"/>
+      <c r="FQ1" s="8"/>
+      <c r="FR1" s="8"/>
+      <c r="FS1" s="8"/>
+      <c r="FT1" s="8"/>
+      <c r="FU1" s="8"/>
+      <c r="FV1" s="8"/>
+      <c r="FW1" s="8"/>
+      <c r="FX1" s="8"/>
+      <c r="FY1" s="8"/>
+      <c r="FZ1" s="8"/>
+      <c r="GA1" s="8"/>
+      <c r="GB1" s="8"/>
+      <c r="GC1" s="8"/>
+      <c r="GD1" s="8"/>
+      <c r="GE1" s="8"/>
+      <c r="GF1" s="8"/>
+      <c r="GG1" s="8"/>
+      <c r="GH1" s="8"/>
+      <c r="GI1" s="8"/>
+      <c r="GJ1" s="8"/>
+      <c r="GK1" s="8"/>
+      <c r="GL1" s="8"/>
+      <c r="GM1" s="8"/>
+      <c r="GN1" s="8"/>
+      <c r="GO1" s="8"/>
+      <c r="GP1" s="8"/>
+      <c r="GQ1" s="8"/>
+      <c r="GR1" s="8"/>
+      <c r="GS1" s="8"/>
+      <c r="GT1" s="8"/>
+      <c r="GU1" s="8"/>
+      <c r="GV1" s="8"/>
+      <c r="GW1" s="8"/>
+      <c r="GX1" s="8"/>
+      <c r="GY1" s="8"/>
+      <c r="GZ1" s="8"/>
+      <c r="HA1" s="8"/>
+      <c r="HB1" s="8"/>
+      <c r="HC1" s="8"/>
+      <c r="HD1" s="8"/>
+      <c r="HE1" s="8"/>
+      <c r="HF1" s="8"/>
+      <c r="HG1" s="8"/>
+      <c r="HH1" s="8"/>
+      <c r="HI1" s="8"/>
+      <c r="HJ1" s="8"/>
+      <c r="HK1" s="8"/>
+      <c r="HL1" s="8"/>
+      <c r="HM1" s="8"/>
+      <c r="HN1" s="8"/>
+      <c r="HO1" s="8"/>
+      <c r="HP1" s="8"/>
+      <c r="HQ1" s="8"/>
+      <c r="HR1" s="8"/>
+      <c r="HS1" s="8"/>
+      <c r="HT1" s="8"/>
+      <c r="HU1" s="8"/>
+      <c r="HV1" s="8"/>
+      <c r="HW1" s="8"/>
+      <c r="HX1" s="8"/>
+      <c r="HY1" s="8"/>
+      <c r="HZ1" s="8"/>
+      <c r="IA1" s="8"/>
+      <c r="IB1" s="8"/>
+      <c r="IC1" s="8"/>
+      <c r="ID1" s="8"/>
+      <c r="IE1" s="8"/>
+      <c r="IF1" s="8"/>
+      <c r="IG1" s="8"/>
+      <c r="IH1" s="8"/>
+      <c r="II1" s="8"/>
+      <c r="IJ1" s="8"/>
+      <c r="IK1" s="8"/>
+      <c r="IL1" s="8"/>
+      <c r="IM1" s="8"/>
+      <c r="IN1" s="8"/>
+      <c r="IO1" s="8"/>
+      <c r="IP1" s="8"/>
+      <c r="IQ1" s="8"/>
+      <c r="IR1" s="8"/>
+      <c r="IS1" s="8"/>
+      <c r="IT1" s="8"/>
+      <c r="IU1" s="8"/>
+      <c r="IV1" s="8"/>
+      <c r="IW1" s="8"/>
+      <c r="IX1" s="8"/>
+      <c r="IY1" s="8"/>
+      <c r="IZ1" s="8"/>
+      <c r="JA1" s="8"/>
+      <c r="JB1" s="8"/>
+      <c r="JC1" s="8"/>
+      <c r="JD1" s="8"/>
+      <c r="JE1" s="8"/>
+      <c r="JF1" s="8"/>
+      <c r="JG1" s="8"/>
+      <c r="JH1" s="8"/>
+      <c r="JI1" s="8"/>
+      <c r="JJ1" s="8"/>
+      <c r="JK1" s="8"/>
+      <c r="JL1" s="8"/>
+      <c r="JM1" s="8"/>
+      <c r="JN1" s="8"/>
+      <c r="JO1" s="8"/>
+      <c r="JP1" s="8"/>
+      <c r="JQ1" s="8"/>
+      <c r="JR1" s="8"/>
+      <c r="JS1" s="8"/>
+      <c r="JT1" s="8"/>
+      <c r="JU1" s="8"/>
+      <c r="JV1" s="8"/>
+      <c r="JW1" s="8"/>
+      <c r="JX1" s="8"/>
+      <c r="JY1" s="8"/>
+      <c r="JZ1" s="8"/>
+      <c r="KA1" s="8"/>
+      <c r="KB1" s="8"/>
+      <c r="KC1" s="8"/>
+      <c r="KD1" s="8"/>
+      <c r="KE1" s="8"/>
+      <c r="KF1" s="8"/>
+      <c r="KG1" s="8"/>
+      <c r="KH1" s="8"/>
+      <c r="KI1" s="8"/>
+      <c r="KJ1" s="8"/>
+      <c r="KK1" s="8"/>
+      <c r="KL1" s="8"/>
+      <c r="KM1" s="8"/>
+      <c r="KN1" s="8"/>
+      <c r="KO1" s="8"/>
+      <c r="KP1" s="8"/>
+      <c r="KQ1" s="8"/>
+      <c r="KR1" s="8"/>
+      <c r="KS1" s="8"/>
+      <c r="KT1" s="8"/>
+      <c r="KU1" s="8"/>
+      <c r="KV1" s="8"/>
+      <c r="KW1" s="8"/>
+      <c r="KX1" s="8"/>
+      <c r="KY1" s="8"/>
+      <c r="KZ1" s="8"/>
+      <c r="LA1" s="8"/>
+      <c r="LB1" s="8"/>
+      <c r="LC1" s="8"/>
+      <c r="LD1" s="8"/>
+      <c r="LE1" s="8"/>
+      <c r="LF1" s="8"/>
+      <c r="LG1" s="8"/>
+      <c r="LH1" s="8"/>
+      <c r="LI1" s="8"/>
+      <c r="LJ1" s="8"/>
+      <c r="LK1" s="8"/>
+      <c r="LL1" s="8"/>
+      <c r="LM1" s="8"/>
+      <c r="LN1" s="8"/>
+      <c r="LO1" s="8"/>
+      <c r="LP1" s="8"/>
+      <c r="LQ1" s="8"/>
+      <c r="LR1" s="8"/>
+      <c r="LS1" s="8"/>
+      <c r="LT1" s="8"/>
+      <c r="LU1" s="8"/>
+      <c r="LV1" s="8"/>
+      <c r="LW1" s="8"/>
+      <c r="LX1" s="8"/>
+      <c r="LY1" s="8"/>
+      <c r="LZ1" s="8"/>
+      <c r="MA1" s="8"/>
+      <c r="MB1" s="8"/>
+      <c r="MC1" s="8"/>
+      <c r="MD1" s="8"/>
+      <c r="ME1" s="8"/>
+      <c r="MF1" s="8"/>
+      <c r="MG1" s="8"/>
+      <c r="MH1" s="8"/>
+      <c r="MI1" s="8"/>
+      <c r="MJ1" s="8"/>
+      <c r="MK1" s="8"/>
+      <c r="ML1" s="8"/>
+      <c r="MM1" s="8"/>
+      <c r="MN1" s="8"/>
+      <c r="MO1" s="8"/>
+      <c r="MP1" s="8"/>
+      <c r="MQ1" s="8"/>
+      <c r="MR1" s="8"/>
+      <c r="MS1" s="8"/>
+      <c r="MT1" s="8"/>
+      <c r="MU1" s="8"/>
+      <c r="MV1" s="8"/>
+      <c r="MW1" s="8"/>
+      <c r="MX1" s="8"/>
+      <c r="MY1" s="8"/>
+      <c r="MZ1" s="8"/>
+      <c r="NA1" s="8"/>
+      <c r="NB1" s="8"/>
+      <c r="NC1" s="8"/>
+      <c r="ND1" s="8"/>
+      <c r="NE1" s="8"/>
+      <c r="NF1" s="8"/>
+      <c r="NG1" s="8"/>
+      <c r="NH1" s="8"/>
+      <c r="NI1" s="8"/>
+      <c r="NJ1" s="8"/>
+      <c r="NK1" s="8"/>
+      <c r="NL1" s="8"/>
+      <c r="NM1" s="8"/>
+      <c r="NN1" s="8"/>
+      <c r="NO1" s="8"/>
+      <c r="NP1" s="8"/>
+      <c r="NQ1" s="8"/>
+      <c r="NR1" s="8"/>
+      <c r="NS1" s="8"/>
+      <c r="NT1" s="8"/>
+      <c r="NU1" s="8"/>
+      <c r="NV1" s="8"/>
+      <c r="NW1" s="8"/>
+      <c r="NX1" s="8"/>
+      <c r="NY1" s="8"/>
+      <c r="NZ1" s="8"/>
+      <c r="OA1" s="8"/>
+      <c r="OB1" s="8"/>
+      <c r="OC1" s="8"/>
+      <c r="OD1" s="8"/>
+      <c r="OE1" s="8"/>
+      <c r="OF1" s="8"/>
+      <c r="OG1" s="8"/>
+      <c r="OH1" s="8"/>
+      <c r="OI1" s="8"/>
+      <c r="OJ1" s="8"/>
+      <c r="OK1" s="8"/>
+      <c r="OL1" s="8"/>
+      <c r="OM1" s="8"/>
+      <c r="ON1" s="8"/>
+      <c r="OO1" s="8"/>
+      <c r="OP1" s="8"/>
+      <c r="OQ1" s="8"/>
+      <c r="OR1" s="8"/>
+      <c r="OS1" s="8"/>
+      <c r="OT1" s="8"/>
+      <c r="OU1" s="8"/>
+      <c r="OV1" s="8"/>
+      <c r="OW1" s="8"/>
+      <c r="OX1" s="8"/>
+      <c r="OY1" s="8"/>
+      <c r="OZ1" s="8"/>
+      <c r="PA1" s="8"/>
+      <c r="PB1" s="8"/>
+      <c r="PC1" s="8"/>
+      <c r="PD1" s="8"/>
+      <c r="PE1" s="8"/>
+      <c r="PF1" s="8"/>
+      <c r="PG1" s="8"/>
+      <c r="PH1" s="8"/>
+      <c r="PI1" s="8"/>
+      <c r="PJ1" s="8"/>
+      <c r="PK1" s="8"/>
+      <c r="PL1" s="8"/>
+      <c r="PM1" s="8"/>
+      <c r="PN1" s="8"/>
+      <c r="PO1" s="8"/>
+      <c r="PP1" s="8"/>
+      <c r="PQ1" s="8"/>
+      <c r="PR1" s="8"/>
+      <c r="PS1" s="8"/>
+      <c r="PT1" s="8"/>
+      <c r="PU1" s="8"/>
+      <c r="PV1" s="8"/>
+      <c r="PW1" s="8"/>
+      <c r="PX1" s="8"/>
+      <c r="PY1" s="8"/>
+      <c r="PZ1" s="8"/>
+      <c r="QA1" s="8"/>
+      <c r="QB1" s="8"/>
+      <c r="QC1" s="8"/>
+      <c r="QD1" s="8"/>
+      <c r="QE1" s="8"/>
+      <c r="QF1" s="8"/>
+      <c r="QG1" s="8"/>
+      <c r="QH1" s="8"/>
+      <c r="QI1" s="8"/>
+      <c r="QJ1" s="8"/>
+      <c r="QK1" s="8"/>
+      <c r="QL1" s="8"/>
+      <c r="QM1" s="8"/>
+      <c r="QN1" s="8"/>
+      <c r="QO1" s="8"/>
+      <c r="QP1" s="8"/>
+      <c r="QQ1" s="8"/>
+      <c r="QR1" s="8"/>
+      <c r="QS1" s="8"/>
+      <c r="QT1" s="8"/>
+      <c r="QU1" s="8"/>
+      <c r="QV1" s="8"/>
+      <c r="QW1" s="8"/>
+      <c r="QX1" s="8"/>
+      <c r="QY1" s="8"/>
+      <c r="QZ1" s="8"/>
+      <c r="RA1" s="8"/>
+      <c r="RB1" s="8"/>
+      <c r="RC1" s="8"/>
+      <c r="RD1" s="8"/>
+      <c r="RE1" s="8"/>
+      <c r="RF1" s="8"/>
+      <c r="RG1" s="8"/>
+      <c r="RH1" s="8"/>
+      <c r="RI1" s="8"/>
+      <c r="RJ1" s="8"/>
+      <c r="RK1" s="8"/>
+      <c r="RL1" s="8"/>
+      <c r="RM1" s="8"/>
+      <c r="RN1" s="8"/>
+      <c r="RO1" s="8"/>
+      <c r="RP1" s="8"/>
+      <c r="RQ1" s="8"/>
+      <c r="RR1" s="8"/>
+      <c r="RS1" s="8"/>
+      <c r="RT1" s="8"/>
+      <c r="RU1" s="8"/>
+      <c r="RV1" s="8"/>
+      <c r="RW1" s="8"/>
+      <c r="RX1" s="8"/>
+      <c r="RY1" s="8"/>
+      <c r="RZ1" s="8"/>
+      <c r="SA1" s="8"/>
+      <c r="SB1" s="8"/>
+      <c r="SC1" s="8"/>
+      <c r="SD1" s="8"/>
+      <c r="SE1" s="8"/>
+      <c r="SF1" s="8"/>
+      <c r="SG1" s="8"/>
+      <c r="SH1" s="8"/>
+      <c r="SI1" s="8"/>
+      <c r="SJ1" s="8"/>
+      <c r="SK1" s="8"/>
+      <c r="SL1" s="8"/>
+      <c r="SM1" s="8"/>
+      <c r="SN1" s="8"/>
+      <c r="SO1" s="8"/>
+      <c r="SP1" s="8"/>
+      <c r="SQ1" s="8"/>
+      <c r="SR1" s="8"/>
+      <c r="SS1" s="8"/>
+      <c r="ST1" s="8"/>
+      <c r="SU1" s="8"/>
+      <c r="SV1" s="8"/>
+      <c r="SW1" s="8"/>
+      <c r="SX1" s="8"/>
+      <c r="SY1" s="8"/>
+      <c r="SZ1" s="8"/>
+      <c r="TA1" s="8"/>
+      <c r="TB1" s="8"/>
+      <c r="TC1" s="8"/>
+      <c r="TD1" s="8"/>
+      <c r="TE1" s="8"/>
+      <c r="TF1" s="8"/>
+      <c r="TG1" s="8"/>
+      <c r="TH1" s="8"/>
+      <c r="TI1" s="8"/>
+      <c r="TJ1" s="8"/>
+      <c r="TK1" s="8"/>
+      <c r="TL1" s="8"/>
+      <c r="TM1" s="8"/>
+      <c r="TN1" s="8"/>
+      <c r="TO1" s="8"/>
+      <c r="TP1" s="8"/>
+      <c r="TQ1" s="8"/>
+      <c r="TR1" s="8"/>
+      <c r="TS1" s="8"/>
+      <c r="TT1" s="8"/>
+      <c r="TU1" s="8"/>
+      <c r="TV1" s="8"/>
+      <c r="TW1" s="8"/>
+      <c r="TX1" s="8"/>
+      <c r="TY1" s="8"/>
+      <c r="TZ1" s="8"/>
+      <c r="UA1" s="8"/>
+      <c r="UB1" s="8"/>
+      <c r="UC1" s="8"/>
+      <c r="UD1" s="8"/>
+      <c r="UE1" s="8"/>
+      <c r="UF1" s="8"/>
+      <c r="UG1" s="8"/>
+      <c r="UH1" s="8"/>
+      <c r="UI1" s="8"/>
+      <c r="UJ1" s="8"/>
+      <c r="UK1" s="8"/>
+      <c r="UL1" s="8"/>
+      <c r="UM1" s="8"/>
+      <c r="UN1" s="8"/>
+      <c r="UO1" s="8"/>
+      <c r="UP1" s="8"/>
+      <c r="UQ1" s="8"/>
+      <c r="UR1" s="8"/>
+      <c r="US1" s="8"/>
+      <c r="UT1" s="8"/>
+      <c r="UU1" s="8"/>
+      <c r="UV1" s="8"/>
+      <c r="UW1" s="8"/>
+      <c r="UX1" s="8"/>
+      <c r="UY1" s="8"/>
+      <c r="UZ1" s="8"/>
+      <c r="VA1" s="8"/>
+      <c r="VB1" s="8"/>
+      <c r="VC1" s="8"/>
+      <c r="VD1" s="8"/>
+      <c r="VE1" s="8"/>
+      <c r="VF1" s="8"/>
+      <c r="VG1" s="8"/>
+      <c r="VH1" s="8"/>
+      <c r="VI1" s="8"/>
+      <c r="VJ1" s="8"/>
+      <c r="VK1" s="8"/>
+      <c r="VL1" s="8"/>
+      <c r="VM1" s="8"/>
+      <c r="VN1" s="8"/>
+      <c r="VO1" s="8"/>
+      <c r="VP1" s="8"/>
+      <c r="VQ1" s="8"/>
+      <c r="VR1" s="8"/>
+      <c r="VS1" s="8"/>
+      <c r="VT1" s="8"/>
+      <c r="VU1" s="8"/>
+      <c r="VV1" s="8"/>
+      <c r="VW1" s="8"/>
+      <c r="VX1" s="8"/>
+      <c r="VY1" s="8"/>
+      <c r="VZ1" s="8"/>
+      <c r="WA1" s="8"/>
+      <c r="WB1" s="8"/>
+      <c r="WC1" s="8"/>
+      <c r="WD1" s="8"/>
+      <c r="WE1" s="8"/>
+      <c r="WF1" s="8"/>
+      <c r="WG1" s="8"/>
+      <c r="WH1" s="8"/>
+      <c r="WI1" s="8"/>
+      <c r="WJ1" s="8"/>
+      <c r="WK1" s="8"/>
+      <c r="WL1" s="8"/>
+      <c r="WM1" s="8"/>
+      <c r="WN1" s="8"/>
+      <c r="WO1" s="8"/>
+      <c r="WP1" s="8"/>
+      <c r="WQ1" s="8"/>
+      <c r="WR1" s="8"/>
+      <c r="WS1" s="8"/>
+      <c r="WT1" s="8"/>
+      <c r="WU1" s="8"/>
+      <c r="WV1" s="8"/>
+      <c r="WW1" s="8"/>
+      <c r="WX1" s="8"/>
+      <c r="WY1" s="8"/>
+      <c r="WZ1" s="8"/>
+      <c r="XA1" s="8"/>
+      <c r="XB1" s="8"/>
+      <c r="XC1" s="8"/>
+      <c r="XD1" s="8"/>
+      <c r="XE1" s="8"/>
+      <c r="XF1" s="8"/>
+      <c r="XG1" s="8"/>
+      <c r="XH1" s="8"/>
+      <c r="XI1" s="8"/>
+      <c r="XJ1" s="8"/>
+      <c r="XK1" s="8"/>
+      <c r="XL1" s="8"/>
+      <c r="XM1" s="8"/>
+      <c r="XN1" s="8"/>
+      <c r="XO1" s="8"/>
+      <c r="XP1" s="8"/>
+      <c r="XQ1" s="8"/>
+      <c r="XR1" s="8"/>
+      <c r="XS1" s="8"/>
+      <c r="XT1" s="8"/>
+      <c r="XU1" s="8"/>
+      <c r="XV1" s="8"/>
+      <c r="XW1" s="8"/>
+      <c r="XX1" s="8"/>
+      <c r="XY1" s="8"/>
+      <c r="XZ1" s="8"/>
+      <c r="YA1" s="8"/>
+      <c r="YB1" s="8"/>
+      <c r="YC1" s="8"/>
+      <c r="YD1" s="8"/>
+      <c r="YE1" s="8"/>
+      <c r="YF1" s="8"/>
+      <c r="YG1" s="8"/>
+      <c r="YH1" s="8"/>
+      <c r="YI1" s="8"/>
+      <c r="YJ1" s="8"/>
+      <c r="YK1" s="8"/>
+      <c r="YL1" s="8"/>
+      <c r="YM1" s="8"/>
+      <c r="YN1" s="8"/>
+      <c r="YO1" s="8"/>
+      <c r="YP1" s="8"/>
+      <c r="YQ1" s="8"/>
+      <c r="YR1" s="8"/>
+      <c r="YS1" s="8"/>
+      <c r="YT1" s="8"/>
+      <c r="YU1" s="8"/>
+      <c r="YV1" s="8"/>
+      <c r="YW1" s="8"/>
+      <c r="YX1" s="8"/>
+      <c r="YY1" s="8"/>
+      <c r="YZ1" s="8"/>
+      <c r="ZA1" s="8"/>
+      <c r="ZB1" s="8"/>
+      <c r="ZC1" s="8"/>
+      <c r="ZD1" s="8"/>
+      <c r="ZE1" s="8"/>
+      <c r="ZF1" s="8"/>
+      <c r="ZG1" s="8"/>
+      <c r="ZH1" s="8"/>
+      <c r="ZI1" s="8"/>
+      <c r="ZJ1" s="8"/>
+      <c r="ZK1" s="8"/>
+      <c r="ZL1" s="8"/>
+      <c r="ZM1" s="8"/>
+      <c r="ZN1" s="8"/>
+      <c r="ZO1" s="8"/>
+      <c r="ZP1" s="8"/>
+      <c r="ZQ1" s="8"/>
+      <c r="ZR1" s="8"/>
+      <c r="ZS1" s="8"/>
+      <c r="ZT1" s="8"/>
+      <c r="ZU1" s="8"/>
+      <c r="ZV1" s="8"/>
+      <c r="ZW1" s="8"/>
+      <c r="ZX1" s="8"/>
+      <c r="ZY1" s="8"/>
+      <c r="ZZ1" s="8"/>
+      <c r="AAA1" s="8"/>
+      <c r="AAB1" s="8"/>
+      <c r="AAC1" s="8"/>
+      <c r="AAD1" s="8"/>
+      <c r="AAE1" s="8"/>
+      <c r="AAF1" s="8"/>
+      <c r="AAG1" s="8"/>
+      <c r="AAH1" s="8"/>
+      <c r="AAI1" s="8"/>
+      <c r="AAJ1" s="8"/>
+      <c r="AAK1" s="8"/>
+      <c r="AAL1" s="8"/>
+      <c r="AAM1" s="8"/>
+      <c r="AAN1" s="8"/>
+      <c r="AAO1" s="8"/>
+      <c r="AAP1" s="8"/>
+      <c r="AAQ1" s="8"/>
+      <c r="AAR1" s="8"/>
+      <c r="AAS1" s="8"/>
+      <c r="AAT1" s="8"/>
+      <c r="AAU1" s="8"/>
+      <c r="AAV1" s="8"/>
+      <c r="AAW1" s="8"/>
+      <c r="AAX1" s="8"/>
+      <c r="AAY1" s="8"/>
+      <c r="AAZ1" s="8"/>
+      <c r="ABA1" s="8"/>
+      <c r="ABB1" s="8"/>
+      <c r="ABC1" s="8"/>
+      <c r="ABD1" s="8"/>
+      <c r="ABE1" s="8"/>
+      <c r="ABF1" s="8"/>
+      <c r="ABG1" s="8"/>
+      <c r="ABH1" s="8"/>
+      <c r="ABI1" s="8"/>
+      <c r="ABJ1" s="8"/>
+      <c r="ABK1" s="8"/>
+      <c r="ABL1" s="8"/>
+      <c r="ABM1" s="8"/>
+      <c r="ABN1" s="8"/>
+      <c r="ABO1" s="8"/>
+      <c r="ABP1" s="8"/>
+      <c r="ABQ1" s="8"/>
+      <c r="ABR1" s="8"/>
+      <c r="ABS1" s="8"/>
+      <c r="ABT1" s="8"/>
+      <c r="ABU1" s="8"/>
+      <c r="ABV1" s="8"/>
+      <c r="ABW1" s="8"/>
+      <c r="ABX1" s="8"/>
+      <c r="ABY1" s="8"/>
+      <c r="ABZ1" s="8"/>
+      <c r="ACA1" s="8"/>
+      <c r="ACB1" s="8"/>
+      <c r="ACC1" s="8"/>
+      <c r="ACD1" s="8"/>
+      <c r="ACE1" s="8"/>
+      <c r="ACF1" s="8"/>
+      <c r="ACG1" s="8"/>
+      <c r="ACH1" s="8"/>
+      <c r="ACI1" s="8"/>
+      <c r="ACJ1" s="8"/>
+      <c r="ACK1" s="8"/>
+      <c r="ACL1" s="8"/>
+      <c r="ACM1" s="8"/>
+      <c r="ACN1" s="8"/>
+      <c r="ACO1" s="8"/>
+      <c r="ACP1" s="8"/>
+      <c r="ACQ1" s="8"/>
+      <c r="ACR1" s="8"/>
+      <c r="ACS1" s="8"/>
+      <c r="ACT1" s="8"/>
+      <c r="ACU1" s="8"/>
+      <c r="ACV1" s="8"/>
+      <c r="ACW1" s="8"/>
+      <c r="ACX1" s="8"/>
+      <c r="ACY1" s="8"/>
+      <c r="ACZ1" s="8"/>
+      <c r="ADA1" s="8"/>
+      <c r="ADB1" s="8"/>
+      <c r="ADC1" s="8"/>
+      <c r="ADD1" s="8"/>
+      <c r="ADE1" s="8"/>
+      <c r="ADF1" s="8"/>
+      <c r="ADG1" s="8"/>
+      <c r="ADH1" s="8"/>
+      <c r="ADI1" s="8"/>
+      <c r="ADJ1" s="8"/>
+      <c r="ADK1" s="8"/>
+      <c r="ADL1" s="8"/>
+      <c r="ADM1" s="8"/>
+      <c r="ADN1" s="8"/>
+      <c r="ADO1" s="8"/>
+      <c r="ADP1" s="8"/>
+      <c r="ADQ1" s="8"/>
+      <c r="ADR1" s="8"/>
+      <c r="ADS1" s="8"/>
+      <c r="ADT1" s="8"/>
+      <c r="ADU1" s="8"/>
+      <c r="ADV1" s="8"/>
+      <c r="ADW1" s="8"/>
+      <c r="ADX1" s="8"/>
+      <c r="ADY1" s="8"/>
+      <c r="ADZ1" s="8"/>
+      <c r="AEA1" s="8"/>
+      <c r="AEB1" s="8"/>
+      <c r="AEC1" s="8"/>
+      <c r="AED1" s="8"/>
+      <c r="AEE1" s="8"/>
+      <c r="AEF1" s="8"/>
+      <c r="AEG1" s="8"/>
+      <c r="AEH1" s="8"/>
+      <c r="AEI1" s="8"/>
+      <c r="AEJ1" s="8"/>
+      <c r="AEK1" s="8"/>
+      <c r="AEL1" s="8"/>
+      <c r="AEM1" s="8"/>
+      <c r="AEN1" s="8"/>
+      <c r="AEO1" s="8"/>
+      <c r="AEP1" s="8"/>
+      <c r="AEQ1" s="8"/>
+      <c r="AER1" s="8"/>
+      <c r="AES1" s="8"/>
+      <c r="AET1" s="8"/>
+      <c r="AEU1" s="8"/>
+      <c r="AEV1" s="8"/>
+      <c r="AEW1" s="8"/>
+      <c r="AEX1" s="8"/>
+      <c r="AEY1" s="8"/>
+      <c r="AEZ1" s="8"/>
+      <c r="AFA1" s="8"/>
+      <c r="AFB1" s="8"/>
+      <c r="AFC1" s="8"/>
+      <c r="AFD1" s="8"/>
+      <c r="AFE1" s="8"/>
+      <c r="AFF1" s="8"/>
+      <c r="AFG1" s="8"/>
+      <c r="AFH1" s="8"/>
+      <c r="AFI1" s="8"/>
+      <c r="AFJ1" s="8"/>
+      <c r="AFK1" s="8"/>
+      <c r="AFL1" s="8"/>
+      <c r="AFM1" s="8"/>
+      <c r="AFN1" s="8"/>
+      <c r="AFO1" s="8"/>
+      <c r="AFP1" s="8"/>
+      <c r="AFQ1" s="8"/>
+      <c r="AFR1" s="8"/>
+      <c r="AFS1" s="8"/>
+      <c r="AFT1" s="8"/>
+      <c r="AFU1" s="8"/>
+      <c r="AFV1" s="8"/>
+      <c r="AFW1" s="8"/>
+      <c r="AFX1" s="8"/>
+      <c r="AFY1" s="8"/>
+      <c r="AFZ1" s="8"/>
+      <c r="AGA1" s="8"/>
+      <c r="AGB1" s="8"/>
+      <c r="AGC1" s="8"/>
+      <c r="AGD1" s="8"/>
+      <c r="AGE1" s="8"/>
+      <c r="AGF1" s="8"/>
+      <c r="AGG1" s="8"/>
+      <c r="AGH1" s="8"/>
+      <c r="AGI1" s="8"/>
+      <c r="AGJ1" s="8"/>
+      <c r="AGK1" s="8"/>
+      <c r="AGL1" s="8"/>
+      <c r="AGM1" s="8"/>
+      <c r="AGN1" s="8"/>
+      <c r="AGO1" s="8"/>
+      <c r="AGP1" s="8"/>
+      <c r="AGQ1" s="8"/>
+      <c r="AGR1" s="8"/>
+      <c r="AGS1" s="8"/>
+      <c r="AGT1" s="8"/>
+      <c r="AGU1" s="8"/>
+      <c r="AGV1" s="8"/>
+      <c r="AGW1" s="8"/>
+      <c r="AGX1" s="8"/>
+      <c r="AGY1" s="8"/>
+      <c r="AGZ1" s="8"/>
+      <c r="AHA1" s="8"/>
+      <c r="AHB1" s="8"/>
+      <c r="AHC1" s="8"/>
+      <c r="AHD1" s="8"/>
+      <c r="AHE1" s="8"/>
+      <c r="AHF1" s="8"/>
+      <c r="AHG1" s="8"/>
+      <c r="AHH1" s="8"/>
+      <c r="AHI1" s="8"/>
+      <c r="AHJ1" s="8"/>
+      <c r="AHK1" s="8"/>
+      <c r="AHL1" s="8"/>
+      <c r="AHM1" s="8"/>
+      <c r="AHN1" s="8"/>
+      <c r="AHO1" s="8"/>
+      <c r="AHP1" s="8"/>
+      <c r="AHQ1" s="8"/>
+      <c r="AHR1" s="8"/>
+      <c r="AHS1" s="8"/>
+      <c r="AHT1" s="8"/>
+      <c r="AHU1" s="8"/>
+      <c r="AHV1" s="8"/>
+      <c r="AHW1" s="8"/>
+      <c r="AHX1" s="8"/>
+      <c r="AHY1" s="8"/>
+      <c r="AHZ1" s="8"/>
+      <c r="AIA1" s="8"/>
+      <c r="AIB1" s="8"/>
+      <c r="AIC1" s="8"/>
+      <c r="AID1" s="8"/>
+      <c r="AIE1" s="8"/>
+      <c r="AIF1" s="8"/>
+      <c r="AIG1" s="8"/>
+      <c r="AIH1" s="8"/>
+      <c r="AII1" s="8"/>
+      <c r="AIJ1" s="8"/>
+      <c r="AIK1" s="8"/>
+      <c r="AIL1" s="8"/>
+      <c r="AIM1" s="8"/>
+      <c r="AIN1" s="8"/>
+      <c r="AIO1" s="8"/>
+      <c r="AIP1" s="8"/>
+      <c r="AIQ1" s="8"/>
+      <c r="AIR1" s="8"/>
+      <c r="AIS1" s="8"/>
+      <c r="AIT1" s="8"/>
+      <c r="AIU1" s="8"/>
+      <c r="AIV1" s="8"/>
+      <c r="AIW1" s="8"/>
+      <c r="AIX1" s="8"/>
+      <c r="AIY1" s="8"/>
+      <c r="AIZ1" s="8"/>
+      <c r="AJA1" s="8"/>
+      <c r="AJB1" s="8"/>
+      <c r="AJC1" s="8"/>
+      <c r="AJD1" s="8"/>
+      <c r="AJE1" s="8"/>
+      <c r="AJF1" s="8"/>
+      <c r="AJG1" s="8"/>
+      <c r="AJH1" s="8"/>
+      <c r="AJI1" s="8"/>
+      <c r="AJJ1" s="8"/>
+      <c r="AJK1" s="8"/>
+      <c r="AJL1" s="8"/>
+      <c r="AJM1" s="8"/>
+      <c r="AJN1" s="8"/>
+      <c r="AJO1" s="8"/>
+      <c r="AJP1" s="8"/>
+      <c r="AJQ1" s="8"/>
+      <c r="AJR1" s="8"/>
+      <c r="AJS1" s="8"/>
+      <c r="AJT1" s="8"/>
+      <c r="AJU1" s="8"/>
+      <c r="AJV1" s="8"/>
+      <c r="AJW1" s="8"/>
+      <c r="AJX1" s="8"/>
+      <c r="AJY1" s="8"/>
+      <c r="AJZ1" s="8"/>
+      <c r="AKA1" s="8"/>
+      <c r="AKB1" s="8"/>
+      <c r="AKC1" s="8"/>
+      <c r="AKD1" s="8"/>
+      <c r="AKE1" s="8"/>
+      <c r="AKF1" s="8"/>
+      <c r="AKG1" s="8"/>
+      <c r="AKH1" s="8"/>
+      <c r="AKI1" s="8"/>
+      <c r="AKJ1" s="8"/>
+      <c r="AKK1" s="8"/>
+      <c r="AKL1" s="8"/>
+      <c r="AKM1" s="8"/>
+      <c r="AKN1" s="8"/>
+      <c r="AKO1" s="8"/>
+      <c r="AKP1" s="8"/>
+      <c r="AKQ1" s="8"/>
+      <c r="AKR1" s="8"/>
+      <c r="AKS1" s="8"/>
+      <c r="AKT1" s="8"/>
+      <c r="AKU1" s="8"/>
+      <c r="AKV1" s="8"/>
+      <c r="AKW1" s="8"/>
+      <c r="AKX1" s="8"/>
+      <c r="AKY1" s="8"/>
+      <c r="AKZ1" s="8"/>
+      <c r="ALA1" s="8"/>
+      <c r="ALB1" s="8"/>
+      <c r="ALC1" s="8"/>
+      <c r="ALD1" s="8"/>
+      <c r="ALE1" s="8"/>
+      <c r="ALF1" s="8"/>
+      <c r="ALG1" s="8"/>
+      <c r="ALH1" s="8"/>
+      <c r="ALI1" s="8"/>
+      <c r="ALJ1" s="8"/>
+      <c r="ALK1" s="8"/>
+      <c r="ALL1" s="8"/>
+      <c r="ALM1" s="8"/>
+      <c r="ALN1" s="8"/>
+      <c r="ALO1" s="8"/>
+      <c r="ALP1" s="8"/>
+      <c r="ALQ1" s="8"/>
+      <c r="ALR1" s="8"/>
+      <c r="ALS1" s="8"/>
+      <c r="ALT1" s="8"/>
+      <c r="ALU1" s="8"/>
+      <c r="ALV1" s="8"/>
+      <c r="ALW1" s="8"/>
+      <c r="ALX1" s="8"/>
+      <c r="ALY1" s="8"/>
+      <c r="ALZ1" s="8"/>
+      <c r="AMA1" s="8"/>
+      <c r="AMB1" s="8"/>
+      <c r="AMC1" s="8"/>
+      <c r="AMD1" s="8"/>
+      <c r="AME1" s="8"/>
+      <c r="AMF1" s="8"/>
+      <c r="AMG1" s="8"/>
+      <c r="AMH1" s="8"/>
+      <c r="AMI1" s="8"/>
+      <c r="AMJ1" s="8"/>
+      <c r="AMK1" s="8"/>
+      <c r="AML1" s="8"/>
+      <c r="AMM1" s="8"/>
+      <c r="AMN1" s="8"/>
+      <c r="AMO1" s="8"/>
+      <c r="AMP1" s="8"/>
+      <c r="AMQ1" s="8"/>
+      <c r="AMR1" s="8"/>
+      <c r="AMS1" s="8"/>
+      <c r="AMT1" s="8"/>
+      <c r="AMU1" s="8"/>
+      <c r="AMV1" s="8"/>
+      <c r="AMW1" s="8"/>
+      <c r="AMX1" s="8"/>
+      <c r="AMY1" s="8"/>
+      <c r="AMZ1" s="8"/>
+      <c r="ANA1" s="8"/>
     </row>
-    <row r="2" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2903,13 +2918,16 @@
         <v>17664.45</v>
       </c>
       <c r="AR2" s="2">
-        <f>SUM(AQ2)</f>
-        <v>17664.45</v>
+        <v>14297</v>
+      </c>
+      <c r="AS2" s="2">
+        <f>SUM(AQ2:AR2)</f>
+        <v>31961.45</v>
       </c>
     </row>
-    <row r="3" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
@@ -3037,13 +3055,16 @@
         <v>237.6</v>
       </c>
       <c r="AR3" s="2">
-        <f t="shared" ref="AR3:AR16" si="3">SUM(AQ3)</f>
-        <v>237.6</v>
+        <v>50.7</v>
+      </c>
+      <c r="AS3" s="2">
+        <f t="shared" ref="AS3:AS16" si="3">SUM(AQ3:AR3)</f>
+        <v>288.3</v>
       </c>
     </row>
-    <row r="4" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
@@ -3172,13 +3193,16 @@
         <v>149.54</v>
       </c>
       <c r="AR4" s="2">
+        <v>162.18</v>
+      </c>
+      <c r="AS4" s="2">
         <f t="shared" si="3"/>
-        <v>149.54</v>
+        <v>311.72000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
@@ -3306,13 +3330,16 @@
         <v>0</v>
       </c>
       <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
@@ -3440,13 +3467,16 @@
         <v>0</v>
       </c>
       <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+    <row r="7" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
@@ -3574,13 +3604,16 @@
         <v>0</v>
       </c>
       <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+    <row r="8" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
@@ -3708,13 +3741,16 @@
         <v>0</v>
       </c>
       <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
@@ -3879,13 +3915,17 @@
         <v>18051.59</v>
       </c>
       <c r="AR9" s="2">
+        <f>SUM(AR2:AR8)</f>
+        <v>14509.880000000001</v>
+      </c>
+      <c r="AS9" s="2">
         <f t="shared" si="3"/>
-        <v>18051.59</v>
+        <v>32561.47</v>
       </c>
     </row>
-    <row r="10" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -4016,13 +4056,16 @@
         <v>1160.6400000000001</v>
       </c>
       <c r="AR10" s="2">
+        <v>479.58</v>
+      </c>
+      <c r="AS10" s="2">
         <f t="shared" si="3"/>
-        <v>1160.6400000000001</v>
+        <v>1640.22</v>
       </c>
     </row>
-    <row r="11" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
@@ -4150,13 +4193,16 @@
         <v>0</v>
       </c>
       <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+    <row r="12" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
@@ -4285,13 +4331,16 @@
         <v>898.18</v>
       </c>
       <c r="AR12" s="2">
+        <v>795.43</v>
+      </c>
+      <c r="AS12" s="2">
         <f t="shared" si="3"/>
-        <v>898.18</v>
+        <v>1693.61</v>
       </c>
     </row>
-    <row r="13" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+    <row r="13" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
@@ -4419,13 +4468,16 @@
         <v>5000</v>
       </c>
       <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="2">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
@@ -4553,13 +4605,16 @@
         <v>0</v>
       </c>
       <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+    <row r="15" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
@@ -4724,16 +4779,20 @@
         <v>7058.82</v>
       </c>
       <c r="AR15" s="2">
+        <f>SUM(AR10:AR14)</f>
+        <v>1275.01</v>
+      </c>
+      <c r="AS15" s="2">
         <f t="shared" si="3"/>
-        <v>7058.82</v>
+        <v>8333.83</v>
       </c>
     </row>
-    <row r="16" spans="1:1040" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:1041" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="2">
         <f t="shared" ref="D16:O16" si="10">D9-D15</f>
         <v>854.77999999999975</v>
@@ -4895,15 +4954,19 @@
         <v>10992.77</v>
       </c>
       <c r="AR16" s="2">
+        <f>AR9-AR15</f>
+        <v>13234.87</v>
+      </c>
+      <c r="AS16" s="2">
         <f t="shared" si="3"/>
-        <v>10992.77</v>
+        <v>24227.64</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -5021,10 +5084,13 @@
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
@@ -5141,10 +5207,13 @@
       <c r="AQ18" s="2">
         <v>65999.83</v>
       </c>
+      <c r="AR18" s="2">
+        <v>79183.149999999994</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
@@ -5260,10 +5329,13 @@
       <c r="AQ19" s="2">
         <v>22583.14</v>
       </c>
+      <c r="AR19" s="2">
+        <v>22583.14</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="5" t="s">
         <v>46</v>
       </c>
@@ -5379,10 +5451,13 @@
       <c r="AQ20" s="2">
         <v>10063.200000000001</v>
       </c>
+      <c r="AR20" s="2">
+        <v>5453.28</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="5" t="s">
         <v>47</v>
       </c>
@@ -5498,10 +5573,13 @@
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
+      <c r="AR21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
@@ -5617,10 +5695,13 @@
       <c r="AQ22" s="2">
         <v>415703.37</v>
       </c>
+      <c r="AR22" s="2">
+        <v>421223.83</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
@@ -5768,13 +5849,17 @@
         <f t="shared" si="15"/>
         <v>550438.91</v>
       </c>
-      <c r="AQ23" s="14">
+      <c r="AQ23" s="11">
         <f>SUM(AQ17:AQ22)</f>
         <v>514349.54</v>
       </c>
+      <c r="AR23" s="11">
+        <f>SUM(AR17:AR22)</f>
+        <v>528443.4</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
@@ -5928,13 +6013,17 @@
         <f>AO24+AQ8-AQ14</f>
         <v>156000</v>
       </c>
+      <c r="AR24" s="2">
+        <f>AQ24+AR8-AR14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="6">
         <f t="shared" ref="D25:O25" si="19">D23-D24</f>
         <v>39892.050000000003</v>
@@ -6079,9 +6168,13 @@
         <f t="shared" si="21"/>
         <v>394438.91000000003</v>
       </c>
-      <c r="AQ25" s="14">
+      <c r="AQ25" s="11">
         <f>AQ23-AQ24</f>
         <v>358349.54</v>
+      </c>
+      <c r="AR25" s="11">
+        <f>AR23-AR24</f>
+        <v>372443.4</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF97F9AE-B6D1-4521-993D-FE3861AC1C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1DD702-C020-4116-8D1F-3057EFD186DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,6 +211,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -527,9 +528,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AR$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AS$1)</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -643,16 +644,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2022/02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022/03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AR$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AS$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -766,6 +770,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>528443.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>501978.82999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,7 +780,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6D3-4627-B4EE-DD74500CBDBA}"/>
+              <c16:uniqueId val="{00000000-4A42-4397-BBC5-CE0130FAFA7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -836,9 +843,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AR$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AS$1)</c:f>
               <c:strCache>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -952,16 +959,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2022/02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022/03</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AR$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AS$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1075,6 +1085,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>372443.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>345978.82999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +1095,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6D3-4627-B4EE-DD74500CBDBA}"/>
+              <c16:uniqueId val="{00000001-4A42-4397-BBC5-CE0130FAFA7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1335,27 +1348,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>175785</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>754560</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>41295</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>259260</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A3F612-F524-4178-9FCD-932A96856E42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1630,11 +1645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANA25"/>
+  <dimension ref="A1:ANB25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O15" sqref="O15"/>
+      <pane xSplit="3" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ24" sqref="AZ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1649,13 +1664,13 @@
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
     <col min="30" max="41" width="11.25" style="2" customWidth="1"/>
     <col min="42" max="42" width="12" style="2" customWidth="1"/>
-    <col min="43" max="44" width="10.5" style="2" customWidth="1"/>
-    <col min="45" max="45" width="12.25" style="2" customWidth="1"/>
-    <col min="46" max="85" width="10.5" style="2" customWidth="1"/>
-    <col min="86" max="1041" width="10.5" style="1" customWidth="1"/>
+    <col min="43" max="45" width="10.5" style="2" customWidth="1"/>
+    <col min="46" max="46" width="12.25" style="2" customWidth="1"/>
+    <col min="47" max="86" width="10.5" style="2" customWidth="1"/>
+    <col min="87" max="1042" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1041" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1042" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1784,10 +1799,12 @@
       <c r="AR1" s="7">
         <v>44593</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AS1" s="7">
+        <v>44621</v>
+      </c>
+      <c r="AT1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="8"/>
       <c r="AU1" s="8"/>
       <c r="AV1" s="8"/>
       <c r="AW1" s="8"/>
@@ -2783,8 +2800,9 @@
       <c r="AMY1" s="8"/>
       <c r="AMZ1" s="8"/>
       <c r="ANA1" s="8"/>
+      <c r="ANB1" s="8"/>
     </row>
-    <row r="2" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
@@ -2921,11 +2939,14 @@
         <v>14297</v>
       </c>
       <c r="AS2" s="2">
-        <f>SUM(AQ2:AR2)</f>
-        <v>31961.45</v>
+        <v>14297</v>
+      </c>
+      <c r="AT2" s="2">
+        <f>SUM(AQ2:AS2)</f>
+        <v>46258.45</v>
       </c>
     </row>
-    <row r="3" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
@@ -3058,11 +3079,14 @@
         <v>50.7</v>
       </c>
       <c r="AS3" s="2">
-        <f t="shared" ref="AS3:AS16" si="3">SUM(AQ3:AR3)</f>
-        <v>288.3</v>
+        <v>174.9</v>
+      </c>
+      <c r="AT3" s="2">
+        <f t="shared" ref="AT3:AT16" si="3">SUM(AQ3:AS3)</f>
+        <v>463.20000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
@@ -3196,11 +3220,14 @@
         <v>162.18</v>
       </c>
       <c r="AS4" s="2">
+        <v>1885.56</v>
+      </c>
+      <c r="AT4" s="2">
         <f t="shared" si="3"/>
-        <v>311.72000000000003</v>
+        <v>2197.2799999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
@@ -3333,11 +3360,14 @@
         <v>0</v>
       </c>
       <c r="AS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
@@ -3470,11 +3500,14 @@
         <v>0</v>
       </c>
       <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
@@ -3607,11 +3640,14 @@
         <v>0</v>
       </c>
       <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
@@ -3744,11 +3780,14 @@
         <v>0</v>
       </c>
       <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
@@ -3919,11 +3958,15 @@
         <v>14509.880000000001</v>
       </c>
       <c r="AS9" s="2">
+        <f>SUM(AS2:AS8)</f>
+        <v>16357.46</v>
+      </c>
+      <c r="AT9" s="2">
         <f t="shared" si="3"/>
-        <v>32561.47</v>
+        <v>48918.93</v>
       </c>
     </row>
-    <row r="10" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13" t="s">
         <v>34</v>
@@ -4059,11 +4102,14 @@
         <v>479.58</v>
       </c>
       <c r="AS10" s="2">
+        <v>859.67</v>
+      </c>
+      <c r="AT10" s="2">
         <f t="shared" si="3"/>
-        <v>1640.22</v>
+        <v>2499.89</v>
       </c>
     </row>
-    <row r="11" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
@@ -4196,11 +4242,14 @@
         <v>0</v>
       </c>
       <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5" t="s">
@@ -4334,11 +4383,14 @@
         <v>795.43</v>
       </c>
       <c r="AS12" s="2">
+        <v>163.36000000000001</v>
+      </c>
+      <c r="AT12" s="2">
         <f t="shared" si="3"/>
-        <v>1693.61</v>
+        <v>1856.9699999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
@@ -4471,11 +4523,14 @@
         <v>0</v>
       </c>
       <c r="AS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5" t="s">
@@ -4608,11 +4663,14 @@
         <v>0</v>
       </c>
       <c r="AS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5" t="s">
@@ -4783,11 +4841,15 @@
         <v>1275.01</v>
       </c>
       <c r="AS15" s="2">
+        <f>SUM(AS10:AS14)</f>
+        <v>1023.03</v>
+      </c>
+      <c r="AT15" s="2">
         <f t="shared" si="3"/>
-        <v>8333.83</v>
+        <v>9356.86</v>
       </c>
     </row>
-    <row r="16" spans="1:1041" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1042" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
@@ -4958,11 +5020,15 @@
         <v>13234.87</v>
       </c>
       <c r="AS16" s="2">
+        <f>AS9-AS15</f>
+        <v>15334.429999999998</v>
+      </c>
+      <c r="AT16" s="2">
         <f t="shared" si="3"/>
-        <v>24227.64</v>
+        <v>39562.07</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -5087,8 +5153,11 @@
       <c r="AR17" s="2">
         <v>0</v>
       </c>
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="5" t="s">
@@ -5210,8 +5279,11 @@
       <c r="AR18" s="2">
         <v>79183.149999999994</v>
       </c>
+      <c r="AS18" s="2">
+        <v>88674.81</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="5" t="s">
@@ -5332,8 +5404,11 @@
       <c r="AR19" s="2">
         <v>22583.14</v>
       </c>
+      <c r="AS19" s="2">
+        <v>26077.85</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5" t="s">
@@ -5454,8 +5529,11 @@
       <c r="AR20" s="2">
         <v>5453.28</v>
       </c>
+      <c r="AS20" s="2">
+        <v>5550.51</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5" t="s">
@@ -5576,8 +5654,11 @@
       <c r="AR21" s="2">
         <v>0</v>
       </c>
+      <c r="AS21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="5" t="s">
@@ -5698,8 +5779,11 @@
       <c r="AR22" s="2">
         <v>421223.83</v>
       </c>
+      <c r="AS22" s="2">
+        <v>381675.66</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="5" t="s">
@@ -5857,8 +5941,12 @@
         <f>SUM(AR17:AR22)</f>
         <v>528443.4</v>
       </c>
+      <c r="AS23" s="11">
+        <f>SUM(AS17:AS22)</f>
+        <v>501978.82999999996</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>49</v>
@@ -6017,8 +6105,12 @@
         <f>AQ24+AR8-AR14</f>
         <v>156000</v>
       </c>
+      <c r="AS24" s="2">
+        <f>AR24+AS8-AS14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>51</v>
@@ -6175,6 +6267,10 @@
       <c r="AR25" s="11">
         <f>AR23-AR24</f>
         <v>372443.4</v>
+      </c>
+      <c r="AS25" s="11">
+        <f>AS23-AS24</f>
+        <v>345978.82999999996</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1DD702-C020-4116-8D1F-3057EFD186DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F3C26F-7C00-49B6-B312-A58BF11902A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,9 +528,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AS$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AT$1)</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -647,16 +647,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2022/03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022/04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AS$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AT$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -773,6 +776,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>501978.82999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>499789.06999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,9 +849,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AS$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AT$1)</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -962,16 +968,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2022/03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022/04</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AS$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AT$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1088,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>345978.82999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>343789.06999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1645,11 +1657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANB25"/>
+  <dimension ref="A1:ANC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ24" sqref="AZ24"/>
+      <selection pane="topRight" activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,13 +1676,13 @@
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
     <col min="30" max="41" width="11.25" style="2" customWidth="1"/>
     <col min="42" max="42" width="12" style="2" customWidth="1"/>
-    <col min="43" max="45" width="10.5" style="2" customWidth="1"/>
-    <col min="46" max="46" width="12.25" style="2" customWidth="1"/>
-    <col min="47" max="86" width="10.5" style="2" customWidth="1"/>
-    <col min="87" max="1042" width="10.5" style="1" customWidth="1"/>
+    <col min="43" max="46" width="10.5" style="2" customWidth="1"/>
+    <col min="47" max="47" width="12.25" style="2" customWidth="1"/>
+    <col min="48" max="87" width="10.5" style="2" customWidth="1"/>
+    <col min="88" max="1043" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1042" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1043" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1802,10 +1814,12 @@
       <c r="AS1" s="7">
         <v>44621</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="7">
+        <v>44652</v>
+      </c>
+      <c r="AU1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="8"/>
       <c r="AV1" s="8"/>
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
@@ -2801,8 +2815,9 @@
       <c r="AMZ1" s="8"/>
       <c r="ANA1" s="8"/>
       <c r="ANB1" s="8"/>
+      <c r="ANC1" s="8"/>
     </row>
-    <row r="2" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
@@ -2942,11 +2957,14 @@
         <v>14297</v>
       </c>
       <c r="AT2" s="2">
-        <f>SUM(AQ2:AS2)</f>
-        <v>46258.45</v>
+        <v>14297</v>
+      </c>
+      <c r="AU2" s="2">
+        <f>SUM(AQ2:AT2)</f>
+        <v>60555.45</v>
       </c>
     </row>
-    <row r="3" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
@@ -3082,11 +3100,14 @@
         <v>174.9</v>
       </c>
       <c r="AT3" s="2">
-        <f t="shared" ref="AT3:AT16" si="3">SUM(AQ3:AS3)</f>
-        <v>463.20000000000005</v>
+        <v>219.2</v>
+      </c>
+      <c r="AU3" s="2">
+        <f t="shared" ref="AU3:AU16" si="3">SUM(AQ3:AT3)</f>
+        <v>682.40000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
@@ -3223,11 +3244,14 @@
         <v>1885.56</v>
       </c>
       <c r="AT4" s="2">
+        <v>88.47</v>
+      </c>
+      <c r="AU4" s="2">
         <f t="shared" si="3"/>
-        <v>2197.2799999999997</v>
+        <v>2285.7499999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
@@ -3363,11 +3387,14 @@
         <v>0</v>
       </c>
       <c r="AT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
@@ -3503,11 +3530,14 @@
         <v>0</v>
       </c>
       <c r="AT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
@@ -3643,11 +3673,14 @@
         <v>0</v>
       </c>
       <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
@@ -3783,11 +3816,14 @@
         <v>0</v>
       </c>
       <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
@@ -3962,11 +3998,15 @@
         <v>16357.46</v>
       </c>
       <c r="AT9" s="2">
+        <f>SUM(AT2:AT8)</f>
+        <v>14604.67</v>
+      </c>
+      <c r="AU9" s="2">
         <f t="shared" si="3"/>
-        <v>48918.93</v>
+        <v>63523.6</v>
       </c>
     </row>
-    <row r="10" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13" t="s">
         <v>34</v>
@@ -4105,11 +4145,14 @@
         <v>859.67</v>
       </c>
       <c r="AT10" s="2">
+        <v>4141.5600000000004</v>
+      </c>
+      <c r="AU10" s="2">
         <f t="shared" si="3"/>
-        <v>2499.89</v>
+        <v>6641.4500000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
@@ -4245,11 +4288,14 @@
         <v>0</v>
       </c>
       <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5" t="s">
@@ -4386,11 +4432,14 @@
         <v>163.36000000000001</v>
       </c>
       <c r="AT12" s="2">
+        <v>208.65</v>
+      </c>
+      <c r="AU12" s="2">
         <f t="shared" si="3"/>
-        <v>1856.9699999999998</v>
+        <v>2065.62</v>
       </c>
     </row>
-    <row r="13" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
@@ -4526,11 +4575,14 @@
         <v>0</v>
       </c>
       <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5" t="s">
@@ -4666,11 +4718,14 @@
         <v>0</v>
       </c>
       <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5" t="s">
@@ -4845,11 +4900,15 @@
         <v>1023.03</v>
       </c>
       <c r="AT15" s="2">
+        <f>SUM(AT10:AT14)</f>
+        <v>4350.21</v>
+      </c>
+      <c r="AU15" s="2">
         <f t="shared" si="3"/>
-        <v>9356.86</v>
+        <v>13707.07</v>
       </c>
     </row>
-    <row r="16" spans="1:1042" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1043" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
@@ -5024,11 +5083,15 @@
         <v>15334.429999999998</v>
       </c>
       <c r="AT16" s="2">
+        <f>AT9-AT15</f>
+        <v>10254.459999999999</v>
+      </c>
+      <c r="AU16" s="2">
         <f t="shared" si="3"/>
-        <v>39562.07</v>
+        <v>49816.53</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -5156,8 +5219,11 @@
       <c r="AS17" s="2">
         <v>0</v>
       </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="5" t="s">
@@ -5282,8 +5348,11 @@
       <c r="AS18" s="2">
         <v>88674.81</v>
       </c>
+      <c r="AT18" s="2">
+        <v>104338.23</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="5" t="s">
@@ -5407,8 +5476,11 @@
       <c r="AS19" s="2">
         <v>26077.85</v>
       </c>
+      <c r="AT19" s="2">
+        <v>26077.85</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5" t="s">
@@ -5532,8 +5604,11 @@
       <c r="AS20" s="2">
         <v>5550.51</v>
       </c>
+      <c r="AT20" s="2">
+        <v>5679.26</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5" t="s">
@@ -5657,8 +5732,11 @@
       <c r="AS21" s="2">
         <v>0</v>
       </c>
+      <c r="AT21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="5" t="s">
@@ -5782,8 +5860,11 @@
       <c r="AS22" s="2">
         <v>381675.66</v>
       </c>
+      <c r="AT22" s="2">
+        <v>363693.73</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="5" t="s">
@@ -5945,8 +6026,12 @@
         <f>SUM(AS17:AS22)</f>
         <v>501978.82999999996</v>
       </c>
+      <c r="AT23" s="11">
+        <f>SUM(AT17:AT22)</f>
+        <v>499789.06999999995</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>49</v>
@@ -6109,8 +6194,12 @@
         <f>AR24+AS8-AS14</f>
         <v>156000</v>
       </c>
+      <c r="AT24" s="2">
+        <f>AS24+AT8-AT14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>51</v>
@@ -6271,6 +6360,10 @@
       <c r="AS25" s="11">
         <f>AS23-AS24</f>
         <v>345978.82999999996</v>
+      </c>
+      <c r="AT25" s="11">
+        <f>AT23-AT24</f>
+        <v>343789.06999999995</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F3C26F-7C00-49B6-B312-A58BF11902A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A341533-4084-4D6B-8F47-FE1383242553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,9 +528,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AT$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AU$1)</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -650,16 +650,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2022/04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022/05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AT$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AU$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -779,6 +782,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>499789.06999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>525935.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,9 +855,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AT$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AU$1)</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -971,16 +977,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2022/04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022/05</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AT$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AU$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1100,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>343789.06999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369935.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,11 +1669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANC25"/>
+  <dimension ref="A1:AND25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ9" sqref="AZ9"/>
+      <selection pane="topRight" activeCell="AW15" sqref="AW15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1676,13 +1688,13 @@
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
     <col min="30" max="41" width="11.25" style="2" customWidth="1"/>
     <col min="42" max="42" width="12" style="2" customWidth="1"/>
-    <col min="43" max="46" width="10.5" style="2" customWidth="1"/>
-    <col min="47" max="47" width="12.25" style="2" customWidth="1"/>
-    <col min="48" max="87" width="10.5" style="2" customWidth="1"/>
-    <col min="88" max="1043" width="10.5" style="1" customWidth="1"/>
+    <col min="43" max="47" width="10.5" style="2" customWidth="1"/>
+    <col min="48" max="48" width="12.25" style="2" customWidth="1"/>
+    <col min="49" max="88" width="10.5" style="2" customWidth="1"/>
+    <col min="89" max="1044" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1043" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1044" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1817,10 +1829,12 @@
       <c r="AT1" s="7">
         <v>44652</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AU1" s="7">
+        <v>44682</v>
+      </c>
+      <c r="AV1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="8"/>
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
       <c r="AY1" s="8"/>
@@ -2816,8 +2830,9 @@
       <c r="ANA1" s="8"/>
       <c r="ANB1" s="8"/>
       <c r="ANC1" s="8"/>
+      <c r="AND1" s="8"/>
     </row>
-    <row r="2" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
@@ -2960,11 +2975,14 @@
         <v>14297</v>
       </c>
       <c r="AU2" s="2">
-        <f>SUM(AQ2:AT2)</f>
-        <v>60555.45</v>
+        <v>16629</v>
+      </c>
+      <c r="AV2" s="2">
+        <f>SUM(AQ2:AU2)</f>
+        <v>77184.45</v>
       </c>
     </row>
-    <row r="3" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
@@ -3103,11 +3121,14 @@
         <v>219.2</v>
       </c>
       <c r="AU3" s="2">
-        <f t="shared" ref="AU3:AU16" si="3">SUM(AQ3:AT3)</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2">
+        <f t="shared" ref="AV3:AV16" si="3">SUM(AQ3:AU3)</f>
         <v>682.40000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
@@ -3247,11 +3268,14 @@
         <v>88.47</v>
       </c>
       <c r="AU4" s="2">
+        <v>90.42</v>
+      </c>
+      <c r="AV4" s="2">
         <f t="shared" si="3"/>
-        <v>2285.7499999999995</v>
+        <v>2376.1699999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
@@ -3390,11 +3414,14 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
@@ -3533,11 +3560,14 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
@@ -3676,11 +3706,14 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
@@ -3819,11 +3852,14 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
@@ -4002,11 +4038,15 @@
         <v>14604.67</v>
       </c>
       <c r="AU9" s="2">
+        <f>SUM(AU2:AU8)</f>
+        <v>16719.419999999998</v>
+      </c>
+      <c r="AV9" s="2">
         <f t="shared" si="3"/>
-        <v>63523.6</v>
+        <v>80243.01999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13" t="s">
         <v>34</v>
@@ -4148,11 +4188,14 @@
         <v>4141.5600000000004</v>
       </c>
       <c r="AU10" s="2">
+        <v>3925.6</v>
+      </c>
+      <c r="AV10" s="2">
         <f t="shared" si="3"/>
-        <v>6641.4500000000007</v>
+        <v>10567.050000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
@@ -4291,11 +4334,14 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5" t="s">
@@ -4435,11 +4481,14 @@
         <v>208.65</v>
       </c>
       <c r="AU12" s="2">
+        <v>273.73</v>
+      </c>
+      <c r="AV12" s="2">
         <f t="shared" si="3"/>
-        <v>2065.62</v>
+        <v>2339.35</v>
       </c>
     </row>
-    <row r="13" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
@@ -4578,11 +4627,14 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="2">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5" t="s">
@@ -4721,11 +4773,14 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5" t="s">
@@ -4904,11 +4959,15 @@
         <v>4350.21</v>
       </c>
       <c r="AU15" s="2">
+        <f>SUM(AU10:AU14)</f>
+        <v>4199.33</v>
+      </c>
+      <c r="AV15" s="2">
         <f t="shared" si="3"/>
-        <v>13707.07</v>
+        <v>17906.400000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:1043" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1044" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
@@ -5087,11 +5146,15 @@
         <v>10254.459999999999</v>
       </c>
       <c r="AU16" s="2">
+        <f>AU9-AU15</f>
+        <v>12520.089999999998</v>
+      </c>
+      <c r="AV16" s="2">
         <f t="shared" si="3"/>
-        <v>49816.53</v>
+        <v>62336.619999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -5222,8 +5285,11 @@
       <c r="AT17" s="2">
         <v>0</v>
       </c>
+      <c r="AU17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="5" t="s">
@@ -5351,8 +5417,11 @@
       <c r="AT18" s="2">
         <v>104338.23</v>
       </c>
+      <c r="AU18" s="2">
+        <v>118000</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="5" t="s">
@@ -5479,8 +5548,11 @@
       <c r="AT19" s="2">
         <v>26077.85</v>
       </c>
+      <c r="AU19" s="2">
+        <v>26077.85</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5" t="s">
@@ -5607,8 +5679,11 @@
       <c r="AT20" s="2">
         <v>5679.26</v>
       </c>
+      <c r="AU20" s="2">
+        <v>5550.8</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5" t="s">
@@ -5735,8 +5810,11 @@
       <c r="AT21" s="2">
         <v>0</v>
       </c>
+      <c r="AU21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="5" t="s">
@@ -5863,8 +5941,11 @@
       <c r="AT22" s="2">
         <v>363693.73</v>
       </c>
+      <c r="AU22" s="2">
+        <v>376306.6</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="5" t="s">
@@ -6030,8 +6111,12 @@
         <f>SUM(AT17:AT22)</f>
         <v>499789.06999999995</v>
       </c>
+      <c r="AU23" s="11">
+        <f>SUM(AU17:AU22)</f>
+        <v>525935.25</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>49</v>
@@ -6198,8 +6283,12 @@
         <f>AS24+AT8-AT14</f>
         <v>156000</v>
       </c>
+      <c r="AU24" s="2">
+        <f>AT24+AU8-AU14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>51</v>
@@ -6364,6 +6453,10 @@
       <c r="AT25" s="11">
         <f>AT23-AT24</f>
         <v>343789.06999999995</v>
+      </c>
+      <c r="AU25" s="11">
+        <f>AU23-AU24</f>
+        <v>369935.25</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A341533-4084-4D6B-8F47-FE1383242553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8078957E-CD6E-47DF-BDB0-E132FAC175FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,9 +528,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AU$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AV$1)</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -653,16 +653,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2022/05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022/06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AU$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AV$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -785,6 +788,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>525935.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>587826.56000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,9 +861,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AU$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AV$1)</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -980,16 +986,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2022/05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022/06</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AU$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AV$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1112,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>369935.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>431826.56000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,11 +1681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AND25"/>
+  <dimension ref="A1:ANE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW15" sqref="AW15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1688,13 +1700,13 @@
     <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
     <col min="30" max="41" width="11.25" style="2" customWidth="1"/>
     <col min="42" max="42" width="12" style="2" customWidth="1"/>
-    <col min="43" max="47" width="10.5" style="2" customWidth="1"/>
-    <col min="48" max="48" width="12.25" style="2" customWidth="1"/>
-    <col min="49" max="88" width="10.5" style="2" customWidth="1"/>
-    <col min="89" max="1044" width="10.5" style="1" customWidth="1"/>
+    <col min="43" max="48" width="10.5" style="2" customWidth="1"/>
+    <col min="49" max="49" width="12.25" style="2" customWidth="1"/>
+    <col min="50" max="89" width="10.5" style="2" customWidth="1"/>
+    <col min="90" max="1045" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1044" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1045" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1832,10 +1844,12 @@
       <c r="AU1" s="7">
         <v>44682</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="7">
+        <v>44713</v>
+      </c>
+      <c r="AW1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
       <c r="AY1" s="8"/>
       <c r="AZ1" s="8"/>
@@ -2831,8 +2845,9 @@
       <c r="ANB1" s="8"/>
       <c r="ANC1" s="8"/>
       <c r="AND1" s="8"/>
+      <c r="ANE1" s="8"/>
     </row>
-    <row r="2" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
@@ -2978,11 +2993,14 @@
         <v>16629</v>
       </c>
       <c r="AV2" s="2">
-        <f>SUM(AQ2:AU2)</f>
-        <v>77184.45</v>
+        <v>16191</v>
+      </c>
+      <c r="AW2" s="2">
+        <f>SUM(AQ2:AV2)</f>
+        <v>93375.45</v>
       </c>
     </row>
-    <row r="3" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="5" t="s">
@@ -3124,11 +3142,14 @@
         <v>0</v>
       </c>
       <c r="AV3" s="2">
-        <f t="shared" ref="AV3:AV16" si="3">SUM(AQ3:AU3)</f>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2">
+        <f t="shared" ref="AW3:AW16" si="3">SUM(AQ3:AV3)</f>
         <v>682.40000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="5" t="s">
@@ -3271,11 +3292,14 @@
         <v>90.42</v>
       </c>
       <c r="AV4" s="2">
+        <v>166.46</v>
+      </c>
+      <c r="AW4" s="2">
         <f t="shared" si="3"/>
-        <v>2376.1699999999996</v>
+        <v>2542.6299999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
@@ -3417,11 +3441,14 @@
         <v>0</v>
       </c>
       <c r="AV5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
@@ -3563,11 +3590,14 @@
         <v>0</v>
       </c>
       <c r="AV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="5" t="s">
@@ -3709,11 +3739,14 @@
         <v>0</v>
       </c>
       <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="5" t="s">
@@ -3855,11 +3888,14 @@
         <v>0</v>
       </c>
       <c r="AV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="5" t="s">
@@ -4042,11 +4078,15 @@
         <v>16719.419999999998</v>
       </c>
       <c r="AV9" s="2">
+        <f>SUM(AV2:AV8)</f>
+        <v>16357.46</v>
+      </c>
+      <c r="AW9" s="2">
         <f t="shared" si="3"/>
-        <v>80243.01999999999</v>
+        <v>96600.479999999981</v>
       </c>
     </row>
-    <row r="10" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13" t="s">
         <v>34</v>
@@ -4191,11 +4231,14 @@
         <v>3925.6</v>
       </c>
       <c r="AV10" s="2">
+        <v>5919.56</v>
+      </c>
+      <c r="AW10" s="2">
         <f t="shared" si="3"/>
-        <v>10567.050000000001</v>
+        <v>16486.61</v>
       </c>
     </row>
-    <row r="11" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
@@ -4337,11 +4380,14 @@
         <v>0</v>
       </c>
       <c r="AV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5" t="s">
@@ -4484,11 +4530,14 @@
         <v>273.73</v>
       </c>
       <c r="AV12" s="2">
+        <v>604.92999999999995</v>
+      </c>
+      <c r="AW12" s="2">
         <f t="shared" si="3"/>
-        <v>2339.35</v>
+        <v>2944.2799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="5" t="s">
@@ -4630,11 +4679,14 @@
         <v>0</v>
       </c>
       <c r="AV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="5" t="s">
@@ -4776,11 +4828,14 @@
         <v>0</v>
       </c>
       <c r="AV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="5" t="s">
@@ -4963,11 +5018,15 @@
         <v>4199.33</v>
       </c>
       <c r="AV15" s="2">
+        <f>SUM(AV10:AV14)</f>
+        <v>6524.4900000000007</v>
+      </c>
+      <c r="AW15" s="2">
         <f t="shared" si="3"/>
-        <v>17906.400000000001</v>
+        <v>24430.890000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:1044" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1045" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
@@ -5150,11 +5209,15 @@
         <v>12520.089999999998</v>
       </c>
       <c r="AV16" s="2">
+        <f>AV9-AV15</f>
+        <v>9832.9699999999975</v>
+      </c>
+      <c r="AW16" s="2">
         <f t="shared" si="3"/>
-        <v>62336.619999999995</v>
+        <v>72169.59</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
@@ -5288,8 +5351,11 @@
       <c r="AU17" s="2">
         <v>0</v>
       </c>
+      <c r="AV17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="5" t="s">
@@ -5420,8 +5486,11 @@
       <c r="AU18" s="2">
         <v>118000</v>
       </c>
+      <c r="AV18" s="2">
+        <v>127000</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="5" t="s">
@@ -5551,8 +5620,11 @@
       <c r="AU19" s="2">
         <v>26077.85</v>
       </c>
+      <c r="AV19" s="2">
+        <v>27287.97</v>
+      </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5" t="s">
@@ -5682,8 +5754,11 @@
       <c r="AU20" s="2">
         <v>5550.8</v>
       </c>
+      <c r="AV20" s="2">
+        <v>5502.57</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5" t="s">
@@ -5813,8 +5888,11 @@
       <c r="AU21" s="2">
         <v>0</v>
       </c>
+      <c r="AV21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="5" t="s">
@@ -5944,8 +6022,11 @@
       <c r="AU22" s="2">
         <v>376306.6</v>
       </c>
+      <c r="AV22" s="2">
+        <v>428036.02</v>
+      </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="5" t="s">
@@ -6115,8 +6196,12 @@
         <f>SUM(AU17:AU22)</f>
         <v>525935.25</v>
       </c>
+      <c r="AV23" s="11">
+        <f>SUM(AV17:AV22)</f>
+        <v>587826.56000000006</v>
+      </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>49</v>
@@ -6287,8 +6372,12 @@
         <f>AT24+AU8-AU14</f>
         <v>156000</v>
       </c>
+      <c r="AV24" s="2">
+        <f>AU24+AV8-AV14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>51</v>
@@ -6457,6 +6546,10 @@
       <c r="AU25" s="11">
         <f>AU23-AU24</f>
         <v>369935.25</v>
+      </c>
+      <c r="AV25" s="11">
+        <f>AV23-AV24</f>
+        <v>431826.56000000006</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D115FC-F0D8-4FDF-8B32-ABA9A75B0135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23370" windowHeight="11985" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,15 +195,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/mm"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -206,158 +219,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,194 +238,8 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -593,269 +275,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -864,72 +298,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1003,12 +396,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1043,13 +439,9 @@
               </a:rPr>
               <a:t>资金总量</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1068,15 +460,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"总资产"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总资产</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>总资产</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1112,6 +496,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1124,178 +509,179 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AW$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AX$1)</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
-                <c:pt idx="0" c:formatCode="yyyy/mm">
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/mm">
+                <c:pt idx="1">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/mm">
+                <c:pt idx="2">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/mm">
+                <c:pt idx="3">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/mm">
+                <c:pt idx="4">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/mm">
+                <c:pt idx="5">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/mm">
+                <c:pt idx="6">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/mm">
+                <c:pt idx="7">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/mm">
+                <c:pt idx="8">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/mm">
+                <c:pt idx="9">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/mm">
+                <c:pt idx="10">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/mm">
+                <c:pt idx="11">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/mm">
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/mm">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/mm">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/mm">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/mm">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/mm">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/mm">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/mm">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/mm">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/mm">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/mm">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/mm">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/mm">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/mm">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/mm">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/mm">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/mm">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/mm">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/mm">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="yyyy/mm">
-                  <c:v>44409</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="yyyy/mm">
-                  <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="yyyy/mm">
-                  <c:v>44470</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="yyyy/mm">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="yyyy/mm">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="yyyy/mm">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="yyyy/mm">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="yyyy/mm">
-                  <c:v>44621</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="yyyy/mm">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="yyyy/mm">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="yyyy/mm">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="yyyy/mm">
-                  <c:v>44743</c:v>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021/10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021/11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021/12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022/01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022/02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022/03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022/04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022/05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022/06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022/07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2022/08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AW$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AX$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108954.76</c:v>
+                  <c:v>108954.76000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>161964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160256.39</c:v>
+                  <c:v>160256.38999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>154938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170416.48</c:v>
+                  <c:v>170416.47999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>162087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184649.52</c:v>
+                  <c:v>184649.52000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>192824.2</c:v>
@@ -1307,28 +693,28 @@
                   <c:v>205734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267359.22</c:v>
+                  <c:v>267359.22000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>265255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283528.34</c:v>
+                  <c:v>283528.33999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>281150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>317850.7</c:v>
+                  <c:v>317850.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348620.8</c:v>
+                  <c:v>348620.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>404304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>396963.58</c:v>
+                  <c:v>396963.57999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>389755.95</c:v>
@@ -1346,7 +732,7 @@
                   <c:v>426465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>477902.41</c:v>
+                  <c:v>477902.41000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>480280.69</c:v>
@@ -1388,38 +774,38 @@
                   <c:v>528443.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>501978.83</c:v>
+                  <c:v>501978.82999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>499789.07</c:v>
+                  <c:v>499789.06999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>525935.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>587826.56</c:v>
+                  <c:v>587826.56000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>570254.55</c:v>
+                  <c:v>570254.55000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>574698.93999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CBA-404E-84E6-333533F1143E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"净资产"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>净资产</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>净资产</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1455,6 +841,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1467,217 +854,218 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AW$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AX$1)</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
-                <c:pt idx="0" c:formatCode="yyyy/mm">
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/mm">
+                <c:pt idx="1">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/mm">
+                <c:pt idx="2">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/mm">
+                <c:pt idx="3">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/mm">
+                <c:pt idx="4">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/mm">
+                <c:pt idx="5">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/mm">
+                <c:pt idx="6">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/mm">
+                <c:pt idx="7">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/mm">
+                <c:pt idx="8">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/mm">
+                <c:pt idx="9">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/mm">
+                <c:pt idx="10">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/mm">
+                <c:pt idx="11">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/mm">
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/mm">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/mm">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/mm">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/mm">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/mm">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/mm">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/mm">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/mm">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/mm">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/mm">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/mm">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/mm">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/mm">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/mm">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/mm">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/mm">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/mm">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/mm">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="yyyy/mm">
-                  <c:v>44409</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="yyyy/mm">
-                  <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="yyyy/mm">
-                  <c:v>44470</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="yyyy/mm">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="yyyy/mm">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="yyyy/mm">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="yyyy/mm">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="yyyy/mm">
-                  <c:v>44621</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="yyyy/mm">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="yyyy/mm">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="yyyy/mm">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="yyyy/mm">
-                  <c:v>44743</c:v>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021/10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021/11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021/12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022/01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022/02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022/03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022/04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022/05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022/06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022/07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2022/08</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AW$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AX$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>39892.05</c:v>
+                  <c:v>39892.050000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55555.21</c:v>
+                  <c:v>55555.210000000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61964.93</c:v>
+                  <c:v>61964.930000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54938.66</c:v>
+                  <c:v>54938.660000000018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70416.48</c:v>
+                  <c:v>70416.479999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62087</c:v>
+                  <c:v>62087.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84649.52</c:v>
+                  <c:v>84649.520000000033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92824.2</c:v>
+                  <c:v>92824.200000000026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107882.92</c:v>
+                  <c:v>107882.92000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105734.57</c:v>
+                  <c:v>105734.57000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167359.22</c:v>
+                  <c:v>167359.22000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165255.3</c:v>
+                  <c:v>165255.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>183528.34</c:v>
+                  <c:v>183528.33999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181150.98</c:v>
+                  <c:v>181150.97999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>217850.7</c:v>
+                  <c:v>217850.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248620.8</c:v>
+                  <c:v>248620.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>304304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226963.58</c:v>
+                  <c:v>226963.57999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>219755.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212849.73</c:v>
+                  <c:v>212849.72999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>229632.07</c:v>
@@ -1689,7 +1077,7 @@
                   <c:v>270465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>321902.41</c:v>
+                  <c:v>321902.41000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>324280.69</c:v>
@@ -1707,7 +1095,7 @@
                   <c:v>313790.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>283295.72</c:v>
+                  <c:v>283295.71999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>282284.74</c:v>
@@ -1722,7 +1110,7 @@
                   <c:v>355524.07</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>394438.91</c:v>
+                  <c:v>394438.91000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>358349.54</c:v>
@@ -1731,24 +1119,32 @@
                   <c:v>372443.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>345978.83</c:v>
+                  <c:v>345978.82999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>343789.07</c:v>
+                  <c:v>343789.06999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>369935.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>431826.56</c:v>
+                  <c:v>431826.56000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>414254.55</c:v>
+                  <c:v>414254.55000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>418698.93999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CBA-404E-84E6-333533F1143E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1767,7 +1163,6 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="52376106"/>
         <c:axId val="74300066"/>
@@ -1801,13 +1196,9 @@
                   </a:rPr>
                   <a:t>时间</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                  <a:latin typeface="Arial"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1843,6 +1234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74300066"/>
@@ -1892,13 +1284,9 @@
                   </a:rPr>
                   <a:t>资金量</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                  <a:latin typeface="Arial"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1934,6 +1322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="52376106"/>
@@ -1951,7 +1340,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1967,6 +1355,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1991,6 +1380,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2002,28 +1392,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>392610</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>17910</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>211635</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="35394900" y="4371975"/>
-        <a:ext cx="5669280" cy="4389755"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2288,21 +1684,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:ANF25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:ANG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="AZ42" sqref="AZ42"/>
+      <pane xSplit="3" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BI18" sqref="BI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
@@ -2314,1240 +1709,1243 @@
     <col min="29" max="29" width="12.75" style="3" customWidth="1"/>
     <col min="30" max="41" width="11.25" style="3" customWidth="1"/>
     <col min="42" max="42" width="12" style="3" customWidth="1"/>
-    <col min="43" max="49" width="10.5" style="3" customWidth="1"/>
-    <col min="50" max="50" width="12.25" style="3" customWidth="1"/>
-    <col min="51" max="90" width="10.5" style="3" customWidth="1"/>
-    <col min="91" max="1046" width="10.5" style="2" customWidth="1"/>
+    <col min="43" max="50" width="10.5" style="3" customWidth="1"/>
+    <col min="51" max="51" width="12.25" style="3" customWidth="1"/>
+    <col min="52" max="91" width="10.5" style="3" customWidth="1"/>
+    <col min="92" max="1047" width="10.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1046">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:1047" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="4">
         <v>44075</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="Z1" s="4">
         <v>44105</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AA1" s="4">
         <v>44136</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AB1" s="4">
         <v>44166</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AD1" s="4">
         <v>44197</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AE1" s="4">
         <v>44228</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AF1" s="4">
         <v>44256</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AG1" s="4">
         <v>44287</v>
       </c>
-      <c r="AH1" s="5">
+      <c r="AH1" s="4">
         <v>44317</v>
       </c>
-      <c r="AI1" s="5">
+      <c r="AI1" s="4">
         <v>44348</v>
       </c>
-      <c r="AJ1" s="5">
+      <c r="AJ1" s="4">
         <v>44378</v>
       </c>
-      <c r="AK1" s="5">
+      <c r="AK1" s="4">
         <v>44409</v>
       </c>
-      <c r="AL1" s="5">
+      <c r="AL1" s="4">
         <v>44440</v>
       </c>
-      <c r="AM1" s="5">
+      <c r="AM1" s="4">
         <v>44470</v>
       </c>
-      <c r="AN1" s="5">
+      <c r="AN1" s="4">
         <v>44501</v>
       </c>
-      <c r="AO1" s="5">
+      <c r="AO1" s="4">
         <v>44531</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" s="5">
+      <c r="AQ1" s="4">
         <v>44562</v>
       </c>
-      <c r="AR1" s="5">
+      <c r="AR1" s="4">
         <v>44593</v>
       </c>
-      <c r="AS1" s="5">
+      <c r="AS1" s="4">
         <v>44621</v>
       </c>
-      <c r="AT1" s="5">
+      <c r="AT1" s="4">
         <v>44652</v>
       </c>
-      <c r="AU1" s="5">
+      <c r="AU1" s="4">
         <v>44682</v>
       </c>
-      <c r="AV1" s="5">
+      <c r="AV1" s="4">
         <v>44713</v>
       </c>
-      <c r="AW1" s="5">
+      <c r="AW1" s="4">
         <v>44743</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="4">
+        <v>44774</v>
+      </c>
+      <c r="AY1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
-      <c r="DF1" s="13"/>
-      <c r="DG1" s="13"/>
-      <c r="DH1" s="13"/>
-      <c r="DI1" s="13"/>
-      <c r="DJ1" s="13"/>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13"/>
-      <c r="DN1" s="13"/>
-      <c r="DO1" s="13"/>
-      <c r="DP1" s="13"/>
-      <c r="DQ1" s="13"/>
-      <c r="DR1" s="13"/>
-      <c r="DS1" s="13"/>
-      <c r="DT1" s="13"/>
-      <c r="DU1" s="13"/>
-      <c r="DV1" s="13"/>
-      <c r="DW1" s="13"/>
-      <c r="DX1" s="13"/>
-      <c r="DY1" s="13"/>
-      <c r="DZ1" s="13"/>
-      <c r="EA1" s="13"/>
-      <c r="EB1" s="13"/>
-      <c r="EC1" s="13"/>
-      <c r="ED1" s="13"/>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="13"/>
-      <c r="EG1" s="13"/>
-      <c r="EH1" s="13"/>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="13"/>
-      <c r="EK1" s="13"/>
-      <c r="EL1" s="13"/>
-      <c r="EM1" s="13"/>
-      <c r="EN1" s="13"/>
-      <c r="EO1" s="13"/>
-      <c r="EP1" s="13"/>
-      <c r="EQ1" s="13"/>
-      <c r="ER1" s="13"/>
-      <c r="ES1" s="13"/>
-      <c r="ET1" s="13"/>
-      <c r="EU1" s="13"/>
-      <c r="EV1" s="13"/>
-      <c r="EW1" s="13"/>
-      <c r="EX1" s="13"/>
-      <c r="EY1" s="13"/>
-      <c r="EZ1" s="13"/>
-      <c r="FA1" s="13"/>
-      <c r="FB1" s="13"/>
-      <c r="FC1" s="13"/>
-      <c r="FD1" s="13"/>
-      <c r="FE1" s="13"/>
-      <c r="FF1" s="13"/>
-      <c r="FG1" s="13"/>
-      <c r="FH1" s="13"/>
-      <c r="FI1" s="13"/>
-      <c r="FJ1" s="13"/>
-      <c r="FK1" s="13"/>
-      <c r="FL1" s="13"/>
-      <c r="FM1" s="13"/>
-      <c r="FN1" s="13"/>
-      <c r="FO1" s="13"/>
-      <c r="FP1" s="13"/>
-      <c r="FQ1" s="13"/>
-      <c r="FR1" s="13"/>
-      <c r="FS1" s="13"/>
-      <c r="FT1" s="13"/>
-      <c r="FU1" s="13"/>
-      <c r="FV1" s="13"/>
-      <c r="FW1" s="13"/>
-      <c r="FX1" s="13"/>
-      <c r="FY1" s="13"/>
-      <c r="FZ1" s="13"/>
-      <c r="GA1" s="13"/>
-      <c r="GB1" s="13"/>
-      <c r="GC1" s="13"/>
-      <c r="GD1" s="13"/>
-      <c r="GE1" s="13"/>
-      <c r="GF1" s="13"/>
-      <c r="GG1" s="13"/>
-      <c r="GH1" s="13"/>
-      <c r="GI1" s="13"/>
-      <c r="GJ1" s="13"/>
-      <c r="GK1" s="13"/>
-      <c r="GL1" s="13"/>
-      <c r="GM1" s="13"/>
-      <c r="GN1" s="13"/>
-      <c r="GO1" s="13"/>
-      <c r="GP1" s="13"/>
-      <c r="GQ1" s="13"/>
-      <c r="GR1" s="13"/>
-      <c r="GS1" s="13"/>
-      <c r="GT1" s="13"/>
-      <c r="GU1" s="13"/>
-      <c r="GV1" s="13"/>
-      <c r="GW1" s="13"/>
-      <c r="GX1" s="13"/>
-      <c r="GY1" s="13"/>
-      <c r="GZ1" s="13"/>
-      <c r="HA1" s="13"/>
-      <c r="HB1" s="13"/>
-      <c r="HC1" s="13"/>
-      <c r="HD1" s="13"/>
-      <c r="HE1" s="13"/>
-      <c r="HF1" s="13"/>
-      <c r="HG1" s="13"/>
-      <c r="HH1" s="13"/>
-      <c r="HI1" s="13"/>
-      <c r="HJ1" s="13"/>
-      <c r="HK1" s="13"/>
-      <c r="HL1" s="13"/>
-      <c r="HM1" s="13"/>
-      <c r="HN1" s="13"/>
-      <c r="HO1" s="13"/>
-      <c r="HP1" s="13"/>
-      <c r="HQ1" s="13"/>
-      <c r="HR1" s="13"/>
-      <c r="HS1" s="13"/>
-      <c r="HT1" s="13"/>
-      <c r="HU1" s="13"/>
-      <c r="HV1" s="13"/>
-      <c r="HW1" s="13"/>
-      <c r="HX1" s="13"/>
-      <c r="HY1" s="13"/>
-      <c r="HZ1" s="13"/>
-      <c r="IA1" s="13"/>
-      <c r="IB1" s="13"/>
-      <c r="IC1" s="13"/>
-      <c r="ID1" s="13"/>
-      <c r="IE1" s="13"/>
-      <c r="IF1" s="13"/>
-      <c r="IG1" s="13"/>
-      <c r="IH1" s="13"/>
-      <c r="II1" s="13"/>
-      <c r="IJ1" s="13"/>
-      <c r="IK1" s="13"/>
-      <c r="IL1" s="13"/>
-      <c r="IM1" s="13"/>
-      <c r="IN1" s="13"/>
-      <c r="IO1" s="13"/>
-      <c r="IP1" s="13"/>
-      <c r="IQ1" s="13"/>
-      <c r="IR1" s="13"/>
-      <c r="IS1" s="13"/>
-      <c r="IT1" s="13"/>
-      <c r="IU1" s="13"/>
-      <c r="IV1" s="13"/>
-      <c r="IW1" s="13"/>
-      <c r="IX1" s="13"/>
-      <c r="IY1" s="13"/>
-      <c r="IZ1" s="13"/>
-      <c r="JA1" s="13"/>
-      <c r="JB1" s="13"/>
-      <c r="JC1" s="13"/>
-      <c r="JD1" s="13"/>
-      <c r="JE1" s="13"/>
-      <c r="JF1" s="13"/>
-      <c r="JG1" s="13"/>
-      <c r="JH1" s="13"/>
-      <c r="JI1" s="13"/>
-      <c r="JJ1" s="13"/>
-      <c r="JK1" s="13"/>
-      <c r="JL1" s="13"/>
-      <c r="JM1" s="13"/>
-      <c r="JN1" s="13"/>
-      <c r="JO1" s="13"/>
-      <c r="JP1" s="13"/>
-      <c r="JQ1" s="13"/>
-      <c r="JR1" s="13"/>
-      <c r="JS1" s="13"/>
-      <c r="JT1" s="13"/>
-      <c r="JU1" s="13"/>
-      <c r="JV1" s="13"/>
-      <c r="JW1" s="13"/>
-      <c r="JX1" s="13"/>
-      <c r="JY1" s="13"/>
-      <c r="JZ1" s="13"/>
-      <c r="KA1" s="13"/>
-      <c r="KB1" s="13"/>
-      <c r="KC1" s="13"/>
-      <c r="KD1" s="13"/>
-      <c r="KE1" s="13"/>
-      <c r="KF1" s="13"/>
-      <c r="KG1" s="13"/>
-      <c r="KH1" s="13"/>
-      <c r="KI1" s="13"/>
-      <c r="KJ1" s="13"/>
-      <c r="KK1" s="13"/>
-      <c r="KL1" s="13"/>
-      <c r="KM1" s="13"/>
-      <c r="KN1" s="13"/>
-      <c r="KO1" s="13"/>
-      <c r="KP1" s="13"/>
-      <c r="KQ1" s="13"/>
-      <c r="KR1" s="13"/>
-      <c r="KS1" s="13"/>
-      <c r="KT1" s="13"/>
-      <c r="KU1" s="13"/>
-      <c r="KV1" s="13"/>
-      <c r="KW1" s="13"/>
-      <c r="KX1" s="13"/>
-      <c r="KY1" s="13"/>
-      <c r="KZ1" s="13"/>
-      <c r="LA1" s="13"/>
-      <c r="LB1" s="13"/>
-      <c r="LC1" s="13"/>
-      <c r="LD1" s="13"/>
-      <c r="LE1" s="13"/>
-      <c r="LF1" s="13"/>
-      <c r="LG1" s="13"/>
-      <c r="LH1" s="13"/>
-      <c r="LI1" s="13"/>
-      <c r="LJ1" s="13"/>
-      <c r="LK1" s="13"/>
-      <c r="LL1" s="13"/>
-      <c r="LM1" s="13"/>
-      <c r="LN1" s="13"/>
-      <c r="LO1" s="13"/>
-      <c r="LP1" s="13"/>
-      <c r="LQ1" s="13"/>
-      <c r="LR1" s="13"/>
-      <c r="LS1" s="13"/>
-      <c r="LT1" s="13"/>
-      <c r="LU1" s="13"/>
-      <c r="LV1" s="13"/>
-      <c r="LW1" s="13"/>
-      <c r="LX1" s="13"/>
-      <c r="LY1" s="13"/>
-      <c r="LZ1" s="13"/>
-      <c r="MA1" s="13"/>
-      <c r="MB1" s="13"/>
-      <c r="MC1" s="13"/>
-      <c r="MD1" s="13"/>
-      <c r="ME1" s="13"/>
-      <c r="MF1" s="13"/>
-      <c r="MG1" s="13"/>
-      <c r="MH1" s="13"/>
-      <c r="MI1" s="13"/>
-      <c r="MJ1" s="13"/>
-      <c r="MK1" s="13"/>
-      <c r="ML1" s="13"/>
-      <c r="MM1" s="13"/>
-      <c r="MN1" s="13"/>
-      <c r="MO1" s="13"/>
-      <c r="MP1" s="13"/>
-      <c r="MQ1" s="13"/>
-      <c r="MR1" s="13"/>
-      <c r="MS1" s="13"/>
-      <c r="MT1" s="13"/>
-      <c r="MU1" s="13"/>
-      <c r="MV1" s="13"/>
-      <c r="MW1" s="13"/>
-      <c r="MX1" s="13"/>
-      <c r="MY1" s="13"/>
-      <c r="MZ1" s="13"/>
-      <c r="NA1" s="13"/>
-      <c r="NB1" s="13"/>
-      <c r="NC1" s="13"/>
-      <c r="ND1" s="13"/>
-      <c r="NE1" s="13"/>
-      <c r="NF1" s="13"/>
-      <c r="NG1" s="13"/>
-      <c r="NH1" s="13"/>
-      <c r="NI1" s="13"/>
-      <c r="NJ1" s="13"/>
-      <c r="NK1" s="13"/>
-      <c r="NL1" s="13"/>
-      <c r="NM1" s="13"/>
-      <c r="NN1" s="13"/>
-      <c r="NO1" s="13"/>
-      <c r="NP1" s="13"/>
-      <c r="NQ1" s="13"/>
-      <c r="NR1" s="13"/>
-      <c r="NS1" s="13"/>
-      <c r="NT1" s="13"/>
-      <c r="NU1" s="13"/>
-      <c r="NV1" s="13"/>
-      <c r="NW1" s="13"/>
-      <c r="NX1" s="13"/>
-      <c r="NY1" s="13"/>
-      <c r="NZ1" s="13"/>
-      <c r="OA1" s="13"/>
-      <c r="OB1" s="13"/>
-      <c r="OC1" s="13"/>
-      <c r="OD1" s="13"/>
-      <c r="OE1" s="13"/>
-      <c r="OF1" s="13"/>
-      <c r="OG1" s="13"/>
-      <c r="OH1" s="13"/>
-      <c r="OI1" s="13"/>
-      <c r="OJ1" s="13"/>
-      <c r="OK1" s="13"/>
-      <c r="OL1" s="13"/>
-      <c r="OM1" s="13"/>
-      <c r="ON1" s="13"/>
-      <c r="OO1" s="13"/>
-      <c r="OP1" s="13"/>
-      <c r="OQ1" s="13"/>
-      <c r="OR1" s="13"/>
-      <c r="OS1" s="13"/>
-      <c r="OT1" s="13"/>
-      <c r="OU1" s="13"/>
-      <c r="OV1" s="13"/>
-      <c r="OW1" s="13"/>
-      <c r="OX1" s="13"/>
-      <c r="OY1" s="13"/>
-      <c r="OZ1" s="13"/>
-      <c r="PA1" s="13"/>
-      <c r="PB1" s="13"/>
-      <c r="PC1" s="13"/>
-      <c r="PD1" s="13"/>
-      <c r="PE1" s="13"/>
-      <c r="PF1" s="13"/>
-      <c r="PG1" s="13"/>
-      <c r="PH1" s="13"/>
-      <c r="PI1" s="13"/>
-      <c r="PJ1" s="13"/>
-      <c r="PK1" s="13"/>
-      <c r="PL1" s="13"/>
-      <c r="PM1" s="13"/>
-      <c r="PN1" s="13"/>
-      <c r="PO1" s="13"/>
-      <c r="PP1" s="13"/>
-      <c r="PQ1" s="13"/>
-      <c r="PR1" s="13"/>
-      <c r="PS1" s="13"/>
-      <c r="PT1" s="13"/>
-      <c r="PU1" s="13"/>
-      <c r="PV1" s="13"/>
-      <c r="PW1" s="13"/>
-      <c r="PX1" s="13"/>
-      <c r="PY1" s="13"/>
-      <c r="PZ1" s="13"/>
-      <c r="QA1" s="13"/>
-      <c r="QB1" s="13"/>
-      <c r="QC1" s="13"/>
-      <c r="QD1" s="13"/>
-      <c r="QE1" s="13"/>
-      <c r="QF1" s="13"/>
-      <c r="QG1" s="13"/>
-      <c r="QH1" s="13"/>
-      <c r="QI1" s="13"/>
-      <c r="QJ1" s="13"/>
-      <c r="QK1" s="13"/>
-      <c r="QL1" s="13"/>
-      <c r="QM1" s="13"/>
-      <c r="QN1" s="13"/>
-      <c r="QO1" s="13"/>
-      <c r="QP1" s="13"/>
-      <c r="QQ1" s="13"/>
-      <c r="QR1" s="13"/>
-      <c r="QS1" s="13"/>
-      <c r="QT1" s="13"/>
-      <c r="QU1" s="13"/>
-      <c r="QV1" s="13"/>
-      <c r="QW1" s="13"/>
-      <c r="QX1" s="13"/>
-      <c r="QY1" s="13"/>
-      <c r="QZ1" s="13"/>
-      <c r="RA1" s="13"/>
-      <c r="RB1" s="13"/>
-      <c r="RC1" s="13"/>
-      <c r="RD1" s="13"/>
-      <c r="RE1" s="13"/>
-      <c r="RF1" s="13"/>
-      <c r="RG1" s="13"/>
-      <c r="RH1" s="13"/>
-      <c r="RI1" s="13"/>
-      <c r="RJ1" s="13"/>
-      <c r="RK1" s="13"/>
-      <c r="RL1" s="13"/>
-      <c r="RM1" s="13"/>
-      <c r="RN1" s="13"/>
-      <c r="RO1" s="13"/>
-      <c r="RP1" s="13"/>
-      <c r="RQ1" s="13"/>
-      <c r="RR1" s="13"/>
-      <c r="RS1" s="13"/>
-      <c r="RT1" s="13"/>
-      <c r="RU1" s="13"/>
-      <c r="RV1" s="13"/>
-      <c r="RW1" s="13"/>
-      <c r="RX1" s="13"/>
-      <c r="RY1" s="13"/>
-      <c r="RZ1" s="13"/>
-      <c r="SA1" s="13"/>
-      <c r="SB1" s="13"/>
-      <c r="SC1" s="13"/>
-      <c r="SD1" s="13"/>
-      <c r="SE1" s="13"/>
-      <c r="SF1" s="13"/>
-      <c r="SG1" s="13"/>
-      <c r="SH1" s="13"/>
-      <c r="SI1" s="13"/>
-      <c r="SJ1" s="13"/>
-      <c r="SK1" s="13"/>
-      <c r="SL1" s="13"/>
-      <c r="SM1" s="13"/>
-      <c r="SN1" s="13"/>
-      <c r="SO1" s="13"/>
-      <c r="SP1" s="13"/>
-      <c r="SQ1" s="13"/>
-      <c r="SR1" s="13"/>
-      <c r="SS1" s="13"/>
-      <c r="ST1" s="13"/>
-      <c r="SU1" s="13"/>
-      <c r="SV1" s="13"/>
-      <c r="SW1" s="13"/>
-      <c r="SX1" s="13"/>
-      <c r="SY1" s="13"/>
-      <c r="SZ1" s="13"/>
-      <c r="TA1" s="13"/>
-      <c r="TB1" s="13"/>
-      <c r="TC1" s="13"/>
-      <c r="TD1" s="13"/>
-      <c r="TE1" s="13"/>
-      <c r="TF1" s="13"/>
-      <c r="TG1" s="13"/>
-      <c r="TH1" s="13"/>
-      <c r="TI1" s="13"/>
-      <c r="TJ1" s="13"/>
-      <c r="TK1" s="13"/>
-      <c r="TL1" s="13"/>
-      <c r="TM1" s="13"/>
-      <c r="TN1" s="13"/>
-      <c r="TO1" s="13"/>
-      <c r="TP1" s="13"/>
-      <c r="TQ1" s="13"/>
-      <c r="TR1" s="13"/>
-      <c r="TS1" s="13"/>
-      <c r="TT1" s="13"/>
-      <c r="TU1" s="13"/>
-      <c r="TV1" s="13"/>
-      <c r="TW1" s="13"/>
-      <c r="TX1" s="13"/>
-      <c r="TY1" s="13"/>
-      <c r="TZ1" s="13"/>
-      <c r="UA1" s="13"/>
-      <c r="UB1" s="13"/>
-      <c r="UC1" s="13"/>
-      <c r="UD1" s="13"/>
-      <c r="UE1" s="13"/>
-      <c r="UF1" s="13"/>
-      <c r="UG1" s="13"/>
-      <c r="UH1" s="13"/>
-      <c r="UI1" s="13"/>
-      <c r="UJ1" s="13"/>
-      <c r="UK1" s="13"/>
-      <c r="UL1" s="13"/>
-      <c r="UM1" s="13"/>
-      <c r="UN1" s="13"/>
-      <c r="UO1" s="13"/>
-      <c r="UP1" s="13"/>
-      <c r="UQ1" s="13"/>
-      <c r="UR1" s="13"/>
-      <c r="US1" s="13"/>
-      <c r="UT1" s="13"/>
-      <c r="UU1" s="13"/>
-      <c r="UV1" s="13"/>
-      <c r="UW1" s="13"/>
-      <c r="UX1" s="13"/>
-      <c r="UY1" s="13"/>
-      <c r="UZ1" s="13"/>
-      <c r="VA1" s="13"/>
-      <c r="VB1" s="13"/>
-      <c r="VC1" s="13"/>
-      <c r="VD1" s="13"/>
-      <c r="VE1" s="13"/>
-      <c r="VF1" s="13"/>
-      <c r="VG1" s="13"/>
-      <c r="VH1" s="13"/>
-      <c r="VI1" s="13"/>
-      <c r="VJ1" s="13"/>
-      <c r="VK1" s="13"/>
-      <c r="VL1" s="13"/>
-      <c r="VM1" s="13"/>
-      <c r="VN1" s="13"/>
-      <c r="VO1" s="13"/>
-      <c r="VP1" s="13"/>
-      <c r="VQ1" s="13"/>
-      <c r="VR1" s="13"/>
-      <c r="VS1" s="13"/>
-      <c r="VT1" s="13"/>
-      <c r="VU1" s="13"/>
-      <c r="VV1" s="13"/>
-      <c r="VW1" s="13"/>
-      <c r="VX1" s="13"/>
-      <c r="VY1" s="13"/>
-      <c r="VZ1" s="13"/>
-      <c r="WA1" s="13"/>
-      <c r="WB1" s="13"/>
-      <c r="WC1" s="13"/>
-      <c r="WD1" s="13"/>
-      <c r="WE1" s="13"/>
-      <c r="WF1" s="13"/>
-      <c r="WG1" s="13"/>
-      <c r="WH1" s="13"/>
-      <c r="WI1" s="13"/>
-      <c r="WJ1" s="13"/>
-      <c r="WK1" s="13"/>
-      <c r="WL1" s="13"/>
-      <c r="WM1" s="13"/>
-      <c r="WN1" s="13"/>
-      <c r="WO1" s="13"/>
-      <c r="WP1" s="13"/>
-      <c r="WQ1" s="13"/>
-      <c r="WR1" s="13"/>
-      <c r="WS1" s="13"/>
-      <c r="WT1" s="13"/>
-      <c r="WU1" s="13"/>
-      <c r="WV1" s="13"/>
-      <c r="WW1" s="13"/>
-      <c r="WX1" s="13"/>
-      <c r="WY1" s="13"/>
-      <c r="WZ1" s="13"/>
-      <c r="XA1" s="13"/>
-      <c r="XB1" s="13"/>
-      <c r="XC1" s="13"/>
-      <c r="XD1" s="13"/>
-      <c r="XE1" s="13"/>
-      <c r="XF1" s="13"/>
-      <c r="XG1" s="13"/>
-      <c r="XH1" s="13"/>
-      <c r="XI1" s="13"/>
-      <c r="XJ1" s="13"/>
-      <c r="XK1" s="13"/>
-      <c r="XL1" s="13"/>
-      <c r="XM1" s="13"/>
-      <c r="XN1" s="13"/>
-      <c r="XO1" s="13"/>
-      <c r="XP1" s="13"/>
-      <c r="XQ1" s="13"/>
-      <c r="XR1" s="13"/>
-      <c r="XS1" s="13"/>
-      <c r="XT1" s="13"/>
-      <c r="XU1" s="13"/>
-      <c r="XV1" s="13"/>
-      <c r="XW1" s="13"/>
-      <c r="XX1" s="13"/>
-      <c r="XY1" s="13"/>
-      <c r="XZ1" s="13"/>
-      <c r="YA1" s="13"/>
-      <c r="YB1" s="13"/>
-      <c r="YC1" s="13"/>
-      <c r="YD1" s="13"/>
-      <c r="YE1" s="13"/>
-      <c r="YF1" s="13"/>
-      <c r="YG1" s="13"/>
-      <c r="YH1" s="13"/>
-      <c r="YI1" s="13"/>
-      <c r="YJ1" s="13"/>
-      <c r="YK1" s="13"/>
-      <c r="YL1" s="13"/>
-      <c r="YM1" s="13"/>
-      <c r="YN1" s="13"/>
-      <c r="YO1" s="13"/>
-      <c r="YP1" s="13"/>
-      <c r="YQ1" s="13"/>
-      <c r="YR1" s="13"/>
-      <c r="YS1" s="13"/>
-      <c r="YT1" s="13"/>
-      <c r="YU1" s="13"/>
-      <c r="YV1" s="13"/>
-      <c r="YW1" s="13"/>
-      <c r="YX1" s="13"/>
-      <c r="YY1" s="13"/>
-      <c r="YZ1" s="13"/>
-      <c r="ZA1" s="13"/>
-      <c r="ZB1" s="13"/>
-      <c r="ZC1" s="13"/>
-      <c r="ZD1" s="13"/>
-      <c r="ZE1" s="13"/>
-      <c r="ZF1" s="13"/>
-      <c r="ZG1" s="13"/>
-      <c r="ZH1" s="13"/>
-      <c r="ZI1" s="13"/>
-      <c r="ZJ1" s="13"/>
-      <c r="ZK1" s="13"/>
-      <c r="ZL1" s="13"/>
-      <c r="ZM1" s="13"/>
-      <c r="ZN1" s="13"/>
-      <c r="ZO1" s="13"/>
-      <c r="ZP1" s="13"/>
-      <c r="ZQ1" s="13"/>
-      <c r="ZR1" s="13"/>
-      <c r="ZS1" s="13"/>
-      <c r="ZT1" s="13"/>
-      <c r="ZU1" s="13"/>
-      <c r="ZV1" s="13"/>
-      <c r="ZW1" s="13"/>
-      <c r="ZX1" s="13"/>
-      <c r="ZY1" s="13"/>
-      <c r="ZZ1" s="13"/>
-      <c r="AAA1" s="13"/>
-      <c r="AAB1" s="13"/>
-      <c r="AAC1" s="13"/>
-      <c r="AAD1" s="13"/>
-      <c r="AAE1" s="13"/>
-      <c r="AAF1" s="13"/>
-      <c r="AAG1" s="13"/>
-      <c r="AAH1" s="13"/>
-      <c r="AAI1" s="13"/>
-      <c r="AAJ1" s="13"/>
-      <c r="AAK1" s="13"/>
-      <c r="AAL1" s="13"/>
-      <c r="AAM1" s="13"/>
-      <c r="AAN1" s="13"/>
-      <c r="AAO1" s="13"/>
-      <c r="AAP1" s="13"/>
-      <c r="AAQ1" s="13"/>
-      <c r="AAR1" s="13"/>
-      <c r="AAS1" s="13"/>
-      <c r="AAT1" s="13"/>
-      <c r="AAU1" s="13"/>
-      <c r="AAV1" s="13"/>
-      <c r="AAW1" s="13"/>
-      <c r="AAX1" s="13"/>
-      <c r="AAY1" s="13"/>
-      <c r="AAZ1" s="13"/>
-      <c r="ABA1" s="13"/>
-      <c r="ABB1" s="13"/>
-      <c r="ABC1" s="13"/>
-      <c r="ABD1" s="13"/>
-      <c r="ABE1" s="13"/>
-      <c r="ABF1" s="13"/>
-      <c r="ABG1" s="13"/>
-      <c r="ABH1" s="13"/>
-      <c r="ABI1" s="13"/>
-      <c r="ABJ1" s="13"/>
-      <c r="ABK1" s="13"/>
-      <c r="ABL1" s="13"/>
-      <c r="ABM1" s="13"/>
-      <c r="ABN1" s="13"/>
-      <c r="ABO1" s="13"/>
-      <c r="ABP1" s="13"/>
-      <c r="ABQ1" s="13"/>
-      <c r="ABR1" s="13"/>
-      <c r="ABS1" s="13"/>
-      <c r="ABT1" s="13"/>
-      <c r="ABU1" s="13"/>
-      <c r="ABV1" s="13"/>
-      <c r="ABW1" s="13"/>
-      <c r="ABX1" s="13"/>
-      <c r="ABY1" s="13"/>
-      <c r="ABZ1" s="13"/>
-      <c r="ACA1" s="13"/>
-      <c r="ACB1" s="13"/>
-      <c r="ACC1" s="13"/>
-      <c r="ACD1" s="13"/>
-      <c r="ACE1" s="13"/>
-      <c r="ACF1" s="13"/>
-      <c r="ACG1" s="13"/>
-      <c r="ACH1" s="13"/>
-      <c r="ACI1" s="13"/>
-      <c r="ACJ1" s="13"/>
-      <c r="ACK1" s="13"/>
-      <c r="ACL1" s="13"/>
-      <c r="ACM1" s="13"/>
-      <c r="ACN1" s="13"/>
-      <c r="ACO1" s="13"/>
-      <c r="ACP1" s="13"/>
-      <c r="ACQ1" s="13"/>
-      <c r="ACR1" s="13"/>
-      <c r="ACS1" s="13"/>
-      <c r="ACT1" s="13"/>
-      <c r="ACU1" s="13"/>
-      <c r="ACV1" s="13"/>
-      <c r="ACW1" s="13"/>
-      <c r="ACX1" s="13"/>
-      <c r="ACY1" s="13"/>
-      <c r="ACZ1" s="13"/>
-      <c r="ADA1" s="13"/>
-      <c r="ADB1" s="13"/>
-      <c r="ADC1" s="13"/>
-      <c r="ADD1" s="13"/>
-      <c r="ADE1" s="13"/>
-      <c r="ADF1" s="13"/>
-      <c r="ADG1" s="13"/>
-      <c r="ADH1" s="13"/>
-      <c r="ADI1" s="13"/>
-      <c r="ADJ1" s="13"/>
-      <c r="ADK1" s="13"/>
-      <c r="ADL1" s="13"/>
-      <c r="ADM1" s="13"/>
-      <c r="ADN1" s="13"/>
-      <c r="ADO1" s="13"/>
-      <c r="ADP1" s="13"/>
-      <c r="ADQ1" s="13"/>
-      <c r="ADR1" s="13"/>
-      <c r="ADS1" s="13"/>
-      <c r="ADT1" s="13"/>
-      <c r="ADU1" s="13"/>
-      <c r="ADV1" s="13"/>
-      <c r="ADW1" s="13"/>
-      <c r="ADX1" s="13"/>
-      <c r="ADY1" s="13"/>
-      <c r="ADZ1" s="13"/>
-      <c r="AEA1" s="13"/>
-      <c r="AEB1" s="13"/>
-      <c r="AEC1" s="13"/>
-      <c r="AED1" s="13"/>
-      <c r="AEE1" s="13"/>
-      <c r="AEF1" s="13"/>
-      <c r="AEG1" s="13"/>
-      <c r="AEH1" s="13"/>
-      <c r="AEI1" s="13"/>
-      <c r="AEJ1" s="13"/>
-      <c r="AEK1" s="13"/>
-      <c r="AEL1" s="13"/>
-      <c r="AEM1" s="13"/>
-      <c r="AEN1" s="13"/>
-      <c r="AEO1" s="13"/>
-      <c r="AEP1" s="13"/>
-      <c r="AEQ1" s="13"/>
-      <c r="AER1" s="13"/>
-      <c r="AES1" s="13"/>
-      <c r="AET1" s="13"/>
-      <c r="AEU1" s="13"/>
-      <c r="AEV1" s="13"/>
-      <c r="AEW1" s="13"/>
-      <c r="AEX1" s="13"/>
-      <c r="AEY1" s="13"/>
-      <c r="AEZ1" s="13"/>
-      <c r="AFA1" s="13"/>
-      <c r="AFB1" s="13"/>
-      <c r="AFC1" s="13"/>
-      <c r="AFD1" s="13"/>
-      <c r="AFE1" s="13"/>
-      <c r="AFF1" s="13"/>
-      <c r="AFG1" s="13"/>
-      <c r="AFH1" s="13"/>
-      <c r="AFI1" s="13"/>
-      <c r="AFJ1" s="13"/>
-      <c r="AFK1" s="13"/>
-      <c r="AFL1" s="13"/>
-      <c r="AFM1" s="13"/>
-      <c r="AFN1" s="13"/>
-      <c r="AFO1" s="13"/>
-      <c r="AFP1" s="13"/>
-      <c r="AFQ1" s="13"/>
-      <c r="AFR1" s="13"/>
-      <c r="AFS1" s="13"/>
-      <c r="AFT1" s="13"/>
-      <c r="AFU1" s="13"/>
-      <c r="AFV1" s="13"/>
-      <c r="AFW1" s="13"/>
-      <c r="AFX1" s="13"/>
-      <c r="AFY1" s="13"/>
-      <c r="AFZ1" s="13"/>
-      <c r="AGA1" s="13"/>
-      <c r="AGB1" s="13"/>
-      <c r="AGC1" s="13"/>
-      <c r="AGD1" s="13"/>
-      <c r="AGE1" s="13"/>
-      <c r="AGF1" s="13"/>
-      <c r="AGG1" s="13"/>
-      <c r="AGH1" s="13"/>
-      <c r="AGI1" s="13"/>
-      <c r="AGJ1" s="13"/>
-      <c r="AGK1" s="13"/>
-      <c r="AGL1" s="13"/>
-      <c r="AGM1" s="13"/>
-      <c r="AGN1" s="13"/>
-      <c r="AGO1" s="13"/>
-      <c r="AGP1" s="13"/>
-      <c r="AGQ1" s="13"/>
-      <c r="AGR1" s="13"/>
-      <c r="AGS1" s="13"/>
-      <c r="AGT1" s="13"/>
-      <c r="AGU1" s="13"/>
-      <c r="AGV1" s="13"/>
-      <c r="AGW1" s="13"/>
-      <c r="AGX1" s="13"/>
-      <c r="AGY1" s="13"/>
-      <c r="AGZ1" s="13"/>
-      <c r="AHA1" s="13"/>
-      <c r="AHB1" s="13"/>
-      <c r="AHC1" s="13"/>
-      <c r="AHD1" s="13"/>
-      <c r="AHE1" s="13"/>
-      <c r="AHF1" s="13"/>
-      <c r="AHG1" s="13"/>
-      <c r="AHH1" s="13"/>
-      <c r="AHI1" s="13"/>
-      <c r="AHJ1" s="13"/>
-      <c r="AHK1" s="13"/>
-      <c r="AHL1" s="13"/>
-      <c r="AHM1" s="13"/>
-      <c r="AHN1" s="13"/>
-      <c r="AHO1" s="13"/>
-      <c r="AHP1" s="13"/>
-      <c r="AHQ1" s="13"/>
-      <c r="AHR1" s="13"/>
-      <c r="AHS1" s="13"/>
-      <c r="AHT1" s="13"/>
-      <c r="AHU1" s="13"/>
-      <c r="AHV1" s="13"/>
-      <c r="AHW1" s="13"/>
-      <c r="AHX1" s="13"/>
-      <c r="AHY1" s="13"/>
-      <c r="AHZ1" s="13"/>
-      <c r="AIA1" s="13"/>
-      <c r="AIB1" s="13"/>
-      <c r="AIC1" s="13"/>
-      <c r="AID1" s="13"/>
-      <c r="AIE1" s="13"/>
-      <c r="AIF1" s="13"/>
-      <c r="AIG1" s="13"/>
-      <c r="AIH1" s="13"/>
-      <c r="AII1" s="13"/>
-      <c r="AIJ1" s="13"/>
-      <c r="AIK1" s="13"/>
-      <c r="AIL1" s="13"/>
-      <c r="AIM1" s="13"/>
-      <c r="AIN1" s="13"/>
-      <c r="AIO1" s="13"/>
-      <c r="AIP1" s="13"/>
-      <c r="AIQ1" s="13"/>
-      <c r="AIR1" s="13"/>
-      <c r="AIS1" s="13"/>
-      <c r="AIT1" s="13"/>
-      <c r="AIU1" s="13"/>
-      <c r="AIV1" s="13"/>
-      <c r="AIW1" s="13"/>
-      <c r="AIX1" s="13"/>
-      <c r="AIY1" s="13"/>
-      <c r="AIZ1" s="13"/>
-      <c r="AJA1" s="13"/>
-      <c r="AJB1" s="13"/>
-      <c r="AJC1" s="13"/>
-      <c r="AJD1" s="13"/>
-      <c r="AJE1" s="13"/>
-      <c r="AJF1" s="13"/>
-      <c r="AJG1" s="13"/>
-      <c r="AJH1" s="13"/>
-      <c r="AJI1" s="13"/>
-      <c r="AJJ1" s="13"/>
-      <c r="AJK1" s="13"/>
-      <c r="AJL1" s="13"/>
-      <c r="AJM1" s="13"/>
-      <c r="AJN1" s="13"/>
-      <c r="AJO1" s="13"/>
-      <c r="AJP1" s="13"/>
-      <c r="AJQ1" s="13"/>
-      <c r="AJR1" s="13"/>
-      <c r="AJS1" s="13"/>
-      <c r="AJT1" s="13"/>
-      <c r="AJU1" s="13"/>
-      <c r="AJV1" s="13"/>
-      <c r="AJW1" s="13"/>
-      <c r="AJX1" s="13"/>
-      <c r="AJY1" s="13"/>
-      <c r="AJZ1" s="13"/>
-      <c r="AKA1" s="13"/>
-      <c r="AKB1" s="13"/>
-      <c r="AKC1" s="13"/>
-      <c r="AKD1" s="13"/>
-      <c r="AKE1" s="13"/>
-      <c r="AKF1" s="13"/>
-      <c r="AKG1" s="13"/>
-      <c r="AKH1" s="13"/>
-      <c r="AKI1" s="13"/>
-      <c r="AKJ1" s="13"/>
-      <c r="AKK1" s="13"/>
-      <c r="AKL1" s="13"/>
-      <c r="AKM1" s="13"/>
-      <c r="AKN1" s="13"/>
-      <c r="AKO1" s="13"/>
-      <c r="AKP1" s="13"/>
-      <c r="AKQ1" s="13"/>
-      <c r="AKR1" s="13"/>
-      <c r="AKS1" s="13"/>
-      <c r="AKT1" s="13"/>
-      <c r="AKU1" s="13"/>
-      <c r="AKV1" s="13"/>
-      <c r="AKW1" s="13"/>
-      <c r="AKX1" s="13"/>
-      <c r="AKY1" s="13"/>
-      <c r="AKZ1" s="13"/>
-      <c r="ALA1" s="13"/>
-      <c r="ALB1" s="13"/>
-      <c r="ALC1" s="13"/>
-      <c r="ALD1" s="13"/>
-      <c r="ALE1" s="13"/>
-      <c r="ALF1" s="13"/>
-      <c r="ALG1" s="13"/>
-      <c r="ALH1" s="13"/>
-      <c r="ALI1" s="13"/>
-      <c r="ALJ1" s="13"/>
-      <c r="ALK1" s="13"/>
-      <c r="ALL1" s="13"/>
-      <c r="ALM1" s="13"/>
-      <c r="ALN1" s="13"/>
-      <c r="ALO1" s="13"/>
-      <c r="ALP1" s="13"/>
-      <c r="ALQ1" s="13"/>
-      <c r="ALR1" s="13"/>
-      <c r="ALS1" s="13"/>
-      <c r="ALT1" s="13"/>
-      <c r="ALU1" s="13"/>
-      <c r="ALV1" s="13"/>
-      <c r="ALW1" s="13"/>
-      <c r="ALX1" s="13"/>
-      <c r="ALY1" s="13"/>
-      <c r="ALZ1" s="13"/>
-      <c r="AMA1" s="13"/>
-      <c r="AMB1" s="13"/>
-      <c r="AMC1" s="13"/>
-      <c r="AMD1" s="13"/>
-      <c r="AME1" s="13"/>
-      <c r="AMF1" s="13"/>
-      <c r="AMG1" s="13"/>
-      <c r="AMH1" s="13"/>
-      <c r="AMI1" s="13"/>
-      <c r="AMJ1" s="13"/>
-      <c r="AMK1" s="13"/>
-      <c r="AML1" s="13"/>
-      <c r="AMM1" s="13"/>
-      <c r="AMN1" s="13"/>
-      <c r="AMO1" s="13"/>
-      <c r="AMP1" s="13"/>
-      <c r="AMQ1" s="13"/>
-      <c r="AMR1" s="13"/>
-      <c r="AMS1" s="13"/>
-      <c r="AMT1" s="13"/>
-      <c r="AMU1" s="13"/>
-      <c r="AMV1" s="13"/>
-      <c r="AMW1" s="13"/>
-      <c r="AMX1" s="13"/>
-      <c r="AMY1" s="13"/>
-      <c r="AMZ1" s="13"/>
-      <c r="ANA1" s="13"/>
-      <c r="ANB1" s="13"/>
-      <c r="ANC1" s="13"/>
-      <c r="AND1" s="13"/>
-      <c r="ANE1" s="13"/>
-      <c r="ANF1" s="13"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="10"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="10"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="10"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="10"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="10"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="10"/>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="10"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="10"/>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="10"/>
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="10"/>
+      <c r="CH1" s="10"/>
+      <c r="CI1" s="10"/>
+      <c r="CJ1" s="10"/>
+      <c r="CK1" s="10"/>
+      <c r="CL1" s="10"/>
+      <c r="CM1" s="10"/>
+      <c r="CN1" s="10"/>
+      <c r="CO1" s="10"/>
+      <c r="CP1" s="10"/>
+      <c r="CQ1" s="10"/>
+      <c r="CR1" s="10"/>
+      <c r="CS1" s="10"/>
+      <c r="CT1" s="10"/>
+      <c r="CU1" s="10"/>
+      <c r="CV1" s="10"/>
+      <c r="CW1" s="10"/>
+      <c r="CX1" s="10"/>
+      <c r="CY1" s="10"/>
+      <c r="CZ1" s="10"/>
+      <c r="DA1" s="10"/>
+      <c r="DB1" s="10"/>
+      <c r="DC1" s="10"/>
+      <c r="DD1" s="10"/>
+      <c r="DE1" s="10"/>
+      <c r="DF1" s="10"/>
+      <c r="DG1" s="10"/>
+      <c r="DH1" s="10"/>
+      <c r="DI1" s="10"/>
+      <c r="DJ1" s="10"/>
+      <c r="DK1" s="10"/>
+      <c r="DL1" s="10"/>
+      <c r="DM1" s="10"/>
+      <c r="DN1" s="10"/>
+      <c r="DO1" s="10"/>
+      <c r="DP1" s="10"/>
+      <c r="DQ1" s="10"/>
+      <c r="DR1" s="10"/>
+      <c r="DS1" s="10"/>
+      <c r="DT1" s="10"/>
+      <c r="DU1" s="10"/>
+      <c r="DV1" s="10"/>
+      <c r="DW1" s="10"/>
+      <c r="DX1" s="10"/>
+      <c r="DY1" s="10"/>
+      <c r="DZ1" s="10"/>
+      <c r="EA1" s="10"/>
+      <c r="EB1" s="10"/>
+      <c r="EC1" s="10"/>
+      <c r="ED1" s="10"/>
+      <c r="EE1" s="10"/>
+      <c r="EF1" s="10"/>
+      <c r="EG1" s="10"/>
+      <c r="EH1" s="10"/>
+      <c r="EI1" s="10"/>
+      <c r="EJ1" s="10"/>
+      <c r="EK1" s="10"/>
+      <c r="EL1" s="10"/>
+      <c r="EM1" s="10"/>
+      <c r="EN1" s="10"/>
+      <c r="EO1" s="10"/>
+      <c r="EP1" s="10"/>
+      <c r="EQ1" s="10"/>
+      <c r="ER1" s="10"/>
+      <c r="ES1" s="10"/>
+      <c r="ET1" s="10"/>
+      <c r="EU1" s="10"/>
+      <c r="EV1" s="10"/>
+      <c r="EW1" s="10"/>
+      <c r="EX1" s="10"/>
+      <c r="EY1" s="10"/>
+      <c r="EZ1" s="10"/>
+      <c r="FA1" s="10"/>
+      <c r="FB1" s="10"/>
+      <c r="FC1" s="10"/>
+      <c r="FD1" s="10"/>
+      <c r="FE1" s="10"/>
+      <c r="FF1" s="10"/>
+      <c r="FG1" s="10"/>
+      <c r="FH1" s="10"/>
+      <c r="FI1" s="10"/>
+      <c r="FJ1" s="10"/>
+      <c r="FK1" s="10"/>
+      <c r="FL1" s="10"/>
+      <c r="FM1" s="10"/>
+      <c r="FN1" s="10"/>
+      <c r="FO1" s="10"/>
+      <c r="FP1" s="10"/>
+      <c r="FQ1" s="10"/>
+      <c r="FR1" s="10"/>
+      <c r="FS1" s="10"/>
+      <c r="FT1" s="10"/>
+      <c r="FU1" s="10"/>
+      <c r="FV1" s="10"/>
+      <c r="FW1" s="10"/>
+      <c r="FX1" s="10"/>
+      <c r="FY1" s="10"/>
+      <c r="FZ1" s="10"/>
+      <c r="GA1" s="10"/>
+      <c r="GB1" s="10"/>
+      <c r="GC1" s="10"/>
+      <c r="GD1" s="10"/>
+      <c r="GE1" s="10"/>
+      <c r="GF1" s="10"/>
+      <c r="GG1" s="10"/>
+      <c r="GH1" s="10"/>
+      <c r="GI1" s="10"/>
+      <c r="GJ1" s="10"/>
+      <c r="GK1" s="10"/>
+      <c r="GL1" s="10"/>
+      <c r="GM1" s="10"/>
+      <c r="GN1" s="10"/>
+      <c r="GO1" s="10"/>
+      <c r="GP1" s="10"/>
+      <c r="GQ1" s="10"/>
+      <c r="GR1" s="10"/>
+      <c r="GS1" s="10"/>
+      <c r="GT1" s="10"/>
+      <c r="GU1" s="10"/>
+      <c r="GV1" s="10"/>
+      <c r="GW1" s="10"/>
+      <c r="GX1" s="10"/>
+      <c r="GY1" s="10"/>
+      <c r="GZ1" s="10"/>
+      <c r="HA1" s="10"/>
+      <c r="HB1" s="10"/>
+      <c r="HC1" s="10"/>
+      <c r="HD1" s="10"/>
+      <c r="HE1" s="10"/>
+      <c r="HF1" s="10"/>
+      <c r="HG1" s="10"/>
+      <c r="HH1" s="10"/>
+      <c r="HI1" s="10"/>
+      <c r="HJ1" s="10"/>
+      <c r="HK1" s="10"/>
+      <c r="HL1" s="10"/>
+      <c r="HM1" s="10"/>
+      <c r="HN1" s="10"/>
+      <c r="HO1" s="10"/>
+      <c r="HP1" s="10"/>
+      <c r="HQ1" s="10"/>
+      <c r="HR1" s="10"/>
+      <c r="HS1" s="10"/>
+      <c r="HT1" s="10"/>
+      <c r="HU1" s="10"/>
+      <c r="HV1" s="10"/>
+      <c r="HW1" s="10"/>
+      <c r="HX1" s="10"/>
+      <c r="HY1" s="10"/>
+      <c r="HZ1" s="10"/>
+      <c r="IA1" s="10"/>
+      <c r="IB1" s="10"/>
+      <c r="IC1" s="10"/>
+      <c r="ID1" s="10"/>
+      <c r="IE1" s="10"/>
+      <c r="IF1" s="10"/>
+      <c r="IG1" s="10"/>
+      <c r="IH1" s="10"/>
+      <c r="II1" s="10"/>
+      <c r="IJ1" s="10"/>
+      <c r="IK1" s="10"/>
+      <c r="IL1" s="10"/>
+      <c r="IM1" s="10"/>
+      <c r="IN1" s="10"/>
+      <c r="IO1" s="10"/>
+      <c r="IP1" s="10"/>
+      <c r="IQ1" s="10"/>
+      <c r="IR1" s="10"/>
+      <c r="IS1" s="10"/>
+      <c r="IT1" s="10"/>
+      <c r="IU1" s="10"/>
+      <c r="IV1" s="10"/>
+      <c r="IW1" s="10"/>
+      <c r="IX1" s="10"/>
+      <c r="IY1" s="10"/>
+      <c r="IZ1" s="10"/>
+      <c r="JA1" s="10"/>
+      <c r="JB1" s="10"/>
+      <c r="JC1" s="10"/>
+      <c r="JD1" s="10"/>
+      <c r="JE1" s="10"/>
+      <c r="JF1" s="10"/>
+      <c r="JG1" s="10"/>
+      <c r="JH1" s="10"/>
+      <c r="JI1" s="10"/>
+      <c r="JJ1" s="10"/>
+      <c r="JK1" s="10"/>
+      <c r="JL1" s="10"/>
+      <c r="JM1" s="10"/>
+      <c r="JN1" s="10"/>
+      <c r="JO1" s="10"/>
+      <c r="JP1" s="10"/>
+      <c r="JQ1" s="10"/>
+      <c r="JR1" s="10"/>
+      <c r="JS1" s="10"/>
+      <c r="JT1" s="10"/>
+      <c r="JU1" s="10"/>
+      <c r="JV1" s="10"/>
+      <c r="JW1" s="10"/>
+      <c r="JX1" s="10"/>
+      <c r="JY1" s="10"/>
+      <c r="JZ1" s="10"/>
+      <c r="KA1" s="10"/>
+      <c r="KB1" s="10"/>
+      <c r="KC1" s="10"/>
+      <c r="KD1" s="10"/>
+      <c r="KE1" s="10"/>
+      <c r="KF1" s="10"/>
+      <c r="KG1" s="10"/>
+      <c r="KH1" s="10"/>
+      <c r="KI1" s="10"/>
+      <c r="KJ1" s="10"/>
+      <c r="KK1" s="10"/>
+      <c r="KL1" s="10"/>
+      <c r="KM1" s="10"/>
+      <c r="KN1" s="10"/>
+      <c r="KO1" s="10"/>
+      <c r="KP1" s="10"/>
+      <c r="KQ1" s="10"/>
+      <c r="KR1" s="10"/>
+      <c r="KS1" s="10"/>
+      <c r="KT1" s="10"/>
+      <c r="KU1" s="10"/>
+      <c r="KV1" s="10"/>
+      <c r="KW1" s="10"/>
+      <c r="KX1" s="10"/>
+      <c r="KY1" s="10"/>
+      <c r="KZ1" s="10"/>
+      <c r="LA1" s="10"/>
+      <c r="LB1" s="10"/>
+      <c r="LC1" s="10"/>
+      <c r="LD1" s="10"/>
+      <c r="LE1" s="10"/>
+      <c r="LF1" s="10"/>
+      <c r="LG1" s="10"/>
+      <c r="LH1" s="10"/>
+      <c r="LI1" s="10"/>
+      <c r="LJ1" s="10"/>
+      <c r="LK1" s="10"/>
+      <c r="LL1" s="10"/>
+      <c r="LM1" s="10"/>
+      <c r="LN1" s="10"/>
+      <c r="LO1" s="10"/>
+      <c r="LP1" s="10"/>
+      <c r="LQ1" s="10"/>
+      <c r="LR1" s="10"/>
+      <c r="LS1" s="10"/>
+      <c r="LT1" s="10"/>
+      <c r="LU1" s="10"/>
+      <c r="LV1" s="10"/>
+      <c r="LW1" s="10"/>
+      <c r="LX1" s="10"/>
+      <c r="LY1" s="10"/>
+      <c r="LZ1" s="10"/>
+      <c r="MA1" s="10"/>
+      <c r="MB1" s="10"/>
+      <c r="MC1" s="10"/>
+      <c r="MD1" s="10"/>
+      <c r="ME1" s="10"/>
+      <c r="MF1" s="10"/>
+      <c r="MG1" s="10"/>
+      <c r="MH1" s="10"/>
+      <c r="MI1" s="10"/>
+      <c r="MJ1" s="10"/>
+      <c r="MK1" s="10"/>
+      <c r="ML1" s="10"/>
+      <c r="MM1" s="10"/>
+      <c r="MN1" s="10"/>
+      <c r="MO1" s="10"/>
+      <c r="MP1" s="10"/>
+      <c r="MQ1" s="10"/>
+      <c r="MR1" s="10"/>
+      <c r="MS1" s="10"/>
+      <c r="MT1" s="10"/>
+      <c r="MU1" s="10"/>
+      <c r="MV1" s="10"/>
+      <c r="MW1" s="10"/>
+      <c r="MX1" s="10"/>
+      <c r="MY1" s="10"/>
+      <c r="MZ1" s="10"/>
+      <c r="NA1" s="10"/>
+      <c r="NB1" s="10"/>
+      <c r="NC1" s="10"/>
+      <c r="ND1" s="10"/>
+      <c r="NE1" s="10"/>
+      <c r="NF1" s="10"/>
+      <c r="NG1" s="10"/>
+      <c r="NH1" s="10"/>
+      <c r="NI1" s="10"/>
+      <c r="NJ1" s="10"/>
+      <c r="NK1" s="10"/>
+      <c r="NL1" s="10"/>
+      <c r="NM1" s="10"/>
+      <c r="NN1" s="10"/>
+      <c r="NO1" s="10"/>
+      <c r="NP1" s="10"/>
+      <c r="NQ1" s="10"/>
+      <c r="NR1" s="10"/>
+      <c r="NS1" s="10"/>
+      <c r="NT1" s="10"/>
+      <c r="NU1" s="10"/>
+      <c r="NV1" s="10"/>
+      <c r="NW1" s="10"/>
+      <c r="NX1" s="10"/>
+      <c r="NY1" s="10"/>
+      <c r="NZ1" s="10"/>
+      <c r="OA1" s="10"/>
+      <c r="OB1" s="10"/>
+      <c r="OC1" s="10"/>
+      <c r="OD1" s="10"/>
+      <c r="OE1" s="10"/>
+      <c r="OF1" s="10"/>
+      <c r="OG1" s="10"/>
+      <c r="OH1" s="10"/>
+      <c r="OI1" s="10"/>
+      <c r="OJ1" s="10"/>
+      <c r="OK1" s="10"/>
+      <c r="OL1" s="10"/>
+      <c r="OM1" s="10"/>
+      <c r="ON1" s="10"/>
+      <c r="OO1" s="10"/>
+      <c r="OP1" s="10"/>
+      <c r="OQ1" s="10"/>
+      <c r="OR1" s="10"/>
+      <c r="OS1" s="10"/>
+      <c r="OT1" s="10"/>
+      <c r="OU1" s="10"/>
+      <c r="OV1" s="10"/>
+      <c r="OW1" s="10"/>
+      <c r="OX1" s="10"/>
+      <c r="OY1" s="10"/>
+      <c r="OZ1" s="10"/>
+      <c r="PA1" s="10"/>
+      <c r="PB1" s="10"/>
+      <c r="PC1" s="10"/>
+      <c r="PD1" s="10"/>
+      <c r="PE1" s="10"/>
+      <c r="PF1" s="10"/>
+      <c r="PG1" s="10"/>
+      <c r="PH1" s="10"/>
+      <c r="PI1" s="10"/>
+      <c r="PJ1" s="10"/>
+      <c r="PK1" s="10"/>
+      <c r="PL1" s="10"/>
+      <c r="PM1" s="10"/>
+      <c r="PN1" s="10"/>
+      <c r="PO1" s="10"/>
+      <c r="PP1" s="10"/>
+      <c r="PQ1" s="10"/>
+      <c r="PR1" s="10"/>
+      <c r="PS1" s="10"/>
+      <c r="PT1" s="10"/>
+      <c r="PU1" s="10"/>
+      <c r="PV1" s="10"/>
+      <c r="PW1" s="10"/>
+      <c r="PX1" s="10"/>
+      <c r="PY1" s="10"/>
+      <c r="PZ1" s="10"/>
+      <c r="QA1" s="10"/>
+      <c r="QB1" s="10"/>
+      <c r="QC1" s="10"/>
+      <c r="QD1" s="10"/>
+      <c r="QE1" s="10"/>
+      <c r="QF1" s="10"/>
+      <c r="QG1" s="10"/>
+      <c r="QH1" s="10"/>
+      <c r="QI1" s="10"/>
+      <c r="QJ1" s="10"/>
+      <c r="QK1" s="10"/>
+      <c r="QL1" s="10"/>
+      <c r="QM1" s="10"/>
+      <c r="QN1" s="10"/>
+      <c r="QO1" s="10"/>
+      <c r="QP1" s="10"/>
+      <c r="QQ1" s="10"/>
+      <c r="QR1" s="10"/>
+      <c r="QS1" s="10"/>
+      <c r="QT1" s="10"/>
+      <c r="QU1" s="10"/>
+      <c r="QV1" s="10"/>
+      <c r="QW1" s="10"/>
+      <c r="QX1" s="10"/>
+      <c r="QY1" s="10"/>
+      <c r="QZ1" s="10"/>
+      <c r="RA1" s="10"/>
+      <c r="RB1" s="10"/>
+      <c r="RC1" s="10"/>
+      <c r="RD1" s="10"/>
+      <c r="RE1" s="10"/>
+      <c r="RF1" s="10"/>
+      <c r="RG1" s="10"/>
+      <c r="RH1" s="10"/>
+      <c r="RI1" s="10"/>
+      <c r="RJ1" s="10"/>
+      <c r="RK1" s="10"/>
+      <c r="RL1" s="10"/>
+      <c r="RM1" s="10"/>
+      <c r="RN1" s="10"/>
+      <c r="RO1" s="10"/>
+      <c r="RP1" s="10"/>
+      <c r="RQ1" s="10"/>
+      <c r="RR1" s="10"/>
+      <c r="RS1" s="10"/>
+      <c r="RT1" s="10"/>
+      <c r="RU1" s="10"/>
+      <c r="RV1" s="10"/>
+      <c r="RW1" s="10"/>
+      <c r="RX1" s="10"/>
+      <c r="RY1" s="10"/>
+      <c r="RZ1" s="10"/>
+      <c r="SA1" s="10"/>
+      <c r="SB1" s="10"/>
+      <c r="SC1" s="10"/>
+      <c r="SD1" s="10"/>
+      <c r="SE1" s="10"/>
+      <c r="SF1" s="10"/>
+      <c r="SG1" s="10"/>
+      <c r="SH1" s="10"/>
+      <c r="SI1" s="10"/>
+      <c r="SJ1" s="10"/>
+      <c r="SK1" s="10"/>
+      <c r="SL1" s="10"/>
+      <c r="SM1" s="10"/>
+      <c r="SN1" s="10"/>
+      <c r="SO1" s="10"/>
+      <c r="SP1" s="10"/>
+      <c r="SQ1" s="10"/>
+      <c r="SR1" s="10"/>
+      <c r="SS1" s="10"/>
+      <c r="ST1" s="10"/>
+      <c r="SU1" s="10"/>
+      <c r="SV1" s="10"/>
+      <c r="SW1" s="10"/>
+      <c r="SX1" s="10"/>
+      <c r="SY1" s="10"/>
+      <c r="SZ1" s="10"/>
+      <c r="TA1" s="10"/>
+      <c r="TB1" s="10"/>
+      <c r="TC1" s="10"/>
+      <c r="TD1" s="10"/>
+      <c r="TE1" s="10"/>
+      <c r="TF1" s="10"/>
+      <c r="TG1" s="10"/>
+      <c r="TH1" s="10"/>
+      <c r="TI1" s="10"/>
+      <c r="TJ1" s="10"/>
+      <c r="TK1" s="10"/>
+      <c r="TL1" s="10"/>
+      <c r="TM1" s="10"/>
+      <c r="TN1" s="10"/>
+      <c r="TO1" s="10"/>
+      <c r="TP1" s="10"/>
+      <c r="TQ1" s="10"/>
+      <c r="TR1" s="10"/>
+      <c r="TS1" s="10"/>
+      <c r="TT1" s="10"/>
+      <c r="TU1" s="10"/>
+      <c r="TV1" s="10"/>
+      <c r="TW1" s="10"/>
+      <c r="TX1" s="10"/>
+      <c r="TY1" s="10"/>
+      <c r="TZ1" s="10"/>
+      <c r="UA1" s="10"/>
+      <c r="UB1" s="10"/>
+      <c r="UC1" s="10"/>
+      <c r="UD1" s="10"/>
+      <c r="UE1" s="10"/>
+      <c r="UF1" s="10"/>
+      <c r="UG1" s="10"/>
+      <c r="UH1" s="10"/>
+      <c r="UI1" s="10"/>
+      <c r="UJ1" s="10"/>
+      <c r="UK1" s="10"/>
+      <c r="UL1" s="10"/>
+      <c r="UM1" s="10"/>
+      <c r="UN1" s="10"/>
+      <c r="UO1" s="10"/>
+      <c r="UP1" s="10"/>
+      <c r="UQ1" s="10"/>
+      <c r="UR1" s="10"/>
+      <c r="US1" s="10"/>
+      <c r="UT1" s="10"/>
+      <c r="UU1" s="10"/>
+      <c r="UV1" s="10"/>
+      <c r="UW1" s="10"/>
+      <c r="UX1" s="10"/>
+      <c r="UY1" s="10"/>
+      <c r="UZ1" s="10"/>
+      <c r="VA1" s="10"/>
+      <c r="VB1" s="10"/>
+      <c r="VC1" s="10"/>
+      <c r="VD1" s="10"/>
+      <c r="VE1" s="10"/>
+      <c r="VF1" s="10"/>
+      <c r="VG1" s="10"/>
+      <c r="VH1" s="10"/>
+      <c r="VI1" s="10"/>
+      <c r="VJ1" s="10"/>
+      <c r="VK1" s="10"/>
+      <c r="VL1" s="10"/>
+      <c r="VM1" s="10"/>
+      <c r="VN1" s="10"/>
+      <c r="VO1" s="10"/>
+      <c r="VP1" s="10"/>
+      <c r="VQ1" s="10"/>
+      <c r="VR1" s="10"/>
+      <c r="VS1" s="10"/>
+      <c r="VT1" s="10"/>
+      <c r="VU1" s="10"/>
+      <c r="VV1" s="10"/>
+      <c r="VW1" s="10"/>
+      <c r="VX1" s="10"/>
+      <c r="VY1" s="10"/>
+      <c r="VZ1" s="10"/>
+      <c r="WA1" s="10"/>
+      <c r="WB1" s="10"/>
+      <c r="WC1" s="10"/>
+      <c r="WD1" s="10"/>
+      <c r="WE1" s="10"/>
+      <c r="WF1" s="10"/>
+      <c r="WG1" s="10"/>
+      <c r="WH1" s="10"/>
+      <c r="WI1" s="10"/>
+      <c r="WJ1" s="10"/>
+      <c r="WK1" s="10"/>
+      <c r="WL1" s="10"/>
+      <c r="WM1" s="10"/>
+      <c r="WN1" s="10"/>
+      <c r="WO1" s="10"/>
+      <c r="WP1" s="10"/>
+      <c r="WQ1" s="10"/>
+      <c r="WR1" s="10"/>
+      <c r="WS1" s="10"/>
+      <c r="WT1" s="10"/>
+      <c r="WU1" s="10"/>
+      <c r="WV1" s="10"/>
+      <c r="WW1" s="10"/>
+      <c r="WX1" s="10"/>
+      <c r="WY1" s="10"/>
+      <c r="WZ1" s="10"/>
+      <c r="XA1" s="10"/>
+      <c r="XB1" s="10"/>
+      <c r="XC1" s="10"/>
+      <c r="XD1" s="10"/>
+      <c r="XE1" s="10"/>
+      <c r="XF1" s="10"/>
+      <c r="XG1" s="10"/>
+      <c r="XH1" s="10"/>
+      <c r="XI1" s="10"/>
+      <c r="XJ1" s="10"/>
+      <c r="XK1" s="10"/>
+      <c r="XL1" s="10"/>
+      <c r="XM1" s="10"/>
+      <c r="XN1" s="10"/>
+      <c r="XO1" s="10"/>
+      <c r="XP1" s="10"/>
+      <c r="XQ1" s="10"/>
+      <c r="XR1" s="10"/>
+      <c r="XS1" s="10"/>
+      <c r="XT1" s="10"/>
+      <c r="XU1" s="10"/>
+      <c r="XV1" s="10"/>
+      <c r="XW1" s="10"/>
+      <c r="XX1" s="10"/>
+      <c r="XY1" s="10"/>
+      <c r="XZ1" s="10"/>
+      <c r="YA1" s="10"/>
+      <c r="YB1" s="10"/>
+      <c r="YC1" s="10"/>
+      <c r="YD1" s="10"/>
+      <c r="YE1" s="10"/>
+      <c r="YF1" s="10"/>
+      <c r="YG1" s="10"/>
+      <c r="YH1" s="10"/>
+      <c r="YI1" s="10"/>
+      <c r="YJ1" s="10"/>
+      <c r="YK1" s="10"/>
+      <c r="YL1" s="10"/>
+      <c r="YM1" s="10"/>
+      <c r="YN1" s="10"/>
+      <c r="YO1" s="10"/>
+      <c r="YP1" s="10"/>
+      <c r="YQ1" s="10"/>
+      <c r="YR1" s="10"/>
+      <c r="YS1" s="10"/>
+      <c r="YT1" s="10"/>
+      <c r="YU1" s="10"/>
+      <c r="YV1" s="10"/>
+      <c r="YW1" s="10"/>
+      <c r="YX1" s="10"/>
+      <c r="YY1" s="10"/>
+      <c r="YZ1" s="10"/>
+      <c r="ZA1" s="10"/>
+      <c r="ZB1" s="10"/>
+      <c r="ZC1" s="10"/>
+      <c r="ZD1" s="10"/>
+      <c r="ZE1" s="10"/>
+      <c r="ZF1" s="10"/>
+      <c r="ZG1" s="10"/>
+      <c r="ZH1" s="10"/>
+      <c r="ZI1" s="10"/>
+      <c r="ZJ1" s="10"/>
+      <c r="ZK1" s="10"/>
+      <c r="ZL1" s="10"/>
+      <c r="ZM1" s="10"/>
+      <c r="ZN1" s="10"/>
+      <c r="ZO1" s="10"/>
+      <c r="ZP1" s="10"/>
+      <c r="ZQ1" s="10"/>
+      <c r="ZR1" s="10"/>
+      <c r="ZS1" s="10"/>
+      <c r="ZT1" s="10"/>
+      <c r="ZU1" s="10"/>
+      <c r="ZV1" s="10"/>
+      <c r="ZW1" s="10"/>
+      <c r="ZX1" s="10"/>
+      <c r="ZY1" s="10"/>
+      <c r="ZZ1" s="10"/>
+      <c r="AAA1" s="10"/>
+      <c r="AAB1" s="10"/>
+      <c r="AAC1" s="10"/>
+      <c r="AAD1" s="10"/>
+      <c r="AAE1" s="10"/>
+      <c r="AAF1" s="10"/>
+      <c r="AAG1" s="10"/>
+      <c r="AAH1" s="10"/>
+      <c r="AAI1" s="10"/>
+      <c r="AAJ1" s="10"/>
+      <c r="AAK1" s="10"/>
+      <c r="AAL1" s="10"/>
+      <c r="AAM1" s="10"/>
+      <c r="AAN1" s="10"/>
+      <c r="AAO1" s="10"/>
+      <c r="AAP1" s="10"/>
+      <c r="AAQ1" s="10"/>
+      <c r="AAR1" s="10"/>
+      <c r="AAS1" s="10"/>
+      <c r="AAT1" s="10"/>
+      <c r="AAU1" s="10"/>
+      <c r="AAV1" s="10"/>
+      <c r="AAW1" s="10"/>
+      <c r="AAX1" s="10"/>
+      <c r="AAY1" s="10"/>
+      <c r="AAZ1" s="10"/>
+      <c r="ABA1" s="10"/>
+      <c r="ABB1" s="10"/>
+      <c r="ABC1" s="10"/>
+      <c r="ABD1" s="10"/>
+      <c r="ABE1" s="10"/>
+      <c r="ABF1" s="10"/>
+      <c r="ABG1" s="10"/>
+      <c r="ABH1" s="10"/>
+      <c r="ABI1" s="10"/>
+      <c r="ABJ1" s="10"/>
+      <c r="ABK1" s="10"/>
+      <c r="ABL1" s="10"/>
+      <c r="ABM1" s="10"/>
+      <c r="ABN1" s="10"/>
+      <c r="ABO1" s="10"/>
+      <c r="ABP1" s="10"/>
+      <c r="ABQ1" s="10"/>
+      <c r="ABR1" s="10"/>
+      <c r="ABS1" s="10"/>
+      <c r="ABT1" s="10"/>
+      <c r="ABU1" s="10"/>
+      <c r="ABV1" s="10"/>
+      <c r="ABW1" s="10"/>
+      <c r="ABX1" s="10"/>
+      <c r="ABY1" s="10"/>
+      <c r="ABZ1" s="10"/>
+      <c r="ACA1" s="10"/>
+      <c r="ACB1" s="10"/>
+      <c r="ACC1" s="10"/>
+      <c r="ACD1" s="10"/>
+      <c r="ACE1" s="10"/>
+      <c r="ACF1" s="10"/>
+      <c r="ACG1" s="10"/>
+      <c r="ACH1" s="10"/>
+      <c r="ACI1" s="10"/>
+      <c r="ACJ1" s="10"/>
+      <c r="ACK1" s="10"/>
+      <c r="ACL1" s="10"/>
+      <c r="ACM1" s="10"/>
+      <c r="ACN1" s="10"/>
+      <c r="ACO1" s="10"/>
+      <c r="ACP1" s="10"/>
+      <c r="ACQ1" s="10"/>
+      <c r="ACR1" s="10"/>
+      <c r="ACS1" s="10"/>
+      <c r="ACT1" s="10"/>
+      <c r="ACU1" s="10"/>
+      <c r="ACV1" s="10"/>
+      <c r="ACW1" s="10"/>
+      <c r="ACX1" s="10"/>
+      <c r="ACY1" s="10"/>
+      <c r="ACZ1" s="10"/>
+      <c r="ADA1" s="10"/>
+      <c r="ADB1" s="10"/>
+      <c r="ADC1" s="10"/>
+      <c r="ADD1" s="10"/>
+      <c r="ADE1" s="10"/>
+      <c r="ADF1" s="10"/>
+      <c r="ADG1" s="10"/>
+      <c r="ADH1" s="10"/>
+      <c r="ADI1" s="10"/>
+      <c r="ADJ1" s="10"/>
+      <c r="ADK1" s="10"/>
+      <c r="ADL1" s="10"/>
+      <c r="ADM1" s="10"/>
+      <c r="ADN1" s="10"/>
+      <c r="ADO1" s="10"/>
+      <c r="ADP1" s="10"/>
+      <c r="ADQ1" s="10"/>
+      <c r="ADR1" s="10"/>
+      <c r="ADS1" s="10"/>
+      <c r="ADT1" s="10"/>
+      <c r="ADU1" s="10"/>
+      <c r="ADV1" s="10"/>
+      <c r="ADW1" s="10"/>
+      <c r="ADX1" s="10"/>
+      <c r="ADY1" s="10"/>
+      <c r="ADZ1" s="10"/>
+      <c r="AEA1" s="10"/>
+      <c r="AEB1" s="10"/>
+      <c r="AEC1" s="10"/>
+      <c r="AED1" s="10"/>
+      <c r="AEE1" s="10"/>
+      <c r="AEF1" s="10"/>
+      <c r="AEG1" s="10"/>
+      <c r="AEH1" s="10"/>
+      <c r="AEI1" s="10"/>
+      <c r="AEJ1" s="10"/>
+      <c r="AEK1" s="10"/>
+      <c r="AEL1" s="10"/>
+      <c r="AEM1" s="10"/>
+      <c r="AEN1" s="10"/>
+      <c r="AEO1" s="10"/>
+      <c r="AEP1" s="10"/>
+      <c r="AEQ1" s="10"/>
+      <c r="AER1" s="10"/>
+      <c r="AES1" s="10"/>
+      <c r="AET1" s="10"/>
+      <c r="AEU1" s="10"/>
+      <c r="AEV1" s="10"/>
+      <c r="AEW1" s="10"/>
+      <c r="AEX1" s="10"/>
+      <c r="AEY1" s="10"/>
+      <c r="AEZ1" s="10"/>
+      <c r="AFA1" s="10"/>
+      <c r="AFB1" s="10"/>
+      <c r="AFC1" s="10"/>
+      <c r="AFD1" s="10"/>
+      <c r="AFE1" s="10"/>
+      <c r="AFF1" s="10"/>
+      <c r="AFG1" s="10"/>
+      <c r="AFH1" s="10"/>
+      <c r="AFI1" s="10"/>
+      <c r="AFJ1" s="10"/>
+      <c r="AFK1" s="10"/>
+      <c r="AFL1" s="10"/>
+      <c r="AFM1" s="10"/>
+      <c r="AFN1" s="10"/>
+      <c r="AFO1" s="10"/>
+      <c r="AFP1" s="10"/>
+      <c r="AFQ1" s="10"/>
+      <c r="AFR1" s="10"/>
+      <c r="AFS1" s="10"/>
+      <c r="AFT1" s="10"/>
+      <c r="AFU1" s="10"/>
+      <c r="AFV1" s="10"/>
+      <c r="AFW1" s="10"/>
+      <c r="AFX1" s="10"/>
+      <c r="AFY1" s="10"/>
+      <c r="AFZ1" s="10"/>
+      <c r="AGA1" s="10"/>
+      <c r="AGB1" s="10"/>
+      <c r="AGC1" s="10"/>
+      <c r="AGD1" s="10"/>
+      <c r="AGE1" s="10"/>
+      <c r="AGF1" s="10"/>
+      <c r="AGG1" s="10"/>
+      <c r="AGH1" s="10"/>
+      <c r="AGI1" s="10"/>
+      <c r="AGJ1" s="10"/>
+      <c r="AGK1" s="10"/>
+      <c r="AGL1" s="10"/>
+      <c r="AGM1" s="10"/>
+      <c r="AGN1" s="10"/>
+      <c r="AGO1" s="10"/>
+      <c r="AGP1" s="10"/>
+      <c r="AGQ1" s="10"/>
+      <c r="AGR1" s="10"/>
+      <c r="AGS1" s="10"/>
+      <c r="AGT1" s="10"/>
+      <c r="AGU1" s="10"/>
+      <c r="AGV1" s="10"/>
+      <c r="AGW1" s="10"/>
+      <c r="AGX1" s="10"/>
+      <c r="AGY1" s="10"/>
+      <c r="AGZ1" s="10"/>
+      <c r="AHA1" s="10"/>
+      <c r="AHB1" s="10"/>
+      <c r="AHC1" s="10"/>
+      <c r="AHD1" s="10"/>
+      <c r="AHE1" s="10"/>
+      <c r="AHF1" s="10"/>
+      <c r="AHG1" s="10"/>
+      <c r="AHH1" s="10"/>
+      <c r="AHI1" s="10"/>
+      <c r="AHJ1" s="10"/>
+      <c r="AHK1" s="10"/>
+      <c r="AHL1" s="10"/>
+      <c r="AHM1" s="10"/>
+      <c r="AHN1" s="10"/>
+      <c r="AHO1" s="10"/>
+      <c r="AHP1" s="10"/>
+      <c r="AHQ1" s="10"/>
+      <c r="AHR1" s="10"/>
+      <c r="AHS1" s="10"/>
+      <c r="AHT1" s="10"/>
+      <c r="AHU1" s="10"/>
+      <c r="AHV1" s="10"/>
+      <c r="AHW1" s="10"/>
+      <c r="AHX1" s="10"/>
+      <c r="AHY1" s="10"/>
+      <c r="AHZ1" s="10"/>
+      <c r="AIA1" s="10"/>
+      <c r="AIB1" s="10"/>
+      <c r="AIC1" s="10"/>
+      <c r="AID1" s="10"/>
+      <c r="AIE1" s="10"/>
+      <c r="AIF1" s="10"/>
+      <c r="AIG1" s="10"/>
+      <c r="AIH1" s="10"/>
+      <c r="AII1" s="10"/>
+      <c r="AIJ1" s="10"/>
+      <c r="AIK1" s="10"/>
+      <c r="AIL1" s="10"/>
+      <c r="AIM1" s="10"/>
+      <c r="AIN1" s="10"/>
+      <c r="AIO1" s="10"/>
+      <c r="AIP1" s="10"/>
+      <c r="AIQ1" s="10"/>
+      <c r="AIR1" s="10"/>
+      <c r="AIS1" s="10"/>
+      <c r="AIT1" s="10"/>
+      <c r="AIU1" s="10"/>
+      <c r="AIV1" s="10"/>
+      <c r="AIW1" s="10"/>
+      <c r="AIX1" s="10"/>
+      <c r="AIY1" s="10"/>
+      <c r="AIZ1" s="10"/>
+      <c r="AJA1" s="10"/>
+      <c r="AJB1" s="10"/>
+      <c r="AJC1" s="10"/>
+      <c r="AJD1" s="10"/>
+      <c r="AJE1" s="10"/>
+      <c r="AJF1" s="10"/>
+      <c r="AJG1" s="10"/>
+      <c r="AJH1" s="10"/>
+      <c r="AJI1" s="10"/>
+      <c r="AJJ1" s="10"/>
+      <c r="AJK1" s="10"/>
+      <c r="AJL1" s="10"/>
+      <c r="AJM1" s="10"/>
+      <c r="AJN1" s="10"/>
+      <c r="AJO1" s="10"/>
+      <c r="AJP1" s="10"/>
+      <c r="AJQ1" s="10"/>
+      <c r="AJR1" s="10"/>
+      <c r="AJS1" s="10"/>
+      <c r="AJT1" s="10"/>
+      <c r="AJU1" s="10"/>
+      <c r="AJV1" s="10"/>
+      <c r="AJW1" s="10"/>
+      <c r="AJX1" s="10"/>
+      <c r="AJY1" s="10"/>
+      <c r="AJZ1" s="10"/>
+      <c r="AKA1" s="10"/>
+      <c r="AKB1" s="10"/>
+      <c r="AKC1" s="10"/>
+      <c r="AKD1" s="10"/>
+      <c r="AKE1" s="10"/>
+      <c r="AKF1" s="10"/>
+      <c r="AKG1" s="10"/>
+      <c r="AKH1" s="10"/>
+      <c r="AKI1" s="10"/>
+      <c r="AKJ1" s="10"/>
+      <c r="AKK1" s="10"/>
+      <c r="AKL1" s="10"/>
+      <c r="AKM1" s="10"/>
+      <c r="AKN1" s="10"/>
+      <c r="AKO1" s="10"/>
+      <c r="AKP1" s="10"/>
+      <c r="AKQ1" s="10"/>
+      <c r="AKR1" s="10"/>
+      <c r="AKS1" s="10"/>
+      <c r="AKT1" s="10"/>
+      <c r="AKU1" s="10"/>
+      <c r="AKV1" s="10"/>
+      <c r="AKW1" s="10"/>
+      <c r="AKX1" s="10"/>
+      <c r="AKY1" s="10"/>
+      <c r="AKZ1" s="10"/>
+      <c r="ALA1" s="10"/>
+      <c r="ALB1" s="10"/>
+      <c r="ALC1" s="10"/>
+      <c r="ALD1" s="10"/>
+      <c r="ALE1" s="10"/>
+      <c r="ALF1" s="10"/>
+      <c r="ALG1" s="10"/>
+      <c r="ALH1" s="10"/>
+      <c r="ALI1" s="10"/>
+      <c r="ALJ1" s="10"/>
+      <c r="ALK1" s="10"/>
+      <c r="ALL1" s="10"/>
+      <c r="ALM1" s="10"/>
+      <c r="ALN1" s="10"/>
+      <c r="ALO1" s="10"/>
+      <c r="ALP1" s="10"/>
+      <c r="ALQ1" s="10"/>
+      <c r="ALR1" s="10"/>
+      <c r="ALS1" s="10"/>
+      <c r="ALT1" s="10"/>
+      <c r="ALU1" s="10"/>
+      <c r="ALV1" s="10"/>
+      <c r="ALW1" s="10"/>
+      <c r="ALX1" s="10"/>
+      <c r="ALY1" s="10"/>
+      <c r="ALZ1" s="10"/>
+      <c r="AMA1" s="10"/>
+      <c r="AMB1" s="10"/>
+      <c r="AMC1" s="10"/>
+      <c r="AMD1" s="10"/>
+      <c r="AME1" s="10"/>
+      <c r="AMF1" s="10"/>
+      <c r="AMG1" s="10"/>
+      <c r="AMH1" s="10"/>
+      <c r="AMI1" s="10"/>
+      <c r="AMJ1" s="10"/>
+      <c r="AMK1" s="10"/>
+      <c r="AML1" s="10"/>
+      <c r="AMM1" s="10"/>
+      <c r="AMN1" s="10"/>
+      <c r="AMO1" s="10"/>
+      <c r="AMP1" s="10"/>
+      <c r="AMQ1" s="10"/>
+      <c r="AMR1" s="10"/>
+      <c r="AMS1" s="10"/>
+      <c r="AMT1" s="10"/>
+      <c r="AMU1" s="10"/>
+      <c r="AMV1" s="10"/>
+      <c r="AMW1" s="10"/>
+      <c r="AMX1" s="10"/>
+      <c r="AMY1" s="10"/>
+      <c r="AMZ1" s="10"/>
+      <c r="ANA1" s="10"/>
+      <c r="ANB1" s="10"/>
+      <c r="ANC1" s="10"/>
+      <c r="AND1" s="10"/>
+      <c r="ANE1" s="10"/>
+      <c r="ANF1" s="10"/>
+      <c r="ANG1" s="10"/>
     </row>
-    <row r="2" spans="1:50">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>7709</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>7414.05</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>7400</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>7478.26</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>7489.89</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>7760</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>7517.05</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>7474.38</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>7656.73</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>7245.45</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="6">
         <v>7462.74</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="6">
         <v>7474.37</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="6">
         <f t="shared" ref="P2:P16" si="0">SUM(D2:O2)</f>
-        <v>90081.92</v>
-      </c>
-      <c r="Q2" s="8">
+        <v>90081.919999999998</v>
+      </c>
+      <c r="Q2" s="6">
         <v>12359.3</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="6">
         <v>12271.99</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="6">
         <v>12469.87</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
         <v>12458.24</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="6">
         <v>12434.95</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="6">
         <v>12634.95</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="6">
         <v>11501.73</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="6">
         <v>10823.46</v>
       </c>
-      <c r="Y2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="8">
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6">
         <v>7099.86</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="6">
         <v>7875.71</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="6">
         <v>11586.58</v>
       </c>
       <c r="AC2" s="3">
@@ -3564,7 +2962,7 @@
         <v>13025.09</v>
       </c>
       <c r="AG2" s="3">
-        <v>17572.19</v>
+        <v>17572.189999999999</v>
       </c>
       <c r="AH2" s="3">
         <v>13221.36</v>
@@ -3573,7 +2971,7 @@
         <v>12308.25</v>
       </c>
       <c r="AJ2" s="3">
-        <v>16652.92</v>
+        <v>16652.919999999998</v>
       </c>
       <c r="AK2" s="3">
         <v>12614.36</v>
@@ -3582,7 +2980,7 @@
         <v>12673.76</v>
       </c>
       <c r="AM2" s="3">
-        <v>16712.56</v>
+        <v>16712.560000000001</v>
       </c>
       <c r="AN2" s="3">
         <v>12457.15</v>
@@ -3616,14 +3014,17 @@
         <v>16191</v>
       </c>
       <c r="AX2" s="3">
-        <f>SUM(AQ2:AW2)</f>
-        <v>109566.45</v>
+        <v>16191</v>
+      </c>
+      <c r="AY2" s="3">
+        <f>SUM(AQ2:AX2)</f>
+        <v>125757.45</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="3">
@@ -3662,7 +3063,7 @@
       <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3684,27 +3085,27 @@
       <c r="V3" s="3">
         <v>0</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="6">
         <v>407</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="6">
         <v>911.2</v>
       </c>
-      <c r="Y3" s="8">
-        <v>316.6</v>
-      </c>
-      <c r="Z3" s="8">
+      <c r="Y3" s="6">
+        <v>316.60000000000002</v>
+      </c>
+      <c r="Z3" s="6">
         <v>121.4</v>
       </c>
-      <c r="AA3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
+      <c r="AA3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
         <v>0</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" si="1"/>
-        <v>1756.2</v>
+        <v>1756.2000000000003</v>
       </c>
       <c r="AD3" s="3">
         <v>0</v>
@@ -3728,10 +3129,10 @@
         <v>189.6</v>
       </c>
       <c r="AK3" s="3">
-        <v>262.6</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="AL3" s="3">
-        <v>268.9</v>
+        <v>268.89999999999998</v>
       </c>
       <c r="AM3" s="3">
         <v>736.3</v>
@@ -3768,90 +3169,93 @@
         <v>0</v>
       </c>
       <c r="AX3" s="3">
-        <f t="shared" ref="AX3:AX16" si="3">SUM(AQ3:AW3)</f>
-        <v>682.4</v>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="3">
+        <f t="shared" ref="AY3:AY16" si="3">SUM(AQ3:AX3)</f>
+        <v>682.40000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>44.33</v>
       </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>464.11</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>481.18</v>
       </c>
-      <c r="J4" s="8">
-        <v>530.8</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J4" s="6">
+        <v>530.79999999999995</v>
+      </c>
+      <c r="K4" s="6">
         <v>462.06</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>878.35</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>39.4</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <v>148.5</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>38130</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <f t="shared" si="0"/>
-        <v>41178.73</v>
-      </c>
-      <c r="Q4" s="8">
+        <v>41178.730000000003</v>
+      </c>
+      <c r="Q4" s="6">
         <v>638</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="6">
         <v>88</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="6">
         <v>1172.99</v>
       </c>
       <c r="T4" s="3">
         <v>3000</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="6">
         <v>75</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="6">
         <v>4000</v>
       </c>
-      <c r="W4" s="8">
-        <v>19.94</v>
-      </c>
-      <c r="X4" s="8">
+      <c r="W4" s="6">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="X4" s="6">
         <v>5346</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="6">
         <v>15.33</v>
       </c>
-      <c r="Z4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
         <v>127.4</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="6">
         <v>1561.8</v>
       </c>
       <c r="AC4" s="3">
@@ -3915,20 +3319,23 @@
         <v>90.42</v>
       </c>
       <c r="AV4" s="3">
-        <v>166.46</v>
+        <v>826.46</v>
       </c>
       <c r="AW4" s="3">
-        <v>85.14</v>
+        <v>2185.14</v>
       </c>
       <c r="AX4" s="3">
+        <v>47.56</v>
+      </c>
+      <c r="AY4" s="3">
         <f t="shared" si="3"/>
-        <v>2627.77</v>
+        <v>5435.33</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="3">
@@ -3952,22 +3359,22 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>12000</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -3977,13 +3384,13 @@
       <c r="R5" s="3">
         <v>0</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <v>8000</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>1500</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <v>1500</v>
       </c>
       <c r="V5" s="3">
@@ -4073,14 +3480,17 @@
         <v>0</v>
       </c>
       <c r="AX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="3">
@@ -4098,10 +3508,10 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>1473.3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="3">
@@ -4110,16 +3520,16 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>1636</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="6">
         <v>400</v>
       </c>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="0"/>
         <v>3509.3</v>
       </c>
@@ -4141,7 +3551,7 @@
       <c r="V6" s="3">
         <v>0</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="6">
         <v>1803.1</v>
       </c>
       <c r="X6" s="3">
@@ -4225,14 +3635,17 @@
         <v>0</v>
       </c>
       <c r="AX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="3">
@@ -4250,28 +3663,28 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>1296</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>1944</v>
       </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
         <v>1944</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="6">
         <f t="shared" si="0"/>
         <v>5184</v>
       </c>
@@ -4281,34 +3694,34 @@
       <c r="R7" s="3">
         <v>0</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="6">
         <v>1944</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
         <v>648</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="6">
         <v>648</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="6">
         <v>648</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="6">
         <v>648</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="6">
         <v>648</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="6">
         <v>648</v>
       </c>
-      <c r="Z7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="8">
+      <c r="Z7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="6">
         <v>0</v>
       </c>
       <c r="AC7" s="3">
@@ -4377,14 +3790,17 @@
         <v>0</v>
       </c>
       <c r="AX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="3">
@@ -4423,7 +3839,7 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -4445,7 +3861,7 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="6">
         <v>70000</v>
       </c>
       <c r="X8" s="3">
@@ -4529,14 +3945,17 @@
         <v>0</v>
       </c>
       <c r="AX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="3">
@@ -4569,7 +3988,7 @@
       </c>
       <c r="K9" s="3">
         <f t="shared" si="4"/>
-        <v>19936.44</v>
+        <v>19936.440000000002</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="4"/>
@@ -4577,7 +3996,7 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" si="4"/>
-        <v>8920.85</v>
+        <v>8920.8499999999985</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="4"/>
@@ -4587,9 +4006,9 @@
         <f t="shared" si="4"/>
         <v>47548.37</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <f t="shared" si="0"/>
-        <v>201953.95</v>
+        <v>201953.94999999998</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" ref="Q9:AB9" si="5">SUM(Q2:Q8)</f>
@@ -4605,7 +4024,7 @@
       </c>
       <c r="T9" s="3">
         <f t="shared" si="5"/>
-        <v>17606.24</v>
+        <v>17606.239999999998</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="5"/>
@@ -4625,11 +4044,11 @@
       </c>
       <c r="Y9" s="3">
         <f t="shared" si="5"/>
-        <v>979.93</v>
+        <v>979.93000000000006</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" si="5"/>
-        <v>7221.26</v>
+        <v>7221.2599999999993</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" si="5"/>
@@ -4653,7 +4072,7 @@
       </c>
       <c r="AF9" s="3">
         <f t="shared" si="6"/>
-        <v>44012.23</v>
+        <v>44012.229999999996</v>
       </c>
       <c r="AG9" s="3">
         <f t="shared" si="6"/>
@@ -4669,11 +4088,11 @@
       </c>
       <c r="AJ9" s="3">
         <f t="shared" si="6"/>
-        <v>20539.1</v>
+        <v>20539.099999999999</v>
       </c>
       <c r="AK9" s="3">
         <f t="shared" si="6"/>
-        <v>13241.56</v>
+        <v>13241.560000000001</v>
       </c>
       <c r="AL9" s="3">
         <f t="shared" si="6"/>
@@ -4696,12 +4115,12 @@
         <v>232567.45</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" ref="AQ9:AW9" si="7">SUM(AQ2:AQ8)</f>
+        <f t="shared" ref="AQ9:AX9" si="7">SUM(AQ2:AQ8)</f>
         <v>18051.59</v>
       </c>
       <c r="AR9" s="3">
         <f t="shared" si="7"/>
-        <v>14509.88</v>
+        <v>14509.880000000001</v>
       </c>
       <c r="AS9" s="3">
         <f t="shared" si="7"/>
@@ -4713,108 +4132,112 @@
       </c>
       <c r="AU9" s="3">
         <f t="shared" si="7"/>
-        <v>16719.42</v>
+        <v>16719.419999999998</v>
       </c>
       <c r="AV9" s="3">
         <f t="shared" si="7"/>
-        <v>16357.46</v>
+        <v>17017.46</v>
       </c>
       <c r="AW9" s="3">
         <f t="shared" si="7"/>
-        <v>16276.14</v>
+        <v>18376.14</v>
       </c>
       <c r="AX9" s="3">
+        <f t="shared" si="7"/>
+        <v>16238.56</v>
+      </c>
+      <c r="AY9" s="3">
         <f t="shared" si="3"/>
-        <v>112876.62</v>
+        <v>131875.18</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>2401</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>2029.83</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>1375.56</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>2699.75</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>3113.23</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>3190.37</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>1404.08</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>1836.61</v>
       </c>
-      <c r="L10" s="8">
-        <v>1146.88</v>
-      </c>
-      <c r="M10" s="8">
+      <c r="L10" s="6">
+        <v>1146.8800000000001</v>
+      </c>
+      <c r="M10" s="6">
         <v>3626.41</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="6">
         <v>1715.16</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="6">
         <v>1728.63</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="6">
         <f t="shared" si="0"/>
         <v>26267.51</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="6">
         <v>4512.24</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="6">
         <v>969.37</v>
       </c>
-      <c r="S10" s="8">
-        <v>2381.55</v>
-      </c>
-      <c r="T10" s="8">
+      <c r="S10" s="6">
+        <v>2381.5500000000002</v>
+      </c>
+      <c r="T10" s="6">
         <v>6214.7</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="6">
         <v>3004.41</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="6">
         <v>9534.9</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="6">
         <v>10480.42</v>
       </c>
-      <c r="X10" s="8">
+      <c r="X10" s="6">
         <v>6134.28</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="6">
         <v>5677.38</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="6">
         <v>2489.12</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="6">
         <v>2616.23</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="6">
         <v>1434.68</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" si="1"/>
-        <v>55449.28</v>
+        <v>55449.279999999999</v>
       </c>
       <c r="AD10" s="3">
         <f>1048.17+274.92+609.16</f>
@@ -4830,7 +4253,7 @@
         <v>3176.72</v>
       </c>
       <c r="AH10" s="3">
-        <v>8531.3</v>
+        <v>8531.2999999999993</v>
       </c>
       <c r="AI10" s="3">
         <v>9319</v>
@@ -4858,7 +4281,7 @@
         <v>54371.28</v>
       </c>
       <c r="AQ10" s="3">
-        <v>1160.64</v>
+        <v>1160.6400000000001</v>
       </c>
       <c r="AR10" s="3">
         <v>479.58</v>
@@ -4867,7 +4290,7 @@
         <v>859.67</v>
       </c>
       <c r="AT10" s="3">
-        <v>4141.56</v>
+        <v>4141.5600000000004</v>
       </c>
       <c r="AU10" s="3">
         <v>3925.6</v>
@@ -4879,69 +4302,72 @@
         <v>2965</v>
       </c>
       <c r="AX10" s="3">
+        <v>1993.11</v>
+      </c>
+      <c r="AY10" s="3">
         <f t="shared" si="3"/>
-        <v>19451.61</v>
+        <v>21444.720000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
+    <row r="11" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>1230</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>3690</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>708.5</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>3962</v>
       </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>4285</v>
       </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
         <v>373</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="6">
         <v>3690</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="6">
         <v>339</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <f t="shared" si="0"/>
         <v>18277.5</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="6">
         <v>1700</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="6">
         <v>5190</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="6">
         <v>5467</v>
       </c>
       <c r="V11" s="3">
@@ -5031,72 +4457,75 @@
         <v>0</v>
       </c>
       <c r="AX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>800</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>200</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>50</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>34.4</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>121</v>
       </c>
-      <c r="J12" s="8">
-        <v>315.78</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J12" s="6">
+        <v>315.77999999999997</v>
+      </c>
+      <c r="K12" s="6">
         <v>287.5</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>29</v>
       </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="0"/>
         <v>1837.68</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="6">
         <v>454.7</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <v>663.4</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="6">
         <v>373</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="6">
         <v>89</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="6">
         <v>573</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="6">
         <v>217</v>
       </c>
       <c r="W12" s="3">
@@ -5115,7 +4544,7 @@
         <v>118.42</v>
       </c>
       <c r="AB12" s="3">
-        <v>610.08</v>
+        <v>610.08000000000004</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" si="1"/>
@@ -5126,13 +4555,13 @@
         <v>354.78</v>
       </c>
       <c r="AE12" s="3">
-        <v>302.21</v>
+        <v>302.20999999999998</v>
       </c>
       <c r="AF12" s="3">
         <v>2109.27</v>
       </c>
       <c r="AG12" s="3">
-        <v>80444.4</v>
+        <v>80444.399999999994</v>
       </c>
       <c r="AH12" s="3">
         <v>2000</v>
@@ -5160,7 +4589,7 @@
       </c>
       <c r="AP12" s="3">
         <f t="shared" si="2"/>
-        <v>106012.46</v>
+        <v>106012.45999999999</v>
       </c>
       <c r="AQ12" s="3">
         <v>898.18</v>
@@ -5169,7 +4598,7 @@
         <v>795.43</v>
       </c>
       <c r="AS12" s="3">
-        <v>163.36</v>
+        <v>163.36000000000001</v>
       </c>
       <c r="AT12" s="3">
         <v>208.65</v>
@@ -5178,20 +4607,23 @@
         <v>273.73</v>
       </c>
       <c r="AV12" s="3">
-        <v>604.93</v>
+        <v>604.92999999999995</v>
       </c>
       <c r="AW12" s="3">
         <v>909.98</v>
       </c>
       <c r="AX12" s="3">
+        <v>273.49</v>
+      </c>
+      <c r="AY12" s="3">
         <f t="shared" si="3"/>
-        <v>3854.26</v>
+        <v>4127.75</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
+    <row r="13" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="3">
@@ -5230,14 +4662,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="6">
         <v>5000</v>
       </c>
       <c r="S13" s="3">
@@ -5336,53 +4768,56 @@
         <v>0</v>
       </c>
       <c r="AX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="3">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
+    <row r="14" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>3267.55</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>3332.9</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>3399.55</v>
       </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -5488,14 +4923,17 @@
         <v>0</v>
       </c>
       <c r="AX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
+    <row r="15" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="3">
@@ -5508,7 +4946,7 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="8"/>
-        <v>5683.61</v>
+        <v>5683.6100000000006</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="8"/>
@@ -5516,7 +4954,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
-        <v>7109.63</v>
+        <v>7109.6299999999992</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="8"/>
@@ -5532,7 +4970,7 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="8"/>
-        <v>1175.88</v>
+        <v>1175.8800000000001</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="8"/>
@@ -5546,13 +4984,13 @@
         <f t="shared" si="8"/>
         <v>2067.63</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="6">
         <f t="shared" si="0"/>
-        <v>56382.69</v>
+        <v>56382.689999999995</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" ref="Q15:AB15" si="9">SUM(Q10:Q14)</f>
-        <v>4966.94</v>
+        <v>4966.9399999999996</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" si="9"/>
@@ -5588,11 +5026,11 @@
       </c>
       <c r="Z15" s="3">
         <f t="shared" si="9"/>
-        <v>2520.05</v>
+        <v>2520.0499999999997</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" si="9"/>
-        <v>16734.65</v>
+        <v>16734.650000000001</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" si="9"/>
@@ -5600,11 +5038,11 @@
       </c>
       <c r="AC15" s="3">
         <f t="shared" si="1"/>
-        <v>201562.07</v>
+        <v>201562.06999999998</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ref="AD15:AO15" si="10">SUM(AD10:AD14)</f>
-        <v>2287.03</v>
+        <v>2287.0299999999997</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" si="10"/>
@@ -5616,7 +5054,7 @@
       </c>
       <c r="AG15" s="3">
         <f t="shared" si="10"/>
-        <v>96621.12</v>
+        <v>96621.119999999995</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="10"/>
@@ -5636,7 +5074,7 @@
       </c>
       <c r="AL15" s="3">
         <f t="shared" si="10"/>
-        <v>2893.74</v>
+        <v>2893.7400000000002</v>
       </c>
       <c r="AM15" s="3">
         <f t="shared" si="10"/>
@@ -5652,10 +5090,10 @@
       </c>
       <c r="AP15" s="3">
         <f t="shared" si="2"/>
-        <v>186750.24</v>
+        <v>186750.23999999996</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" ref="AQ15:AW15" si="11">SUM(AQ10:AQ14)</f>
+        <f t="shared" ref="AQ15:AX15" si="11">SUM(AQ10:AQ14)</f>
         <v>7058.82</v>
       </c>
       <c r="AR15" s="3">
@@ -5676,30 +5114,34 @@
       </c>
       <c r="AV15" s="3">
         <f t="shared" si="11"/>
-        <v>6524.49</v>
+        <v>6524.4900000000007</v>
       </c>
       <c r="AW15" s="3">
         <f t="shared" si="11"/>
         <v>3874.98</v>
       </c>
       <c r="AX15" s="3">
+        <f t="shared" si="11"/>
+        <v>2266.6</v>
+      </c>
+      <c r="AY15" s="3">
         <f t="shared" si="3"/>
-        <v>28305.87</v>
+        <v>30572.47</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:1047" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="3">
         <f t="shared" ref="D16:O16" si="12">D9-D15</f>
-        <v>854.78</v>
+        <v>854.77999999999975</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="12"/>
-        <v>-2438.68</v>
+        <v>-2438.6799999999994</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="12"/>
@@ -5711,7 +5153,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="12"/>
-        <v>844.370000000001</v>
+        <v>844.3700000000008</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="12"/>
@@ -5719,19 +5161,19 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="12"/>
-        <v>6327.99</v>
+        <v>6327.9900000000007</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="12"/>
-        <v>13527.33</v>
+        <v>13527.330000000002</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="12"/>
-        <v>9303.2</v>
+        <v>9303.2000000000007</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="12"/>
-        <v>4921.44</v>
+        <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="12"/>
@@ -5739,9 +5181,9 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" si="12"/>
-        <v>45480.74</v>
-      </c>
-      <c r="P16" s="8">
+        <v>45480.740000000005</v>
+      </c>
+      <c r="P16" s="6">
         <f t="shared" si="0"/>
         <v>145571.26</v>
       </c>
@@ -5751,31 +5193,31 @@
       </c>
       <c r="R16" s="3">
         <f t="shared" si="13"/>
-        <v>4027.22</v>
+        <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="3">
         <f t="shared" si="13"/>
-        <v>15642.31</v>
+        <v>15642.310000000001</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="13"/>
-        <v>11302.54</v>
+        <v>11302.539999999997</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="13"/>
-        <v>5613.54</v>
+        <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" si="13"/>
-        <v>7531.05</v>
+        <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" si="13"/>
-        <v>-34267.41</v>
+        <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" si="13"/>
-        <v>10754.38</v>
+        <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" si="13"/>
@@ -5783,19 +5225,19 @@
       </c>
       <c r="Z16" s="3">
         <f t="shared" si="13"/>
-        <v>4701.21</v>
+        <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" si="13"/>
-        <v>-8731.54</v>
+        <v>-8731.5400000000009</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="13"/>
-        <v>10303.62</v>
+        <v>10303.619999999999</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="1"/>
-        <v>29390.33</v>
+        <v>29390.330000000005</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ref="AD16:AO16" si="14">AD9-AD15</f>
@@ -5807,11 +5249,11 @@
       </c>
       <c r="AF16" s="3">
         <f t="shared" si="14"/>
-        <v>38315.28</v>
+        <v>38315.279999999999</v>
       </c>
       <c r="AG16" s="3">
         <f t="shared" si="14"/>
-        <v>-56137.08</v>
+        <v>-56137.079999999994</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="14"/>
@@ -5819,15 +5261,15 @@
       </c>
       <c r="AI16" s="3">
         <f t="shared" si="14"/>
-        <v>1747.54</v>
+        <v>1747.5400000000009</v>
       </c>
       <c r="AJ16" s="3">
         <f t="shared" si="14"/>
-        <v>1262.23</v>
+        <v>1262.2299999999996</v>
       </c>
       <c r="AK16" s="3">
         <f t="shared" si="14"/>
-        <v>6130.87</v>
+        <v>6130.8700000000017</v>
       </c>
       <c r="AL16" s="3">
         <f t="shared" si="14"/>
@@ -5835,11 +5277,11 @@
       </c>
       <c r="AM16" s="3">
         <f t="shared" si="14"/>
-        <v>6458.56</v>
+        <v>6458.5599999999995</v>
       </c>
       <c r="AN16" s="3">
         <f t="shared" si="14"/>
-        <v>9923.38</v>
+        <v>9923.3799999999992</v>
       </c>
       <c r="AO16" s="3">
         <f t="shared" si="14"/>
@@ -5850,7 +5292,7 @@
         <v>45817.21</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" ref="AQ16:AW16" si="15">AQ9-AQ15</f>
+        <f t="shared" ref="AQ16:AX16" si="15">AQ9-AQ15</f>
         <v>10992.77</v>
       </c>
       <c r="AR16" s="3">
@@ -5859,111 +5301,115 @@
       </c>
       <c r="AS16" s="3">
         <f t="shared" si="15"/>
-        <v>15334.43</v>
+        <v>15334.429999999998</v>
       </c>
       <c r="AT16" s="3">
         <f t="shared" si="15"/>
-        <v>10254.46</v>
+        <v>10254.459999999999</v>
       </c>
       <c r="AU16" s="3">
         <f t="shared" si="15"/>
-        <v>12520.09</v>
+        <v>12520.089999999998</v>
       </c>
       <c r="AV16" s="3">
         <f t="shared" si="15"/>
-        <v>9832.97</v>
+        <v>10492.969999999998</v>
       </c>
       <c r="AW16" s="3">
         <f t="shared" si="15"/>
-        <v>12401.16</v>
+        <v>14501.16</v>
       </c>
       <c r="AX16" s="3">
+        <f t="shared" si="15"/>
+        <v>13971.96</v>
+      </c>
+      <c r="AY16" s="3">
         <f t="shared" si="3"/>
-        <v>84570.75</v>
+        <v>101302.70999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>33513</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>24751.65</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>12634.85</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>15093.47</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>20420.09</v>
       </c>
-      <c r="I17" s="8">
-        <v>17543.49</v>
-      </c>
-      <c r="J17" s="8">
-        <v>18868.08</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="I17" s="6">
+        <v>17543.490000000002</v>
+      </c>
+      <c r="J17" s="6">
+        <v>18868.080000000002</v>
+      </c>
+      <c r="K17" s="6">
         <v>14888.84</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>14978.06</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="6">
         <v>15287.33</v>
       </c>
-      <c r="N17" s="8">
-        <v>18661.65</v>
-      </c>
-      <c r="O17" s="8">
+      <c r="N17" s="6">
+        <v>18661.650000000001</v>
+      </c>
+      <c r="O17" s="6">
         <v>16076.11</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8">
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6">
         <v>15240.57</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="6">
         <v>12701.39</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="6">
         <v>9350.41</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="6">
         <v>14222.96</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="6">
         <v>18253.05</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="6">
         <v>23645.57</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="6">
         <v>19546.21</v>
       </c>
-      <c r="X17" s="8">
-        <v>19342.56</v>
-      </c>
-      <c r="Y17" s="8">
+      <c r="X17" s="6">
+        <v>19342.560000000001</v>
+      </c>
+      <c r="Y17" s="6">
         <v>8015.72</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="6">
         <v>8114.54</v>
       </c>
-      <c r="AA17" s="8">
+      <c r="AA17" s="6">
         <v>8847.98</v>
       </c>
-      <c r="AB17" s="8">
-        <v>8655.37</v>
+      <c r="AB17" s="6">
+        <v>8655.3700000000008</v>
       </c>
       <c r="AD17" s="3">
         <v>6924.04</v>
@@ -6022,84 +5468,87 @@
       <c r="AW17" s="3">
         <v>0</v>
       </c>
+      <c r="AX17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:49">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>24162</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>11155.93</v>
       </c>
-      <c r="F18" s="8">
-        <v>37081.44</v>
-      </c>
-      <c r="G18" s="8">
-        <v>8361.04</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="F18" s="6">
+        <v>37081.440000000002</v>
+      </c>
+      <c r="G18" s="6">
+        <v>8361.0400000000009</v>
+      </c>
+      <c r="H18" s="6">
         <v>7792.74</v>
       </c>
-      <c r="I18" s="8">
-        <v>9341.47</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="I18" s="6">
+        <v>9341.4699999999993</v>
+      </c>
+      <c r="J18" s="6">
         <v>7021.05</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>12564.52</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>6163.61</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>3693.43</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="6">
         <v>1889.28</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="6">
         <v>49351.22</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8">
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6">
         <v>1267.53</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="6">
         <v>29512.69</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="6">
         <v>14141.27</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="6">
         <v>13952.84</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="6">
         <v>16678.45</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="6">
         <v>21344.31</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W18" s="6">
         <v>7678.26</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="6">
         <v>9513.39</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y18" s="6">
         <v>13126.19</v>
       </c>
-      <c r="Z18" s="8">
-        <v>570.7</v>
-      </c>
-      <c r="AA18" s="8">
+      <c r="Z18" s="6">
+        <v>570.70000000000005</v>
+      </c>
+      <c r="AA18" s="6">
         <v>6710.55</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AB18" s="6">
         <v>6697.56</v>
       </c>
       <c r="AD18" s="3">
@@ -6113,10 +5562,10 @@
         <v>44830.93</v>
       </c>
       <c r="AG18" s="3">
-        <v>1083.6</v>
+        <v>1083.5999999999999</v>
       </c>
       <c r="AH18" s="3">
-        <v>2304.47</v>
+        <v>2304.4699999999998</v>
       </c>
       <c r="AI18" s="3">
         <v>302.94</v>
@@ -6131,7 +5580,7 @@
         <v>34333.26</v>
       </c>
       <c r="AM18" s="3">
-        <v>40325.92</v>
+        <v>40325.919999999998</v>
       </c>
       <c r="AN18" s="3">
         <v>50516.49</v>
@@ -6143,7 +5592,7 @@
         <v>65999.83</v>
       </c>
       <c r="AR18" s="3">
-        <v>79183.15</v>
+        <v>79183.149999999994</v>
       </c>
       <c r="AS18" s="3">
         <v>88674.81</v>
@@ -6160,84 +5609,87 @@
       <c r="AW18" s="3">
         <v>142000</v>
       </c>
+      <c r="AX18" s="3">
+        <v>157058.60999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:49">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <v>20000</v>
       </c>
-      <c r="G19" s="8">
-        <v>20051.44</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8">
-        <v>0</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0</v>
-      </c>
-      <c r="S19" s="8">
-        <v>0</v>
-      </c>
-      <c r="T19" s="8">
-        <v>0</v>
-      </c>
-      <c r="U19" s="8">
-        <v>0</v>
-      </c>
-      <c r="V19" s="8">
-        <v>0</v>
-      </c>
-      <c r="W19" s="8">
-        <v>0</v>
-      </c>
-      <c r="X19" s="8">
+      <c r="G19" s="6">
+        <v>20051.439999999999</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="6">
+        <v>0</v>
+      </c>
+      <c r="W19" s="6">
+        <v>0</v>
+      </c>
+      <c r="X19" s="6">
         <v>4009.06</v>
       </c>
-      <c r="Y19" s="8">
+      <c r="Y19" s="6">
         <v>6015.57</v>
       </c>
-      <c r="Z19" s="8">
+      <c r="Z19" s="6">
         <v>16029.84</v>
       </c>
-      <c r="AA19" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="8">
+      <c r="AA19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="6">
         <v>6011.43</v>
       </c>
       <c r="AD19" s="3">
@@ -6297,84 +5749,87 @@
       <c r="AW19" s="3">
         <v>27371.97</v>
       </c>
+      <c r="AX19" s="3">
+        <v>27971.97</v>
+      </c>
     </row>
-    <row r="20" spans="1:49">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6">
         <v>3580.23</v>
       </c>
-      <c r="R20" s="8">
-        <v>4451.52</v>
-      </c>
-      <c r="S20" s="8">
+      <c r="R20" s="6">
+        <v>4451.5200000000004</v>
+      </c>
+      <c r="S20" s="6">
         <v>4647.49</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="6">
         <v>2252.86</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="6">
         <v>1598.05</v>
       </c>
-      <c r="V20" s="8">
+      <c r="V20" s="6">
         <v>859.81</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="8">
-        <v>2106.76</v>
-      </c>
-      <c r="Y20" s="8">
+      <c r="X20" s="6">
+        <v>2106.7600000000002</v>
+      </c>
+      <c r="Y20" s="6">
         <v>2786.56</v>
       </c>
-      <c r="Z20" s="8">
+      <c r="Z20" s="6">
         <v>3531.46</v>
       </c>
-      <c r="AA20" s="8">
-        <v>4313.36</v>
-      </c>
-      <c r="AB20" s="8">
+      <c r="AA20" s="6">
+        <v>4313.3599999999997</v>
+      </c>
+      <c r="AB20" s="6">
         <v>5662.84</v>
       </c>
       <c r="AD20" s="3">
@@ -6414,7 +5869,7 @@
         <v>10200.4</v>
       </c>
       <c r="AQ20" s="3">
-        <v>10063.2</v>
+        <v>10063.200000000001</v>
       </c>
       <c r="AR20" s="3">
         <v>5453.28</v>
@@ -6434,50 +5889,53 @@
       <c r="AW20" s="3">
         <v>5240.2</v>
       </c>
+      <c r="AX20" s="3">
+        <v>5216.3999999999996</v>
+      </c>
     </row>
-    <row r="21" spans="1:49">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10" t="s">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>10009.5</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>30022.74</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>19984.47</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>19998.32</v>
       </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8"/>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6"/>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
@@ -6571,84 +6029,87 @@
       <c r="AW21" s="3">
         <v>0</v>
       </c>
+      <c r="AX21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:49">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10" t="s">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>28940</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>43024.44</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>72264.17</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>96752.12</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>126725.83</v>
       </c>
-      <c r="I22" s="8">
-        <v>143531.52</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="I22" s="6">
+        <v>143531.51999999999</v>
+      </c>
+      <c r="J22" s="6">
         <v>136197.87</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>157196.16</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>171682.53</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>188902.16</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="6">
         <v>185183.64</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="6">
         <v>201931.89</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8">
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6">
         <v>245166.97</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="6">
         <v>236862.74</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="6">
         <v>253011.81</v>
       </c>
-      <c r="T22" s="8">
-        <v>287422.04</v>
-      </c>
-      <c r="U22" s="8">
+      <c r="T22" s="6">
+        <v>287422.03999999998</v>
+      </c>
+      <c r="U22" s="6">
         <v>312091.25</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="6">
         <v>358454.98</v>
       </c>
-      <c r="W22" s="8">
+      <c r="W22" s="6">
         <v>369739.11</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="6">
         <v>354784.18</v>
       </c>
-      <c r="Y22" s="8">
+      <c r="Y22" s="6">
         <v>352905.69</v>
       </c>
-      <c r="Z22" s="8">
+      <c r="Z22" s="6">
         <v>371385.53</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AA22" s="6">
         <v>382911.99</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AB22" s="6">
         <v>399438.3</v>
       </c>
       <c r="AD22" s="3">
@@ -6708,192 +6169,199 @@
       <c r="AW22" s="3">
         <v>395642.38</v>
       </c>
+      <c r="AX22" s="3">
+        <v>384451.96</v>
+      </c>
     </row>
-    <row r="23" spans="1:49">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10" t="s">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <f t="shared" ref="D23:O23" si="16">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <f t="shared" si="16"/>
-        <v>108954.76</v>
-      </c>
-      <c r="F23" s="11">
+        <v>108954.76000000001</v>
+      </c>
+      <c r="F23" s="8">
         <f t="shared" si="16"/>
         <v>161964.93</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="8">
         <f t="shared" si="16"/>
-        <v>160256.39</v>
-      </c>
-      <c r="H23" s="11">
+        <v>160256.38999999998</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" si="16"/>
         <v>154938.66</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="8">
         <f t="shared" si="16"/>
-        <v>170416.48</v>
-      </c>
-      <c r="J23" s="11">
+        <v>170416.47999999998</v>
+      </c>
+      <c r="J23" s="8">
         <f t="shared" si="16"/>
         <v>162087</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="8">
         <f t="shared" si="16"/>
-        <v>184649.52</v>
-      </c>
-      <c r="L23" s="11">
+        <v>184649.52000000002</v>
+      </c>
+      <c r="L23" s="8">
         <f t="shared" si="16"/>
         <v>192824.2</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="8">
         <f t="shared" si="16"/>
         <v>207882.92</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="8">
         <f t="shared" si="16"/>
         <v>205734.57</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="8">
         <f t="shared" si="16"/>
-        <v>267359.22</v>
-      </c>
-      <c r="Q23" s="11">
+        <v>267359.22000000003</v>
+      </c>
+      <c r="Q23" s="8">
         <f t="shared" ref="Q23:AB23" si="17">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="8">
         <f t="shared" si="17"/>
-        <v>283528.34</v>
-      </c>
-      <c r="S23" s="11">
+        <v>283528.33999999997</v>
+      </c>
+      <c r="S23" s="8">
         <f t="shared" si="17"/>
         <v>281150.98</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T23" s="8">
         <f t="shared" si="17"/>
-        <v>317850.7</v>
-      </c>
-      <c r="U23" s="11">
+        <v>317850.69999999995</v>
+      </c>
+      <c r="U23" s="8">
         <f t="shared" si="17"/>
-        <v>348620.8</v>
-      </c>
-      <c r="V23" s="11">
+        <v>348620.79999999999</v>
+      </c>
+      <c r="V23" s="8">
         <f t="shared" si="17"/>
         <v>404304.67</v>
       </c>
-      <c r="W23" s="11">
+      <c r="W23" s="8">
         <f t="shared" si="17"/>
-        <v>396963.58</v>
-      </c>
-      <c r="X23" s="11">
+        <v>396963.57999999996</v>
+      </c>
+      <c r="X23" s="8">
         <f t="shared" si="17"/>
         <v>389755.95</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="Y23" s="8">
         <f t="shared" si="17"/>
         <v>382849.73</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="Z23" s="8">
         <f t="shared" si="17"/>
         <v>399632.07</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AA23" s="8">
         <f t="shared" si="17"/>
         <v>402783.88</v>
       </c>
-      <c r="AB23" s="11">
+      <c r="AB23" s="8">
         <f t="shared" si="17"/>
         <v>426465.5</v>
       </c>
-      <c r="AD23" s="11">
+      <c r="AD23" s="8">
         <f t="shared" ref="AD23:AO23" si="18">SUM(AD17:AD22)</f>
-        <v>477902.41</v>
-      </c>
-      <c r="AE23" s="11">
+        <v>477902.41000000003</v>
+      </c>
+      <c r="AE23" s="8">
         <f t="shared" si="18"/>
         <v>480280.69</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AF23" s="8">
         <f t="shared" si="18"/>
         <v>511218.75</v>
       </c>
-      <c r="AG23" s="11">
+      <c r="AG23" s="8">
         <f t="shared" si="18"/>
         <v>478512.67</v>
       </c>
-      <c r="AH23" s="11">
+      <c r="AH23" s="8">
         <f t="shared" si="18"/>
         <v>497675.39</v>
       </c>
-      <c r="AI23" s="11">
+      <c r="AI23" s="8">
         <f t="shared" si="18"/>
         <v>469790.32</v>
       </c>
-      <c r="AJ23" s="11">
+      <c r="AJ23" s="8">
         <f t="shared" si="18"/>
         <v>439295.72</v>
       </c>
-      <c r="AK23" s="11">
+      <c r="AK23" s="8">
         <f t="shared" si="18"/>
         <v>438284.74</v>
       </c>
-      <c r="AL23" s="11">
+      <c r="AL23" s="8">
         <f t="shared" si="18"/>
         <v>461844.95</v>
       </c>
-      <c r="AM23" s="11">
+      <c r="AM23" s="8">
         <f t="shared" si="18"/>
         <v>498589.38</v>
       </c>
-      <c r="AN23" s="11">
+      <c r="AN23" s="8">
         <f t="shared" si="18"/>
         <v>511524.07</v>
       </c>
-      <c r="AO23" s="11">
+      <c r="AO23" s="8">
         <f t="shared" si="18"/>
         <v>550438.91</v>
       </c>
-      <c r="AQ23" s="11">
-        <f t="shared" ref="AQ23:AW23" si="19">SUM(AQ17:AQ22)</f>
+      <c r="AQ23" s="8">
+        <f t="shared" ref="AQ23:AX23" si="19">SUM(AQ17:AQ22)</f>
         <v>514349.54</v>
       </c>
-      <c r="AR23" s="11">
+      <c r="AR23" s="8">
         <f t="shared" si="19"/>
         <v>528443.4</v>
       </c>
-      <c r="AS23" s="11">
+      <c r="AS23" s="8">
         <f t="shared" si="19"/>
-        <v>501978.83</v>
-      </c>
-      <c r="AT23" s="11">
+        <v>501978.82999999996</v>
+      </c>
+      <c r="AT23" s="8">
         <f t="shared" si="19"/>
-        <v>499789.07</v>
-      </c>
-      <c r="AU23" s="11">
+        <v>499789.06999999995</v>
+      </c>
+      <c r="AU23" s="8">
         <f t="shared" si="19"/>
         <v>525935.25</v>
       </c>
-      <c r="AV23" s="11">
+      <c r="AV23" s="8">
         <f t="shared" si="19"/>
-        <v>587826.56</v>
-      </c>
-      <c r="AW23" s="11">
+        <v>587826.56000000006</v>
+      </c>
+      <c r="AW23" s="8">
         <f t="shared" si="19"/>
-        <v>570254.55</v>
+        <v>570254.55000000005</v>
+      </c>
+      <c r="AX23" s="8">
+        <f t="shared" si="19"/>
+        <v>574698.93999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="3">
@@ -6901,71 +6369,71 @@
       </c>
       <c r="E24" s="3">
         <f>D24+E8-E14</f>
-        <v>53399.55</v>
+        <v>53399.549999999996</v>
       </c>
       <c r="F24" s="3">
         <f>E24+F8-F14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="G24" s="3">
         <f>F24+G8-G14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="H24" s="3">
         <f>G24+H8-H14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" ref="I24:O24" si="20">G24+I8-I14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="20"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="20"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="20"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="20"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="20"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="20"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="3">
         <f>O24+Q8-Q14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" ref="R24:AB24" si="21">Q24+R8-R14</f>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="S24" s="3">
         <f t="shared" si="21"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="21"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" si="21"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="V24" s="3">
         <f t="shared" si="21"/>
-        <v>100000</v>
+        <v>99999.999999999985</v>
       </c>
       <c r="W24" s="3">
         <f t="shared" si="21"/>
@@ -7044,7 +6512,7 @@
         <v>156000</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" ref="AR24:AW24" si="23">AQ24+AR8-AR14</f>
+        <f t="shared" ref="AR24:AX24" si="23">AQ24+AR8-AR14</f>
         <v>156000</v>
       </c>
       <c r="AS24" s="3">
@@ -7067,184 +6535,192 @@
         <f t="shared" si="23"/>
         <v>156000</v>
       </c>
+      <c r="AX24" s="3">
+        <f t="shared" si="23"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:49">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11">
+      <c r="C25" s="12"/>
+      <c r="D25" s="8">
         <f t="shared" ref="D25:O25" si="24">D23-D24</f>
-        <v>39892.05</v>
-      </c>
-      <c r="E25" s="11">
+        <v>39892.050000000003</v>
+      </c>
+      <c r="E25" s="8">
         <f t="shared" si="24"/>
-        <v>55555.21</v>
-      </c>
-      <c r="F25" s="11">
+        <v>55555.210000000014</v>
+      </c>
+      <c r="F25" s="8">
         <f t="shared" si="24"/>
-        <v>61964.93</v>
-      </c>
-      <c r="G25" s="11">
+        <v>61964.930000000008</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="24"/>
         <v>60256.39</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="8">
         <f t="shared" si="24"/>
-        <v>54938.66</v>
-      </c>
-      <c r="I25" s="11">
+        <v>54938.660000000018</v>
+      </c>
+      <c r="I25" s="8">
         <f t="shared" si="24"/>
-        <v>70416.48</v>
-      </c>
-      <c r="J25" s="11">
+        <v>70416.479999999996</v>
+      </c>
+      <c r="J25" s="8">
         <f t="shared" si="24"/>
-        <v>62087</v>
-      </c>
-      <c r="K25" s="11">
+        <v>62087.000000000015</v>
+      </c>
+      <c r="K25" s="8">
         <f t="shared" si="24"/>
-        <v>84649.52</v>
-      </c>
-      <c r="L25" s="11">
+        <v>84649.520000000033</v>
+      </c>
+      <c r="L25" s="8">
         <f t="shared" si="24"/>
-        <v>92824.2</v>
-      </c>
-      <c r="M25" s="11">
+        <v>92824.200000000026</v>
+      </c>
+      <c r="M25" s="8">
         <f t="shared" si="24"/>
-        <v>107882.92</v>
-      </c>
-      <c r="N25" s="11">
+        <v>107882.92000000003</v>
+      </c>
+      <c r="N25" s="8">
         <f t="shared" si="24"/>
-        <v>105734.57</v>
-      </c>
-      <c r="O25" s="11">
+        <v>105734.57000000002</v>
+      </c>
+      <c r="O25" s="8">
         <f t="shared" si="24"/>
-        <v>167359.22</v>
-      </c>
-      <c r="Q25" s="11">
+        <v>167359.22000000003</v>
+      </c>
+      <c r="Q25" s="8">
         <f t="shared" ref="Q25:AB25" si="25">Q23-Q24</f>
-        <v>165255.3</v>
-      </c>
-      <c r="R25" s="11">
+        <v>165255.29999999999</v>
+      </c>
+      <c r="R25" s="8">
         <f t="shared" si="25"/>
-        <v>183528.34</v>
-      </c>
-      <c r="S25" s="11">
+        <v>183528.33999999997</v>
+      </c>
+      <c r="S25" s="8">
         <f t="shared" si="25"/>
-        <v>181150.98</v>
-      </c>
-      <c r="T25" s="11">
+        <v>181150.97999999998</v>
+      </c>
+      <c r="T25" s="8">
         <f t="shared" si="25"/>
-        <v>217850.7</v>
-      </c>
-      <c r="U25" s="11">
+        <v>217850.69999999995</v>
+      </c>
+      <c r="U25" s="8">
         <f t="shared" si="25"/>
-        <v>248620.8</v>
-      </c>
-      <c r="V25" s="11">
+        <v>248620.79999999999</v>
+      </c>
+      <c r="V25" s="8">
         <f t="shared" si="25"/>
         <v>304304.67</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W25" s="8">
         <f t="shared" si="25"/>
-        <v>226963.58</v>
-      </c>
-      <c r="X25" s="11">
+        <v>226963.57999999996</v>
+      </c>
+      <c r="X25" s="8">
         <f t="shared" si="25"/>
         <v>219755.95</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y25" s="8">
         <f t="shared" si="25"/>
-        <v>212849.73</v>
-      </c>
-      <c r="Z25" s="11">
+        <v>212849.72999999998</v>
+      </c>
+      <c r="Z25" s="8">
         <f t="shared" si="25"/>
         <v>229632.07</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AA25" s="8">
         <f t="shared" si="25"/>
         <v>246783.88</v>
       </c>
-      <c r="AB25" s="11">
+      <c r="AB25" s="8">
         <f t="shared" si="25"/>
         <v>270465.5</v>
       </c>
-      <c r="AD25" s="11">
+      <c r="AD25" s="8">
         <f t="shared" ref="AD25:AO25" si="26">AD23-AD24</f>
-        <v>321902.41</v>
-      </c>
-      <c r="AE25" s="11">
+        <v>321902.41000000003</v>
+      </c>
+      <c r="AE25" s="8">
         <f t="shared" si="26"/>
         <v>324280.69</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AF25" s="8">
         <f t="shared" si="26"/>
         <v>355218.75</v>
       </c>
-      <c r="AG25" s="11">
+      <c r="AG25" s="8">
         <f t="shared" si="26"/>
         <v>322512.67</v>
       </c>
-      <c r="AH25" s="11">
+      <c r="AH25" s="8">
         <f t="shared" si="26"/>
         <v>341675.39</v>
       </c>
-      <c r="AI25" s="11">
+      <c r="AI25" s="8">
         <f t="shared" si="26"/>
         <v>313790.32</v>
       </c>
-      <c r="AJ25" s="11">
+      <c r="AJ25" s="8">
         <f t="shared" si="26"/>
-        <v>283295.72</v>
-      </c>
-      <c r="AK25" s="11">
+        <v>283295.71999999997</v>
+      </c>
+      <c r="AK25" s="8">
         <f t="shared" si="26"/>
         <v>282284.74</v>
       </c>
-      <c r="AL25" s="11">
+      <c r="AL25" s="8">
         <f t="shared" si="26"/>
         <v>305844.95</v>
       </c>
-      <c r="AM25" s="11">
+      <c r="AM25" s="8">
         <f t="shared" si="26"/>
         <v>342589.38</v>
       </c>
-      <c r="AN25" s="11">
+      <c r="AN25" s="8">
         <f t="shared" si="26"/>
         <v>355524.07</v>
       </c>
-      <c r="AO25" s="11">
+      <c r="AO25" s="8">
         <f t="shared" si="26"/>
-        <v>394438.91</v>
-      </c>
-      <c r="AQ25" s="11">
-        <f t="shared" ref="AQ25:AW25" si="27">AQ23-AQ24</f>
+        <v>394438.91000000003</v>
+      </c>
+      <c r="AQ25" s="8">
+        <f t="shared" ref="AQ25:AX25" si="27">AQ23-AQ24</f>
         <v>358349.54</v>
       </c>
-      <c r="AR25" s="11">
+      <c r="AR25" s="8">
         <f t="shared" si="27"/>
         <v>372443.4</v>
       </c>
-      <c r="AS25" s="11">
+      <c r="AS25" s="8">
         <f t="shared" si="27"/>
-        <v>345978.83</v>
-      </c>
-      <c r="AT25" s="11">
+        <v>345978.82999999996</v>
+      </c>
+      <c r="AT25" s="8">
         <f t="shared" si="27"/>
-        <v>343789.07</v>
-      </c>
-      <c r="AU25" s="11">
+        <v>343789.06999999995</v>
+      </c>
+      <c r="AU25" s="8">
         <f t="shared" si="27"/>
         <v>369935.25</v>
       </c>
-      <c r="AV25" s="11">
+      <c r="AV25" s="8">
         <f t="shared" si="27"/>
-        <v>431826.56</v>
-      </c>
-      <c r="AW25" s="11">
+        <v>431826.56000000006</v>
+      </c>
+      <c r="AW25" s="8">
         <f t="shared" si="27"/>
-        <v>414254.55</v>
+        <v>414254.55000000005</v>
+      </c>
+      <c r="AX25" s="8">
+        <f t="shared" si="27"/>
+        <v>418698.93999999994</v>
       </c>
     </row>
   </sheetData>
@@ -7258,8 +6734,9 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B17:B23"/>
   </mergeCells>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -7268,6 +6745,6 @@
     <ignoredError sqref="AE9:AO9 AB15 Y9:AB9" formulaRange="1"/>
     <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D115FC-F0D8-4FDF-8B32-ABA9A75B0135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D0CFA6-5D4B-492F-9DA3-BD4DC228D079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -281,14 +281,14 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -303,13 +303,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,9 +515,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AX$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AY$1)</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -649,16 +649,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2022/08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022/09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AX$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AY$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -790,6 +793,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>574698.93999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>565069.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,9 +866,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AX$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AY$1)</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -994,16 +1000,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2022/08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022/09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AX$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AY$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1135,6 +1144,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>418698.93999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>409069.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,13 +1407,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>211635</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>113160</xdr:rowOff>
@@ -1690,32 +1702,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANG25"/>
+  <dimension ref="A1:ANH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BI18" sqref="BI18"/>
+      <selection pane="topRight" activeCell="AX18" sqref="AX18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
-    <col min="4" max="15" width="10.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="3" customWidth="1"/>
-    <col min="17" max="22" width="10.5" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="3" customWidth="1"/>
-    <col min="24" max="28" width="10.5" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.75" style="3" customWidth="1"/>
-    <col min="30" max="41" width="11.25" style="3" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="15" width="10.44140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" style="3" customWidth="1"/>
+    <col min="17" max="22" width="10.44140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="3" customWidth="1"/>
+    <col min="24" max="28" width="10.44140625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.77734375" style="3" customWidth="1"/>
+    <col min="30" max="41" width="11.21875" style="3" customWidth="1"/>
     <col min="42" max="42" width="12" style="3" customWidth="1"/>
-    <col min="43" max="50" width="10.5" style="3" customWidth="1"/>
-    <col min="51" max="51" width="12.25" style="3" customWidth="1"/>
-    <col min="52" max="91" width="10.5" style="3" customWidth="1"/>
-    <col min="92" max="1047" width="10.5" style="2" customWidth="1"/>
+    <col min="43" max="51" width="10.44140625" style="3" customWidth="1"/>
+    <col min="52" max="52" width="12.21875" style="3" customWidth="1"/>
+    <col min="53" max="92" width="10.44140625" style="3" customWidth="1"/>
+    <col min="93" max="1048" width="10.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1047" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1048" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1862,10 +1874,12 @@
       <c r="AX1" s="4">
         <v>44774</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="4">
+        <v>44805</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AZ1" s="10"/>
       <c r="BA1" s="10"/>
       <c r="BB1" s="10"/>
       <c r="BC1" s="10"/>
@@ -2861,8 +2875,9 @@
       <c r="ANE1" s="10"/>
       <c r="ANF1" s="10"/>
       <c r="ANG1" s="10"/>
+      <c r="ANH1" s="10"/>
     </row>
-    <row r="2" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -3017,11 +3032,14 @@
         <v>16191</v>
       </c>
       <c r="AY2" s="3">
-        <f>SUM(AQ2:AX2)</f>
-        <v>125757.45</v>
+        <v>16191</v>
+      </c>
+      <c r="AZ2" s="3">
+        <f>SUM(AQ2:AY2)</f>
+        <v>141948.45000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
@@ -3172,11 +3190,14 @@
         <v>0</v>
       </c>
       <c r="AY3" s="3">
-        <f t="shared" ref="AY3:AY16" si="3">SUM(AQ3:AX3)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="3">
+        <f t="shared" ref="AZ3:AZ16" si="3">SUM(AQ3:AY3)</f>
         <v>682.40000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
@@ -3328,11 +3349,14 @@
         <v>47.56</v>
       </c>
       <c r="AY4" s="3">
+        <v>1069.3599999999999</v>
+      </c>
+      <c r="AZ4" s="3">
         <f t="shared" si="3"/>
-        <v>5435.33</v>
+        <v>6504.69</v>
       </c>
     </row>
-    <row r="5" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="7" t="s">
@@ -3483,11 +3507,14 @@
         <v>0</v>
       </c>
       <c r="AY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
@@ -3638,11 +3665,14 @@
         <v>0</v>
       </c>
       <c r="AY6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
@@ -3793,11 +3823,14 @@
         <v>0</v>
       </c>
       <c r="AY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
@@ -3948,11 +3981,14 @@
         <v>0</v>
       </c>
       <c r="AY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="7" t="s">
@@ -4115,7 +4151,7 @@
         <v>232567.45</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" ref="AQ9:AX9" si="7">SUM(AQ2:AQ8)</f>
+        <f t="shared" ref="AQ9:AY9" si="7">SUM(AQ2:AQ8)</f>
         <v>18051.59</v>
       </c>
       <c r="AR9" s="3">
@@ -4147,11 +4183,15 @@
         <v>16238.56</v>
       </c>
       <c r="AY9" s="3">
+        <f t="shared" si="7"/>
+        <v>17260.36</v>
+      </c>
+      <c r="AZ9" s="3">
         <f t="shared" si="3"/>
-        <v>131875.18</v>
+        <v>149135.53999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>35</v>
@@ -4305,11 +4345,14 @@
         <v>1993.11</v>
       </c>
       <c r="AY10" s="3">
+        <v>4720.66</v>
+      </c>
+      <c r="AZ10" s="3">
         <f t="shared" si="3"/>
-        <v>21444.720000000001</v>
+        <v>26165.38</v>
       </c>
     </row>
-    <row r="11" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
@@ -4460,11 +4503,14 @@
         <v>0</v>
       </c>
       <c r="AY11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7" t="s">
@@ -4616,11 +4662,14 @@
         <v>273.49</v>
       </c>
       <c r="AY12" s="3">
+        <v>11384.83</v>
+      </c>
+      <c r="AZ12" s="3">
         <f t="shared" si="3"/>
-        <v>4127.75</v>
+        <v>15512.58</v>
       </c>
     </row>
-    <row r="13" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="7" t="s">
@@ -4771,11 +4820,14 @@
         <v>0</v>
       </c>
       <c r="AY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="3">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
@@ -4926,11 +4978,14 @@
         <v>0</v>
       </c>
       <c r="AY14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="7" t="s">
@@ -5093,7 +5148,7 @@
         <v>186750.23999999996</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" ref="AQ15:AX15" si="11">SUM(AQ10:AQ14)</f>
+        <f t="shared" ref="AQ15:AY15" si="11">SUM(AQ10:AQ14)</f>
         <v>7058.82</v>
       </c>
       <c r="AR15" s="3">
@@ -5125,11 +5180,15 @@
         <v>2266.6</v>
       </c>
       <c r="AY15" s="3">
+        <f t="shared" si="11"/>
+        <v>16105.49</v>
+      </c>
+      <c r="AZ15" s="3">
         <f t="shared" si="3"/>
-        <v>30572.47</v>
+        <v>46677.96</v>
       </c>
     </row>
-    <row r="16" spans="1:1047" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1048" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>41</v>
@@ -5292,7 +5351,7 @@
         <v>45817.21</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" ref="AQ16:AX16" si="15">AQ9-AQ15</f>
+        <f t="shared" ref="AQ16:AY16" si="15">AQ9-AQ15</f>
         <v>10992.77</v>
       </c>
       <c r="AR16" s="3">
@@ -5324,11 +5383,15 @@
         <v>13971.96</v>
       </c>
       <c r="AY16" s="3">
+        <f t="shared" si="15"/>
+        <v>1154.8700000000008</v>
+      </c>
+      <c r="AZ16" s="3">
         <f t="shared" si="3"/>
-        <v>101302.70999999999</v>
+        <v>102457.57999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
@@ -5471,8 +5534,11 @@
       <c r="AX17" s="3">
         <v>0</v>
       </c>
+      <c r="AY17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7" t="s">
@@ -5612,8 +5678,11 @@
       <c r="AX18" s="3">
         <v>157058.60999999999</v>
       </c>
+      <c r="AY18" s="3">
+        <v>157089.85</v>
+      </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7" t="s">
@@ -5752,8 +5821,11 @@
       <c r="AX19" s="3">
         <v>27971.97</v>
       </c>
+      <c r="AY19" s="3">
+        <v>28271.97</v>
+      </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7" t="s">
@@ -5892,8 +5964,11 @@
       <c r="AX20" s="3">
         <v>5216.3999999999996</v>
       </c>
+      <c r="AY20" s="3">
+        <v>5296.2</v>
+      </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7" t="s">
@@ -6032,8 +6107,11 @@
       <c r="AX21" s="3">
         <v>0</v>
       </c>
+      <c r="AY21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7" t="s">
@@ -6172,8 +6250,11 @@
       <c r="AX22" s="3">
         <v>384451.96</v>
       </c>
+      <c r="AY22" s="3">
+        <v>374411.88</v>
+      </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7" t="s">
@@ -6324,7 +6405,7 @@
         <v>550438.91</v>
       </c>
       <c r="AQ23" s="8">
-        <f t="shared" ref="AQ23:AX23" si="19">SUM(AQ17:AQ22)</f>
+        <f t="shared" ref="AQ23:AY23" si="19">SUM(AQ17:AQ22)</f>
         <v>514349.54</v>
       </c>
       <c r="AR23" s="8">
@@ -6355,8 +6436,12 @@
         <f t="shared" si="19"/>
         <v>574698.93999999994</v>
       </c>
+      <c r="AY23" s="8">
+        <f t="shared" si="19"/>
+        <v>565069.9</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>50</v>
@@ -6512,7 +6597,7 @@
         <v>156000</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" ref="AR24:AX24" si="23">AQ24+AR8-AR14</f>
+        <f t="shared" ref="AR24:AY24" si="23">AQ24+AR8-AR14</f>
         <v>156000</v>
       </c>
       <c r="AS24" s="3">
@@ -6539,8 +6624,12 @@
         <f t="shared" si="23"/>
         <v>156000</v>
       </c>
+      <c r="AY24" s="3">
+        <f t="shared" si="23"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
@@ -6691,7 +6780,7 @@
         <v>394438.91000000003</v>
       </c>
       <c r="AQ25" s="8">
-        <f t="shared" ref="AQ25:AX25" si="27">AQ23-AQ24</f>
+        <f t="shared" ref="AQ25:AY25" si="27">AQ23-AQ24</f>
         <v>358349.54</v>
       </c>
       <c r="AR25" s="8">
@@ -6721,6 +6810,10 @@
       <c r="AX25" s="8">
         <f t="shared" si="27"/>
         <v>418698.93999999994</v>
+      </c>
+      <c r="AY25" s="8">
+        <f t="shared" si="27"/>
+        <v>409069.9</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D0CFA6-5D4B-492F-9DA3-BD4DC228D079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920AA0AD-AF2D-48E5-BEAE-E53E0D81B8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
@@ -515,9 +515,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AY$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AZ$1)</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -652,16 +652,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2022/09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2022/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AY$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AZ$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -796,6 +799,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>565069.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>573750.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,9 +872,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AY$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AZ$1)</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -1003,16 +1009,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2022/09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2022/10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AY$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AZ$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1147,6 +1156,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>409069.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>417750.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,13 +1419,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>211635</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>113160</xdr:rowOff>
@@ -1702,32 +1714,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANH25"/>
+  <dimension ref="A1:ANI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX18" sqref="AX18"/>
+      <selection pane="topRight" activeCell="AX23" sqref="AX23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
-    <col min="4" max="15" width="10.44140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.21875" style="3" customWidth="1"/>
-    <col min="17" max="22" width="10.44140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" style="3" customWidth="1"/>
-    <col min="24" max="28" width="10.44140625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.77734375" style="3" customWidth="1"/>
-    <col min="30" max="41" width="11.21875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="15" width="10.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="3" customWidth="1"/>
+    <col min="17" max="22" width="10.5" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="3" customWidth="1"/>
+    <col min="24" max="28" width="10.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.75" style="3" customWidth="1"/>
+    <col min="30" max="41" width="11.25" style="3" customWidth="1"/>
     <col min="42" max="42" width="12" style="3" customWidth="1"/>
-    <col min="43" max="51" width="10.44140625" style="3" customWidth="1"/>
-    <col min="52" max="52" width="12.21875" style="3" customWidth="1"/>
-    <col min="53" max="92" width="10.44140625" style="3" customWidth="1"/>
-    <col min="93" max="1048" width="10.44140625" style="2" customWidth="1"/>
+    <col min="43" max="52" width="10.5" style="3" customWidth="1"/>
+    <col min="53" max="53" width="12.25" style="3" customWidth="1"/>
+    <col min="54" max="93" width="10.5" style="3" customWidth="1"/>
+    <col min="94" max="1049" width="10.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1048" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1049" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1877,10 +1889,12 @@
       <c r="AY1" s="4">
         <v>44805</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="4">
+        <v>44835</v>
+      </c>
+      <c r="BA1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="BA1" s="10"/>
       <c r="BB1" s="10"/>
       <c r="BC1" s="10"/>
       <c r="BD1" s="10"/>
@@ -2876,8 +2890,9 @@
       <c r="ANF1" s="10"/>
       <c r="ANG1" s="10"/>
       <c r="ANH1" s="10"/>
+      <c r="ANI1" s="10"/>
     </row>
-    <row r="2" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -3035,11 +3050,14 @@
         <v>16191</v>
       </c>
       <c r="AZ2" s="3">
-        <f>SUM(AQ2:AY2)</f>
-        <v>141948.45000000001</v>
+        <v>16191</v>
+      </c>
+      <c r="BA2" s="3">
+        <f>SUM(AQ2:AZ2)</f>
+        <v>158139.45000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
@@ -3193,11 +3211,14 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="3">
-        <f t="shared" ref="AZ3:AZ16" si="3">SUM(AQ3:AY3)</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="3">
+        <f t="shared" ref="BA3:BA16" si="3">SUM(AQ3:AZ3)</f>
         <v>682.40000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
@@ -3352,11 +3373,14 @@
         <v>1069.3599999999999</v>
       </c>
       <c r="AZ4" s="3">
+        <v>15.49</v>
+      </c>
+      <c r="BA4" s="3">
         <f t="shared" si="3"/>
-        <v>6504.69</v>
+        <v>6520.1799999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="7" t="s">
@@ -3510,11 +3534,14 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
@@ -3668,11 +3695,14 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
@@ -3826,11 +3856,14 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
@@ -3984,11 +4017,14 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="7" t="s">
@@ -4151,7 +4187,7 @@
         <v>232567.45</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" ref="AQ9:AY9" si="7">SUM(AQ2:AQ8)</f>
+        <f t="shared" ref="AQ9:AZ9" si="7">SUM(AQ2:AQ8)</f>
         <v>18051.59</v>
       </c>
       <c r="AR9" s="3">
@@ -4187,11 +4223,15 @@
         <v>17260.36</v>
       </c>
       <c r="AZ9" s="3">
+        <f t="shared" si="7"/>
+        <v>16206.49</v>
+      </c>
+      <c r="BA9" s="3">
         <f t="shared" si="3"/>
-        <v>149135.53999999998</v>
+        <v>165342.02999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>35</v>
@@ -4348,11 +4388,14 @@
         <v>4720.66</v>
       </c>
       <c r="AZ10" s="3">
+        <v>3030.58</v>
+      </c>
+      <c r="BA10" s="3">
         <f t="shared" si="3"/>
-        <v>26165.38</v>
+        <v>29195.96</v>
       </c>
     </row>
-    <row r="11" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
@@ -4506,11 +4549,14 @@
         <v>0</v>
       </c>
       <c r="AZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7" t="s">
@@ -4665,11 +4711,14 @@
         <v>11384.83</v>
       </c>
       <c r="AZ12" s="3">
+        <v>179.41</v>
+      </c>
+      <c r="BA12" s="3">
         <f t="shared" si="3"/>
-        <v>15512.58</v>
+        <v>15691.99</v>
       </c>
     </row>
-    <row r="13" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="7" t="s">
@@ -4823,11 +4872,14 @@
         <v>0</v>
       </c>
       <c r="AZ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="3">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
@@ -4981,11 +5033,14 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="7" t="s">
@@ -5148,7 +5203,7 @@
         <v>186750.23999999996</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" ref="AQ15:AY15" si="11">SUM(AQ10:AQ14)</f>
+        <f t="shared" ref="AQ15:AZ15" si="11">SUM(AQ10:AQ14)</f>
         <v>7058.82</v>
       </c>
       <c r="AR15" s="3">
@@ -5184,11 +5239,15 @@
         <v>16105.49</v>
       </c>
       <c r="AZ15" s="3">
+        <f t="shared" si="11"/>
+        <v>3209.99</v>
+      </c>
+      <c r="BA15" s="3">
         <f t="shared" si="3"/>
-        <v>46677.96</v>
+        <v>49887.95</v>
       </c>
     </row>
-    <row r="16" spans="1:1048" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1049" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>41</v>
@@ -5351,7 +5410,7 @@
         <v>45817.21</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" ref="AQ16:AY16" si="15">AQ9-AQ15</f>
+        <f t="shared" ref="AQ16:AZ16" si="15">AQ9-AQ15</f>
         <v>10992.77</v>
       </c>
       <c r="AR16" s="3">
@@ -5387,11 +5446,15 @@
         <v>1154.8700000000008</v>
       </c>
       <c r="AZ16" s="3">
+        <f t="shared" si="15"/>
+        <v>12996.5</v>
+      </c>
+      <c r="BA16" s="3">
         <f t="shared" si="3"/>
-        <v>102457.57999999999</v>
+        <v>115454.07999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
@@ -5537,8 +5600,11 @@
       <c r="AY17" s="3">
         <v>0</v>
       </c>
+      <c r="AZ17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7" t="s">
@@ -5681,8 +5747,11 @@
       <c r="AY18" s="3">
         <v>157089.85</v>
       </c>
+      <c r="AZ18" s="3">
+        <v>168361.58</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7" t="s">
@@ -5824,8 +5893,11 @@
       <c r="AY19" s="3">
         <v>28271.97</v>
       </c>
+      <c r="AZ19" s="3">
+        <v>28571.97</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7" t="s">
@@ -5967,8 +6039,11 @@
       <c r="AY20" s="3">
         <v>5296.2</v>
       </c>
+      <c r="AZ20" s="3">
+        <v>5343.8</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7" t="s">
@@ -6110,8 +6185,11 @@
       <c r="AY21" s="3">
         <v>0</v>
       </c>
+      <c r="AZ21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7" t="s">
@@ -6253,8 +6331,11 @@
       <c r="AY22" s="3">
         <v>374411.88</v>
       </c>
+      <c r="AZ22" s="3">
+        <v>371472.87</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7" t="s">
@@ -6405,7 +6486,7 @@
         <v>550438.91</v>
       </c>
       <c r="AQ23" s="8">
-        <f t="shared" ref="AQ23:AY23" si="19">SUM(AQ17:AQ22)</f>
+        <f t="shared" ref="AQ23:AZ23" si="19">SUM(AQ17:AQ22)</f>
         <v>514349.54</v>
       </c>
       <c r="AR23" s="8">
@@ -6440,8 +6521,12 @@
         <f t="shared" si="19"/>
         <v>565069.9</v>
       </c>
+      <c r="AZ23" s="8">
+        <f t="shared" si="19"/>
+        <v>573750.22</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>50</v>
@@ -6597,7 +6682,7 @@
         <v>156000</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" ref="AR24:AY24" si="23">AQ24+AR8-AR14</f>
+        <f t="shared" ref="AR24:AZ24" si="23">AQ24+AR8-AR14</f>
         <v>156000</v>
       </c>
       <c r="AS24" s="3">
@@ -6628,8 +6713,12 @@
         <f t="shared" si="23"/>
         <v>156000</v>
       </c>
+      <c r="AZ24" s="3">
+        <f t="shared" si="23"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
@@ -6780,7 +6869,7 @@
         <v>394438.91000000003</v>
       </c>
       <c r="AQ25" s="8">
-        <f t="shared" ref="AQ25:AY25" si="27">AQ23-AQ24</f>
+        <f t="shared" ref="AQ25:AZ25" si="27">AQ23-AQ24</f>
         <v>358349.54</v>
       </c>
       <c r="AR25" s="8">
@@ -6814,6 +6903,10 @@
       <c r="AY25" s="8">
         <f t="shared" si="27"/>
         <v>409069.9</v>
+      </c>
+      <c r="AZ25" s="8">
+        <f t="shared" si="27"/>
+        <v>417750.22</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920AA0AD-AF2D-48E5-BEAE-E53E0D81B8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BEB9FC-B325-44F6-994E-F0C2DE6AE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,9 +515,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AZ$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BA$1)</c:f>
               <c:strCache>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -655,16 +655,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2022/10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2022/11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$AZ$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BA$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -802,6 +805,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>573750.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>599570.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,9 +878,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$AZ$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BA$1)</c:f>
               <c:strCache>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -1012,16 +1018,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2022/10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2022/11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$AZ$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BA$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1159,6 +1168,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>417750.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>443570.66000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,13 +1431,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>53</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>211635</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>113160</xdr:rowOff>
@@ -1714,11 +1726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANI25"/>
+  <dimension ref="A1:ANJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AX23" sqref="AX23"/>
+      <selection pane="topRight" activeCell="AZ30" sqref="AZ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1733,13 +1745,13 @@
     <col min="29" max="29" width="12.75" style="3" customWidth="1"/>
     <col min="30" max="41" width="11.25" style="3" customWidth="1"/>
     <col min="42" max="42" width="12" style="3" customWidth="1"/>
-    <col min="43" max="52" width="10.5" style="3" customWidth="1"/>
-    <col min="53" max="53" width="12.25" style="3" customWidth="1"/>
-    <col min="54" max="93" width="10.5" style="3" customWidth="1"/>
-    <col min="94" max="1049" width="10.5" style="2" customWidth="1"/>
+    <col min="43" max="53" width="10.5" style="3" customWidth="1"/>
+    <col min="54" max="54" width="12.25" style="3" customWidth="1"/>
+    <col min="55" max="94" width="10.5" style="3" customWidth="1"/>
+    <col min="95" max="1050" width="10.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1049" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1050" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1892,10 +1904,12 @@
       <c r="AZ1" s="4">
         <v>44835</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="4">
+        <v>44866</v>
+      </c>
+      <c r="BB1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="BB1" s="10"/>
       <c r="BC1" s="10"/>
       <c r="BD1" s="10"/>
       <c r="BE1" s="10"/>
@@ -2891,8 +2905,9 @@
       <c r="ANG1" s="10"/>
       <c r="ANH1" s="10"/>
       <c r="ANI1" s="10"/>
+      <c r="ANJ1" s="10"/>
     </row>
-    <row r="2" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -3053,11 +3068,14 @@
         <v>16191</v>
       </c>
       <c r="BA2" s="3">
-        <f>SUM(AQ2:AZ2)</f>
-        <v>158139.45000000001</v>
+        <v>16191</v>
+      </c>
+      <c r="BB2" s="3">
+        <f>SUM(AQ2:BA2)</f>
+        <v>174330.45</v>
       </c>
     </row>
-    <row r="3" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
@@ -3214,11 +3232,14 @@
         <v>0</v>
       </c>
       <c r="BA3" s="3">
-        <f t="shared" ref="BA3:BA16" si="3">SUM(AQ3:AZ3)</f>
+        <v>0</v>
+      </c>
+      <c r="BB3" s="3">
+        <f t="shared" ref="BB3:BB16" si="3">SUM(AQ3:BA3)</f>
         <v>682.40000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
@@ -3376,11 +3397,14 @@
         <v>15.49</v>
       </c>
       <c r="BA4" s="3">
+        <v>50.43</v>
+      </c>
+      <c r="BB4" s="3">
         <f t="shared" si="3"/>
-        <v>6520.1799999999994</v>
+        <v>6570.61</v>
       </c>
     </row>
-    <row r="5" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="7" t="s">
@@ -3537,11 +3561,14 @@
         <v>0</v>
       </c>
       <c r="BA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
@@ -3698,11 +3725,14 @@
         <v>0</v>
       </c>
       <c r="BA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
@@ -3859,11 +3889,14 @@
         <v>0</v>
       </c>
       <c r="BA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
@@ -4020,11 +4053,14 @@
         <v>0</v>
       </c>
       <c r="BA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="7" t="s">
@@ -4187,7 +4223,7 @@
         <v>232567.45</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" ref="AQ9:AZ9" si="7">SUM(AQ2:AQ8)</f>
+        <f t="shared" ref="AQ9:BA9" si="7">SUM(AQ2:AQ8)</f>
         <v>18051.59</v>
       </c>
       <c r="AR9" s="3">
@@ -4227,11 +4263,15 @@
         <v>16206.49</v>
       </c>
       <c r="BA9" s="3">
+        <f t="shared" si="7"/>
+        <v>16241.43</v>
+      </c>
+      <c r="BB9" s="3">
         <f t="shared" si="3"/>
-        <v>165342.02999999997</v>
+        <v>181583.45999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>35</v>
@@ -4391,11 +4431,14 @@
         <v>3030.58</v>
       </c>
       <c r="BA10" s="3">
+        <v>9615.9699999999993</v>
+      </c>
+      <c r="BB10" s="3">
         <f t="shared" si="3"/>
-        <v>29195.96</v>
+        <v>38811.93</v>
       </c>
     </row>
-    <row r="11" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
@@ -4552,11 +4595,14 @@
         <v>0</v>
       </c>
       <c r="BA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7" t="s">
@@ -4714,11 +4760,14 @@
         <v>179.41</v>
       </c>
       <c r="BA12" s="3">
+        <v>2185.46</v>
+      </c>
+      <c r="BB12" s="3">
         <f t="shared" si="3"/>
-        <v>15691.99</v>
+        <v>17877.45</v>
       </c>
     </row>
-    <row r="13" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="7" t="s">
@@ -4875,11 +4924,14 @@
         <v>0</v>
       </c>
       <c r="BA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="3">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
@@ -5036,11 +5088,14 @@
         <v>0</v>
       </c>
       <c r="BA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="7" t="s">
@@ -5203,7 +5258,7 @@
         <v>186750.23999999996</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" ref="AQ15:AZ15" si="11">SUM(AQ10:AQ14)</f>
+        <f t="shared" ref="AQ15:BA15" si="11">SUM(AQ10:AQ14)</f>
         <v>7058.82</v>
       </c>
       <c r="AR15" s="3">
@@ -5243,11 +5298,15 @@
         <v>3209.99</v>
       </c>
       <c r="BA15" s="3">
+        <f t="shared" si="11"/>
+        <v>11801.43</v>
+      </c>
+      <c r="BB15" s="3">
         <f t="shared" si="3"/>
-        <v>49887.95</v>
+        <v>61689.38</v>
       </c>
     </row>
-    <row r="16" spans="1:1049" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1050" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>41</v>
@@ -5410,7 +5469,7 @@
         <v>45817.21</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" ref="AQ16:AZ16" si="15">AQ9-AQ15</f>
+        <f t="shared" ref="AQ16:BA16" si="15">AQ9-AQ15</f>
         <v>10992.77</v>
       </c>
       <c r="AR16" s="3">
@@ -5450,11 +5509,15 @@
         <v>12996.5</v>
       </c>
       <c r="BA16" s="3">
+        <f t="shared" si="15"/>
+        <v>4440</v>
+      </c>
+      <c r="BB16" s="3">
         <f t="shared" si="3"/>
-        <v>115454.07999999999</v>
+        <v>119894.07999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
@@ -5603,8 +5666,11 @@
       <c r="AZ17" s="3">
         <v>0</v>
       </c>
+      <c r="BA17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7" t="s">
@@ -5750,8 +5816,11 @@
       <c r="AZ18" s="3">
         <v>168361.58</v>
       </c>
+      <c r="BA18" s="3">
+        <v>173521.6</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7" t="s">
@@ -5896,8 +5965,11 @@
       <c r="AZ19" s="3">
         <v>28571.97</v>
       </c>
+      <c r="BA19" s="3">
+        <v>28871.97</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7" t="s">
@@ -6042,8 +6114,11 @@
       <c r="AZ20" s="3">
         <v>5343.8</v>
       </c>
+      <c r="BA20" s="3">
+        <v>5521.6</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7" t="s">
@@ -6188,8 +6263,11 @@
       <c r="AZ21" s="3">
         <v>0</v>
       </c>
+      <c r="BA21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7" t="s">
@@ -6334,8 +6412,11 @@
       <c r="AZ22" s="3">
         <v>371472.87</v>
       </c>
+      <c r="BA22" s="3">
+        <v>391655.49</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7" t="s">
@@ -6486,7 +6567,7 @@
         <v>550438.91</v>
       </c>
       <c r="AQ23" s="8">
-        <f t="shared" ref="AQ23:AZ23" si="19">SUM(AQ17:AQ22)</f>
+        <f t="shared" ref="AQ23:BA23" si="19">SUM(AQ17:AQ22)</f>
         <v>514349.54</v>
       </c>
       <c r="AR23" s="8">
@@ -6525,8 +6606,12 @@
         <f t="shared" si="19"/>
         <v>573750.22</v>
       </c>
+      <c r="BA23" s="8">
+        <f t="shared" si="19"/>
+        <v>599570.66</v>
+      </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>50</v>
@@ -6682,7 +6767,7 @@
         <v>156000</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" ref="AR24:AZ24" si="23">AQ24+AR8-AR14</f>
+        <f t="shared" ref="AR24:BA24" si="23">AQ24+AR8-AR14</f>
         <v>156000</v>
       </c>
       <c r="AS24" s="3">
@@ -6717,8 +6802,12 @@
         <f t="shared" si="23"/>
         <v>156000</v>
       </c>
+      <c r="BA24" s="3">
+        <f t="shared" si="23"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
@@ -6869,7 +6958,7 @@
         <v>394438.91000000003</v>
       </c>
       <c r="AQ25" s="8">
-        <f t="shared" ref="AQ25:AZ25" si="27">AQ23-AQ24</f>
+        <f t="shared" ref="AQ25:BA25" si="27">AQ23-AQ24</f>
         <v>358349.54</v>
       </c>
       <c r="AR25" s="8">
@@ -6907,6 +6996,10 @@
       <c r="AZ25" s="8">
         <f t="shared" si="27"/>
         <v>417750.22</v>
+      </c>
+      <c r="BA25" s="8">
+        <f t="shared" si="27"/>
+        <v>443570.66000000003</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BEB9FC-B325-44F6-994E-F0C2DE6AE97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F1C70-25CC-42D9-81E7-363E16843F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
@@ -515,9 +515,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BA$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1)</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -658,16 +658,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2022/11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2022/12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BA$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BB$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -808,6 +811,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>599570.66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>644905.44999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,9 +884,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BA$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1)</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -1021,16 +1027,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2022/11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2022/12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BA$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BB$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1171,6 +1180,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>443570.66000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>488905.44999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,13 +1443,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>211635</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>113160</xdr:rowOff>
@@ -1726,32 +1738,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANJ25"/>
+  <dimension ref="A1:ANK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ30" sqref="AZ30"/>
+      <pane xSplit="3" topLeftCell="AW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB26" sqref="BB26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
-    <col min="4" max="15" width="10.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="3" customWidth="1"/>
-    <col min="17" max="22" width="10.5" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.625" style="3" customWidth="1"/>
-    <col min="24" max="28" width="10.5" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.75" style="3" customWidth="1"/>
-    <col min="30" max="41" width="11.25" style="3" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
+    <col min="4" max="15" width="10.44140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" style="3" customWidth="1"/>
+    <col min="17" max="22" width="10.44140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="3" customWidth="1"/>
+    <col min="24" max="28" width="10.44140625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.77734375" style="3" customWidth="1"/>
+    <col min="30" max="41" width="11.21875" style="3" customWidth="1"/>
     <col min="42" max="42" width="12" style="3" customWidth="1"/>
-    <col min="43" max="53" width="10.5" style="3" customWidth="1"/>
-    <col min="54" max="54" width="12.25" style="3" customWidth="1"/>
-    <col min="55" max="94" width="10.5" style="3" customWidth="1"/>
-    <col min="95" max="1050" width="10.5" style="2" customWidth="1"/>
+    <col min="43" max="54" width="10.44140625" style="3" customWidth="1"/>
+    <col min="55" max="55" width="12.21875" style="3" customWidth="1"/>
+    <col min="56" max="95" width="10.44140625" style="3" customWidth="1"/>
+    <col min="96" max="1051" width="10.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1050" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1051" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1907,10 +1919,12 @@
       <c r="BA1" s="4">
         <v>44866</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="4">
+        <v>44896</v>
+      </c>
+      <c r="BC1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="BC1" s="10"/>
       <c r="BD1" s="10"/>
       <c r="BE1" s="10"/>
       <c r="BF1" s="10"/>
@@ -2906,8 +2920,9 @@
       <c r="ANH1" s="10"/>
       <c r="ANI1" s="10"/>
       <c r="ANJ1" s="10"/>
+      <c r="ANK1" s="10"/>
     </row>
-    <row r="2" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -3071,11 +3086,14 @@
         <v>16191</v>
       </c>
       <c r="BB2" s="3">
-        <f>SUM(AQ2:BA2)</f>
-        <v>174330.45</v>
+        <v>16191</v>
+      </c>
+      <c r="BC2" s="3">
+        <f>SUM(AQ2:BB2)</f>
+        <v>190521.45</v>
       </c>
     </row>
-    <row r="3" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
@@ -3235,11 +3253,14 @@
         <v>0</v>
       </c>
       <c r="BB3" s="3">
-        <f t="shared" ref="BB3:BB16" si="3">SUM(AQ3:BA3)</f>
+        <v>0</v>
+      </c>
+      <c r="BC3" s="3">
+        <f t="shared" ref="BC3:BC16" si="3">SUM(AQ3:BB3)</f>
         <v>682.40000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
@@ -3400,11 +3421,14 @@
         <v>50.43</v>
       </c>
       <c r="BB4" s="3">
+        <v>11681.01</v>
+      </c>
+      <c r="BC4" s="3">
         <f t="shared" si="3"/>
-        <v>6570.61</v>
+        <v>18251.62</v>
       </c>
     </row>
-    <row r="5" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="7" t="s">
@@ -3564,11 +3588,14 @@
         <v>0</v>
       </c>
       <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
@@ -3728,11 +3755,14 @@
         <v>0</v>
       </c>
       <c r="BB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
@@ -3892,11 +3922,14 @@
         <v>0</v>
       </c>
       <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
@@ -4056,11 +4089,14 @@
         <v>0</v>
       </c>
       <c r="BB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="7" t="s">
@@ -4223,7 +4259,7 @@
         <v>232567.45</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" ref="AQ9:BA9" si="7">SUM(AQ2:AQ8)</f>
+        <f t="shared" ref="AQ9:BB9" si="7">SUM(AQ2:AQ8)</f>
         <v>18051.59</v>
       </c>
       <c r="AR9" s="3">
@@ -4267,11 +4303,15 @@
         <v>16241.43</v>
       </c>
       <c r="BB9" s="3">
+        <f t="shared" si="7"/>
+        <v>27872.010000000002</v>
+      </c>
+      <c r="BC9" s="3">
         <f t="shared" si="3"/>
-        <v>181583.45999999996</v>
+        <v>209455.46999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>35</v>
@@ -4434,11 +4474,14 @@
         <v>9615.9699999999993</v>
       </c>
       <c r="BB10" s="3">
+        <v>1855.15</v>
+      </c>
+      <c r="BC10" s="3">
         <f t="shared" si="3"/>
-        <v>38811.93</v>
+        <v>40667.08</v>
       </c>
     </row>
-    <row r="11" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
@@ -4598,11 +4641,14 @@
         <v>0</v>
       </c>
       <c r="BB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7" t="s">
@@ -4763,11 +4809,14 @@
         <v>2185.46</v>
       </c>
       <c r="BB12" s="3">
+        <v>1750.47</v>
+      </c>
+      <c r="BC12" s="3">
         <f t="shared" si="3"/>
-        <v>17877.45</v>
+        <v>19627.920000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="7" t="s">
@@ -4927,11 +4976,14 @@
         <v>0</v>
       </c>
       <c r="BB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="3">
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
@@ -5091,11 +5143,14 @@
         <v>0</v>
       </c>
       <c r="BB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="7" t="s">
@@ -5258,7 +5313,7 @@
         <v>186750.23999999996</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" ref="AQ15:BA15" si="11">SUM(AQ10:AQ14)</f>
+        <f t="shared" ref="AQ15:BB15" si="11">SUM(AQ10:AQ14)</f>
         <v>7058.82</v>
       </c>
       <c r="AR15" s="3">
@@ -5302,11 +5357,15 @@
         <v>11801.43</v>
       </c>
       <c r="BB15" s="3">
+        <f t="shared" si="11"/>
+        <v>3605.62</v>
+      </c>
+      <c r="BC15" s="3">
         <f t="shared" si="3"/>
-        <v>61689.38</v>
+        <v>65295</v>
       </c>
     </row>
-    <row r="16" spans="1:1050" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1051" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>41</v>
@@ -5469,7 +5528,7 @@
         <v>45817.21</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" ref="AQ16:BA16" si="15">AQ9-AQ15</f>
+        <f t="shared" ref="AQ16:BB16" si="15">AQ9-AQ15</f>
         <v>10992.77</v>
       </c>
       <c r="AR16" s="3">
@@ -5513,11 +5572,15 @@
         <v>4440</v>
       </c>
       <c r="BB16" s="3">
+        <f t="shared" si="15"/>
+        <v>24266.390000000003</v>
+      </c>
+      <c r="BC16" s="3">
         <f t="shared" si="3"/>
-        <v>119894.07999999999</v>
+        <v>144160.47</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
@@ -5669,8 +5732,11 @@
       <c r="BA17" s="3">
         <v>0</v>
       </c>
+      <c r="BB17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7" t="s">
@@ -5819,8 +5885,11 @@
       <c r="BA18" s="3">
         <v>173521.6</v>
       </c>
+      <c r="BB18" s="3">
+        <v>196304.13</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7" t="s">
@@ -5968,8 +6037,11 @@
       <c r="BA19" s="3">
         <v>28871.97</v>
       </c>
+      <c r="BB19" s="3">
+        <v>29171.97</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7" t="s">
@@ -6117,8 +6189,11 @@
       <c r="BA20" s="3">
         <v>5521.6</v>
       </c>
+      <c r="BB20" s="3">
+        <v>5580.4</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7" t="s">
@@ -6266,8 +6341,11 @@
       <c r="BA21" s="3">
         <v>0</v>
       </c>
+      <c r="BB21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7" t="s">
@@ -6415,8 +6493,11 @@
       <c r="BA22" s="3">
         <v>391655.49</v>
       </c>
+      <c r="BB22" s="3">
+        <v>413848.95</v>
+      </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7" t="s">
@@ -6567,7 +6648,7 @@
         <v>550438.91</v>
       </c>
       <c r="AQ23" s="8">
-        <f t="shared" ref="AQ23:BA23" si="19">SUM(AQ17:AQ22)</f>
+        <f t="shared" ref="AQ23:BB23" si="19">SUM(AQ17:AQ22)</f>
         <v>514349.54</v>
       </c>
       <c r="AR23" s="8">
@@ -6610,8 +6691,12 @@
         <f t="shared" si="19"/>
         <v>599570.66</v>
       </c>
+      <c r="BB23" s="8">
+        <f t="shared" si="19"/>
+        <v>644905.44999999995</v>
+      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>50</v>
@@ -6767,7 +6852,7 @@
         <v>156000</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" ref="AR24:BA24" si="23">AQ24+AR8-AR14</f>
+        <f t="shared" ref="AR24:BB24" si="23">AQ24+AR8-AR14</f>
         <v>156000</v>
       </c>
       <c r="AS24" s="3">
@@ -6806,8 +6891,12 @@
         <f t="shared" si="23"/>
         <v>156000</v>
       </c>
+      <c r="BB24" s="3">
+        <f t="shared" si="23"/>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
@@ -6958,7 +7047,7 @@
         <v>394438.91000000003</v>
       </c>
       <c r="AQ25" s="8">
-        <f t="shared" ref="AQ25:BA25" si="27">AQ23-AQ24</f>
+        <f t="shared" ref="AQ25:BB25" si="27">AQ23-AQ24</f>
         <v>358349.54</v>
       </c>
       <c r="AR25" s="8">
@@ -7000,6 +7089,10 @@
       <c r="BA25" s="8">
         <f t="shared" si="27"/>
         <v>443570.66000000003</v>
+      </c>
+      <c r="BB25" s="8">
+        <f t="shared" si="27"/>
+        <v>488905.44999999995</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23F1C70-25CC-42D9-81E7-363E16843F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4DDB7E-5334-4B26-B6D2-B67B2524CB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>时间</t>
   </si>
@@ -191,6 +191,10 @@
   <si>
     <t>净资产</t>
   </si>
+  <si>
+    <t>2023年度总计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -221,6 +225,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -279,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -317,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,9 +529,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -661,16 +675,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>2022/12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2022/01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BB$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BB$23,个人现金流量及资产负债表!$BD$23:$BD$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -814,6 +831,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>644905.44999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>683016.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,9 +904,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -1030,16 +1050,19 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>2022/12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2022/01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BB$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BB$25,个人现金流量及资产负债表!$BD$25:$BD$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>39892.050000000003</c:v>
                 </c:pt>
@@ -1183,6 +1206,1057 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>488905.44999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>527016.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CBA-404E-84E6-333533F1143E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="52376106"/>
+        <c:axId val="74300066"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="52376106"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>时间</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74300066"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74300066"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>资金量</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52376106"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="-1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>资金总量</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>总资产</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>2019/01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019/05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019/06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019/07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019/08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019/09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019/10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019/11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019/12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020/01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020/02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020/03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020/04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020/05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020/06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020/07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020/08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020/09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020/10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020/11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020/12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021/10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021/11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021/12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022/01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022/02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022/03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022/04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022/05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022/06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022/07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2022/08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022/09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2022/10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2022/11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2022/12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2022/01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BB$23,个人现金流量及资产负债表!$BD$23:$BD$23)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>96624.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108954.76000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161964.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160256.38999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154938.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170416.47999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162087</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184649.52000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192824.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207882.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>205734.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267359.22000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>265255.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>283528.33999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>281150.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>317850.69999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>348620.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>404304.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>396963.57999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>389755.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>382849.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>399632.07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>402783.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>426465.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>477902.41000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>480280.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>511218.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>478512.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>497675.39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>469790.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>439295.72</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>438284.74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>461844.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>498589.38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>511524.07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>550438.91</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>514349.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>528443.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>501978.82999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>499789.06999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>525935.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>587826.56000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>570254.55000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>574698.93999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>565069.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>573750.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>599570.66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>644905.44999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>683016.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CBA-404E-84E6-333533F1143E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>净资产</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF420E"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>2019/01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019/05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019/06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019/07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019/08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2019/09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019/10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019/11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019/12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020/01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020/02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020/03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020/04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020/05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020/06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020/07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020/08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020/09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020/10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020/11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020/12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021/10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021/11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021/12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022/01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022/02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022/03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022/04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022/05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022/06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022/07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2022/08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022/09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2022/10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2022/11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2022/12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2022/01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BB$25,个人现金流量及资产负债表!$BD$25:$BD$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>39892.050000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55555.210000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61964.930000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60256.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54938.660000000018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70416.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62087.000000000015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84649.520000000033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92824.200000000026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107882.92000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105734.57000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>167359.22000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165255.29999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>183528.33999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>181150.97999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>217850.69999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>248620.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>304304.67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>226963.57999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>219755.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>212849.72999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>229632.07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>246783.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270465.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321902.41000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>324280.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>355218.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>322512.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>341675.39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>313790.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>283295.71999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>282284.74</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>305844.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>342589.38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>355524.07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>394438.91000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>358349.54</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>372443.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>345978.82999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>343789.06999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>369935.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>431826.56000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>414254.55000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>418698.93999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>409069.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>417750.22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>443570.66000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>488905.44999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>527016.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,14 +2517,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>211635</xdr:colOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>506910</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>113160</xdr:rowOff>
     </xdr:to>
@@ -1472,6 +2546,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>316410</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AA1154-3CB9-4886-AEC6-8AE38293E30B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1741,29 +2851,31 @@
   <dimension ref="A1:ANK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BB26" sqref="BB26"/>
+      <pane xSplit="3" topLeftCell="BD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BQ16" sqref="BQ16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" customWidth="1"/>
-    <col min="4" max="15" width="10.44140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.21875" style="3" customWidth="1"/>
-    <col min="17" max="22" width="10.44140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" style="3" customWidth="1"/>
-    <col min="24" max="28" width="10.44140625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.77734375" style="3" customWidth="1"/>
-    <col min="30" max="41" width="11.21875" style="3" customWidth="1"/>
+    <col min="1" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
+    <col min="4" max="15" width="10.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="3" customWidth="1"/>
+    <col min="17" max="22" width="10.5" style="3" customWidth="1"/>
+    <col min="23" max="23" width="11.625" style="3" customWidth="1"/>
+    <col min="24" max="28" width="10.5" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.75" style="3" customWidth="1"/>
+    <col min="30" max="41" width="11.25" style="3" customWidth="1"/>
     <col min="42" max="42" width="12" style="3" customWidth="1"/>
-    <col min="43" max="54" width="10.44140625" style="3" customWidth="1"/>
-    <col min="55" max="55" width="12.21875" style="3" customWidth="1"/>
-    <col min="56" max="95" width="10.44140625" style="3" customWidth="1"/>
-    <col min="96" max="1051" width="10.44140625" style="2" customWidth="1"/>
+    <col min="43" max="54" width="10.5" style="3" customWidth="1"/>
+    <col min="55" max="55" width="12.25" style="3" customWidth="1"/>
+    <col min="56" max="56" width="10.5" style="3" customWidth="1"/>
+    <col min="57" max="57" width="12.25" style="3" customWidth="1"/>
+    <col min="58" max="95" width="10.5" style="3" customWidth="1"/>
+    <col min="96" max="1051" width="10.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1051" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1051" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1925,8 +3037,12 @@
       <c r="BC1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
+      <c r="BD1" s="4">
+        <v>44562</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="BF1" s="10"/>
       <c r="BG1" s="10"/>
       <c r="BH1" s="10"/>
@@ -2922,7 +4038,7 @@
       <c r="ANJ1" s="10"/>
       <c r="ANK1" s="10"/>
     </row>
-    <row r="2" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -3092,8 +4208,15 @@
         <f>SUM(AQ2:BB2)</f>
         <v>190521.45</v>
       </c>
+      <c r="BD2" s="3">
+        <v>40341</v>
+      </c>
+      <c r="BE2" s="3">
+        <f>SUM(BD2)</f>
+        <v>40341</v>
+      </c>
     </row>
-    <row r="3" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
@@ -3256,11 +4379,18 @@
         <v>0</v>
       </c>
       <c r="BC3" s="3">
-        <f t="shared" ref="BC3:BC16" si="3">SUM(AQ3:BB3)</f>
+        <f t="shared" ref="BC3:BE16" si="3">SUM(AQ3:BB3)</f>
         <v>682.40000000000009</v>
       </c>
+      <c r="BD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="3">
+        <f t="shared" ref="BE3:BE16" si="4">SUM(BD3)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
@@ -3427,8 +4557,15 @@
         <f t="shared" si="3"/>
         <v>18251.62</v>
       </c>
+      <c r="BD4" s="3">
+        <v>180.54</v>
+      </c>
+      <c r="BE4" s="3">
+        <f t="shared" si="4"/>
+        <v>180.54</v>
+      </c>
     </row>
-    <row r="5" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="7" t="s">
@@ -3594,8 +4731,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
@@ -3761,8 +4905,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
@@ -3928,8 +5079,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
@@ -4095,59 +5253,66 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" ref="D9:O9" si="4">SUM(D2:D8)</f>
+        <f t="shared" ref="D9:O9" si="5">SUM(D2:D8)</f>
         <v>7753.33</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7414.05</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57400</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7478.26</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7954</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11010.48</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8047.85</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19936.440000000002</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10479.08</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8920.8499999999985</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8011.24</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47548.37</v>
       </c>
       <c r="P9" s="6">
@@ -4155,51 +5320,51 @@
         <v>201953.94999999998</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" ref="Q9:AB9" si="5">SUM(Q2:Q8)</f>
+        <f t="shared" ref="Q9:AB9" si="6">SUM(Q2:Q8)</f>
         <v>12997.3</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12359.99</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23586.86</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17606.239999999998</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14657.95</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17282.95</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84379.77</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17728.66</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>979.93000000000006</v>
       </c>
       <c r="Z9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7221.2599999999993</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8003.11</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14148.38</v>
       </c>
       <c r="AC9" s="3">
@@ -4207,51 +5372,51 @@
         <v>230952.4</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" ref="AD9:AO9" si="6">SUM(AD2:AD8)</f>
+        <f t="shared" ref="AD9:AO9" si="7">SUM(AD2:AD8)</f>
         <v>13881.62</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11719.26</v>
       </c>
       <c r="AF9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44012.229999999996</v>
       </c>
       <c r="AG9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40484.04</v>
       </c>
       <c r="AH9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15184.88</v>
       </c>
       <c r="AI9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13082.37</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20539.099999999999</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13241.560000000001</v>
       </c>
       <c r="AL9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15663.35</v>
       </c>
       <c r="AM9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18121.71</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13343.89</v>
       </c>
       <c r="AO9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13293.44</v>
       </c>
       <c r="AP9" s="3">
@@ -4259,59 +5424,67 @@
         <v>232567.45</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" ref="AQ9:BB9" si="7">SUM(AQ2:AQ8)</f>
+        <f t="shared" ref="AQ9:BB9" si="8">SUM(AQ2:AQ8)</f>
         <v>18051.59</v>
       </c>
       <c r="AR9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14509.880000000001</v>
       </c>
       <c r="AS9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16357.46</v>
       </c>
       <c r="AT9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14604.67</v>
       </c>
       <c r="AU9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16719.419999999998</v>
       </c>
       <c r="AV9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17017.46</v>
       </c>
       <c r="AW9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18376.14</v>
       </c>
       <c r="AX9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16238.56</v>
       </c>
       <c r="AY9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17260.36</v>
       </c>
       <c r="AZ9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16206.49</v>
       </c>
       <c r="BA9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16241.43</v>
       </c>
       <c r="BB9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27872.010000000002</v>
       </c>
       <c r="BC9" s="3">
         <f t="shared" si="3"/>
         <v>209455.46999999997</v>
       </c>
+      <c r="BD9" s="3">
+        <f>SUM(BD2:BD8)</f>
+        <v>40521.54</v>
+      </c>
+      <c r="BE9" s="3">
+        <f t="shared" si="4"/>
+        <v>40521.54</v>
+      </c>
     </row>
-    <row r="10" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12" t="s">
         <v>35</v>
@@ -4480,8 +5653,15 @@
         <f t="shared" si="3"/>
         <v>40667.08</v>
       </c>
+      <c r="BD10" s="3">
+        <v>1051.08</v>
+      </c>
+      <c r="BE10" s="3">
+        <f t="shared" si="4"/>
+        <v>1051.08</v>
+      </c>
     </row>
-    <row r="11" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
@@ -4647,8 +5827,15 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7" t="s">
@@ -4815,8 +6002,15 @@
         <f t="shared" si="3"/>
         <v>19627.920000000002</v>
       </c>
+      <c r="BD12" s="3">
+        <v>6485.84</v>
+      </c>
+      <c r="BE12" s="3">
+        <f t="shared" si="4"/>
+        <v>6485.84</v>
+      </c>
     </row>
-    <row r="13" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="7" t="s">
@@ -4982,8 +6176,15 @@
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
+      <c r="BD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
@@ -5149,59 +6350,66 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="BD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:O15" si="8">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:O15" si="9">SUM(D10:D14)</f>
         <v>6898.55</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9852.73</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5683.6100000000006</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2749.75</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7109.6299999999992</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3311.37</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1719.86</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6409.11</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1175.8800000000001</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3999.41</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5405.16</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2067.63</v>
       </c>
       <c r="P15" s="6">
@@ -5209,51 +6417,51 @@
         <v>56382.689999999995</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" ref="Q15:AB15" si="9">SUM(Q10:Q14)</f>
+        <f t="shared" ref="Q15:AB15" si="10">SUM(Q10:Q14)</f>
         <v>4966.9399999999996</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8332.77</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7944.55</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6303.7</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9044.41</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9751.9</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>118647.18</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6974.28</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6496.88</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2520.0499999999997</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16734.650000000001</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3844.76</v>
       </c>
       <c r="AC15" s="3">
@@ -5261,51 +6469,51 @@
         <v>201562.06999999998</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" ref="AD15:AO15" si="10">SUM(AD10:AD14)</f>
+        <f t="shared" ref="AD15:AO15" si="11">SUM(AD10:AD14)</f>
         <v>2287.0299999999997</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5724.25</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5696.95</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96621.119999999995</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>13491.3</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11334.83</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>19276.87</v>
       </c>
       <c r="AK15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7110.69</v>
       </c>
       <c r="AL15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2893.7400000000002</v>
       </c>
       <c r="AM15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11663.15</v>
       </c>
       <c r="AN15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3420.51</v>
       </c>
       <c r="AO15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7229.8</v>
       </c>
       <c r="AP15" s="3">
@@ -5313,110 +6521,118 @@
         <v>186750.23999999996</v>
       </c>
       <c r="AQ15" s="3">
-        <f t="shared" ref="AQ15:BB15" si="11">SUM(AQ10:AQ14)</f>
+        <f t="shared" ref="AQ15:BB15" si="12">SUM(AQ10:AQ14)</f>
         <v>7058.82</v>
       </c>
       <c r="AR15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1275.01</v>
       </c>
       <c r="AS15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1023.03</v>
       </c>
       <c r="AT15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4350.21</v>
       </c>
       <c r="AU15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4199.33</v>
       </c>
       <c r="AV15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6524.4900000000007</v>
       </c>
       <c r="AW15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3874.98</v>
       </c>
       <c r="AX15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2266.6</v>
       </c>
       <c r="AY15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16105.49</v>
       </c>
       <c r="AZ15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3209.99</v>
       </c>
       <c r="BA15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11801.43</v>
       </c>
       <c r="BB15" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3605.62</v>
       </c>
       <c r="BC15" s="3">
         <f t="shared" si="3"/>
         <v>65295</v>
       </c>
+      <c r="BD15" s="3">
+        <f>SUM(BD10:BD14)</f>
+        <v>7536.92</v>
+      </c>
+      <c r="BE15" s="3">
+        <f t="shared" si="4"/>
+        <v>7536.92</v>
+      </c>
     </row>
-    <row r="16" spans="1:1051" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1051" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:O16" si="12">D9-D15</f>
+        <f t="shared" ref="D16:O16" si="13">D9-D15</f>
         <v>854.77999999999975</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2438.6799999999994</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51716.39</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4728.51</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>844.3700000000008</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7699.11</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6327.9900000000007</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13527.330000000002</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9303.2000000000007</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4921.4399999999987</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2606.08</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45480.740000000005</v>
       </c>
       <c r="P16" s="6">
@@ -5424,51 +6640,51 @@
         <v>145571.26</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" ref="Q16:AB16" si="13">Q9-Q15</f>
+        <f t="shared" ref="Q16:AB16" si="14">Q9-Q15</f>
         <v>8030.36</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4027.2199999999993</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15642.310000000001</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11302.539999999997</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5613.5400000000009</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7531.0500000000011</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-34267.409999999989</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10754.380000000001</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5516.95</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4701.2099999999991</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8731.5400000000009</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10303.619999999999</v>
       </c>
       <c r="AC16" s="3">
@@ -5476,51 +6692,51 @@
         <v>29390.330000000005</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" ref="AD16:AO16" si="14">AD9-AD15</f>
+        <f t="shared" ref="AD16:AO16" si="15">AD9-AD15</f>
         <v>11594.59</v>
       </c>
       <c r="AE16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5995.01</v>
       </c>
       <c r="AF16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>38315.279999999999</v>
       </c>
       <c r="AG16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-56137.079999999994</v>
       </c>
       <c r="AH16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1693.58</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1747.5400000000009</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1262.2299999999996</v>
       </c>
       <c r="AK16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6130.8700000000017</v>
       </c>
       <c r="AL16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12769.61</v>
       </c>
       <c r="AM16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6458.5599999999995</v>
       </c>
       <c r="AN16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9923.3799999999992</v>
       </c>
       <c r="AO16" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6063.64</v>
       </c>
       <c r="AP16" s="3">
@@ -5528,59 +6744,67 @@
         <v>45817.21</v>
       </c>
       <c r="AQ16" s="3">
-        <f t="shared" ref="AQ16:BB16" si="15">AQ9-AQ15</f>
+        <f t="shared" ref="AQ16:BB16" si="16">AQ9-AQ15</f>
         <v>10992.77</v>
       </c>
       <c r="AR16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13234.87</v>
       </c>
       <c r="AS16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15334.429999999998</v>
       </c>
       <c r="AT16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10254.459999999999</v>
       </c>
       <c r="AU16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12520.089999999998</v>
       </c>
       <c r="AV16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10492.969999999998</v>
       </c>
       <c r="AW16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14501.16</v>
       </c>
       <c r="AX16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13971.96</v>
       </c>
       <c r="AY16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1154.8700000000008</v>
       </c>
       <c r="AZ16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12996.5</v>
       </c>
       <c r="BA16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4440</v>
       </c>
       <c r="BB16" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24266.390000000003</v>
       </c>
       <c r="BC16" s="3">
         <f t="shared" si="3"/>
         <v>144160.47</v>
       </c>
+      <c r="BD16" s="3">
+        <f>BD9-BD15</f>
+        <v>32984.620000000003</v>
+      </c>
+      <c r="BE16" s="3">
+        <f t="shared" si="4"/>
+        <v>32984.620000000003</v>
+      </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>42</v>
       </c>
@@ -5735,8 +6959,11 @@
       <c r="BB17" s="3">
         <v>0</v>
       </c>
+      <c r="BD17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7" t="s">
@@ -5888,8 +7115,11 @@
       <c r="BB18" s="3">
         <v>196304.13</v>
       </c>
+      <c r="BD18" s="3">
+        <v>218347.78</v>
+      </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7" t="s">
@@ -6040,8 +7270,11 @@
       <c r="BB19" s="3">
         <v>29171.97</v>
       </c>
+      <c r="BD19" s="3">
+        <v>29471.97</v>
+      </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="7" t="s">
@@ -6192,8 +7425,11 @@
       <c r="BB20" s="3">
         <v>5580.4</v>
       </c>
+      <c r="BD20" s="3">
+        <v>5696.6</v>
+      </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="7" t="s">
@@ -6344,8 +7580,11 @@
       <c r="BB21" s="3">
         <v>0</v>
       </c>
+      <c r="BD21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="7" t="s">
@@ -6496,207 +7735,214 @@
       <c r="BB22" s="3">
         <v>413848.95</v>
       </c>
+      <c r="BD22" s="3">
+        <v>429500.26</v>
+      </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" ref="D23:O23" si="16">SUM(D17:D22)</f>
+        <f t="shared" ref="D23:O23" si="17">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>108954.76000000001</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>161964.93</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>160256.38999999998</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>154938.66</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>170416.47999999998</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>162087</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>184649.52000000002</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>192824.2</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>207882.92</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>205734.57</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>267359.22000000003</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" ref="Q23:AB23" si="17">SUM(Q17:Q22)</f>
+        <f t="shared" ref="Q23:AB23" si="18">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>283528.33999999997</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>281150.98</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>317850.69999999995</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>348620.79999999999</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>404304.67</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>396963.57999999996</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>389755.95</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>382849.73</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>399632.07</v>
       </c>
       <c r="AA23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>402783.88</v>
       </c>
       <c r="AB23" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>426465.5</v>
       </c>
       <c r="AD23" s="8">
-        <f t="shared" ref="AD23:AO23" si="18">SUM(AD17:AD22)</f>
+        <f t="shared" ref="AD23:AO23" si="19">SUM(AD17:AD22)</f>
         <v>477902.41000000003</v>
       </c>
       <c r="AE23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>480280.69</v>
       </c>
       <c r="AF23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>511218.75</v>
       </c>
       <c r="AG23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>478512.67</v>
       </c>
       <c r="AH23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>497675.39</v>
       </c>
       <c r="AI23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>469790.32</v>
       </c>
       <c r="AJ23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>439295.72</v>
       </c>
       <c r="AK23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>438284.74</v>
       </c>
       <c r="AL23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>461844.95</v>
       </c>
       <c r="AM23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>498589.38</v>
       </c>
       <c r="AN23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>511524.07</v>
       </c>
       <c r="AO23" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>550438.91</v>
       </c>
       <c r="AQ23" s="8">
-        <f t="shared" ref="AQ23:BB23" si="19">SUM(AQ17:AQ22)</f>
+        <f t="shared" ref="AQ23:BD23" si="20">SUM(AQ17:AQ22)</f>
         <v>514349.54</v>
       </c>
       <c r="AR23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>528443.4</v>
       </c>
       <c r="AS23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>501978.82999999996</v>
       </c>
       <c r="AT23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>499789.06999999995</v>
       </c>
       <c r="AU23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>525935.25</v>
       </c>
       <c r="AV23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>587826.56000000006</v>
       </c>
       <c r="AW23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>570254.55000000005</v>
       </c>
       <c r="AX23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>574698.93999999994</v>
       </c>
       <c r="AY23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>565069.9</v>
       </c>
       <c r="AZ23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>573750.22</v>
       </c>
       <c r="BA23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>599570.66</v>
       </c>
       <c r="BB23" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>644905.44999999995</v>
       </c>
+      <c r="BD23" s="8">
+        <f t="shared" si="20"/>
+        <v>683016.61</v>
+      </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="7" t="s">
         <v>50</v>
@@ -6724,31 +7970,31 @@
         <v>99999.999999999985</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" ref="I24:O24" si="20">G24+I8-I14</f>
+        <f t="shared" ref="I24:O24" si="21">G24+I8-I14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>99999.999999999985</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>99999.999999999985</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>99999.999999999985</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>99999.999999999985</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>99999.999999999985</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>99999.999999999985</v>
       </c>
       <c r="Q24" s="3">
@@ -6756,47 +8002,47 @@
         <v>99999.999999999985</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" ref="R24:AB24" si="21">Q24+R8-R14</f>
+        <f t="shared" ref="R24:AB24" si="22">Q24+R8-R14</f>
         <v>99999.999999999985</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>99999.999999999985</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>99999.999999999985</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>99999.999999999985</v>
       </c>
       <c r="V24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>99999.999999999985</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170000</v>
       </c>
       <c r="X24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170000</v>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170000</v>
       </c>
       <c r="Z24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>170000</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>156000</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>156000</v>
       </c>
       <c r="AD24" s="3">
@@ -6804,47 +8050,47 @@
         <v>156000</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" ref="AE24:AO24" si="22">AD24+AE8-AE14</f>
+        <f t="shared" ref="AE24:AO24" si="23">AD24+AE8-AE14</f>
         <v>156000</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AG24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AH24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AI24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AJ24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AL24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AM24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AN24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AO24" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>156000</v>
       </c>
       <c r="AQ24" s="3">
@@ -6852,247 +8098,255 @@
         <v>156000</v>
       </c>
       <c r="AR24" s="3">
-        <f t="shared" ref="AR24:BB24" si="23">AQ24+AR8-AR14</f>
+        <f t="shared" ref="AR24:BD24" si="24">AQ24+AR8-AR14</f>
         <v>156000</v>
       </c>
       <c r="AS24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
       <c r="AT24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
       <c r="AU24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
       <c r="AW24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
       <c r="AX24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
       <c r="AY24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
       <c r="AZ24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
       <c r="BA24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
       <c r="BB24" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>156000</v>
       </c>
+      <c r="BD24" s="3">
+        <f>BB24+BD8-BD14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="8">
-        <f t="shared" ref="D25:O25" si="24">D23-D24</f>
+        <f t="shared" ref="D25:O25" si="25">D23-D24</f>
         <v>39892.050000000003</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>55555.210000000014</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>61964.930000000008</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>60256.39</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>54938.660000000018</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>70416.479999999996</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>62087.000000000015</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>84649.520000000033</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>92824.200000000026</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>107882.92000000003</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>105734.57000000002</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>167359.22000000003</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" ref="Q25:AB25" si="25">Q23-Q24</f>
+        <f t="shared" ref="Q25:AB25" si="26">Q23-Q24</f>
         <v>165255.29999999999</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>183528.33999999997</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>181150.97999999998</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>217850.69999999995</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>248620.79999999999</v>
       </c>
       <c r="V25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>304304.67</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>226963.57999999996</v>
       </c>
       <c r="X25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>219755.95</v>
       </c>
       <c r="Y25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>212849.72999999998</v>
       </c>
       <c r="Z25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>229632.07</v>
       </c>
       <c r="AA25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>246783.88</v>
       </c>
       <c r="AB25" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>270465.5</v>
       </c>
       <c r="AD25" s="8">
-        <f t="shared" ref="AD25:AO25" si="26">AD23-AD24</f>
+        <f t="shared" ref="AD25:AO25" si="27">AD23-AD24</f>
         <v>321902.41000000003</v>
       </c>
       <c r="AE25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>324280.69</v>
       </c>
       <c r="AF25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>355218.75</v>
       </c>
       <c r="AG25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>322512.67</v>
       </c>
       <c r="AH25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>341675.39</v>
       </c>
       <c r="AI25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>313790.32</v>
       </c>
       <c r="AJ25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>283295.71999999997</v>
       </c>
       <c r="AK25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>282284.74</v>
       </c>
       <c r="AL25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>305844.95</v>
       </c>
       <c r="AM25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>342589.38</v>
       </c>
       <c r="AN25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>355524.07</v>
       </c>
       <c r="AO25" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>394438.91000000003</v>
       </c>
       <c r="AQ25" s="8">
-        <f t="shared" ref="AQ25:BB25" si="27">AQ23-AQ24</f>
+        <f t="shared" ref="AQ25:BD25" si="28">AQ23-AQ24</f>
         <v>358349.54</v>
       </c>
       <c r="AR25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>372443.4</v>
       </c>
       <c r="AS25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>345978.82999999996</v>
       </c>
       <c r="AT25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>343789.06999999995</v>
       </c>
       <c r="AU25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>369935.25</v>
       </c>
       <c r="AV25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>431826.56000000006</v>
       </c>
       <c r="AW25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>414254.55000000005</v>
       </c>
       <c r="AX25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>418698.93999999994</v>
       </c>
       <c r="AY25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>409069.9</v>
       </c>
       <c r="AZ25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>417750.22</v>
       </c>
       <c r="BA25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>443570.66000000003</v>
       </c>
       <c r="BB25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>488905.44999999995</v>
+      </c>
+      <c r="BD25" s="8">
+        <f t="shared" si="28"/>
+        <v>527016.61</v>
       </c>
     </row>
   </sheetData>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4DDB7E-5334-4B26-B6D2-B67B2524CB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="285" windowWidth="29040" windowHeight="15615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23370" windowHeight="11880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -106,6 +89,9 @@
   </si>
   <si>
     <t>2022年度总计</t>
+  </si>
+  <si>
+    <t>2023年度总计</t>
   </si>
   <si>
     <t>现金流量</t>
@@ -191,19 +177,19 @@
   <si>
     <t>净资产</t>
   </si>
-  <si>
-    <t>2023年度总计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,20 +209,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +373,194 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -286,11 +596,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -300,13 +852,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,23 +881,58 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -410,15 +1006,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -453,9 +1046,13 @@
               </a:rPr>
               <a:t>资金总量</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -474,7 +1071,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>总资产</c:v>
+            <c:strRef>
+              <c:f>"总资产"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总资产</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -510,7 +1115,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -523,7 +1127,9 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
+                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -532,152 +1138,152 @@
               <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/mm">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/mm">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/mm">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/mm">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/mm">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/mm">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/mm">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/mm">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/mm">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/mm">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/mm">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/mm">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/mm">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/mm">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/mm">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/mm">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/mm">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/mm">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/mm">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/mm">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/mm">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/mm">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/mm">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/mm">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021/01</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021/02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2021/03</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021/04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2021/05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2021/06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2021/07</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021/08</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2021/09</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2021/10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2021/11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2021/12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2022/01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2022/02</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2022/03</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2022/04</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2022/05</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2022/06</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2022/07</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2022/08</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2022/09</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2022/10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2022/11</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2022/12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2022/01</c:v>
+                <c:pt idx="24" c:formatCode="yyyy/mm">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/mm">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/mm">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/mm">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/mm">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/mm">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/mm">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/mm">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/mm">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/mm">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/mm">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/mm">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/mm">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/mm">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/mm">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/mm">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/mm">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/mm">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/mm">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/mm">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/mm">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy/mm">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy/mm">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy/mm">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy/mm">
+                  <c:v>44927</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -692,25 +1298,25 @@
                   <c:v>96624.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108954.76000000001</c:v>
+                  <c:v>108954.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>161964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160256.38999999998</c:v>
+                  <c:v>160256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>154938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170416.47999999998</c:v>
+                  <c:v>170416.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>162087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184649.52000000002</c:v>
+                  <c:v>184649.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>192824.2</c:v>
@@ -722,28 +1328,28 @@
                   <c:v>205734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267359.22000000003</c:v>
+                  <c:v>267359.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>265255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283528.33999999997</c:v>
+                  <c:v>283528.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>281150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>317850.69999999995</c:v>
+                  <c:v>317850.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348620.79999999999</c:v>
+                  <c:v>348620.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>404304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>396963.57999999996</c:v>
+                  <c:v>396963.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>389755.95</c:v>
@@ -761,7 +1367,7 @@
                   <c:v>426465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>477902.41000000003</c:v>
+                  <c:v>477902.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>480280.69</c:v>
@@ -803,22 +1409,22 @@
                   <c:v>528443.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>501978.82999999996</c:v>
+                  <c:v>501978.83</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>499789.06999999995</c:v>
+                  <c:v>499789.07</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>525935.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>587826.56000000006</c:v>
+                  <c:v>587826.56</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>570254.55000000005</c:v>
+                  <c:v>570254.55</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>574698.93999999994</c:v>
+                  <c:v>574698.94</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>565069.9</c:v>
@@ -830,7 +1436,7 @@
                   <c:v>599570.66</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>644905.44999999995</c:v>
+                  <c:v>644905.45</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>683016.61</c:v>
@@ -839,17 +1445,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9CBA-404E-84E6-333533F1143E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>净资产</c:v>
+            <c:strRef>
+              <c:f>"净资产"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净资产</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -885,7 +1494,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -898,7 +1506,9 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
+                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -907,152 +1517,152 @@
               <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
-                <c:pt idx="0">
+                <c:pt idx="0" c:formatCode="yyyy/mm">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/mm">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/mm">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/mm">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/mm">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/mm">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/mm">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/mm">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/mm">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/mm">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/mm">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/mm">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/mm">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/mm">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/mm">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/mm">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/mm">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/mm">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/mm">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/mm">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/mm">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/mm">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/mm">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/mm">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021/01</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021/02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2021/03</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021/04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2021/05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2021/06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2021/07</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021/08</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2021/09</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2021/10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2021/11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2021/12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2022/01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2022/02</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2022/03</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2022/04</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2022/05</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2022/06</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2022/07</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2022/08</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2022/09</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2022/10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2022/11</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2022/12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2022/01</c:v>
+                <c:pt idx="24" c:formatCode="yyyy/mm">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/mm">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/mm">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/mm">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/mm">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/mm">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/mm">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/mm">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/mm">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/mm">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/mm">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/mm">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/mm">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/mm">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/mm">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/mm">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/mm">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/mm">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/mm">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/mm">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/mm">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy/mm">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy/mm">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy/mm">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy/mm">
+                  <c:v>44927</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1064,67 +1674,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>39892.050000000003</c:v>
+                  <c:v>39892.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55555.210000000014</c:v>
+                  <c:v>55555.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61964.930000000008</c:v>
+                  <c:v>61964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54938.660000000018</c:v>
+                  <c:v>54938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70416.479999999996</c:v>
+                  <c:v>70416.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62087.000000000015</c:v>
+                  <c:v>62087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84649.520000000033</c:v>
+                  <c:v>84649.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92824.200000000026</c:v>
+                  <c:v>92824.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107882.92000000003</c:v>
+                  <c:v>107882.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105734.57000000002</c:v>
+                  <c:v>105734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167359.22000000003</c:v>
+                  <c:v>167359.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165255.29999999999</c:v>
+                  <c:v>165255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>183528.33999999997</c:v>
+                  <c:v>183528.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181150.97999999998</c:v>
+                  <c:v>181150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>217850.69999999995</c:v>
+                  <c:v>217850.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248620.79999999999</c:v>
+                  <c:v>248620.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>304304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226963.57999999996</c:v>
+                  <c:v>226963.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>219755.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212849.72999999998</c:v>
+                  <c:v>212849.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>229632.07</c:v>
@@ -1136,7 +1746,7 @@
                   <c:v>270465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>321902.41000000003</c:v>
+                  <c:v>321902.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>324280.69</c:v>
@@ -1154,7 +1764,7 @@
                   <c:v>313790.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>283295.71999999997</c:v>
+                  <c:v>283295.72</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>282284.74</c:v>
@@ -1169,7 +1779,7 @@
                   <c:v>355524.07</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>394438.91000000003</c:v>
+                  <c:v>394438.91</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>358349.54</c:v>
@@ -1178,22 +1788,22 @@
                   <c:v>372443.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>345978.82999999996</c:v>
+                  <c:v>345978.83</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>343789.06999999995</c:v>
+                  <c:v>343789.07</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>369935.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>431826.56000000006</c:v>
+                  <c:v>431826.56</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>414254.55000000005</c:v>
+                  <c:v>414254.55</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>418698.93999999994</c:v>
+                  <c:v>418698.94</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>409069.9</c:v>
@@ -1202,10 +1812,10 @@
                   <c:v>417750.22</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>443570.66000000003</c:v>
+                  <c:v>443570.66</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>488905.44999999995</c:v>
+                  <c:v>488905.45</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>527016.61</c:v>
@@ -1214,11 +1824,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9CBA-404E-84E6-333533F1143E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1237,6 +1842,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="52376106"/>
         <c:axId val="74300066"/>
@@ -1270,9 +1876,13 @@
                   </a:rPr>
                   <a:t>时间</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:latin typeface="Arial"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1308,7 +1918,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74300066"/>
@@ -1358,9 +1967,13 @@
                   </a:rPr>
                   <a:t>资金量</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:latin typeface="Arial"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1396,7 +2009,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="52376106"/>
@@ -1414,6 +2026,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1429,7 +2042,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1454,7 +2066,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1466,7 +2077,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1501,9 +2112,13 @@
               </a:rPr>
               <a:t>资金总量</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Arial"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1522,7 +2137,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>总资产</c:v>
+            <c:strRef>
+              <c:f>"总资产"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总资产</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1558,7 +2181,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1571,194 +2193,199 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
+                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BE$1)</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
+                <c:ptCount val="50"/>
+                <c:pt idx="0" c:formatCode="yyyy/mm">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/mm">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/mm">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/mm">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/mm">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/mm">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/mm">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/mm">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/mm">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/mm">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/mm">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/mm">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/mm">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/mm">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/mm">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/mm">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/mm">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/mm">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/mm">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/mm">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/mm">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/mm">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/mm">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/mm">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021/01</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021/02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2021/03</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021/04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2021/05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2021/06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2021/07</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021/08</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2021/09</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2021/10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2021/11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2021/12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2022/01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2022/02</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2022/03</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2022/04</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2022/05</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2022/06</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2022/07</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2022/08</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2022/09</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2022/10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2022/11</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2022/12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2022/01</c:v>
+                <c:pt idx="24" c:formatCode="yyyy/mm">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/mm">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/mm">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/mm">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/mm">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/mm">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/mm">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/mm">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/mm">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/mm">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/mm">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/mm">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/mm">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/mm">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/mm">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/mm">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/mm">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/mm">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/mm">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/mm">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/mm">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy/mm">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy/mm">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy/mm">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy/mm">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="yyyy/mm">
+                  <c:v>44958</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BB$23,个人现金流量及资产负债表!$BD$23:$BD$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BB$23,个人现金流量及资产负债表!$BD$23:$BE$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108954.76000000001</c:v>
+                  <c:v>108954.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>161964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160256.38999999998</c:v>
+                  <c:v>160256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>154938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170416.47999999998</c:v>
+                  <c:v>170416.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>162087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184649.52000000002</c:v>
+                  <c:v>184649.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>192824.2</c:v>
@@ -1770,28 +2397,28 @@
                   <c:v>205734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267359.22000000003</c:v>
+                  <c:v>267359.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>265255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283528.33999999997</c:v>
+                  <c:v>283528.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>281150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>317850.69999999995</c:v>
+                  <c:v>317850.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348620.79999999999</c:v>
+                  <c:v>348620.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>404304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>396963.57999999996</c:v>
+                  <c:v>396963.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>389755.95</c:v>
@@ -1809,7 +2436,7 @@
                   <c:v>426465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>477902.41000000003</c:v>
+                  <c:v>477902.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>480280.69</c:v>
@@ -1851,22 +2478,22 @@
                   <c:v>528443.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>501978.82999999996</c:v>
+                  <c:v>501978.83</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>499789.06999999995</c:v>
+                  <c:v>499789.07</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>525935.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>587826.56000000006</c:v>
+                  <c:v>587826.56</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>570254.55000000005</c:v>
+                  <c:v>570254.55</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>574698.93999999994</c:v>
+                  <c:v>574698.94</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>565069.9</c:v>
@@ -1878,26 +2505,32 @@
                   <c:v>599570.66</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>644905.44999999995</c:v>
+                  <c:v>644905.45</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>683016.61</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>713686.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9CBA-404E-84E6-333533F1143E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>净资产</c:v>
+            <c:strRef>
+              <c:f>"净资产"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净资产</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1933,7 +2566,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1946,233 +2578,238 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
+                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BE$1)</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
+                <c:ptCount val="50"/>
+                <c:pt idx="0" c:formatCode="yyyy/mm">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="1" c:formatCode="yyyy/mm">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" c:formatCode="yyyy/mm">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" c:formatCode="yyyy/mm">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" c:formatCode="yyyy/mm">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="5" c:formatCode="yyyy/mm">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="6" c:formatCode="yyyy/mm">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" c:formatCode="yyyy/mm">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" c:formatCode="yyyy/mm">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" c:formatCode="yyyy/mm">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" c:formatCode="yyyy/mm">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="11" c:formatCode="yyyy/mm">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" c:formatCode="yyyy/mm">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" c:formatCode="yyyy/mm">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" c:formatCode="yyyy/mm">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="15" c:formatCode="yyyy/mm">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" c:formatCode="yyyy/mm">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="17" c:formatCode="yyyy/mm">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" c:formatCode="yyyy/mm">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="19" c:formatCode="yyyy/mm">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="20" c:formatCode="yyyy/mm">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="21" c:formatCode="yyyy/mm">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="22" c:formatCode="yyyy/mm">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="23" c:formatCode="yyyy/mm">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>2021/01</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2021/02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2021/03</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2021/04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2021/05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2021/06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2021/07</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021/08</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2021/09</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2021/10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2021/11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2021/12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2022/01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2022/02</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2022/03</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2022/04</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2022/05</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2022/06</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2022/07</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2022/08</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2022/09</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2022/10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2022/11</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2022/12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2022/01</c:v>
+                <c:pt idx="24" c:formatCode="yyyy/mm">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/mm">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/mm">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="yyyy/mm">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="yyyy/mm">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="yyyy/mm">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="yyyy/mm">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="yyyy/mm">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="yyyy/mm">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="yyyy/mm">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="yyyy/mm">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="yyyy/mm">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="yyyy/mm">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="yyyy/mm">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="yyyy/mm">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="yyyy/mm">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="yyyy/mm">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="yyyy/mm">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="yyyy/mm">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="yyyy/mm">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="yyyy/mm">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="yyyy/mm">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="yyyy/mm">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="yyyy/mm">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="yyyy/mm">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="yyyy/mm">
+                  <c:v>44958</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BB$25,个人现金流量及资产负债表!$BD$25:$BD$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BB$25,个人现金流量及资产负债表!$BD$25:$BE$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>39892.050000000003</c:v>
+                  <c:v>39892.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55555.210000000014</c:v>
+                  <c:v>55555.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61964.930000000008</c:v>
+                  <c:v>61964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54938.660000000018</c:v>
+                  <c:v>54938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70416.479999999996</c:v>
+                  <c:v>70416.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62087.000000000015</c:v>
+                  <c:v>62087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84649.520000000033</c:v>
+                  <c:v>84649.52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92824.200000000026</c:v>
+                  <c:v>92824.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107882.92000000003</c:v>
+                  <c:v>107882.92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105734.57000000002</c:v>
+                  <c:v>105734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167359.22000000003</c:v>
+                  <c:v>167359.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165255.29999999999</c:v>
+                  <c:v>165255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>183528.33999999997</c:v>
+                  <c:v>183528.34</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181150.97999999998</c:v>
+                  <c:v>181150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>217850.69999999995</c:v>
+                  <c:v>217850.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248620.79999999999</c:v>
+                  <c:v>248620.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>304304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226963.57999999996</c:v>
+                  <c:v>226963.58</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>219755.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212849.72999999998</c:v>
+                  <c:v>212849.73</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>229632.07</c:v>
@@ -2184,7 +2821,7 @@
                   <c:v>270465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>321902.41000000003</c:v>
+                  <c:v>321902.41</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>324280.69</c:v>
@@ -2202,7 +2839,7 @@
                   <c:v>313790.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>283295.71999999997</c:v>
+                  <c:v>283295.72</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>282284.74</c:v>
@@ -2217,7 +2854,7 @@
                   <c:v>355524.07</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>394438.91000000003</c:v>
+                  <c:v>394438.91</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>358349.54</c:v>
@@ -2226,22 +2863,22 @@
                   <c:v>372443.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>345978.82999999996</c:v>
+                  <c:v>345978.83</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>343789.06999999995</c:v>
+                  <c:v>343789.07</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>369935.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>431826.56000000006</c:v>
+                  <c:v>431826.56</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>414254.55000000005</c:v>
+                  <c:v>414254.55</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>418698.93999999994</c:v>
+                  <c:v>418698.94</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>409069.9</c:v>
@@ -2250,23 +2887,21 @@
                   <c:v>417750.22</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>443570.66000000003</c:v>
+                  <c:v>443570.66</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>488905.44999999995</c:v>
+                  <c:v>488905.45</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>527016.61</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>557686.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9CBA-404E-84E6-333533F1143E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2285,6 +2920,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="52376106"/>
         <c:axId val="74300066"/>
@@ -2318,9 +2954,13 @@
                   </a:rPr>
                   <a:t>时间</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:latin typeface="Arial"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2356,7 +2996,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74300066"/>
@@ -2406,9 +3045,13 @@
                   </a:rPr>
                   <a:t>资金量</a:t>
                 </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:latin typeface="Arial"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2444,7 +3087,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="52376106"/>
@@ -2462,6 +3104,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2477,7 +3120,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2502,7 +3144,6 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2514,34 +3155,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>506910</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>113160</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>259260</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8385</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="48577500" y="0"/>
+        <a:ext cx="5421630" cy="4637405"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2553,31 +3188,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>316410</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>160785</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>68760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>56010</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AA1154-3CB9-4886-AEC6-8AE38293E30B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="48387000" y="47625"/>
+        <a:ext cx="5421630" cy="4637405"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2842,20 +3471,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ANK25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:ANL25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ16" sqref="BQ16"/>
+      <pane xSplit="3" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="BF38" sqref="BF38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="10.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
@@ -2869,1259 +3499,1262 @@
     <col min="42" max="42" width="12" style="3" customWidth="1"/>
     <col min="43" max="54" width="10.5" style="3" customWidth="1"/>
     <col min="55" max="55" width="12.25" style="3" customWidth="1"/>
-    <col min="56" max="56" width="10.5" style="3" customWidth="1"/>
-    <col min="57" max="57" width="12.25" style="3" customWidth="1"/>
-    <col min="58" max="95" width="10.5" style="3" customWidth="1"/>
-    <col min="96" max="1051" width="10.5" style="2" customWidth="1"/>
+    <col min="56" max="57" width="10.5" style="3" customWidth="1"/>
+    <col min="58" max="58" width="12.25" style="3" customWidth="1"/>
+    <col min="59" max="96" width="10.5" style="3" customWidth="1"/>
+    <col min="97" max="1052" width="10.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1051" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:1052">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="5">
         <v>44075</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="5">
         <v>44105</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="5">
         <v>44136</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="5">
         <v>44166</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="5">
         <v>44197</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="5">
         <v>44228</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="5">
         <v>44256</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="5">
         <v>44287</v>
       </c>
-      <c r="AH1" s="4">
+      <c r="AH1" s="5">
         <v>44317</v>
       </c>
-      <c r="AI1" s="4">
+      <c r="AI1" s="5">
         <v>44348</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1" s="5">
         <v>44378</v>
       </c>
-      <c r="AK1" s="4">
+      <c r="AK1" s="5">
         <v>44409</v>
       </c>
-      <c r="AL1" s="4">
+      <c r="AL1" s="5">
         <v>44440</v>
       </c>
-      <c r="AM1" s="4">
+      <c r="AM1" s="5">
         <v>44470</v>
       </c>
-      <c r="AN1" s="4">
+      <c r="AN1" s="5">
         <v>44501</v>
       </c>
-      <c r="AO1" s="4">
+      <c r="AO1" s="5">
         <v>44531</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" s="4">
+      <c r="AQ1" s="5">
         <v>44562</v>
       </c>
-      <c r="AR1" s="4">
+      <c r="AR1" s="5">
         <v>44593</v>
       </c>
-      <c r="AS1" s="4">
+      <c r="AS1" s="5">
         <v>44621</v>
       </c>
-      <c r="AT1" s="4">
+      <c r="AT1" s="5">
         <v>44652</v>
       </c>
-      <c r="AU1" s="4">
+      <c r="AU1" s="5">
         <v>44682</v>
       </c>
-      <c r="AV1" s="4">
+      <c r="AV1" s="5">
         <v>44713</v>
       </c>
-      <c r="AW1" s="4">
+      <c r="AW1" s="5">
         <v>44743</v>
       </c>
-      <c r="AX1" s="4">
+      <c r="AX1" s="5">
         <v>44774</v>
       </c>
-      <c r="AY1" s="4">
+      <c r="AY1" s="5">
         <v>44805</v>
       </c>
-      <c r="AZ1" s="4">
+      <c r="AZ1" s="5">
         <v>44835</v>
       </c>
-      <c r="BA1" s="4">
+      <c r="BA1" s="5">
         <v>44866</v>
       </c>
-      <c r="BB1" s="4">
+      <c r="BB1" s="5">
         <v>44896</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="BD1" s="4">
-        <v>44562</v>
-      </c>
-      <c r="BE1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="10"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="10"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="10"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="10"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="10"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="10"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="10"/>
-      <c r="CH1" s="10"/>
-      <c r="CI1" s="10"/>
-      <c r="CJ1" s="10"/>
-      <c r="CK1" s="10"/>
-      <c r="CL1" s="10"/>
-      <c r="CM1" s="10"/>
-      <c r="CN1" s="10"/>
-      <c r="CO1" s="10"/>
-      <c r="CP1" s="10"/>
-      <c r="CQ1" s="10"/>
-      <c r="CR1" s="10"/>
-      <c r="CS1" s="10"/>
-      <c r="CT1" s="10"/>
-      <c r="CU1" s="10"/>
-      <c r="CV1" s="10"/>
-      <c r="CW1" s="10"/>
-      <c r="CX1" s="10"/>
-      <c r="CY1" s="10"/>
-      <c r="CZ1" s="10"/>
-      <c r="DA1" s="10"/>
-      <c r="DB1" s="10"/>
-      <c r="DC1" s="10"/>
-      <c r="DD1" s="10"/>
-      <c r="DE1" s="10"/>
-      <c r="DF1" s="10"/>
-      <c r="DG1" s="10"/>
-      <c r="DH1" s="10"/>
-      <c r="DI1" s="10"/>
-      <c r="DJ1" s="10"/>
-      <c r="DK1" s="10"/>
-      <c r="DL1" s="10"/>
-      <c r="DM1" s="10"/>
-      <c r="DN1" s="10"/>
-      <c r="DO1" s="10"/>
-      <c r="DP1" s="10"/>
-      <c r="DQ1" s="10"/>
-      <c r="DR1" s="10"/>
-      <c r="DS1" s="10"/>
-      <c r="DT1" s="10"/>
-      <c r="DU1" s="10"/>
-      <c r="DV1" s="10"/>
-      <c r="DW1" s="10"/>
-      <c r="DX1" s="10"/>
-      <c r="DY1" s="10"/>
-      <c r="DZ1" s="10"/>
-      <c r="EA1" s="10"/>
-      <c r="EB1" s="10"/>
-      <c r="EC1" s="10"/>
-      <c r="ED1" s="10"/>
-      <c r="EE1" s="10"/>
-      <c r="EF1" s="10"/>
-      <c r="EG1" s="10"/>
-      <c r="EH1" s="10"/>
-      <c r="EI1" s="10"/>
-      <c r="EJ1" s="10"/>
-      <c r="EK1" s="10"/>
-      <c r="EL1" s="10"/>
-      <c r="EM1" s="10"/>
-      <c r="EN1" s="10"/>
-      <c r="EO1" s="10"/>
-      <c r="EP1" s="10"/>
-      <c r="EQ1" s="10"/>
-      <c r="ER1" s="10"/>
-      <c r="ES1" s="10"/>
-      <c r="ET1" s="10"/>
-      <c r="EU1" s="10"/>
-      <c r="EV1" s="10"/>
-      <c r="EW1" s="10"/>
-      <c r="EX1" s="10"/>
-      <c r="EY1" s="10"/>
-      <c r="EZ1" s="10"/>
-      <c r="FA1" s="10"/>
-      <c r="FB1" s="10"/>
-      <c r="FC1" s="10"/>
-      <c r="FD1" s="10"/>
-      <c r="FE1" s="10"/>
-      <c r="FF1" s="10"/>
-      <c r="FG1" s="10"/>
-      <c r="FH1" s="10"/>
-      <c r="FI1" s="10"/>
-      <c r="FJ1" s="10"/>
-      <c r="FK1" s="10"/>
-      <c r="FL1" s="10"/>
-      <c r="FM1" s="10"/>
-      <c r="FN1" s="10"/>
-      <c r="FO1" s="10"/>
-      <c r="FP1" s="10"/>
-      <c r="FQ1" s="10"/>
-      <c r="FR1" s="10"/>
-      <c r="FS1" s="10"/>
-      <c r="FT1" s="10"/>
-      <c r="FU1" s="10"/>
-      <c r="FV1" s="10"/>
-      <c r="FW1" s="10"/>
-      <c r="FX1" s="10"/>
-      <c r="FY1" s="10"/>
-      <c r="FZ1" s="10"/>
-      <c r="GA1" s="10"/>
-      <c r="GB1" s="10"/>
-      <c r="GC1" s="10"/>
-      <c r="GD1" s="10"/>
-      <c r="GE1" s="10"/>
-      <c r="GF1" s="10"/>
-      <c r="GG1" s="10"/>
-      <c r="GH1" s="10"/>
-      <c r="GI1" s="10"/>
-      <c r="GJ1" s="10"/>
-      <c r="GK1" s="10"/>
-      <c r="GL1" s="10"/>
-      <c r="GM1" s="10"/>
-      <c r="GN1" s="10"/>
-      <c r="GO1" s="10"/>
-      <c r="GP1" s="10"/>
-      <c r="GQ1" s="10"/>
-      <c r="GR1" s="10"/>
-      <c r="GS1" s="10"/>
-      <c r="GT1" s="10"/>
-      <c r="GU1" s="10"/>
-      <c r="GV1" s="10"/>
-      <c r="GW1" s="10"/>
-      <c r="GX1" s="10"/>
-      <c r="GY1" s="10"/>
-      <c r="GZ1" s="10"/>
-      <c r="HA1" s="10"/>
-      <c r="HB1" s="10"/>
-      <c r="HC1" s="10"/>
-      <c r="HD1" s="10"/>
-      <c r="HE1" s="10"/>
-      <c r="HF1" s="10"/>
-      <c r="HG1" s="10"/>
-      <c r="HH1" s="10"/>
-      <c r="HI1" s="10"/>
-      <c r="HJ1" s="10"/>
-      <c r="HK1" s="10"/>
-      <c r="HL1" s="10"/>
-      <c r="HM1" s="10"/>
-      <c r="HN1" s="10"/>
-      <c r="HO1" s="10"/>
-      <c r="HP1" s="10"/>
-      <c r="HQ1" s="10"/>
-      <c r="HR1" s="10"/>
-      <c r="HS1" s="10"/>
-      <c r="HT1" s="10"/>
-      <c r="HU1" s="10"/>
-      <c r="HV1" s="10"/>
-      <c r="HW1" s="10"/>
-      <c r="HX1" s="10"/>
-      <c r="HY1" s="10"/>
-      <c r="HZ1" s="10"/>
-      <c r="IA1" s="10"/>
-      <c r="IB1" s="10"/>
-      <c r="IC1" s="10"/>
-      <c r="ID1" s="10"/>
-      <c r="IE1" s="10"/>
-      <c r="IF1" s="10"/>
-      <c r="IG1" s="10"/>
-      <c r="IH1" s="10"/>
-      <c r="II1" s="10"/>
-      <c r="IJ1" s="10"/>
-      <c r="IK1" s="10"/>
-      <c r="IL1" s="10"/>
-      <c r="IM1" s="10"/>
-      <c r="IN1" s="10"/>
-      <c r="IO1" s="10"/>
-      <c r="IP1" s="10"/>
-      <c r="IQ1" s="10"/>
-      <c r="IR1" s="10"/>
-      <c r="IS1" s="10"/>
-      <c r="IT1" s="10"/>
-      <c r="IU1" s="10"/>
-      <c r="IV1" s="10"/>
-      <c r="IW1" s="10"/>
-      <c r="IX1" s="10"/>
-      <c r="IY1" s="10"/>
-      <c r="IZ1" s="10"/>
-      <c r="JA1" s="10"/>
-      <c r="JB1" s="10"/>
-      <c r="JC1" s="10"/>
-      <c r="JD1" s="10"/>
-      <c r="JE1" s="10"/>
-      <c r="JF1" s="10"/>
-      <c r="JG1" s="10"/>
-      <c r="JH1" s="10"/>
-      <c r="JI1" s="10"/>
-      <c r="JJ1" s="10"/>
-      <c r="JK1" s="10"/>
-      <c r="JL1" s="10"/>
-      <c r="JM1" s="10"/>
-      <c r="JN1" s="10"/>
-      <c r="JO1" s="10"/>
-      <c r="JP1" s="10"/>
-      <c r="JQ1" s="10"/>
-      <c r="JR1" s="10"/>
-      <c r="JS1" s="10"/>
-      <c r="JT1" s="10"/>
-      <c r="JU1" s="10"/>
-      <c r="JV1" s="10"/>
-      <c r="JW1" s="10"/>
-      <c r="JX1" s="10"/>
-      <c r="JY1" s="10"/>
-      <c r="JZ1" s="10"/>
-      <c r="KA1" s="10"/>
-      <c r="KB1" s="10"/>
-      <c r="KC1" s="10"/>
-      <c r="KD1" s="10"/>
-      <c r="KE1" s="10"/>
-      <c r="KF1" s="10"/>
-      <c r="KG1" s="10"/>
-      <c r="KH1" s="10"/>
-      <c r="KI1" s="10"/>
-      <c r="KJ1" s="10"/>
-      <c r="KK1" s="10"/>
-      <c r="KL1" s="10"/>
-      <c r="KM1" s="10"/>
-      <c r="KN1" s="10"/>
-      <c r="KO1" s="10"/>
-      <c r="KP1" s="10"/>
-      <c r="KQ1" s="10"/>
-      <c r="KR1" s="10"/>
-      <c r="KS1" s="10"/>
-      <c r="KT1" s="10"/>
-      <c r="KU1" s="10"/>
-      <c r="KV1" s="10"/>
-      <c r="KW1" s="10"/>
-      <c r="KX1" s="10"/>
-      <c r="KY1" s="10"/>
-      <c r="KZ1" s="10"/>
-      <c r="LA1" s="10"/>
-      <c r="LB1" s="10"/>
-      <c r="LC1" s="10"/>
-      <c r="LD1" s="10"/>
-      <c r="LE1" s="10"/>
-      <c r="LF1" s="10"/>
-      <c r="LG1" s="10"/>
-      <c r="LH1" s="10"/>
-      <c r="LI1" s="10"/>
-      <c r="LJ1" s="10"/>
-      <c r="LK1" s="10"/>
-      <c r="LL1" s="10"/>
-      <c r="LM1" s="10"/>
-      <c r="LN1" s="10"/>
-      <c r="LO1" s="10"/>
-      <c r="LP1" s="10"/>
-      <c r="LQ1" s="10"/>
-      <c r="LR1" s="10"/>
-      <c r="LS1" s="10"/>
-      <c r="LT1" s="10"/>
-      <c r="LU1" s="10"/>
-      <c r="LV1" s="10"/>
-      <c r="LW1" s="10"/>
-      <c r="LX1" s="10"/>
-      <c r="LY1" s="10"/>
-      <c r="LZ1" s="10"/>
-      <c r="MA1" s="10"/>
-      <c r="MB1" s="10"/>
-      <c r="MC1" s="10"/>
-      <c r="MD1" s="10"/>
-      <c r="ME1" s="10"/>
-      <c r="MF1" s="10"/>
-      <c r="MG1" s="10"/>
-      <c r="MH1" s="10"/>
-      <c r="MI1" s="10"/>
-      <c r="MJ1" s="10"/>
-      <c r="MK1" s="10"/>
-      <c r="ML1" s="10"/>
-      <c r="MM1" s="10"/>
-      <c r="MN1" s="10"/>
-      <c r="MO1" s="10"/>
-      <c r="MP1" s="10"/>
-      <c r="MQ1" s="10"/>
-      <c r="MR1" s="10"/>
-      <c r="MS1" s="10"/>
-      <c r="MT1" s="10"/>
-      <c r="MU1" s="10"/>
-      <c r="MV1" s="10"/>
-      <c r="MW1" s="10"/>
-      <c r="MX1" s="10"/>
-      <c r="MY1" s="10"/>
-      <c r="MZ1" s="10"/>
-      <c r="NA1" s="10"/>
-      <c r="NB1" s="10"/>
-      <c r="NC1" s="10"/>
-      <c r="ND1" s="10"/>
-      <c r="NE1" s="10"/>
-      <c r="NF1" s="10"/>
-      <c r="NG1" s="10"/>
-      <c r="NH1" s="10"/>
-      <c r="NI1" s="10"/>
-      <c r="NJ1" s="10"/>
-      <c r="NK1" s="10"/>
-      <c r="NL1" s="10"/>
-      <c r="NM1" s="10"/>
-      <c r="NN1" s="10"/>
-      <c r="NO1" s="10"/>
-      <c r="NP1" s="10"/>
-      <c r="NQ1" s="10"/>
-      <c r="NR1" s="10"/>
-      <c r="NS1" s="10"/>
-      <c r="NT1" s="10"/>
-      <c r="NU1" s="10"/>
-      <c r="NV1" s="10"/>
-      <c r="NW1" s="10"/>
-      <c r="NX1" s="10"/>
-      <c r="NY1" s="10"/>
-      <c r="NZ1" s="10"/>
-      <c r="OA1" s="10"/>
-      <c r="OB1" s="10"/>
-      <c r="OC1" s="10"/>
-      <c r="OD1" s="10"/>
-      <c r="OE1" s="10"/>
-      <c r="OF1" s="10"/>
-      <c r="OG1" s="10"/>
-      <c r="OH1" s="10"/>
-      <c r="OI1" s="10"/>
-      <c r="OJ1" s="10"/>
-      <c r="OK1" s="10"/>
-      <c r="OL1" s="10"/>
-      <c r="OM1" s="10"/>
-      <c r="ON1" s="10"/>
-      <c r="OO1" s="10"/>
-      <c r="OP1" s="10"/>
-      <c r="OQ1" s="10"/>
-      <c r="OR1" s="10"/>
-      <c r="OS1" s="10"/>
-      <c r="OT1" s="10"/>
-      <c r="OU1" s="10"/>
-      <c r="OV1" s="10"/>
-      <c r="OW1" s="10"/>
-      <c r="OX1" s="10"/>
-      <c r="OY1" s="10"/>
-      <c r="OZ1" s="10"/>
-      <c r="PA1" s="10"/>
-      <c r="PB1" s="10"/>
-      <c r="PC1" s="10"/>
-      <c r="PD1" s="10"/>
-      <c r="PE1" s="10"/>
-      <c r="PF1" s="10"/>
-      <c r="PG1" s="10"/>
-      <c r="PH1" s="10"/>
-      <c r="PI1" s="10"/>
-      <c r="PJ1" s="10"/>
-      <c r="PK1" s="10"/>
-      <c r="PL1" s="10"/>
-      <c r="PM1" s="10"/>
-      <c r="PN1" s="10"/>
-      <c r="PO1" s="10"/>
-      <c r="PP1" s="10"/>
-      <c r="PQ1" s="10"/>
-      <c r="PR1" s="10"/>
-      <c r="PS1" s="10"/>
-      <c r="PT1" s="10"/>
-      <c r="PU1" s="10"/>
-      <c r="PV1" s="10"/>
-      <c r="PW1" s="10"/>
-      <c r="PX1" s="10"/>
-      <c r="PY1" s="10"/>
-      <c r="PZ1" s="10"/>
-      <c r="QA1" s="10"/>
-      <c r="QB1" s="10"/>
-      <c r="QC1" s="10"/>
-      <c r="QD1" s="10"/>
-      <c r="QE1" s="10"/>
-      <c r="QF1" s="10"/>
-      <c r="QG1" s="10"/>
-      <c r="QH1" s="10"/>
-      <c r="QI1" s="10"/>
-      <c r="QJ1" s="10"/>
-      <c r="QK1" s="10"/>
-      <c r="QL1" s="10"/>
-      <c r="QM1" s="10"/>
-      <c r="QN1" s="10"/>
-      <c r="QO1" s="10"/>
-      <c r="QP1" s="10"/>
-      <c r="QQ1" s="10"/>
-      <c r="QR1" s="10"/>
-      <c r="QS1" s="10"/>
-      <c r="QT1" s="10"/>
-      <c r="QU1" s="10"/>
-      <c r="QV1" s="10"/>
-      <c r="QW1" s="10"/>
-      <c r="QX1" s="10"/>
-      <c r="QY1" s="10"/>
-      <c r="QZ1" s="10"/>
-      <c r="RA1" s="10"/>
-      <c r="RB1" s="10"/>
-      <c r="RC1" s="10"/>
-      <c r="RD1" s="10"/>
-      <c r="RE1" s="10"/>
-      <c r="RF1" s="10"/>
-      <c r="RG1" s="10"/>
-      <c r="RH1" s="10"/>
-      <c r="RI1" s="10"/>
-      <c r="RJ1" s="10"/>
-      <c r="RK1" s="10"/>
-      <c r="RL1" s="10"/>
-      <c r="RM1" s="10"/>
-      <c r="RN1" s="10"/>
-      <c r="RO1" s="10"/>
-      <c r="RP1" s="10"/>
-      <c r="RQ1" s="10"/>
-      <c r="RR1" s="10"/>
-      <c r="RS1" s="10"/>
-      <c r="RT1" s="10"/>
-      <c r="RU1" s="10"/>
-      <c r="RV1" s="10"/>
-      <c r="RW1" s="10"/>
-      <c r="RX1" s="10"/>
-      <c r="RY1" s="10"/>
-      <c r="RZ1" s="10"/>
-      <c r="SA1" s="10"/>
-      <c r="SB1" s="10"/>
-      <c r="SC1" s="10"/>
-      <c r="SD1" s="10"/>
-      <c r="SE1" s="10"/>
-      <c r="SF1" s="10"/>
-      <c r="SG1" s="10"/>
-      <c r="SH1" s="10"/>
-      <c r="SI1" s="10"/>
-      <c r="SJ1" s="10"/>
-      <c r="SK1" s="10"/>
-      <c r="SL1" s="10"/>
-      <c r="SM1" s="10"/>
-      <c r="SN1" s="10"/>
-      <c r="SO1" s="10"/>
-      <c r="SP1" s="10"/>
-      <c r="SQ1" s="10"/>
-      <c r="SR1" s="10"/>
-      <c r="SS1" s="10"/>
-      <c r="ST1" s="10"/>
-      <c r="SU1" s="10"/>
-      <c r="SV1" s="10"/>
-      <c r="SW1" s="10"/>
-      <c r="SX1" s="10"/>
-      <c r="SY1" s="10"/>
-      <c r="SZ1" s="10"/>
-      <c r="TA1" s="10"/>
-      <c r="TB1" s="10"/>
-      <c r="TC1" s="10"/>
-      <c r="TD1" s="10"/>
-      <c r="TE1" s="10"/>
-      <c r="TF1" s="10"/>
-      <c r="TG1" s="10"/>
-      <c r="TH1" s="10"/>
-      <c r="TI1" s="10"/>
-      <c r="TJ1" s="10"/>
-      <c r="TK1" s="10"/>
-      <c r="TL1" s="10"/>
-      <c r="TM1" s="10"/>
-      <c r="TN1" s="10"/>
-      <c r="TO1" s="10"/>
-      <c r="TP1" s="10"/>
-      <c r="TQ1" s="10"/>
-      <c r="TR1" s="10"/>
-      <c r="TS1" s="10"/>
-      <c r="TT1" s="10"/>
-      <c r="TU1" s="10"/>
-      <c r="TV1" s="10"/>
-      <c r="TW1" s="10"/>
-      <c r="TX1" s="10"/>
-      <c r="TY1" s="10"/>
-      <c r="TZ1" s="10"/>
-      <c r="UA1" s="10"/>
-      <c r="UB1" s="10"/>
-      <c r="UC1" s="10"/>
-      <c r="UD1" s="10"/>
-      <c r="UE1" s="10"/>
-      <c r="UF1" s="10"/>
-      <c r="UG1" s="10"/>
-      <c r="UH1" s="10"/>
-      <c r="UI1" s="10"/>
-      <c r="UJ1" s="10"/>
-      <c r="UK1" s="10"/>
-      <c r="UL1" s="10"/>
-      <c r="UM1" s="10"/>
-      <c r="UN1" s="10"/>
-      <c r="UO1" s="10"/>
-      <c r="UP1" s="10"/>
-      <c r="UQ1" s="10"/>
-      <c r="UR1" s="10"/>
-      <c r="US1" s="10"/>
-      <c r="UT1" s="10"/>
-      <c r="UU1" s="10"/>
-      <c r="UV1" s="10"/>
-      <c r="UW1" s="10"/>
-      <c r="UX1" s="10"/>
-      <c r="UY1" s="10"/>
-      <c r="UZ1" s="10"/>
-      <c r="VA1" s="10"/>
-      <c r="VB1" s="10"/>
-      <c r="VC1" s="10"/>
-      <c r="VD1" s="10"/>
-      <c r="VE1" s="10"/>
-      <c r="VF1" s="10"/>
-      <c r="VG1" s="10"/>
-      <c r="VH1" s="10"/>
-      <c r="VI1" s="10"/>
-      <c r="VJ1" s="10"/>
-      <c r="VK1" s="10"/>
-      <c r="VL1" s="10"/>
-      <c r="VM1" s="10"/>
-      <c r="VN1" s="10"/>
-      <c r="VO1" s="10"/>
-      <c r="VP1" s="10"/>
-      <c r="VQ1" s="10"/>
-      <c r="VR1" s="10"/>
-      <c r="VS1" s="10"/>
-      <c r="VT1" s="10"/>
-      <c r="VU1" s="10"/>
-      <c r="VV1" s="10"/>
-      <c r="VW1" s="10"/>
-      <c r="VX1" s="10"/>
-      <c r="VY1" s="10"/>
-      <c r="VZ1" s="10"/>
-      <c r="WA1" s="10"/>
-      <c r="WB1" s="10"/>
-      <c r="WC1" s="10"/>
-      <c r="WD1" s="10"/>
-      <c r="WE1" s="10"/>
-      <c r="WF1" s="10"/>
-      <c r="WG1" s="10"/>
-      <c r="WH1" s="10"/>
-      <c r="WI1" s="10"/>
-      <c r="WJ1" s="10"/>
-      <c r="WK1" s="10"/>
-      <c r="WL1" s="10"/>
-      <c r="WM1" s="10"/>
-      <c r="WN1" s="10"/>
-      <c r="WO1" s="10"/>
-      <c r="WP1" s="10"/>
-      <c r="WQ1" s="10"/>
-      <c r="WR1" s="10"/>
-      <c r="WS1" s="10"/>
-      <c r="WT1" s="10"/>
-      <c r="WU1" s="10"/>
-      <c r="WV1" s="10"/>
-      <c r="WW1" s="10"/>
-      <c r="WX1" s="10"/>
-      <c r="WY1" s="10"/>
-      <c r="WZ1" s="10"/>
-      <c r="XA1" s="10"/>
-      <c r="XB1" s="10"/>
-      <c r="XC1" s="10"/>
-      <c r="XD1" s="10"/>
-      <c r="XE1" s="10"/>
-      <c r="XF1" s="10"/>
-      <c r="XG1" s="10"/>
-      <c r="XH1" s="10"/>
-      <c r="XI1" s="10"/>
-      <c r="XJ1" s="10"/>
-      <c r="XK1" s="10"/>
-      <c r="XL1" s="10"/>
-      <c r="XM1" s="10"/>
-      <c r="XN1" s="10"/>
-      <c r="XO1" s="10"/>
-      <c r="XP1" s="10"/>
-      <c r="XQ1" s="10"/>
-      <c r="XR1" s="10"/>
-      <c r="XS1" s="10"/>
-      <c r="XT1" s="10"/>
-      <c r="XU1" s="10"/>
-      <c r="XV1" s="10"/>
-      <c r="XW1" s="10"/>
-      <c r="XX1" s="10"/>
-      <c r="XY1" s="10"/>
-      <c r="XZ1" s="10"/>
-      <c r="YA1" s="10"/>
-      <c r="YB1" s="10"/>
-      <c r="YC1" s="10"/>
-      <c r="YD1" s="10"/>
-      <c r="YE1" s="10"/>
-      <c r="YF1" s="10"/>
-      <c r="YG1" s="10"/>
-      <c r="YH1" s="10"/>
-      <c r="YI1" s="10"/>
-      <c r="YJ1" s="10"/>
-      <c r="YK1" s="10"/>
-      <c r="YL1" s="10"/>
-      <c r="YM1" s="10"/>
-      <c r="YN1" s="10"/>
-      <c r="YO1" s="10"/>
-      <c r="YP1" s="10"/>
-      <c r="YQ1" s="10"/>
-      <c r="YR1" s="10"/>
-      <c r="YS1" s="10"/>
-      <c r="YT1" s="10"/>
-      <c r="YU1" s="10"/>
-      <c r="YV1" s="10"/>
-      <c r="YW1" s="10"/>
-      <c r="YX1" s="10"/>
-      <c r="YY1" s="10"/>
-      <c r="YZ1" s="10"/>
-      <c r="ZA1" s="10"/>
-      <c r="ZB1" s="10"/>
-      <c r="ZC1" s="10"/>
-      <c r="ZD1" s="10"/>
-      <c r="ZE1" s="10"/>
-      <c r="ZF1" s="10"/>
-      <c r="ZG1" s="10"/>
-      <c r="ZH1" s="10"/>
-      <c r="ZI1" s="10"/>
-      <c r="ZJ1" s="10"/>
-      <c r="ZK1" s="10"/>
-      <c r="ZL1" s="10"/>
-      <c r="ZM1" s="10"/>
-      <c r="ZN1" s="10"/>
-      <c r="ZO1" s="10"/>
-      <c r="ZP1" s="10"/>
-      <c r="ZQ1" s="10"/>
-      <c r="ZR1" s="10"/>
-      <c r="ZS1" s="10"/>
-      <c r="ZT1" s="10"/>
-      <c r="ZU1" s="10"/>
-      <c r="ZV1" s="10"/>
-      <c r="ZW1" s="10"/>
-      <c r="ZX1" s="10"/>
-      <c r="ZY1" s="10"/>
-      <c r="ZZ1" s="10"/>
-      <c r="AAA1" s="10"/>
-      <c r="AAB1" s="10"/>
-      <c r="AAC1" s="10"/>
-      <c r="AAD1" s="10"/>
-      <c r="AAE1" s="10"/>
-      <c r="AAF1" s="10"/>
-      <c r="AAG1" s="10"/>
-      <c r="AAH1" s="10"/>
-      <c r="AAI1" s="10"/>
-      <c r="AAJ1" s="10"/>
-      <c r="AAK1" s="10"/>
-      <c r="AAL1" s="10"/>
-      <c r="AAM1" s="10"/>
-      <c r="AAN1" s="10"/>
-      <c r="AAO1" s="10"/>
-      <c r="AAP1" s="10"/>
-      <c r="AAQ1" s="10"/>
-      <c r="AAR1" s="10"/>
-      <c r="AAS1" s="10"/>
-      <c r="AAT1" s="10"/>
-      <c r="AAU1" s="10"/>
-      <c r="AAV1" s="10"/>
-      <c r="AAW1" s="10"/>
-      <c r="AAX1" s="10"/>
-      <c r="AAY1" s="10"/>
-      <c r="AAZ1" s="10"/>
-      <c r="ABA1" s="10"/>
-      <c r="ABB1" s="10"/>
-      <c r="ABC1" s="10"/>
-      <c r="ABD1" s="10"/>
-      <c r="ABE1" s="10"/>
-      <c r="ABF1" s="10"/>
-      <c r="ABG1" s="10"/>
-      <c r="ABH1" s="10"/>
-      <c r="ABI1" s="10"/>
-      <c r="ABJ1" s="10"/>
-      <c r="ABK1" s="10"/>
-      <c r="ABL1" s="10"/>
-      <c r="ABM1" s="10"/>
-      <c r="ABN1" s="10"/>
-      <c r="ABO1" s="10"/>
-      <c r="ABP1" s="10"/>
-      <c r="ABQ1" s="10"/>
-      <c r="ABR1" s="10"/>
-      <c r="ABS1" s="10"/>
-      <c r="ABT1" s="10"/>
-      <c r="ABU1" s="10"/>
-      <c r="ABV1" s="10"/>
-      <c r="ABW1" s="10"/>
-      <c r="ABX1" s="10"/>
-      <c r="ABY1" s="10"/>
-      <c r="ABZ1" s="10"/>
-      <c r="ACA1" s="10"/>
-      <c r="ACB1" s="10"/>
-      <c r="ACC1" s="10"/>
-      <c r="ACD1" s="10"/>
-      <c r="ACE1" s="10"/>
-      <c r="ACF1" s="10"/>
-      <c r="ACG1" s="10"/>
-      <c r="ACH1" s="10"/>
-      <c r="ACI1" s="10"/>
-      <c r="ACJ1" s="10"/>
-      <c r="ACK1" s="10"/>
-      <c r="ACL1" s="10"/>
-      <c r="ACM1" s="10"/>
-      <c r="ACN1" s="10"/>
-      <c r="ACO1" s="10"/>
-      <c r="ACP1" s="10"/>
-      <c r="ACQ1" s="10"/>
-      <c r="ACR1" s="10"/>
-      <c r="ACS1" s="10"/>
-      <c r="ACT1" s="10"/>
-      <c r="ACU1" s="10"/>
-      <c r="ACV1" s="10"/>
-      <c r="ACW1" s="10"/>
-      <c r="ACX1" s="10"/>
-      <c r="ACY1" s="10"/>
-      <c r="ACZ1" s="10"/>
-      <c r="ADA1" s="10"/>
-      <c r="ADB1" s="10"/>
-      <c r="ADC1" s="10"/>
-      <c r="ADD1" s="10"/>
-      <c r="ADE1" s="10"/>
-      <c r="ADF1" s="10"/>
-      <c r="ADG1" s="10"/>
-      <c r="ADH1" s="10"/>
-      <c r="ADI1" s="10"/>
-      <c r="ADJ1" s="10"/>
-      <c r="ADK1" s="10"/>
-      <c r="ADL1" s="10"/>
-      <c r="ADM1" s="10"/>
-      <c r="ADN1" s="10"/>
-      <c r="ADO1" s="10"/>
-      <c r="ADP1" s="10"/>
-      <c r="ADQ1" s="10"/>
-      <c r="ADR1" s="10"/>
-      <c r="ADS1" s="10"/>
-      <c r="ADT1" s="10"/>
-      <c r="ADU1" s="10"/>
-      <c r="ADV1" s="10"/>
-      <c r="ADW1" s="10"/>
-      <c r="ADX1" s="10"/>
-      <c r="ADY1" s="10"/>
-      <c r="ADZ1" s="10"/>
-      <c r="AEA1" s="10"/>
-      <c r="AEB1" s="10"/>
-      <c r="AEC1" s="10"/>
-      <c r="AED1" s="10"/>
-      <c r="AEE1" s="10"/>
-      <c r="AEF1" s="10"/>
-      <c r="AEG1" s="10"/>
-      <c r="AEH1" s="10"/>
-      <c r="AEI1" s="10"/>
-      <c r="AEJ1" s="10"/>
-      <c r="AEK1" s="10"/>
-      <c r="AEL1" s="10"/>
-      <c r="AEM1" s="10"/>
-      <c r="AEN1" s="10"/>
-      <c r="AEO1" s="10"/>
-      <c r="AEP1" s="10"/>
-      <c r="AEQ1" s="10"/>
-      <c r="AER1" s="10"/>
-      <c r="AES1" s="10"/>
-      <c r="AET1" s="10"/>
-      <c r="AEU1" s="10"/>
-      <c r="AEV1" s="10"/>
-      <c r="AEW1" s="10"/>
-      <c r="AEX1" s="10"/>
-      <c r="AEY1" s="10"/>
-      <c r="AEZ1" s="10"/>
-      <c r="AFA1" s="10"/>
-      <c r="AFB1" s="10"/>
-      <c r="AFC1" s="10"/>
-      <c r="AFD1" s="10"/>
-      <c r="AFE1" s="10"/>
-      <c r="AFF1" s="10"/>
-      <c r="AFG1" s="10"/>
-      <c r="AFH1" s="10"/>
-      <c r="AFI1" s="10"/>
-      <c r="AFJ1" s="10"/>
-      <c r="AFK1" s="10"/>
-      <c r="AFL1" s="10"/>
-      <c r="AFM1" s="10"/>
-      <c r="AFN1" s="10"/>
-      <c r="AFO1" s="10"/>
-      <c r="AFP1" s="10"/>
-      <c r="AFQ1" s="10"/>
-      <c r="AFR1" s="10"/>
-      <c r="AFS1" s="10"/>
-      <c r="AFT1" s="10"/>
-      <c r="AFU1" s="10"/>
-      <c r="AFV1" s="10"/>
-      <c r="AFW1" s="10"/>
-      <c r="AFX1" s="10"/>
-      <c r="AFY1" s="10"/>
-      <c r="AFZ1" s="10"/>
-      <c r="AGA1" s="10"/>
-      <c r="AGB1" s="10"/>
-      <c r="AGC1" s="10"/>
-      <c r="AGD1" s="10"/>
-      <c r="AGE1" s="10"/>
-      <c r="AGF1" s="10"/>
-      <c r="AGG1" s="10"/>
-      <c r="AGH1" s="10"/>
-      <c r="AGI1" s="10"/>
-      <c r="AGJ1" s="10"/>
-      <c r="AGK1" s="10"/>
-      <c r="AGL1" s="10"/>
-      <c r="AGM1" s="10"/>
-      <c r="AGN1" s="10"/>
-      <c r="AGO1" s="10"/>
-      <c r="AGP1" s="10"/>
-      <c r="AGQ1" s="10"/>
-      <c r="AGR1" s="10"/>
-      <c r="AGS1" s="10"/>
-      <c r="AGT1" s="10"/>
-      <c r="AGU1" s="10"/>
-      <c r="AGV1" s="10"/>
-      <c r="AGW1" s="10"/>
-      <c r="AGX1" s="10"/>
-      <c r="AGY1" s="10"/>
-      <c r="AGZ1" s="10"/>
-      <c r="AHA1" s="10"/>
-      <c r="AHB1" s="10"/>
-      <c r="AHC1" s="10"/>
-      <c r="AHD1" s="10"/>
-      <c r="AHE1" s="10"/>
-      <c r="AHF1" s="10"/>
-      <c r="AHG1" s="10"/>
-      <c r="AHH1" s="10"/>
-      <c r="AHI1" s="10"/>
-      <c r="AHJ1" s="10"/>
-      <c r="AHK1" s="10"/>
-      <c r="AHL1" s="10"/>
-      <c r="AHM1" s="10"/>
-      <c r="AHN1" s="10"/>
-      <c r="AHO1" s="10"/>
-      <c r="AHP1" s="10"/>
-      <c r="AHQ1" s="10"/>
-      <c r="AHR1" s="10"/>
-      <c r="AHS1" s="10"/>
-      <c r="AHT1" s="10"/>
-      <c r="AHU1" s="10"/>
-      <c r="AHV1" s="10"/>
-      <c r="AHW1" s="10"/>
-      <c r="AHX1" s="10"/>
-      <c r="AHY1" s="10"/>
-      <c r="AHZ1" s="10"/>
-      <c r="AIA1" s="10"/>
-      <c r="AIB1" s="10"/>
-      <c r="AIC1" s="10"/>
-      <c r="AID1" s="10"/>
-      <c r="AIE1" s="10"/>
-      <c r="AIF1" s="10"/>
-      <c r="AIG1" s="10"/>
-      <c r="AIH1" s="10"/>
-      <c r="AII1" s="10"/>
-      <c r="AIJ1" s="10"/>
-      <c r="AIK1" s="10"/>
-      <c r="AIL1" s="10"/>
-      <c r="AIM1" s="10"/>
-      <c r="AIN1" s="10"/>
-      <c r="AIO1" s="10"/>
-      <c r="AIP1" s="10"/>
-      <c r="AIQ1" s="10"/>
-      <c r="AIR1" s="10"/>
-      <c r="AIS1" s="10"/>
-      <c r="AIT1" s="10"/>
-      <c r="AIU1" s="10"/>
-      <c r="AIV1" s="10"/>
-      <c r="AIW1" s="10"/>
-      <c r="AIX1" s="10"/>
-      <c r="AIY1" s="10"/>
-      <c r="AIZ1" s="10"/>
-      <c r="AJA1" s="10"/>
-      <c r="AJB1" s="10"/>
-      <c r="AJC1" s="10"/>
-      <c r="AJD1" s="10"/>
-      <c r="AJE1" s="10"/>
-      <c r="AJF1" s="10"/>
-      <c r="AJG1" s="10"/>
-      <c r="AJH1" s="10"/>
-      <c r="AJI1" s="10"/>
-      <c r="AJJ1" s="10"/>
-      <c r="AJK1" s="10"/>
-      <c r="AJL1" s="10"/>
-      <c r="AJM1" s="10"/>
-      <c r="AJN1" s="10"/>
-      <c r="AJO1" s="10"/>
-      <c r="AJP1" s="10"/>
-      <c r="AJQ1" s="10"/>
-      <c r="AJR1" s="10"/>
-      <c r="AJS1" s="10"/>
-      <c r="AJT1" s="10"/>
-      <c r="AJU1" s="10"/>
-      <c r="AJV1" s="10"/>
-      <c r="AJW1" s="10"/>
-      <c r="AJX1" s="10"/>
-      <c r="AJY1" s="10"/>
-      <c r="AJZ1" s="10"/>
-      <c r="AKA1" s="10"/>
-      <c r="AKB1" s="10"/>
-      <c r="AKC1" s="10"/>
-      <c r="AKD1" s="10"/>
-      <c r="AKE1" s="10"/>
-      <c r="AKF1" s="10"/>
-      <c r="AKG1" s="10"/>
-      <c r="AKH1" s="10"/>
-      <c r="AKI1" s="10"/>
-      <c r="AKJ1" s="10"/>
-      <c r="AKK1" s="10"/>
-      <c r="AKL1" s="10"/>
-      <c r="AKM1" s="10"/>
-      <c r="AKN1" s="10"/>
-      <c r="AKO1" s="10"/>
-      <c r="AKP1" s="10"/>
-      <c r="AKQ1" s="10"/>
-      <c r="AKR1" s="10"/>
-      <c r="AKS1" s="10"/>
-      <c r="AKT1" s="10"/>
-      <c r="AKU1" s="10"/>
-      <c r="AKV1" s="10"/>
-      <c r="AKW1" s="10"/>
-      <c r="AKX1" s="10"/>
-      <c r="AKY1" s="10"/>
-      <c r="AKZ1" s="10"/>
-      <c r="ALA1" s="10"/>
-      <c r="ALB1" s="10"/>
-      <c r="ALC1" s="10"/>
-      <c r="ALD1" s="10"/>
-      <c r="ALE1" s="10"/>
-      <c r="ALF1" s="10"/>
-      <c r="ALG1" s="10"/>
-      <c r="ALH1" s="10"/>
-      <c r="ALI1" s="10"/>
-      <c r="ALJ1" s="10"/>
-      <c r="ALK1" s="10"/>
-      <c r="ALL1" s="10"/>
-      <c r="ALM1" s="10"/>
-      <c r="ALN1" s="10"/>
-      <c r="ALO1" s="10"/>
-      <c r="ALP1" s="10"/>
-      <c r="ALQ1" s="10"/>
-      <c r="ALR1" s="10"/>
-      <c r="ALS1" s="10"/>
-      <c r="ALT1" s="10"/>
-      <c r="ALU1" s="10"/>
-      <c r="ALV1" s="10"/>
-      <c r="ALW1" s="10"/>
-      <c r="ALX1" s="10"/>
-      <c r="ALY1" s="10"/>
-      <c r="ALZ1" s="10"/>
-      <c r="AMA1" s="10"/>
-      <c r="AMB1" s="10"/>
-      <c r="AMC1" s="10"/>
-      <c r="AMD1" s="10"/>
-      <c r="AME1" s="10"/>
-      <c r="AMF1" s="10"/>
-      <c r="AMG1" s="10"/>
-      <c r="AMH1" s="10"/>
-      <c r="AMI1" s="10"/>
-      <c r="AMJ1" s="10"/>
-      <c r="AMK1" s="10"/>
-      <c r="AML1" s="10"/>
-      <c r="AMM1" s="10"/>
-      <c r="AMN1" s="10"/>
-      <c r="AMO1" s="10"/>
-      <c r="AMP1" s="10"/>
-      <c r="AMQ1" s="10"/>
-      <c r="AMR1" s="10"/>
-      <c r="AMS1" s="10"/>
-      <c r="AMT1" s="10"/>
-      <c r="AMU1" s="10"/>
-      <c r="AMV1" s="10"/>
-      <c r="AMW1" s="10"/>
-      <c r="AMX1" s="10"/>
-      <c r="AMY1" s="10"/>
-      <c r="AMZ1" s="10"/>
-      <c r="ANA1" s="10"/>
-      <c r="ANB1" s="10"/>
-      <c r="ANC1" s="10"/>
-      <c r="AND1" s="10"/>
-      <c r="ANE1" s="10"/>
-      <c r="ANF1" s="10"/>
-      <c r="ANG1" s="10"/>
-      <c r="ANH1" s="10"/>
-      <c r="ANI1" s="10"/>
-      <c r="ANJ1" s="10"/>
-      <c r="ANK1" s="10"/>
+      <c r="BD1" s="5">
+        <v>44927</v>
+      </c>
+      <c r="BE1" s="5">
+        <v>44958</v>
+      </c>
+      <c r="BF1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13"/>
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="13"/>
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="13"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="13"/>
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13"/>
+      <c r="EX1" s="13"/>
+      <c r="EY1" s="13"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="13"/>
+      <c r="FF1" s="13"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="13"/>
+      <c r="FK1" s="13"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
+      <c r="FO1" s="13"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="13"/>
+      <c r="FR1" s="13"/>
+      <c r="FS1" s="13"/>
+      <c r="FT1" s="13"/>
+      <c r="FU1" s="13"/>
+      <c r="FV1" s="13"/>
+      <c r="FW1" s="13"/>
+      <c r="FX1" s="13"/>
+      <c r="FY1" s="13"/>
+      <c r="FZ1" s="13"/>
+      <c r="GA1" s="13"/>
+      <c r="GB1" s="13"/>
+      <c r="GC1" s="13"/>
+      <c r="GD1" s="13"/>
+      <c r="GE1" s="13"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="13"/>
+      <c r="GH1" s="13"/>
+      <c r="GI1" s="13"/>
+      <c r="GJ1" s="13"/>
+      <c r="GK1" s="13"/>
+      <c r="GL1" s="13"/>
+      <c r="GM1" s="13"/>
+      <c r="GN1" s="13"/>
+      <c r="GO1" s="13"/>
+      <c r="GP1" s="13"/>
+      <c r="GQ1" s="13"/>
+      <c r="GR1" s="13"/>
+      <c r="GS1" s="13"/>
+      <c r="GT1" s="13"/>
+      <c r="GU1" s="13"/>
+      <c r="GV1" s="13"/>
+      <c r="GW1" s="13"/>
+      <c r="GX1" s="13"/>
+      <c r="GY1" s="13"/>
+      <c r="GZ1" s="13"/>
+      <c r="HA1" s="13"/>
+      <c r="HB1" s="13"/>
+      <c r="HC1" s="13"/>
+      <c r="HD1" s="13"/>
+      <c r="HE1" s="13"/>
+      <c r="HF1" s="13"/>
+      <c r="HG1" s="13"/>
+      <c r="HH1" s="13"/>
+      <c r="HI1" s="13"/>
+      <c r="HJ1" s="13"/>
+      <c r="HK1" s="13"/>
+      <c r="HL1" s="13"/>
+      <c r="HM1" s="13"/>
+      <c r="HN1" s="13"/>
+      <c r="HO1" s="13"/>
+      <c r="HP1" s="13"/>
+      <c r="HQ1" s="13"/>
+      <c r="HR1" s="13"/>
+      <c r="HS1" s="13"/>
+      <c r="HT1" s="13"/>
+      <c r="HU1" s="13"/>
+      <c r="HV1" s="13"/>
+      <c r="HW1" s="13"/>
+      <c r="HX1" s="13"/>
+      <c r="HY1" s="13"/>
+      <c r="HZ1" s="13"/>
+      <c r="IA1" s="13"/>
+      <c r="IB1" s="13"/>
+      <c r="IC1" s="13"/>
+      <c r="ID1" s="13"/>
+      <c r="IE1" s="13"/>
+      <c r="IF1" s="13"/>
+      <c r="IG1" s="13"/>
+      <c r="IH1" s="13"/>
+      <c r="II1" s="13"/>
+      <c r="IJ1" s="13"/>
+      <c r="IK1" s="13"/>
+      <c r="IL1" s="13"/>
+      <c r="IM1" s="13"/>
+      <c r="IN1" s="13"/>
+      <c r="IO1" s="13"/>
+      <c r="IP1" s="13"/>
+      <c r="IQ1" s="13"/>
+      <c r="IR1" s="13"/>
+      <c r="IS1" s="13"/>
+      <c r="IT1" s="13"/>
+      <c r="IU1" s="13"/>
+      <c r="IV1" s="13"/>
+      <c r="IW1" s="13"/>
+      <c r="IX1" s="13"/>
+      <c r="IY1" s="13"/>
+      <c r="IZ1" s="13"/>
+      <c r="JA1" s="13"/>
+      <c r="JB1" s="13"/>
+      <c r="JC1" s="13"/>
+      <c r="JD1" s="13"/>
+      <c r="JE1" s="13"/>
+      <c r="JF1" s="13"/>
+      <c r="JG1" s="13"/>
+      <c r="JH1" s="13"/>
+      <c r="JI1" s="13"/>
+      <c r="JJ1" s="13"/>
+      <c r="JK1" s="13"/>
+      <c r="JL1" s="13"/>
+      <c r="JM1" s="13"/>
+      <c r="JN1" s="13"/>
+      <c r="JO1" s="13"/>
+      <c r="JP1" s="13"/>
+      <c r="JQ1" s="13"/>
+      <c r="JR1" s="13"/>
+      <c r="JS1" s="13"/>
+      <c r="JT1" s="13"/>
+      <c r="JU1" s="13"/>
+      <c r="JV1" s="13"/>
+      <c r="JW1" s="13"/>
+      <c r="JX1" s="13"/>
+      <c r="JY1" s="13"/>
+      <c r="JZ1" s="13"/>
+      <c r="KA1" s="13"/>
+      <c r="KB1" s="13"/>
+      <c r="KC1" s="13"/>
+      <c r="KD1" s="13"/>
+      <c r="KE1" s="13"/>
+      <c r="KF1" s="13"/>
+      <c r="KG1" s="13"/>
+      <c r="KH1" s="13"/>
+      <c r="KI1" s="13"/>
+      <c r="KJ1" s="13"/>
+      <c r="KK1" s="13"/>
+      <c r="KL1" s="13"/>
+      <c r="KM1" s="13"/>
+      <c r="KN1" s="13"/>
+      <c r="KO1" s="13"/>
+      <c r="KP1" s="13"/>
+      <c r="KQ1" s="13"/>
+      <c r="KR1" s="13"/>
+      <c r="KS1" s="13"/>
+      <c r="KT1" s="13"/>
+      <c r="KU1" s="13"/>
+      <c r="KV1" s="13"/>
+      <c r="KW1" s="13"/>
+      <c r="KX1" s="13"/>
+      <c r="KY1" s="13"/>
+      <c r="KZ1" s="13"/>
+      <c r="LA1" s="13"/>
+      <c r="LB1" s="13"/>
+      <c r="LC1" s="13"/>
+      <c r="LD1" s="13"/>
+      <c r="LE1" s="13"/>
+      <c r="LF1" s="13"/>
+      <c r="LG1" s="13"/>
+      <c r="LH1" s="13"/>
+      <c r="LI1" s="13"/>
+      <c r="LJ1" s="13"/>
+      <c r="LK1" s="13"/>
+      <c r="LL1" s="13"/>
+      <c r="LM1" s="13"/>
+      <c r="LN1" s="13"/>
+      <c r="LO1" s="13"/>
+      <c r="LP1" s="13"/>
+      <c r="LQ1" s="13"/>
+      <c r="LR1" s="13"/>
+      <c r="LS1" s="13"/>
+      <c r="LT1" s="13"/>
+      <c r="LU1" s="13"/>
+      <c r="LV1" s="13"/>
+      <c r="LW1" s="13"/>
+      <c r="LX1" s="13"/>
+      <c r="LY1" s="13"/>
+      <c r="LZ1" s="13"/>
+      <c r="MA1" s="13"/>
+      <c r="MB1" s="13"/>
+      <c r="MC1" s="13"/>
+      <c r="MD1" s="13"/>
+      <c r="ME1" s="13"/>
+      <c r="MF1" s="13"/>
+      <c r="MG1" s="13"/>
+      <c r="MH1" s="13"/>
+      <c r="MI1" s="13"/>
+      <c r="MJ1" s="13"/>
+      <c r="MK1" s="13"/>
+      <c r="ML1" s="13"/>
+      <c r="MM1" s="13"/>
+      <c r="MN1" s="13"/>
+      <c r="MO1" s="13"/>
+      <c r="MP1" s="13"/>
+      <c r="MQ1" s="13"/>
+      <c r="MR1" s="13"/>
+      <c r="MS1" s="13"/>
+      <c r="MT1" s="13"/>
+      <c r="MU1" s="13"/>
+      <c r="MV1" s="13"/>
+      <c r="MW1" s="13"/>
+      <c r="MX1" s="13"/>
+      <c r="MY1" s="13"/>
+      <c r="MZ1" s="13"/>
+      <c r="NA1" s="13"/>
+      <c r="NB1" s="13"/>
+      <c r="NC1" s="13"/>
+      <c r="ND1" s="13"/>
+      <c r="NE1" s="13"/>
+      <c r="NF1" s="13"/>
+      <c r="NG1" s="13"/>
+      <c r="NH1" s="13"/>
+      <c r="NI1" s="13"/>
+      <c r="NJ1" s="13"/>
+      <c r="NK1" s="13"/>
+      <c r="NL1" s="13"/>
+      <c r="NM1" s="13"/>
+      <c r="NN1" s="13"/>
+      <c r="NO1" s="13"/>
+      <c r="NP1" s="13"/>
+      <c r="NQ1" s="13"/>
+      <c r="NR1" s="13"/>
+      <c r="NS1" s="13"/>
+      <c r="NT1" s="13"/>
+      <c r="NU1" s="13"/>
+      <c r="NV1" s="13"/>
+      <c r="NW1" s="13"/>
+      <c r="NX1" s="13"/>
+      <c r="NY1" s="13"/>
+      <c r="NZ1" s="13"/>
+      <c r="OA1" s="13"/>
+      <c r="OB1" s="13"/>
+      <c r="OC1" s="13"/>
+      <c r="OD1" s="13"/>
+      <c r="OE1" s="13"/>
+      <c r="OF1" s="13"/>
+      <c r="OG1" s="13"/>
+      <c r="OH1" s="13"/>
+      <c r="OI1" s="13"/>
+      <c r="OJ1" s="13"/>
+      <c r="OK1" s="13"/>
+      <c r="OL1" s="13"/>
+      <c r="OM1" s="13"/>
+      <c r="ON1" s="13"/>
+      <c r="OO1" s="13"/>
+      <c r="OP1" s="13"/>
+      <c r="OQ1" s="13"/>
+      <c r="OR1" s="13"/>
+      <c r="OS1" s="13"/>
+      <c r="OT1" s="13"/>
+      <c r="OU1" s="13"/>
+      <c r="OV1" s="13"/>
+      <c r="OW1" s="13"/>
+      <c r="OX1" s="13"/>
+      <c r="OY1" s="13"/>
+      <c r="OZ1" s="13"/>
+      <c r="PA1" s="13"/>
+      <c r="PB1" s="13"/>
+      <c r="PC1" s="13"/>
+      <c r="PD1" s="13"/>
+      <c r="PE1" s="13"/>
+      <c r="PF1" s="13"/>
+      <c r="PG1" s="13"/>
+      <c r="PH1" s="13"/>
+      <c r="PI1" s="13"/>
+      <c r="PJ1" s="13"/>
+      <c r="PK1" s="13"/>
+      <c r="PL1" s="13"/>
+      <c r="PM1" s="13"/>
+      <c r="PN1" s="13"/>
+      <c r="PO1" s="13"/>
+      <c r="PP1" s="13"/>
+      <c r="PQ1" s="13"/>
+      <c r="PR1" s="13"/>
+      <c r="PS1" s="13"/>
+      <c r="PT1" s="13"/>
+      <c r="PU1" s="13"/>
+      <c r="PV1" s="13"/>
+      <c r="PW1" s="13"/>
+      <c r="PX1" s="13"/>
+      <c r="PY1" s="13"/>
+      <c r="PZ1" s="13"/>
+      <c r="QA1" s="13"/>
+      <c r="QB1" s="13"/>
+      <c r="QC1" s="13"/>
+      <c r="QD1" s="13"/>
+      <c r="QE1" s="13"/>
+      <c r="QF1" s="13"/>
+      <c r="QG1" s="13"/>
+      <c r="QH1" s="13"/>
+      <c r="QI1" s="13"/>
+      <c r="QJ1" s="13"/>
+      <c r="QK1" s="13"/>
+      <c r="QL1" s="13"/>
+      <c r="QM1" s="13"/>
+      <c r="QN1" s="13"/>
+      <c r="QO1" s="13"/>
+      <c r="QP1" s="13"/>
+      <c r="QQ1" s="13"/>
+      <c r="QR1" s="13"/>
+      <c r="QS1" s="13"/>
+      <c r="QT1" s="13"/>
+      <c r="QU1" s="13"/>
+      <c r="QV1" s="13"/>
+      <c r="QW1" s="13"/>
+      <c r="QX1" s="13"/>
+      <c r="QY1" s="13"/>
+      <c r="QZ1" s="13"/>
+      <c r="RA1" s="13"/>
+      <c r="RB1" s="13"/>
+      <c r="RC1" s="13"/>
+      <c r="RD1" s="13"/>
+      <c r="RE1" s="13"/>
+      <c r="RF1" s="13"/>
+      <c r="RG1" s="13"/>
+      <c r="RH1" s="13"/>
+      <c r="RI1" s="13"/>
+      <c r="RJ1" s="13"/>
+      <c r="RK1" s="13"/>
+      <c r="RL1" s="13"/>
+      <c r="RM1" s="13"/>
+      <c r="RN1" s="13"/>
+      <c r="RO1" s="13"/>
+      <c r="RP1" s="13"/>
+      <c r="RQ1" s="13"/>
+      <c r="RR1" s="13"/>
+      <c r="RS1" s="13"/>
+      <c r="RT1" s="13"/>
+      <c r="RU1" s="13"/>
+      <c r="RV1" s="13"/>
+      <c r="RW1" s="13"/>
+      <c r="RX1" s="13"/>
+      <c r="RY1" s="13"/>
+      <c r="RZ1" s="13"/>
+      <c r="SA1" s="13"/>
+      <c r="SB1" s="13"/>
+      <c r="SC1" s="13"/>
+      <c r="SD1" s="13"/>
+      <c r="SE1" s="13"/>
+      <c r="SF1" s="13"/>
+      <c r="SG1" s="13"/>
+      <c r="SH1" s="13"/>
+      <c r="SI1" s="13"/>
+      <c r="SJ1" s="13"/>
+      <c r="SK1" s="13"/>
+      <c r="SL1" s="13"/>
+      <c r="SM1" s="13"/>
+      <c r="SN1" s="13"/>
+      <c r="SO1" s="13"/>
+      <c r="SP1" s="13"/>
+      <c r="SQ1" s="13"/>
+      <c r="SR1" s="13"/>
+      <c r="SS1" s="13"/>
+      <c r="ST1" s="13"/>
+      <c r="SU1" s="13"/>
+      <c r="SV1" s="13"/>
+      <c r="SW1" s="13"/>
+      <c r="SX1" s="13"/>
+      <c r="SY1" s="13"/>
+      <c r="SZ1" s="13"/>
+      <c r="TA1" s="13"/>
+      <c r="TB1" s="13"/>
+      <c r="TC1" s="13"/>
+      <c r="TD1" s="13"/>
+      <c r="TE1" s="13"/>
+      <c r="TF1" s="13"/>
+      <c r="TG1" s="13"/>
+      <c r="TH1" s="13"/>
+      <c r="TI1" s="13"/>
+      <c r="TJ1" s="13"/>
+      <c r="TK1" s="13"/>
+      <c r="TL1" s="13"/>
+      <c r="TM1" s="13"/>
+      <c r="TN1" s="13"/>
+      <c r="TO1" s="13"/>
+      <c r="TP1" s="13"/>
+      <c r="TQ1" s="13"/>
+      <c r="TR1" s="13"/>
+      <c r="TS1" s="13"/>
+      <c r="TT1" s="13"/>
+      <c r="TU1" s="13"/>
+      <c r="TV1" s="13"/>
+      <c r="TW1" s="13"/>
+      <c r="TX1" s="13"/>
+      <c r="TY1" s="13"/>
+      <c r="TZ1" s="13"/>
+      <c r="UA1" s="13"/>
+      <c r="UB1" s="13"/>
+      <c r="UC1" s="13"/>
+      <c r="UD1" s="13"/>
+      <c r="UE1" s="13"/>
+      <c r="UF1" s="13"/>
+      <c r="UG1" s="13"/>
+      <c r="UH1" s="13"/>
+      <c r="UI1" s="13"/>
+      <c r="UJ1" s="13"/>
+      <c r="UK1" s="13"/>
+      <c r="UL1" s="13"/>
+      <c r="UM1" s="13"/>
+      <c r="UN1" s="13"/>
+      <c r="UO1" s="13"/>
+      <c r="UP1" s="13"/>
+      <c r="UQ1" s="13"/>
+      <c r="UR1" s="13"/>
+      <c r="US1" s="13"/>
+      <c r="UT1" s="13"/>
+      <c r="UU1" s="13"/>
+      <c r="UV1" s="13"/>
+      <c r="UW1" s="13"/>
+      <c r="UX1" s="13"/>
+      <c r="UY1" s="13"/>
+      <c r="UZ1" s="13"/>
+      <c r="VA1" s="13"/>
+      <c r="VB1" s="13"/>
+      <c r="VC1" s="13"/>
+      <c r="VD1" s="13"/>
+      <c r="VE1" s="13"/>
+      <c r="VF1" s="13"/>
+      <c r="VG1" s="13"/>
+      <c r="VH1" s="13"/>
+      <c r="VI1" s="13"/>
+      <c r="VJ1" s="13"/>
+      <c r="VK1" s="13"/>
+      <c r="VL1" s="13"/>
+      <c r="VM1" s="13"/>
+      <c r="VN1" s="13"/>
+      <c r="VO1" s="13"/>
+      <c r="VP1" s="13"/>
+      <c r="VQ1" s="13"/>
+      <c r="VR1" s="13"/>
+      <c r="VS1" s="13"/>
+      <c r="VT1" s="13"/>
+      <c r="VU1" s="13"/>
+      <c r="VV1" s="13"/>
+      <c r="VW1" s="13"/>
+      <c r="VX1" s="13"/>
+      <c r="VY1" s="13"/>
+      <c r="VZ1" s="13"/>
+      <c r="WA1" s="13"/>
+      <c r="WB1" s="13"/>
+      <c r="WC1" s="13"/>
+      <c r="WD1" s="13"/>
+      <c r="WE1" s="13"/>
+      <c r="WF1" s="13"/>
+      <c r="WG1" s="13"/>
+      <c r="WH1" s="13"/>
+      <c r="WI1" s="13"/>
+      <c r="WJ1" s="13"/>
+      <c r="WK1" s="13"/>
+      <c r="WL1" s="13"/>
+      <c r="WM1" s="13"/>
+      <c r="WN1" s="13"/>
+      <c r="WO1" s="13"/>
+      <c r="WP1" s="13"/>
+      <c r="WQ1" s="13"/>
+      <c r="WR1" s="13"/>
+      <c r="WS1" s="13"/>
+      <c r="WT1" s="13"/>
+      <c r="WU1" s="13"/>
+      <c r="WV1" s="13"/>
+      <c r="WW1" s="13"/>
+      <c r="WX1" s="13"/>
+      <c r="WY1" s="13"/>
+      <c r="WZ1" s="13"/>
+      <c r="XA1" s="13"/>
+      <c r="XB1" s="13"/>
+      <c r="XC1" s="13"/>
+      <c r="XD1" s="13"/>
+      <c r="XE1" s="13"/>
+      <c r="XF1" s="13"/>
+      <c r="XG1" s="13"/>
+      <c r="XH1" s="13"/>
+      <c r="XI1" s="13"/>
+      <c r="XJ1" s="13"/>
+      <c r="XK1" s="13"/>
+      <c r="XL1" s="13"/>
+      <c r="XM1" s="13"/>
+      <c r="XN1" s="13"/>
+      <c r="XO1" s="13"/>
+      <c r="XP1" s="13"/>
+      <c r="XQ1" s="13"/>
+      <c r="XR1" s="13"/>
+      <c r="XS1" s="13"/>
+      <c r="XT1" s="13"/>
+      <c r="XU1" s="13"/>
+      <c r="XV1" s="13"/>
+      <c r="XW1" s="13"/>
+      <c r="XX1" s="13"/>
+      <c r="XY1" s="13"/>
+      <c r="XZ1" s="13"/>
+      <c r="YA1" s="13"/>
+      <c r="YB1" s="13"/>
+      <c r="YC1" s="13"/>
+      <c r="YD1" s="13"/>
+      <c r="YE1" s="13"/>
+      <c r="YF1" s="13"/>
+      <c r="YG1" s="13"/>
+      <c r="YH1" s="13"/>
+      <c r="YI1" s="13"/>
+      <c r="YJ1" s="13"/>
+      <c r="YK1" s="13"/>
+      <c r="YL1" s="13"/>
+      <c r="YM1" s="13"/>
+      <c r="YN1" s="13"/>
+      <c r="YO1" s="13"/>
+      <c r="YP1" s="13"/>
+      <c r="YQ1" s="13"/>
+      <c r="YR1" s="13"/>
+      <c r="YS1" s="13"/>
+      <c r="YT1" s="13"/>
+      <c r="YU1" s="13"/>
+      <c r="YV1" s="13"/>
+      <c r="YW1" s="13"/>
+      <c r="YX1" s="13"/>
+      <c r="YY1" s="13"/>
+      <c r="YZ1" s="13"/>
+      <c r="ZA1" s="13"/>
+      <c r="ZB1" s="13"/>
+      <c r="ZC1" s="13"/>
+      <c r="ZD1" s="13"/>
+      <c r="ZE1" s="13"/>
+      <c r="ZF1" s="13"/>
+      <c r="ZG1" s="13"/>
+      <c r="ZH1" s="13"/>
+      <c r="ZI1" s="13"/>
+      <c r="ZJ1" s="13"/>
+      <c r="ZK1" s="13"/>
+      <c r="ZL1" s="13"/>
+      <c r="ZM1" s="13"/>
+      <c r="ZN1" s="13"/>
+      <c r="ZO1" s="13"/>
+      <c r="ZP1" s="13"/>
+      <c r="ZQ1" s="13"/>
+      <c r="ZR1" s="13"/>
+      <c r="ZS1" s="13"/>
+      <c r="ZT1" s="13"/>
+      <c r="ZU1" s="13"/>
+      <c r="ZV1" s="13"/>
+      <c r="ZW1" s="13"/>
+      <c r="ZX1" s="13"/>
+      <c r="ZY1" s="13"/>
+      <c r="ZZ1" s="13"/>
+      <c r="AAA1" s="13"/>
+      <c r="AAB1" s="13"/>
+      <c r="AAC1" s="13"/>
+      <c r="AAD1" s="13"/>
+      <c r="AAE1" s="13"/>
+      <c r="AAF1" s="13"/>
+      <c r="AAG1" s="13"/>
+      <c r="AAH1" s="13"/>
+      <c r="AAI1" s="13"/>
+      <c r="AAJ1" s="13"/>
+      <c r="AAK1" s="13"/>
+      <c r="AAL1" s="13"/>
+      <c r="AAM1" s="13"/>
+      <c r="AAN1" s="13"/>
+      <c r="AAO1" s="13"/>
+      <c r="AAP1" s="13"/>
+      <c r="AAQ1" s="13"/>
+      <c r="AAR1" s="13"/>
+      <c r="AAS1" s="13"/>
+      <c r="AAT1" s="13"/>
+      <c r="AAU1" s="13"/>
+      <c r="AAV1" s="13"/>
+      <c r="AAW1" s="13"/>
+      <c r="AAX1" s="13"/>
+      <c r="AAY1" s="13"/>
+      <c r="AAZ1" s="13"/>
+      <c r="ABA1" s="13"/>
+      <c r="ABB1" s="13"/>
+      <c r="ABC1" s="13"/>
+      <c r="ABD1" s="13"/>
+      <c r="ABE1" s="13"/>
+      <c r="ABF1" s="13"/>
+      <c r="ABG1" s="13"/>
+      <c r="ABH1" s="13"/>
+      <c r="ABI1" s="13"/>
+      <c r="ABJ1" s="13"/>
+      <c r="ABK1" s="13"/>
+      <c r="ABL1" s="13"/>
+      <c r="ABM1" s="13"/>
+      <c r="ABN1" s="13"/>
+      <c r="ABO1" s="13"/>
+      <c r="ABP1" s="13"/>
+      <c r="ABQ1" s="13"/>
+      <c r="ABR1" s="13"/>
+      <c r="ABS1" s="13"/>
+      <c r="ABT1" s="13"/>
+      <c r="ABU1" s="13"/>
+      <c r="ABV1" s="13"/>
+      <c r="ABW1" s="13"/>
+      <c r="ABX1" s="13"/>
+      <c r="ABY1" s="13"/>
+      <c r="ABZ1" s="13"/>
+      <c r="ACA1" s="13"/>
+      <c r="ACB1" s="13"/>
+      <c r="ACC1" s="13"/>
+      <c r="ACD1" s="13"/>
+      <c r="ACE1" s="13"/>
+      <c r="ACF1" s="13"/>
+      <c r="ACG1" s="13"/>
+      <c r="ACH1" s="13"/>
+      <c r="ACI1" s="13"/>
+      <c r="ACJ1" s="13"/>
+      <c r="ACK1" s="13"/>
+      <c r="ACL1" s="13"/>
+      <c r="ACM1" s="13"/>
+      <c r="ACN1" s="13"/>
+      <c r="ACO1" s="13"/>
+      <c r="ACP1" s="13"/>
+      <c r="ACQ1" s="13"/>
+      <c r="ACR1" s="13"/>
+      <c r="ACS1" s="13"/>
+      <c r="ACT1" s="13"/>
+      <c r="ACU1" s="13"/>
+      <c r="ACV1" s="13"/>
+      <c r="ACW1" s="13"/>
+      <c r="ACX1" s="13"/>
+      <c r="ACY1" s="13"/>
+      <c r="ACZ1" s="13"/>
+      <c r="ADA1" s="13"/>
+      <c r="ADB1" s="13"/>
+      <c r="ADC1" s="13"/>
+      <c r="ADD1" s="13"/>
+      <c r="ADE1" s="13"/>
+      <c r="ADF1" s="13"/>
+      <c r="ADG1" s="13"/>
+      <c r="ADH1" s="13"/>
+      <c r="ADI1" s="13"/>
+      <c r="ADJ1" s="13"/>
+      <c r="ADK1" s="13"/>
+      <c r="ADL1" s="13"/>
+      <c r="ADM1" s="13"/>
+      <c r="ADN1" s="13"/>
+      <c r="ADO1" s="13"/>
+      <c r="ADP1" s="13"/>
+      <c r="ADQ1" s="13"/>
+      <c r="ADR1" s="13"/>
+      <c r="ADS1" s="13"/>
+      <c r="ADT1" s="13"/>
+      <c r="ADU1" s="13"/>
+      <c r="ADV1" s="13"/>
+      <c r="ADW1" s="13"/>
+      <c r="ADX1" s="13"/>
+      <c r="ADY1" s="13"/>
+      <c r="ADZ1" s="13"/>
+      <c r="AEA1" s="13"/>
+      <c r="AEB1" s="13"/>
+      <c r="AEC1" s="13"/>
+      <c r="AED1" s="13"/>
+      <c r="AEE1" s="13"/>
+      <c r="AEF1" s="13"/>
+      <c r="AEG1" s="13"/>
+      <c r="AEH1" s="13"/>
+      <c r="AEI1" s="13"/>
+      <c r="AEJ1" s="13"/>
+      <c r="AEK1" s="13"/>
+      <c r="AEL1" s="13"/>
+      <c r="AEM1" s="13"/>
+      <c r="AEN1" s="13"/>
+      <c r="AEO1" s="13"/>
+      <c r="AEP1" s="13"/>
+      <c r="AEQ1" s="13"/>
+      <c r="AER1" s="13"/>
+      <c r="AES1" s="13"/>
+      <c r="AET1" s="13"/>
+      <c r="AEU1" s="13"/>
+      <c r="AEV1" s="13"/>
+      <c r="AEW1" s="13"/>
+      <c r="AEX1" s="13"/>
+      <c r="AEY1" s="13"/>
+      <c r="AEZ1" s="13"/>
+      <c r="AFA1" s="13"/>
+      <c r="AFB1" s="13"/>
+      <c r="AFC1" s="13"/>
+      <c r="AFD1" s="13"/>
+      <c r="AFE1" s="13"/>
+      <c r="AFF1" s="13"/>
+      <c r="AFG1" s="13"/>
+      <c r="AFH1" s="13"/>
+      <c r="AFI1" s="13"/>
+      <c r="AFJ1" s="13"/>
+      <c r="AFK1" s="13"/>
+      <c r="AFL1" s="13"/>
+      <c r="AFM1" s="13"/>
+      <c r="AFN1" s="13"/>
+      <c r="AFO1" s="13"/>
+      <c r="AFP1" s="13"/>
+      <c r="AFQ1" s="13"/>
+      <c r="AFR1" s="13"/>
+      <c r="AFS1" s="13"/>
+      <c r="AFT1" s="13"/>
+      <c r="AFU1" s="13"/>
+      <c r="AFV1" s="13"/>
+      <c r="AFW1" s="13"/>
+      <c r="AFX1" s="13"/>
+      <c r="AFY1" s="13"/>
+      <c r="AFZ1" s="13"/>
+      <c r="AGA1" s="13"/>
+      <c r="AGB1" s="13"/>
+      <c r="AGC1" s="13"/>
+      <c r="AGD1" s="13"/>
+      <c r="AGE1" s="13"/>
+      <c r="AGF1" s="13"/>
+      <c r="AGG1" s="13"/>
+      <c r="AGH1" s="13"/>
+      <c r="AGI1" s="13"/>
+      <c r="AGJ1" s="13"/>
+      <c r="AGK1" s="13"/>
+      <c r="AGL1" s="13"/>
+      <c r="AGM1" s="13"/>
+      <c r="AGN1" s="13"/>
+      <c r="AGO1" s="13"/>
+      <c r="AGP1" s="13"/>
+      <c r="AGQ1" s="13"/>
+      <c r="AGR1" s="13"/>
+      <c r="AGS1" s="13"/>
+      <c r="AGT1" s="13"/>
+      <c r="AGU1" s="13"/>
+      <c r="AGV1" s="13"/>
+      <c r="AGW1" s="13"/>
+      <c r="AGX1" s="13"/>
+      <c r="AGY1" s="13"/>
+      <c r="AGZ1" s="13"/>
+      <c r="AHA1" s="13"/>
+      <c r="AHB1" s="13"/>
+      <c r="AHC1" s="13"/>
+      <c r="AHD1" s="13"/>
+      <c r="AHE1" s="13"/>
+      <c r="AHF1" s="13"/>
+      <c r="AHG1" s="13"/>
+      <c r="AHH1" s="13"/>
+      <c r="AHI1" s="13"/>
+      <c r="AHJ1" s="13"/>
+      <c r="AHK1" s="13"/>
+      <c r="AHL1" s="13"/>
+      <c r="AHM1" s="13"/>
+      <c r="AHN1" s="13"/>
+      <c r="AHO1" s="13"/>
+      <c r="AHP1" s="13"/>
+      <c r="AHQ1" s="13"/>
+      <c r="AHR1" s="13"/>
+      <c r="AHS1" s="13"/>
+      <c r="AHT1" s="13"/>
+      <c r="AHU1" s="13"/>
+      <c r="AHV1" s="13"/>
+      <c r="AHW1" s="13"/>
+      <c r="AHX1" s="13"/>
+      <c r="AHY1" s="13"/>
+      <c r="AHZ1" s="13"/>
+      <c r="AIA1" s="13"/>
+      <c r="AIB1" s="13"/>
+      <c r="AIC1" s="13"/>
+      <c r="AID1" s="13"/>
+      <c r="AIE1" s="13"/>
+      <c r="AIF1" s="13"/>
+      <c r="AIG1" s="13"/>
+      <c r="AIH1" s="13"/>
+      <c r="AII1" s="13"/>
+      <c r="AIJ1" s="13"/>
+      <c r="AIK1" s="13"/>
+      <c r="AIL1" s="13"/>
+      <c r="AIM1" s="13"/>
+      <c r="AIN1" s="13"/>
+      <c r="AIO1" s="13"/>
+      <c r="AIP1" s="13"/>
+      <c r="AIQ1" s="13"/>
+      <c r="AIR1" s="13"/>
+      <c r="AIS1" s="13"/>
+      <c r="AIT1" s="13"/>
+      <c r="AIU1" s="13"/>
+      <c r="AIV1" s="13"/>
+      <c r="AIW1" s="13"/>
+      <c r="AIX1" s="13"/>
+      <c r="AIY1" s="13"/>
+      <c r="AIZ1" s="13"/>
+      <c r="AJA1" s="13"/>
+      <c r="AJB1" s="13"/>
+      <c r="AJC1" s="13"/>
+      <c r="AJD1" s="13"/>
+      <c r="AJE1" s="13"/>
+      <c r="AJF1" s="13"/>
+      <c r="AJG1" s="13"/>
+      <c r="AJH1" s="13"/>
+      <c r="AJI1" s="13"/>
+      <c r="AJJ1" s="13"/>
+      <c r="AJK1" s="13"/>
+      <c r="AJL1" s="13"/>
+      <c r="AJM1" s="13"/>
+      <c r="AJN1" s="13"/>
+      <c r="AJO1" s="13"/>
+      <c r="AJP1" s="13"/>
+      <c r="AJQ1" s="13"/>
+      <c r="AJR1" s="13"/>
+      <c r="AJS1" s="13"/>
+      <c r="AJT1" s="13"/>
+      <c r="AJU1" s="13"/>
+      <c r="AJV1" s="13"/>
+      <c r="AJW1" s="13"/>
+      <c r="AJX1" s="13"/>
+      <c r="AJY1" s="13"/>
+      <c r="AJZ1" s="13"/>
+      <c r="AKA1" s="13"/>
+      <c r="AKB1" s="13"/>
+      <c r="AKC1" s="13"/>
+      <c r="AKD1" s="13"/>
+      <c r="AKE1" s="13"/>
+      <c r="AKF1" s="13"/>
+      <c r="AKG1" s="13"/>
+      <c r="AKH1" s="13"/>
+      <c r="AKI1" s="13"/>
+      <c r="AKJ1" s="13"/>
+      <c r="AKK1" s="13"/>
+      <c r="AKL1" s="13"/>
+      <c r="AKM1" s="13"/>
+      <c r="AKN1" s="13"/>
+      <c r="AKO1" s="13"/>
+      <c r="AKP1" s="13"/>
+      <c r="AKQ1" s="13"/>
+      <c r="AKR1" s="13"/>
+      <c r="AKS1" s="13"/>
+      <c r="AKT1" s="13"/>
+      <c r="AKU1" s="13"/>
+      <c r="AKV1" s="13"/>
+      <c r="AKW1" s="13"/>
+      <c r="AKX1" s="13"/>
+      <c r="AKY1" s="13"/>
+      <c r="AKZ1" s="13"/>
+      <c r="ALA1" s="13"/>
+      <c r="ALB1" s="13"/>
+      <c r="ALC1" s="13"/>
+      <c r="ALD1" s="13"/>
+      <c r="ALE1" s="13"/>
+      <c r="ALF1" s="13"/>
+      <c r="ALG1" s="13"/>
+      <c r="ALH1" s="13"/>
+      <c r="ALI1" s="13"/>
+      <c r="ALJ1" s="13"/>
+      <c r="ALK1" s="13"/>
+      <c r="ALL1" s="13"/>
+      <c r="ALM1" s="13"/>
+      <c r="ALN1" s="13"/>
+      <c r="ALO1" s="13"/>
+      <c r="ALP1" s="13"/>
+      <c r="ALQ1" s="13"/>
+      <c r="ALR1" s="13"/>
+      <c r="ALS1" s="13"/>
+      <c r="ALT1" s="13"/>
+      <c r="ALU1" s="13"/>
+      <c r="ALV1" s="13"/>
+      <c r="ALW1" s="13"/>
+      <c r="ALX1" s="13"/>
+      <c r="ALY1" s="13"/>
+      <c r="ALZ1" s="13"/>
+      <c r="AMA1" s="13"/>
+      <c r="AMB1" s="13"/>
+      <c r="AMC1" s="13"/>
+      <c r="AMD1" s="13"/>
+      <c r="AME1" s="13"/>
+      <c r="AMF1" s="13"/>
+      <c r="AMG1" s="13"/>
+      <c r="AMH1" s="13"/>
+      <c r="AMI1" s="13"/>
+      <c r="AMJ1" s="13"/>
+      <c r="AMK1" s="13"/>
+      <c r="AML1" s="13"/>
+      <c r="AMM1" s="13"/>
+      <c r="AMN1" s="13"/>
+      <c r="AMO1" s="13"/>
+      <c r="AMP1" s="13"/>
+      <c r="AMQ1" s="13"/>
+      <c r="AMR1" s="13"/>
+      <c r="AMS1" s="13"/>
+      <c r="AMT1" s="13"/>
+      <c r="AMU1" s="13"/>
+      <c r="AMV1" s="13"/>
+      <c r="AMW1" s="13"/>
+      <c r="AMX1" s="13"/>
+      <c r="AMY1" s="13"/>
+      <c r="AMZ1" s="13"/>
+      <c r="ANA1" s="13"/>
+      <c r="ANB1" s="13"/>
+      <c r="ANC1" s="13"/>
+      <c r="AND1" s="13"/>
+      <c r="ANE1" s="13"/>
+      <c r="ANF1" s="13"/>
+      <c r="ANG1" s="13"/>
+      <c r="ANH1" s="13"/>
+      <c r="ANI1" s="13"/>
+      <c r="ANJ1" s="13"/>
+      <c r="ANK1" s="13"/>
+      <c r="ANL1" s="13"/>
     </row>
-    <row r="2" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:58">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6">
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8">
         <v>7709</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="8">
         <v>7414.05</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="8">
         <v>7400</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>7478.26</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <v>7489.89</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="8">
         <v>7760</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="8">
         <v>7517.05</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="8">
         <v>7474.38</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="8">
         <v>7656.73</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="8">
         <v>7245.45</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="8">
         <v>7462.74</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="8">
         <v>7474.37</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="8">
         <f t="shared" ref="P2:P16" si="0">SUM(D2:O2)</f>
-        <v>90081.919999999998</v>
-      </c>
-      <c r="Q2" s="6">
+        <v>90081.92</v>
+      </c>
+      <c r="Q2" s="8">
         <v>12359.3</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="8">
         <v>12271.99</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="8">
         <v>12469.87</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="8">
         <v>12458.24</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="8">
         <v>12434.95</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="8">
         <v>12634.95</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="8">
         <v>11501.73</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="8">
         <v>10823.46</v>
       </c>
-      <c r="Y2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="6">
+      <c r="Y2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="8">
         <v>7099.86</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="8">
         <v>7875.71</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="8">
         <v>11586.58</v>
       </c>
       <c r="AC2" s="3">
@@ -4138,7 +4771,7 @@
         <v>13025.09</v>
       </c>
       <c r="AG2" s="3">
-        <v>17572.189999999999</v>
+        <v>17572.19</v>
       </c>
       <c r="AH2" s="3">
         <v>13221.36</v>
@@ -4147,7 +4780,7 @@
         <v>12308.25</v>
       </c>
       <c r="AJ2" s="3">
-        <v>16652.919999999998</v>
+        <v>16652.92</v>
       </c>
       <c r="AK2" s="3">
         <v>12614.36</v>
@@ -4156,7 +4789,7 @@
         <v>12673.76</v>
       </c>
       <c r="AM2" s="3">
-        <v>16712.560000000001</v>
+        <v>16712.56</v>
       </c>
       <c r="AN2" s="3">
         <v>12457.15</v>
@@ -4212,15 +4845,18 @@
         <v>40341</v>
       </c>
       <c r="BE2" s="3">
-        <f>SUM(BD2)</f>
-        <v>40341</v>
+        <v>17061</v>
+      </c>
+      <c r="BF2" s="3">
+        <f>SUM(BD2:BE2)</f>
+        <v>57402</v>
       </c>
     </row>
-    <row r="3" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
+    <row r="3" spans="1:58">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -4258,7 +4894,7 @@
       <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4280,27 +4916,27 @@
       <c r="V3" s="3">
         <v>0</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="8">
         <v>407</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="8">
         <v>911.2</v>
       </c>
-      <c r="Y3" s="6">
-        <v>316.60000000000002</v>
-      </c>
-      <c r="Z3" s="6">
+      <c r="Y3" s="8">
+        <v>316.6</v>
+      </c>
+      <c r="Z3" s="8">
         <v>121.4</v>
       </c>
-      <c r="AA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
+      <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
         <v>0</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" si="1"/>
-        <v>1756.2000000000003</v>
+        <v>1756.2</v>
       </c>
       <c r="AD3" s="3">
         <v>0</v>
@@ -4324,10 +4960,10 @@
         <v>189.6</v>
       </c>
       <c r="AK3" s="3">
-        <v>262.60000000000002</v>
+        <v>262.6</v>
       </c>
       <c r="AL3" s="3">
-        <v>268.89999999999998</v>
+        <v>268.9</v>
       </c>
       <c r="AM3" s="3">
         <v>736.3</v>
@@ -4380,96 +5016,99 @@
       </c>
       <c r="BC3" s="3">
         <f t="shared" ref="BC3:BE16" si="3">SUM(AQ3:BB3)</f>
-        <v>682.40000000000009</v>
+        <v>682.4</v>
       </c>
       <c r="BD3" s="3">
         <v>0</v>
       </c>
       <c r="BE3" s="3">
-        <f t="shared" ref="BE3:BE16" si="4">SUM(BD3)</f>
+        <v>0</v>
+      </c>
+      <c r="BF3" s="3">
+        <f t="shared" ref="BF3:BF16" si="4">SUM(BD3:BE3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="6">
+    <row r="4" spans="1:58">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8">
         <v>44.33</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <v>464.11</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <v>481.18</v>
       </c>
-      <c r="J4" s="6">
-        <v>530.79999999999995</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="J4" s="8">
+        <v>530.8</v>
+      </c>
+      <c r="K4" s="8">
         <v>462.06</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="8">
         <v>878.35</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="8">
         <v>39.4</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="8">
         <v>148.5</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="8">
         <v>38130</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="8">
         <f t="shared" si="0"/>
-        <v>41178.730000000003</v>
-      </c>
-      <c r="Q4" s="6">
+        <v>41178.73</v>
+      </c>
+      <c r="Q4" s="8">
         <v>638</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="8">
         <v>88</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="8">
         <v>1172.99</v>
       </c>
       <c r="T4" s="3">
         <v>3000</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="8">
         <v>75</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="8">
         <v>4000</v>
       </c>
-      <c r="W4" s="6">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="X4" s="6">
+      <c r="W4" s="8">
+        <v>19.94</v>
+      </c>
+      <c r="X4" s="8">
         <v>5346</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="8">
         <v>15.33</v>
       </c>
-      <c r="Z4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="6">
+      <c r="Z4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="8">
         <v>127.4</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="8">
         <v>1561.8</v>
       </c>
       <c r="AC4" s="3">
@@ -4542,7 +5181,7 @@
         <v>47.56</v>
       </c>
       <c r="AY4" s="3">
-        <v>1069.3599999999999</v>
+        <v>1069.36</v>
       </c>
       <c r="AZ4" s="3">
         <v>15.49</v>
@@ -4561,15 +5200,18 @@
         <v>180.54</v>
       </c>
       <c r="BE4" s="3">
+        <v>95.33</v>
+      </c>
+      <c r="BF4" s="3">
         <f t="shared" si="4"/>
-        <v>180.54</v>
+        <v>275.87</v>
       </c>
     </row>
-    <row r="5" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
+    <row r="5" spans="1:58">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -4592,22 +5234,22 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="8">
         <v>12000</v>
       </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -4617,13 +5259,13 @@
       <c r="R5" s="3">
         <v>0</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="8">
         <v>8000</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="8">
         <v>1500</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="8">
         <v>1500</v>
       </c>
       <c r="V5" s="3">
@@ -4735,15 +5377,18 @@
         <v>0</v>
       </c>
       <c r="BE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7" t="s">
-        <v>31</v>
+    <row r="6" spans="1:58">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -4760,10 +5405,10 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <v>1473.3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>0</v>
       </c>
       <c r="K6" s="3">
@@ -4772,16 +5417,16 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="8">
         <v>1636</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="8">
         <v>400</v>
       </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="O6" s="8">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
         <f t="shared" si="0"/>
         <v>3509.3</v>
       </c>
@@ -4803,7 +5448,7 @@
       <c r="V6" s="3">
         <v>0</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="8">
         <v>1803.1</v>
       </c>
       <c r="X6" s="3">
@@ -4909,15 +5554,18 @@
         <v>0</v>
       </c>
       <c r="BE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
+    <row r="7" spans="1:58">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -4934,28 +5582,28 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8">
         <v>1296</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="8">
         <v>0</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="8">
         <v>1944</v>
       </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
         <v>1944</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="8">
         <f t="shared" si="0"/>
         <v>5184</v>
       </c>
@@ -4965,34 +5613,34 @@
       <c r="R7" s="3">
         <v>0</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="8">
         <v>1944</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="8">
         <v>648</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="8">
         <v>648</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="8">
         <v>648</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="8">
         <v>648</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="8">
         <v>648</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="8">
         <v>648</v>
       </c>
-      <c r="Z7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="6">
+      <c r="Z7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
         <v>0</v>
       </c>
       <c r="AC7" s="3">
@@ -5083,15 +5731,18 @@
         <v>0</v>
       </c>
       <c r="BE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7" t="s">
-        <v>33</v>
+    <row r="8" spans="1:58">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -5129,7 +5780,7 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="8">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
@@ -5151,7 +5802,7 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="8">
         <v>70000</v>
       </c>
       <c r="X8" s="3">
@@ -5257,15 +5908,18 @@
         <v>0</v>
       </c>
       <c r="BE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
+    <row r="9" spans="1:58">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ref="D9:O9" si="5">SUM(D2:D8)</f>
@@ -5297,7 +5951,7 @@
       </c>
       <c r="K9" s="3">
         <f t="shared" si="5"/>
-        <v>19936.440000000002</v>
+        <v>19936.44</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="5"/>
@@ -5305,7 +5959,7 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" si="5"/>
-        <v>8920.8499999999985</v>
+        <v>8920.85</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="5"/>
@@ -5315,9 +5969,9 @@
         <f t="shared" si="5"/>
         <v>47548.37</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="8">
         <f t="shared" si="0"/>
-        <v>201953.94999999998</v>
+        <v>201953.95</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" ref="Q9:AB9" si="6">SUM(Q2:Q8)</f>
@@ -5333,7 +5987,7 @@
       </c>
       <c r="T9" s="3">
         <f t="shared" si="6"/>
-        <v>17606.239999999998</v>
+        <v>17606.24</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="6"/>
@@ -5353,11 +6007,11 @@
       </c>
       <c r="Y9" s="3">
         <f t="shared" si="6"/>
-        <v>979.93000000000006</v>
+        <v>979.93</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" si="6"/>
-        <v>7221.2599999999993</v>
+        <v>7221.26</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" si="6"/>
@@ -5381,7 +6035,7 @@
       </c>
       <c r="AF9" s="3">
         <f t="shared" si="7"/>
-        <v>44012.229999999996</v>
+        <v>44012.23</v>
       </c>
       <c r="AG9" s="3">
         <f t="shared" si="7"/>
@@ -5397,11 +6051,11 @@
       </c>
       <c r="AJ9" s="3">
         <f t="shared" si="7"/>
-        <v>20539.099999999999</v>
+        <v>20539.1</v>
       </c>
       <c r="AK9" s="3">
         <f t="shared" si="7"/>
-        <v>13241.560000000001</v>
+        <v>13241.56</v>
       </c>
       <c r="AL9" s="3">
         <f t="shared" si="7"/>
@@ -5429,7 +6083,7 @@
       </c>
       <c r="AR9" s="3">
         <f t="shared" si="8"/>
-        <v>14509.880000000001</v>
+        <v>14509.88</v>
       </c>
       <c r="AS9" s="3">
         <f t="shared" si="8"/>
@@ -5441,7 +6095,7 @@
       </c>
       <c r="AU9" s="3">
         <f t="shared" si="8"/>
-        <v>16719.419999999998</v>
+        <v>16719.42</v>
       </c>
       <c r="AV9" s="3">
         <f t="shared" si="8"/>
@@ -5469,108 +6123,112 @@
       </c>
       <c r="BB9" s="3">
         <f t="shared" si="8"/>
-        <v>27872.010000000002</v>
+        <v>27872.01</v>
       </c>
       <c r="BC9" s="3">
         <f t="shared" si="3"/>
-        <v>209455.46999999997</v>
+        <v>209455.47</v>
       </c>
       <c r="BD9" s="3">
         <f>SUM(BD2:BD8)</f>
         <v>40521.54</v>
       </c>
       <c r="BE9" s="3">
+        <f>SUM(BE2:BE8)</f>
+        <v>17156.33</v>
+      </c>
+      <c r="BF9" s="3">
         <f t="shared" si="4"/>
-        <v>40521.54</v>
+        <v>57677.87</v>
       </c>
     </row>
-    <row r="10" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:58">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6">
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8">
         <v>2401</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>2029.83</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>1375.56</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="8">
         <v>2699.75</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <v>3113.23</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
         <v>3190.37</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="8">
         <v>1404.08</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="8">
         <v>1836.61</v>
       </c>
-      <c r="L10" s="6">
-        <v>1146.8800000000001</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="L10" s="8">
+        <v>1146.88</v>
+      </c>
+      <c r="M10" s="8">
         <v>3626.41</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="8">
         <v>1715.16</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="8">
         <v>1728.63</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="8">
         <f t="shared" si="0"/>
         <v>26267.51</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="8">
         <v>4512.24</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="8">
         <v>969.37</v>
       </c>
-      <c r="S10" s="6">
-        <v>2381.5500000000002</v>
-      </c>
-      <c r="T10" s="6">
+      <c r="S10" s="8">
+        <v>2381.55</v>
+      </c>
+      <c r="T10" s="8">
         <v>6214.7</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="8">
         <v>3004.41</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="8">
         <v>9534.9</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="8">
         <v>10480.42</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="8">
         <v>6134.28</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="8">
         <v>5677.38</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="8">
         <v>2489.12</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="8">
         <v>2616.23</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="8">
         <v>1434.68</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" si="1"/>
-        <v>55449.279999999999</v>
+        <v>55449.28</v>
       </c>
       <c r="AD10" s="3">
         <f>1048.17+274.92+609.16</f>
@@ -5586,7 +6244,7 @@
         <v>3176.72</v>
       </c>
       <c r="AH10" s="3">
-        <v>8531.2999999999993</v>
+        <v>8531.3</v>
       </c>
       <c r="AI10" s="3">
         <v>9319</v>
@@ -5614,7 +6272,7 @@
         <v>54371.28</v>
       </c>
       <c r="AQ10" s="3">
-        <v>1160.6400000000001</v>
+        <v>1160.64</v>
       </c>
       <c r="AR10" s="3">
         <v>479.58</v>
@@ -5623,7 +6281,7 @@
         <v>859.67</v>
       </c>
       <c r="AT10" s="3">
-        <v>4141.5600000000004</v>
+        <v>4141.56</v>
       </c>
       <c r="AU10" s="3">
         <v>3925.6</v>
@@ -5644,7 +6302,7 @@
         <v>3030.58</v>
       </c>
       <c r="BA10" s="3">
-        <v>9615.9699999999993</v>
+        <v>9615.97</v>
       </c>
       <c r="BB10" s="3">
         <v>1855.15</v>
@@ -5657,69 +6315,72 @@
         <v>1051.08</v>
       </c>
       <c r="BE10" s="3">
+        <v>4276.5</v>
+      </c>
+      <c r="BF10" s="3">
         <f t="shared" si="4"/>
-        <v>1051.08</v>
+        <v>5327.58</v>
       </c>
     </row>
-    <row r="11" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6">
+    <row r="11" spans="1:58">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8">
         <v>1230</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>3690</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>708.5</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <v>3962</v>
       </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
         <v>4285</v>
       </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
         <v>373</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="8">
         <v>3690</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="8">
         <v>339</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="8">
         <f t="shared" si="0"/>
         <v>18277.5</v>
       </c>
       <c r="Q11" s="3">
         <v>0</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="8">
         <v>1700</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="8">
         <v>5190</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="8">
         <v>5467</v>
       </c>
       <c r="V11" s="3">
@@ -5831,72 +6492,75 @@
         <v>0</v>
       </c>
       <c r="BE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
+    <row r="12" spans="1:58">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
         <v>800</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>200</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="8">
         <v>50</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="8">
         <v>34.4</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
         <v>121</v>
       </c>
-      <c r="J12" s="6">
-        <v>315.77999999999997</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="J12" s="8">
+        <v>315.78</v>
+      </c>
+      <c r="K12" s="8">
         <v>287.5</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="8">
         <v>29</v>
       </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
         <f t="shared" si="0"/>
         <v>1837.68</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="8">
         <v>454.7</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="8">
         <v>663.4</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="8">
         <v>373</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="8">
         <v>89</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="8">
         <v>573</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="8">
         <v>217</v>
       </c>
       <c r="W12" s="3">
@@ -5915,7 +6579,7 @@
         <v>118.42</v>
       </c>
       <c r="AB12" s="3">
-        <v>610.08000000000004</v>
+        <v>610.08</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" si="1"/>
@@ -5926,13 +6590,13 @@
         <v>354.78</v>
       </c>
       <c r="AE12" s="3">
-        <v>302.20999999999998</v>
+        <v>302.21</v>
       </c>
       <c r="AF12" s="3">
         <v>2109.27</v>
       </c>
       <c r="AG12" s="3">
-        <v>80444.399999999994</v>
+        <v>80444.4</v>
       </c>
       <c r="AH12" s="3">
         <v>2000</v>
@@ -5960,7 +6624,7 @@
       </c>
       <c r="AP12" s="3">
         <f t="shared" si="2"/>
-        <v>106012.45999999999</v>
+        <v>106012.46</v>
       </c>
       <c r="AQ12" s="3">
         <v>898.18</v>
@@ -5969,7 +6633,7 @@
         <v>795.43</v>
       </c>
       <c r="AS12" s="3">
-        <v>163.36000000000001</v>
+        <v>163.36</v>
       </c>
       <c r="AT12" s="3">
         <v>208.65</v>
@@ -5978,7 +6642,7 @@
         <v>273.73</v>
       </c>
       <c r="AV12" s="3">
-        <v>604.92999999999995</v>
+        <v>604.93</v>
       </c>
       <c r="AW12" s="3">
         <v>909.98</v>
@@ -6000,21 +6664,24 @@
       </c>
       <c r="BC12" s="3">
         <f t="shared" si="3"/>
-        <v>19627.920000000002</v>
+        <v>19627.92</v>
       </c>
       <c r="BD12" s="3">
         <v>6485.84</v>
       </c>
       <c r="BE12" s="3">
+        <v>3462.32</v>
+      </c>
+      <c r="BF12" s="3">
         <f t="shared" si="4"/>
-        <v>6485.84</v>
+        <v>9948.16</v>
       </c>
     </row>
-    <row r="13" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="7" t="s">
-        <v>39</v>
+    <row r="13" spans="1:58">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -6052,14 +6719,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="8">
         <v>5000</v>
       </c>
       <c r="S13" s="3">
@@ -6180,53 +6847,56 @@
         <v>0</v>
       </c>
       <c r="BE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="6">
+    <row r="14" spans="1:58">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8">
         <v>3267.55</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>3332.9</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>3399.55</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -6354,15 +7024,18 @@
         <v>0</v>
       </c>
       <c r="BE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
+    <row r="15" spans="1:58">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ref="D15:O15" si="9">SUM(D10:D14)</f>
@@ -6374,7 +7047,7 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="9"/>
-        <v>5683.6100000000006</v>
+        <v>5683.61</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="9"/>
@@ -6382,7 +7055,7 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="9"/>
-        <v>7109.6299999999992</v>
+        <v>7109.63</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
@@ -6398,7 +7071,7 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="9"/>
-        <v>1175.8800000000001</v>
+        <v>1175.88</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="9"/>
@@ -6412,13 +7085,13 @@
         <f t="shared" si="9"/>
         <v>2067.63</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="8">
         <f t="shared" si="0"/>
-        <v>56382.689999999995</v>
+        <v>56382.69</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" ref="Q15:AB15" si="10">SUM(Q10:Q14)</f>
-        <v>4966.9399999999996</v>
+        <v>4966.94</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" si="10"/>
@@ -6454,11 +7127,11 @@
       </c>
       <c r="Z15" s="3">
         <f t="shared" si="10"/>
-        <v>2520.0499999999997</v>
+        <v>2520.05</v>
       </c>
       <c r="AA15" s="3">
         <f t="shared" si="10"/>
-        <v>16734.650000000001</v>
+        <v>16734.65</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" si="10"/>
@@ -6466,11 +7139,11 @@
       </c>
       <c r="AC15" s="3">
         <f t="shared" si="1"/>
-        <v>201562.06999999998</v>
+        <v>201562.07</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ref="AD15:AO15" si="11">SUM(AD10:AD14)</f>
-        <v>2287.0299999999997</v>
+        <v>2287.03</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" si="11"/>
@@ -6482,7 +7155,7 @@
       </c>
       <c r="AG15" s="3">
         <f t="shared" si="11"/>
-        <v>96621.119999999995</v>
+        <v>96621.12</v>
       </c>
       <c r="AH15" s="3">
         <f t="shared" si="11"/>
@@ -6502,7 +7175,7 @@
       </c>
       <c r="AL15" s="3">
         <f t="shared" si="11"/>
-        <v>2893.7400000000002</v>
+        <v>2893.74</v>
       </c>
       <c r="AM15" s="3">
         <f t="shared" si="11"/>
@@ -6518,7 +7191,7 @@
       </c>
       <c r="AP15" s="3">
         <f t="shared" si="2"/>
-        <v>186750.23999999996</v>
+        <v>186750.24</v>
       </c>
       <c r="AQ15" s="3">
         <f t="shared" ref="AQ15:BB15" si="12">SUM(AQ10:AQ14)</f>
@@ -6542,7 +7215,7 @@
       </c>
       <c r="AV15" s="3">
         <f t="shared" si="12"/>
-        <v>6524.4900000000007</v>
+        <v>6524.49</v>
       </c>
       <c r="AW15" s="3">
         <f t="shared" si="12"/>
@@ -6577,23 +7250,27 @@
         <v>7536.92</v>
       </c>
       <c r="BE15" s="3">
+        <f>SUM(BE10:BE14)</f>
+        <v>7738.82</v>
+      </c>
+      <c r="BF15" s="3">
         <f t="shared" si="4"/>
-        <v>7536.92</v>
+        <v>15275.74</v>
       </c>
     </row>
-    <row r="16" spans="1:1051" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="12"/>
+    <row r="16" spans="1:58">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="D16" s="3">
         <f t="shared" ref="D16:O16" si="13">D9-D15</f>
-        <v>854.77999999999975</v>
+        <v>854.78</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="13"/>
-        <v>-2438.6799999999994</v>
+        <v>-2438.68</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="13"/>
@@ -6605,7 +7282,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" si="13"/>
-        <v>844.3700000000008</v>
+        <v>844.370000000001</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="13"/>
@@ -6613,19 +7290,19 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="13"/>
-        <v>6327.9900000000007</v>
+        <v>6327.99</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="13"/>
-        <v>13527.330000000002</v>
+        <v>13527.33</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="13"/>
-        <v>9303.2000000000007</v>
+        <v>9303.2</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="13"/>
-        <v>4921.4399999999987</v>
+        <v>4921.44</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="13"/>
@@ -6633,9 +7310,9 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" si="13"/>
-        <v>45480.740000000005</v>
-      </c>
-      <c r="P16" s="6">
+        <v>45480.74</v>
+      </c>
+      <c r="P16" s="8">
         <f t="shared" si="0"/>
         <v>145571.26</v>
       </c>
@@ -6645,31 +7322,31 @@
       </c>
       <c r="R16" s="3">
         <f t="shared" si="14"/>
-        <v>4027.2199999999993</v>
+        <v>4027.22</v>
       </c>
       <c r="S16" s="3">
         <f t="shared" si="14"/>
-        <v>15642.310000000001</v>
+        <v>15642.31</v>
       </c>
       <c r="T16" s="3">
         <f t="shared" si="14"/>
-        <v>11302.539999999997</v>
+        <v>11302.54</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="14"/>
-        <v>5613.5400000000009</v>
+        <v>5613.54</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" si="14"/>
-        <v>7531.0500000000011</v>
+        <v>7531.05</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" si="14"/>
-        <v>-34267.409999999989</v>
+        <v>-34267.41</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" si="14"/>
-        <v>10754.380000000001</v>
+        <v>10754.38</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" si="14"/>
@@ -6677,19 +7354,19 @@
       </c>
       <c r="Z16" s="3">
         <f t="shared" si="14"/>
-        <v>4701.2099999999991</v>
+        <v>4701.21</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" si="14"/>
-        <v>-8731.5400000000009</v>
+        <v>-8731.54</v>
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="14"/>
-        <v>10303.619999999999</v>
+        <v>10303.62</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="1"/>
-        <v>29390.330000000005</v>
+        <v>29390.33</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ref="AD16:AO16" si="15">AD9-AD15</f>
@@ -6701,11 +7378,11 @@
       </c>
       <c r="AF16" s="3">
         <f t="shared" si="15"/>
-        <v>38315.279999999999</v>
+        <v>38315.28</v>
       </c>
       <c r="AG16" s="3">
         <f t="shared" si="15"/>
-        <v>-56137.079999999994</v>
+        <v>-56137.08</v>
       </c>
       <c r="AH16" s="3">
         <f t="shared" si="15"/>
@@ -6713,15 +7390,15 @@
       </c>
       <c r="AI16" s="3">
         <f t="shared" si="15"/>
-        <v>1747.5400000000009</v>
+        <v>1747.54</v>
       </c>
       <c r="AJ16" s="3">
         <f t="shared" si="15"/>
-        <v>1262.2299999999996</v>
+        <v>1262.23</v>
       </c>
       <c r="AK16" s="3">
         <f t="shared" si="15"/>
-        <v>6130.8700000000017</v>
+        <v>6130.87</v>
       </c>
       <c r="AL16" s="3">
         <f t="shared" si="15"/>
@@ -6729,11 +7406,11 @@
       </c>
       <c r="AM16" s="3">
         <f t="shared" si="15"/>
-        <v>6458.5599999999995</v>
+        <v>6458.56</v>
       </c>
       <c r="AN16" s="3">
         <f t="shared" si="15"/>
-        <v>9923.3799999999992</v>
+        <v>9923.38</v>
       </c>
       <c r="AO16" s="3">
         <f t="shared" si="15"/>
@@ -6753,19 +7430,19 @@
       </c>
       <c r="AS16" s="3">
         <f t="shared" si="16"/>
-        <v>15334.429999999998</v>
+        <v>15334.43</v>
       </c>
       <c r="AT16" s="3">
         <f t="shared" si="16"/>
-        <v>10254.459999999999</v>
+        <v>10254.46</v>
       </c>
       <c r="AU16" s="3">
         <f t="shared" si="16"/>
-        <v>12520.089999999998</v>
+        <v>12520.09</v>
       </c>
       <c r="AV16" s="3">
         <f t="shared" si="16"/>
-        <v>10492.969999999998</v>
+        <v>10492.97</v>
       </c>
       <c r="AW16" s="3">
         <f t="shared" si="16"/>
@@ -6777,7 +7454,7 @@
       </c>
       <c r="AY16" s="3">
         <f t="shared" si="16"/>
-        <v>1154.8700000000008</v>
+        <v>1154.87</v>
       </c>
       <c r="AZ16" s="3">
         <f t="shared" si="16"/>
@@ -6789,7 +7466,7 @@
       </c>
       <c r="BB16" s="3">
         <f t="shared" si="16"/>
-        <v>24266.390000000003</v>
+        <v>24266.39</v>
       </c>
       <c r="BC16" s="3">
         <f t="shared" si="3"/>
@@ -6797,95 +7474,99 @@
       </c>
       <c r="BD16" s="3">
         <f>BD9-BD15</f>
-        <v>32984.620000000003</v>
+        <v>32984.62</v>
       </c>
       <c r="BE16" s="3">
+        <f>BE9-BE15</f>
+        <v>9417.51</v>
+      </c>
+      <c r="BF16" s="3">
         <f t="shared" si="4"/>
-        <v>32984.620000000003</v>
+        <v>42402.13</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:57">
+      <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="6">
+      <c r="C17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8">
         <v>33513</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>24751.65</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>12634.85</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="8">
         <v>15093.47</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="8">
         <v>20420.09</v>
       </c>
-      <c r="I17" s="6">
-        <v>17543.490000000002</v>
-      </c>
-      <c r="J17" s="6">
-        <v>18868.080000000002</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="I17" s="8">
+        <v>17543.49</v>
+      </c>
+      <c r="J17" s="8">
+        <v>18868.08</v>
+      </c>
+      <c r="K17" s="8">
         <v>14888.84</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="8">
         <v>14978.06</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="8">
         <v>15287.33</v>
       </c>
-      <c r="N17" s="6">
-        <v>18661.650000000001</v>
-      </c>
-      <c r="O17" s="6">
+      <c r="N17" s="8">
+        <v>18661.65</v>
+      </c>
+      <c r="O17" s="8">
         <v>16076.11</v>
       </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8">
         <v>15240.57</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="8">
         <v>12701.39</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="8">
         <v>9350.41</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="8">
         <v>14222.96</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="8">
         <v>18253.05</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="8">
         <v>23645.57</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="8">
         <v>19546.21</v>
       </c>
-      <c r="X17" s="6">
-        <v>19342.560000000001</v>
-      </c>
-      <c r="Y17" s="6">
+      <c r="X17" s="8">
+        <v>19342.56</v>
+      </c>
+      <c r="Y17" s="8">
         <v>8015.72</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="Z17" s="8">
         <v>8114.54</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="8">
         <v>8847.98</v>
       </c>
-      <c r="AB17" s="6">
-        <v>8655.3700000000008</v>
+      <c r="AB17" s="8">
+        <v>8655.37</v>
       </c>
       <c r="AD17" s="3">
         <v>6924.04</v>
@@ -6962,84 +7643,87 @@
       <c r="BD17" s="3">
         <v>0</v>
       </c>
+      <c r="BE17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="6">
+    <row r="18" spans="1:57">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8">
         <v>24162</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>11155.93</v>
       </c>
-      <c r="F18" s="6">
-        <v>37081.440000000002</v>
-      </c>
-      <c r="G18" s="6">
-        <v>8361.0400000000009</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="F18" s="8">
+        <v>37081.44</v>
+      </c>
+      <c r="G18" s="8">
+        <v>8361.04</v>
+      </c>
+      <c r="H18" s="8">
         <v>7792.74</v>
       </c>
-      <c r="I18" s="6">
-        <v>9341.4699999999993</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="I18" s="8">
+        <v>9341.47</v>
+      </c>
+      <c r="J18" s="8">
         <v>7021.05</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="8">
         <v>12564.52</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="8">
         <v>6163.61</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="8">
         <v>3693.43</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="8">
         <v>1889.28</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="8">
         <v>49351.22</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8">
         <v>1267.53</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="8">
         <v>29512.69</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="8">
         <v>14141.27</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="8">
         <v>13952.84</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="8">
         <v>16678.45</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="8">
         <v>21344.31</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="8">
         <v>7678.26</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="8">
         <v>9513.39</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="8">
         <v>13126.19</v>
       </c>
-      <c r="Z18" s="6">
-        <v>570.70000000000005</v>
-      </c>
-      <c r="AA18" s="6">
+      <c r="Z18" s="8">
+        <v>570.7</v>
+      </c>
+      <c r="AA18" s="8">
         <v>6710.55</v>
       </c>
-      <c r="AB18" s="6">
+      <c r="AB18" s="8">
         <v>6697.56</v>
       </c>
       <c r="AD18" s="3">
@@ -7053,10 +7737,10 @@
         <v>44830.93</v>
       </c>
       <c r="AG18" s="3">
-        <v>1083.5999999999999</v>
+        <v>1083.6</v>
       </c>
       <c r="AH18" s="3">
-        <v>2304.4699999999998</v>
+        <v>2304.47</v>
       </c>
       <c r="AI18" s="3">
         <v>302.94</v>
@@ -7071,7 +7755,7 @@
         <v>34333.26</v>
       </c>
       <c r="AM18" s="3">
-        <v>40325.919999999998</v>
+        <v>40325.92</v>
       </c>
       <c r="AN18" s="3">
         <v>50516.49</v>
@@ -7083,7 +7767,7 @@
         <v>65999.83</v>
       </c>
       <c r="AR18" s="3">
-        <v>79183.149999999994</v>
+        <v>79183.15</v>
       </c>
       <c r="AS18" s="3">
         <v>88674.81</v>
@@ -7101,7 +7785,7 @@
         <v>142000</v>
       </c>
       <c r="AX18" s="3">
-        <v>157058.60999999999</v>
+        <v>157058.61</v>
       </c>
       <c r="AY18" s="3">
         <v>157089.85</v>
@@ -7118,84 +7802,87 @@
       <c r="BD18" s="3">
         <v>218347.78</v>
       </c>
+      <c r="BE18" s="3">
+        <v>239463.99</v>
+      </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
+    <row r="19" spans="1:57">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>20000</v>
       </c>
-      <c r="G19" s="6">
-        <v>20051.439999999999</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
-        <v>0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0</v>
-      </c>
-      <c r="V19" s="6">
-        <v>0</v>
-      </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
-      <c r="X19" s="6">
+      <c r="G19" s="8">
+        <v>20051.44</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="8">
         <v>4009.06</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="8">
         <v>6015.57</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="8">
         <v>16029.84</v>
       </c>
-      <c r="AA19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="6">
+      <c r="AA19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="8">
         <v>6011.43</v>
       </c>
       <c r="AD19" s="3">
@@ -7273,84 +7960,87 @@
       <c r="BD19" s="3">
         <v>29471.97</v>
       </c>
+      <c r="BE19" s="3">
+        <v>29771.97</v>
+      </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6">
+    <row r="20" spans="1:57">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8">
         <v>3580.23</v>
       </c>
-      <c r="R20" s="6">
-        <v>4451.5200000000004</v>
-      </c>
-      <c r="S20" s="6">
+      <c r="R20" s="8">
+        <v>4451.52</v>
+      </c>
+      <c r="S20" s="8">
         <v>4647.49</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="8">
         <v>2252.86</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="8">
         <v>1598.05</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="8">
         <v>859.81</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="6">
-        <v>2106.7600000000002</v>
-      </c>
-      <c r="Y20" s="6">
+      <c r="X20" s="8">
+        <v>2106.76</v>
+      </c>
+      <c r="Y20" s="8">
         <v>2786.56</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="Z20" s="8">
         <v>3531.46</v>
       </c>
-      <c r="AA20" s="6">
-        <v>4313.3599999999997</v>
-      </c>
-      <c r="AB20" s="6">
+      <c r="AA20" s="8">
+        <v>4313.36</v>
+      </c>
+      <c r="AB20" s="8">
         <v>5662.84</v>
       </c>
       <c r="AD20" s="3">
@@ -7390,7 +8080,7 @@
         <v>10200.4</v>
       </c>
       <c r="AQ20" s="3">
-        <v>10063.200000000001</v>
+        <v>10063.2</v>
       </c>
       <c r="AR20" s="3">
         <v>5453.28</v>
@@ -7411,7 +8101,7 @@
         <v>5240.2</v>
       </c>
       <c r="AX20" s="3">
-        <v>5216.3999999999996</v>
+        <v>5216.4</v>
       </c>
       <c r="AY20" s="3">
         <v>5296.2</v>
@@ -7428,50 +8118,53 @@
       <c r="BD20" s="3">
         <v>5696.6</v>
       </c>
+      <c r="BE20" s="3">
+        <v>5837.67</v>
+      </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="6">
+    <row r="21" spans="1:57">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="8">
         <v>10009.5</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="8">
         <v>30022.74</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>19984.47</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="8">
         <v>19998.32</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6"/>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8"/>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
@@ -7583,84 +8276,87 @@
       <c r="BD21" s="3">
         <v>0</v>
       </c>
+      <c r="BE21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="6">
+    <row r="22" spans="1:57">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8">
         <v>28940</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="8">
         <v>43024.44</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8">
         <v>72264.17</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="8">
         <v>96752.12</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="8">
         <v>126725.83</v>
       </c>
-      <c r="I22" s="6">
-        <v>143531.51999999999</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="I22" s="8">
+        <v>143531.52</v>
+      </c>
+      <c r="J22" s="8">
         <v>136197.87</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="8">
         <v>157196.16</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="8">
         <v>171682.53</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="8">
         <v>188902.16</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="8">
         <v>185183.64</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="8">
         <v>201931.89</v>
       </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6">
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8">
         <v>245166.97</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="8">
         <v>236862.74</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="8">
         <v>253011.81</v>
       </c>
-      <c r="T22" s="6">
-        <v>287422.03999999998</v>
-      </c>
-      <c r="U22" s="6">
+      <c r="T22" s="8">
+        <v>287422.04</v>
+      </c>
+      <c r="U22" s="8">
         <v>312091.25</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="8">
         <v>358454.98</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="8">
         <v>369739.11</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="8">
         <v>354784.18</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="8">
         <v>352905.69</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="8">
         <v>371385.53</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="8">
         <v>382911.99</v>
       </c>
-      <c r="AB22" s="6">
+      <c r="AB22" s="8">
         <v>399438.3</v>
       </c>
       <c r="AD22" s="3">
@@ -7738,288 +8434,295 @@
       <c r="BD22" s="3">
         <v>429500.26</v>
       </c>
+      <c r="BE22" s="3">
+        <v>438613.35</v>
+      </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="8">
+    <row r="23" spans="1:57">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="11">
         <f t="shared" ref="D23:O23" si="17">SUM(D17:D22)</f>
         <v>96624.5</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="11">
         <f t="shared" si="17"/>
-        <v>108954.76000000001</v>
-      </c>
-      <c r="F23" s="8">
+        <v>108954.76</v>
+      </c>
+      <c r="F23" s="11">
         <f t="shared" si="17"/>
         <v>161964.93</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="11">
         <f t="shared" si="17"/>
-        <v>160256.38999999998</v>
-      </c>
-      <c r="H23" s="8">
+        <v>160256.39</v>
+      </c>
+      <c r="H23" s="11">
         <f t="shared" si="17"/>
         <v>154938.66</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="11">
         <f t="shared" si="17"/>
-        <v>170416.47999999998</v>
-      </c>
-      <c r="J23" s="8">
+        <v>170416.48</v>
+      </c>
+      <c r="J23" s="11">
         <f t="shared" si="17"/>
         <v>162087</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="11">
         <f t="shared" si="17"/>
-        <v>184649.52000000002</v>
-      </c>
-      <c r="L23" s="8">
+        <v>184649.52</v>
+      </c>
+      <c r="L23" s="11">
         <f t="shared" si="17"/>
         <v>192824.2</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="11">
         <f t="shared" si="17"/>
         <v>207882.92</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="11">
         <f t="shared" si="17"/>
         <v>205734.57</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="11">
         <f t="shared" si="17"/>
-        <v>267359.22000000003</v>
-      </c>
-      <c r="Q23" s="8">
+        <v>267359.22</v>
+      </c>
+      <c r="Q23" s="11">
         <f t="shared" ref="Q23:AB23" si="18">SUM(Q17:Q22)</f>
         <v>265255.3</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="11">
         <f t="shared" si="18"/>
-        <v>283528.33999999997</v>
-      </c>
-      <c r="S23" s="8">
+        <v>283528.34</v>
+      </c>
+      <c r="S23" s="11">
         <f t="shared" si="18"/>
         <v>281150.98</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="11">
         <f t="shared" si="18"/>
-        <v>317850.69999999995</v>
-      </c>
-      <c r="U23" s="8">
+        <v>317850.7</v>
+      </c>
+      <c r="U23" s="11">
         <f t="shared" si="18"/>
-        <v>348620.79999999999</v>
-      </c>
-      <c r="V23" s="8">
+        <v>348620.8</v>
+      </c>
+      <c r="V23" s="11">
         <f t="shared" si="18"/>
         <v>404304.67</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="11">
         <f t="shared" si="18"/>
-        <v>396963.57999999996</v>
-      </c>
-      <c r="X23" s="8">
+        <v>396963.58</v>
+      </c>
+      <c r="X23" s="11">
         <f t="shared" si="18"/>
         <v>389755.95</v>
       </c>
-      <c r="Y23" s="8">
+      <c r="Y23" s="11">
         <f t="shared" si="18"/>
         <v>382849.73</v>
       </c>
-      <c r="Z23" s="8">
+      <c r="Z23" s="11">
         <f t="shared" si="18"/>
         <v>399632.07</v>
       </c>
-      <c r="AA23" s="8">
+      <c r="AA23" s="11">
         <f t="shared" si="18"/>
         <v>402783.88</v>
       </c>
-      <c r="AB23" s="8">
+      <c r="AB23" s="11">
         <f t="shared" si="18"/>
         <v>426465.5</v>
       </c>
-      <c r="AD23" s="8">
+      <c r="AD23" s="11">
         <f t="shared" ref="AD23:AO23" si="19">SUM(AD17:AD22)</f>
-        <v>477902.41000000003</v>
-      </c>
-      <c r="AE23" s="8">
+        <v>477902.41</v>
+      </c>
+      <c r="AE23" s="11">
         <f t="shared" si="19"/>
         <v>480280.69</v>
       </c>
-      <c r="AF23" s="8">
+      <c r="AF23" s="11">
         <f t="shared" si="19"/>
         <v>511218.75</v>
       </c>
-      <c r="AG23" s="8">
+      <c r="AG23" s="11">
         <f t="shared" si="19"/>
         <v>478512.67</v>
       </c>
-      <c r="AH23" s="8">
+      <c r="AH23" s="11">
         <f t="shared" si="19"/>
         <v>497675.39</v>
       </c>
-      <c r="AI23" s="8">
+      <c r="AI23" s="11">
         <f t="shared" si="19"/>
         <v>469790.32</v>
       </c>
-      <c r="AJ23" s="8">
+      <c r="AJ23" s="11">
         <f t="shared" si="19"/>
         <v>439295.72</v>
       </c>
-      <c r="AK23" s="8">
+      <c r="AK23" s="11">
         <f t="shared" si="19"/>
         <v>438284.74</v>
       </c>
-      <c r="AL23" s="8">
+      <c r="AL23" s="11">
         <f t="shared" si="19"/>
         <v>461844.95</v>
       </c>
-      <c r="AM23" s="8">
+      <c r="AM23" s="11">
         <f t="shared" si="19"/>
         <v>498589.38</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="11">
         <f t="shared" si="19"/>
         <v>511524.07</v>
       </c>
-      <c r="AO23" s="8">
+      <c r="AO23" s="11">
         <f t="shared" si="19"/>
         <v>550438.91</v>
       </c>
-      <c r="AQ23" s="8">
-        <f t="shared" ref="AQ23:BD23" si="20">SUM(AQ17:AQ22)</f>
+      <c r="AQ23" s="11">
+        <f t="shared" ref="AQ23:BE23" si="20">SUM(AQ17:AQ22)</f>
         <v>514349.54</v>
       </c>
-      <c r="AR23" s="8">
+      <c r="AR23" s="11">
         <f t="shared" si="20"/>
         <v>528443.4</v>
       </c>
-      <c r="AS23" s="8">
+      <c r="AS23" s="11">
         <f t="shared" si="20"/>
-        <v>501978.82999999996</v>
-      </c>
-      <c r="AT23" s="8">
+        <v>501978.83</v>
+      </c>
+      <c r="AT23" s="11">
         <f t="shared" si="20"/>
-        <v>499789.06999999995</v>
-      </c>
-      <c r="AU23" s="8">
+        <v>499789.07</v>
+      </c>
+      <c r="AU23" s="11">
         <f t="shared" si="20"/>
         <v>525935.25</v>
       </c>
-      <c r="AV23" s="8">
+      <c r="AV23" s="11">
         <f t="shared" si="20"/>
-        <v>587826.56000000006</v>
-      </c>
-      <c r="AW23" s="8">
+        <v>587826.56</v>
+      </c>
+      <c r="AW23" s="11">
         <f t="shared" si="20"/>
-        <v>570254.55000000005</v>
-      </c>
-      <c r="AX23" s="8">
+        <v>570254.55</v>
+      </c>
+      <c r="AX23" s="11">
         <f t="shared" si="20"/>
-        <v>574698.93999999994</v>
-      </c>
-      <c r="AY23" s="8">
+        <v>574698.94</v>
+      </c>
+      <c r="AY23" s="11">
         <f t="shared" si="20"/>
         <v>565069.9</v>
       </c>
-      <c r="AZ23" s="8">
+      <c r="AZ23" s="11">
         <f t="shared" si="20"/>
         <v>573750.22</v>
       </c>
-      <c r="BA23" s="8">
+      <c r="BA23" s="11">
         <f t="shared" si="20"/>
         <v>599570.66</v>
       </c>
-      <c r="BB23" s="8">
+      <c r="BB23" s="11">
         <f t="shared" si="20"/>
-        <v>644905.44999999995</v>
-      </c>
-      <c r="BD23" s="8">
+        <v>644905.45</v>
+      </c>
+      <c r="BD23" s="11">
         <f t="shared" si="20"/>
         <v>683016.61</v>
       </c>
+      <c r="BE23" s="11">
+        <f t="shared" si="20"/>
+        <v>713686.98</v>
+      </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="7" t="s">
+    <row r="24" spans="1:57">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>51</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="D24" s="3">
         <v>56732.45</v>
       </c>
       <c r="E24" s="3">
         <f>D24+E8-E14</f>
-        <v>53399.549999999996</v>
+        <v>53399.55</v>
       </c>
       <c r="F24" s="3">
         <f>E24+F8-F14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="G24" s="3">
         <f>F24+G8-G14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="H24" s="3">
         <f>G24+H8-H14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" ref="I24:O24" si="21">G24+I8-I14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="21"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="21"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="21"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" si="21"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="21"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="O24" s="3">
         <f t="shared" si="21"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="Q24" s="3">
         <f>O24+Q8-Q14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" ref="R24:AB24" si="22">Q24+R8-R14</f>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="S24" s="3">
         <f t="shared" si="22"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="22"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" si="22"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="V24" s="3">
         <f t="shared" si="22"/>
-        <v>99999.999999999985</v>
+        <v>100000</v>
       </c>
       <c r="W24" s="3">
         <f t="shared" si="22"/>
@@ -8145,208 +8848,216 @@
         <f>BB24+BD8-BD14</f>
         <v>156000</v>
       </c>
+      <c r="BE24" s="3">
+        <f>BD24+BE8-BE14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="8">
+    <row r="25" spans="1:57">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11">
         <f t="shared" ref="D25:O25" si="25">D23-D24</f>
-        <v>39892.050000000003</v>
-      </c>
-      <c r="E25" s="8">
+        <v>39892.05</v>
+      </c>
+      <c r="E25" s="11">
         <f t="shared" si="25"/>
-        <v>55555.210000000014</v>
-      </c>
-      <c r="F25" s="8">
+        <v>55555.21</v>
+      </c>
+      <c r="F25" s="11">
         <f t="shared" si="25"/>
-        <v>61964.930000000008</v>
-      </c>
-      <c r="G25" s="8">
+        <v>61964.93</v>
+      </c>
+      <c r="G25" s="11">
         <f t="shared" si="25"/>
         <v>60256.39</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="11">
         <f t="shared" si="25"/>
-        <v>54938.660000000018</v>
-      </c>
-      <c r="I25" s="8">
+        <v>54938.66</v>
+      </c>
+      <c r="I25" s="11">
         <f t="shared" si="25"/>
-        <v>70416.479999999996</v>
-      </c>
-      <c r="J25" s="8">
+        <v>70416.48</v>
+      </c>
+      <c r="J25" s="11">
         <f t="shared" si="25"/>
-        <v>62087.000000000015</v>
-      </c>
-      <c r="K25" s="8">
+        <v>62087</v>
+      </c>
+      <c r="K25" s="11">
         <f t="shared" si="25"/>
-        <v>84649.520000000033</v>
-      </c>
-      <c r="L25" s="8">
+        <v>84649.52</v>
+      </c>
+      <c r="L25" s="11">
         <f t="shared" si="25"/>
-        <v>92824.200000000026</v>
-      </c>
-      <c r="M25" s="8">
+        <v>92824.2</v>
+      </c>
+      <c r="M25" s="11">
         <f t="shared" si="25"/>
-        <v>107882.92000000003</v>
-      </c>
-      <c r="N25" s="8">
+        <v>107882.92</v>
+      </c>
+      <c r="N25" s="11">
         <f t="shared" si="25"/>
-        <v>105734.57000000002</v>
-      </c>
-      <c r="O25" s="8">
+        <v>105734.57</v>
+      </c>
+      <c r="O25" s="11">
         <f t="shared" si="25"/>
-        <v>167359.22000000003</v>
-      </c>
-      <c r="Q25" s="8">
+        <v>167359.22</v>
+      </c>
+      <c r="Q25" s="11">
         <f t="shared" ref="Q25:AB25" si="26">Q23-Q24</f>
-        <v>165255.29999999999</v>
-      </c>
-      <c r="R25" s="8">
+        <v>165255.3</v>
+      </c>
+      <c r="R25" s="11">
         <f t="shared" si="26"/>
-        <v>183528.33999999997</v>
-      </c>
-      <c r="S25" s="8">
+        <v>183528.34</v>
+      </c>
+      <c r="S25" s="11">
         <f t="shared" si="26"/>
-        <v>181150.97999999998</v>
-      </c>
-      <c r="T25" s="8">
+        <v>181150.98</v>
+      </c>
+      <c r="T25" s="11">
         <f t="shared" si="26"/>
-        <v>217850.69999999995</v>
-      </c>
-      <c r="U25" s="8">
+        <v>217850.7</v>
+      </c>
+      <c r="U25" s="11">
         <f t="shared" si="26"/>
-        <v>248620.79999999999</v>
-      </c>
-      <c r="V25" s="8">
+        <v>248620.8</v>
+      </c>
+      <c r="V25" s="11">
         <f t="shared" si="26"/>
         <v>304304.67</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W25" s="11">
         <f t="shared" si="26"/>
-        <v>226963.57999999996</v>
-      </c>
-      <c r="X25" s="8">
+        <v>226963.58</v>
+      </c>
+      <c r="X25" s="11">
         <f t="shared" si="26"/>
         <v>219755.95</v>
       </c>
-      <c r="Y25" s="8">
+      <c r="Y25" s="11">
         <f t="shared" si="26"/>
-        <v>212849.72999999998</v>
-      </c>
-      <c r="Z25" s="8">
+        <v>212849.73</v>
+      </c>
+      <c r="Z25" s="11">
         <f t="shared" si="26"/>
         <v>229632.07</v>
       </c>
-      <c r="AA25" s="8">
+      <c r="AA25" s="11">
         <f t="shared" si="26"/>
         <v>246783.88</v>
       </c>
-      <c r="AB25" s="8">
+      <c r="AB25" s="11">
         <f t="shared" si="26"/>
         <v>270465.5</v>
       </c>
-      <c r="AD25" s="8">
+      <c r="AD25" s="11">
         <f t="shared" ref="AD25:AO25" si="27">AD23-AD24</f>
-        <v>321902.41000000003</v>
-      </c>
-      <c r="AE25" s="8">
+        <v>321902.41</v>
+      </c>
+      <c r="AE25" s="11">
         <f t="shared" si="27"/>
         <v>324280.69</v>
       </c>
-      <c r="AF25" s="8">
+      <c r="AF25" s="11">
         <f t="shared" si="27"/>
         <v>355218.75</v>
       </c>
-      <c r="AG25" s="8">
+      <c r="AG25" s="11">
         <f t="shared" si="27"/>
         <v>322512.67</v>
       </c>
-      <c r="AH25" s="8">
+      <c r="AH25" s="11">
         <f t="shared" si="27"/>
         <v>341675.39</v>
       </c>
-      <c r="AI25" s="8">
+      <c r="AI25" s="11">
         <f t="shared" si="27"/>
         <v>313790.32</v>
       </c>
-      <c r="AJ25" s="8">
+      <c r="AJ25" s="11">
         <f t="shared" si="27"/>
-        <v>283295.71999999997</v>
-      </c>
-      <c r="AK25" s="8">
+        <v>283295.72</v>
+      </c>
+      <c r="AK25" s="11">
         <f t="shared" si="27"/>
         <v>282284.74</v>
       </c>
-      <c r="AL25" s="8">
+      <c r="AL25" s="11">
         <f t="shared" si="27"/>
         <v>305844.95</v>
       </c>
-      <c r="AM25" s="8">
+      <c r="AM25" s="11">
         <f t="shared" si="27"/>
         <v>342589.38</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="11">
         <f t="shared" si="27"/>
         <v>355524.07</v>
       </c>
-      <c r="AO25" s="8">
+      <c r="AO25" s="11">
         <f t="shared" si="27"/>
-        <v>394438.91000000003</v>
-      </c>
-      <c r="AQ25" s="8">
-        <f t="shared" ref="AQ25:BD25" si="28">AQ23-AQ24</f>
+        <v>394438.91</v>
+      </c>
+      <c r="AQ25" s="11">
+        <f t="shared" ref="AQ25:BE25" si="28">AQ23-AQ24</f>
         <v>358349.54</v>
       </c>
-      <c r="AR25" s="8">
+      <c r="AR25" s="11">
         <f t="shared" si="28"/>
         <v>372443.4</v>
       </c>
-      <c r="AS25" s="8">
+      <c r="AS25" s="11">
         <f t="shared" si="28"/>
-        <v>345978.82999999996</v>
-      </c>
-      <c r="AT25" s="8">
+        <v>345978.83</v>
+      </c>
+      <c r="AT25" s="11">
         <f t="shared" si="28"/>
-        <v>343789.06999999995</v>
-      </c>
-      <c r="AU25" s="8">
+        <v>343789.07</v>
+      </c>
+      <c r="AU25" s="11">
         <f t="shared" si="28"/>
         <v>369935.25</v>
       </c>
-      <c r="AV25" s="8">
+      <c r="AV25" s="11">
         <f t="shared" si="28"/>
-        <v>431826.56000000006</v>
-      </c>
-      <c r="AW25" s="8">
+        <v>431826.56</v>
+      </c>
+      <c r="AW25" s="11">
         <f t="shared" si="28"/>
-        <v>414254.55000000005</v>
-      </c>
-      <c r="AX25" s="8">
+        <v>414254.55</v>
+      </c>
+      <c r="AX25" s="11">
         <f t="shared" si="28"/>
-        <v>418698.93999999994</v>
-      </c>
-      <c r="AY25" s="8">
+        <v>418698.94</v>
+      </c>
+      <c r="AY25" s="11">
         <f t="shared" si="28"/>
         <v>409069.9</v>
       </c>
-      <c r="AZ25" s="8">
+      <c r="AZ25" s="11">
         <f t="shared" si="28"/>
         <v>417750.22</v>
       </c>
-      <c r="BA25" s="8">
+      <c r="BA25" s="11">
         <f t="shared" si="28"/>
-        <v>443570.66000000003</v>
-      </c>
-      <c r="BB25" s="8">
+        <v>443570.66</v>
+      </c>
+      <c r="BB25" s="11">
         <f t="shared" si="28"/>
-        <v>488905.44999999995</v>
-      </c>
-      <c r="BD25" s="8">
+        <v>488905.45</v>
+      </c>
+      <c r="BD25" s="11">
         <f t="shared" si="28"/>
         <v>527016.61</v>
+      </c>
+      <c r="BE25" s="11">
+        <f t="shared" si="28"/>
+        <v>557686.98</v>
       </c>
     </row>
   </sheetData>
@@ -8360,9 +9071,8 @@
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B17:B23"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
@@ -8371,6 +9081,6 @@
     <ignoredError sqref="AE9:AO9 AB15 Y9:AB9" formulaRange="1"/>
     <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23370" windowHeight="11880" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="11880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
@@ -183,11 +183,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -210,7 +210,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,13 +246,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -238,39 +253,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +315,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,38 +337,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -375,7 +375,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,25 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,37 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,13 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,43 +483,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,19 +600,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,24 +677,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,156 +689,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2201,9 +2201,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BE$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BF$1)</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0" c:formatCode="yyyy/mm">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -2353,16 +2353,19 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="yyyy/mm">
                   <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="yyyy/mm">
+                  <c:v>44986</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BB$23,个人现金流量及资产负债表!$BD$23:$BE$23)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$23:$O$23,个人现金流量及资产负债表!$Q$23:$AB$23,个人现金流量及资产负债表!$AD$23:$AO$23,个人现金流量及资产负债表!$AQ$23:$BB$23,个人现金流量及资产负债表!$BD$23:$BF$23)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>96624.5</c:v>
                 </c:pt>
@@ -2512,6 +2515,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>713686.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>722718.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,9 +2592,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BE$1)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BF$1)</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0" c:formatCode="yyyy/mm">
                   <c:v>2019/01</c:v>
                 </c:pt>
@@ -2738,16 +2744,19 @@
                 </c:pt>
                 <c:pt idx="49" c:formatCode="yyyy/mm">
                   <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="yyyy/mm">
+                  <c:v>44986</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BB$25,个人现金流量及资产负债表!$BD$25:$BE$25)</c:f>
+              <c:f>(个人现金流量及资产负债表!$D$25:$O$25,个人现金流量及资产负债表!$Q$25:$AB$25,个人现金流量及资产负债表!$AD$25:$AO$25,个人现金流量及资产负债表!$AQ$25:$BB$25,个人现金流量及资产负债表!$BD$25:$BF$25)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>39892.05</c:v>
                 </c:pt>
@@ -2897,6 +2906,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>557686.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>566718.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,7 +3072,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;￥&quot;#,##0_);[Red]\(&quot;￥&quot;#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3158,14 +3170,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>58</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>259260</xdr:colOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>11610</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>8385</xdr:rowOff>
     </xdr:to>
@@ -3175,7 +3187,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="48577500" y="0"/>
+        <a:off x="49377600" y="0"/>
         <a:ext cx="5421630" cy="4637405"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3188,14 +3200,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>58</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>621210</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>56010</xdr:rowOff>
     </xdr:to>
@@ -3205,7 +3217,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="48387000" y="47625"/>
+        <a:off x="49187100" y="47625"/>
         <a:ext cx="5421630" cy="4637405"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3477,12 +3489,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:ANL25"/>
+  <dimension ref="A1:ANM25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="BB1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="BF38" sqref="BF38"/>
+      <selection pane="topRight" activeCell="BI32" sqref="BI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3499,13 +3511,13 @@
     <col min="42" max="42" width="12" style="3" customWidth="1"/>
     <col min="43" max="54" width="10.5" style="3" customWidth="1"/>
     <col min="55" max="55" width="12.25" style="3" customWidth="1"/>
-    <col min="56" max="57" width="10.5" style="3" customWidth="1"/>
-    <col min="58" max="58" width="12.25" style="3" customWidth="1"/>
-    <col min="59" max="96" width="10.5" style="3" customWidth="1"/>
-    <col min="97" max="1052" width="10.5" style="2" customWidth="1"/>
+    <col min="56" max="58" width="10.5" style="3" customWidth="1"/>
+    <col min="59" max="59" width="12.25" style="3" customWidth="1"/>
+    <col min="60" max="97" width="10.5" style="3" customWidth="1"/>
+    <col min="98" max="1053" width="10.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1052">
+    <row r="1" s="1" customFormat="1" spans="1:1053">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3673,10 +3685,12 @@
       <c r="BE1" s="5">
         <v>44958</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BF1" s="5">
+        <v>44986</v>
+      </c>
+      <c r="BG1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="BG1" s="13"/>
       <c r="BH1" s="13"/>
       <c r="BI1" s="13"/>
       <c r="BJ1" s="13"/>
@@ -4670,8 +4684,9 @@
       <c r="ANJ1" s="13"/>
       <c r="ANK1" s="13"/>
       <c r="ANL1" s="13"/>
+      <c r="ANM1" s="13"/>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:59">
       <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
@@ -4848,11 +4863,14 @@
         <v>17061</v>
       </c>
       <c r="BF2" s="3">
-        <f>SUM(BD2:BE2)</f>
-        <v>57402</v>
+        <v>16970</v>
+      </c>
+      <c r="BG2" s="3">
+        <f>SUM(BD2:BF2)</f>
+        <v>74372</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:59">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
@@ -5025,11 +5043,14 @@
         <v>0</v>
       </c>
       <c r="BF3" s="3">
-        <f t="shared" ref="BF3:BF16" si="4">SUM(BD3:BE3)</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="3">
+        <f t="shared" ref="BG3:BG16" si="4">SUM(BD3:BF3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:59">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
@@ -5203,11 +5224,14 @@
         <v>95.33</v>
       </c>
       <c r="BF4" s="3">
+        <v>17.4</v>
+      </c>
+      <c r="BG4" s="3">
         <f t="shared" si="4"/>
-        <v>275.87</v>
+        <v>293.27</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:59">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
@@ -5380,11 +5404,14 @@
         <v>0</v>
       </c>
       <c r="BF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:59">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
@@ -5557,11 +5584,14 @@
         <v>0</v>
       </c>
       <c r="BF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:59">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -5734,11 +5764,14 @@
         <v>0</v>
       </c>
       <c r="BF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:59">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
@@ -5911,11 +5944,14 @@
         <v>0</v>
       </c>
       <c r="BF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:59">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -6138,11 +6174,15 @@
         <v>17156.33</v>
       </c>
       <c r="BF9" s="3">
+        <f>SUM(BF2:BF8)</f>
+        <v>16987.4</v>
+      </c>
+      <c r="BG9" s="3">
         <f t="shared" si="4"/>
-        <v>57677.87</v>
+        <v>74665.27</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:59">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>36</v>
@@ -6318,11 +6358,14 @@
         <v>4276.5</v>
       </c>
       <c r="BF10" s="3">
+        <v>904.5</v>
+      </c>
+      <c r="BG10" s="3">
         <f t="shared" si="4"/>
-        <v>5327.58</v>
+        <v>6232.08</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:59">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
@@ -6495,11 +6538,14 @@
         <v>0</v>
       </c>
       <c r="BF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:59">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
@@ -6673,11 +6719,14 @@
         <v>3462.32</v>
       </c>
       <c r="BF12" s="3">
+        <v>1718.58</v>
+      </c>
+      <c r="BG12" s="3">
         <f t="shared" si="4"/>
-        <v>9948.16</v>
+        <v>11666.74</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:59">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -6850,11 +6899,14 @@
         <v>0</v>
       </c>
       <c r="BF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:59">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
@@ -7027,11 +7079,14 @@
         <v>0</v>
       </c>
       <c r="BF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:59">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
@@ -7254,11 +7309,15 @@
         <v>7738.82</v>
       </c>
       <c r="BF15" s="3">
+        <f>SUM(BF10:BF14)</f>
+        <v>2623.08</v>
+      </c>
+      <c r="BG15" s="3">
         <f t="shared" si="4"/>
-        <v>15275.74</v>
+        <v>17898.82</v>
       </c>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:59">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>42</v>
@@ -7481,11 +7540,15 @@
         <v>9417.51</v>
       </c>
       <c r="BF16" s="3">
+        <f>BF9-BF15</f>
+        <v>14364.32</v>
+      </c>
+      <c r="BG16" s="3">
         <f t="shared" si="4"/>
-        <v>42402.13</v>
+        <v>56766.45</v>
       </c>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:58">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -7646,8 +7709,11 @@
       <c r="BE17" s="3">
         <v>0</v>
       </c>
+      <c r="BF17" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:58">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
@@ -7805,8 +7871,11 @@
       <c r="BE18" s="3">
         <v>239463.99</v>
       </c>
+      <c r="BF18" s="3">
+        <v>244602.96</v>
+      </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:58">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
@@ -7963,8 +8032,11 @@
       <c r="BE19" s="3">
         <v>29771.97</v>
       </c>
+      <c r="BF19" s="3">
+        <v>30071.97</v>
+      </c>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:58">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
@@ -8121,8 +8193,11 @@
       <c r="BE20" s="3">
         <v>5837.67</v>
       </c>
+      <c r="BF20" s="3">
+        <v>5976.6</v>
+      </c>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:58">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
@@ -8279,8 +8354,11 @@
       <c r="BE21" s="3">
         <v>0</v>
       </c>
+      <c r="BF21" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:58">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
@@ -8437,8 +8515,11 @@
       <c r="BE22" s="3">
         <v>438613.35</v>
       </c>
+      <c r="BF22" s="3">
+        <v>442067.27</v>
+      </c>
     </row>
-    <row r="23" spans="1:57">
+    <row r="23" spans="1:58">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
@@ -8644,8 +8725,12 @@
         <f t="shared" si="20"/>
         <v>713686.98</v>
       </c>
+      <c r="BF23" s="11">
+        <f>SUM(BF17:BF22)</f>
+        <v>722718.8</v>
+      </c>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:58">
       <c r="A24" s="9"/>
       <c r="B24" s="10" t="s">
         <v>51</v>
@@ -8852,8 +8937,12 @@
         <f>BD24+BE8-BE14</f>
         <v>156000</v>
       </c>
+      <c r="BF24" s="3">
+        <f>BE24+BF8-BF14</f>
+        <v>156000</v>
+      </c>
     </row>
-    <row r="25" spans="1:57">
+    <row r="25" spans="1:58">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>53</v>
@@ -9058,6 +9147,10 @@
       <c r="BE25" s="11">
         <f t="shared" si="28"/>
         <v>557686.98</v>
+      </c>
+      <c r="BF25" s="11">
+        <f>BF23-BF24</f>
+        <v>566718.8</v>
       </c>
     </row>
   </sheetData>
@@ -9078,8 +9171,8 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="AE9:AO9 AB15 Y9:AB9" formulaRange="1"/>
-    <ignoredError sqref="AC15:AC16 AC9 P9 P15:P16" formula="1"/>
+    <ignoredError sqref="Y9:AB9 AB15 AE9:AO9" formulaRange="1"/>
+    <ignoredError sqref="P15:P16 P9 AC9 AC15:AC16" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/资产负债表.xlsx
+++ b/资产负债表.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\finance\recording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82E757C-0714-47F8-9E6E-DFF516924AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="11880" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="300" windowWidth="23256" windowHeight="12348" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="个人现金流量及资产负债表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -181,15 +198,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -209,158 +222,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,194 +241,8 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -596,251 +278,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -852,22 +292,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,58 +312,20 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1006,12 +399,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1046,13 +442,9 @@
               </a:rPr>
               <a:t>资金总量</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Arial"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1071,15 +463,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"总资产"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>总资产</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>总资产</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1115,6 +499,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1127,9 +512,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1138,152 +521,152 @@
               <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
-                <c:pt idx="0" c:formatCode="yyyy/mm">
+                <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/mm">
+                <c:pt idx="1">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/mm">
+                <c:pt idx="2">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/mm">
+                <c:pt idx="3">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/mm">
+                <c:pt idx="4">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/mm">
+                <c:pt idx="5">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/mm">
+                <c:pt idx="6">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/mm">
+                <c:pt idx="7">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/mm">
+                <c:pt idx="8">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/mm">
+                <c:pt idx="9">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/mm">
+                <c:pt idx="10">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/mm">
+                <c:pt idx="11">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/mm">
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/mm">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/mm">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/mm">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/mm">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/mm">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/mm">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/mm">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/mm">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/mm">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/mm">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/mm">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/mm">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/mm">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/mm">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/mm">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/mm">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/mm">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/mm">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="yyyy/mm">
-                  <c:v>44409</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="yyyy/mm">
-                  <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="yyyy/mm">
-                  <c:v>44470</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="yyyy/mm">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="yyyy/mm">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="yyyy/mm">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="yyyy/mm">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="yyyy/mm">
-                  <c:v>44621</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="yyyy/mm">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="yyyy/mm">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="yyyy/mm">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="yyyy/mm">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="yyyy/mm">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="yyyy/mm">
-                  <c:v>44805</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="yyyy/mm">
-                  <c:v>44835</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="yyyy/mm">
-                  <c:v>44866</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="yyyy/mm">
-                  <c:v>44896</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="yyyy/mm">
-                  <c:v>44927</c:v>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021/10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021/11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021/12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022/01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022/02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022/03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022/04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022/05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022/06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022/07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2022/08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022/09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2022/10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2022/11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2022/12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2023/01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1298,25 +681,25 @@
                   <c:v>96624.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108954.76</c:v>
+                  <c:v>108954.76000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>161964.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160256.39</c:v>
+                  <c:v>160256.38999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>154938.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170416.48</c:v>
+                  <c:v>170416.47999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>162087</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>184649.52</c:v>
+                  <c:v>184649.52000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>192824.2</c:v>
@@ -1328,28 +711,28 @@
                   <c:v>205734.57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>267359.22</c:v>
+                  <c:v>267359.22000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>265255.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>283528.34</c:v>
+                  <c:v>283528.33999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>281150.98</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>317850.7</c:v>
+                  <c:v>317850.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>348620.8</c:v>
+                  <c:v>348620.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>404304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>396963.58</c:v>
+                  <c:v>396963.57999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>389755.95</c:v>
@@ -1367,7 +750,7 @@
                   <c:v>426465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>477902.41</c:v>
+                  <c:v>477902.41000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>480280.69</c:v>
@@ -1409,22 +792,22 @@
                   <c:v>528443.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>501978.83</c:v>
+                  <c:v>501978.82999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>499789.07</c:v>
+                  <c:v>499789.06999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>525935.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>587826.56</c:v>
+                  <c:v>587826.56000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>570254.55</c:v>
+                  <c:v>570254.55000000005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>574698.94</c:v>
+                  <c:v>574698.93999999994</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>565069.9</c:v>
@@ -1436,7 +819,7 @@
                   <c:v>599570.66</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>644905.45</c:v>
+                  <c:v>644905.44999999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>683016.61</c:v>
@@ -1445,20 +828,17 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-226A-482B-91BC-D0743F64507C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"净资产"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>净资产</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>净资产</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28800" cap="rnd" cmpd="sng" algn="ctr">
@@ -1494,6 +874,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1506,9 +887,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1517,152 +896,152 @@
               <c:f>(个人现金流量及资产负债表!$D$1:$O$1,个人现金流量及资产负债表!$Q$1:$AB$1,个人现金流量及资产负债表!$AD$1:$AO$1,个人现金流量及资产负债表!$AQ$1:$BB$1,个人现金流量及资产负债表!$BD$1:$BD$1)</c:f>
               <c:strCache>
                 <c:ptCount val="49"/>
-                <c:pt idx="0" c:formatCode="yyyy/mm">
+                <c:pt idx="0">
                   <c:v>2019/01</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/mm">
+                <c:pt idx="1">
                   <c:v>2019/02</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/mm">
+                <c:pt idx="2">
                   <c:v>2019/03</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/mm">
+                <c:pt idx="3">
                   <c:v>2019/04</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/mm">
+                <c:pt idx="4">
                   <c:v>2019/05</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/mm">
+                <c:pt idx="5">
                   <c:v>2019/06</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/mm">
+                <c:pt idx="6">
                   <c:v>2019/07</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/mm">
+                <c:pt idx="7">
                   <c:v>2019/08</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/mm">
+                <c:pt idx="8">
                   <c:v>2019/09</c:v>
                 </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/mm">
+                <c:pt idx="9">
                   <c:v>2019/10</c:v>
                 </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/mm">
+                <c:pt idx="10">
                   <c:v>2019/11</c:v>
                 </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/mm">
+                <c:pt idx="11">
                   <c:v>2019/12</c:v>
                 </c:pt>
-                <c:pt idx="12" c:formatCode="yyyy/mm">
+                <c:pt idx="12">
                   <c:v>2020/01</c:v>
                 </c:pt>
-                <c:pt idx="13" c:formatCode="yyyy/mm">
+                <c:pt idx="13">
                   <c:v>2020/02</c:v>
                 </c:pt>
-                <c:pt idx="14" c:formatCode="yyyy/mm">
+                <c:pt idx="14">
                   <c:v>2020/03</c:v>
                 </c:pt>
-                <c:pt idx="15" c:formatCode="yyyy/mm">
+                <c:pt idx="15">
                   <c:v>2020/04</c:v>
                 </c:pt>
-                <c:pt idx="16" c:formatCode="yyyy/mm">
+                <c:pt idx="16">
                   <c:v>2020/05</c:v>
                 </c:pt>
-                <c:pt idx="17" c:formatCode="yyyy/mm">
+                <c:pt idx="17">
                   <c:v>2020/06</c:v>
                 </c:pt>
-                <c:pt idx="18" c:formatCode="yyyy/mm">
+                <c:pt idx="18">
                   <c:v>2020/07</c:v>
                 </c:pt>
-                <c:pt idx="19" c:formatCode="yyyy/mm">
+                <c:pt idx="19">
                   <c:v>2020/08</c:v>
                 </c:pt>
-                <c:pt idx="20" c:formatCode="yyyy/mm">
+                <c:pt idx="20">
                   <c:v>2020/09</c:v>
                 </c:pt>
-                <c:pt idx="21" c:formatCode="yyyy/mm">
+                <c:pt idx="21">
                   <c:v>2020/10</c:v>
                 </c:pt>
-                <c:pt idx="22" c:formatCode="yyyy/mm">
+                <c:pt idx="22">
                   <c:v>2020/11</c:v>
                 </c:pt>
-                <c:pt idx="23" c:formatCode="yyyy/mm">
+                <c:pt idx="23">
                   <c:v>2020/12</c:v>
                 </c:pt>
-                <c:pt idx="24" c:formatCode="yyyy/mm">
-                  <c:v>44197</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="yyyy/mm">
-                  <c:v>44228</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="yyyy/mm">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="yyyy/mm">
-                  <c:v>44287</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="yyyy/mm">
-                  <c:v>44317</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="yyyy/mm">
-                  <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="yyyy/mm">
-                  <c:v>44378</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="yyyy/mm">
-                  <c:v>44409</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="yyyy/mm">
-                  <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="yyyy/mm">
-                  <c:v>44470</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="yyyy/mm">
-                  <c:v>44501</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="yyyy/mm">
-                  <c:v>44531</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="yyyy/mm">
-                  <c:v>44562</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="yyyy/mm">
-                  <c:v>44593</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="yyyy/mm">
-                  <c:v>44621</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="yyyy/mm">
-                  <c:v>44652</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="yyyy/mm">
-                  <c:v>44682</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="yyyy/mm">
-                  <c:v>44713</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="yyyy/mm">
-                  <c:v>44743</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="yyyy/mm">
-                  <c:v>44774</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="yyyy/mm">
-                  <c:v>44805</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="yyyy/mm">
-                  <c:v>44835</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="yyyy/mm">
-                  <c:v>44866</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="yyyy/mm">
-                  <c:v>44896</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="yyyy/mm">
-                  <c:v>44927</c:v>
+                <c:pt idx="24">
+                  <c:v>2021/01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021/02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021/03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021/04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021/05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021/06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021/07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021/08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021/09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021/10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021/11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021/12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022/01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2022/02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022/03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2022/04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2022/05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2022/06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2022/07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2022/08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2022/09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2022/10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2022/11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2022/12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2023/01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1674,67 +1053,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>39892.05</c:v>
+                  <c:v>39892.050000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55555.21</c:v>
+                  <c:v>55555.210000000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61964.93</c:v>
+                  <c:v>61964.930000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>60256.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54938.66</c:v>
+                  <c:v>54938.660000000018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70416.48</c:v>
+                  <c:v>70416.479999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62087</c:v>
+                  <c:v>62087.000000000015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84649.52</c:v>
+                  <c:v>84649.520000000033</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92824.2</c:v>
+                  <c:v>92824.200000000026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>107882.92</c:v>
+                  <c:v>107882.92000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105734.57</c:v>
+                  <c:v>105734.57000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>167359.22</c:v>
+                  <c:v>167359.22000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165255.3</c:v>
+                  <c:v>165255.29999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>183528.34</c:v>
+                  <c:v>183528.33999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>181150.98</c:v>
+                  <c:v>181150.97999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>217850.7</c:v>
+                  <c:v>217850.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>248620.8</c:v>
+                  <c:v>248620.79999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>304304.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226963.58</c:v>
+                  <c:v>226963.57999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>219755.95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212849.73</c:v>
+                  <c:v>212849.72999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>229632.07</c:v>
@@ -1746,7 +1125,7 @@
                   <c:v>270465.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>321902.41</c:v>
+                  <c:v>321902.41000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>324280.69</c:v>
@@ -1764,7 +1143,7 @@
                   <c:v>313790.32</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>283295.72</c:v>
+                  <c:v>283295.71999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>282284.74</c:v>
@@ -1779,7 +1158,7 @@
                   <c:v>355524.07</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>394438.91</c:v>
+                  <c:v>394438.91000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>358349.54</c:v>
@@ -1788,22 +1167,22 @@
                   <c:v>372443.4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>345978.83</c:v>
+                  <c:v>345978.82999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>343789.07</c:v>
+                  <c:v>343789.06999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>369935.25</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>431826.56</c:v>
+                  <c:v>431826.56000000006</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>414254.55</c:v>
+                  <c:v>414254.55000000005</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>418698.94</c:v>
+                  <c:v>418698.93999999994</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>409069.9</c:v>
@@ -1812,10 +1191,10 @@
                   <c:v>417750.22</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>443570.66</c:v>
+                  <c:v>443570.66000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>488905.45</c:v>
+                  <c:v>488905.44999999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>527016.61</c:v>
@@ -1824,6 +1203,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-226A-482B-91BC-D0743F64507C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1842,7 +1226,6 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="52376106"/>
         <c:axId val="74300066"/>
@@ -1876,13 +1259,9 @@
                   </a:rPr>
                   <a:t>时间</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                  <a:latin typeface="Arial"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1918,6 +1297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74300066"/>
@@ -1967,13 +1347,9 @@
                   </a:rPr>
                   <a:t>资金量</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
-                  <a:latin typeface="Arial"/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2009,6 +1385,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="52376106"/>
@@ -2026,7 +1403,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2042,6 +1418,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2066,6 +1443,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2